--- a/SVM.xlsx
+++ b/SVM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>System Generaed</t>
   </si>
@@ -41,679 +41,659 @@
     <t>Original</t>
   </si>
   <si>
-    <t>لودفيج فان بيتهوفن مؤلف موسيقي ألماني ولد عام 1770 م في مدينة بون. يعتبر من أبرز عباقرة الموسيقى في جميع العصور، وأبدع أعمالاً موسيقية خالدة. له الفضل الأعظم في تطوير الموسيقى الكلاسيكية. قدم أول عمل موسيقي وعمره 8 سنوات.تشمل مؤلفاته للأوركسترا تسـعة سيمفونيات وخمس مقطوعات موسيقية على البيانو ومقطوعة على الكمان. كما ألّف العديد من المقطوعات الموسيقية كمقدمات للأوبرا.بدأ بيتهوفن يفقد سمعه في الثلاثينيات من عمره إلا أن ذلك لم يؤثر على إنتاجه الذي ازداد في تلك الفترة وتميز بالإبداع. من أجمل أعماله السمفونية الخامسة والسادسة والتاسعة. وقد توفي في فيينا عام 1827م.شهدت مدينة بون الألمانية ميلاد الفنان العبقري لودفج فان بيتهوفن في 16 ديسمبر عام 1770، وتم تعميده في 17 ديسمبر 1770. ظهر تميزه الموسيقي منذ صغره، فنشرت أولى أعماله وهو في الثانية عشرمن عمره عام 1783 م. اتسعت شهرته كعازف بيانو في سن مبكرة، ثم زاد إنتاجه وذاع صيته كمؤلف موسيقى. عانى بيتهوفن كثيراً في حياته، عائلياً وصحياً، فبالرغم من أن أباه هو معلمه الأول الذي وجه اهتمامه للموسيقى ولقنه العزف على البيانو والكمان، إلا أنه لم يكن الأب المثالي، فقد كان مدمناً للكحول، كما أن والدته توفيت وهو في السابعة عشر من عمره بعد صراع طويل مع المرض، تاركة له مسؤولية العائلة. مما منعه من إتمام خطته والسفر إلى فيينا، عاصمة الموسيقى في ذلك العصر. فهل كان التأليف الموسيقي هو نوع من أنواع العلاج والتغلب على المشاكل بالنسبة لبيتهوفن.في 1789 م تحقق حلمه أخيراً، فقد أرسله حاكم بون إلى فيينا، وهناك تتلمذ على يد هايدن. ولكن بيتهوفن، صاحب الألحان واجه بعض الخلافات مع معلمه، وعندما سافر هايدن إلى لندن، تحول بيتهوفن إلى معلمين آخرين مثل ساليري وشينك وألبريشتبيرجر. وقد أسهمت كل هذه الدروس والاحتكاكات في تكوين شخصية بيتهوفن الفنية. وحاول أن يشق لنفسه طريق كعازف في عاصمة الموسيقى، وسرعان ما لاقى مكانة كبرى خاصة في الأوساط الأرستقراطية. فقد حاز بإعجاب الأسرة الملكية وعومل كصديق أكثر منه مؤلفاً. بالرغم من ذلك فقد عاش ومات فقيراً، غناه هو أعماله الفنية المتميزة. فقد جاء إنتاجه الفني غزيراً حتى بعد إصابته بالصمم.بدأت إصابة بيتهوفن بصمم بسيط عام 1802، فبدأ في الانسحاب من الأوساط الفنية تدريجياً، وأمضى حياته بلا زواج يرتبط بعلاقات عدة مع سيدات صغيرات. إلا أنه لم يتوقف عن الإنتاج الفني، ولكن أعماله اتخذت اتجاه جديد. ومع ازدياد حالة الصمم التي أصابته، امتنع عن العزف في الحفلات العامة، وابتعد عن الحياة الاجتماعية واتجه للوحدة، وقلت مؤلفاته، وأصبحت أكثر تعقيداً. حتى أنه رد على انتقادات نقاده بأنه يعزف للأجيال القادمة. وبالفعل مازالت أعماله حتى اليوم من أهم ما أنتجته الموسيقى الكلاسيكية العالمية. واكتسبت اثنان من السيمفونيات التي كتبها في صممه أكبر شعبية، وهما السيمفونية الخامسة والتاسعة. كما أنه أحدث الكثير من التغييرات في الموسيقى، وأدخل الغناء والكلمات في سيمفونيته التاسعة.فجاءت رسالته إلى العالم كل البشر سيصبحون إخوة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> له الفضل الاعظم في تطوير الموسيقى الكلاسيكية. بدا بيتهوفن يفقد سمعه في الثلاثينيات من عمره الا ان ذلك لم يؤثر على انتاجه الذي ازداد في تلك الفترة وتميز بالابداع.  اتسعت شهرته كعازف بيانو في سن مبكرة، ثم زاد انتاجه وذاع صيته كمؤلف موسيقى. في 1789 م تحقق حلمه اخيراً، فقد ارسله حاكم بون الى فيينا، وهناك تتلمذ على يد هايدن. فجاءت رسالته الى العالم كل البشر سيصبحون اخوة. </t>
-  </si>
-  <si>
-    <t>لودفيج فان بيتهوفن مؤلف موسيقي ألماني ولد عام 1770 م في مدينة بون.يعتبر من أبرز عباقرة الموسيقى في جميع العصور، وأبدع أعمالاً موسيقية خالدة.مدينة بون الألمانية ميلاد الفنان العبقري لودفج فان بيتهوفن في 16 ديسمبر عام 1770، وتم تعميده في 17 ديسمبر 1770.ظهر تميزه الموسيقي منذ صغره، فنشرت أولى أعماله وهو في الثانية عشرمن عمره عام 1783 م. اتسعت شهرته كعازف بيانو في سن مبكرة، ثم زاد إنتاجه وذاع صيته كمؤلف موسيقى.1789 م تحقق حلمه أخيراً، فقد أرسله حاكم بون إلى فيينا، وهناك تتلمذ على يد هايدن.</t>
-  </si>
-  <si>
-    <t>الناي آلة نفخية تعد بحق أقدم آلة موسيقية في التاريخ ( إذا استثنينا الآلات الإيقاعية ( وللناي عدة أسماء تعرف بها منها الناي القصبة الشبابة المنجيرة . والناي كلمة فارسية تعني المزمار . هي قصبة مفتوحة الطرفين يعزف عليها بواسطة وضع الفم على أحد طرفيها مع إمالته قليلا بزاوية مما يجعل الهواء يصطدم بجدارها الداخلي مصدرا بالنتيجة صوتا شجيا هو أقرب الأصوات وأجملها بالنسبة للإنسان .وللناي ستة ثقوب ( وأحيانا سبعه ) وثقب في منتصف القصبة من الأسفل. وتسد هذه الثقوب وتفتح حسب درجة الصوت ولإخراج العلامات بتسلسل يستطيع معه العازف إخراج العلامات الموسيقية لإخراج اللحن المطلوب . والثقب الخلفي يسد بالإبهام ويستخدم لإظهار جواب العلامة الدنيا التي تظهر في البداية . وتحتاج هذه الآلة إلى براعة شديدة حيث لها 3 تقنيات.التقنية الأولى : هي طريقة النفخ حيث أن إخراج الصوت الطبيعي منها هي أول صعوبة يجب التغلب عليها لمن أراد التعلم عليها . لذلك ينصح عادة بأن يتمرن من يريد التعلم بالتدريب على إخراج الصوت أولا ومن ثم عندما يستطيع ذلك يبدأ بالتعلم على إخراج الدرجات الصوتية ( تمرين الأصابع ) . والعازف الخبير يستطيع بتغيير طريقة النفخ التلاعب بهذه الآلة الخطيرة حيث يستطيع العازف المتمكن أن يخرج أكثر من سبع علامات صحيحة أو حتى أكتر من أوكتاف ( ديوان ) فالآلة تنتج 7 أصوات صحيحة تماما وبالتالي يستطيع العازف الخبير أن ينتج 7 أصوات أخفض و 7 أصوات أعلى . التقنية الثانية : هي إمالة الشبابة بأكثر من زاوية لإخراج أصوات معينة أو ربع التون . التقنية الثالثة : وهي طريقة سد الثقوب بحيث ينتج الأصوات المطلوبة أو سد الثقوب بطريقة معينة لإنتاج ربع التون ( العلامات الشرقية ) . وآلة الناي آلة أساسية في التخت الشرقي التقليدي حيث أن صوتها قريب جدا إلى الأذن البشرية .وقد اعتاد إخواننا المصريين إضافة عدة آلات تشبهها بالطريقة ( مع الاختلاف بطبيعة الصوت ) ومنها آلة الكولة ولكنهم لم يلغوا هذه الآلة العظيمة . عيوب هذه الآلة كثيرة أبرزها أن صوتها ليس ثابتا لذلك تعتمد كثيرا على أذن العازف الذي يجب ان يكون بارعا وذو أذن صافية ممتازة حتى تؤدي دورها الصحيح . والعيب الثاني أن لكل ناي درجة صوتية يبدأ منها ولذلك تجد أن العازف عادة ما يملك أكثر من ناي وعادة ما يكون عددها سبع وإن كان بعض العازفين المهرة جدا يكتفون بأربع أو ثلاث قصبات ويتحايلون على بقية المقامات.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الناي آلة نفخية تعد بحق اقدم آلة موسيقية في التاريخ ( اذا استثنينا الآلات الايقاعية ( وللناي عدة اسماء تعرف بها منها الناي القصبة الشبابة المنجيرة . التقنية الاولى : هي طريقة النفخ حيث ان اخراج الصوت الطبيعي منها هي اول صعوبة يجب التغلب عليها لمن اراد التعلم عليها .  والعازف الخبير يستطيع بتغيير طريقة النفخ التلاعب بهذه الآلة الخطيرة حيث يستطيع العازف المتمكن ان يخرج اكثر من سبع علامات صحيحة او حتى اكتر من اوكتاف ( ديوان ) فالآلة تنتج 7 اصوات صحيحة تماما وبالتالي يستطيع العازف الخبير ان ينتج 7 اصوات اخفض و 7 اصوات اع.  التقنية الثانية : هي امالة الشبابة باكثر من زاوية لاخراج اصوات معينة او ربع التون .  التقنية الثالثة : وهي طريقة سد الثقوب بحيث ينتج الاصوات المطلوبة او سد الثقوب بطريقة معينة لانتاج ربع التون ( العلامات الشرقية ) . وقد اعتاد اخواننا المصريين اضافة عدة آلات تشبهها بالطريقة ( مع الاختلاف بطبيعة الصوت ) ومنها آلة الكولة ولكنهم لم يلغوا هذه الآلة العظيمة .  عيوب هذه الآلة كثيرة ابرزها ان صوتها ليس ثابتا لذلك تعتمد كثيرا على اذن العازف الذي يجب ان يكون بارعا وذو اذن صافية ممتازة حتى تؤدي دورها الصحيح .  والعيب الثاني ان لكل ناي درجة صوتية يبدا منها ولذلك تجد ان العازف عادة ما يملك اكثر من ناي وعادة ما يكون عددها سبع وان كان بعض العازفين المهرة جدا يكتفون باربع او ثلاث قصبات ويتحايلون على بقية المقامات. </t>
-  </si>
-  <si>
-    <t>الناي آلة نفخية تعد بحق أقدم آلة موسيقية في التاريخ ( إذا استثنينا الآلات الإيقاعية ( وللناي عدة أسماء تعرف بها منها الناي القصبة الشبابة المنجيرة .والناي كلمة فارسية تعني المزمار .هي قصبة مفتوحة الطرفين يعزف عليها بواسطة وضع الفم على أحد طرفيها مع إمالته قليلا بزاوية مما يجعل الهواء يصطدم بجدارها الداخلي مصدرا بالنتيجة صوتا شجيا هو أقرب الأصوات وأجملها بالنسبة للإنسان .وللنايوتسد هذه الثقوب وتفتح حسب درجة الصوت ولإخراج العلامات بتسلسل يستطيع معه العازف إخراج العلامات الموسيقية لإخراج اللحن المطلوب .وتحتاج هذه الآلة إلى براعة شديدة حيث لها 3 تقنيات.التقنيةوالعازف الخبير يستطيع بتغيير طريقة النفخ التلاعب بهذه الآلة الخطيرة حيث يستطيع العازف المتمكن أن يخرج أكثر من سبع علامات صحيحة أو حتى أكتر من أوكتاف ( ديوان ) فالآلة تنتج 7 أصوات صحيحة تماما وبالتالي يستطيع العازف الخبير أن ينتج 7 أصوات أخفض و 7 أصوات أعلى .عيوب هذه الآلة كثيرة أبرزها أن صوتها ليس ثابتا لذلك تعتمد كثيرا على أذن العازف الذي يجب ان يكون بارعا وذو أذن صافية ممتازة حتى تؤدي دورها الصحيح .والعيب الثاني أن لكل ناي درجة صوتية يبدأ منها ولذلك تجد أن العازف عادة ما يملك أكثر من ناي وعادة ما يكون عددها سبع وإن كان بعض العازفين المهرة جدا يكتفون بأربع أو ثلاث قصبات ويتحايلون على بقية المقامات.</t>
-  </si>
-  <si>
-    <t>العود هي آلة موسيقية شرقية وترية تاريخها موغل بالقدم يرجعه البعض إلى نوح.و تعني كلمة العود في اللغة العربية الخشب .فالعود من الآلات الوترية العربية له خمسة أوتار ثنائية أو و يمكن ربط وتر سادس إلى العود و يغطي مجاله الصوتي حوالي الأوكتافين و نصف الأوكتاف.الأدبيات الشرقيةالموسيقية كلها تظهر وتؤكد على استخدام نوع أو أكثر من الأعواد.يعتبر العود آلة رئيسية في التخت الموسيقي الشرقي, في التاريخ الحديث هناك أكثر من دولة عربية تدعي تفوقها في صناعة الأعواد ولكن بغداد لها السبق في ذلك ففي بغداد هناك أكثر من حرفي يفوم بصنعها, وبذلك غدا العود العراقي ذا سمعة عالمية جعلت كبار الملحنين والمطربين في العالم العربي يفضلونه على غيره, ومن أحد صناع العود المحدثين في العراق سمير رشيد العواد الذي يتسابق الفنانون العرب للحصول على أحد الأعواد من صنعه, مثل المطرب الكويتي نبيل شعيل ، والمطرب اللبناني الكبير وديع الصافي والمطرب العراقي المشهور كاظم الساهر والمطرب مهند محسن والمطرب ياس خضر والموسيقار منير بشير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العود هي آلة موسيقية شرقية وترية تاريخها موغل بالقدم يرجعه البعض الى نوح. الادبيات الشرقيةالموسيقية كلها تظهر وتؤكد على استخدام نوع او اكثر من الاعواد. </t>
-  </si>
-  <si>
-    <t>العود هي آلة موسيقية شرقية وترية تاريخها موغل بالقدم يرجعه البعض إلى نوح.و تعني كلمة العود في اللغة العربية الخشب .فالعودالعود آلة رئيسية في التخت الموسيقي الشرقي, في التاريخ الحديث هناك أكثر من دولة عربية تدعي تفوقها في صناعة الأعواد ولكن بغداد لها السبق في ذلك ففي بغداد هناك أكثر من حرفي يفوم بصنعها, وبذلك غدا العود العراقي ذا سمعة عالمية جعلت كبار الملحنين والمطربين في العالم العربي يفضلونه على غيره, ومن أحد صناع العود المحدثين في العراق سمير رشيد العواد الذي يتسابق الفنانون العرب للحصول على أحد الأعواد من صنعه, مثل المطرب الكويتي نبيل شعيل ، والمطرب اللبناني الكبير وديع الصافي والمطرب العراقي المشهور كاظم الساهر والمطرب مهند محسن والمطرب ياس خضر والموسيقار منير بشير</t>
-  </si>
-  <si>
-    <t>نجيب محفوظ هو نجيب محفوظ بن عبد العزيز بن إبراهيم بن أحمد باشا. اسمه المفرد مركب من اسمين تقديراً من والده للطبيب الراحل نجيب محفوظ الذى أشرف على ولادته. روائي مصري حائز على جائزة نوبل في الآداب عام 1988م. ولد في القاهرة، وحصل على ليسانس الآداب قسم الفلسفة من جامعة القاهرة وتدرج بالوظائف الحكومية حتى عمل مديرا عاما للرقابة على المصنفات الفنية عام 1959م. تعرض محفوظ للهجوم و المنع من قبل بعض الإسلاميين المتطرفين الذين رأوا في كتاباته مساسا بالشخصيات الدينية، خصوصا بسبب روايته أولاد حارتنا التي منعت من الطبع في مصر حتى نهاية عام 2006، حيث يستخدم محفوظ الرموز الشعبية ليقدم شخصيات الانبياء. وتعرض إلى محاولة اغتيال فاشلة عام 1994. بدأ نجيب محفوظ بكتابة الرواية التاريخية ثم الرواية الأجتماعية. وتزيد مؤلفاته على 50 مؤلفاً. ترجمت معظم أعماله إلى العديد من اللغات العالمية وحصل على جائزة الدولة التشجيعية في الروايةعام 1959.أتم دراسته الإبتدائية والثانوية و عمره 18 سنة. وقد التحق بالجامعة سنة 1930م ثم حصل على الليسانس في الفلسفة. يعد نجيب محفوظ من الادباء العباقرة في مجال الرواية وقد وهب حياته كلها لهذا العمل، كما انه يتميز بالقدرة الكبيرة على التفاعل مع القضايا المحيطة به، واعادة انتاجها على شكل ادب يربط الناس بما يحصل في المراحل العامة التي عاشتها مصر. يتميز اسلوب محفوظ بالبساطة، والقرب من الناس كلهم، لذلك اصبح بحق الروائي العربي الاكثر شعبية . رغم إن نجيب قد انخرط في عدة أعمال إلا أن العمل الذي التهم حياته هو الكتابة. فقد كتب في مجلة الرسالة قصصا صغيرة و من أشهر أساتذتة سلامة موسى بالاضافة إلى ذلك فقد شرع نجيب محفوظ في اعداد رسالة المجاستير تحت اشراف استاذه الشيخ مصطفى عبد الرازق وكانت في الفلسفة وموضوعها هو  الجمال في الفلسفة الإسلامية  بيد أن الأدب كان قد جرفه في طريقه .. وشعر محفوظ بالتمزق والتشتت بين الفلسفة التي يدرسها والأدب الذي يهواه وملك عليه لبه ؛ ثم انقذه من هذه الحيرة اتخاذه قرارا نهائيا بالاعتذار عن اكمال الرسالة ليتفرغ للأدب . وهذا ما حدث بالفعل.وقد ساعده استاذه سلامة موسى على نشر أولى رواياته وهي  عبث الأقدار .أما أول مجموعة قصصية نشرت له فكانت  همس الجنون  حيث انتقى بعضا من قصصه القصيرة , ونشرت في هذه المجموعة . وبعض هذه القصص التي كتبها في تلك الفترة  فترة الثلاثينيات والأربعينيات  اعدها للنشر في عام 2005 الأديب محمد جبريل في مجموعة تحت عنوان  فتوة العطوف .توفي في الثامنة وخمس دقائق من صباح الأربعاء 30 أغسطس 2006 م في مستشفى الشرطة بحي العجوزة وسط القاهرة وذكر مصدر طبي أن محفوظ توفي في وحدة العناية المركزة جراء قرحة نازفة بعدما أصيب بهبوط مفاجئ في ضغط الدم وفشل كلوي. وكان الروائي الشهير قد أدخل في يوليو 2005 المستشفى ذاته إثر سقوطه في الشارع وإصابته بجرح غائر في الرأس تطلب جراحة فورية. وظل نجيب محفوظ حتى أيامه الأخيرة حريصا على برنامجه اليومي في الالتقاء بأصدقائه في بعض فنادق القاهرة، حيث كانوا يقرؤون له عناوين الأخبار ويستمعون إلى تعليقاته على الأحداث.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> اسمه المفرد مركب من اسمين تقديراً من والده للطبيب الراحل نجيب محفوظ الذى اشرف على ولادته.  ولد في القاهرة، وحصل على ليسانس الآداب قسم الفلسفة من جامعة القاهرة وتدرج بالوظائف الحكومية حتى عمل مديرا عاما للرقابة على المصنفات الفنية عام 1959م.  تعرض محفوظ للهجوم و المنع من قبل بعض الاسلاميين المتطرفين الذين راوا في كتاباته مساسا بالشخصيات الدينية، خصوصا بسبب روايته اولاد حارتنا التي منعت من الطبع في مصر حتى نهاية عام 2006، حيث يستخدم محفوظ الرموز الشعبية ليقدم شخصيات الانبياء.  بدا نجيب محفوظ بكتابة الرواية التاريخية ثم الرواية الاجتماعية.  وبعض هذه القصص التي كتبها في تلك الفترة  فترة الثلاثينيات والاربعينيات  اعدها للنشر في عام 2005 الاديب محمد جبريل في مجموعة تحت عنوان  فتوة العطوف . توفي في الثامنة وخمس دقائق من صباح الاربعاء 30 اغسطس 2006 م في مستشفى الشرطة بحي العجوزة وسط القاهرة وذكر مصدر طبي ان محفوظ توفي في وحدة العناية المركزة جراء قرحة نازفة بعدما اصيب بهبوط مفاجئ في ضغط الدم وفشل كلوي. </t>
-  </si>
-  <si>
-    <t>نجيب محفوظ هو نجيب محفوظ بن عبد العزيز بن إبراهيم بن أحمد باشا.ولد في القاهرة، وحصل على ليسانس الآداب قسم الفلسفة من جامعة القاهرة وتدرج بالوظائف الحكومية حتى عمل مديرا عاما للرقابة على المصنفات الفنية عام 1959م.تعرض محفوظ للهجوم و المنع من قبل بعض الإسلاميين المتطرفين الذين رأوا في كتاباته مساسا بالشخصيات الدينية، خصوصا بسبب روايته أولاد حارتنا التي منعت من الطبع في مصر حتى نهاية عام 2006، حيث يستخدم محفوظ الرموز الشعبية ليقدم شخصيات الانبياء.يعد نجيب محفوظ من الادباء العباقرة في مجال الرواية وقد وهب حياته كلها لهذا العمل، كما انه يتميز بالقدرة الكبيرة على التفاعل مع القضايا المحيطة به، واعادة انتاجها على شكل ادب يربط الناس بما يحصل في المراحل العامة التي عاشتها مصر.يتميز اسلوب محفوظ بالبساطة، والقرب من الناس كلهم، لذلك اصبح بحق الروائي العربي الاكثر شعبية .في الثامنة وخمس دقائق من صباح الأربعاء 30 أغسطس 2006 م في مستشفى الشرطة بحي العجوزة وسط القاهرة وذكر مصدر طبي أن محفوظ توفي في وحدة العناية المركزة جراء قرحة نازفة بعدما أصيب بهبوط مفاجئ في ضغط الدم وفشل كلوي.</t>
-  </si>
-  <si>
-    <t>فيروز اسمها الأصلي نهاد وديع حداد، مطربة لبنانية تعد من أشهر الفنانين العرب على قيد الحياة. شكلت مع زوجها الراحل عاصي الرحباني وأخوه منصور الرحبانيالمعروفين بالأخوين رحباني ثورة في عالم الموسيقى والغناء العربي.كانت انطلاقتها عام 1952 م عندما بدأت الغناء لعاصي الرحباني، وكانت الأغاني التي غنّتها لعاصي في ذلك الوقت تملأ كافة القنوات الإذاعية، وأصبحت مطربة كبيرة في العالم العربي منذ ذلك الوقت. كانت أغلب أغانيها آنذك للأخوين عاصي ومنصور الرحباني الذين يشار لهما دائما بالأخوين رحباني. وفي 1955م تزوجت فيروز من عاصي الرحباني، وأنجبت منه زياد عام 1956 ثم هالي وهو مقعد وانجبته عام 1958 ثم ليال عام 1960 واخيرا ريما عام 1965.قدم الأخوين رحباني مع فيروز المئات من الأغاني التي أحدثت ثورة في الموسيقى العربية، لتميزها بقصر المدة وقوة المعنى على عكس الأغاني العربية السائدة في ذلك الحين والتي كانت تمتاز بالطول وبساطة التعبير وعمق الفكرة الموسيقية وتنوع المواضيع، حيث غنت فيروز الحب والأطفال، الحزن والفرح، الوطن، الأم. وقدّم عدد كبير من هذه الأغاني ضمن مجموعة مسرحيات من تأليف وتلحين الأخوين رحباني وصل عددها إلى اثنتي عشر مسرحية. تنوعت مواضيعها بين نقد الحاكم والشعب وتمجيد البطولة والحب بشتى أنواعه.غنت فيروز لعديد من الشعراء والملحنين، وأمام العديد من الملوك والرؤساء، وفي أغلب المهرجانات الكبرى في العالم العربي. وأطلق عليها عدة ألقاب منها سفيرتنا إلى النجوم للدلالة على رقي صوتها وتميزه.بعد وفاة زوجها عاصي عام 1986، خاضت تجارب عديدة مع مجموعة ملحنين ومؤلفين من أبرزهم فلمون وهبة و زكي ناصيف، لكنها عملت بشكل رئيسي مع ابنها زياد الرحباني الذي قدم لها مجموعة كبيرة من الأغاني أبرزت موهبته وقدرته على خلق نمط موسيقي خاص به يستقي من الموسيقا العربية والموسيقا العالمية، وما زالت مسيرة الفنانين مستمرة بنجاح حتى يومنا هذا. تجلت هذه المرحلة بالعديد من الألبومات من أبرزها كيفك انت، فيروز في بيت الدين 2000 والذي كان تسجيلاً حياً من مجموعة حفلات أقامتها فيروز بمصاحبة ابنها زياد وأوركسترا تضم عازفين أرمن وسوريين ولبنانيين، وكانت البداية لسلسلة حفلات حظيت بنجاح منقطع النظير لما قدمته من جديد على صعيد التوزيع الموسيقي والتنوع في الأغاني بين القديمة والحديثة ، ألبوم ولا كيف عام 2001 كان آخر ما قدمته فيروز من تسجيل، وجميع عشاقها في انتظار ألبوم جديد طال الحديث عنه، ومن المرجح أن تأخره عائد إلى الأوضاع الحرجه في لبنان في الآونة الأخيرة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فيروز اسمها الاصلي نهاد وديع حداد، مطربة لبنانية تعد من اشهر الفنانين العرب على قيد الحياة.  شكلت مع زوجها الراحل عاصي الرحباني واخوه منصور الرحبانيالمعروفين بالاخوين رحباني ثورة في عالم الموسيقى والغناء العربي. كانت انطلاقتها عام 1952 م عندما بدات الغناء لعاصي الرحباني، وكانت الاغاني التي غنّتها لعاصي في ذلك الوقت تملا كافة القنوات الاذاعية، واصبحت مطربة كبيرة في العالم العربي منذ ذلك الوقت.  كانت اغلب اغانيها آنذك للاخوين عاصي ومنصور الرحباني الذين يشار لهما دائما بالاخوين رحباني. غنت فيروز لعديد من الشعراء والملحنين، وامام العديد من الملوك والرؤساء، وفي اغلب المهرجانات الكبرى في العالم العربي. قدم الاخوين رحباني مع فيروز المئات من الاغاني التي احدثت ثورة في الموسيقى العربية، لتميزها بقصر المدة وقوة المعنى على عكس الاغاني العربية السائدة في ذلك الحين والتي كانت تمتاز بالطول وبساطة التعبير وعمق الفكرة الموسيقية وتنوع المواضيع، حيث غنت فيروز الحب . </t>
-  </si>
-  <si>
-    <t>فيروز اسمها الأصلي نهاد وديع حداد، مطربة لبنانية تعد من أشهر الفنانين العرب على قيد الحياة.شكلت مع زوجها الراحل عاصي الرحباني وأخوه منصور الرحبانيالمعروفين بالأخوين رحباني ثورة في عالم الموسيقى والغناء العربي.كانتانطلاقتها عام 1952 م عندما بدأت الغناء لعاصي الرحباني، وكانت الأغاني التي غنّتها لعاصي في ذلك الوقت تملأ كافة القنوات الإذاعية، وأصبحت مطربة كبيرة في العالم العربي منذ ذلك الوقت.وفي 1955م تزوجت فيروز من عاصي الرحباني، وأنجبت منه زياد عام 1956 ثم هالي وهو مقعد وانجبته عام 1958 ثم ليال عام 1960 واخيرا ريما عام 1965.قدم الأخوين رحباني مع فيروز المئات من الأغاني التي أحدثت ثورة في الموسيقى العربية، لتميزها بقصر المدة وقوة المعنى على عكس الأغاني العربية السائدة في ذلك الحين والتي كانت تمتاز بالطول وبساطة التعبير وعمق الفكرة الموسيقية وتنوع المواضيع، حيث غنت فيروز الحب والأطفال، الحزن والفرح، الوطن، الأم.وفاة زوجها عاصي عام 1986، خاضت تجارب عديدة مع مجموعة ملحنين ومؤلفين من أبرزهم فلمون وهبة و زكي ناصيف، لكنها عملت بشكل رئيسي مع ابنها زياد الرحباني الذي قدم لها مجموعة كبيرة من الأغاني أبرزت موهبته وقدرته على خلق نمط موسيقي خاص به يستقي من الموسيقا العربية والموسيقا العالمية، وما زالت مسيرة الفنانين مستمرة بنجاح حتى يومنا هذا.تجلت هذه المرحلة بالعديد من الألبومات من أبرزها كيفك انت، فيروز في بيت الدين 2000 والذي كان تسجيلاً حياً من مجموعة حفلات أقامتها فيروز بمصاحبة ابنها زياد وأوركسترا تضم عازفين أرمن وسوريين ولبنانيين، وكانت البداية لسلسلة حفلات حظيت بنجاح منقطع النظير لما قدمته من جديد على صعيد التوزيع الموسيقي والتنوع في الأغاني بين القديمة والحديثة ، ألبوم ولا كيف عام 2001 كان آخر ما قدمته فيروز من تسجيل، وجميع عشاقها في انتظار ألبوم جديد طال الحديث عنه، ومن المرجح أن تأخره عائد إلى الأوضاع الحرجه في لبنان في الآونة الأخيرة.</t>
-  </si>
-  <si>
-    <t>لوتشانو بافاروتي مواليد مودينا في 12 أكتوبر 1935 -توفي بمودينا في 6 سبتمبر 2007، مغني تينور إيطالي، يعد من أشهر فنانين الأوبرا في الطبقة العالية من الرجال في عصرنا الحاضر، وأحد التينور الثلاثة وقد ولد في مدينة مودينا . ولد في بمدينة مودينا شمال إيطاليا لعائلة خباز، بعد أن تخلى عن حلمه بأن يصبح حارس مرمى كرة قدم محترف،ثم قضاء سبعة سنوات في التدريب الصوتى، بدأ بافاروتي حياته كتينور في إيطاليا عام 1961، ثم بدأ الغناء في دور الأوبرا فيهولندا و فيينا ولندنوأنقرةوبودابستوبرشلونة. وقد اكتسب التينور الشاب حينها الخبرة القيمة بالإضافة إلى التقدير الواضح.وفى أثناء عروضه للولايات المتحدة على دعوة من السوبرانوساثرلاندعام 1965 زاع صيته وثبت أقدامه على الساحة العالمية بين عامى 1966 و1972 حيث أدى في أكبر دور الأوبرا في العالم مثل La Scalaفى ميلان. بحلول منتصف السبعينيات، صار بافاروتي مشهورا في جميع أنحاء العالم بتميز وروعة صوته خاصة الطبقات العليا. وبين عامى 1970 و1980 كان بافاروتي قد اثبت نفسه كأحد أعظم مطربي التينور بعروضه المتعددة في أكبر دور الأوبرا في العالم. كما زاع صيته خارج نطاق جمهور الأوبرا كنجم غنائي في عام كأس العالم بإيطاليا خاصة بعد أدائه الرائعة لأريا Nessun Dormaمن أوبراTurandot كأحد التينور الثلاثة في حفلهم الأول عشية نهائي كأس العالم، غنى فيها بافاروتي مع نجمي التينور بلاسيدو دومينجو وخوسيه كاريراس ومعا حققوا شهرة طاغية ونجاحا عظيما في جميع أنحاء العالم. السنوات التالية لاقت تقلصا في عدد أدائه للأوبرات على المسرح بسبب الزيادة المفرطة في وزنه وكان أخر أداء في أوبرا له في مارس عام 2004 في Mets. وفى الأوليمبيات الشتوية في تورينو Turinعام 2006 شاهدته إيطاليا والعالم يغنى للمرة الأخيرة حيث غنى بافاروتي Nessun Dorma وأدت الجموع الكبيرة دور الكورال المصاحب، في أداء مهيب مؤثر.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لوتشانو بافاروتي مواليد مودينا في 12 اكتوبر 1935 -توفي بمودينا في 6 سبتمبر 2007، مغني تينور ايطالي، يعد من اشهر فنانين الاوبرا في الطبقة العالية من الرجال في عصرنا الحاضر، واحد التينور الثلاثة وقد ولد في مدينة مودينا . </t>
-  </si>
-  <si>
-    <t>لوتشانو بافاروتي مواليد مودينا في 12 أكتوبر 1935 -توفي بمودينا في 6 سبتمبر 2007، مغني تينور إيطالي، يعد من أشهر فنانين الأوبرا في الطبقة العالية من الرجال في عصرنا الحاضر، وأحد التينور الثلاثة وقد ولد في مدينة مودينا .</t>
-  </si>
-  <si>
-    <t>تعرف الرياضيات بأنها دراسة القياس و الحساب ؛ هذا بالإضافة إلى المفاهيم الحديثة نسبيا و منها البنية ، الفضاء أو الفراغ ، و التغير و الابعاد. و بشكل عام قد يعرفها البعض على أنها دراسة البنى المجردة باستخدام المنطق و البراهين الرياضية و التدوين الرياضي. و بشكل أكثر عمومية، قد تعرف الرياضيات أيضا على انها دراسة الأعداد و أنماطها.و لقد نشأت الرياضيات بقيام الإنسان بقياس ما يشاهده من ظواهر الطبيعة بناء على فطرة و خاصية في الإنسان ألا و هى اهتمامه بقياس كل ما حوله إلى جانب إحتياجاته العملية فهكذا كان هناك ضرورة لقياس قسمة المقوتة (الطعام) بين أفراد العائلة و قياس الوقت و الفصول و المحاصيل الزراعية تقسيم الأراضى و غنائم الحملات الحربية و المحاسبة للتمكن من الإتجار إلى جانب علم الملاحة بالنجوم في السفر و الترحال للتجارة و الإستكشاف و القياسات اللازمة لتشييد الأبنية و المدن.و هكذا فإن البنى الرياضية التي يدرسها الرياضيون غالبا ما يعود اصلها إلى العلوم الطبيعية، و خاصة علم الطبيعة، ولكن الرياضيين يقومون بتعريف و دراسة بنى اخرى لاغراض رياضية بحتة، لان هذه البنى قد توفر تعميما لحقول اخرى من الرياضيات مثلا، او ان تكون عاملا مساعدا في حسابات معينة، و اخيرا فان الرياضيين قد يدرسون حقولا معينة من الرياضيات لتحمسهم لها، معتبرين ان الرياضيات هي فن و ليس علما تطبيقيا. كان الكتبة البابليون منذ أكثر من 3000 عام يمارسون كتابة الأعداد وحساب الفوائد ولاسيما في الأعمال التجارية ببابل. وكانت الأعداد والعمليات الحسابية تدون فوق ألواح الصلصال بقلم من البوص المدبب. ثم توضع في الفرن لتجف. وكانوا يعرفون الجمع والضرب والطرح والقسمة. ولم يكونوا يستخدمون فيها النظام العشري المتبع حاليا مما زادها صعوبة حيث كانوا يتبعون النظام الستيني الذي يتكون من 60 رمزا للدلالة علي الأعداد من 1-60. وطور قدماء المصريين هذا النظام في مسح الأراضي بعد كل فيضان لتقدير الضرائب. كما كانوا يتبعون النظام العشري وهو العد بالآحاد والعشرات والمئات. لكنهم لم يعرفوا الصفر. لهذا كانوا يكتبون 600بوضع 6رموز يعبر كل رمز على 100.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعرف الرياضيات بانها دراسة القياس و الحساب ؛ هذا بالاضافة الى المفاهيم الحديثة نسبيا و منها البنية ، الفضاء او الفراغ ، و التغير و الابعاد.  و بشكل عام قد يعرفها البعض على انها دراسة البنى المجردة باستخدام المنطق و البراهين الرياضية و التدوين الرياضي. </t>
-  </si>
-  <si>
-    <t>تعرف الرياضيات بأنها دراسة القياس و الحساب ؛ هذا بالإضافة إلى المفاهيم الحديثة نسبيا و منها البنية ، الفضاء أو الفراغ ، و التغير و الابعاد.ولم يكونوا يستخدمون فيها النظام العشري المتبع حاليا مما زادها صعوبة حيث كانوا يتبعون النظام الستيني الذي يتكون من 60 رمزا للدلالة علي الأعداد من 1-60.</t>
-  </si>
-  <si>
-    <t>الفيزياء لفظ اشتق من اليونانية فيزيكوس اي طبيعي، والكلمة مشتقة من الجذر فيزيس اي طبيعة. الفيزياء هو علم الطبيعة ، فبدءا من الكوارك البالغ الصغر إلى الكون العظيم الممتد ، تحاول الفيزياء صياغة قوانين رياضية تحكم هذا العالم المادي الطبيعي و سبر أغوار تركيب المادة و مكوناتها الأساسية ، و القوى الأساسية التي تتبادلها الجسيمات و الأجسام المادية ، إضافة إلى نتائج هذه القوى. أحيانا في الفيزياء الحديثة تضاف لهذه المجالات دراسة قوانين التناظر و الانحفاظ ، مثل قوانين حفظ الطاقة و الزخم و الشحنة الكهربائية. و لأجل هذا يدرس الفيزيائيون مجالا واسعا من الظواهر الفيزيائية تمتد من المجالات الصغيرة المدى إلى المجالات الواسعة المدى ، و من الجسيمات تحت-ذرية التي تتكون منها جميع المادة الباريونية فيزياء الجسيمات إلى درساة سلوك الأجسام الفيزيائية في العالم الكلاسيكي إلى دراسة حركة النجوم في الفضاء المادي سواء ضمن السرعات العادية أو قريبا من سرعة الضوء و أخيرا دراسة الكون بمجمله.الفيزياء هو علم الطبيعة، تفصيلاً؛ هو فرع من العلوم والذي يهتم باستكشاف وتشخيص القوانين الكونية التي تتحكم في طبيعة المادة و الطاقة والفراغ والزمن. الإستكشافات في الفيزياء لها صدي كبير وتأثير بالغ في العلوم الطبيعية، والفيزياء وصفها العلماء بأنها العلم الأساسي وذلك لأن مجالات العلوم الأخري مثل الكيمياء و علم الأحياء تقوم بتشخيص أنظمة مادية تعتمد خواصها علي قوانين الفيزياء.الفيزياء كعلم تميزت عن الفلسفة الطبيعية مع بداية الثورة العلمية خلال القرنين السادس عشر و السابع عشر، وظلت هكذا حتي أشرق فجر الفيزياء الحديثة مع بداية القرن العشرين. استمر المجال في التوسع بسبب مجموعة متنامية من البحوث التي أدت ألي استكشافات ثورية مثل وضع النموذج المثالي لحركة الجسيمات الرئيسية أي النواة وما حولها من الإليكترونات، وكذلك وضع بحث لتاريخ الكون بالتفصيل، حتي وصلت إلى الطاقة النووية وأشباه الموصلات اللتين أحدثتا ثورة عظيمة في عالم التكنولوجيا.أما الآن في هذه البحوث تجري لإحداث تقدم في مجالات التوصيل الفائق الحوسبة الكمومية وذلك في حالة الدرجات العالية. بناءا علي الملاحظة والتجربة والنظريات العميقة بعيدة المدي فإن الفيزياء قدمت العديد من الإسهامات في مجال العلوم و التكنولوجيا والفلسفة .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفيزياء لفظ اشتق من اليونانية فيزيكوس اي طبيعي، والكلمة مشتقة من الجذر فيزيس اي طبيعة.  و لاجل هذا يدرس الفيزيائيون مجالا واسعا من الظواهر الفيزيائية تمتد من المجالات الصغيرة المدى الى المجالات الواسعة المدى ، و من الجسيمات تحت-ذرية التي تتكون منها جميع المادة الباريونية فيزياء الجسيمات الى درساة سلوك الاجسام الفيزيائية في العالم الكلاسيكي . الفيزياء كعلم تميزت عن الفلسفة الطبيعية مع بداية الثورة العلمية خلال القرنين السادس عشر و السابع عشر، وظلت هكذا حتي اشرق فجر الفيزياء الحديثة مع بداية القرن العشرين. </t>
-  </si>
-  <si>
-    <t>الفيزياء لفظ اشتق من اليونانية فيزيكوس اي طبيعي، والكلمة مشتقة من الجذر فيزيس اي طبيعة.الفيزياء هو علم الطبيعة ، فبدءا من الكوارك البالغ الصغر إلى الكون العظيم الممتد ، تحاول الفيزياء صياغة قوانين رياضية تحكم هذا العالم المادي الطبيعي و سبر أغوار تركيب المادة و مكوناتها الأساسية ، و القوى الأساسية التي تتبادلها الجسيمات و الأجسام المادية ، إضافة إلى نتائج هذه القوى.و لأجل هذا يدرس الفيزيائيون مجالا واسعا من الظواهر الفيزيائية تمتد من المجالات الصغيرة المدى إلى المجالات الواسعة المدى ، و من الجسيمات تحت-ذرية التي تتكون منها جميع المادة الباريونية فيزياء الجسيمات إلى درساة سلوك الأجسام الفيزيائية في العالم الكلاسيكي إلى دراسة حركة النجوم في الفضاء المادي سواء ضمن السرعات العادية أو قريبا من سرعة الضوء و أخيرا دراسة الكون بمجمله.الفيزياء</t>
-  </si>
-  <si>
-    <t>علم الاحياء أو البيولوجيا من اليونانية،  Biosتعني الحياة و Logos تعني المقالة أو الدراسة هو علم دراسة الحياة  و الكائنات الحية من حيث بنيتها، و طبيعتها، و صفاتها، و أنواعها، و القوانين التي تحكم طرق عيشها و تطورها و تفاعلها  مع وسطها الطبيعي.و علم الاحياء واسع جدا و ينقسم لعدة فروع من أهمها علم الكائنات المجهرية و علم الحيوان و علم النبات و كذلك علم  وضائف الاعضاء و الكيمياء الحيوية و علم البيئة. و مع ترقي هذا العلم، منذ القرن التاسع عشر، صار ذات صلات وثيقة  بالعلوم أخرى، النظرية منها و التطبيقية، مثل الطب و الصيدلة و مجالات تقنية أخرى تلبي إحتياجات الإنسان الضرورية  والمستمرة. و هكذا صرنا اليوم لا نتحدث عن علم بل علوم الحياة .يتعامل علم الأحياء مع دراسة كافة أشكال الحياة . حيث يهتم بخصائص المتعضيات الحية و تصنيفها و سلوكها ، كما يدرس  كيفية ظهور هذه الأنواع إلى الوجود و العلاقات المتبادلة بين بعضها البعض و بينها و بين بيئتها . لذلك فإن علم الأحياء  يحتضن داخله العديد من التخصصات و الفروع العلمية المستقلة . لكنها جميعا تجتمع في علاقتها بالكائنات الحية ظاهرة  الحياة على مجال واسع من الأنواع و الحجام تبدا بدراسة الفيروسات و الجراثيم ثم النباتات و الحيوانات ، في حين تختص  فروع اخرى بدراسة العمليات الحيوية ضمن الخلية مثل الكيمياء الحيوية إلى فروع دراسة العلاقات بين الحياء و البيئة في  علم البيئة.على مستوى العضوية ، تأخذ البيولوجيا على عاتقها دراسة ظواهر مثل الولادة ، النمو ، الشيخوخة aging ، الموت   death و تفسخ الكائات الحية ، ناهيك عن التشابهات بين الأجيال offspring و آبائهم وراثة   heredity  كما يدرس أيضا ازهرار النباتات و غيرها من الظواهر حيرت الإنسانية خلال التاريخ .ظواره أخرى مثل إفراز الحليب lactation ، metamorphosis ، وضع البيض ، تشافي  healing ، الانتحاء Tropism . ضمن مجال أوسع من الوقت و المكان ، يدرس علماء الأحياء تهجين  الحيوانات و النباتات ، إضافة للتنوع الهائل في الحياة النباتية و الحيوانية التنوع الحيوي biodiversity ,  التغير في العضويات الحية عبر الزمن التطور , الانقراض ، ظهور الأنواع Speciation ، السلوك الاجتماعي  بين الحيوانات .يبرز ضمن علم الأحياء علم النبات الذي يختص بدراسة النباتات في حين يختص علم الحيوان بدراسة الحيوانات أما  الأنثروبولوجيا فيختص بدرساة الكائن البشري . أما على المستوى الجزيئي ، فتدرس الحياة ضمن علم الأحياء الجزيئي ، و  الكيمياء الحيوية و علم الوراثة الجزيئي. أما على المستوى التالي و هو الخلية فهو يدرس في علم الأحياء الخلوي. عند  الانتقال لمستوى عديدات الخلايا multicellular ، يظهر لدينا علوم مثل الفيزيولوجيا و التشريح و علم  النسج . أما علم أحياء النمو Developmental biology فهو يدرس الحياة في مستوى تطور و نمو  الكائنات الحية المفردة أو ما يدعى ontogeny. أما عندما نتقل إلى أكثر من عضوية واحدة ، يبرز علم الوراثة  الذي يدرس كيق تعمل مباديء الوراثة heredity بين الآباءو الأنسال . يدرس علم الإيثولوجيا   Ethology سلوك المجموعات الحيوانية . أما علم الوراثة المجموعي Population   genetics فيأخذ بعين الاعتبار كامل و مجمل المجموعة السكانية population أما النظاميات فتدرس  مجالا متعدد الأنواع من الذراري lineage أنواع من أصل مشترك . المجموعات الحيوية المترابطة بعلاقات و  مواطنها تدرس في إطار علم البيئة و علم الأحياء التطوري evolutionary biology . أحد أحدث  العلوم البيولوجية حاليا هو علم الأحياء الفلكي astrobiology أو xenobiology الذي يدرس  إمكانية وجود حياة خارج كوكب الأرض .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علم الاحياء او البيولوجيا من اليونانية،  Biosتعني الحياة و Logos تعني المقالة او الدراسة هو علم دراسة الحياة  و الكائنات الحية من حيث بنيتها، و طبيعتها، و صفاتها، و انواعها، و القوانين التي تحكم طرق عيشها و تطورها و تفاعلها  مع وسطها الطبيعي. و علم الاحياء واسع جدا و ينقسم لعدة فروع من اهمها علم الكائنات المجهرية و علم الحيوان و علم النبات و كذلك علم  وضائف الاعضاء و الكيمياء الحيوية و علم البيئة.  و مع ترقي هذا العلم، منذ القرن التاسع عشر، صار ذات صلات وثيقة  بالعلوم اخرى، النظرية منها و التطبيقية، مثل الطب و الصيدلة و مجالات تقنية اخرى تلبي احتياجات الانسان الضرورية  والمستمرة.  لكنها جميعا تجتمع في علاقتها بالكائنات الحية ظاهرة  الحياة على مجال واسع من الانواع و الحجام تبدا بدراسة الفيروسات و الجراثيم ثم النباتات و الحيوانات ، في حين تختص  فروع اخرى بدراسة العمليات الحيوية ضمن الخلية مثل الكيمياء الحيوية الى فروع دراسة العلاقات. </t>
-  </si>
-  <si>
-    <t>علم الاحياء أو البيولوجيا من اليونانية،  Biosتعني الحياة و Logos تعني المقالة أو الدراسة هو علم دراسة الحياة  و الكائنات الحية من حيث بنيتها، و طبيعتها، و صفاتها، و أنواعها، و القوانين التي تحكم طرق عيشها و تطورها و تفاعلها  مع وسطها الطبيعي.وعلم الاحياء واسع جدا و ينقسم لعدة فروع من أهمها علم الكائنات المجهرية و علم الحيوان و علم النبات و كذلك علم  وضائف الاعضاء و الكيمياء الحيوية و علم البيئة.و هكذا صرنا اليوم لا نتحدث عن علم بل علوم الحياة .يتعامللكنها جميعا تجتمع في علاقتها بالكائنات الحية ظاهرة  الحياة على مجال واسع من الأنواع و الحجام تبدا بدراسة الفيروسات و الجراثيم ثم النباتات و الحيوانات ، في حين تختص  فروع اخرى بدراسة العمليات الحيوية ضمن الخلية مثل الكيمياء الحيوية إلى فروع دراسة العلاقات بين الحياء و البيئة في  علم البيئة.على</t>
-  </si>
-  <si>
-    <t>كيمياء هى في الأصل كلمة عربية مثل السيمياء، مأخوذة من الكمي وهو الشجاع، و المتكمي في سلاحه أي المتغطي المتستر بالدرع والبيضة، وسُمِيت كذلك لأن الكيمياءيين القدماء كانوا يحتفظون بمعلوماتهم سرية عن الآخرين، وتعنى كمصطلح  العلم الذى يدرس المادة وتفاعلاتها وعلاقاتها بالطاقة. ونظرا لتعدد وإختلاف حالات المادة, والتى عادة ما تكون في شكل ذرات, فإن الكيميائين غالبا ما يقوموا بدراسة كيفية تفاعل الذرات لتكوين الجزيئات وكيفية تفاعل الجزيئات مع بعضها البعض.والكيمياء هو علم يدرس العناصر الكيميائية والمواد الكيميائية و التركيب والخواص والبناء والتحولات المتبادلة فيما بينها اي التفاعلات الكيميائية.حاول الإنسان عبر العصور أن يبحث في طبيعة العالم الذي حوله، وذلك بدافع غريزة حب المعرفة،ومن خلال ذلك، تم الكثير من الاكتشافات المهمة التي ساعدت على تطوير العلوم والتكنولوجيا ومن ضمنها علم الكيمياء وهو علم يعنى بطبيعة المادة ومكوناتها، وكذلك بكيفية تفاعل المواد المختلفة مع بعضها بعضاً، وعلى هذا تكون وظيفة العالم الكيميائي الأساسية هي معرفة أكبر قدر ممكن من المعلومات عن طبيعة المادة التي أوجدها الله في هذا الكون.بدايات علم الكيمياء.تعود بدايات علم الكيمياء إلى زمن موغل في القدم، فلقد أختلف في مكان نشأته، قيل أن بداياته كانت في القرن الثالث قبل الميلاد، كما أن الحضارات القديمة التي سادة كلاً من الصين والهند كانت تعتبر المعالجة الكيميائية من بين ما يتقنونه مهارة وحذقاً وأن هذه المعرفة والبراعة انتشرتا غربا إلى إمبراطوريتي فارس ومصر القديمة حيث كان دبغ الجلود وصناعة الأصباغ ومستحضرات التجميل من بين الفنون التي مارسها المصريون، وتعتبر الإسكندرية المركز الأول للكيمياء القديمة حيث تأثرت بفلسفة الإغريق بعد قيام الإسكندر الأكبر بفتح مصر ، حيث جذب إليها الكثير من الإغريق فارتبطت مهارة المصريين مع نظريات الإغريق مما أدى إلى ظهور أولئك الذين يمارسون الكيمياء، ونسب إليها أنها موطن البحث لهذا العلم الذي يحيل المعادن العادية إلى معادن ثمينة ويعيد الشباب إلى الإنسان، وتزامن مع ظهور الكيمياء القديمة ظهور التنجيم واختلط بها السحر كما سيطرت الرمزية على هذه الكيمياء في العصور الوسطى وأغرقها الغموض.مساهمة العرب في تطوير الكيمياء. عندما فتح العرب مصر سنة ولا ريب أن أولئك الفاتحين أسهموا بقدرٍ موفور في تطوير الكيمياء، حيث يعتبرون أول من اشتغل بالكيمياء كعلم له قواعده وقوانينه، وذلك منذ القرن الثاني الهجري، وطبقوا إنتاجهم في الصيدلية بصفة خاصة . وما زال الإلتحام بين شتى المفاهيم لعلوم الكيمياء القديمة ينم عن اللفظ العربي نفسه مثل ألوخيمياء وهو الشكل الإغريقي الذي يطلق على مصر. كذلك أصل كلمة كحول وهو عربي بمعنى غول وغرّبت هذه الكلمة أو حولت على اللغة الغربية بهذه الصفة. و استمرت أصول الكيمياء العربية مرجعاً للغرب إبان القرون الوسطى وانتقلت ترجمات أعمالهم إلى أوروبا في القرن الثاني عشر الميلادي والتي اشتهرت بعد أن وصل الفتح العربي إلى الأندلس سنة711م يحمل معه المعارف العربية. وفي الجامعات العربية ببرشلونة وطليطلة تعلم طالبوا العلم من جميع أنحاء أوروبا فن الكيمياء.الكيمياء الحديثة. يرجع تاريخ الكيمياء الحديثة إلى القرن السابع عشر الميلادي بأبحاث بويل الذي قسم الأجسام إلى مواد أولية عناصر ومركبات و مخاليط و تلت أبحاث بلاك، ولافوازيية عن الاحتراق والتأكسد ثم برتلي الذي اكتشف الأكسجين في الهواء ، ثم كافندش الذي اكتشف تكوين الماء ثم  دالتون الذي وضع النظرية الذرية عن تكون المادة وتعرّف الكيمياء الحديثة بأنها علم طبيعي في تكوين المادة والتغييرات التي تحدث فيها تحت تغييرات مختلفة تفقد الجسم مظهره الخاص وصفاته التي يتميز بها، إذ تتبدل مادته بأخرى ذات خواص وصفات جديدة وتوصف مظاهر المواد وسلوكها بالخواص الكيميائية، أي تعرّف بذلك وتبين تلك الخواص الكيميائية إبان التفاعلات بالمعادلات.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كيمياء هى في الاصل كلمة عربية مثل السيمياء، ماخوذة من الكمي وهو الشجاع، و المتكمي في سلاحه اي المتغطي المتستر بالدرع والبيضة، وسُمِيت كذلك لان الكيمياءيين القدماء كانوا يحتفظون بمعلوماتهم سرية عن الآخرين، وتعنى كمصطلح  العلم الذى يدرس المادة وتفاعلاتها وع.  ونظرا لتعدد واختلاف حالات المادة, والتى عادة ما تكون في شكل ذرات, فان الكيميائين غالبا ما يقوموا بدراسة كيفية تفاعل الذرات لتكوين الجزيئات وكيفية تفاعل الجزيئات مع بعضها البعض. والكيمياء هو علم يدرس العناصر الكيميائية والمواد الكيميائية و التركيب والخواص والبناء والتحولات المتبادلة فيما بينها اي التفاعلات الكيميائية. حاول الانسان عبر العصور ان يبحث في طبيعة العالم الذي حوله، وذلك بدافع غريزة حب المعرفة،ومن خلال ذلك، تم الكثير من الاكتشافات المهمة التي ساعدت على تطوير العلوم والتكنولوجيا ومن ضمنها علم الكيمياء وهو علم يعنى بطبيعة المادة ومكوناتها، وكذلك بكيفية تفاعل ال. </t>
-  </si>
-  <si>
-    <t>كيمياء هى في الأصل كلمة عربية مثل السيمياء، مأخوذة من الكمي وهو الشجاع، و المتكمي في سلاحه أي المتغطي المتستر بالدرع والبيضة، وسُمِيت كذلك لأن الكيمياءيين القدماء كانوا يحتفظون بمعلوماتهم سرية عن الآخرين، وتعنى كمصطلح  العلم الذى يدرس المادة وتفاعلاتها وعلاقاتها بالطاقة.الإنسان عبر العصور أن يبحث في طبيعة العالم الذي حوله، وذلك بدافع غريزة حب المعرفة،ومن خلال ذلك، تم الكثير من الاكتشافات المهمة التي ساعدت على تطوير العلوم والتكنولوجيا ومن ضمنها علم الكيمياء وهو علم يعنى بطبيعة المادة ومكوناتها، وكذلك بكيفية تفاعل المواد المختلفة مع بعضها بعضاً، وعلى هذا تكون وظيفة العالم الكيميائي الأساسية هي معرفة أكبر قدر ممكن من المعلومات عن طبيعة المادة التي أوجدها الله في هذا الكون.بداياتبدايات علم الكيمياء إلى زمن موغل في القدم، فلقد أختلف في مكان نشأته، قيل أن بداياته كانت في القرن الثالث قبل الميلاد، كما أن الحضارات القديمة التي سادة كلاً من الصين والهند كانت تعتبر المعالجة الكيميائية من بين ما يتقنونه مهارة وحذقاً وأن هذه المعرفة والبراعة انتشرتا غربا إلى إمبراطوريتي فارس ومصر القديمة حيث كان دبغ الجلود وصناعة الأصباغ ومستحضرات التجميل من بين الفنون التي مارسها المصريون، وتعتبر الإسكندرية المركز الأول للكيمياء القديمة حيث تأثرت بفلسفة الإغريق بعد قيام الإسكندر الأكبر بفتح مصر ، حيث جذب إليها الكثير من الإغريق فارتبطت مهارة المصريين مع نظريات الإغريق مما أدى إلى ظهور أولئك الذين يمارسون الكيمياء، ونسب إليها أنها موطن البحث لهذا العلم الذي يحيل المعادن العادية إلى معادن ثمينة ويعيد الشباب إلى الإنسان، وتزامن مع ظهور الكيمياء القديمة ظهور التنجيم واختلط بها السحر كما سيطرت الرمزية على هذه الكيمياء في العصور الوسطى وأغرقها الغموض.مساهمةيرجع تاريخ الكيمياء الحديثة إلى القرن السابع عشر الميلادي بأبحاث بويل الذي قسم الأجسام إلى مواد أولية عناصر ومركبات و مخاليط و تلت أبحاث بلاك، ولافوازيية عن الاحتراق والتأكسد ثم برتلي الذي اكتشف الأكسجين في الهواء ، ثم كافندش الذي اكتشف تكوين الماء ثم  دالتون الذي وضع النظرية الذرية عن تكون المادة وتعرّف الكيمياء الحديثة بأنها علم طبيعي في تكوين المادة والتغييرات التي تحدث فيها تحت تغييرات مختلفة تفقد الجسم مظهره الخاص وصفاته التي يتميز بها، إذ تتبدل مادته بأخرى ذات خواص وصفات جديدة وتوصف مظاهر المواد وسلوكها بالخواص الكيميائية، أي تعرّف بذلك وتبين تلك الخواص الكيميائية إبان التفاعلات بالمعادلات.</t>
-  </si>
-  <si>
-    <t>السحابة أو الغيمة عبارة عن تجمع مرئي لجزيئات دقيقة من الماء أو الجليد أو كليهما معا يتراوح قطرها ما بين 1 إلى 100 ميكرون تبدو سابحة في الجو على ارتفاعات مختلفة كما تبدو بأشكال وأحجام وألوان متباينة، كما تحتوي على بخار الماء والغبار وكمية هائلة من الهواء الجاف ومواد سائلة أخرى وجزيئات صلبة منبعثة من الغازات الصناعية.تعتبر السحب عبارة عن شكل من أشكال الرطوبة الجوية التي يمكن رؤيتها بالعين المجرّدة، حيث أنّ الشمس، التي تعتبر المحرك الأساسي لدورة الماء، تقوم بتسخين المحيطات التي تحوّل جزءاً من مياهها من حالتها السائلة إلى بخار، فتقوم التيارات الهوائية المتصاعدة بأخذ بخار الماء إلى داخل الغلاف الجوي (حيث درجات الحرارة المنخفضة) فيتكاثف الهواء المشبّع ببخار الماء مكونا بذلك جزيائات الماء السائلة أو المتجمدة فتمتزج بذرات الغبار مشكلة بذلك السحب. بما أن درجة كثافة السحب هي من 10 إلى 100 مرة أقل من درجة كثافة الهواء فإنّها تطفوا في السماء، أما ما يفسر تحرك السحب عبر الرياح هو الحركة الدائمة لجزيئات الهواء التي تدفع كل الكتل التي تحتك بها بما في ذلك السحب.تنقسم السحب حسب ارتفاعها إلى 3 أقسام: السحب عالية الارتفاع، السحب متوسطة الارتفاع والسحب منخفضة الارتفاع. تنقسم كل مجموعة من المجموعات الثلاثة إلى عدة أنواع.</t>
-  </si>
-  <si>
-    <t>السحابة أو الغيمة عبارة عن تجمع مرئي لجزيئات دقيقة من الماء أو الجليد أو كليهما معا يتراوح قطرها ما بين 1 إلى 100 ميكرون تبدو سابحة في الجو على ارتفاعات مختلفة كما تبدو بأشكال وأحجام وألوان متباينة، كما تحتوي على بخار الماء والغبار وكمية هائلة من الهواء الجاف ومواد سائلة أخرى وجزيئات صلبة منبعثة من الغازات الصناعية.تعتبر السحب عبارة عن شكل من أشكال الرطوبة الجوية التي يمكن رؤيتها بالعين المجرّدة، حيث أنّ الشمس، التي تعتبر المحرك الأساسي لدورة الماء، تقوم بتسخين المحيطات التي تحوّل جزءاً من مياهها من حالتها السائلة إلى بخار، فتقوم التيارات الهوائية المتصاعدة بأخذ بخار الماء إلى داخل الغلاف الجوي (حيث درجات الحرارة المنخفضة) فيتكاثف الهواء المشبّع ببخار الماء مكونا بذلك جزيائات الماء السائلة أو المتجمدة فتمتزج بذرات الغبار مشكلة بذلك السحب.</t>
-  </si>
-  <si>
-    <t>السحابة أو الغيمة عبارة عن تجمع مرئي لجزيئات دقيقة من الماء أو الجليد أو كليهما معا يتراوح قطرها ما بين 1 إلى 100 ميكرون تبدو سابحة في الجو على ارتفاعات مختلفة كما تبدو بأشكال وأحجام وألوان متباينة، كما تحتوي على بخار الماء والغبار وكمية هائلة من الهواء الجاف ومواد سائلة أخرى وجزيئات صلبة منبعثة من الغازات الصناعية.تعتبرالسحب عبارة عن شكل من أشكال الرطوبة الجوية التي يمكن رؤيتها بالعين المجرّدة، حيث أنّ الشمس، التي تعتبر المحرك الأساسي لدورة الماء، تقوم بتسخين المحيطات التي تحوّل جزءاً من مياهها من حالتها السائلة إلى بخار، فتقوم التيارات الهوائية المتصاعدة بأخذ بخار الماء إلى داخل الغلاف الجوي (حيث درجات الحرارة المنخفضة) فيتكاثف الهواء المشبّع ببخار الماء مكونا بذلك جزيائات الماء السائلة أو المتجمدة فتمتزج بذرات الغبار مشكلة بذلك السحب.</t>
-  </si>
-  <si>
-    <t>البركان هو ذلك المكان الذي تخرج أو تنبعث منه المواد الصهيرية الحارة مع الأبخرة والغازات المصاحبة لها على عمق من والقشرة الأرضية ويحدث ذلك خلال فوهات أو شقوق . وتتراكم المواد المنصهرة أو تنساب حسب نوعها لتشكل أشكالا أرضية مختلفة منها التلال المخروطية أو الجبال البركانية العالية.سجل التاريخ حدوث هزات أرضية قبل حدوث البراكين، حيث سبق حدوث انفجار هاواي نوعان من الهزات الأرضية نوع قريب من السطح لا يتعدى بعُد مركز الزلزال فيه عن 8 كيلومترات عن السطح، ونوع حدث على أعماق سحيقة على بعد 60 كيلومترا تحت سطح الأرض. وفي بعض الحالات سبقت الهزات انفجار البراكين بعدة سنوات ومثال تلك الهزات الأرضية التي استمرت 16 عاما قبل ثوران بركان فيزوف (79 ق.م) وكذلك الهزات الأرضية التي استمرت عدة سنوات قبل حدوث انفجار بركان كيلوا Kilau في هاواي. وفي هذا المجال قام (مركز رصد البراكين) في هاواي بعدة دراسات ميدانية حول هذه الظاهرة عام 1942 حيث سجل حدوث هزات أرضية عنيفة في مونالوا Maunaloa على أبعاد سحيقة من سطح الأرض تتراوح بين 40-50 كيلومترا. وفي 22 فبراير من تلك السنة حدثت هزات أرضية قريبة من السطح على جوانب الجبل في مناطق الشقوق فيه.كانت هذه الهزات إنذارا لحدوث ثورة البركان التي حصلت على جوانب الجبل على ارتفاع 2500-3000م، بتاريخ 26 أبريل 1942. ولكن هل يمكن التنبؤ بصورة دقيقة بوقت حدوث النشاطات البركانية ؟.ومن الدراسات الحديثة في هذا المجال استخدامالأقمار الصناعية حيث يمكن بواسطتها استعمال جهاز قياس الميلTilt meter الذي يدلنا على تغير ميل التراكيب الجيولوجية نتيجة اندفاع الصهارة من اسفل إلى أعلى وحدوث تفلطح في المنطقة التي يبدأ يتكون فيها المخروط البركاني والذي تخرج منه الحمم.إن الاهتمام العالمي بهذا الخصوص أدى إلى تأسيس معاهد تختص بدراسة الظواهر الفجائية مثل الإنفجارات البركانية ففي مدينة كامبردج في الولايات المتحدة معهد يضم نخبة من الباحثين وعلماء البراكين والجيولوجيا وتتصل به شبكات عالمية تزوده بالمعلومات حول الهزات الأرضية والثورانات البركانية وأي عوارض أخرى فجائية تحدث في القشرة الأرضية في أماكن مختلفة من العالم . ويتم مقارنة ودراسة هذه المعلومات أولا بأول للوصول إلى تصورات متكاملة حول هذا الموضوع.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البركان هو ذلك المكان الذي تخرج او تنبعث منه المواد الصهيرية الحارة مع الابخرة والغازات المصاحبة لها على عمق من والقشرة الارضية ويحدث ذلك خلال فوهات او شقوق . سجل التاريخ حدوث هزات ارضية قبل حدوث البراكين، حيث سبق حدوث انفجار هاواي نوعان من الهزات الارضية نوع قريب من السطح لا يتعدى بعُد مركز الزلزال فيه عن 8 كيلومترات عن السطح، ونوع حدث على اعماق سحيقة على بعد 60 كيلومترا تحت سطح الارض. م) وكذلك الهزات الارضية التي استمرت عدة سنوات قبل حدوث انفجار بركان كيلوا Kilau في هاواي.  وفي 22 فبراير من تلك السنة حدثت هزات ارضية قريبة من السطح على جوانب الجبل في مناطق الشقوق فيه.  ولكن هل يمكن التنبؤ بصورة دقيقة بوقت حدوث النشاطات البركانية ؟. ان الاهتمام العالمي بهذا الخصوص ادى الى تاسيس معاهد تختص بدراسة الظواهر الفجائية مثل الانفجارات البركانية ففي مدينة كامبردج في الولايات المتحدة معهد يضم نخبة من الباحثين وعلماء البراكين والجيولوجيا وتتصل به شبكات عالمية تزوده بالمعلومات حول الهزات الارضية. </t>
-  </si>
-  <si>
-    <t>البركان هو ذلك المكان الذي تخرج أو تنبعث منه المواد الصهيرية الحارة مع الأبخرة والغازات المصاحبة لها على عمق من والقشرة الأرضية ويحدث ذلك خلال فوهات أو شقوق .وتتراكم المواد المنصهرة أو تنساب حسب نوعها لتشكل أشكالا أرضية مختلفة منها التلال المخروطية أو الجبال البركانية العالية.سجلالتاريخ حدوث هزات أرضية قبل حدوث البراكين، حيث سبق حدوث انفجار هاواي نوعان من الهزات الأرضية نوع قريب من السطح لا يتعدى بعُد مركز الزلزال فيه عن 8 كيلومترات عن السطح، ونوع حدث على أعماق سحيقة على بعد 60 كيلومترا تحت سطح الأرض.وفي بعض الحالات سبقت الهزات انفجار البراكين بعدة سنوات ومثال تلك الهزات الأرضية التي استمرت 16 عاما قبل ثوران بركان فيزوف (79 ق.م) وكذلك الهزات الأرضية التي استمرت عدة سنوات قبل حدوث انفجار بركان كيلوا Kilau في هاواي.وفي هذا المجال قام (مركز رصد البراكين) في هاواي بعدة دراسات ميدانية حول هذه الظاهرة عام 1942 حيث سجل حدوث هزات أرضية عنيفة في مونالوا Maunaloa على أبعاد سحيقة من سطح الأرض تتراوح بين 40-50 كيلومترا.وفي 22 فبراير من تلك السنة حدثت هزات أرضية قريبة من السطح على جوانب الجبل في مناطق الشقوق فيه.كانت هذه الهزات إنذارا لحدوث ثورة البركان التي حصلت على جوانب الجبل على ارتفاع 2500-3000م، بتاريخ 26 أبريل 1942.</t>
-  </si>
-  <si>
-    <t>العاصفة الثلجية عبارة عن عاصفة قاسية بصاحبها برد شديد ورياح قوية ويصاحبها سقوط للثلج . وهذه العواصف الثلجية توجد في شمال القارة الأمريكية الشمالية و سيبيريا و دول اسكندنافيا و غرينلاند .والرياح الشتوية الباردة تبدأ قي تكوينها من إسكندينافيا وشرق أوربا باتجاه الغرب لتصبح هذه المناطق باردة جدا طوال شهور الشتاء . وعندما تهب الرياح خارج القارة الأوربية تكون جافة جدا وباردة جدا ويصاحبها بعض السحب ويصاحبها هبوط ملحوظ في درجات الحرارة . لكن عندما تتجه الرياح ناحية شمال غرب ااجع الرياح فوق مساحة كبيرة وطويلة فوق بحر الشمال مصاحبة معها السحب التي تجعل الصقيع كحزم أن هذه السحب تعمل كبطانية تجعل درجة حرارة الجو ليلا أعلي . ففي هذه الحالة الصقيع يصعب التنبؤ به . والضباب في هذه المناق يصعب التنبؤ به لأنه يعتمد على وجود أو عدم وجود السحب.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العاصفة الثلجية عبارة عن عاصفة قاسية بصاحبها برد شديد ورياح قوية ويصاحبها سقوط للثلج .  وعندما تهب الرياح خارج القارة الاوربية تكون جافة جدا وباردة جدا ويصاحبها بعض السحب ويصاحبها هبوط ملحوظ في درجات الحرارة .  والضباب في هذه المناق يصعب التنبؤ به لانه يعتمد على وجود او عدم وجود السحب. </t>
-  </si>
-  <si>
-    <t>العاصفة الثلجية عبارة عن عاصفة قاسية بصاحبها برد شديد ورياح قوية ويصاحبها سقوط للثلج .وهذه العواصف الثلجية توجد في شمال القارة الأمريكية الشمالية و سيبيريا و دول اسكندنافيا و غرينلاند .والرياحالشتوية الباردة تبدأ قي تكوينها من إسكندينافيا وشرق أوربا باتجاه الغرب لتصبح هذه المناطق باردة جدا طوال شهور الشتاء .</t>
-  </si>
-  <si>
-    <t>تم حفر أول بئر للبترول في الصين في القرن الرابع الميلادي أوقبل ذلك. وكان يتم إحراق الزيت لتبخير الماء المالح لإنتاج الملح. وبحلول القرن العاشر، تم استخدام أنابيب الخيرزان لتوصيل الأنابيب لمنابع المياه المالحة.في القرن الثامن الميلادي، كان يتم رصف الطرق الجديدة في بغداد باستخدام القار، الذي كان يتم إحضاره من من ترشحات البترول في هذه المنطقة. في القرن التاسع الميلادي، بدأت حقول البترول في باكو، أذربيجان بإنتاج البترول بطريقة اقتصادية لأول مرة. وكان يتم حفر هذه الحقول للحصول على النفط، وتم وصف ذلك بمعرفة الجغرافي ماسودي في القرن العاشر الميلادي، وأيضا ماركو بولو في القرن الثالث عشر الميلادي، الذي وصف البترول الخارج من هذه الآبار بقوله أنها مثل حمولة مئات السفن. شاهد أيضا الحضارة الإسلامية.ويبدأ التاريخ الحديث للبترول في عام 1853، باكتشاف عملية تقطير البترول. فقد تم تقطير البترول والحصول منه على الكيروسين بمعرفة إجناسى لوكاسفيز، وهو عالم بولندي. وكان أول منجم زيت صخري يتم إنشائه في بوربكا، بالقرب من كروسنو في جنوب بولندا، وفي العام التالي لذلك تم بناء أول معمل تكرير (في الحقيقة تقطير) في يولازوفايز، وكان أيضا عن طريق لوكاسفيز. وإنتشرت هذه الاكتشافات سريعا في العالم، وقام ميرزوف ببناء أول معمل تقطير في روسيا في حقل الزيت الطبيعي في باكو في عام 1861 بئر بترول في كاليفرونيا، 1938وبدأت صناعة البترول الأمريكية باكتشاف إيدوين دريك للزيت في عام 1859، بالقرب م تيتوسفيل - بنسلفانيا. وكان نمو هذه الصناعة بطيء نوعا ما في القرن الثامن عشر. الميلادي، وكانت محكومة بالمتطلبات المحدودة للكيروسين ومصابيح الزيت. وأصبحت مسألة إهتمام قومية في بدايات القرن العشرين، عند بداية استخدام محركات الإحتراق الداخلية مما أدى لزيادة طلب الصناعة بصفة عامة على البترول. وقد أستنفذت الاكتشافات الأولى في أمريكا في بنسفانيا وأونتاريو، مما أدى إلى "أزمة زيت" في تكساسا، أوكلاهوما، كاليفورنيا.وبالإضافة إلى ما تم ذكره، فإنه بحلول عام 1910 تم اكتشاف حقول بترول كبيرة في كندا، جزر الهند الشرقية، إيرانو فينزويلا، المكسيك، وتم تطويرهم لاستخدامهم صناعيا.وبالرغم من ذلك حتى في عام 1955 كان الفحم أشهر أنواع الوقود في العالم، وبدأ البترول أخذ مكانته بعد ذلك. وبعد أزمة طاقة 1973 و أزمة طاقة 1979 ركزت وسائل إعلام على تغطية مستويات إمدادات البترول. وقد أدى ذلك لإلقاء الضوء على أن البترول مادة محدودة ويمكن أن تنفذ، على الأقل كمصدر طاقة اقتصادي قابل للحياة. وفي الوقت الحالي، فإن أكثر التوقعات الشائعة مفزعة، وفي حالة عدم تحقق هذه التوقعات في وقتها، يتم تنحية هذه التوقعات تماما كطريقة لبث الاطمئنان، ومثال ذلك تنحية التوقعات المفزعة لمخزون البترول التي تمت في السبعينيات من القرن العشرين. ويظل مستقبل البترول كوقود محل جدل. وأفادت الأخبار بالولايات المتحدة (2004) أنه يوجد ما يعادل استخدام 40 سنة من البترول في باطن الأرض. وقد يجادل البعض لأن كمية البترول الموجودة محدودة. ويوجد جدل أخر بأن التقنيات الحديثة ستستمر في إنتاج الهيدروكربونات الرخيصة وأن الأرض تحتوي على مقدرا ضخم من البترول غير التقليدي، مخزون على هيئة رمل قطراني، حقول بيتيومين، زيت طفلي وهذا سيسمح باستمرار استخدام البترول لفترة كبيرة من الزمن.وحاليا فإنه تقريبا 90% من إحتياجات السيارات للوقود يتم الوفاء بها عن طريق البترول. ويشكل البترول تقريبا 40% من الاستهلاك الكلي للطاقة في الولايات المتحدة، ولكنه يشكل تقريبا 2% فقط في توليد الكهرباء. وقيمة البترول تكمن في إمكانية نقله، كمية الطاقة الكبيرة الموجودة فيه، والتي تكون مصدر لمعظم المركبات، وكمادة أساسية في لعديد من الصناعات الكيمياوية، مما يجعله من أهم البضائع في العالم. وكان الوصول للبترول سببا في كثير من التشابكات العسكرية، بما فيها الحرب العالمية الثانية حرب العراق وإيران. وتقريبا 80% من مخزون العالم للبترول يتواجدفي الشرق الأوسط، وتقريبا 62.5 % منه في الخمس دول: المملكة العربية السعودية، الإمارات العربية المتحدة، العراق، الكويت، إيران. بينما تمتلك أمريكا تقريبا 3%.للبترول تأثير ملحوظ على الناحية البيئية والإجتماعية، وذلك من الحوادث والنشاطات الروتينية التي تصاحب إنتاجه وتشغيله، مثل الإنفجارات الزلزالية أثناء إنتاجه، الحفر، تولد النفايات الملوثة. كما أن استخراج البترول عملية مكلفة وأحيانا ضارة بالبيئة، بالرغم من أن (جون هنت من وودز هول) أشار في عام 1981 إلى أن أكثر من 70% من الإحتياطي العالمي يصاحبه ترشحات كبيرة أي أنه لا يستلزم الإضرار بالبيئة لاستخراجه، وعديد من حقول البترول تم العثور على العديد منها نتيجة للتسريب الطبيعي. كما أن استخراج البترول بالقرب من الشواطيء يزعج الكائنات البحرية ويؤثر على بيئتها. كما أن استخراج البترول قد يتضمن الكسح، الذي يحرك قاع البحر، مما يقتل النباتات البحرية التي تحتاجها الكائنات البحرية للحياة. كما أن نفايات الزيت الخام والوقود المقطر التي تتناثر من حوادث ناقلات البترول أثرت على العلاقة التبادلية بين الكائنات الحية (بموت أحد هذه الكائنات) في ألاسكا، جزر جالاباجوس، أسبانيا، وعديد من الاماكن الأخرى. أحد الأرصفة البحرية لإنتاج البترولومثل أنواع الوقود الحفري الأخرى، يتسبب حرق البترول في إنبعاث ثاني أكسيد الكربون للغلاف الجوي، وهو ما يعتقد أنه يساهم في ظاهرة السخونة العالمية. وبوحدات الطاقة فإن البترول ينتج كميات CO 2 أقل من الفحم، ولكن أكثر من الغاز الطبيعي. ونظرا لدور البترول المتفرد في عمليات النقل، فإن تقليل إنبعاثات CO 2 تعتبر من المسائل الشائكه في استخدامه. وتجرى محاولات لتحسين هذه الإنبعثات عن طريق إحتجازها في المصانع الكبيرة.البدائل هي مصادر الطاقة المتجددة وهي موجودة بالفعل، وإن كانت نسبة هذا الاستبدال لاتزال صغيرة. الشمس، الرياح والمصادر المتجددة الأخرى تأثرياتها على البيئة أقل من البترول. ويمكن لهذه المصادر استبدال البترول في الاستخدامات التي لا تتطلب كميات طاقة ضخمة، مثل السيارات، ويجب تصميم المعدات الاخرى لتعمل باستخدام الكهرباء (المخزونة في البطاريات)، أو الهيدروجين (عن طريق خلايا الوقود، أو الحتراق الداخلي) والذي يمكن إنتاجه من مصادر متجددة. كما أن هناك خيارات أخرى تتضمن استخدام الوقود السائل الذي له أصل حيوي (إيثانول، الديزل الحيوي). وهناك توجه عالمي للترحيب بأي أفكار جديدة تساهم في استبدال البترول كوقود لعمليات النقل.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تم حفر اول بئر للبترول في الصين في القرن الرابع الميلادي اوقبل ذلك.  وكان اول منجم زيت صخري يتم انشائه في بوربكا، بالقرب من كروسنو في جنوب بولندا، وفي العام التالي لذلك تم بناء اول معمل تكرير (في الحقيقة تقطير) في يولازوفايز، وكان ايضا عن طريق لوكاسفيز.  الميلادي، وكانت محكومة بالمتطلبات المحدودة للكيروسين ومصابيح الزيت. وبالاضافة الى ما تم ذكره، فانه بحلول عام 1910 تم اكتشاف حقول بترول كبيرة في كندا، جزر الهند الشرقية، ايرانو فينزويلا، المكسيك، وتم تطويرهم لاستخدامهم صناعيا.  وقيمة البترول تكمن في امكانية نقله، كمية الطاقة الكبيرة الموجودة فيه، والتي تكون مصدر لمعظم المركبات، وكمادة اساسية في لعديد من الصناعات الكيمياوية، مما يجعله من اهم البضائع في العالم. للبترول تاثير ملحوظ على الناحية البيئية والاجتماعية، وذلك من الحوادث والنشاطات الروتينية التي تصاحب انتاجه وتشغيله، مثل الانفجارات الزلزالية اثناء انتاجه، الحفر، تولد النفايات الملوثة. </t>
-  </si>
-  <si>
-    <t>تم حفر أول بئر للبترول في الصين في القرن الرابع الميلادي أوقبل ذلك.وكان يتم حفر هذه الحقول للحصول على النفط، وتم وصف ذلك بمعرفة الجغرافي ماسودي في القرن العاشر الميلادي، وأيضا ماركو بولو في القرن الثالث عشر الميلادي، الذي وصف البترول الخارج من هذه الآبار بقوله أنها مثل حمولة مئات السفن.وكان أول منجم زيت صخري يتم إنشائه في بوربكا، بالقرب من كروسنو في جنوب بولندا، وفي العام التالي لذلك تم بناء أول معمل تكرير (في الحقيقة تقطير) في يولازوفايز، وكان أيضا عن طريق لوكاسفيز.وإنتشرت هذه الاكتشافات سريعا في العالم، وقام ميرزوف ببناء أول معمل تقطير في روسيا في حقل الزيت الطبيعي في باكو في عام 1861 بئر بترول في كاليفرونيا، 1938وبدأت صناعة البترول الأمريكية باكتشاف إيدوين دريك للزيت في عام 1859، بالقرب م تيتوسفيل - بنسلفانيا.وقيمة البترول تكمن في إمكانية نقله، كمية الطاقة الكبيرة الموجودة فيه، والتي تكون مصدر لمعظم المركبات، وكمادة أساسية في لعديد من الصناعات الكيمياوية، مما يجعله من أهم البضائع في العالم.كما أن استخراج البترول عملية مكلفة وأحيانا ضارة بالبيئة، بالرغم من أن (جون هنت من وودز هول) أشار في عام 1981 إلى أن أكثر من 70% من الإحتياطي العالمي يصاحبه ترشحات كبيرة أي أنه لا يستلزم الإضرار بالبيئة لاستخراجه، وعديد من حقول البترول تم العثور على العديد منها نتيجة للتسريب الطبيعي.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الزلزال هو ظاهرة طبيعية عبارة عن اهتزاز أرضي سريع يعود إلى تكسر الصخور وإزاحتها بسبب تراكم اجهادات داخلية نتيجة لمؤثرات جيولوجية ينجم عنها تحرك الصفائح الأرضية. قد ينشأ الزلزال كنتيجة لأنشطة البراكين أو نتيجة لوجود انزلاقات في طبقات الأرض.تؤدي الزلازل إلى تشقق الأرض ونضوب الينابيع أو ظهور الينابيع الجديدة أو حدوث أمواج عالية إذا ما حصلت تحت سطح البحر ( تسونامي )فضلا عن آثارها التخريبية للمباني والمواصلات والمنشآت وغالبا ينتج عن حركات الحمل الحراري في الأستينوسفير والتي تحرك الصفائح القارية متسببة في حدوث هزات هي الزلازل. كما ان الزلازل قد تحدث خرابا كبيراو تحدد درجة الزلزال بماشر وتقيسه من 1 إلى 10:من 1 إلى4 زلازل قد لا تحدث اية اضرار اي يمكن الاحساس به فقط،من4 إلى 6 زلازل متوسطة الاضرار قد تحدث ضررا للمنازل و الاقامات،اما الدرجة القصوى اي من 7الى10 فيستطيع الزلزال تدمير المدينة باكملها وحفرها تحت اتلارض حتى تختفي مع اضرار لدى المدن المجاورة لها.زلزال لشبونة 1755 قتل فيه ما بين ال60 إلى 100 ألف نسمة و كان من أشد الزلازل تدميرا على مر التاريخ.من أشهر الزلازل.زلزال سان فرانسيسكو 1906 قتل فيه ما يقارب ال3 الألاف شخص و بلغت خسائره حوالي 400 مليون دولار و كان من أشد الزلازل التي ضربت كاليفورنيا .زلزال غوجرات غرب الهند 26 يناير 2001 .زلزال بم في إيران حيث قتل حوالي 40 الف شخص فيه .زلزال المحيط الهندي 26 ديسمبر 2004 الذي أعقبه أشهر موجة تسونامي حيث ضربت سواحل العديد من الدول منها اندونيسيا، سريلانكا ، تايلاند ، الهند ، الصومال و غيرها حيث وصفت هذا الزلزال بأنه أحد أسوأ الكوارث الطبيعية التي ضربت الأرض على الأطلاق قتل فيه ما يقارب ال250000. زلزال كشمير 2005 قتل فيه حوالي 79 ألف شخص . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الزلزال هو ظاهرة طبيعية عبارة عن اهتزاز ارضي سريع يعود الى تكسر الصخور وازاحتها بسبب تراكم اجهادات داخلية نتيجة لمؤثرات جيولوجية ينجم عنها تحرك الصفائح الارضية.  قد ينشا الزلزال كنتيجة لانشطة البراكين او نتيجة لوجود انزلاقات في طبقات الارض. تؤدي الزلازل الى تشقق الارض ونضوب الينابيع او ظهور الينابيع الجديدة او حدوث امواج عالية اذا ما حصلت تحت سطح البحر ( تسونامي )فضلا عن آثارها التخريبية للمباني والمواصلات والمنشآت وغالبا ينتج عن حركات الحمل الحراري في الاستينوسفير والتي تحرك الصفائح القارية. زلزال غوجرات غرب الهند 26 يناير 2001 . </t>
-  </si>
-  <si>
-    <t>الزلزال هو ظاهرة طبيعية عبارة عن اهتزاز أرضي سريع يعود إلى تكسر الصخور وإزاحتها بسبب تراكم اجهادات داخلية نتيجة لمؤثرات جيولوجية ينجم عنها تحرك الصفائح الأرضية.قد ينشأ الزلزال كنتيجة لأنشطة البراكين أو نتيجة لوجود انزلاقات في طبقات الأرض.تؤديالزلازل إلى تشقق الأرض ونضوب الينابيع أو ظهور الينابيع الجديدة أو حدوث أمواج عالية إذا ما حصلت تحت سطح البحر ( تسونامي )فضلا عن آثارها التخريبية للمباني والمواصلات والمنشآت وغالبا ينتج عن حركات الحمل الحراري في الأستينوسفير والتي تحرك الصفائح القارية متسببة في حدوث هزات هي الزلازل.كما ان الزلازل قد تحدث خرابا كبيراو تحدد درجة الزلزال بماشر وتقيسه من 1 إلى 10:من 1 إلى4 زلازل قد لا تحدث اية اضرار اي يمكن الاحساس به فقط،من4 إلى 6 زلازل متوسطة الاضرار قد تحدث ضررا للمنازل و الاقامات،اما الدرجة القصوى اي من 7الى10 فيستطيع الزلزال تدمير المدينة باكملها وحفرها تحت اتلارض حتى تختفي مع اضرار لدى المدن المجاورة لها.زلزال لشبونة 1755 قتل فيه ما بين ال60 إلى 100 ألف نسمة و كان من أشد الزلازل تدميرا على مر التاريخ.من</t>
-  </si>
-  <si>
-    <t>الثلج نوع من الهطولات على شكل بلورات دقيقة للجليد تحدث في الفصل البارد لكنها لا تحدث في كل دول العالم. و تزداد غزارة الثلوج وكثافتها كلما اتجهنا قريباً من القطبين الجنوبي و الشمالي. تتم هذه الظاهرة التقاء تيارات هوائية رطبة ودافئة مع تيارات باردة تكون درجة حرارتها 12.5 تحت الصفر و يجب لتكون الثلج توفر نويات التكاثف التي يتكون عليها الثلج وهي عبارة عن جسيمات صلبة صغيرة جدا عالقة في الجو العلوي مثل ذرات الغبار أو الرماد وعند وجودها تتوفر الحالات الثلاث التي تمكن بخار الماء ليتحول من الحالة الغازية إلى الحالة الصلبة مكونا الثلج و يتم ذلك بتكاثف جزيئات الماء على النواة و في أثناء التصاقها مع بعضها تتم في العادة بناء بللورة الثلج و تكون في هذه المرحلة عبارة عن صفيحة رقيقة ذات ستة جوانب و عندما تسقط هذه البلورة ترتفع درجة الحرارة يتكاثف عليها قدر أكبر من جزيئات الماء و هكذا تنمو حيث يتفرع من الصفيحة البلورية ست أذرع و في درجات الحرارة الأكثر ارتفاعا تذوب حواف البلورة قليلا و ذلك لإتاحة فرصة الالتصاق مع البلورات الأخرى و بهذا تتكون الصفيحة الثلجية.لطالما اتصفت صورة الثلج في ذهن الإنسان بالنقاء و العفة و الطهارة و ربما جاء هذا من لون الثلج الأبيض الناصع, فمثلا قصة بياض الثلج و الأقزام السبعة كان اسم بطلة القصة و هي الفتاة الطيبة بياض الثلج snow white . و في أحيان أخرى يكون الثلج رمزا للموت البطئ و القاسي و الذي جاء بطبيعة الحال بسبب ترافق الثلج مع تيارات باردة و متجمدة و مع غياب للشمس و هبوط حاد للحرارة.</t>
-  </si>
-  <si>
-    <t>و تزداد غزارة الثلوج وكثافتها كلما اتجهنا قريباً من القطبين الجنوبي و الشمالي.لطالما اتصفت صورة الثلج في ذهن الإنسان بالنقاء و العفة و الطهارة و ربما جاء هذا من لون الثلج الأبيض الناصع, فمثلا قصة بياض الثلج و الأقزام السبعة كان اسم بطلة القصة و هي الفتاة الطيبة بياض الثلج snow white .و في أحيان أخرى يكون الثلج رمزا للموت البطئ و القاسي و الذي جاء بطبيعة الحال بسبب ترافق الثلج مع تيارات باردة و متجمدة و مع غياب للشمس و هبوط حاد للحرارة.</t>
-  </si>
-  <si>
-    <t>الثلج نوع من الهطولات على شكل بلورات دقيقة للجليد تحدث في الفصل البارد لكنها لا تحدث في كل دول العالم.تتم هذه الظاهرة التقاء تيارات هوائية رطبة ودافئة مع تيارات باردة تكون درجة حرارتها 12.5 تحت الصفر و يجب لتكون الثلج توفر نويات التكاثف التي يتكون عليها الثلج وهي عبارة عن جسيمات صلبة صغيرة جدا عالقة في الجو العلوي مثل ذرات الغبار أو الرماد وعند وجودها تتوفر الحالات الثلاث التي تمكن بخار الماء ليتحول من الحالة الغازية إلى الحالة الصلبة مكونا الثلج و يتم ذلك بتكاثف جزيئات الماء على النواة و في أثناء التصاقها مع بعضها تتم في العادة بناء بللورة الثلج و تكون في هذه المرحلة عبارة عن صفيحة رقيقة ذات ستة جوانب و عندما تسقط هذه البلورة ترتفع درجة الحرارة يتكاثف عليها قدر أكبر من جزيئات الماء و هكذا تنمو حيث يتفرع من الصفيحة البلورية ست أذرع و في درجات الحرارة الأكثر ارتفاعا تذوب حواف البلورة قليلا و ذلك لإتاحة فرصة الالتصاق مع البلورات الأخرى و بهذا تتكون الصفيحة الثلجية.لطالما</t>
-  </si>
-  <si>
-    <t>الحيتان هي رتبة الحيتان في صف الثدييات ، وتضم كل الحيتان. والحوت الأزرق ، هو أكبر الحيوانات الثديية ذوات الدم الحار، تعيش في البحار والمحيطات وتلد فيها, وتعد الحيتان من أكبر المخلوقات على الأرض. الحيتان الحالية تنقسم عموما إلى صنفين رئيسيين الحيتان المسننة ذات الاسنان و الحيتان البلّينية .حال الحيتان كحال باقي الثديات تتنفس عن طريق الرئة ليس عن طريق الخياشيم كما في الاسماك . والحيتان من ذوات الدمّ الحار الاسماك هي من ذوات الدمّ البارد ، تلد الحيتان صغارها حية تحت الماء وتقوم الحيتان بارضاع صغارها بالحليب عن طريق جلدها الخارجي المغطى بشكل قليل جدا بالشعر. الانف تحوّر عند الحيتان إلى فتحة مفردة فوق رأسها. وجسم الحيتان يستهلك الاوكسجين بكفائة جيدة لكي تتمكن من الغطس لمدد طويلة. عندما تخرج الحيتان رأسها فوق سطح الماء تقوم باستخراج الهواء المستهلك عن طريق بخّه إلى الاعلى من فتحة الانف العلوية وتكون عادة مصحوبة برذاذ بخار الماء لعلو عدة امتار. وهناك علماء يستطيعون تمييز انواع الحيتان من شكل البخّة لان لكل نوع بخّته الخاصة.في سنة 1859 كان لداروين توضيحات بشكل نظري كيف نشأت الحيتان الحالية. حسب داروين فانّ الحيتان والدلافين اصلهم يرجع إلى ثديات اليابسة, تلك الثديات التي كانت تحصل على معظم غذائها في الوسط المائي لذلك تكيّفت تلك الثديات مع الوسط الجديد, وكان العالم لامارك يعتقد عكس ذلك, اذ انه كان يعتقد بان ثديات اليابسة اصلها يرجع إلى ثديات الماء.وضرب داروين مثالا على ذلك وهو الدبّ الاسود, كان زميل له رآه في قارة أمريكا الشمالية, ذلك الشخص رأى الدب الاسود يسبح في بركة ماء بشكل متواصل لساعات عديدة دون توقف من اجل اصطياد الحشرات. اذا استمر هذا الدبّ او اي من حيوان ثدي آخر ولاجيال عديدة جدا يبحث معظم وقته عن الغذاء في الماء فانه سيتكيف ويتصرف مثل الحيوانات المائية وبشكل تدريجي. وتبدأ اجسامهم بالتكيّف التغيّر من اجل سباحة وغطس افضل, وبعد مدة طويلة ملايين السنين وبشكل تدريجي ينشأ حيوان على شاكلة الحيتان او كلاب البحر.المشكلة الوحيدة آنذاك التي جلبت الكثير من الضجة حولها كانت هي عدم وجود احافير كأدلة على حدوث ذلك. وفي ذلك الزمن كان هناك احفور واحد مكتشف للحيتان ولكنه كان لحيتان مائية بالكامل وتسمى بالباسيلوساورس . وهذا الاحفور لحوت قديم جدا طوله كان 15 مترا وجسم شبيه بالثعابين.وهذا الاحفور كان ضحية لعملية احتيال اذ استعمل البرت كوخ عظام خمس حيتان مختلفة لتركيب الهيكل العظمي الكامل والطويل والذي قدّمه للعالَم تحت اسم الاحفور هايدرارخس ثعبان البحري الاسطوري. عالم الاحافير ريجارد هالان اكتشف ايضا احافير ترجع إلى الباسيلوساورس ، وهذا العالم كان أكثر علمية ومسؤلية من السابق, ولكنه ايضا استنتج بعض التفسيرات الخاطئة. هارلان اعتقد ان الحيوان كان لزواحف بحرية ضخمة منقرضة كانت منتشرة في المحيطات لفترة طويلة من الزمن في الماضي السحيق. نظرا لهذه الخلفية الخاطئة قدم هارلان احفوره كملك للزواحف باسيلوساورس . ثم قام أشهر عالم احافير في انكلترا السير ريجارد اوين بألقاء نظرة إلى ذلك الاحفور فظهر بعض الحقائق عن اصل ذلك الاحفور. مجموعة اسنان ذلك الحيوان كانت مركبة من اسنان صغيرة في الجهة الامامية للوجه, وفي الجهة الخلفية مركبة من اسنان عريضة بحجم البطاطس, وهذه تنافي مجموعة اسنان للزواحف التي لها اسنان موحدّة الشكل. مجموعة الاسنان مركّبة من اسنان قاطعة واضراس كاذبة وحقيقية يمكن ايجاده فقط في عدد قليل جدا من الثديات. وكذلك العمود الفقري لذلك الحيوان كان ايضا للثديات والذي كان يطابق العمود الفقري للحيتان بشكل جيد. وعندما تمّ فحص العظم تحت المجهر تبينت الحقيقة ، بدلا من نمط انابيب صغيرة كما في الزواحف وُجد تحت عظمة السنّ نمط قنوات متموّجة صغيرة تماما كما هو موجود لدى الثديات. لكن على الرغم من ذلك احتفظ الباسيلوساورس باسمه بسبب قوانين التصنيفيات .الجسم الطويل الشبيه بالثعابين للباسيلوساورس جعل من علماء الاحافير و هاوٍ للبحث والحفر عن العظام القديمة حوالي 1830 يعتقدون ان الجسم ربما كان لثعابين البحر. على الرغم من ان هناك الكثير من الاحافير المكتشفة للباسيلوساورس الاّ ان عظام ارجله القصيرة الخلفية تم اكتشافه في 1989. كان العلماء يعتقدون ان طول هذا الحيوان يقدّر بخمسة واربعين مترا لكن الطول الحقيقي لهذه الحيوانات كان يتراوح مابين 15 إلى 18 مترا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحيتان هي رتبة الحيتان في صف الثدييات ، وتضم كل الحيتان.  الحيتان الحالية تنقسم عموما الى صنفين رئيسيين الحيتان المسننة ذات الاسنان و الحيتان البلّينية . وضرب داروين مثالا على ذلك وهو الدبّ الاسود, كان زميل له رآه في قارة امريكا الشمالية, ذلك الشخص راى الدب الاسود يسبح في بركة ماء بشكل متواصل لساعات عديدة دون توقف من اجل اصطياد الحشرات.  وتبدا اجسامهم بالتكيّف التغيّر من اجل سباحة وغطس افضل, وبعد مدة طويلة ملايين السنين وبشكل تدريجي ينشا حيوان على شاكلة الحيتان او كلاب البحر.  وهذا الاحفور لحوت قديم جدا طوله كان 15 مترا وجسم شبيه بالثعابين.  وعندما تمّ فحص العظم تحت المجهر تبينت الحقيقة ، بدلا من نمط انابيب صغيرة كما في الزواحف وُجد تحت عظمة السنّ نمط قنوات متموّجة صغيرة تماما كما هو موجود لدى الثديات.  على الرغم من ان هناك الكثير من الاحافير المكتشفة للباسيلوساورس الاّ ان عظام ارجله القصيرة الخلفية تم اكتشافه في 1989. </t>
-  </si>
-  <si>
-    <t>الحيتان هي رتبة الحيتان في صف الثدييات ، وتضم كل الحيتان.والحوت الأزرق ، هو أكبر الحيوانات الثديية ذوات الدم الحار، تعيش في البحار والمحيطات وتلد فيها, وتعد الحيتان من أكبر المخلوقات على الأرض.والحيتان من ذوات الدمّ الحار الاسماك هي من ذوات الدمّ البارد ، تلد الحيتان صغارها حية تحت الماء وتقوم الحيتان بارضاع صغارها بالحليب عن طريق جلدها الخارجي المغطى بشكل قليل جدا بالشعر.حسب داروين فانّ الحيتان والدلافين اصلهم يرجع إلى ثديات اليابسة, تلك الثديات التي كانت تحصل على معظم غذائها في الوسط المائي لذلك تكيّفت تلك الثديات مع الوسط الجديد, وكان العالم لامارك يعتقد عكس ذلك, اذ انه كان يعتقد بان ثديات اليابسة اصلها يرجع إلى ثديات الماء.وضربداروين مثالا على ذلك وهو الدبّ الاسود, كان زميل له رآه في قارة أمريكا الشمالية, ذلك الشخص رأى الدب الاسود يسبح في بركة ماء بشكل متواصل لساعات عديدة دون توقف من اجل اصطياد الحشرات.وتبدأ اجسامهم بالتكيّف التغيّر من اجل سباحة وغطس افضل, وبعد مدة طويلة ملايين السنين وبشكل تدريجي ينشأ حيوان على شاكلة الحيتان او كلاب البحر.المشكلةكان العلماء يعتقدون ان طول هذا الحيوان يقدّر بخمسة واربعين مترا لكن الطول الحقيقي لهذه الحيوانات كان يتراوح مابين 15 إلى 18 مترا.</t>
-  </si>
-  <si>
-    <t>تعد الشمس أقرب النجوم إلى الأرض وتحوي من الأسرار والغرائب أكثر بكثير مما اكتشف ، وان طبيعة شمسنا ككرة غازية ملتهبة بدلا من أن تكون جسما صلبا جعل لها بعض الحقائق العجيبة منها : إنها تدور حول محورها بطريقة مغايرة تماما لطريقة دوران الكواكب الصلبة ، فوسط الشمس  خط استوائها  يدور حول المحور دورة كاملة في 25 يوما بينما تطول هذه المدة في المناطق شمال وجنوب خط الاستواء حتى تصل إلى حوالي 37 يوما عند القطبين ، أي أن الشمس في هذه الحالة تدور وكأنها تفتل فتلا.ولعل هذه الحركة التي وصفها ابن عباس عندما قال عن الشمس إنها تدور كما يدور المغزل ، وهذا بالتالي يؤدي إلى تداخل خطوط القوى المغناطيسية الموجودة على سطها بطريقة معقدة جدا وهذه بدورها ومع مرور الزمن تؤثر بشكل قوي على ظهور بعض الظواهر الشمسية مثل الكلف الشمسي.تنتفض الشمس وتهتز مثل  الجيلي  جاء هذا الاكتشاف في دراسة أعدت سنة 1973 عندما حاول العالم قياس قطر الشمس بين القطبين وعند خط الإستواء ليتأكد اذا كان هناك أي تفلطح للشمس ، أي أن قطرها عند القطبين أقل منه عند خط الاستواء والعكس صحيح فأطلق التعبير أن الشمس تهتز مثل الجيلي إلا أن هذا الاهتزاز مسافته لا تزيد عن 5 كيلومتر وبسرعة 10 أمتار في الثانية وهذه بالطبع تحتاج إلى أجهزة بالغة في الدقة والتعقيد لاكتشافها ثم اكتشف بعد ذلك فريق من العلماء الروس والبريطانيين سنة 1976 بان هناك  اهتزازات أخرى للشمس إحداهما تحدث كل خمسين دقيقة والأخرى تحدث كل ساعتين وأربعين دقيقة ، واصبح الان ما يسمى بعلم  الزلازل الشمسية  ذا أهمية قصوى في علم الفلك لتعلم أسرار الشمس والتي مازال هناك الكثير لفك اسرارها وخفاياها. الشمس مصدر الدفء والضياء على الأرض وبدون الشمس تنمحى الحياة الراقية على الأرض . فالطاقة الشمسية لازمة للحياة النباتية والحيوانية ، كما أن معظم الطاقات الأخرى الموجودة على الأرض مثل الفحم والبترول والغاز الطبيعى والرياح ما هى إلا صور مختلفة من الطاقة الشمسية وقد يندهش القارىء إذا ما علم أن الشمس التى هى عماد الحياة على الأرض والتى قدسها القدماء لهذا السبب ، ما هى إلا نجما متوسطا في الحجم والكتلة واللمعان ، حيث توجد في الكون نجوم أكبر من الشمس تعرف بالنجوم العملاقة ، كما توجد نجوم أصغر من الشمس تعرف بالنجوم الأقزام . وكون الشمس نجما وسطا يجعلها أكثر استقرارا الأمر الذى ينعكس على استقرار الحياة على الأرض . فلو زاد الإشعاع الشمسى عن حد معين لاحترقت الحياة على الأرض ولو نقص الإشعاع الشمسى عن حد معين أيضا لتجمدت الحياة على الأرض والشمس هى أقرب النجوم إلى الأرض ، وهى النجم الوحيد الذى يمكن رؤية معالم مسطحه بواسطة المنظار الفلكي . أما باقى النجوم فيصعب حتى الآن مشاهدة تفاصيل أسطحها نظرا لبعدها السحيق عنا . فلوا استخدمنا أكبر المناظير في العالم نرى النجوم كنقط لامعة وبدون تفاصيل ، أما لو استخدمنا منظارا متوسطا في القوة لرأينا مساحات على سطح الشمس تساوى مساحة القطر المصرى تقربيا . وعلى سبيل المثال المقارنة نجد أن متوسط بعد الشمس عن الأرض يساوى 93 مليون ميل ويعرف بالوحدة الفلكية لقياس المسافات في الكون وتساوى 147,6 مليون كم .أما أقرب نجم أو شمس لنا بعد شمسنا يقدر بعده بحوالى 4,2 سنة ضوئية أى يعادل حوالى 42 مليون مليون كيلو متر، بينما المسافة الزمنية التي يقطعها الضوء ليصل إلينا من الشمس هو ثمانية دقائق ونصف وهذه المسافة اذا ما قورنت بأقرب نجم تعتبر قصيرة ولكنها بحساباتنا الأرضية هائلة وتبلغ ما مجموعه لو درنا حول الأرض أربعة آلاف مرة تقريبا.وهذه الكرة الشمسية المستديرة تحوي كمية هائلة من الغاز الملتهب المتماسك والشديد الحرارة، وهناك في بعض الأحيان تبدو الشمس وكأنها تلبس حلقة وردية من النتوءات وهو عبارة عن ضوء شاحب وردي حول الشمس كالتاج، يسمى الشواضي الشمسية، يعلوه طبقة من الغاز الحار اللؤلؤي المنتشر يصورة رقيقة في الفضاء ويدعى الأكليل الشمسي.وعلماء الفلك يستطيعون رؤية الشواضي الشمسية والأكليل وكذلك كلف الشمس التي هي على شكل بقع سوداء تظهر أحيانا على سطح الشمس بأستخدام الآلات والمراصد فلكية.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعد الشمس اقرب النجوم الى الارض وتحوي من الاسرار والغرائب اكثر بكثير مما اكتشف ، وان طبيعة شمسنا ككرة غازية ملتهبة بدلا من ان تكون جسما صلبا جعل لها بعض الحقائق العجيبة منها : انها تدور حول محورها بطريقة مغايرة تماما لطريقة دوران الكواكب الصلبة ، فوسط الش. تنتفض الشمس وتهتز مثل  الجيلي  جاء هذا الاكتشاف في دراسة اعدت سنة 1973 عندما حاول العالم قياس قطر الشمس بين القطبين وعند خط الاستواء ليتاكد اذا كان هناك اي تفلطح للشمس ، اي ان قطرها عند القطبين اقل منه عند خط الاستواء والعكس صحيح فاطلق التعبير ان الشمس ته.  فلو زاد الاشعاع الشمسى عن حد معين لاحترقت الحياة على الارض ولو نقص الاشعاع الشمسى عن حد معين ايضا لتجمدت الحياة على الارض والشمس هى اقرب النجوم الى الارض ، وهى النجم الوحيد الذى يمكن رؤية معالم مسطحه بواسطة المنظار الفلكي . اما اقرب نجم او شمس لنا بعد شمسنا يقدر بعده بحوالى 4,2 سنة ضوئية اى يعادل حوالى 42 مليون مليون كيلو متر، بينما المسافة الزمنية التي يقطعها الضوء ليصل الينا من الشمس هو ثمانية دقائق ونصف وهذه المسافة اذا ما قورنت باقرب نجم تعتبر قصيرة ولكنها بحساباتنا الار. </t>
-  </si>
-  <si>
-    <t>تعد الشمس أقرب النجوم إلى الأرض وتحوي من الأسرار والغرائب أكثر بكثير مما اكتشف ، وان طبيعة شمسنا ككرة غازية ملتهبة بدلا من أن تكون جسما صلبا جعل لها بعض الحقائق العجيبة منها : إنها تدور حول محورها بطريقة مغايرة تماما لطريقة دوران الكواكب الصلبة ، فوسط الشمس  خط استوائها  يدور حول المحور دورة كاملة في 25 يوما بينما تطول هذه المدة في المناطق شمال وجنوب خط الاستواء حتى تصل إلى حوالي 37 يوما عند القطبين ، أي أن الشمس في هذه الحالة تدور وكأنها تفتل فتلا.ولعل هذه الحركة التي وصفها ابن عباس عندما قال عن الشمس إنها تدور كما يدور المغزل ، وهذا بالتالي يؤدي إلى تداخل خطوط القوى المغناطيسية الموجودة على سطها بطريقة معقدة جدا وهذه بدورها ومع مرور الزمن تؤثر بشكل قوي على ظهور بعض الظواهر الشمسية مثل الكلف الشمسي.تنتفضالشمس وتهتز مثل  الجيلي  جاء هذا الاكتشاف في دراسة أعدت سنة 1973 عندما حاول العالم قياس قطر الشمس بين القطبين وعند خط الإستواء ليتأكد اذا كان هناك أي تفلطح للشمس ، أي أن قطرها عند القطبين أقل منه عند خط الاستواء والعكس صحيح فأطلق التعبير أن الشمس تهتز مثل الجيلي إلا أن هذا الاهتزاز مسافته لا تزيد عن 5 كيلومتر وبسرعة 10 أمتار في الثانية وهذه بالطبع تحتاج إلى أجهزة بالغة في الدقة والتعقيد لاكتشافها ثم اكتشف بعد ذلك فريق من العلماء الروس والبريطانيين سنة 1976 بان هناك  اهتزازات أخرى للشمس إحداهما تحدث كل خمسين دقيقة والأخرى تحدث كل ساعتين وأربعين دقيقة ، واصبح الان ما يسمى بعلم  الزلازل الشمسية  ذا أهمية قصوى في علم الفلك لتعلم أسرار الشمس والتي مازال هناك الكثير لفك اسرارها وخفاياها.فالطاقة الشمسية لازمة للحياة النباتية والحيوانية ، كما أن معظم الطاقات الأخرى الموجودة على الأرض مثل الفحم والبترول والغاز الطبيعى والرياح ما هى إلا صور مختلفة من الطاقة الشمسية وقد يندهش القارىء إذا ما علم أن الشمس التى هى عماد الحياة على الأرض والتى قدسها القدماء لهذا السبب ، ما هى إلا نجما متوسطا في الحجم والكتلة واللمعان ، حيث توجد في الكون نجوم أكبر من الشمس تعرف بالنجوم العملاقة ، كما توجد نجوم أصغر من الشمس تعرف بالنجوم الأقزام .أقرب نجم أو شمس لنا بعد شمسنا يقدر بعده بحوالى 4,2 سنة ضوئية أى يعادل حوالى 42 مليون مليون كيلو متر، بينما المسافة الزمنية التي يقطعها الضوء ليصل إلينا من الشمس هو ثمانية دقائق ونصف وهذه المسافة اذا ما قورنت بأقرب نجم تعتبر قصيرة ولكنها بحساباتنا الأرضية هائلة وتبلغ ما مجموعه لو درنا حول الأرض أربعة آلاف مرة تقريبا.وهذه</t>
-  </si>
-  <si>
-    <t>الثعبان حيوان زاحف من ذوات الدم البارد, لها أنواع عديدة تختلف من بلد إلى آخر. وجدت على سطح الأرض منذ أكثر من 125 مليون سنة، ويفوق عدد الأنواع المعروفة منها اليوم عن 13000 نوع. ويقال كان لبعضها أرجل اندثرت مع مرور الوقت حتى تم الاستغناء عنها نهائياً ويدل على ذلك وجود نتؤات عظمية في جسمها تسمي بالمهاميز. للثعابين جسم طويل وهيكل عظمي مميز تتراوح فقـراته من 200 إلى 400 فقرة تساعد الثعبان في التحرك والعصر والسباحة بشكل فعال دون الحاجة إلى وجود أطراف كباقي الحيوانات.يتراوح طول الثعابين من بضعة سنتيمترات إلى بضعة أمتار, جلدها مغطى بالحراشف وهي تبدل جلدها بين فترة وأخرى مما يساعدها على النمو.متوسط عمرها 15 الى 25 سنة, طريقة سيرها للانتقال من مكان لأخر تكون بالزحف وهناك حركات مختلفة للزحف لدي الثعابين فهناك مثلاً الالتواء الجانبي والالتفاف الجانبي والحركة الانقباضية وهي حركات تميز بعض الأنواع عن بعضها.الثعابين بعضها سام وسام جدا وبعضها الأخر غير سام وتختلف سموم الثعابين باختلاف أنواعها, ولسمومها استخدامات طبية عديدة. تعيش الثعابين في كل مكان فبعضها يعيش على الأرض وبعضها يعيش بالماء وبعضها يعيش على الأشجار.الثعابين حيوانات صماء لا تسمع لكنها تحس بطرق مختلفة، فلبعض الثعابين فتحات فوق منطقة الفم والتي تسمي الندبة عبارة عن رادار حراري بحيث يسمح للثعبان بالرؤية ليلاً أو في الظلام الدامس. أما اللسان التي تظهره أغلب الثعابين أثناء سيرها فهو متصل بتجويف في سقف الفم يسمى عضو جاكوبسون يساعدها على تذوق وشم الجزيئات الصغيرة العالقة بالهواء.ان للافاعي أنيابا عليا متحركة تنثني للوراء عند اغلاق الفك ، بينما نابا الثعبان ثابتان لا ينثنيان . كما ان لبعض الافاعي حفرة عميقة بين الانف والعين ، لذلك يسمونها بذوات الحفر . ويوجد ايضا فارق بين انواع السم ،سم الثعابين يدمر الجهاز العصبي ويؤدي لشلل الحجاب الحاجز وعضلات التنفس فالاختناق والثعابين البحرية سمها يدمر العضلات.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الثعبان حيوان زاحف من ذوات الدم البارد, لها انواع عديدة تختلف من بلد الى آخر. الثعابين حيوانات صماء لا تسمع لكنها تحس بطرق مختلفة، فلبعض الثعابين فتحات فوق منطقة الفم والتي تسمي الندبة عبارة عن رادار حراري بحيث يسمح للثعبان بالرؤية ليلاً او في الظلام الدامس.  اما اللسان التي تظهره اغلب الثعابين اثناء سيرها فهو متصل بتجويف في سقف الفم يسمى عضو جاكوبسون يساعدها على تذوق وشم الجزيئات الصغيرة العالقة بالهواء. </t>
-  </si>
-  <si>
-    <t>الثعبان حيوان زاحف من ذوات الدم البارد, لها أنواع عديدة تختلف من بلد إلى آخر.عمرها 15 الى 25 سنة, طريقة سيرها للانتقال من مكان لأخر تكون بالزحف وهناك حركات مختلفة للزحف لدي الثعابين فهناك مثلاً الالتواء الجانبي والالتفاف الجانبي والحركة الانقباضية وهي حركات تميز بعض الأنواع عن بعضها.الثعابينكما ان لبعض الافاعي حفرة عميقة بين الانف والعين ، لذلك يسمونها بذوات الحفر .</t>
-  </si>
-  <si>
-    <t>الفضة من المعادن الكريمة أبيض اللون، وهو معدن ثمين معروف منذ القدم حيث عرفه قدماء المصريين والعرب والصينيون واستخدموه في صناعة الحلي وفي الطب والوقاية من الأمراض. تستخدم في النقود والحلي تماماً كالذهب إلا أنها أقل قيمة.نظرا لقدرة الفضة الفائقة على قتل البكتريا والكائنات الدقيقة و الطحالب استخدمها العرب في تنقية الماء، حيث كانت الماء توضع في القرب المصنوعة من جلد الشاةويملأ مايقرب من ثلاثة أرباعها بالماء والباقي هواء ويوضع في الماء قطع معدنية من عملات الفضة وفي أثناء الرحلاات طويلت المسافات تهتز القربةفتحتك القطع ببعضها البعض مما ينتج عنه ذوبان جزء بسيط من الفضة في الماء في صورة مسحوق فائق النعومة يؤدي إلى قتل البكتريا وتطهير الماء.يمكن استخدام الفضة حديثا في تنقية المياة بدلا من استخدام الكلور الغير آمن صحيا، حيث أثبتت الدراسات أن الجرعة المستخدمة من الفضة في تنقية الماء أقل من واحد في البليون أي ما يعادل واحد ملليجرام في المتر المكعب من الماء، وهذا يعني أن تكلفة التنقية تصل إلى حوالي نصف قرش بالعملة المصرية، بينما الكلور يكلف ثلاثة قروش، إلى جانب المخاطر على العاملين والسكان المحيطون من غاز الكلور، كما أن الدراسات الحديثة أثبتت أن الكلور مسبب للسرطان ويسبب إجهاض الحوامل، حيث يمنع إلتصاق الجنين بجدار الرحم. ومن هذا المنطلق يمكن استخدام الفضة في تعقيم الأنواع الأخرى من المياه، كالمياه المستخدمة في محطات توليد الكهرباء، ومياه الصرف الصحي، وأبراج التبريد الصناعية ومياه حمامات السباحة.للفضة تطبيقات طبية مثل صناعة المراهم، وحالياً يتم استخدام الفضة في علاج مرضى الأقدام السكرية، حيث يتم ضبط نسبة السكر في الجسم واستخدام حمامات الماء المضاف إليه ماء الأكسجين والمطعم بأيون الفضة حيث يقوم بقتل الكائنات الدقيقة الملوثة للقروح في القدم ثم تترك طبقة خفيفة من الفضة تقوم بمنع نمو أي كائنات أخرى.بينت الدراسات الحديثة أن للفضة تأثير غير معلوم الميكانيكية على الحالة النفسية للأنسان، ولهذا تستخدم في أدوية العلاج النفسية في معظم أدوية الولايات المتحدة الأمريكية، كما تساهم في الوقاية من الأمراض الخطيرة، لذا انتشر في أمريكا الآن مايسمى بمعلق الفضة وهو محلول ذائب به كميات كثيرة من الفضة في صورة مسحوق فائق النعومة بنسبة تصل إلى حوالي 500 ملليجرام في اللتر من الفضة، والذي يتم تناوله عن طريق الفم بمعدل ملعقة شاي يوميا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفضة من المعادن الكريمة ابيض اللون، وهو معدن ثمين معروف منذ القدم حيث عرفه قدماء المصريين والعرب والصينيون واستخدموه في صناعة الحلي وفي الطب والوقاية من الامراض. نظرا لقدرة الفضة الفائقة على قتل البكتريا والكائنات الدقيقة و الطحالب استخدمها العرب في تنقية الماء، حيث كانت الماء توضع في القرب المصنوعة من جلد الشاةويملا مايقرب من ثلاثة ارباعها بالماء والباقي هواء ويوضع في الماء قطع معدنية من عملات الفضة وفي اثناء الر. يمكن استخدام الفضة حديثا في تنقية المياة بدلا من استخدام الكلور الغير آمن صحيا، حيث اثبتت الدراسات ان الجرعة المستخدمة من الفضة في تنقية الماء اقل من واحد في البليون اي ما يعادل واحد ملليجرام في المتر المكعب من الماء، وهذا يعني ان تكلفة التنقية تصل الى حو. بينت الدراسات الحديثة ان للفضة تاثير غير معلوم الميكانيكية على الحالة النفسية للانسان، ولهذا تستخدم في ادوية العلاج النفسية في معظم ادوية الولايات المتحدة الامريكية، كما تساهم في الوقاية من الامراض الخطيرة، لذا انتشر في امريكا الآن مايسمى بمعلق الفضة وهو . </t>
-  </si>
-  <si>
-    <t>الفضة من المعادن الكريمة أبيض اللون، وهو معدن ثمين معروف منذ القدم حيث عرفه قدماء المصريين والعرب والصينيون واستخدموه في صناعة الحلي وفي الطب والوقاية من الأمراض.تستخدم في النقود والحلي تماماً كالذهب إلا أنها أقل قيمة.نظرا لقدرة الفضة الفائقة على قتل البكتريا والكائنات الدقيقة و الطحالب استخدمها العرب في تنقية الماء، حيث كانت الماء توضع في القرب المصنوعة من جلد الشاةويملأ مايقرب من ثلاثة أرباعها بالماء والباقي هواء ويوضع في الماء قطع معدنية من عملات الفضة وفي أثناء الرحلاات طويلت المسافات تهتز القربةفتحتك القطع ببعضها البعض مما ينتج عنه ذوبان جزء بسيط من الفضة في الماء في صورة مسحوق فائق النعومة يؤدي إلى قتل البكتريا وتطهير الماء.يمكناستخدام الفضة حديثا في تنقية المياة بدلا من استخدام الكلور الغير آمن صحيا، حيث أثبتت الدراسات أن الجرعة المستخدمة من الفضة في تنقية الماء أقل من واحد في البليون أي ما يعادل واحد ملليجرام في المتر المكعب من الماء، وهذا يعني أن تكلفة التنقية تصل إلى حوالي نصف قرش بالعملة المصرية، بينما الكلور يكلف ثلاثة قروش، إلى جانب المخاطر على العاملين والسكان المحيطون من غاز الكلور، كما أن الدراسات الحديثة أثبتت أن الكلور مسبب للسرطان ويسبب إجهاض الحوامل، حيث يمنع إلتصاق الجنين بجدار الرحم.تطبيقات طبية مثل صناعة المراهم، وحالياً يتم استخدام الفضة في علاج مرضى الأقدام السكرية، حيث يتم ضبط نسبة السكر في الجسم واستخدام حمامات الماء المضاف إليه ماء الأكسجين والمطعم بأيون الفضة حيث يقوم بقتل الكائنات الدقيقة الملوثة للقروح في القدم ثم تترك طبقة خفيفة من الفضة تقوم بمنع نمو أي كائنات أخرى.بينت الدراسات الحديثة أن للفضة تأثير غير معلوم الميكانيكية على الحالة النفسية للأنسان، ولهذا تستخدم في أدوية العلاج النفسية في معظم أدوية الولايات المتحدة الأمريكية، كما تساهم في الوقاية من الأمراض الخطيرة، لذا انتشر في أمريكا الآن مايسمى بمعلق الفضة وهو محلول ذائب به كميات كثيرة من الفضة في صورة مسحوق فائق النعومة بنسبة تصل إلى حوالي 500 ملليجرام في اللتر من الفضة، والذي يتم تناوله عن طريق الفم بمعدل ملعقة شاي يوميا.</t>
-  </si>
-  <si>
-    <t>البحر يطلق على أي تجمع كبير للمياه المالحة يتصل بالمحيط أو على البحيرات المالحة غير المتصلة ببحار أو محيطات أخرى كبحر قزوين والبحر الميت كما يعد مصطلح البحر مسمى عاما لكل تجمع لابحري أكبر من الخور وأصغر من المحيط. كان العرب قديما يستخدمون مصطلح بحر على أي تجمع للماء الكثير مالحا كان أو عذبا ولم يستخدموا كلمة محيط فقد كانوا يطلقون على المحيط الأطلسي مسمى بحر الظلمات.يشغل البحر مساحة من سطح الأرض أكبر مما تشغلة اليابسة وهو موطن للملايين من الكائنات وتعيش في البحر حيوانات و نباتات من مختلف الاشكال و الالوان و الاحجام ، و حيوانات البحر ونباتاته هامة جدا بالنسبة للانسان كمصدر للطعام فهناك من حيوانات البحر مثل السرطان و الجراد و الاسماك و العديد من انواع الاسماك الصدفية ما يمكننا تناولة كطعام .الفرق بين البحر والمحيط يعتمد على عدة عوامل ، وهي الحجم ، طبيعة السواحل ، عمق القاع ، درجة ملوحة المياه. بالنسبة لمساحة البحر فهي أصغر من المحيط ، وعمق البحر لايزيد عن 2000 متر، ومن الفوارق الأساسية بين البحر والمحيط أن البحر يكون عبارة عن مساحة محاطة باليابسة بنسب واشكال مختلفة، كما تتميز البحار عن المحيطات بوجود تنوع بيولوجي فيها أكبر من التنوع المتوفر في المحيطات. الاختلاف في عمق البحر والمحيط يجعل البحر أكثر تأثرا بكثير من الظواهر الطبيعية أهمها ظاهرة المد والجزر، كما يجعلها شديدة التأثر بظاهرة الاحتباس الحراري.حركة البحر عبارة عن مد و جزر.في بلادنا توجد شواطئ لأربع بحار البحر المتوسط,البحر الميت,بحيرة طبريا ,خليج إيلات.قسم من شاطئ البحر المتوسط تمتلكه مؤسسات مختلفة أما بحيرة طبريا فهي ليست كبيرة وشريط الساحل في خليج إيلات يمتد لعدة كيلو مترات فقط أما بالنسبة للبحر الميت فأنه لا يجتذب الكثير من المستحمين بسبب ملوحة مياهه.لذا ففي أيام الصيف عندما يؤم الشواطئ الكثير من الناس للسياحة ولقضاء الوقت تكتظ هذه الشواطئ.من المهم أن نعرف كيف نحافظ على هذه الشواطئ.سلامتها و نظافتها,تتلوث شواطئ البلاد بدون إنقطاع مما يقذف البحر للشاطئ و بما يلقيه الناس على الشاطئ أو ما يبقونه.تقوم الهيئات المسؤولة المناسبة بتحمل معظم مسؤولية النظافة بأن تزيل التلوثات الكبيرة اما التلوث الذي يسببه الناس فأمر يهمنا كلنا و يمكن منعه.تتكون الحياة النباتية للشاطىء اساسا من انولع مختلفة من الطحالب ، وهناك نوعان من الطحالب الطحالب التي تجرفها التيارات و الطحالب الثابتة ، والنوع الاول صغير الحجم جدا و اغلبة يتكون من خلية واحدة ولكنها تستطيع ان تنمو مثل اي نبات تخر ، اما النوع الثاني الطحالب الثابتة او طحالب البحر فهي كبيرة الحجم من الوان متعددة .وتعتبر الطحالب أكثر النباتات أهمية لانها تزود الملايين من حيوانات البحر بما تحتاج إليه من طعام كما تصلح ايضا غذاء للإنسان.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">البحر يطلق على اي تجمع كبير للمياه المالحة يتصل بالمحيط او على البحيرات المالحة غير المتصلة ببحار او محيطات اخرى كبحر قزوين والبحر الميت كما يعد مصطلح البحر مسمى عاما لكل تجمع لابحري اكبر من الخور واصغر من المحيط.  بالنسبة لمساحة البحر فهي اصغر من المحيط ، وعمق البحر لايزيد عن 2000 متر، ومن الفوارق الاساسية بين البحر والمحيط ان البحر يكون عبارة عن مساحة محاطة باليابسة بنسب واشكال مختلفة، كما تتميز البحار عن المحيطات بوجود تنوع بيولوجي فيها اكبر من التنوع المتوفر في. سلامتها و نظافتها,تتلوث شواطئ البلاد بدون انقطاع مما يقذف البحر للشاطئ و بما يلقيه الناس على الشاطئ او ما يبقونه. </t>
-  </si>
-  <si>
-    <t>البحر يطلق على أي تجمع كبير للمياه المالحة يتصل بالمحيط أو على البحيرات المالحة غير المتصلة ببحار أو محيطات أخرى كبحر قزوين والبحر الميت كما يعد مصطلح البحر مسمى عاما لكل تجمع لابحري أكبر من الخور وأصغر من المحيط.البحر مساحة من سطح الأرض أكبر مما تشغلة اليابسة وهو موطن للملايين من الكائنات وتعيش في البحر حيوانات و نباتات من مختلف الاشكال و الالوان و الاحجام ، و حيوانات البحر ونباتاته هامة جدا بالنسبة للانسان كمصدر للطعام فهناك من حيوانات البحر مثل السرطان و الجراد و الاسماك و العديد من انواع الاسماك الصدفية ما يمكننا تناولة كطعام .الفرقبالنسبة لمساحة البحر فهي أصغر من المحيط ، وعمق البحر لايزيد عن 2000 متر، ومن الفوارق الأساسية بين البحر والمحيط أن البحر يكون عبارة عن مساحة محاطة باليابسة بنسب واشكال مختلفة، كما تتميز البحار عن المحيطات بوجود تنوع بيولوجي فيها أكبر من التنوع المتوفر في المحيطات.</t>
-  </si>
-  <si>
-    <t>المطر هو تكثف بخار الماء من السحاب و سقوطه على شكل قطرات منفصلة على الأرض, وهو يتكون حينما يبرد الهواء ويحدث تكثف لبخار الماء، يكون وزن القطرات صغيراً، فلا تسقط على الارض. ولكي يسقط المطر يجب ان تتجمع هذه القطرات الضئيلة الحجم في مجموعات أكبر حجماً. ان محتوى قطرة المطر الواحدة من الماء يفوق بمليون مرة ما في حجم مثيلتها من السحابة.فاذا وصلت السحابة إلى ارتفاع تنخفض فيه درجة الحرارة إلى اقل من الصفر،فان الكثير من قطرات السحابة تتجمد،وتكون بلورات ثلجية،ويتحول عندئذ جزء من بخار الماء الذي يحويه الهواء إلى ثلج مباشرة في عملية تعرف باسم التسامي ويزداد حجم البلورات باطراد،وخلال دقائق تتحول هذه البلورات الثلجية إلى رقائق ثلجية،وتبدا بالسقوط من خلال السحابة.وحين تصل هذه الرقائق إلى طبقات أكثر دفئاً فانها تذوب وتصبح قطرات ماء، فاذا كانت درجة حرارة الارض تحت الصفر، فان رقائق الثلج هذه تتجمع في مجموعات لتشكل برداً.ولكي يحدث ذلك، لا بد ان تحوي السحابة مناطق بها قطرات الماء وأخرى بها بلورات ثلجية. وسحب الركام والركام المزني كلاهما من تكوينات سحب الحمل الحراري،رغم ان الأخيرة وحدها هي التي تنتج المطر.واذا ما تحول ركام إلى ركام مزني،وبدأت تظهر خيوط رقيقة او امتدادات من السحب،فسوف يتلوذلك مطر أو برد.وعموماًفان السحب الرعدية تسقط وابلاً من المطر لفترة قصيرة،ولكنه غزير جداً. ان سحب الجبهة سحب ممطرة، متوسطة الغزارة ولكنها تستمر لفترة طويلة نسبياً وتغطي مساحة واسعة.أما سحب الارتفاع الشاهق ذات المنظر الشبيه بالريش،والتي قد تؤدي إلى تكوين دائرة ملونة او هالة حول الشمس،فهي بشائر مطر قادم. وقد تسقط قطرات صغيرة جداً من السحب الضبابية في شكل رذاذ.وفي تلك الحالة لا يكون سقوط الامطار نتيجة تكوين بلورات الثلج،بل لان قطرات الماء في السحب كبرت إلى حد كاف نتيجة مصادمات القطرات الصغيرة بعضها بعضاً،وهي ظاهرة تعرف باسم الالتحام.ويحدث هذا كثيراً في المناطق الاستوائية.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المطر هو تكثف بخار الماء من السحاب و سقوطه على شكل قطرات منفصلة على الارض, وهو يتكون حينما يبرد الهواء ويحدث تكثف لبخار الماء، يكون وزن القطرات صغيراً، فلا تسقط على الارض. فاذا وصلت السحابة الى ارتفاع تنخفض فيه درجة الحرارة الى اقل من الصفر،فان الكثير من قطرات السحابة تتجمد،وتكون بلورات ثلجية،ويتحول عندئذ جزء من بخار الماء الذي يحويه الهواء الى ثلج مباشرة في عملية تعرف باسم التسامي ويزداد حجم البلورات باطراد،وخلال دقائق تتح. وحين تصل هذه الرقائق الى طبقات اكثر دفئاً فانها تذوب وتصبح قطرات ماء، فاذا كانت درجة حرارة الارض تحت الصفر، فان رقائق الثلج هذه تتجمع في مجموعات لتشكل برداً.  وسحب الركام والركام المزني كلاهما من تكوينات سحب الحمل الحراري،رغم ان الاخيرة وحدها هي التي تنتج المطر. واذا ما تحول ركام الى ركام مزني،وبدات تظهر خيوط رقيقة او امتدادات من السحب،فسوف يتلوذلك مطر او برد. اما سحب الارتفاع الشاهق ذات المنظر الشبيه بالريش،والتي قد تؤدي الى تكوين دائرة ملونة او هالة حول الشمس،فهي بشائر مطر قادم. وفي تلك الحالة لا يكون سقوط الامطار نتيجة تكوين بلورات الثلج،بل لان قطرات الماء في السحب كبرت الى حد كاف نتيجة مصادمات القطرات الصغيرة بعضها بعضاً،وهي ظاهرة تعرف باسم الالتحام. </t>
-  </si>
-  <si>
-    <t>المطر هو تكثف بخار الماء من السحاب و سقوطه على شكل قطرات منفصلة على الأرض, وهو يتكون حينما يبرد الهواء ويحدث تكثف لبخار الماء، يكون وزن القطرات صغيراً، فلا تسقط على الارض.ولكي يسقط المطر يجب ان تتجمع هذه القطرات الضئيلة الحجم في مجموعات أكبر حجماً.ان محتوى قطرة المطر الواحدة من الماء يفوق بمليون مرة ما في حجم مثيلتها من السحابة.فاذاوصلت السحابة إلى ارتفاع تنخفض فيه درجة الحرارة إلى اقل من الصفر،فان الكثير من قطرات السحابة تتجمد،وتكون بلورات ثلجية،ويتحول عندئذ جزء من بخار الماء الذي يحويه الهواء إلى ثلج مباشرة في عملية تعرف باسم التسامي ويزداد حجم البلورات باطراد،وخلال دقائق تتحول هذه البلورات الثلجية إلى رقائق ثلجية،وتبدا بالسقوط من خلال السحابة.وحينتصل هذه الرقائق إلى طبقات أكثر دفئاً فانها تذوب وتصبح قطرات ماء، فاذا كانت درجة حرارة الارض تحت الصفر، فان رقائق الثلج هذه تتجمع في مجموعات لتشكل برداً.ولكييحدث ذلك، لا بد ان تحوي السحابة مناطق بها قطرات الماء وأخرى بها بلورات ثلجية.وسحب الركام والركام المزني كلاهما من تكوينات سحب الحمل الحراري،رغم ان الأخيرة وحدها هي التي تنتج المطر.واذا</t>
-  </si>
-  <si>
-    <t>طبقة الأوزون هي الجزء من الغلاف الجوي لكوكب الأرض  . و هي متمركزة بشكل كبير في الجزء السفلي من طبقة الستراتوسفير من الغلاف الجوي للأرض.اكتشف كل من شارل فابري  و هنري بويسون  طبقة الأوزون في 1913 و تم معرفة التفاصيل عنها من خلال دوبسون الذي قام بتطوير جهاز لقياس الأوزون الموجود في طبقة الستراتوسفير من سطح الأرض.بين سنة 1928 و 1958 قام دوبسون بعمل شبكة عالمية لمراقبة الأوزون و التي ما زالت تعمل حتى وقتنا هذا. وحدة قياس دوبسون, هي وحدة لقياس مجموع الأوزون في العامود تم تسميتها تكريماً له.على الرغم من ان تركيز الأوزون في طبقة الأوزون قليل, إلا انه مهم بشكل كبير للحياة على الأرض, حيث انها تتشرب الأشعة فوق البنفسجية الضارة التي تطلقها الشمس. تم تصنيفها على حسب طول موجاتها  حيث تعتبر الأشعة فوق البنفسجية خطيرة جداً على البشر و يتم تنقيتها بشكل كامل من خلال الأوزون على ارتفاع 35 كيلومتر فوق سطح الأرض. مع ذلك يعتبر غاز الأوزن سام على ارتفاعات منخفضة حيث يسبب النزيف و غيره.من الممكن ان يؤدي تعرض الجلد للأشعة الفوق البنفسجية باء لإحتراق يظهر على شكل احمرار شديد; و التعرض الشديد له قدر يؤدي إلى تغير في الشفرة الوراثية و التي تنتج عنها سرطان الجلد. مع ان طيقة الأوزون تمنع وصول الأشعة الفوق البنفسجية باء الا انه يصل بعضاً منها لسطح الأرض. معظم الأشعة الفوق البنفسجية الف تصل الأرض و هي لا تضر بشكل كبير إلا انها من الممكن ان تسبب تغيير في الشفرة الوراثية ايضاً.استنزاف طبقة الأوزون يسمح بالتعرض الأشعة فوق البنفسجية و تحديداً أشعة ذات موجات أكثر ضرر للوصول إلى السطح مما يؤدي إلى زيادة في التغيير بالجينيات الوراثية للأحياء على الارض.لتقدير أهمية الوقاية من الأشعة فوق البنفسجية, نستطيع خصائص الضرر من التعرض للإشعاع في طيف ضوئي , حيث يبين لنا تأثير الإشعاع البيولوجي حسب طول الموجات. من الممكن ان يكون التأثير حروق الجلد, تغير في نمو النبات او تغيير في الحمض النووي .يتغير الضرر من التعرض للإشعاع على حسب طول الموجات. لحسن الحظ, يتغير تركيب الحمض النووي بالموجات الأقل من 290 نانومتر و التي تقوم طبقة الأوزون بحجبها بشكل كبير. و في الموجات الأطول التي يحجبها الاوزون بشكل بسيط لا يتضرر الحمض النووي بشكل كبير. لو قل الأوزون بنسبة 10%, سيتم التغيير بنسبة 22% في الحمض النووي من تأثير الأشعة الفوق بنفسجية. للعلم التغيير في الحمض النووي يؤدي أمراض مثل سرطان الجلد, و هذا يوضح أهمية طيقة الاوزون على حياتنا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اكتشف كل من شارل فابري  و هنري بويسون  طبقة الاوزون في 1913 و تم معرفة التفاصيل عنها من خلال دوبسون الذي قام بتطوير جهاز لقياس الاوزون الموجود في طبقة الستراتوسفير من سطح الارض. على الرغم من ان تركيز الاوزون في طبقة الاوزون قليل, الا انه مهم بشكل كبير للحياة على الارض, حيث انها تتشرب الاشعة فوق البنفسجية الضارة التي تطلقها الشمس. من الممكن ان يؤدي تعرض الجلد للاشعة الفوق البنفسجية باء لاحتراق يظهر على شكل احمرار شديد; و التعرض الشديد له قدر يؤدي الى تغير في الشفرة الوراثية و التي تنتج عنها سرطان الجلد. استنزاف طبقة الاوزون يسمح بالتعرض الاشعة فوق البنفسجية و تحديداً اشعة ذات موجات اكثر ضرر للوصول الى السطح مما يؤدي الى زيادة في التغيير بالجينيات الوراثية للاحياء على الارض. يتغير الضرر من التعرض للاشعاع على حسب طول الموجات.  لو قل الاوزون بنسبة 10%, سيتم التغيير بنسبة 22% في الحمض النووي من تاثير الاشعة الفوق بنفسجية.  للعلم التغيير في الحمض النووي يؤدي امراض مثل سرطان الجلد, و هذا يوضح اهمية طيقة الاوزون على حياتنا. </t>
-  </si>
-  <si>
-    <t>طبقة الأوزون هي الجزء من الغلاف الجوي لكوكب الأرض  .و هي متمركزة بشكل كبير في الجزء السفلي من طبقة الستراتوسفير من الغلاف الجوي للأرض.اكتشفكل من شارل فابري  و هنري بويسون  طبقة الأوزون في 1913 و تم معرفة التفاصيل عنها من خلال دوبسون الذي قام بتطوير جهاز لقياس الأوزون الموجود في طبقة الستراتوسفير من سطح الأرض.بينسنة 1928 و 1958 قام دوبسون بعمل شبكة عالمية لمراقبة الأوزون و التي ما زالت تعمل حتى وقتنا هذا.وحدة قياس دوبسون, هي وحدة لقياس مجموع الأوزون في العامود تم تسميتها تكريماً له.على الرغم من ان تركيز الأوزون في طبقة الأوزون قليل, إلا انه مهم بشكل كبير للحياة على الأرض, حيث انها تتشرب الأشعة فوق البنفسجية الضارة التي تطلقها الشمس.تم تصنيفها على حسب طول موجاتها  حيث تعتبر الأشعة فوق البنفسجية خطيرة جداً على البشر و يتم تنقيتها بشكل كامل من خلال الأوزون على ارتفاع 35 كيلومتر فوق سطح الأرض.مع ذلك يعتبر غاز الأوزن سام على ارتفاعات منخفضة حيث يسبب النزيف و غيره.من الممكن ان يؤدي تعرض الجلد للأشعة الفوق البنفسجية باء لإحتراق يظهر على شكل احمرار شديد; و التعرض الشديد له قدر يؤدي إلى تغير في الشفرة الوراثية و التي تنتج عنها سرطان الجلد.</t>
-  </si>
-  <si>
-    <t>لا يوجد اسم ثانِ يُعرف به القمر غير القمر، بيد أن كلمة قمر تستخدم للإشارة إلى أي جرم سماوي أو صناعي، يقوم بمدار معين حول الأرض، أو أيِ من الكواكب الأخرى، فكوكب زحل مثلاً له ثمانية عشر قمراً تابعاً. وهناك تسمية أُخرى للقمر ويسمّى بها أحياناً وهي لونا. وجانب القمر الذي لا يُرى من الأرض يسمّى الجانب البعيد، أو الجانب المظلم، وسمّي بهذا الإسم لعدم قدرة بني البشر من النظر إليه من الأرض، فلو كانت هناك مركبة فضائية على هذا الجانب المظلم فسيتعذر الإتصال اللاسلكي بين الأرض وبين مركبة الفضاء. سيتركز هذا المقال عن القمر المتعارف عليه بين الناس، وهو القمر التابع للأرض.يقوم القمر بدورة كاملة حول الأرض مرة واحدة كل 4 أسابيع تقريباً، وفي كلّ ساعة تمر، يتحرك القمر بمقدار نصف درجة، ويمضي القمر في مدار له يميل على دائرة البروج بنحو 5 درجات.تقاس دورة القمر حول الأرض بالأشهر النجمية وبالأشهر الأقترانية.الدّورة النجمية وهي الفترة الزمنية التي يحتاجها القمر ليدور دورة واحدة حول الأرض بالنسبة للنجوم، وتستغرق 27 يوماً وثلث اليوم. الدّورة الأقترانية وهي الفترة الزمنية التي يحتاجها القمر ليدور دورة واحدة حول الأرض بالنسبة للشمس، وتستغرق 29 يوماً ونصف اليوم. وهي نفس الفترة التي يحتاجها القمر ليدور حول نفسه دورة كاملة، ولهذا السبب يرى الناظر من الأرض نفس الوجه للقمر.نتيجة تطابق الفترة الزمنية التي يأخذها القمر في دورانه حول نفسه وتلك التي يأخذها في دورانه حول الأرض، يجد أهل الأرض أن نفس الجانب من القمر مقابل للأرض ولا يتغيّر هذا الجانب. وتأثر حركة القمر بدورانه حول الأرض على بحار ومحيطات الأرض وتسبب ظاهرة المد والجزر التي نعرفها. وقد إختلف العلماء على مرّ السنين في أصل القمر وكيف آلت به الأمور على ما هو عليه، ومن أكثر النظريات التي تلقى تأييداً في الأوساط الفلكية، تلك التي تنادي بأن الأرض البكر التي نحن عليها قد إرتطم بها جسم كبير يقدّر حجمه بحجم كوكب المريخ وأقتطع هذا الجسم من الأرض ما اقتطع، وتناثر من الأرض قطع التحمت مع بعضها البعض وكوّنت القمر الذي نعرفه اليوم، وتعرف هذه النظرية بنظرية الصدمة الكبرى. وقد عمل العلماء على محاكاة نظرية الصدمة الكبرى في اغسطس من العام 2001 ونشرت المحاكاة في هذا الموقع. ولعلّ تشابه المواد المكوّنة لكتلة القمر، بتلك المعادن الموجودة على كوكب الأرض جعلت نظرية الصدمة الكبرى نظرية مقبولة في الأوساط العلمية.منذ أربع مليارات سنة ونصف، كان القمر مغطّى بالحمم البركانية المنصهرة والتي شكّلت محيطات من الحمم على سطح القمر. وتتكون قشرة القمر من المواد الأوّلية التّالية : يورانيوم، ثوريوم، بوتاسيوم، اكسجين، سيليكون، مغنيسيوم، حديد، تيتانيوم، كالسيوم، المنيوم، والهيدروجين. وعندما تسقط الإشعاعات الكونية على تلك العناصر الأولية، تقوم تلك العناصر على إنعكاس تلك الإشعاعات بخواصّ مختلفة تعتمد على طبيعة العنصر الأولي العاكس للإشعاع وبصورة إشعاعات جاما. وتجدر الإشارة ان بعض العناصر الأولية على سطح القمر تُصدر إشعاعات جاما بدون الحاجة لتعرّض تلك المواد الأولية لأي نوع من الإشعاعات الكونية كاليورانيوم أو البوتاسيوم والثوريوم.قامت النيازك والشهب بالإرتطام بالقمر مرات ومرات عديدة، ويُرى ذلك جلياُ في النتوءات الواضحة على سطح القمر. وقد حمل الكثير من تلك النيازك والشهب الماء، وحطّ على سطح القمر بمعيّة النيازك والشهب، وبمجرّد تعرض ماء النيازك والشهب لحرارة الشمس، يتفكك الماء لمكوّناته الأصلية (هيدروجين وأكسجين)، وتبدأ هذه العناصر في التطاير في الفضاء، وتبقى فرضية وجود الماء قائمة إمّا بوجوده على السطح، أو تحت قشرة القمر، وتقدّر كمية الماء على القمر ببليون متر مكعّب.يخسف القمر إذا وقعت الأرض بين أشعّة الشمس وبين جزء من القمر أو كلّ القمر، فظلّ الأرض حين تمرّ في مجراها حول الشمس يقع على القمر ويرى أهل الأرض وكأن القمر قد أُقتُطِع من نوره شيء. وننوه هنا أن ليس للقمر نور طبيعي وما النور السّاطع من القمر إلا إنعكاس أشعّة الشمس من على القمر إلى الأرض، فيراه من على الأرض وكأنه ذو نور ساطع. ولا تحدث ظاهرة خسوف القمر إلا في حالة القمر المكتمل (بدر). أمّا في ما يخصّ الكسوف، فيحصل الكسوف للشمس حين يحجب القمر أشعّة الشمس عن الأرض، وتحدث ظاهرة الكسوف في بداية تكوين القمر (هلال).أول من قام بإستكشاف الجانب المظلم من القمر كانت المركبة الفضائية السوفييتية لونا 2 عندما قامت بجولات مدارية حول القمر في 15 سبتمبر 1959، وأول من حطّ قدمه على سطح القمر هو نيل ارمسترونج، قائد المركبة الفضائية الأمريكية أبولو 11 في 20 يوليو 1969. وفي تلك الفترة، كانت الحرب الباردة في أوجها بين الإتحاد السوفييتي والولايات المتحدة، وأجّج هذا الإنجاز الأمريكي السباق إلى الفضاء بين الإتحاد السوفييتي والولايات المتّحدة. وقد وضع رائد الفضاء نيل أرمسترونج لوحة معدنية على سطح القمر كُتب فيها هنا حطّت أقدام رجال من كوكب الأرض في يوليو 1969 بعد الميلاد، لقد جئنا بسلام باسم البشرية، وقام رواد الفضاء الثلاثة بالتوقيع على اللوحة المعدنية كما وقّعها الرئيس الأمريكي آنذاك، ريتشارد نيكسون.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لا يوجد اسم ثانِ يُعرف به القمر غير القمر، بيد ان كلمة قمر تستخدم للاشارة الى اي جرم سماوي او صناعي، يقوم بمدار معين حول الارض، او ايِ من الكواكب الاخرى، فكوكب زحل مثلاً له ثمانية عشر قمراً تابعاً.  وجانب القمر الذي لا يُرى من الارض يسمّى الجانب البعيد، او الجانب المظلم، وسمّي بهذا الاسم لعدم قدرة بني البشر من النظر اليه من الارض، فلو كانت هناك مركبة فضائية على هذا الجانب المظلم فسيتعذر الاتصال اللاسلكي بين الارض وبين مركبة الفضاء.  سيتركز هذا المقال عن القمر المتعارف عليه بين الناس، وهو القمر التابع للارض. يقوم القمر بدورة كاملة حول الارض مرة واحدة كل 4 اسابيع تقريباً، وفي كلّ ساعة تمر، يتحرك القمر بمقدار نصف درجة، ويمضي القمر في مدار له يميل على دائرة البروج بنحو 5 درجات.  وهي نفس الفترة التي يحتاجها القمر ليدور حول نفسه دورة كاملة، ولهذا السبب يرى الناظر من الارض نفس الوجه للقمر. نتيجة تطابق الفترة الزمنية التي ياخذها القمر في دورانه حول نفسه وتلك التي ياخذها في دورانه حول الارض، يجد اهل الارض ان نفس الجانب من القمر مقابل للارض ولا يتغيّر هذا الجانب.  وقد اختلف العلماء على مرّ السنين في اصل القمر وكيف آلت به الامور على ما هو عليه، ومن اكثر النظريات التي تلقى تاييداً في الاوساط الفلكية، تلك التي تنادي بان الارض البكر التي نحن عليها قد ارتطم بها جسم كبير يقدّر حجمه بحجم كوكب المريخ واقتطع هذا الجسم من ا. منذ اربع مليارات سنة ونصف، كان القمر مغطّى بالحمم البركانية المنصهرة والتي شكّلت محيطات من الحمم على سطح القمر.  وعندما تسقط الاشعاعات الكونية على تلك العناصر الاولية، تقوم تلك العناصر على انعكاس تلك الاشعاعات بخواصّ مختلفة تعتمد على طبيعة العنصر الاولي العاكس للاشعاع وبصورة اشعاعات جاما.  وتجدر الاشارة ان بعض العناصر الاولية على سطح القمر تُصدر اشعاعات جاما بدون الحاجة لتعرّض تلك المواد الاولية لاي نوع من الاشعاعات الكونية كاليورانيوم او البوتاسيوم والثوريوم.  وقد حمل الكثير من تلك النيازك والشهب الماء، وحطّ على سطح القمر بمعيّة النيازك والشهب، وبمجرّد تعرض ماء النيازك والشهب لحرارة الشمس، يتفكك الماء لمكوّناته الاصلية (هيدروجين واكسجين)، وتبدا هذه العناصر في التطاير في الفضاء، وتبقى فرضية وجود الماء قائمة امّ.  وننوه هنا ان ليس للقمر نور طبيعي وما النور السّاطع من القمر الا انعكاس اشعّة الشمس من على القمر الى الارض، فيراه من على الارض وكانه ذو نور ساطع. اول من قام باستكشاف الجانب المظلم من القمر كانت المركبة الفضائية السوفييتية لونا 2 عندما قامت بجولات مدارية حول القمر في 15 سبتمبر 1959، واول من حطّ قدمه على سطح القمر هو نيل ارمسترونج، قائد المركبة الفضائية الامريكية ابولو 11 في 20 يوليو 1969.  وقد وضع رائد الفضاء نيل ارمسترونج لوحة معدنية على سطح القمر كُتب فيها هنا حطّت اقدام رجال من كوكب الارض في يوليو 1969 بعد الميلاد، لقد جئنا بسلام باسم البشرية، وقام رواد الفضاء الثلاثة بالتوقيع على اللوحة المعدنية كما وقّعها الرئيس الامريكي آنذاك، ريتشار. </t>
-  </si>
-  <si>
-    <t>لا يوجد اسم ثانِ يُعرف به القمر غير القمر، بيد أن كلمة قمر تستخدم للإشارة إلى أي جرم سماوي أو صناعي، يقوم بمدار معين حول الأرض، أو أيِ من الكواكب الأخرى، فكوكب زحل مثلاً له ثمانية عشر قمراً تابعاً.وهناك تسمية أُخرى للقمر ويسمّى بها أحياناً وهي لونا.وجانب القمر الذي لا يُرى من الأرض يسمّى الجانب البعيد، أو الجانب المظلم، وسمّي بهذا الإسم لعدم قدرة بني البشر من النظر إليه من الأرض، فلو كانت هناك مركبة فضائية على هذا الجانب المظلم فسيتعذر الإتصال اللاسلكي بين الأرض وبين مركبة الفضاء.سيتركز هذا المقال عن القمر المتعارف عليه بين الناس، وهو القمر التابع للأرض.يقومالقمر بدورة كاملة حول الأرض مرة واحدة كل 4 أسابيع تقريباً، وفي كلّ ساعة تمر، يتحرك القمر بمقدار نصف درجة، ويمضي القمر في مدار له يميل على دائرة البروج بنحو 5 درجات.تقاسالنجمية وهي الفترة الزمنية التي يحتاجها القمر ليدور دورة واحدة حول الأرض بالنسبة للنجوم، وتستغرق 27 يوماً وثلث اليوم.الدّورة الأقترانية وهي الفترة الزمنية التي يحتاجها القمر ليدور دورة واحدة حول الأرض بالنسبة للشمس، وتستغرق 29 يوماً ونصف اليوم.وهي نفس الفترة التي يحتاجها القمر ليدور حول نفسه دورة كاملة، ولهذا السبب يرى الناظر من الأرض نفس الوجه للقمر.نتيجةتطابق الفترة الزمنية التي يأخذها القمر في دورانه حول نفسه وتلك التي يأخذها في دورانه حول الأرض، يجد أهل الأرض أن نفس الجانب من القمر مقابل للأرض ولا يتغيّر هذا الجانب.وقد حمل الكثير من تلك النيازك والشهب الماء، وحطّ على سطح القمر بمعيّة النيازك والشهب، وبمجرّد تعرض ماء النيازك والشهب لحرارة الشمس، يتفكك الماء لمكوّناته الأصلية (هيدروجين وأكسجين)، وتبدأ هذه العناصر في التطاير في الفضاء، وتبقى فرضية وجود الماء قائمة إمّا بوجوده على السطح، أو تحت قشرة القمر، وتقدّر كمية الماء على القمر ببليون متر مكعّب.يخسفالقمر إذا وقعت الأرض بين أشعّة الشمس وبين جزء من القمر أو كلّ القمر، فظلّ الأرض حين تمرّ في مجراها حول الشمس يقع على القمر ويرى أهل الأرض وكأن القمر قد أُقتُطِع من نوره شيء.وننوه هنا أن ليس للقمر نور طبيعي وما النور السّاطع من القمر إلا إنعكاس أشعّة الشمس من على القمر إلى الأرض، فيراه من على الأرض وكأنه ذو نور ساطع.من قام بإستكشاف الجانب المظلم من القمر كانت المركبة الفضائية السوفييتية لونا 2 عندما قامت بجولات مدارية حول القمر في 15 سبتمبر 1959، وأول من حطّ قدمه على سطح القمر هو نيل ارمسترونج، قائد المركبة الفضائية الأمريكية أبولو 11 في 20 يوليو 1969.وقد وضع رائد الفضاء نيل أرمسترونج لوحة معدنية على سطح القمر كُتب فيها هنا حطّت أقدام رجال من كوكب الأرض في يوليو 1969 بعد الميلاد، لقد جئنا بسلام باسم البشرية، وقام رواد الفضاء الثلاثة بالتوقيع على اللوحة المعدنية كما وقّعها الرئيس الأمريكي آنذاك، ريتشارد نيكسون.</t>
-  </si>
-  <si>
-    <t>الأسد حيوان ضخم من فصيلة السنوريات. تسمى أنثاه لبؤة ويطلق على أطفاله اسم أشبال. أطلق علية ابتداء من القرن الأول الميلادي لقب ملك الغابة، ومن أسماء الأسد في اللغة العربية السبع والليث والهزبر والورد والضرغام وأسامة ويسمى بيته عرين. كان موطن الأسود يشمل عبر التاريخ معظم أوراسيا، من البرتغال إلى الهند، بالإضافة إلى إفريقيا بأكملها.ولكن منذ حوالي 10،000 سنة مضت، إنقرضت الأسود من اوروبة الغربيّة ثم مالبثت أن إنقرضت من باقي اوروبة بحلول القرن الثاني للميلاد، كما إنقرضت الأسود من شمالي إفريقيا والشرق الأوسط في الفترة مابين أواخر القرن التاسع عشر و أوائل القرن العشرين. تعيش الآن معظم الجمهرات في إفريقيا الوسطى حيث يظهر أن اعدادها تتناقص بإستمرار، فقد اظهرت إحدى البحوث تراجع اعدادها من حوالي 100،000 في أوائل التسعينات من القرن العشرين إلى حوالي 16،000 إلى 30،000 أسد برّي حالياً. بالإضافة إلى ذلك فإن جمهرة الأسود الحالية تواجه خطراً اخر يتمثل في عزلة المجموعات عن بعضها جغرافيّاً، مما يزيد من إحتمال التناسل الداخلي بين الأقارب مما يتسبب بمشاكل وراثيّة، وقد أظهرت المؤسسة الكينيّة للحياة البريّة أن المجموعات التي حصل بداخلها تناسل داخلي قد إزداد فيها متوسط عدد الأشبال لكل أنثى، كما تتوقع المؤسسة ازدياد عدد المجموعة بثلاثة اضعاف خلال السنوات العشر المقبلة بسبب إرتفاع نسبة الخصوبة عندها. كانت الأسود الآسيويّة  تنتشر من تركيا إلى الهند عبر إيران ، ومن القوقاز حتى اليمن. أما الآن فإن ما تبقى منها يعيش في غابة شمال غربي الهند الواقعة في ولاية غوجارات، حيث يعيش 300 أسد في المنطقة المحميّة البالغة مساحتها 1412 كم2. إنقرض أخر الأسود الأوروبيّة في اليونان بحلول العام 100 للميلاد، ومن السلالات المنقرضة الأخرى: سلالة رأس الرجاء الصالح أسد رأس الرجاء الصالح، سلالة الكهوف أسد الكهوف الأوروبي الذي تعايش مع الإنسان خلال العصر الجليدي الأخير، والسلالة الأميركيّة الأسد الأميركي التي تعتبر قريبة لسلالة الكهوف.يعتقد أن ذكور الأسود الأوائل كانت عديمة اللبدة وهو الشعر حول العنق، ويبدو أن الذكور الأوروبيّة و ذكور العالم الجديد إستمرّت عديمة الشعر حتى حوالي 10،000 سنة مضت.يعتقد بأن الذكور ذات اللبدة ظهرت منذ 32000 سنة، ويبدو أن الشكل الجديد ذي اللبدة كان له أفضليّة ما جعلته يوسّع موطنه ويستبدل الشكل الأخر في إفريقيا وغربي أوراسيا.يعتقد العلماء بأن اللبدة قد تطوّرت لدى الأسود بسبب ضغط الإنتقاء الجنسي، حيث اصبحت وحدها الأسود ذات اللبدة هي التي تتناسل وهذا ما جعل اللبدة اليوم لاتخدم غاية سوى هذه تقريباً.كان العلماء يعتقدون سابقاً أن حجم اللبدة وكثافتها ولونها دليل على سلالة الأسود المعيّنة، حيث كان يستند إلى هذا في تعريف بعض السلالات مثل أسد رأس الرجاء الصالح و أسد المغرب، أما الآن فقد أصبح يعرف أن العوامل الخارجيّة تؤثر على حجم و لون اللبدة، فقد ظهر أن الأسود في حدائق الحيوان الأوروبيّة و الأميركيّة تنمو لديها لبدة أكبر و أدكن لوناً مما كان سيحصل في موطنها الأصلي بغض النظر عن سلالتها.تمضي ذكور الأسود معظم حياتها خاملة .الأسود حيوانات لاحمة تعيش في مجموعات تسمّى زمراً مفردها زمرة، وتتألّف الزمرة من الإناث ذوات القربى وأشبالها بالإضافة إلى ذكر أو ذكرين أخوين في الغالب والتي تقتضدي مهمتهما بإخصاب الإناث و حماية حوز الزمرة.كان يعتقد أن الإناث هي وحدها التي تقوم بعمليّة الصيد، أما الآن فأصبح يعرف أن الذكور تشارك في الصيد أيضاً، فجميع الذكور العازبة التي لم تسيطر على زمرة خاصة بها تصطاد بوتيرةٍ منتظمة، وحتى الذكور المسيطرة تبقى تشارك في الصيد أحياناً إلا أن نسبة مشاركتها تختلف حسب شكل الأرض التي تقطنها وحسب نوعيّة الطرائد المتوافرة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> اطلق علية ابتداء من القرن الاول الميلادي لقب ملك الغابة، ومن اسماء الاسد في اللغة العربية السبع والليث والهزبر والورد والضرغام واسامة ويسمى بيته عرين. ولكن منذ حوالي 10،000 سنة مضت، انقرضت الاسود من اوروبة الغربيّة ثم مالبثت ان انقرضت من باقي اوروبة بحلول القرن الثاني للميلاد، كما انقرضت الاسود من شمالي افريقيا والشرق الاوسط في الفترة مابين اواخر القرن التاسع عشر و اوائل القرن العشرين.  بالاضافة الى ذلك فان جمهرة الاسود الحالية تواجه خطراً اخر يتمثل في عزلة المجموعات عن بعضها جغرافيّاً، مما يزيد من احتمال التناسل الداخلي بين الاقارب مما يتسبب بمشاكل وراثيّة، وقد اظهرت المؤسسة الكينيّة للحياة البريّة ان المجموعات التي حصل بداخلها تناسل د.  انقرض اخر الاسود الاوروبيّة في اليونان بحلول العام 100 للميلاد، ومن السلالات المنقرضة الاخرى: سلالة راس الرجاء الصالح اسد راس الرجاء الصالح، سلالة الكهوف اسد الكهوف الاوروبي الذي تعايش مع الانسان خلال العصر الجليدي الاخير، والسلالة الاميركيّة الاسد الامي. كان العلماء يعتقدون سابقاً ان حجم اللبدة وكثافتها ولونها دليل على سلالة الاسود المعيّنة، حيث كان يستند الى هذا في تعريف بعض السلالات مثل اسد راس الرجاء الصالح و اسد المغرب، اما الآن فقد اصبح يعرف ان العوامل الخارجيّة تؤثر على حجم و لون اللبدة، فقد ظهر ان . كان يعتقد ان الاناث هي وحدها التي تقوم بعمليّة الصيد، اما الآن فاصبح يعرف ان الذكور تشارك في الصيد ايضاً، فجميع الذكور العازبة التي لم تسيطر على زمرة خاصة بها تصطاد بوتيرةٍ منتظمة، وحتى الذكور المسيطرة تبقى تشارك في الصيد احياناً الا ان نسبة مشاركتها تختل. </t>
-  </si>
-  <si>
-    <t>الأسد حيوان ضخم من فصيلة السنوريات.منذ حوالي 10،000 سنة مضت، إنقرضت الأسود من اوروبة الغربيّة ثم مالبثت أن إنقرضت من باقي اوروبة بحلول القرن الثاني للميلاد، كما إنقرضت الأسود من شمالي إفريقيا والشرق الأوسط في الفترة مابين أواخر القرن التاسع عشر و أوائل القرن العشرين.تعيش الآن معظم الجمهرات في إفريقيا الوسطى حيث يظهر أن اعدادها تتناقص بإستمرار، فقد اظهرت إحدى البحوث تراجع اعدادها من حوالي 100،000 في أوائل التسعينات من القرن العشرين إلى حوالي 16،000 إلى 30،000 أسد برّي حالياً.بالإضافة إلى ذلك فإن جمهرة الأسود الحالية تواجه خطراً اخر يتمثل في عزلة المجموعات عن بعضها جغرافيّاً، مما يزيد من إحتمال التناسل الداخلي بين الأقارب مما يتسبب بمشاكل وراثيّة، وقد أظهرت المؤسسة الكينيّة للحياة البريّة أن المجموعات التي حصل بداخلها تناسل داخلي قد إزداد فيها متوسط عدد الأشبال لكل أنثى، كما تتوقع المؤسسة ازدياد عدد المجموعة بثلاثة اضعاف خلال السنوات العشر المقبلة بسبب إرتفاع نسبة الخصوبة عندها.أن ذكور الأسود الأوائل كانت عديمة اللبدة وهو الشعر حول العنق، ويبدو أن الذكور الأوروبيّة و ذكور العالم الجديد إستمرّت عديمة الشعر حتى حوالي 10،000 سنة مضت.يعتقد بأن الذكور ذات اللبدة ظهرت منذ 32000 سنة، ويبدو أن الشكل الجديد ذي اللبدة كان له أفضليّة ما جعلته يوسّع موطنه ويستبدل الشكل الأخر في إفريقيا وغربي أوراسيا.يعتقدالعلماء يعتقدون سابقاً أن حجم اللبدة وكثافتها ولونها دليل على سلالة الأسود المعيّنة، حيث كان يستند إلى هذا في تعريف بعض السلالات مثل أسد رأس الرجاء الصالح و أسد المغرب، أما الآن فقد أصبح يعرف أن العوامل الخارجيّة تؤثر على حجم و لون اللبدة، فقد ظهر أن الأسود في حدائق الحيوان الأوروبيّة و الأميركيّة تنمو لديها لبدة أكبر و أدكن لوناً مما كان سيحصل في موطنها الأصلي بغض النظر عن سلالتها.تمضي</t>
-  </si>
-  <si>
-    <t>البرق هو هذا الضوء المبهر الذي يظهر فجأة في قلب السماء في الأيام التي تسوء فيها أحوال الجو, وهو عبارة عن الضوء الناشئ نتيجة تصادم سحابتين أحدهما تحمل الشحنة الكهربائية السالبة والأخرى تحمل الشحنة الكهربائية الموجبة وبذلك ينتج عن التصادم شرارة قوية تصدر علي هيئة الضوء الذي نراه فجأة ثم يختفي في الأيام ذات الطقس السيء.كما أن هذا الضوء يعقبه صوت عالٍ قادم من السماء وهو ما يسمى بالرعد والإثنان معا يطلق عليهم اسم الصاعقة.ثبت علميا أن قطرات الماء تكتسب شحنات كهربية موجبة عند تجمدها علي هيئة حبات البرد أو بلورات الثلج‏,‏ وكذلك عند انصهارها من كل من البرد والثلج إلي حالة الماء السائل‏,‏ وعند تفتتها إلي قطيرات أدق أو تجمعها علي هيئة قطرات أكبر‏,‏ وعند تبخيرها‏,‏ وعند تكثفها أي عند كل تغير من حالة إلي حالة أخري من الصلابة والسيولة‏,‏ والحالة الغازية‏,‏ ويبقي الهواء المحيط بهذا الماء في أشكاله المختلفة مكتسبا شحنات كهربية سالبة‏,‏ ولذلك فإن السحب تشحن بالكهرباء باحتكاكها بالهواء المشحون بها‏,‏ وتتجمع الشحنات الموجبة علي أعلي السحابة وأسفلها حيث تتدني درجة الحرارة الي ما بين عشر درجات وأربعين درجة مئوية تحت الصفر‏,‏ بينما تتركز الشحنات السالبة في وسط السحابة حيث تصل درجة الحرارة إلي الصفر المئوي‏.‏وعندما يحدث التفريغ الكهربي بين منطقتين مختلفتي الشحنة في داخل السحابة الواحدة‏,‏ أو بين سحابتين متجاورتين يصل الفرق في الجهد الكهربي بينهما حدا معينا يحدث البرق علي هيئة شرارات كهربائية تنتشر في مساحة كبيرة من السماء الدنيا‏,‏ وقد يحدث هذا التفريغ الكهربي بين السحابة والهواء المحيط بها‏,‏ وقد يحدث بين السحب والأرض وما عليها من مبان عالية أو أشجار‏,‏ وتسمي هذه الظاهرة‏,‏ بالصاعقة لما تحدثه من دمار كبير‏,‏ولمنع حدوث الاثار التدميرية للصواعق تثبت قضبان معدنية في أعالي المنشآت‏,‏ وتوصل بالأرض عبر موصل جيد من الاسلاك المعدنية يحمل الشحنة الكهربائية الناتجة عن حدوث البرق إلي الأرض مباشرة دون أن تصيب المنشآت بأية اضرار‏,‏ وتعرف هذه الشبكة من القضبان المعدنية الموصلة بالأرض باسم مانعات ‏ الصواعق.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ثبت علميا ان قطرات الماء تكتسب شحنات كهربية موجبة عند تجمدها علي هيئة حبات البرد او بلورات الثلج‏,‏ وكذلك عند انصهارها من كل من البرد والثلج الي حالة الماء السائل‏,‏ وعند تفتتها الي قطيرات ادق او تجمعها علي هيئة قطرات اكبر‏,‏ وعند تبخيرها‏,‏ وعند تكثفها ا. </t>
-  </si>
-  <si>
-    <t>البرق هو هذا الضوء المبهر الذي يظهر فجأة في قلب السماء في الأيام التي تسوء فيها أحوال الجو, وهو عبارة عن الضوء الناشئ نتيجة تصادم سحابتين أحدهما تحمل الشحنة الكهربائية السالبة والأخرى تحمل الشحنة الكهربائية الموجبة وبذلك ينتج عن التصادم شرارة قوية تصدر علي هيئة الضوء الذي نراه فجأة ثم يختفي في الأيام ذات الطقس السيء.كما</t>
-  </si>
-  <si>
-    <t>الحديد عنصر كيميائي وفلز ، من اقدم المعادن المكتشفة ، يرمز له بالرمز Fe وعدده الذري 26 ، وفي الجدول الدوري يقع الحديد في المجموعة الثامنة والدورة الرابعة ، وهو عنصر ضروري لحياة الانسان كونه يدخل في تركيب هيموجلوبين الدم وكذلك لحياة النباتات كونه يدخل في تركيب الكلوروفيل .و يدخل في كل شيء، ويحتل الحديد المركز الرابع من حيث وجود العناصر في القشرة الأرضية، وهو فلز قابل للطرق والسحب ،ويدخل في صناعة العديد من السبائك .تحتوي النيازك الساقطة على الارض على كميات من الحديد قد تصل إلى 90% من كتلة النيازك.الشبكة البلورية للحديد على هيئة مكعب ، تتوزع على كل زاوية من زواياه ذرة حديد ثمانية ذرات ، وتقع تاسعة في مركز المكعب ، والاوتونيوم ، البناء الفريد في مدينة بروكسل يمثل نموذج الشبكة البلورية للحديد مكبرا 165 مليار مرّة، جاء البناء رمزا لعظمة الحديد ودوره في حياة البشريّة.يعد الحديد أقوى الفلزات على الاطلاق وأكثرها أهمية للأغراض الهندسية شرط حمايته من الصدأ أي التفاعل مع الأكسجين وهناك عدة طرق لحماية الحديد من الصدأوابسطها منع تماس الآكسجين والرطوبة عن الحديد وذلك بتغليف الحديد بمادة عازلة مثل استخدام الاصباغ او عوازل. من أفضل الطرق المستخدمة في الصناعة هي استخدام نظام الحماية الكاثودية لحماية الحديد من الصدأ والتآكل.يرمز الحديد في الثقافة العامة إلى القوة و الصلابة ومن ذلك قولنا لا يفل الحديد إلا الحديد و قولنا سنضرب بيد من حديد. يشكل الحديداحدى القواعد التي تقوم عليها حضارتنا. و يرجع كونه اكثثر الفازات استخداما إلى خواصه القيمة,و إلى وفرة خاماته و سهولة الوصول اليها.ان الحديد موجود في معظم القشرة الارضية, وهو يمثل 50% منها من الرغم من عدم تساوي توزيعه في سطح الارض. ونتيجة لعمليات جيولوجية,يتراكم الحديد في رواسب مختلفة الحجم ،وهو أكثر توافرا في باطن الارض ، ويعتقد ان لب الارض يتكون من كثلة من الحديدو النيكل في درجة حرارة 4000 م تحت ضغوط عالية جدا .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحديد عنصر كيميائي وفلز ، من اقدم المعادن المكتشفة ، يرمز له بالرمز Fe وعدده الذري 26 ، وفي الجدول الدوري يقع الحديد في المجموعة الثامنة والدورة الرابعة ، وهو عنصر ضروري لحياة الانسان كونه يدخل في تركيب هيموجلوبين الدم وكذلك لحياة النباتات كونه يدخل في ت. الشبكة البلورية للحديد على هيئة مكعب ، تتوزع على كل زاوية من زواياه ذرة حديد ثمانية ذرات ، وتقع تاسعة في مركز المكعب ، والاوتونيوم ، البناء الفريد في مدينة بروكسل يمثل نموذج الشبكة البلورية للحديد مكبرا 165 مليار مرّة، جاء البناء رمزا لعظمة الحديد ودوره ف. يعد الحديد اقوى الفلزات على الاطلاق واكثرها اهمية للاغراض الهندسية شرط حمايته من الصدا اي التفاعل مع الاكسجين وهناك عدة طرق لحماية الحديد من الصداوابسطها منع تماس الآكسجين والرطوبة عن الحديد وذلك بتغليف الحديد بمادة عازلة مثل استخدام الاصباغ او عوازل.  ونتيجة لعمليات جيولوجية,يتراكم الحديد في رواسب مختلفة الحجم ،وهو اكثر توافرا في باطن الارض ، ويعتقد ان لب الارض يتكون من كثلة من الحديدو النيكل في درجة حرارة 4000 م تحت ضغوط عالية جدا . </t>
-  </si>
-  <si>
-    <t>الحديد عنصر كيميائي وفلز ، من اقدم المعادن المكتشفة ، يرمز له بالرمز Fe وعدده الذري 26 ، وفي الجدول الدوري يقع الحديد في المجموعة الثامنة والدورة الرابعة ، وهو عنصر ضروري لحياة الانسان كونه يدخل في تركيب هيموجلوبين الدم وكذلك لحياة النباتات كونه يدخل في تركيب الكلوروفيل .والبلورية للحديد على هيئة مكعب ، تتوزع على كل زاوية من زواياه ذرة حديد ثمانية ذرات ، وتقع تاسعة في مركز المكعب ، والاوتونيوم ، البناء الفريد في مدينة بروكسل يمثل نموذج الشبكة البلورية للحديد مكبرا 165 مليار مرّة، جاء البناء رمزا لعظمة الحديد ودوره في حياة البشريّة.يعدالحديد أقوى الفلزات على الاطلاق وأكثرها أهمية للأغراض الهندسية شرط حمايته من الصدأ أي التفاعل مع الأكسجين وهناك عدة طرق لحماية الحديد من الصدأوابسطها منع تماس الآكسجين والرطوبة عن الحديد وذلك بتغليف الحديد بمادة عازلة مثل استخدام الاصباغ او عوازل.ونتيجة لعمليات جيولوجية,يتراكم الحديد في رواسب مختلفة الحجم ،وهو أكثر توافرا في باطن الارض ، ويعتقد ان لب الارض يتكون من كثلة من الحديدو النيكل في درجة حرارة 4000 م تحت ضغوط عالية جدا .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الذهب هو فلز ثمين جداً وعنصر كيميائي يرمز له بالرمز Au و عدده الذري 79 . وهو لين ولامع أصفر اللون، استخدم كوحدة نقد عند العديد من الشعوب والحضارات والدول، كما أنه يستخدم في صناعة الحلي والجواهر. يتواجد في الطبيعة على هيئة حبيبات داخل الصخور و في قيعان الأنهار ، أو كعروق في باطن الأرض ، وغالباً ما يوجد الذهب مع معادن أخرى كالنحاس و الرصاص ، و اكتشفت أكبر كتلة من الذهب في أستراليا عام 1896 م و كان وزنه 2,280 أونصة ، ويمتاز الذهب بقلة التأكل و النعومة كما انه أكثر عناصر العالم كثافة .و قد تواجد الذهب بكثرة عند الفراعنة فكانوا يصنعون منه توابيت ملوكهم وعرباتهم كما انهم صنعوا منه قناعاً من أجمل الأقنعة التي عرفتها البشرية فكان مصنوعا من الذهب النقي للفرعون توت عنخ أمون .و يشكل الذهب قاعدة نقدية مستخدمة من قبل صندوق النقد الدولي و بنك التسويات الدولي كما ان للذهب استعملات اخرى فهو يستعمل في طب الأسنان و الإلكترونيات .إن الخصائص الفريدة للذهب المتمثلة في ليونته وقابليته للسحب والتشكيل، ومقاومته للتآكل، جعلته مناسباً للكثير من الأغراض فهو يخلط مع فلزات أخرى كالنحاس أو الفضة أو النيكل للحصول على سبائك أكثر متانة، ومع البلاتين يدخل في صنع الأياف الصناعية نظراً لكونها مقاومة جداً لفصل المواد الكيميائية، إن الذهب هو المعدن المفضل في العديد من المجالات مثل مجوهرات الزينة.كثر استخدام الذهب في مجوهرات الزينة فيما يعرف بالذهب الأصفر ، ويتم ذلك عن طريق خلط الذهب مع النحاس و الفضة و الخارصين بنسب متفاوتة ينتج عنه عيارات الذهب المتعددة ، ويتم قياس درجة نقاوة الذهب بالأجزاء جزء من الألف أو بالعيار حسب المقياس الأمريكي ، فمثلاً درجة النقاوة 1000 تقابل العيار 24 ، ودرجة النقاوة 916 تقابل العيار 21 ، بينما 750 تقابل العيار 18 ، وعموما فإن اللون يميل إلى الشحوب كلما تم إنقاص رقم العيار أي نقصت كمية الذهب في السبيكة. أما الذهب الأبيض فهو ذهب ممزوج بالقصدير أو البلاديوم من أجل إكسابه اللون الأبيض ويستخدم الذهب الأبيض عادة لأطقم المجوهرات. يستخدم الذهب في طب الأسنان نظراً لليونته ومقاومته للتآكل في الفم.كما يستخدم محلول الذهب في علاج الروماتيزم والتهابات العظام. يستخدم الذهب المشع  198 في علاج بعض أنواع أمراض السرطان  عافانا الله وإياكم منها. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">الذهب هو فلز ثمين جداً وعنصر كيميائي يرمز له بالرمز Au و عدده الذري 79 .  يتواجد في الطبيعة على هيئة حبيبات داخل الصخور و في قيعان الانهار ، او كعروق في باطن الارض ، وغالباً ما يوجد الذهب مع معادن اخرى كالنحاس و الرصاص ، و اكتشفت اكبر كتلة من الذهب في استراليا عام 1896 م و كان وزنه 2,280 اونصة ، ويمتاز الذهب بقلة التاكل و النع. و قد تواجد الذهب بكثرة عند الفراعنة فكانوا يصنعون منه توابيت ملوكهم وعرباتهم كما انهم صنعوا منه قناعاً من اجمل الاقنعة التي عرفتها البشرية فكان مصنوعا من الذهب النقي للفرعون توت عنخ امون . و يشكل الذهب قاعدة نقدية مستخدمة من قبل صندوق النقد الدولي و بنك التسويات الدولي كما ان للذهب استعملات اخرى فهو يستعمل في طب الاسنان و الالكترونيات . ان الخصائص الفريدة للذهب المتمثلة في ليونته وقابليته للسحب والتشكيل، ومقاومته للتآكل، جعلته مناسباً للكثير من الاغراض فهو يخلط مع فلزات اخرى كالنحاس او الفضة او النيكل للحصول على سبائك اكثر متانة، ومع البلاتين يدخل في صنع الاياف الصناعية نظراً لكونها مقاو. </t>
-  </si>
-  <si>
-    <t>الذهب هو فلز ثمين جداً وعنصر كيميائي يرمز له بالرمز Au و عدده الذري 79 .وهو لين ولامع أصفر اللون، استخدم كوحدة نقد عند العديد من الشعوب والحضارات والدول، كما أنه يستخدم في صناعة الحلي والجواهر.يتواجد في الطبيعة على هيئة حبيبات داخل الصخور و في قيعان الأنهار ، أو كعروق في باطن الأرض ، وغالباً ما يوجد الذهب مع معادن أخرى كالنحاس و الرصاص ، و اكتشفت أكبر كتلة من الذهب في أستراليا عام 1896 م و كان وزنه 2,280 أونصة ، ويمتاز الذهب بقلة التأكل و النعومة كما انه أكثر عناصر العالم كثافة .وقد تواجد الذهب بكثرة عند الفراعنة فكانوا يصنعون منه توابيت ملوكهم وعرباتهم كما انهم صنعوا منه قناعاً من أجمل الأقنعة التي عرفتها البشرية فكان مصنوعا من الذهب النقي للفرعون توت عنخ أمون .ويشكل الذهب قاعدة نقدية مستخدمة من قبل صندوق النقد الدولي و بنك التسويات الدولي كما ان للذهب استعملات اخرى فهو يستعمل في طب الأسنان و الإلكترونيات .إن</t>
-  </si>
-  <si>
-    <t>السمك أو الأسماك هي من الحيوانات الفقارية ذوات الدم البارد التي تعيش في الماء, هناك أنواع عديدة من الأسماك أكثر 27000 نوع مما جعلها أكثر الفقاريات تنوعاً. للسمك حراشف وزعانف وغلاصم خياشيم يتنفس بها.الأسماك بعضها يعيش في الماء العذب في البحيرات والأنهار والأهوار وبعضها الأخر يعيش في المياه المالحة في البحار والمحيطات.بعض الأسماك تكون صغيرة وبطول 1 سم أو أقل وبعضها الأخر كبيرة وطويلة قد يصل طولها إلى 15 متر ووزنها إلى 15 طن كما في سمك القرش و الحوت.أكثر أنواع الأسماك تعتبر غذاء رئيسي للبشر, ومن أنواع الأسماك التي تكون مرغوبة أكثر من غيرها مثل سمك الكارب وسمك القدّ وسمك الرنجة وسمك السردين وسمك التونة .أغلب أنواع الأسماك لها عظام وبعض الأنواع الأخرى مثل القرش ليس لها عظام حقيقية بل هي غضروفية. بعض العلماء لا يعتبرونها أسماك حقيقية, ولكن أغلب الناس يدعونها بالأسماك.مثل الفقاريات الأخرى، تمتلك الأسماك هيكلاً محورياً أو العمود الفقري. يقع تجويف الجسم الذي يحتوي على الأعضاء الحيوية في الجزء الأمامي من بطن السمكة، أما الجزء الخلفي الذي يقع خلف تجويف الجسم فيتكون معظمه من عضلات و وظيفته الأساسية هي دفع الأسماك في الماء و يسمى بالذيل أو الذنب. يغطى غالباً جسم الأسماك بحراشف. وتكسو جلود الأسماك أيضاً طبقة من مادة مخاطية تكمل ما للقشور من وظائف وقائية؛ فهي تحيط بالفطريات والجراثيم التي قد تعلق بجسم السمكة وتشلّ حركتها فتنزلق وتسقط دون أن تصيبها بضرر، أما إذا فقدت السمكة جزءاً من حراشفها، فإن الميكروبات تستطيع أن تصل إلى الجزء العاري الخالي من المادة المخاطية فتتعرض السمكة لكثير من الأمراض.كما تتميز الأسماك أيضاً بوجود الزعانف التي تدعمها أشواك شعاعية غضروفية أو عظمية؛ و الزعانف تكون فردية أو زوجية.تختلف ألوان الأسماك ما بين الرمادي الفاتح، و الأحمر الزاهر، و البني الذي تشبه خضرة، إلى الألوان القاتمة التي اختصت بها أسماك القاع، و تمتاز الأسماك العظمية عادة بجمال ألوانها وتعددها، بينما تتجانس الألوان في الأسماك الغضروفية .تكتسب الأسماك ألوانها من أصباغ راسبة أو معلقة في خلايا خاصة ذات أضلاع أو فروع؛ و تحتوي الخلايا المضلعة على الصبغ الأصفر، بينما تحتوي المتفرعة على الصبغ البرتقالي والأحمر والبني والأسود. وهناك خلايا أخرى متفرعة، تتكدس فيها بلورات عاكسة للضوء من مادة تسمى  الجوانين، وهي من إنتاج المواد الزلالية المهضومة، ويحملها الدم إلى هذه الخلايا التي تكثر على بطن السمكة ويعزي إليها اللون الأبيض والفضي.وتختلف مقادير الصبغ والبلورات من سمكة لأخرى. فإذا ما كثرت الخلايا المحتوية على الصبغ، وكانت الألوان زاهية وواضحة؛ وإذا ما كثرت الخلايا البلورية، أصبحت الألوان باهتة؛ وعند انتشار السوائل الملونة داخل الخلايا يكتمل لون السمكة ويزداد وضوحاً، وإذا تراكمت الخلايا المختلفة الأصباغ بعضها فوق بعض ينتج منها ألوان متعددة، كما أن الغوانين يستطيع أيضاً تحليل الضوء إلى ألوان الطيف.وتستطيع الأسماك في كثير من الاحيان أن تماثل بيئتها، للتتقي عدوها أو تباغت فريستها.. فتأخذ بعضها ألوان الأعشاب البحرية، وتأخذ الأخرى أشكال المرجان وألوانه، كما تتخذ أسماك القاع ألواناً تشبه الألوان السائدة فيه.ولا يعد انتشار الضوء وتخلله طبقات المياه أكثر من أربعمائة متر، وينتج من هذا أن أسماك السطح تكون زاهية اللون، بينما تتجانس الألوان كلما ازدادا العمق حتى تصبح باهتة في الاعماق السحيقة وكذلك تبهت ألوان الأسماك التي تسكن المغاور والكهوف المائية المظلمة، ولكنها تستعيد ألوانها عندما تتعرض للضوء.هناك عوامل أخرى، إلى جانب الضوء، كثيراً ما تؤثر في ألوان الأسماك. كشفت علاقة بين عين السمكة و الألوان عندما غطي الجزء الأسفل من العين صار لون السمكة زاهياً، و لم تسبب تغطية الجزء العلوي أي تغيير في لون السمكة، مما يدل على أن جزء الشبكية الأسفل يؤثر في لون الحيوان. كما لوحظ أن سمك موسى يستطيع أن يكتسب ألوان القاع بعد أن يطيل النظر إليها و ذلك لأن عين السمكة تنقل صور المرئيات إلى العصب البصري ثم إلى المخ ثم إلى العصب الودّي الذي يتصل بجميع الخلايا الملونة و بذلك تأخذ السمكة لون البيئة التي تعيش فيها.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السمك او الاسماك هي من الحيوانات الفقارية ذوات الدم البارد التي تعيش في الماء, هناك انواع عديدة من الاسماك اكثر 27000 نوع مما جعلها اكثر الفقاريات تنوعاً. بعض الاسماك تكون صغيرة وبطول 1 سم او اقل وبعضها الاخر كبيرة وطويلة قد يصل طولها الى 15 متر ووزنها الى 15 طن كما في سمك القرش و الحوت. اغلب انواع الاسماك لها عظام وبعض الانواع الاخرى مثل القرش ليس لها عظام حقيقية بل هي غضروفية.  وتكسو جلود الاسماك ايضاً طبقة من مادة مخاطية تكمل ما للقشور من وظائف وقائية؛ فهي تحيط بالفطريات والجراثيم التي قد تعلق بجسم السمكة وتشلّ حركتها فتنزلق وتسقط دون ان تصيبها بضرر، اما اذا فقدت السمكة جزءاً من حراشفها، فان الميكروبات تستطيع ان تصل الى الجزء . كما تتميز الاسماك ايضاً بوجود الزعانف التي تدعمها اشواك شعاعية غضروفية او عظمية؛ و الزعانف تكون فردية او زوجية. تكتسب الاسماك الوانها من اصباغ راسبة او معلقة في خلايا خاصة ذات اضلاع او فروع؛ و تحتوي الخلايا المضلعة على الصبغ الاصفر، بينما تحتوي المتفرعة على الصبغ البرتقالي والاحمر والبني والاسود.  فاذا ما كثرت الخلايا المحتوية على الصبغ، وكانت الالوان زاهية وواضحة؛ واذا ما كثرت الخلايا البلورية، اصبحت الالوان باهتة؛ وعند انتشار السوائل الملونة داخل الخلايا يكتمل لون السمكة ويزداد وضوحاً، واذا تراكمت الخلايا المختلفة الاصباغ بعضها فوق بعض ينتج منها. وتستطيع الاسماك في كثير من الاحيان ان تماثل بيئتها، للتتقي عدوها او تباغت فريستها. ولا يعد انتشار الضوء وتخلله طبقات المياه اكثر من اربعمائة متر، وينتج من هذا ان اسماك السطح تكون زاهية اللون، بينما تتجانس الالوان كلما ازدادا العمق حتى تصبح باهتة في الاعماق السحيقة وكذلك تبهت الوان الاسماك التي تسكن المغاور والكهوف المائية المظلمة، ولكنه.  كشفت علاقة بين عين السمكة و الالوان عندما غطي الجزء الاسفل من العين صار لون السمكة زاهياً، و لم تسبب تغطية الجزء العلوي اي تغيير في لون السمكة، مما يدل على ان جزء الشبكية الاسفل يؤثر في لون الحيوان. </t>
-  </si>
-  <si>
-    <t>السمك أو الأسماك هي من الحيوانات الفقارية ذوات الدم البارد التي تعيش في الماء, هناك أنواع عديدة من الأسماك أكثر 27000 نوع مما جعلها أكثر الفقاريات تنوعاً.للسمك حراشف وزعانف وغلاصم خياشيم يتنفس بها.الأسماك بعضها يعيش في الماء العذب في البحيرات والأنهار والأهوار وبعضها الأخر يعيش في المياه المالحة في البحار والمحيطات.بعضالأسماك تكون صغيرة وبطول 1 سم أو أقل وبعضها الأخر كبيرة وطويلة قد يصل طولها إلى 15 متر ووزنها إلى 15 طن كما في سمك القرش و الحوت.أكثرأنواع الأسماك تعتبر غذاء رئيسي للبشر, ومن أنواع الأسماك التي تكون مرغوبة أكثر من غيرها مثل سمك الكارب وسمك القدّ وسمك الرنجة وسمك السردين وسمك التونة .أغلبيقع تجويف الجسم الذي يحتوي على الأعضاء الحيوية في الجزء الأمامي من بطن السمكة، أما الجزء الخلفي الذي يقع خلف تجويف الجسم فيتكون معظمه من عضلات و وظيفته الأساسية هي دفع الأسماك في الماء و يسمى بالذيل أو الذنب.وتكسو جلود الأسماك أيضاً طبقة من مادة مخاطية تكمل ما للقشور من وظائف وقائية؛ فهي تحيط بالفطريات والجراثيم التي قد تعلق بجسم السمكة وتشلّ حركتها فتنزلق وتسقط دون أن تصيبها بضرر، أما إذا فقدت السمكة جزءاً من حراشفها، فإن الميكروبات تستطيع أن تصل إلى الجزء العاري الخالي من المادة المخاطية فتتعرض السمكة لكثير من الأمراض.كماألوان الأسماك ما بين الرمادي الفاتح، و الأحمر الزاهر، و البني الذي تشبه خضرة، إلى الألوان القاتمة التي اختصت بها أسماك القاع، و تمتاز الأسماك العظمية عادة بجمال ألوانها وتعددها، بينما تتجانس الألوان في الأسماك الغضروفية .تكتسبفإذا ما كثرت الخلايا المحتوية على الصبغ، وكانت الألوان زاهية وواضحة؛ وإذا ما كثرت الخلايا البلورية، أصبحت الألوان باهتة؛ وعند انتشار السوائل الملونة داخل الخلايا يكتمل لون السمكة ويزداد وضوحاً، وإذا تراكمت الخلايا المختلفة الأصباغ بعضها فوق بعض ينتج منها ألوان متعددة، كما أن الغوانين يستطيع أيضاً تحليل الضوء إلى ألوان الطيف.وتستطيعكشفت علاقة بين عين السمكة و الألوان عندما غطي الجزء الأسفل من العين صار لون السمكة زاهياً، و لم تسبب تغطية الجزء العلوي أي تغيير في لون السمكة، مما يدل على أن جزء الشبكية الأسفل يؤثر في لون الحيوان.كما لوحظ أن سمك موسى يستطيع أن يكتسب ألوان القاع بعد أن يطيل النظر إليها و ذلك لأن عين السمكة تنقل صور المرئيات إلى العصب البصري ثم إلى المخ ثم إلى العصب الودّي الذي يتصل بجميع الخلايا الملونة و بذلك تأخذ السمكة لون البيئة التي تعيش فيها.</t>
-  </si>
-  <si>
-    <t>علم الفلك من أوائل العلوم التي نشأت في فجر البشرية وهو علم يهتم بمراقبة و دراسة الاحداث التي تقع خارج الكرة الارضية وغلافها الجوي و علم التنبؤ بالظواهر الفلكية، يدرس علم الفلك بدايات الاجسام التي يمكن مراقباتها في السماء خارج الارض، وتطورها وخصائصها الفيزيائية و الكيميائية، والاحداث المرافقة لها.كان علم الفلك بداية يلقن من قبل كهنة المعابد. وكان لكل من قدماء المصريين والبابليين فلكهم الخاص بهم, فلقد عثر علي تقاويم فوق أغطية التوابيت الفرعونية ترجع لسنة 2000قبل الميلاد. ووجد أن أسقف المقابر المملكة الحديثة فد زينت بصور النجوم التي كانت ترى بالسماء وأطلق عليها أسماؤها.كما وجد في بلاد ما بين النهرين تشكيلات لصور النجوم. وكان البابليون يتنبؤن بدقة بالخسوف والكسوف للشمس والقمر.وتاريخ الفلك يبدأ منذ عصر ما قبل التاريخ حيث كان الإنسان الأول قد شغل تفكيره بالحركة الظاهرية المتكررة للشمس والقمر وتتابع الليل حيث يظهر الظلام و تظهر النجوم وحيث يتبعه النهار لتتواري في نوره. وكان يعزي هذا للقوى الخارقة لكثير من الآلهة.وكان الصينيون يعتبرون الأرض عربة ضخمة في أركانها أعمدة ترفع مظلة السماء وبلاد الصين تقع في وسط هذه العربة ويجري النهر السماوي النهر الأصفر من خلال عجلات العربة ويقوم السيد الأعلي المهيمن علي أقدار السماء والأرض بملازمة النجم القطبي بالشمال بينما التنينات تفترس الشمس والقمر.وفي القرن الثاني قبل الميلاد. وضع الفلكي الصيني هياهونج نظرية السماء الكروية حيث قال أن الكون بيضة والأرض صفارها و قبة السماء الزرقاء بياضها.وكان قدماء المصريين يعتقدون أن الأرض مستطيلة طويلة يتوسطها نهر النيل الذي ينبع من نهر أعظم يجري حولها تسبح فوقه النجوم الآلهة. والسماء ترتكز علي جبال بأركان الكون الأربعة و تتدلى منها هذه النجوم.لهذا كان الإله رع يسير حول الأرض باستمرار. ليواجه الثعبان أبوبي رمز قوى الظلام الشريرة حتى يصبحا خلف الجبال جهة الغرب والتي ترفع السماء. وهناك يهزم رع ويسقط, فيحل الظلام. وفي الصباح ينتصر رع علي هذه القوي الشريرة ويستيقظ من جهة الشرق. بينما حورس إله القمر يسير بقاربه ليطوف حول العالم. وكان القمر بعتبر إحدي عينيه. و يلاحقه أعداؤه لفقيء هذه العين بإلقائها في النيل وينجحوا مجتمعين في هذه المهمة فيظلم القمر. لكن الإله رع يهب لنجدة عين حورس القمر ويعيدها لحورس.وتمكنوا منذ 3000 سنة قبل الميلاد. بالقيام بالرصد الفلكي وقياس الزمن وتحديده من خلال السنة والأشهر. وبنوا الأهرامات أضلاعها متجهة للجهات الأربع الأصلية. ومن خلال هذا نجدهم قد حددوا الشمال الحقيقي. والفلك الفرعوني لم يهتموا به عكس بلاد الرافدين ولاسيما بالدورة القمرية. واهتموا بالشمس لأنها كانت ترمز للإله رع.وفي احدى الرسومات يصور المصريون السماء على انها بقرة عظيمة, حُليت بطنها بالنجوم, وتحتها يقف الاله شو  ويرفعها بذراعيه.ايضا تصور المصريون الشمس وحركاتها كأنها عجل ذهبي, في الصباح يولد من رحم بقرة السماء, ويكبر خلال النهار إلى ان يصبح ثورا في المساء, فيلقح امه لكتي تلد شمساً جديدة في الصباح التالي.وتصوروها أيضا بأنها جُعل يدفع الشمس نحو السماء, كما يفعل الجعل بدحرجة كرة من الروث امامه.وتصوروها أيضا بأنها امرأة لها طفل يكبر خلال النهار, وفي المساء يصير كهلا ويختفي بعد الغروب في العالم السفلي.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">علم الفلك من اوائل العلوم التي نشات في فجر البشرية وهو علم يهتم بمراقبة و دراسة الاحداث التي تقع خارج الكرة الارضية وغلافها الجوي و علم التنبؤ بالظواهر الفلكية، يدرس علم الفلك بدايات الاجسام التي يمكن مراقباتها في السماء خارج الارض، وتطورها وخصائصها الفيز.  ووجد ان اسقف المقابر المملكة الحديثة فد زينت بصور النجوم التي كانت ترى بالسماء واطلق عليها اسماؤها.  وكان يعزي هذا للقوى الخارقة لكثير من الآلهة.  وضع الفلكي الصيني هياهونج نظرية السماء الكروية حيث قال ان الكون بيضة والارض صفارها و قبة السماء الزرقاء بياضها.  ليواجه الثعبان ابوبي رمز قوى الظلام الشريرة حتى يصبحا خلف الجبال جهة الغرب والتي ترفع السماء.  وفي الصباح ينتصر رع علي هذه القوي الشريرة ويستيقظ من جهة الشرق.  وكان القمر بعتبر احدي عينيه.  ومن خلال هذا نجدهم قد حددوا الشمال الحقيقي. وتصوروها ايضا بانها جُعل يدفع الشمس نحو السماء, كما يفعل الجعل بدحرجة كرة من الروث امامه. وتصوروها ايضا بانها امراة لها طفل يكبر خلال النهار, وفي المساء يصير كهلا ويختفي بعد الغروب في العالم السفلي. </t>
-  </si>
-  <si>
-    <t>علم الفلك من أوائل العلوم التي نشأت في فجر البشرية وهو علم يهتم بمراقبة و دراسة الاحداث التي تقع خارج الكرة الارضية وغلافها الجوي و علم التنبؤ بالظواهر الفلكية، يدرس علم الفلك بدايات الاجسام التي يمكن مراقباتها في السماء خارج الارض، وتطورها وخصائصها الفيزيائية و الكيميائية، والاحداث المرافقة لها.كان علم الفلك بداية يلقن من قبل كهنة المعابد.وكان لكل من قدماء المصريين والبابليين فلكهم الخاص بهم, فلقد عثر علي تقاويم فوق أغطية التوابيت الفرعونية ترجع لسنة 2000قبل الميلاد.ووجد أن أسقف المقابر المملكة الحديثة فد زينت بصور النجوم التي كانت ترى بالسماء وأطلق عليها أسماؤها.كماالفلك يبدأ منذ عصر ما قبل التاريخ حيث كان الإنسان الأول قد شغل تفكيره بالحركة الظاهرية المتكررة للشمس والقمر وتتابع الليل حيث يظهر الظلام و تظهر النجوم وحيث يتبعه النهار لتتواري في نوره.وضع الفلكي الصيني هياهونج نظرية السماء الكروية حيث قال أن الكون بيضة والأرض صفارها و قبة السماء الزرقاء بياضها.وكانقدماء المصريين يعتقدون أن الأرض مستطيلة طويلة يتوسطها نهر النيل الذي ينبع من نهر أعظم يجري حولها تسبح فوقه النجوم الآلهة.منذ 3000 سنة قبل الميلاد.بالقيام بالرصد الفلكي وقياس الزمن وتحديده من خلال السنة والأشهر.واهتموا بالشمس لأنها كانت ترمز للإله رع.وفي احدى الرسومات يصور المصريون السماء على انها بقرة عظيمة, حُليت بطنها بالنجوم, وتحتها يقف الاله شو  ويرفعها بذراعيه.ايضاتصور المصريون الشمس وحركاتها كأنها عجل ذهبي, في الصباح يولد من رحم بقرة السماء, ويكبر خلال النهار إلى ان يصبح ثورا في المساء, فيلقح امه لكتي تلد شمساً جديدة في الصباح التالي.وتصوروها</t>
-  </si>
-  <si>
-    <t>الطاقة هي المقدرة على القيام بعمل ما أى إحداث تغيير ، وهناك صور عديدة للطاقة، يتمثل أهمها في الحرارة و الضوء.ضمن الاستخدام الاجتماعي : تطلق كلمة "طاقة" على كل ما يندرج ضمن مصادر الطاقة ، إنتاج الطاقة ، و استهلاكها و أيضا حفظ موارد الطاقة. بما ان جميع الفعاليات الاقتصادية تتطلب مصدرا من مصدر الطاقة ، فإن توافرها و أسعارها هي ضمن الاهتمامات الأساسية و المفتاحية . في السنوات الأخيرة برز استهلاك الطاقة كاحد أهم العومل المسببة و المتعلقة بالاحترار العالمي مما جعلها تتحول إلى قضية أساسية في معظم دول العالم .ضمن سياق العلوم الطبيعية ، الطاقة يمن ان تاخذ أشكالا متنوعة مثل طاقة حرارية ، كيميائية ، كهربائية ، إشعاعية ، نووية ، و اخيرا كهرومغناطيسية .  هذه الأنواع الطاقية تصنف عادة بكونها طاقة حركية أو طاقة كامنة ، مع أن بعض انواع الطاقة تقاوم مثل هذا التصنيف مثلا الضوء . في حين أن انواع أخرى من الطاقة كالحرارة يمكن أن تكون مزيجا من الطاقتين الكامنة و الحركية .العديد من انواع الطاقة هذه يمكن تحويلها من شكل لآخر بمساعدة ادوات بسيطة او تقنيات معقدة , من الطاقة الكيميائية إلى الكهربائية عن طريق الأداة الشائعة البطاريات أو المدخرات ، بالمقابل أيضا قام الحضري محمد ياسين ضمن سياق نظرية النسبية بدمج مجالي المادة و الطاقة معا بحيث أصبح من الممكن ان تتحول الطاقة إلى مادة و بالعكس تحول المادة إلى طاقة ، هذا التحول ترجم عمليا عن طريق الحصول على الطاقة بعمليات الانشطار النووي أو الاندماج النووي.مصطلحات الطاقة و تحولاتها مفيدة جدا في شرح العمليات الطبيعية . فحتى الظواهر الطقسية مثل الريح ، و المطر و البرق و الأعاصير تعتبر نتيجة لتحولات الطاقة التي تأتي من الشمس على الأرض . الحياة نفسها تعتبر أحد نتائج تحولات الطاقة : فعن طريقة التركيب الضوئي يتم تحويل طاقة الشمس إلى طاقة كيميائية ضمن النباتات ، يتم لاحقا الاستفادة من هذه الطاقة الكيميائية المختزنة في عمليات الاستقلاب ضمن الطائنات الحية غيرية التغذية .يمكن تحويل الطاقة من صورة إلى أخرى. فعلى سبيل المثال، يمكن تحويل الطاقة الكيميائية المختزنة في بطارية الجيب إلى ضوء.كمية الطاقة الموجودة في العالم ثابتة على الدوام، فالطاقة لا تفنى ولا تستحدث ، وإنما تتحول من شكل إلى آخر. وعندما يبدو أن الطاقة قد استنفذت، فإنها في حقيقة الأمر تكون قد تحولت إلى صورة أخرى، لهذا نجد أن الطاقة هي قدرة المادة للقيام بالشغل الحركة كنتيجة لحركتها أو موضعها بالنسبة للقوي التي تعمل عليها. فالطاقة التي يصاحبها حركة يطلق عليها طاقة حركية، والطاقة التي لها صلة بالموضع يطلق عليها طاقة كامنة جهدية أو مخزنة. فالبندول المتأرجح به طاقة جهدية في نقاطه النهائية، وفي كل أوضاعه النهائية له طاقة حركية وطاقة جهدية في أوضاعه المختلفة.الطاقة توجد في عدة أشكال كالطاقة الميكانيكية، الحرارية، الديناميكية الحرارية، الكيميائية، الكهربائية، الإشعاعية، والذرية. وكل أشكال هذه الطاقات قابلة للتحويل الداخلي بواسطة طرق مناسبة. والطعام الذي نتاوله، به طاقة كيميائية يخزنها الجسم ويطلقها عندما نعمل أو نبذل مجهوداً.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الطاقة هي المقدرة على القيام بعمل ما اى احداث تغيير ، وهناك صور عديدة للطاقة، يتمثل اهمها في الحرارة و الضوء.  في السنوات الاخيرة برز استهلاك الطاقة كاحد اهم العومل المسببة و المتعلقة بالاحترار العالمي مما جعلها تتحول الى قضية اساسية في معظم دول العالم . ضمن سياق العلوم الطبيعية ، الطاقة يمن ان تاخذ اشكالا متنوعة مثل طاقة حرارية ، كيميائية ، كهربائية ، اشعاعية ، نووية ، و اخيرا كهرومغناطيسية .  في حين ان انواع اخرى من الطاقة كالحرارة يمكن ان تكون مزيجا من الطاقتين الكامنة و الحركية .  وعندما يبدو ان الطاقة قد استنفذت، فانها في حقيقة الامر تكون قد تحولت الى صورة اخرى، لهذا نجد ان الطاقة هي قدرة المادة للقيام بالشغل الحركة كنتيجة لحركتها او موضعها بالنسبة للقوي التي تعمل عليها.  فالبندول المتارجح به طاقة جهدية في نقاطه النهائية، وفي كل اوضاعه النهائية له طاقة حركية وطاقة جهدية في اوضاعه المختلفة.  والطعام الذي نتاوله، به طاقة كيميائية يخزنها الجسم ويطلقها عندما نعمل او نبذل مجهوداً. </t>
-  </si>
-  <si>
-    <t>الطاقة هي المقدرة على القيام بعمل ما أى إحداث تغيير ، وهناك صور عديدة للطاقة، يتمثل أهمها في الحرارة و الضوء.ضمنالاستخدام الاجتماعي : تطلق كلمة "طاقة" على كل ما يندرج ضمن مصادر الطاقة ، إنتاج الطاقة ، و استهلاكها و أيضا حفظ موارد الطاقة.في السنوات الأخيرة برز استهلاك الطاقة كاحد أهم العومل المسببة و المتعلقة بالاحترار العالمي مما جعلها تتحول إلى قضية أساسية في معظم دول العالم .ضمنسياق العلوم الطبيعية ، الطاقة يمن ان تاخذ أشكالا متنوعة مثل طاقة حرارية ، كيميائية ، كهربائية ، إشعاعية ، نووية ، و اخيرا كهرومغناطيسية .الحياة نفسها تعتبر أحد نتائج تحولات الطاقة : فعن طريقة التركيب الضوئي يتم تحويل طاقة الشمس إلى طاقة كيميائية ضمن النباتات ، يتم لاحقا الاستفادة من هذه الطاقة الكيميائية المختزنة في عمليات الاستقلاب ضمن الطائنات الحية غيرية التغذية .يمكنفعلى سبيل المثال، يمكن تحويل الطاقة الكيميائية المختزنة في بطارية الجيب إلى ضوء.كمية الطاقة الموجودة في العالم ثابتة على الدوام، فالطاقة لا تفنى ولا تستحدث ، وإنما تتحول من شكل إلى آخر.وعندما يبدو أن الطاقة قد استنفذت، فإنها في حقيقة الأمر تكون قد تحولت إلى صورة أخرى، لهذا نجد أن الطاقة هي قدرة المادة للقيام بالشغل الحركة كنتيجة لحركتها أو موضعها بالنسبة للقوي التي تعمل عليها.</t>
-  </si>
-  <si>
-    <t>الديناصور حيوان فقاري ساد في النظام البيئي الأرضي لأكثر من 160 مليون سنة . أول الديناصورات ظهر قبل حوالي 230 مليون سنة خلت أما آخر الديناصورات على ظهر الأرض فاختفت في حادثة انقراض كارثية ، في نهاية العصر الكريتاسي . قبل 65 مليون سنة . يعتبر الخبراء الآن الطيور الجديثة الأحفاد المباشرين المتحدرين من الديناصورات الثيروبودية .منذ أن تم وصف الديناصور للمرة الأولى في القرن التاسع عشر لقيت هياكل الديناصورات المستحاثية اهتماما واسعا من المتحف على امتداد العالم . أصبح الديناصور جزءا من ثقافة العالم و اكتسب شعبية واسعة منذ ذلك الحين ، بالذات بين الأطفال . و كثيرا ما استخدم في الكتب الأكثر مبيعا و في أفلام الخيال العلمي و أهمها الحديقة الجوراسية.في الاستخدام غير الرسمي غير العلمي يتم استخدام مصطلح ديناصور من اجل الإشارة إلى كل زاحف قبل تاريخي ، مثل بيليكوسور , ديميترودون ، و البتيروسور المجنح ، و إشثيوسور المائي ، و بليسيوسور و موساسور ، مع أن جميع هذه الكائنات عمليا و علميا ليست ديناصورات .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> اول الديناصورات ظهر قبل حوالي 230 مليون سنة خلت اما آخر الديناصورات على ظهر الارض فاختفت في حادثة انقراض كارثية ، في نهاية العصر الكريتاسي . منذ ان تم وصف الديناصور للمرة الاولى في القرن التاسع عشر لقيت هياكل الديناصورات المستحاثية اهتماما واسعا من المتحف على امتداد العالم .  اصبح الديناصور جزءا من ثقافة العالم و اكتسب شعبية واسعة منذ ذلك الحين ، بالذات بين الاطفال . </t>
-  </si>
-  <si>
-    <t>الديناصور حيوان فقاري ساد في النظام البيئي الأرضي لأكثر من 160 مليون سنة .أول الديناصورات ظهر قبل حوالي 230 مليون سنة خلت أما آخر الديناصورات على ظهر الأرض فاختفت في حادثة انقراض كارثية ، في نهاية العصر الكريتاسي .و كثيرا ما استخدم في الكتب الأكثر مبيعا و في أفلام الخيال العلمي و أهمها الحديقة الجوراسية.في</t>
-  </si>
-  <si>
-    <t>الألماس هو مادة ذات تركيب بلوري وهو على شكل مكعب في اغلب الاحيان واحيانا يكون على شكل ثمانى الاوجة يتكون بنسبة كبيرة من الكربون او مايعرف بالفحم وذلك تحت ضغط وحرارة شديدين,ورغم التشابه الكبير بين المواد المكونة للجرافيت والماس الا ان الخصائص لكل منهما تختلف عن الاخرى بشكل كبير بسب التركيب الذرى المختلف لكل منهما .و هذا التشابة في التركيب الكيماوى هو ما دعى العلماء تجربة تحويل الجرافيت اللى الماس وتم ذلك عن طريق مكنة خاصة تسطيع تحمل درجة حرارة وضعط شديدين لتحويل الجرافيت للماس ونتج ما يسمى الماس الصناعى. ويبلغ عمر احدث الماسه موجودة قرابة ملايين السنين . وهو أكثر المواد المعروفة وذات الفائدة من بين ما يزيد على 3000 مادة مكتشفة اليوم. وقد عرف منذ القدم كأحد الجواهر القيمة معنويا وعمليا. ازدادت شعبية الألماس في القرن التاسع عشر مع تحسن تقنيات القطع والصقل.وخاصة طريقة البريليات التى اكتشفها الاوربيون. يشتهر الألماس بصفات فيزيائية فائقة، خصوصًا صلابته العالية حيث يتحصل وحده على درجة 10 في سلم درجات صلابة الاحجار مع الاخذ بالعبرة ان الفرق في درجات الصلابة بين درجة 9 مثل الزفير والياقوت و 10 كبير وتشتيته العالي للضوء. لهذا السبب، فإن الألماس مادة ذات قيمة مهمة في صناعة الحلي بالإضافة إلى استعمالات صناعية أخرى مثل استخدام الالماس على رأس أنابيب التنقيب عن البترول,وذلك لقوته الشديدة وهو يتعبر أقوى من الحديد.أطلق اليونان على الألماس اسم أدماس والتي تعني مُحال التطويع لصلابته. وقد ذكر ابن منظور في لسان العرب عن أصل كلمة ألماس معرب أذماس باليونانية وقد حرفوه عند تعريبه بقلب الذال لتقارب صورتهما ومخرجهما.يستخرج معظم الألماس من الفوهات البركانية حيث تلقي به الحمم البركانية التي تحضره من أعماق الأرض من مسافات قد تصل إلى 150 كيلومترًا حيث الحرارة والضغط العاليين لمدة طويلة تصل إلى ملايين السنين تهيآن ظروفًا مناسبة لتشكيل الألماس. وتقع معظم مناجم الألماس في وسط وجنوب أفريقيا على الرغم من اكتشاف كميات لا بأس بها في كلِ من كندا وروسيا والبرازيل وأستراليا. ويستخرج ما يعادل 130 مليون قيراط، أو 26,000 كيلوغرام، من الألماس سنويًا، وهو ما يعادل قيمته 9 مليار دولار أمريكي.جودة الألماس تقدر دائما بالنظر إلى أربعة معايير مهمه وهي القيراط، الوضوح، اللون، والقطع. ومقابلا للألماس الطبيعي، يتم إنتاج الألماس صناعيا بكميات تقارب أربعة أضعاف الكمية المستخرجة طبيعيا. ومع ذلك، فإن معظم الألماس الصناعي يكون صغيرا ويحوي على تشوهات واضحه مما يجعل أسعاره بخسه أمام الالماس الطبيعي و يكون استعماله محصورا بشكل كبير للأغراض الصناعية لذلك دائما ماتجد شهادات ضمان تصاحب الالماس الطبيعي خصوصا النادر منه و تكون هذة الشهادات صادره من مراكز او شركات تمتلك مخابر وخبراء وباع طويل في التعامل مع الالماس والاحجار الكريمة مثل جي آي ايه الامريكية واتش ار دي  و اي جي اي البلجيكيتان حيث تذكر ادق تفاصيل الحجر من بينها وزن قيراط الحجر ونوع قطعه ودرجة الوضوح واللون بالاضافة إلى الابعاد وتعطى الشهادة رقم مسلسل وتدرج صورة من الشهادة في سجلات الشركة وهي شهادات مضمونة لايمكن الشكك فيها وتجعل الالماسه ذات قيمة اكبر.يدور حول الألماس الكثير من الجدل فيما يتعلق بعمليات استخراجه وتوزيعه، كما هو الحال في عمليات بيع ما يسمى الالماس الدموي من قبل العصابات المسلحة الأفريقية. كما تدور الادعاءات حول مجموعة دي بيرز، وهي إحدى أكبر شركات الألماس في العالم ولها مقار في جوهانسبورغ ولندن، بأنها تسيء استخدام نفوذها في هذا المجال لتتحكم بالكميات المطروحة من الألماس ولتتلاعب بأسعاره عن طريق الاحتكار. ويذكر أنه قد نم صناعة ألماس شديد الشبه بالألماس الطبيعي بواسطة الليزر وبتكلفة قليلة نسبيا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الالماس هو مادة ذات تركيب بلوري وهو على شكل مكعب في اغلب الاحيان واحيانا يكون على شكل ثمانى الاوجة يتكون بنسبة كبيرة من الكربون او مايعرف بالفحم وذلك تحت ضغط وحرارة شديدين,ورغم التشابه الكبير بين المواد المكونة للجرافيت والماس الا ان الخصائص لكل منهما تخت. و هذا التشابة في التركيب الكيماوى هو ما دعى العلماء تجربة تحويل الجرافيت اللى الماس وتم ذلك عن طريق مكنة خاصة تسطيع تحمل درجة حرارة وضعط شديدين لتحويل الجرافيت للماس ونتج ما يسمى الماس الصناعى.  وهو اكثر المواد المعروفة وذات الفائدة من بين ما يزيد على 3000 مادة مكتشفة اليوم.  يشتهر الالماس بصفات فيزيائية فائقة، خصوصًا صلابته العالية حيث يتحصل وحده على درجة 10 في سلم درجات صلابة الاحجار مع الاخذ بالعبرة ان الفرق في درجات الصلابة بين درجة 9 مثل الزفير والياقوت و 10 كبير وتشتيته العالي للضوء.  لهذا السبب، فان الالماس مادة ذات قيمة مهمة في صناعة الحلي بالاضافة الى استعمالات صناعية اخرى مثل استخدام الالماس على راس انابيب التنقيب عن البترول,وذلك لقوته الشديدة وهو يتعبر اقوى من الحديد.  وقد ذكر ابن منظور في لسان العرب عن اصل كلمة الماس معرب اذماس باليونانية وقد حرفوه عند تعريبه بقلب الذال لتقارب صورتهما ومخرجهما. يستخرج معظم الالماس من الفوهات البركانية حيث تلقي به الحمم البركانية التي تحضره من اعماق الارض من مسافات قد تصل الى 150 كيلومترًا حيث الحرارة والضغط العاليين لمدة طويلة تصل الى ملايين السنين تهيآن ظروفًا مناسبة لتشكيل الالماس.  ومع ذلك، فان معظم الالماس الصناعي يكون صغيرا ويحوي على تشوهات واضحه مما يجعل اسعاره بخسه امام الالماس الطبيعي و يكون استعماله محصورا بشكل كبير للاغراض الصناعية لذلك دائما ماتجد شهادات ضمان تصاحب الالماس الطبيعي خصوصا النادر منه و تكون هذة الشهادات صادره .  كما تدور الادعاءات حول مجموعة دي بيرز، وهي احدى اكبر شركات الالماس في العالم ولها مقار في جوهانسبورغ ولندن، بانها تسيء استخدام نفوذها في هذا المجال لتتحكم بالكميات المطروحة من الالماس ولتتلاعب باسعاره عن طريق الاحتكار.  ويذكر انه قد نم صناعة الماس شديد الشبه بالالماس الطبيعي بواسطة الليزر وبتكلفة قليلة نسبيا. </t>
-  </si>
-  <si>
-    <t>الألماس هو مادة ذات تركيب بلوري وهو على شكل مكعب في اغلب الاحيان واحيانا يكون على شكل ثمانى الاوجة يتكون بنسبة كبيرة من الكربون او مايعرف بالفحم وذلك تحت ضغط وحرارة شديدين,ورغم التشابه الكبير بين المواد المكونة للجرافيت والماس الا ان الخصائص لكل منهما تختلف عن الاخرى بشكل كبير بسب التركيب الذرى المختلف لكل منهما .وهذا التشابة في التركيب الكيماوى هو ما دعى العلماء تجربة تحويل الجرافيت اللى الماس وتم ذلك عن طريق مكنة خاصة تسطيع تحمل درجة حرارة وضعط شديدين لتحويل الجرافيت للماس ونتج ما يسمى الماس الصناعى.ويبلغ عمر احدث الماسه موجودة قرابة ملايين السنين .وهو أكثر المواد المعروفة وذات الفائدة من بين ما يزيد على 3000 مادة مكتشفة اليوم.يشتهر الألماس بصفات فيزيائية فائقة، خصوصًا صلابته العالية حيث يتحصل وحده على درجة 10 في سلم درجات صلابة الاحجار مع الاخذ بالعبرة ان الفرق في درجات الصلابة بين درجة 9 مثل الزفير والياقوت و 10 كبير وتشتيته العالي للضوء.لهذا السبب، فإن الألماس مادة ذات قيمة مهمة في صناعة الحلي بالإضافة إلى استعمالات صناعية أخرى مثل استخدام الالماس على رأس أنابيب التنقيب عن البترول,وذلك لقوته الشديدة وهو يتعبر أقوى من الحديد.أطلقمعظم الألماس من الفوهات البركانية حيث تلقي به الحمم البركانية التي تحضره من أعماق الأرض من مسافات قد تصل إلى 150 كيلومترًا حيث الحرارة والضغط العاليين لمدة طويلة تصل إلى ملايين السنين تهيآن ظروفًا مناسبة لتشكيل الألماس.ويستخرج ما يعادل 130 مليون قيراط، أو 26,000 كيلوغرام، من الألماس سنويًا، وهو ما يعادل قيمته 9 مليار دولار أمريكي.جودةومع ذلك، فإن معظم الألماس الصناعي يكون صغيرا ويحوي على تشوهات واضحه مما يجعل أسعاره بخسه أمام الالماس الطبيعي و يكون استعماله محصورا بشكل كبير للأغراض الصناعية لذلك دائما ماتجد شهادات ضمان تصاحب الالماس الطبيعي خصوصا النادر منه و تكون هذة الشهادات صادره من مراكز او شركات تمتلك مخابر وخبراء وباع طويل في التعامل مع الالماس والاحجار الكريمة مثل جي آي ايه الامريكية واتش ار دي  و اي جي اي البلجيكيتان حيث تذكر ادق تفاصيل الحجر من بينها وزن قيراط الحجر ونوع قطعه ودرجة الوضوح واللون بالاضافة إلى الابعاد وتعطى الشهادة رقم مسلسل وتدرج صورة من الشهادة في سجلات الشركة وهي شهادات مضمونة لايمكن الشكك فيها وتجعل الالماسه ذات قيمة اكبر.يدور حول الألماس الكثير من الجدل فيما يتعلق بعمليات استخراجه وتوزيعه، كما هو الحال في عمليات بيع ما يسمى الالماس الدموي من قبل العصابات المسلحة الأفريقية.كما تدور الادعاءات حول مجموعة دي بيرز، وهي إحدى أكبر شركات الألماس في العالم ولها مقار في جوهانسبورغ ولندن، بأنها تسيء استخدام نفوذها في هذا المجال لتتحكم بالكميات المطروحة من الألماس ولتتلاعب بأسعاره عن طريق الاحتكار.</t>
-  </si>
-  <si>
-    <t>التمر هو ثمرة أشجار الـنخيل وهو أحد الثمار الشهيرة بقيمتها الغذائية. وقد اعتمد العرب عليها في حياتهم اليومية وأوصى الرسول محمد صلى الله عليه وسلم أصحابه بأكل التمر لما فيه من فوائد وقد غدا التمر ولا يزال الطعام المفضل للإفطار عليه في شهر رمضان، وكما يتناولونه العمال أثناء عملهم من أجل تخفيف التعب وإعطائهم السعرات الحراريات الكافية, وتتناوله النساء العربيات خلال فترة حملهم من أجل تغذية نفسها وتغذية الطفل في أحشائها والمساعدة على تحمل آلام الطلق. ورد ذكر التمر في القرآن في سورة مريم حيث أن السيدة مريم العذراء تناولت الرطب لتخفيف حدة ألم ولادة المسيح حيث أوحى لها الله بأن تهز جذع النخلة ليتساقط عليها الرطب الجني فتأكل منه وتشرب وتقر عينا.من المؤكد أن التمر وهو الغذاء الذي له الفضل في الرشاقة والطول والمناعة ضد الأمراض ،وإتضح علميا ًبأن التمر غني بالمعادن وهذا بخلاف فوائده ارلأخرى التي تجعل منه غذاء كاملا بكل ما في هذه الكلمة من معنى ، ورغم رخص ثمنه وتوفره الدائم في الأسواق مما يجعل منه فاكهة الشتاء الأولى بغير منازع وقد عرفه الفراعنة منذ مئات السنين، فقد دلت الحفريات التي أجريت في مقابرهم على شدة تقديرهم له ، حتى انهم نقشوه على جدران معابدهم. وعرفه العرب والمسلمون فالرسول صلى الله عليه وسلم كان يقتصر في افطاره بعد صومه على بضع تمرات وجرعة من الماء يقوم بعدها إلى الصلاة ، حتى اذا أغطش الليل وانتهى من الصلاة ، تناول طعاماً خفيفاً يسد جوعه وحاجة جسمه من الغذاء دون شعور بالتخمة. وقد استعمله الطيارون الأمريكيون إبان الحرب العالمية الثانية أثناء غاراتهم الليلية كي يعاونهم على تمييز الآهداف في الظلام.إن هذه الفاكهة الصحراوية الممتازة ، غنية جداً بالمواد الغذائية الضرورية للانسان ، إن كيلو غراماً واحد منه يعطي 3000 ثلاثة آلاف سعرة حرارية ،أي ما يعادل الطاقة الحرارية التي يحتاج اليها الرجل متوسط النشاط في اليوم الواحد. إن ما يعطيه الكيلو الواحد من البلح يعادل ثلاثة أضعاف ما يعطيه كيلو واحد من السمك، ان اضافة الجوز واللوز إلى التمر أو تناوله مع الحليب يزيد في قوته وغناه.يصنع من التمر الدبس وهو عصير التمر المكثف, كما يصنع من التمر حلويات كثيرة, وتجري محاولات لصناعة السكر من التمر, وحصل ذلك فعلا وكان السكر الناتج على شكل سائل وذلك لصعوبة بلورة السكر الناتج, لذا استعمل هذا السكر في صنع المعجنات والحلويات, وتم استخلاص قهوة تمر من نواة التمر ويقال أن طعمها أشبه بالقهوة العربية. يوجد في المدينة أكثر من 2000 نوع من التمور.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> وقد اعتمد العرب عليها في حياتهم اليومية واوصى الرسول محمد صلى الله عليه وسلم اصحابه باكل التمر لما فيه من فوائد وقد غدا التمر ولا يزال الطعام المفضل للافطار عليه في شهر رمضان، وكما يتناولونه العمال اثناء عملهم من اجل تخفيف التعب واعطائهم السعرات الحراريا.  وعرفه العرب والمسلمون فالرسول صلى الله عليه وسلم كان يقتصر في افطاره بعد صومه على بضع تمرات وجرعة من الماء يقوم بعدها الى الصلاة ، حتى اذا اغطش الليل وانتهى من الصلاة ، تناول طعاماً خفيفاً يسد جوعه وحاجة جسمه من الغذاء دون شعور بالتخمة.  ان ما يعطيه الكيلو الواحد من البلح يعادل ثلاثة اضعاف ما يعطيه كيلو واحد من السمك، ان اضافة الجوز واللوز الى التمر او تناوله مع الحليب يزيد في قوته وغناه.  يوجد في المدينة اكثر من 2000 نوع من التمور. </t>
-  </si>
-  <si>
-    <t>التمر هو ثمرة أشجار الـنخيل وهو أحد الثمار الشهيرة بقيمتها الغذائية.وقد اعتمد العرب عليها في حياتهم اليومية وأوصى الرسول محمد صلى الله عليه وسلم أصحابه بأكل التمر لما فيه من فوائد وقد غدا التمر ولا يزال الطعام المفضل للإفطار عليه في شهر رمضان، وكما يتناولونه العمال أثناء عملهم من أجل تخفيف التعب وإعطائهم السعرات الحراريات الكافية, وتتناوله النساء العربيات خلال فترة حملهم من أجل تغذية نفسها وتغذية الطفل في أحشائها والمساعدة على تحمل آلام الطلق.ورد ذكر التمر في القرآن في سورة مريم حيث أن السيدة مريم العذراء تناولت الرطب لتخفيف حدة ألم ولادة المسيح حيث أوحى لها الله بأن تهز جذع النخلة ليتساقط عليها الرطب الجني فتأكل منه وتشرب وتقر عينا.من المؤكد أن التمر وهو الغذاء الذي له الفضل في الرشاقة والطول والمناعة ضد الأمراض ،وإتضح علميا ًبأن التمر غني بالمعادن وهذا بخلاف فوائده ارلأخرى التي تجعل منه غذاء كاملا بكل ما في هذه الكلمة من معنى ، ورغم رخص ثمنه وتوفره الدائم في الأسواق مما يجعل منه فاكهة الشتاء الأولى بغير منازع وقد عرفه الفراعنة منذ مئات السنين، فقد دلت الحفريات التي أجريت في مقابرهم على شدة تقديرهم له ، حتى انهم نقشوه على جدران معابدهم.هذه الفاكهة الصحراوية الممتازة ، غنية جداً بالمواد الغذائية الضرورية للانسان ، إن كيلو غراماً واحد منه يعطي 3000 ثلاثة آلاف سعرة حرارية ،أي ما يعادل الطاقة الحرارية التي يحتاج اليها الرجل متوسط النشاط في اليوم الواحد.</t>
-  </si>
-  <si>
-    <t>الفحم الحجري صخر أسود أو بني اللون قابل للاشتعال والاحتراق. وعند احتراق الفحم الحجري فإنه يعطي طاقة على شكل حرارة. ويمكن استعمال الحرارة الصادرة عن احتراق الفحم الحجري في تدفئة المنازل، وفي عمل منتجات عديدة مختلفة. ولكن الاستخدام الأساسي لهذه الحرارة هو في إنتاج الكهرباء. وتعطي معامل إنتاج الطاقة باحتراق الفحم الحجري ثلثي الكهرباء المستهلكة في العالم. ويستعمل الفحم الحجري كذلك في إنتاج فحم الكوك وهو مادة خام أساسية في صناعة الحديد والفولاذ. وتنتج مواد أخرى عن عملية إنتاج فحم الكوك، يمكن استعمالها بدورها في صناعة بعض المنتجات كالأدوية والأصباغ والأسمدة.وكان الفحم الحجري في فترة ماضية المصدر الرئيسي للطاقة في جميع البلدان الصناعية. وقد أنتجت المحركات العاملة بالبخار الناتج عن احتراق الفحم الحجري، معظم القدرة اللازمة لهذه البلدان منذ بداية القرن التاسع عشر وحتى القرن العشرين. ومنذ بداية القرن العشرين، أصبح النفط والغاز الطبيعي المصدرين الرائدين للطاقة في معظم أرجاء العالم. وعلى نقيض الفحم الحجري؛ فإن النفط يمكن تحويله إلى بترول ومواد وقود أخرى لازمة لتشغيل وسائل المواصلات الحديثة. وقد حل استعمال الغاز الطبيعي محل الفحم الحجري لتوليد الطاقة الحرارية. ولكن، يجرى حاليًا استهلاك موارد العالم من النفط والغاز الطبيعي بسرعة. وإذا ما استمر الاستهلاك بالمستوى الحالي فإن موارد النفط قد تستهلك وتنضب في أوائل القرن الحادي والعشرين. كما أن موارد الغاز الطبيعي ستنضب بدورها في أواسط القرن الحادي والعشرين. أما مصادر العالم من الفحم الحجري فهي باقية ومستمرة إلى حوالي 220 سنة مقبلة، وذلك وفق معدلات الاستهلاك الحالية.وقد يسدُّ الاستعمال المتنامي للفحم الحجري في إنتاج الكهرباء، بشكل خاص، النقص المتزايد لكل من الغاز والنفط. ومع ذلك، فإن استعمال الفحم الحجري يحمل في طياته مشاكل من نوع خاص؛ إذ إن احتراقه يشكل سببًا رئيسيًا لتلوث الهواء. وقد طُوِّرت وسائل عديدة للتقليل من التلوث ولكنها مكلفة ولم تثبت جدواها حتى الآن. ولابد من تحسين هذه الطرق والأساليب قبل التوسع الكبير في استعمال الفحم الحجري. وبالإضافة لهذا فإن بعض الفحم الحجري يوجد عميقًا تحت سطح الأرض، حيث يصعب استخراجه.وفي الماضي كانت الوظائف التي تعد أكثر خطورة وصعوبة من وظيفة عامل في منجم فحم حجري تحت سطح الأرض قليلة. ففي القرن التاسع عشر الميلادي كان على العديد من عمال المناجم أن يعملوا عشر ساعات يوميًا تحت الأرض ولمدة ستة أيام كل أسبوع. وقد كانت المعاول هي الأدوات الوحيدة التي تستعمل في تكسير وتفتيت الفحم الحجري. وكان على عمال مناجم الفحم الحجري أن يجرفوا الفحم الحجري المتفتت ويحملوه في عربات. وفي حالات عديدة كان الأطفال دون سن العاشرة يجرُّون عربات الفحم الحجري من المناجم. كما عملت النساء في عمليات التحميل والنقل بالعربات. ومع مرور الزمن فقد الآلاف من الرجال والنساء والأطفال حياتهم في حوادث المناجم. كما مات آلاف آخرون جرّاء إصابتهم بأمراض الرئتين بسبب استنشاق رماد الفحم الحجري طوال حياتهم العملية في المناجم.وتُنفِذ الآلات هذه الأيام معظم الأعمال في مناجم الفحم الحجري، كما تحسنت إجراءات الأمان في المناجم، وقلّت ساعات العمل، وتم حظر تشغيل الأطفال في المناجم قبل نهاية القرن التاسع عشر الميلادي. وانخفضت نسبة الوفيات بسبب حوادث المناجم بصورة كبيرة في القرن العشرين. وفي كل هذه الأحوال فإن مهنة تعدين الفحم الحجري من مناجمه مازالت مهنة المخاطر.تناقش هذه المقالة، كيف تكوَّن الفحم الحجري، وأماكن وجوده، واستعمالاته، وطرق تعدينه. كما تناقش كيفية، تنظيف الفحم الحجري، ونقله، وكذلك الصناعات القائمة عليه، وتاريخ استعماله في العالم.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> وعند احتراق الفحم الحجري فانه يعطي طاقة على شكل حرارة.  ولكن الاستخدام الاساسي لهذه الحرارة هو في انتاج الكهرباء.  وتنتج مواد اخرى عن عملية انتاج فحم الكوك، يمكن استعمالها بدورها في صناعة بعض المنتجات كالادوية والاصباغ والاسمدة.  وعلى نقيض الفحم الحجري؛ فان النفط يمكن تحويله الى بترول ومواد وقود اخرى لازمة لتشغيل وسائل المواصلات الحديثة.  ولكن، يجرى حاليًا استهلاك موارد العالم من النفط والغاز الطبيعي بسرعة.  ومع ذلك، فان استعمال الفحم الحجري يحمل في طياته مشاكل من نوع خاص؛ اذ ان احتراقه يشكل سببًا رئيسيًا لتلوث الهواء.  وفي حالات عديدة كان الاطفال دون سن العاشرة يجرُّون عربات الفحم الحجري من المناجم.  كما تناقش كيفية، تنظيف الفحم الحجري، ونقله، وكذلك الصناعات القائمة عليه، وتاريخ استعماله في العالم. </t>
-  </si>
-  <si>
-    <t>الفحم الحجري صخر أسود أو بني اللون قابل للاشتعال والاحتراق.وعند احتراق الفحم الحجري فإنه يعطي طاقة على شكل حرارة.ويمكن استعمال الحرارة الصادرة عن احتراق الفحم الحجري في تدفئة المنازل، وفي عمل منتجات عديدة مختلفة.وتنتج مواد أخرى عن عملية إنتاج فحم الكوك، يمكن استعمالها بدورها في صناعة بعض المنتجات كالأدوية والأصباغ والأسمدة.وكانوقد أنتجت المحركات العاملة بالبخار الناتج عن احتراق الفحم الحجري، معظم القدرة اللازمة لهذه البلدان منذ بداية القرن التاسع عشر وحتى القرن العشرين.أما مصادر العالم من الفحم الحجري فهي باقية ومستمرة إلى حوالي 220 سنة مقبلة، وذلك وفق معدلات الاستهلاك الحالية.وقدوبالإضافة لهذا فإن بعض الفحم الحجري يوجد عميقًا تحت سطح الأرض، حيث يصعب استخراجه.وفيففي القرن التاسع عشر الميلادي كان على العديد من عمال المناجم أن يعملوا عشر ساعات يوميًا تحت الأرض ولمدة ستة أيام كل أسبوع.</t>
-  </si>
-  <si>
-    <t>القطة هي حيوان من الثدييات، ينتمى إلى فصيلة السنوريات، تم تدجينه من قبل الانسان منذ حوالي 7000 عام.يعتقد ان اصل القطط البرية أسلاف القطط قد نشأت في جو صحراوي، و يظهر ذلك من ميل القطط إلى الحرارة و التعرض للشمس، و غالبا ماً تنام في أماكن معرضة لضوء الشمس اثناء النهار. وهنالك عشرات السلالات من القطط ،بعضها عديم الفراء و بعضها الاخر عديم الذيل,نتيجة لتشوه خلقي .تتمتع القطط بمهارة كبيرة في الصيد و الافتراس تقارب السنوريات الكبيرة كالنمر، الا انها لا تشكل خطراً حقيقياً على الانسان نظراً لصغر حجمها.تزن القطة بين 4 و 7 كغ، و قليلا ما تصل إلى 10 كغ. من الممكن للقطة ان تصل لـ23 كغ و يحدث ذلك عندما تطعم بشكل زائد. لا يجب ان يفعل ذلك، لانه غير صحي و يسبب اضراراً للحيوان.للقطط قدرة كبيرة على الرؤية في الظلام، و للقطة غطاء ثالث للعين، اذا اظهرت القطة هذا الغطاء بشكل مزمن، يعني هذا ان القطة مريضة.تحب القطط النظافة، و كثيراً ما تلعق فراءها لتنظيفه ولكسب فيتامين سي.كما تحب القطط مطاردة الفيران وهناك قصة من التراث القديم بان أحد الامراء كان قد درب سنانير لديه للخدمة حيث علمها كيف تحمل الشموع لانارة مجلس الامير وادعى هذا الامير بأنه قد غير طباع وعادات هذا الحيوان فأعترض علية أحد حكمائه بأنه لا يستطيع ذلك لأن الطبع يغلب التطبع فلم يوافقه الامير على ذلك, وفي أحد الايام جاء هذا الحكيم مجلس الامير وهو مخبئ لفأرآ في كمه وما ان التم شمل الحضور والسنانير تقوم بواجبها المدربة عليه والامير يزداد تبجحآ بأنجازه أفلت الحكيم الفأر من كمه فما كان من السنانير الا ان ترمي بالشموع ارضا وتطارد الفأر المسكين فأنقلب المجلس إلى فوضى لما سببته من حريق, فألتفت الحكيم إلى أميره قائلا له ان الطبع يغلب التطبع وذهبت مثلا وحكمة.يعتقد بعض الباحثين أن القط المنزلي ينحدر مباشرة من القط البرّي الإفريقي الذي استأنسه المصريون، في عام 3500قبل الميلاد تقريبًا.والقطط المستأنسة هي تلك التي تقتل الفئران والجرذان والثعابين ولذلك منعت هذه الآفات من غزو الحقول المصرية ومخازن الحبوب. وأصبحت القطط حيوانات أليفة مدللة وخُلِّدَت في اللوحات والنقوشات والنحت.وفي القرن السادس عشر قبل الميلاد قدّس المصريون القدماء القطط. فعبدوا إله الحب والخصوبة المسمى باستيت أو باست على هيئة رأس قط وجسم امرأة. وكان المصريون يعاقبون كل من يؤذي قطًا، بعقوبة تصل إلى حد الموت. وعندما يموت قط كانوا يحلقون حواجبهم علامة على الحداد ويحولون القطط الميتة إلى مومياوات. وقد وجد علماء الآثار مقبرة قديمة للقطط في مصر تحتوي على أكثر من 300,000 مومياء للقطط.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القطة هي حيوان من الثدييات، ينتمى الى فصيلة السنوريات، تم تدجينه من قبل الانسان منذ حوالي 7000 عام. تزن القطة بين 4 و 7 كغ، و قليلا ما تصل الى 10 كغ.  من الممكن للقطة ان تصل لـ23 كغ و يحدث ذلك عندما تطعم بشكل زائد. والقطط المستانسة هي تلك التي تقتل الفئران والجرذان والثعابين ولذلك منعت هذه الآفات من غزو الحقول المصرية ومخازن الحبوب.  واصبحت القطط حيوانات اليفة مدللة وخُلِّدَت في اللوحات والنقوشات والنحت.  وعندما يموت قط كانوا يحلقون حواجبهم علامة على الحداد ويحولون القطط الميتة الى مومياوات. </t>
-  </si>
-  <si>
-    <t>القطة هي حيوان من الثدييات، ينتمى إلى فصيلة السنوريات، تم تدجينه من قبل الانسان منذ حوالي 7000 عام.يعتقد ان اصل القطط البرية أسلاف القطط قد نشأت في جو صحراوي، و يظهر ذلك من ميل القطط إلى الحرارة و التعرض للشمس، و غالبا ماً تنام في أماكن معرضة لضوء الشمس اثناء النهار.وهنالك عشرات السلالات من القطط ،بعضها عديم الفراء و بعضها الاخر عديم الذيل,نتيجة لتشوه خلقي .تتمتعالقطط بمهارة كبيرة في الصيد و الافتراس تقارب السنوريات الكبيرة كالنمر، الا انها لا تشكل خطراً حقيقياً على الانسان نظراً لصغر حجمها.تزنالقطة بين 4 و 7 كغ، و قليلا ما تصل إلى 10 كغ.قدرة كبيرة على الرؤية في الظلام، و للقطة غطاء ثالث للعين، اذا اظهرت القطة هذا الغطاء بشكل مزمن، يعني هذا ان القطة مريضة.تحبالمستأنسة هي تلك التي تقتل الفئران والجرذان والثعابين ولذلك منعت هذه الآفات من غزو الحقول المصرية ومخازن الحبوب.</t>
-  </si>
-  <si>
-    <t>الجمل أو الإبل أو النوق. و يخص الذكر باسم الجمل والإناث باسم نوق و مفردها ناقة توجد الجمال في المناطق الصحراوية من آسيا وإفريقيا. الجمال على نوعين وعلى وجه العموم الجمال ذات السنام الواحد ، التي تعيش بمناطق شمال افريقيا والصحراء الكبرى والشرق الاوسط. الجمال ذات السنامين، التي تعيش في منطقة آسيا الوسطى. عرف الجمل بسفينة الصحراء وذلك لتكيفة مع المعيشة على جدب الصحراء من حيث العشب و الماء.تكيف الجمل على أكل الأشواك والعاقول وكذلك تكيفت معدته, اما السنام فهو المكان الطبيعي لخزن الدهون المتحولة من فائض غذائه وكذلك هي مناسبة لحفظ الماء ضمن تركيب الدهون والشحوم.كذلك تكيفت عيون الجمل للرؤية مع وجود الغبار, وأرجله بما تملكه من الخف المناسبة للسير على الرمال بما لها من مساحة سطحية واسعة.حليب النوق حليب ذو مواصفات عالية الجودة ويعتبر غذاء كامل للبدوي وسكان الصحراء عموما. سبحان الخالق الذى له في كل شئ آيه، سبحان الخالق الذى وهب لنا العقل لنتبين جوانب الاعجاز في كل ما حولنا ولندرك مدى بديع صنع الله في مخلوقاته.والجمل مثالا لنا ونموذج وآيه من آيات الله في مخلوقاته تنطق بمدى القدرة فللجمل قدرة عجيبة على تحمل المعيشة في الصحراء حيث ارتفاع درجة الحرارة وقلة الماء والغذاء. ومن قدرة الله عز وجل أن جعل الجمل ذو أذن صغير غزير الشعر حتى لا تتعرض لضرر رمال الصحراء. والعين مزودة بصفين من الرموش الطويلة للوقاية من الحصى والرمال المتطايرة. والأرجل مزودة بخف أسفنجى لين ليتمكن بهما من السير على الرمال الناعمة، والسنام يختزن فيه الدهون ليقوم بحرقها خلال عملية التنفس حيث تتحول الدهون إلى طاقة تمدة بأحتياجاته في فترة الحرمان من الطعام والمعروف أن الدهون تحتوى على طاقة أعلى بكثير من الطاقة المخزونة في الكربوهيدرات في صورة نشا أو جليكوجين.والجمل العربى ذو سنام واحد ويعيش في الوطن العربى وأفريقيا والهند أما الجمل ذو السنامين فهو يستوطن آسيا الوسطى وحيث يكون الشتاء بارداً فهو مكسو بمعطف شتوى يقيه برد الشتاء وأرجله قصيره في حين أرجل الجمل العربى طويلة لتبعدة عن حرارة الرمال ما أمكن ذلك.ولقد زود الصانع هذا الحيوان الأعجوبة بوسائل تمكنه من تحمل العطش. فالجمل له قدرة عجيبه على تحمل العطش من واقع قدرته على تحمل نقص الماء في أنسجة جسمه وأنه من خلال ذلك لا يفقد الماء من سائله الدموى الا بنسبة ضئيلة للغاية كما أنه يتحمل فقد الماء حتى 30% في حين باقى الكائنات الحية تهلك إذا زاد فقد الماء من أجسامها عن 20%، وبول وبراز الجمل لذلك مركز جداً حيث يمكن ايقاد النار في روثه مباشرة وهو يختلف عن معظم الكائنات الثديية التى تفقد نسبة من الماء الموجودة في دمائها إذا تعرضت لظروف بيئية شديدة الحرارة لذلك فالجمل يحتاج كميات من الماء تقل كثيرة عن تلك التى تحتاجها باقى الكائنات.أنف الجمل عجيبة العجائب فهى مجعدة كبيرة من الداخل فتقوم بعمل المكثف فتكثف بخار الماء الخارج مع هواء الزفير فيخرج ثانى أكسيد الكربون ويتكثف بخار الماء وبذلك تحول دون خروجه وبذلك فهو الحيوان الوحيد الذى يستعيد الماء الموجود في الهواء الذى يتنفسه وهى قدرة وآية من آيات الله في خلق هذا الكائن الذى يتكيف مع البيئة بدرجة اعجازية يحار فيها العقول وتدل على أن هناك من فكر ودبر وأحسن الخلق سبحانه وتعالى.الجمل لا يعرق إلا إذا ارتفعت درجة حرارة الجو المحيط به عن درجة 425م أما الحرارة الزائد فيفقدها أثناء الليل فقد علم ذلك العربان لذلك كانوا ينامون بجوار الجمال ليتدفئوا بالحرارة المنبعثة منهم ليلاً. ويقوم الجمل برفع درجة حرارة جسمه نهاراً متمشياً مع حرارة الجو المحيط به حتى لا يقوم بالعرق حتى درجة 41,75 مئوية عندئذ يبدأ في افراز العرق ليلطف درجة حرارة جسمه إن زادت درجة حرارة الجو المحيط عن 425 مئوية .ظل الجمل معروفاً بعدم العرق وعدم وجود غدد للعرق حتى عام 1956 حين تبين أن له غدد عرقية على السطح البطنى ومن المفروض أن يعمل العرق على تلطيف حرارة جسم الجمل وبالطبع يؤدى العرق إلى فقد الماء وتتجلى قدرة الخالق وإعجازة فبمجرد خروج العرق ينتصب الشعر عند الجمل فيسمح بتبخر العرق من الجلد إلى الجو مباشراً دون حدوث بلل للشعر حتى يوفر الجمل على نفسه الماء اللازم لبلل الشعر وهو الكثير الذى يريد توفيرة.الجمل له القدرة على شرب ماء البحر حيث أن الكلى عنده تخلصه من الأملاح الزائدة. والجمل يشرب بغزارة حوالى 18 لتر ماء إذا عطش دون أن تتأثر كرات الدم لأن الله خلقها بيضاوية ولم تخلق كروية كسائر الكائنات فعندما تمتلى كرات الدم بالماء تنتفخ وتصبح كروية دون أن تنفجر.يحتفظ الجمل بالبول في المثانه طالما أنه في حاجة إلى الماء حيث يمتص الدم الماء والبول مرة أخرى ويدفعه إلى المعدة لتقوم بكتريا خاصة بتحويل البولينا إلى أحماض أمينية أى إلى بروتين وماء.خُف الجمل مخزن للماء فهو وسادة مائية فتعمل أنسجة الخف على حفظ الماء في صورة سلاسل تلتف كالجديله كلما زاد الماء المخزن ذاد التفاف الجديلة والعكس صحيح وعند الحاجة إلى الماء يقوم الدم بامتصاص الماء من الخف وتنفك الجديلة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> عرف الجمل بسفينة الصحراء وذلك لتكيفة مع المعيشة على جدب الصحراء من حيث العشب و الماء. تكيف الجمل على اكل الاشواك والعاقول وكذلك تكيفت معدته, اما السنام فهو المكان الطبيعي لخزن الدهون المتحولة من فائض غذائه وكذلك هي مناسبة لحفظ الماء ضمن تركيب الدهون والشحوم.  والعين مزودة بصفين من الرموش الطويلة للوقاية من الحصى والرمال المتطايرة. انف الجمل عجيبة العجائب فهى مجعدة كبيرة من الداخل فتقوم بعمل المكثف فتكثف بخار الماء الخارج مع هواء الزفير فيخرج ثانى اكسيد الكربون ويتكثف بخار الماء وبذلك تحول دون خروجه وبذلك فهو الحيوان الوحيد الذى يستعيد الماء الموجود في الهواء الذى يتنفسه وهى قدرة وآ. الجمل له القدرة على شرب ماء البحر حيث ان الكلى عنده تخلصه من الاملاح الزائدة. يحتفظ الجمل بالبول في المثانه طالما انه في حاجة الى الماء حيث يمتص الدم الماء والبول مرة اخرى ويدفعه الى المعدة لتقوم بكتريا خاصة بتحويل البولينا الى احماض امينية اى الى بروتين وماء. خُف الجمل مخزن للماء فهو وسادة مائية فتعمل انسجة الخف على حفظ الماء في صورة سلاسل تلتف كالجديله كلما زاد الماء المخزن ذاد التفاف الجديلة والعكس صحيح وعند الحاجة الى الماء يقوم الدم بامتصاص الماء من الخف وتنفك الجديلة. </t>
-  </si>
-  <si>
-    <t>الجمل أو الإبل أو النوق.والأرجل مزودة بخف أسفنجى لين ليتمكن بهما من السير على الرمال الناعمة، والسنام يختزن فيه الدهون ليقوم بحرقها خلال عملية التنفس حيث تتحول الدهون إلى طاقة تمدة بأحتياجاته في فترة الحرمان من الطعام والمعروف أن الدهون تحتوى على طاقة أعلى بكثير من الطاقة المخزونة في الكربوهيدرات في صورة نشا أو جليكوجين.والجمل العربى ذو سنام واحد ويعيش في الوطن العربى وأفريقيا والهند أما الجمل ذو السنامين فهو يستوطن آسيا الوسطى وحيث يكون الشتاء بارداً فهو مكسو بمعطف شتوى يقيه برد الشتاء وأرجله قصيره في حين أرجل الجمل العربى طويلة لتبعدة عن حرارة الرمال ما أمكن ذلك.ولقد زود الصانع هذا الحيوان الأعجوبة بوسائل تمكنه من تحمل العطش.فالجمل له قدرة عجيبه على تحمل العطش من واقع قدرته على تحمل نقص الماء في أنسجة جسمه وأنه من خلال ذلك لا يفقد الماء من سائله الدموى الا بنسبة ضئيلة للغاية كما أنه يتحمل فقد الماء حتى 30% في حين باقى الكائنات الحية تهلك إذا زاد فقد الماء من أجسامها عن 20%، وبول وبراز الجمل لذلك مركز جداً حيث يمكن ايقاد النار في روثه مباشرة وهو يختلف عن معظم الكائنات الثديية التى تفقد نسبة من الماء الموجودة في دمائها إذا تعرضت لظروف بيئية شديدة الحرارة لذلك فالجمل يحتاج كميات من الماء تقل كثيرة عن تلك التى تحتاجها باقى الكائنات.أنفالجمل عجيبة العجائب فهى مجعدة كبيرة من الداخل فتقوم بعمل المكثف فتكثف بخار الماء الخارج مع هواء الزفير فيخرج ثانى أكسيد الكربون ويتكثف بخار الماء وبذلك تحول دون خروجه وبذلك فهو الحيوان الوحيد الذى يستعيد الماء الموجود في الهواء الذى يتنفسه وهى قدرة وآية من آيات الله في خلق هذا الكائن الذى يتكيف مع البيئة بدرجة اعجازية يحار فيها العقول وتدل على أن هناك من فكر ودبر وأحسن الخلق سبحانه وتعالى.الجمللا يعرق إلا إذا ارتفعت درجة حرارة الجو المحيط به عن درجة 425م أما الحرارة الزائد فيفقدها أثناء الليل فقد علم ذلك العربان لذلك كانوا ينامون بجوار الجمال ليتدفئوا بالحرارة المنبعثة منهم ليلاً.ويقوم الجمل برفع درجة حرارة جسمه نهاراً متمشياً مع حرارة الجو المحيط به حتى لا يقوم بالعرق حتى درجة 41,75 مئوية عندئذ يبدأ في افراز العرق ليلطف درجة حرارة جسمه إن زادت درجة حرارة الجو المحيط عن 425 مئوية .ظلالجمل معروفاً بعدم العرق وعدم وجود غدد للعرق حتى عام 1956 حين تبين أن له غدد عرقية على السطح البطنى ومن المفروض أن يعمل العرق على تلطيف حرارة جسم الجمل وبالطبع يؤدى العرق إلى فقد الماء وتتجلى قدرة الخالق وإعجازة فبمجرد خروج العرق ينتصب الشعر عند الجمل فيسمح بتبخر العرق من الجلد إلى الجو مباشراً دون حدوث بلل للشعر حتى يوفر الجمل على نفسه الماء اللازم لبلل الشعر وهو الكثير الذى يريد توفيرة.الجمل</t>
-  </si>
-  <si>
-    <t>الدب ، من الثديات المفترسة من عائلة الدبيات المنتشرة في أماكن كثيرة من بقاع العالم.يسمى الذكر في العربيّة دب، و الأنثى دبّة، و الصغار جراء أو دياسم.من الصفات الخارجيّة المألوفة لدى جميع فصائل الدببة الذيل القصير، بالإضافة إلى دقّة حواس الشمّ و السمع و مخالب خمسة غير قابلة للإرتداد، و فراء طويل أشعث و كثيف.للدببة أجساد ضخمة و قوائم قويّة تمكنها من الوقوف منتصبة، كما تمتلك أكف عريضة، خطوم طويلة، و أذنين مستديرتين.يستخدم الدب أسنانه للدفاع عن النفس و كأدوات، حيث يختلف إستعمالها بحسب حمية الدب، و تستخدم المخالب للتمزيق و الحفر و الإمساك.يظن بأن الدببة السوداء، كما غيرها من الفصائل، تقدر على تمييز الألوان مما يساعدها على التعرّف على الفاكهة و البندق.تمتلك الدببة من 32 إلى 42 سنّاً بحسب الفصيلة التي تنتمي إليها، ولا تعد هذه الأسنان مختصّة في قتل الفرائس كما في أسنان السنوريّات.تعتبر أنياب الدببة أصغر حجماً من أنياب اللواحم الأخرى، التي تظهر أنيابها طويلة و حادّة و متخصصة في قتل الطرائد، و عوضاُ عن ذلك فإنها تستخدمها للدفاع عن النفس و كأدوات.تكون أضراس الدب الطاحنة عريضة و مسطحة، و تستخدم لتمزيق و طحن المواد النباتيّة و تحويلها إلى قطع صغيرة. تمتلك الدببة أربعة قوائم ينتهي كل منها بخمسة مخالب حادّة غير قابلة للإرتداد على عكس السنوريّات، وتستخدم هذه المخالب لعدّة أغراض منها تسلّق الأشجار، فتح أعشاش النمل الأبيض و النحل، الحفر لإيجاد الجذور، أو إلتقاط الطريدة، حسب الفصيلة المعينة.تلقي الدببة بكامل وزنها على أخماص أقدمها عند المشي، على عكس معظم اللواحم الأخرى التي تميل للمشي على أصابعها، حيت يلمس الكعب الأرض و تستخدم المخالب للتوازن، وبالرغم من أن الدببة أبطأ من معظم اللواحم فإنها تقدر على العدو بسرعة تصل إلى 50 كلم في الساعة.غالباً ما يكون فراء الدب طويلاً و أشعث، و تختلف ألوانه بحسب الفصيلة حيث يتراوح من الأبيض، الأشقر أو القشديّ، الأسود و الأبيض، إلى الأسود الكلّي أو الأبيض الكلّي، وقد تختلف ألوان الفراء بداخل الفصيلة نفسها كما في حالة الدببة الأميركيّة السوداء التي تتراوح ألوانها من الأسود، البنيّ، الخمريّ، أو الأسود المزرقّ، كما و تمتلك بعض فصائل الدببة مثل دب الشمس و الدب أبو نظّارة علامات باهتة على وجهها أو صدرها. تكون ذكور الدببة من جميع الفصائل أضخم حجماً من الإناث، ولكن الإختلاف بين الأجناس يتباين و يظهر فارقه الضخم عند الفصائل الأكبر حجماً، فذكور الدببة القطبيّة قد تزن ضعفيّ وزن الإناث بينما تكون ذكور و إناث الفصائل الأصغر حجماً متماثلة في الوزن تقريباً.تمتد حياة الدب من حوالي 25 إلى 40 سنة،و من المعروف أن الدببة في البريّة تنفق في سنٍ أقل من تلك التي للدببة الأسيرة.تعيش الدببة في مساكن مختلفة و متنوعة تتراوح من الناطق الإستوائيّة إلى القطب الشماليّ، و من الغابات إلى الحقول الثلجيّة.الدببة حيوانات قارتة آكلة للحوم و النبات، رغم أن بعض الفصائل تتخصص بحميةٍ معينة فقط مثل الدب القطبيّ، و تقتات الدببة في العادة على الثديّات الصغيرة، الجذور، البندق، و التوت، كما قد تقصد مجرىً مائيّاً لإصطياد الأسماك.تتنقّل الدببة لمسافاتٍ بعيدة في الغالب لإيجاد طعامها، وهي تصطاد في الغالب عند الغسق أو الفجر إلا إذا تواجد الإنسان على مقربةٍ منها.تعيش الدببة في الغالب حياة منفردة ماعدا الأمهات التي تعتني بصغارها، أو خلال موسم التزاوج عند اجتماع الذكور و الإناث.تؤلّف الدببة مجموعات صغيرة عندما يكون الطعام متوفراً بكثرة في منطقة صغيرة فقط، كما تفعل الدببة الألاسكيّة البنيّة سلالة كودياك و السلالة الشيباء عندمل تتجمّع في المنطقة ذاتها للإقتيات على سمك السلمون خلال هجرة السلمون السنويّة عندما تسبح الأسماك بعكس التيّار لتصل إلى أراضي تفريخها.تعيش سلالات و أنواع أخرى من الدببة حياةً منفردة حيث تتقاطع منطقة الذكر مع منطقة الأنثى و يدافع كل منهما عن منطقته ضدّ الجنس المثيل.تغادر الذكور اليافعة أمهاتها في الغالب لكي تععيش وحدها في منلطق أخرى، بينما تقطن الإناث في منطقة تتقاطع مع منطقة والدتها. تتنقّل الدببة عبر مناطق شاسعة للعثور على طعامها، وهي تتذكر جميع التفاصيل للمنطقة التي تغطيها ثمّ تعود لاحقاً إلى المواقع التي كان الطعام فيها وفيراً عبر المواسم أو السنين الماضية.تستطيع الدببة أن تتسلّق الأشجار سعياً وراء طريدة ما أو للحصول على بعض النباتات، ولا يشذّ عن هذه القاعدة سوى الديية القطبيّة و الدببة البنيّة البالغة التي يصعّب عليها وزنها تسلّق الأشجار.تعتبر فصائل الدببة الأكبر حجماً مثل الدب القطبيّ و الدب الأشيب السلالة الشيباء للدب البنيّ خطرة على الإنسان ولا سيما في المناطق التي إعتادت فيها على الإنسان، غير أن الدببة في العادة خجولة و تخاف من الإنسان بسهولة إلا أنها سوف تدافع عن جرائها بشراسة في حال إقتضى الأمر.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الدب ، من الثديات المفترسة من عائلة الدبيات المنتشرة في اماكن كثيرة من بقاع العالم. من الصفات الخارجيّة المالوفة لدى جميع فصائل الدببة الذيل القصير، بالاضافة الى دقّة حواس الشمّ و السمع و مخالب خمسة غير قابلة للارتداد، و فراء طويل اشعث و كثيف. للدببة اجساد ضخمة و قوائم قويّة تمكنها من الوقوف منتصبة، كما تمتلك اكف عريضة، خطوم طويلة، و اذنين مستديرتين. تمتلك الدببة من 32 الى 42 سنّاً بحسب الفصيلة التي تنتمي اليها، ولا تعد هذه الاسنان مختصّة في قتل الفرائس كما في اسنان السنوريّات. تكون اضراس الدب الطاحنة عريضة و مسطحة، و تستخدم لتمزيق و طحن المواد النباتيّة و تحويلها الى قطع صغيرة.  تمتلك الدببة اربعة قوائم ينتهي كل منها بخمسة مخالب حادّة غير قابلة للارتداد على عكس السنوريّات، وتستخدم هذه المخالب لعدّة اغراض منها تسلّق الاشجار، فتح اعشاش النمل الابيض و النحل، الحفر لايجاد الجذور، او التقاط الطريدة، حسب الفصيلة المعينة. تلقي الدببة بكامل وزنها على اخماص اقدمها عند المشي، على عكس معظم اللواحم الاخرى التي تميل للمشي على اصابعها، حيت يلمس الكعب الارض و تستخدم المخالب للتوازن، وبالرغم من ان الدببة ابطا من معظم اللواحم فانها تقدر على العدو بسرعة تصل الى 50 كلم في الساعة. غالباً ما يكون فراء الدب طويلاً و اشعث، و تختلف الوانه بحسب الفصيلة حيث يتراوح من الابيض، الاشقر او القشديّ، الاسود و الابيض، الى الاسود الكلّي او الابيض الكلّي، وقد تختلف الوان الفراء بداخل الفصيلة نفسها كما في حالة الدببة الاميركيّة السوداء التي تتراوح .  تكون ذكور الدببة من جميع الفصائل اضخم حجماً من الاناث، ولكن الاختلاف بين الاجناس يتباين و يظهر فارقه الضخم عند الفصائل الاكبر حجماً، فذكور الدببة القطبيّة قد تزن ضعفيّ وزن الاناث بينما تكون ذكور و اناث الفصائل الاصغر حجماً متماثلة في الوزن تقريباً. تتنقّل الدببة لمسافاتٍ بعيدة في الغالب لايجاد طعامها، وهي تصطاد في الغالب عند الغسق او الفجر الا اذا تواجد الانسان على مقربةٍ منها. تؤلّف الدببة مجموعات صغيرة عندما يكون الطعام متوفراً بكثرة في منطقة صغيرة فقط، كما تفعل الدببة الالاسكيّة البنيّة سلالة كودياك و السلالة الشيباء عندمل تتجمّع في المنطقة ذاتها للاقتيات على سمك السلمون خلال هجرة السلمون السنويّة عندما تسبح الاسماك بعكس التي. تعتبر فصائل الدببة الاكبر حجماً مثل الدب القطبيّ و الدب الاشيب السلالة الشيباء للدب البنيّ خطرة على الانسان ولا سيما في المناطق التي اعتادت فيها على الانسان، غير ان الدببة في العادة خجولة و تخاف من الانسان بسهولة الا انها سوف تدافع عن جرائها بشراسة في حال. </t>
-  </si>
-  <si>
-    <t>الدب ، من الثديات المفترسة من عائلة الدبيات المنتشرة في أماكن كثيرة من بقاع العالم.يسمىالذكر في العربيّة دب، و الأنثى دبّة، و الصغار جراء أو دياسم.منالصفات الخارجيّة المألوفة لدى جميع فصائل الدببة الذيل القصير، بالإضافة إلى دقّة حواس الشمّ و السمع و مخالب خمسة غير قابلة للإرتداد، و فراء طويل أشعث و كثيف.للدببة أجساد ضخمة و قوائم قويّة تمكنها من الوقوف منتصبة، كما تمتلك أكف عريضة، خطوم طويلة، و أذنين مستديرتين.يستخدمالدب أسنانه للدفاع عن النفس و كأدوات، حيث يختلف إستعمالها بحسب حمية الدب، و تستخدم المخالب للتمزيق و الحفر و الإمساك.يظن بأن الدببة السوداء، كما غيرها من الفصائل، تقدر على تمييز الألوان مما يساعدها على التعرّف على الفاكهة و البندق.تمتلكالدببة من 32 إلى 42 سنّاً بحسب الفصيلة التي تنتمي إليها، ولا تعد هذه الأسنان مختصّة في قتل الفرائس كما في أسنان السنوريّات.تعتبرأنياب الدببة أصغر حجماً من أنياب اللواحم الأخرى، التي تظهر أنيابها طويلة و حادّة و متخصصة في قتل الطرائد، و عوضاُ عن ذلك فإنها تستخدمها للدفاع عن النفس و كأدوات.تكونأضراس الدب الطاحنة عريضة و مسطحة، و تستخدم لتمزيق و طحن المواد النباتيّة و تحويلها إلى قطع صغيرة.تمتلك الدببة أربعة قوائم ينتهي كل منها بخمسة مخالب حادّة غير قابلة للإرتداد على عكس السنوريّات، وتستخدم هذه المخالب لعدّة أغراض منها تسلّق الأشجار، فتح أعشاش النمل الأبيض و النحل، الحفر لإيجاد الجذور، أو إلتقاط الطريدة، حسب الفصيلة المعينة.تلقيالدببة بكامل وزنها على أخماص أقدمها عند المشي، على عكس معظم اللواحم الأخرى التي تميل للمشي على أصابعها، حيت يلمس الكعب الأرض و تستخدم المخالب للتوازن، وبالرغم من أن الدببة أبطأ من معظم اللواحم فإنها تقدر على العدو بسرعة تصل إلى 50 كلم في الساعة.غالباًما يكون فراء الدب طويلاً و أشعث، و تختلف ألوانه بحسب الفصيلة حيث يتراوح من الأبيض، الأشقر أو القشديّ، الأسود و الأبيض، إلى الأسود الكلّي أو الأبيض الكلّي، وقد تختلف ألوان الفراء بداخل الفصيلة نفسها كما في حالة الدببة الأميركيّة السوداء التي تتراوح ألوانها من الأسود، البنيّ، الخمريّ، أو الأسود المزرقّ، كما و تمتلك بعض فصائل الدببة مثل دب الشمس و الدب أبو نظّارة علامات باهتة على وجهها أو صدرها.تكون ذكور الدببة من جميع الفصائل أضخم حجماً من الإناث، ولكن الإختلاف بين الأجناس يتباين و يظهر فارقه الضخم عند الفصائل الأكبر حجماً، فذكور الدببة القطبيّة قد تزن ضعفيّ وزن الإناث بينما تكون ذكور و إناث الفصائل الأصغر حجماً متماثلة في الوزن تقريباً.تمتدحياة الدب من حوالي 25 إلى 40 سنة،و من المعروف أن الدببة في البريّة تنفق في سنٍ أقل من تلك التي للدببة الأسيرة.تعيش</t>
-  </si>
-  <si>
-    <t>النمل أحد أنجح المجموعات الحشرية في المملكة الحيوانية وهي تلقى اهتماما بالغا لأنها تشكل حشرة اجتماعية مشكلة مستعمرات أو أعشاش تحوي أحيانا ملايين الأفراد. مستعمرات بعض أنواع النمل الجائحة قد تعمل سوية على تشكيل مستعمرات عملاقة تمتد على مناطق واسعة جدا، وأحيانا قد توصف مستعمرات النمل بأنها متعضي فائق لأنها تعمل ككائن واحد متناسق.يحتل النمل مساحة واسعة من الأرض ويمكن أن يشكل حوالي 15% من الكتلة الحيوية الحيوانية في .حتى عام 2006 هناك حوالي 11,844 نوع معروف من النمل معظمه يعيش في المناطق الحارة.النمل من الحشرات تعود إلى صنف غشائية الأجنحة، ولها ستة أرجل، فالنمل حشرة صغيرة ذات فعل كبير، فهي تمثل 20% من الكائنات الحية على كوكب الأرض. عرف النمل منذ القدم وحسب المختصين منذ العصر الطباشيري فقد عايشت الديناصورات فهي موجودة منذ 92 مليون سنة، ويوجد منها حوالي 20 ألف نوع وهي منتشرة على الكرة الأرضية فهي موجودة وتعيش في كل مكان، تجدها في السهول وتجدها في أعلي الجبال، فهي موزعة على عموم الكرة الأرضية، تحت الأرض أو فوق الأشجار.أغلب النمل هو من صنف الشغالات وهو الأكثر انتشارا في العالم، والشغالات كلهن من الإناث، يعشن فيما يسمى المستعمرات ولكل مستعمرة ملكة واحدة عملها وضع البيض.عدد البيض الذي تضعه الملكة يختلف حسب نوع النمل، وقد يتراوح من بضع مئات إلى عدة ملايين، فالنوع الإفريقي من النمل تضع ملكته مايقرب من 3 إلى 4 ملايين بيضة شهريًّا.النمل يعتبر من أطوال الحشرات عمرًا على الأرض، فإنه يعيش من بضعة أشهر إلى عدة سنوات وقد يصل عمر الملكة إلى 20 عاما.أما ذكور النمل فعملها محصور في التزاوج فقط في تلقيح الملكة، فحينما تقرر الملكة التزاوج يأتي واجبها وبعد ذلك تموت الذكور مباشرة، فأثناء عملية التزاوج تطرح الملكة أجنحتها، وتفرز رائحة تميز رائحة المستعمرة.هذه الحشرة اجتماعية جدا ولايمكنها العيش بصورة منفردة، حيث أنها تعيش في مجاميع أو أعشاش أو مستعمرات.أعشاش النمل ليست واحدة لجميع أنواع النمل، فمثلاً نمل المحاصيل يبني حجرات متصلة تحت الأرض، بينما يشبك النمل الخياط أوراق الشجر ويصنع عشا أخضر أسطواني الشكل. هناك أعشاش أخرى للنمل قد تكون على شكل حجرات داخل الأشجار مثل مايفعل النمل الحفار ، وأعشاش النمل تحت الأرض قد تبلغ أربعين قدما عمقا تحت الأرض، فقد تمكن فريق من العلماء الأوروبيين من اكتشاف مستعمرة هائلة للنمل تمتد لآلاف الأميال من إيطاليا إلى شمال غرب إسبانيا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حتى عام 2006 هناك حوالي 11,844 نوع معروف من النمل معظمه يعيش في المناطق الحارة. عدد البيض الذي تضعه الملكة يختلف حسب نوع النمل، وقد يتراوح من بضع مئات الى عدة ملايين، فالنوع الافريقي من النمل تضع ملكته مايقرب من 3 الى 4 ملايين بيضة شهريًّا. النمل يعتبر من اطوال الحشرات عمرًا على الارض، فانه يعيش من بضعة اشهر الى عدة سنوات وقد يصل عمر الملكة الى 20 عاما. هذه الحشرة اجتماعية جدا ولايمكنها العيش بصورة منفردة، حيث انها تعيش في مجاميع او اعشاش او مستعمرات. </t>
-  </si>
-  <si>
-    <t>النمل أحد أنجح المجموعات الحشرية في المملكة الحيوانية وهي تلقى اهتماما بالغا لأنها تشكل حشرة اجتماعية مشكلة مستعمرات أو أعشاش تحوي أحيانا ملايين الأفراد.مستعمرات بعض أنواع النمل الجائحة قد تعمل سوية على تشكيل مستعمرات عملاقة تمتد على مناطق واسعة جدا، وأحيانا قد توصف مستعمرات النمل بأنها متعضي فائق لأنها تعمل ككائن واحد متناسق.يحتلالنمل مساحة واسعة من الأرض ويمكن أن يشكل حوالي 15% من الكتلة الحيوية الحيوانية في .حتىعام 2006 هناك حوالي 11,844 نوع معروف من النمل معظمه يعيش في المناطق الحارة.النمل</t>
-  </si>
-  <si>
-    <t>الحيوانات مجموعة أساسية من الكائنات الحية تصنف باعتبارها مملكة حيوية مستقلة باسم مملكة الحيوانات.تتصف الحيوانات بشكل عام بأنها عديدة الخلايا ، قادر على الحركة و الاستجابة للمتغيرات البيئية ، تعتبر كائنات مستهلكة كونها تتغذى على الكائنات الأخرى من نباتات و حيوانات .يقسم أرسطو عالم الأحياء إلى حيوانات و نباتات ، اتبع كارولاس لينيوس هذا التقسيم في أول تصنيف هيكلي متسلسل . منذ ذلك الحين يؤكد البيولوجيون على العلاقات التطورية ، هذا ما أدى لتحديد مميزات كل مجموعة و حصرها . مثلا ، الأوليات المجهرية اعتبرت في البداية حيوانات لأنها تتحرك لكنها الآن تعامل على انها مجموعة منفصلة .تتميز مملكة الحيوانات بعدة خاصيات تميزها عن باقي الكائنات الحية . فالحيوانات كائنات متعددة الخلايا و حقيقية النوى ، مما يميزها عن الجراثيم و معظم الطلائعيات . الحيوانات كائنات غيرية التغذية ، تقوم بهضم الغذاء عادة في جوف داخلي ، مما يميزها عن النباتات، والأشنيات الطحالب ، والفطور فقدانها للجدران الخلوية.باستثناء الإسفنجيات شعبة البوريفيرا يكون للحيوانات عادة أجسام متمايزة إلى أنسجة منفصلة . تتضمن هذه النسج العضلات ، القادرة على التقلص والتحكم بالوظيفة الحركية ، و جهاز عصبي ، يرسل ويستقبل الإشارات العصبية لتنسيق حركات و وظائف الجسم ، و جوف هضمي داخلي مزود بفتحة أو فتحتين . الحيوانات التي تتمتع بهذا النوع من التنظيم ندعوها بعديات ، أو بعدانيات حقيقية إذا استخدمنا المصطلح السابق للحيوانات عامة .و هناك خلايا حقيقية النوى ، محاطه ببينخلوي مؤلف من كولاجين و غليكوبروتينات مرنة . يمكن لهذا النسيج البينخلوي أن يتكلس ليشكل صدفات ، عظام .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تتصف الحيوانات بشكل عام بانها عديدة الخلايا ، قادر على الحركة و الاستجابة للمتغيرات البيئية ، تعتبر كائنات مستهلكة كونها تتغذى على الكائنات الاخرى من نباتات و حيوانات .  مثلا ، الاوليات المجهرية اعتبرت في البداية حيوانات لانها تتحرك لكنها الآن تعامل على انها مجموعة منفصلة . تتميز مملكة الحيوانات بعدة خاصيات تميزها عن باقي الكائنات الحية .  الحيوانات كائنات غيرية التغذية ، تقوم بهضم الغذاء عادة في جوف داخلي ، مما يميزها عن النباتات، والاشنيات الطحالب ، والفطور فقدانها للجدران الخلوية.  يمكن لهذا النسيج البينخلوي ان يتكلس ليشكل صدفات ، عظام . </t>
-  </si>
-  <si>
-    <t>الحيوانات مجموعة أساسية من الكائنات الحية تصنف باعتبارها مملكة حيوية مستقلة باسم مملكة الحيوانات.تتصفالحيوانات بشكل عام بأنها عديدة الخلايا ، قادر على الحركة و الاستجابة للمتغيرات البيئية ، تعتبر كائنات مستهلكة كونها تتغذى على الكائنات الأخرى من نباتات و حيوانات .يقسمأرسطو عالم الأحياء إلى حيوانات و نباتات ، اتبع كارولاس لينيوس هذا التقسيم في أول تصنيف هيكلي متسلسل .تتضمن هذه النسج العضلات ، القادرة على التقلص والتحكم بالوظيفة الحركية ، و جهاز عصبي ، يرسل ويستقبل الإشارات العصبية لتنسيق حركات و وظائف الجسم ، و جوف هضمي داخلي مزود بفتحة أو فتحتين .يمكن لهذا النسيج البينخلوي أن يتكلس ليشكل صدفات ، عظام .</t>
-  </si>
-  <si>
-    <t>زحل هو الكوكب السادس في النظام الشمسي ويتميز بحزام من الكويكبات يدور حوله مما يعطيه شكلا مميزا.زحل كان معروفاً منذ العصور التاريخية القديمة. جاليليو كان من الأوائل الذين رصدوه بتليسكوب في 1610 ، لقد لاحظ ظهوره الفردي ولكنه كان مشوشا بذلك. المراقبات الاولية لكوكب زحل كانت صعبة بعض الشيء وذلك لان الأرض تعبر خلال مستوى حلقات زحل في بعض السنين عندما يتحرك في مداره. وبسببها تنتج صورة ذات وضوح قليل لكوكب زحل. قام العالم كريستيان هويقنس في العام 1659 باكتشاف الحلقات و منذئذ اشتهر كوكب زحل بكونه الكوكب الوحيد المحاط بحلقات حتى عام 1977 عندما اكتشفت حلقات رقيقة حول كوكب اورانوس وبعد ذلك بفترة بسيطة حول المشتري و نبتون.اول زيارة لكوكب زحل كانت باستخدام بيونير11 في عام 1979 وبعد ذلك ب فويجير 1 و فويجير 2 ثمّ كاسيني-هايجينز في عام 2004.سوف يجد الراصد زحل مفلطحا عند استخدامه تليسكوبا صغيرا. و توجد نفس هذه الخاصية عند الكواكب الاخرى ولكن ليس بنفس المقدار. وكثافة كوكب زحل هي الاقل بين الكواكب ، بل هي اقل من كثافة الماء.التكوين الداخلي لكوكب زحل قريب من تكوين كوكب المشتري والمتكون من قالب صخري ، طبقة هيدروجينية معدنية سائلة ، و طبقة هيدروجينية جزيئية. هناك اثار لوجود كميات من الجليد المتفرقة. كوكب زحل حار جدا .زحل يطلق كمية من الاشعة إلى الخارج أكثر من الاشعة التي يستقبلها من الشمس.يرى كوكب زحل من الأرض وحوله حلقات كبيرة من الثلوج والتراب والأقمار الصغيرة. ولأن هذا الكوكب أكبر من الأرض فان وزنك لو كان 70 كيلوجلرام فوقها فإنه يصبح 82 كيلوجرام فوق زحل . ومنظر زحل جميل عندما يرى من الأرض حيث تزينه حلقاته التي حوله والتي تسع 169800ميل. والكوكب يشبه المشتري ولكنه أصغر منه. وتحت سحب غازي الميثان والهيليوم تتراكم طبقات من سائلي الغازين على شكل سائل كيمياوي ذو حجم كبير جدا . وحول الكوكب أكثر من 50 قمرا يرافقه. وأشهر هذه الأقمار بان وأطلس وبروميسيوس وباندورا وإبيسيوس وجانوس وميماس .وحول زحل عدة مئات من الحلقات التي هي عبارة عن كتل من الصخور وليس هو الوحيد الّذي يمتلك حلقات، فالمشتري وأورانوس ونبتون لهم حلقات.ومتوسط درجة حراته 184 درجة مئوية. وجوه مكون من غازات الهيدروجين والهليوم والميثان .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زحل هو الكوكب السادس في النظام الشمسي ويتميز بحزام من الكويكبات يدور حوله مما يعطيه شكلا مميزا.  جاليليو كان من الاوائل الذين رصدوه بتليسكوب في 1610 ، لقد لاحظ ظهوره الفردي ولكنه كان مشوشا بذلك.  وبسببها تنتج صورة ذات وضوح قليل لكوكب زحل. اول زيارة لكوكب زحل كانت باستخدام بيونير11 في عام 1979 وبعد ذلك ب فويجير 1 و فويجير 2 ثمّ كاسيني-هايجينز في عام 2004.  و توجد نفس هذه الخاصية عند الكواكب الاخرى ولكن ليس بنفس المقدار. التكوين الداخلي لكوكب زحل قريب من تكوين كوكب المشتري والمتكون من قالب صخري ، طبقة هيدروجينية معدنية سائلة ، و طبقة هيدروجينية جزيئية.  كوكب زحل حار جدا . </t>
-  </si>
-  <si>
-    <t>زحل هو الكوكب السادس في النظام الشمسي ويتميز بحزام من الكويكبات يدور حوله مما يعطيه شكلا مميزا.زحلجاليليو كان من الأوائل الذين رصدوه بتليسكوب في 1610 ، لقد لاحظ ظهوره الفردي ولكنه كان مشوشا بذلك.المراقبات الاولية لكوكب زحل كانت صعبة بعض الشيء وذلك لان الأرض تعبر خلال مستوى حلقات زحل في بعض السنين عندما يتحرك في مداره.زيارة لكوكب زحل كانت باستخدام بيونير11 في عام 1979 وبعد ذلك ب فويجير 1 و فويجير 2 ثمّ كاسيني-هايجينز في عام 2004.سوف يجد الراصد زحل مفلطحا عند استخدامه تليسكوبا صغيرا.الداخلي لكوكب زحل قريب من تكوين كوكب المشتري والمتكون من قالب صخري ، طبقة هيدروجينية معدنية سائلة ، و طبقة هيدروجينية جزيئية.ولأن هذا الكوكب أكبر من الأرض فان وزنك لو كان 70 كيلوجلرام فوقها فإنه يصبح 82 كيلوجرام فوق زحل .زحل عدة مئات من الحلقات التي هي عبارة عن كتل من الصخور وليس هو الوحيد الّذي يمتلك حلقات، فالمشتري وأورانوس ونبتون لهم حلقات.ومتوسط</t>
-  </si>
-  <si>
-    <t>الطبيعة - بمعناها العام - تعني العالم الطبيعي أو العالم الفيزيائي أو العالم المادي . وتشير كلمة "الطبيعة" إلى ظاهرة العالم الفيزيائي؛ كما تشير إلى الحياة عمومًا. ولا يتم - بوجه عام - اعتبار الأشياء المصنعة والتدخلات البشرية في الطبيعة جزءًا منها، ويتم الإشارة إليها على إنها أشياء اصطناعية أو أشياء من صنع الإنسان. كما تختلف الطبيعة - بوجه عام - عن الظواهر الخارقة. ويتفاوت مداها مما هو دون الذرة إلى الأمور الكونية.تم اشتقاق كلمة طبيعة في الإنجليزية من الكلمة اللاتينية natura التي تعني "الصفات الجوهرية والنظام الفطري" ولكنها تعني "الميلاد" حرفيًا. ويمكن اعتبار العقل المبدع جزءًا لا يتجزأ من "الطبيعة البشرية".[1] كانت كلمة Natura هي الترجمة اللاتينية للكلمة الإغريقية physis (φύσις) التي ترتبط بشكل أساسي بالخصائص الجوهرية التي تقوم النباتات والحيوانات والموجودات الأخرى في العالم بتطويرها بكامل إرادتها ودون تدخل.[2] ويظهر فيه الاستخدام المكتوب الأول من نوعه لهذه الكلمة مرتبطًا بالنبات.[3] ويعتبر مفهوم الطبيعة بوجه عام - بمعنى الكون الفيزيائي - واحدًا من العديد من الإضافات التي لحقت بالمفهوم الأصلي التي بدأت مع تطبيقات جوهرية محددة لكلمة φύσις قام بها الفلاسفة الذين سبقوا سقراط ونالت حظًا وافرًا من الرواج منذ ذلك الحين. وقد تم التأكيد على هذا الاستخدام مع ظهور المنهج العلمي الحديث في القرون العديدة الأخيرة.[4] [5]ومن الاستخدامات المتنوعة لكلمة "طبيعة" اليوم ما يشير إلى المملكة العامة التي تضم أنواعًا متعددة من النباتات الحية والحيوانات. كما تشير في بعض الأحيان إلى العمليات المرتبطة بالأشياء غير الحية؛ بمعنى إنها قد تشير إلى الطريقة التي توجد بها أنواع محددة من الأشياء والطريقة التي تتغير بها بكامل إرادتها دون تدخل مثل: الطقس والسمات الجيولوجية للأرض، وكذلك المادة والطاقة التي تتكون منها هذه الأشياء كلها. ومن المعتاد أن تعني هذه الكلمة البيئة الطبيعية أو الحياة البرية بمعنى الحيوانات البرية والصخور والغابات والشواطئ وكل تلك الأشياء التي لم يتم تغييرها جوهريًا بواسطة تدخل البشر أو التي استمر وجودها على الرغم من التدخل البشري. ويدل هذا المفهوم الأكثر تقليدية عن الأشياء الطبيعية - والذي ظل موجودًا حتى يومنا هذا - على وجود فاصل بين الطبيعي والاصطناعي، مع التركيز على مفهوم أن الشيء الاصطناعي هو الشيء الذي جاء إلى الوجود عن طريق تدخل الفكر البشري أو العقل البشري.</t>
-  </si>
-  <si>
-    <t>الطبيعة - بمعناها العام - تعني العالم الطبيعي أو العالم الفيزيائي أو العالم المادي .ولا يتم - بوجه عام - اعتبار الأشياء المصنعة والتدخلات البشرية في الطبيعة جزءًا منها، ويتم الإشارة إليها على إنها أشياء اصطناعية أو أشياء من صنع الإنسان.ويتفاوت مداها مما هو دون الذرة إلى الأمور الكونية.ويمكن اعتبار العقل المبدع جزءًا لا يتجزأ من "الطبيعة البشرية".وقد تم التأكيد على هذا الاستخدام مع ظهور المنهج العلمي الحديث في القرون العديدة الأخيرة.</t>
-  </si>
-  <si>
-    <t>الطبيعة - بمعناها العام - تعني العالم الطبيعي أو العالم الفيزيائي أو العالم المادي .وتشير كلمة "الطبيعة" إلى ظاهرة العالم الفيزيائي؛ كما تشير إلى الحياة عمومًا.ولا يتم - بوجه عام - اعتبار الأشياء المصنعة والتدخلات البشرية في الطبيعة جزءًا منها، ويتم الإشارة إليها على إنها أشياء اصطناعية أو أشياء من صنع الإنسان.كما تختلف الطبيعة - بوجه عام - عن الظواهر الخارقة.ويتفاوت مداها مما هو دون الذرة إلى الأمور الكونية.تم</t>
-  </si>
-  <si>
-    <t>التمويل (بالإنجليزية: Finance‏) يعنى التمويل بتحديد احتياجات الأفراد والمنظمات والشركات من الموارد النقدية وتحديد سبل جمعها واستخدامها مع الأخذ في الحسبان المخاطر المرتبطة بمشاريعهم. عليه فإن مصطلح تمويل يجمع بين التالي :دراسة النقود وغيره من الأصول، إدارة هذه الأصول ورقابتها، تحديد مخاطر المشاريع وإدارتها، علم إدارة المال.في صيغة الفعل فإن كلمة تمويل تعني توفير الاعتمادات المالية للاعمال أو للمشتريات الفردية الضخمة (مثل السيارات والمساكن).إن النشاط التمويلي عبارة عن تطبيق مجموعة أساليب يستخدمها الأفراد أو المنظمات (كيانات) لإدارة اموالهم، وعلى وجه الدقة إدارة الفرق بين مداخليهم ومصاريفهم بالإضافة إلى المخاطر المتعلقة باستثماراتهم. فالكيان الذي دخله يفوق عن مصروفاته بإمكانه إقراض أو استثمار ذلك الفائض. في المقابل فإن الكيان الذي يكون دخله أقل من مصروفاته بإمكانه رفع رأسماله إما بالإقتراض أو من خلال بيع حقوق ملكية أو تخفيض مصاريفه أو زيادة دخله. ويمكن للدائن أن يجد مقترض من خلال وسيط مالي كالمصارف، أو أوراق الدين أو السندات في أسواق السندات. فيجني الدائن فائدة أقل من تلك التي يدفعها المقترض ويذهب الفرق لصالح الوسيط المالي.و يعمل المصرف على تجميع أنشطة الدائنين والمقترضين. فيقبل المصرف ودائع من الدائنين يدفع عنها فائدة معلومة، ومن ثم يقوم بإعارة هذه الودائع للمقترضين. هكذا فإن المصرف يقوم بتنسيق أنشطة الدائنين والمقترضين مع بعضهم البعض مهما اختلفت احجامهم، ويمكن القول إن المصرف يمنع تدفع النقود في الهواء.و من امثلة مالية الشركات عملية بيع الأسهم لصالح مؤسسات استثمارية كالمصارف الاستثمارية التي تقوم بدورها ببيع هذه الأسهم للعموم. ويمنح السهم مالكه، أياً كان، جزءاً من ملكية تلك الشركة. فإذا كنت تملك سهم واحد من الشركة س والتي يبلغ مجموع اسهمها 100 سهم فإنك بهذا تمتلك 1% من الشركة. وبطبيعة الحال فإن الشركة تقبض مقابل هذا السهم نقد تقوم باستخدامه لتوسيع عملياتها وتسمى العملية (بتمويل حقوق الملكية). وتمويل حقوق الملكية بالإضافة إلى بيع السندات (أو أية طريقة أخرى للتمويل بالاقتراض) يسمى الهيكل الرأسمالي للشركة.يستخدم التمويل أيضاً من قبل الأفراد (المالية الشخصية)، أو الحكومات (المالية العامة) أو منظمات الأعمال (مالية شركات) إضافة إلى العديد من المنظمات مثل المدارس أو المنظمات غير الربحية. وبشكل عام فإن الهدف من كل النشاطات المذكورة اعلاه يتحقق عبر الاستخدام الأمثل للأدوات المالية مع مراعة الوضع التنظيمي للنشاط.و يعتبر التمويل من أهم اوجه إدارة الأعمال. ففي غياب التخطيط المالي الجيد فإن نجاح المؤسسات الجديد غير وارد. فإدارة المال (السيولة) عنصر جوهري لتأمين مستقبل الأفراد والمنظمات.</t>
-  </si>
-  <si>
-    <t>في صيغة الفعل فإن كلمة تمويل تعني توفير الاعتمادات المالية للاعمال أو للمشتريات الفردية الضخمة (مثل السيارات والمساكن).إن النشاط التمويلي عبارة عن تطبيق مجموعة أساليب يستخدمها الأفراد أو المنظمات (كيانات) لإدارة اموالهم، وعلى وجه الدقة إدارة الفرق بين مداخليهم ومصاريفهم بالإضافة إلى المخاطر المتعلقة باستثماراتهم. فالكيان الذي دخله يفوق عن مصروفاته بإمكانه إقراض أو استثمار ذلك الفائض. في المقابل فإن الكيان الذي يكون دخله أقل من مصروفاته بإمكانه رفع رأسماله إما بالإقتراض أو من خلال بيع حقوق ملكية أو تخفيض مصاريفه أو زيادة دخله. ويمكن للدائن أن يجد مقترض من خلال وسيط مالي كالمصارف، أو أوراق الدين أو السندات في أسواق السندات. فيجني الدائن فائدة أقل من تلك التي يدفعها المقترض ويذهب الفرق لصالح الوسيط المالي.و يعمل المصرف على تجميع أنشطة الدائنين والمقترضين. فيقبل المصرف ودائع من الدائنين يدفع عنها فائدة معلومة، ومن ثم يقوم بإعارة هذه الودائع للمقترضين. هكذا فإن المصرف يقوم بتنسيق أنشطة الدائنين والمقترضين مع بعضهم البعض مهما اختلفت احجامهم، ويمكن القول إن المصرف يمنع تدفع النقود في الهواء.</t>
-  </si>
-  <si>
-    <t>التمويل (بالإنجليزية: Finance‏) يعنى التمويل بتحديد احتياجات الأفراد والمنظمات والشركات من الموارد النقدية وتحديد سبل جمعها واستخدامها مع الأخذ في الحسبان المخاطر المرتبطة بمشاريعهم.عليه فإن مصطلح تمويل يجمع بين التالي :دراسة النقود وغيره من الأصول، إدارة هذه الأصول ورقابتها، تحديد مخاطر المشاريع وإدارتها، علم إدارة المال.فيصيغة الفعل فإن كلمة تمويل تعني توفير الاعتمادات المالية للاعمال أو للمشتريات الفردية الضخمة (مثل السيارات والمساكن).إنالنشاط التمويلي عبارة عن تطبيق مجموعة أساليب يستخدمها الأفراد أو المنظمات (كيانات) لإدارة اموالهم، وعلى وجه الدقة إدارة الفرق بين مداخليهم ومصاريفهم بالإضافة إلى المخاطر المتعلقة باستثماراتهم.في المقابل فإن الكيان الذي يكون دخله أقل من مصروفاته بإمكانه رفع رأسماله إما بالإقتراض أو من خلال بيع حقوق ملكية أو تخفيض مصاريفه أو زيادة دخله.ويمكن للدائن أن يجد مقترض من خلال وسيط مالي كالمصارف، أو أوراق الدين أو السندات في أسواق السندات.هكذا فإن المصرف يقوم بتنسيق أنشطة الدائنين والمقترضين مع بعضهم البعض مهما اختلفت احجامهم، ويمكن القول إن المصرف يمنع تدفع النقود في الهواء.وفإذا كنت تملك سهم واحد من الشركة س والتي يبلغ مجموع اسهمها 100 سهم فإنك بهذا تمتلك 1% من الشركة.التمويل أيضاً من قبل الأفراد (المالية الشخصية)، أو الحكومات (المالية العامة) أو منظمات الأعمال (مالية شركات) إضافة إلى العديد من المنظمات مثل المدارس أو المنظمات غير الربحية.</t>
-  </si>
-  <si>
-    <t>المصرف هو مؤسسة مالية تهدف إلى تسهيل المعاملات المالية للعملاء وحفظ الأموال وتشغيلها. وهو المكان المناسب لحفظ النقود والأموال فيه، والمكان الذي يمكن الاقتراض منه عند الحاجة لقاء ضمان ما يغطي قيمة القرض أو لقاء تعهد شخص ضامن يكفل تغطية أو إعادة أصل القرض عند تأخر المدين بالسداد، يدار المصرف من صيرفي (صاحب المصرف أو مديره) ومجموعة من الموظفين.المصرف هو المكان الأمين لادخار المال الفائض به وعادة يدفع المصرف فوائد سنوية على أصل المال المدخر وفي حالة عدم تحريك المال المدخر لفترة يتفق عليها يمكن أن تكون الفائدة مركبة.المصارف عادة تقرض الناس المبالغ التي يحتاجون لها لقاء فائدة للمصرف، هذا الأسلوب محرم في الإسلام، ويستعاض عنه في المصارف الإسلامية بسد حاجة العميل المقترض عن طريق شراء المصرف حاجة العميل المقترض منه مثل عقار أو واسطة نقل نقدا وبيعها إلى العميل المقترض بالأجل بسعر أعلى يقوم فيما بعد بسداد القرض دفعة واحدة في وقت لاحق يتفق علي تحديده أو بتقسيط المبلغ على دفعات.تقوم المصارف بأعمال مصرفية أخرى كثيرة مثل خصم السندات ووصولات القبض (الكمبيالات) لقاء عمولة معينة يتفق عليها، ومن الأعمال الأخرى تحويل وتصريف العملات من عملة إلى أخرى.انشأت المصارف الحديثة خلال النهضة الأوروبية في مدينة البندقية في إيطاليا. أسس طلعت حرب بنك مصر في أوائل القرن العشرين. هذا المصرف مهم جدا في التأريخ المصري وفي تاريخ المصارف العربية.دور المصارف مهم جداً في الاقتصاد. فالمهمة الأولى هي إقراض المال إلى الأشخاص أو الشركات أو الحكومات. وبعض المصارف تقرض أشخاص فقط وتقرض مصارف أخرى الشركات فقط ولكن هناك أيضا بعض المصارف التي تقرض إلى كل من المرشحين. وبعد ذلك لا بد للمستعير أن يرد القرض ويبلغ الربح أحيانا 6 في المئة.المهمة الثانية للمصارف هي أنها المكان الذي يحفظ الاشخاص والشركات فيها نقودأ. يدفع المصرف ربحاً إلى الزبائن في كل الاوقات 3 في المئة مثلا. والمصرف يقرض هذا المال إلى أشخاض أو شركات كقرض.بعض المدن لها مراكز للصناعة المالية مثل نيو يورك في اميركا ولندن في بريطانيا وطوكيو في اليابان و فرانكفورت في ألمانيا ومرفأ البحرين المالي في البحرين. وفي هذه المدن تقع آلاف المصارف و تقرض بلايين الدولارات كل السنة. وللمصارف عطل خاصة يتم أقفال التعامل من سحب وأيداع لمدة من الزمن وتسمى بالعطلة المصرفية.</t>
-  </si>
-  <si>
-    <t>وهو المكان المناسب لحفظ النقود والأموال فيه، والمكان الذي يمكن الاقتراض منه عند الحاجة لقاء ضمان ما يغطي قيمة القرض أو لقاء تعهد شخص ضامن يكفل تغطية أو إعادة أصل القرض عند تأخر المدين بالسداد، يدار المصرف من صيرفي (صاحب المصرف أو مديره) ومجموعة من الموظفين.المصرف هو المكان الأمين لادخار المال الفائض به وعادة يدفع المصرف فوائد سنوية على أصل المال المدخر وفي حالة عدم تحريك المال المدخر لفترة يتفق عليها يمكن أن تكون الفائدة مركبة.تقوم المصارف بأعمال مصرفية أخرى كثيرة مثل خصم السندات ووصولات القبض (الكمبيالات) لقاء عمولة معينة يتفق عليها، ومن الأعمال الأخرى تحويل وتصريف العملات من عملة إلى أخرى.دور المصارف مهم جداً في الاقتصاد.المهمة الثانية للمصارف هي أنها المكان الذي يحفظ الاشخاص والشركات فيها نقودأ.</t>
-  </si>
-  <si>
-    <t>المصرف هو مؤسسة مالية تهدف إلى تسهيل المعاملات المالية للعملاء وحفظ الأموال وتشغيلها.وهو المكان المناسب لحفظ النقود والأموال فيه، والمكان الذي يمكن الاقتراض منه عند الحاجة لقاء ضمان ما يغطي قيمة القرض أو لقاء تعهد شخص ضامن يكفل تغطية أو إعادة أصل القرض عند تأخر المدين بالسداد، يدار المصرف من صيرفي (صاحب المصرف أو مديره) ومجموعة من الموظفين.المصرفهو المكان الأمين لادخار المال الفائض به وعادة يدفع المصرف فوائد سنوية على أصل المال المدخر وفي حالة عدم تحريك المال المدخر لفترة يتفق عليها يمكن أن تكون الفائدة مركبة.المصارفعادة تقرض الناس المبالغ التي يحتاجون لها لقاء فائدة للمصرف، هذا الأسلوب محرم في الإسلام، ويستعاض عنه في المصارف الإسلامية بسد حاجة العميل المقترض عن طريق شراء المصرف حاجة العميل المقترض منه مثل عقار أو واسطة نقل نقدا وبيعها إلى العميل المقترض بالأجل بسعر أعلى يقوم فيما بعد بسداد القرض دفعة واحدة في وقت لاحق يتفق علي تحديده أو بتقسيط المبلغ على دفعات.تقوموبعد ذلك لا بد للمستعير أن يرد القرض ويبلغ الربح أحيانا 6 في المئة.المهمة</t>
-  </si>
-  <si>
-    <t>الإثنا عشري(بالإنجليزية: Duodenum) أو العفج هو أحد أجزاء القناة الهضمية وأول جزء من الأمعاء الدقيقة يصل بين المعدة و الصائم. طوله 25-30 سم وله أربعة قطع تشبه المضلع تنفتح في القطعة الثانية منه كلا من القناتين الصفراوية والمعثكلية ويفصله عن المعدة البواب.يقوم الاثنا عشر بوظيفة أساسية في عملية الهضم.المواد النشوية التي لم يتم تفكيكها في الفم و المعدة يقوم الثنى عشر بإكمال عملية تفكيكها بمساعدة أنزيمات يفرزها البنكرياس كذلك مقاطع البروتينات المسماه ببتونات التي تفككت من البروتينات في المعدة تستمر عملية هضمها في الاثنى عشر بمساعدة أنزيمات أساسية. كذلك يتم تحليل وهضم الدهون وكذا تتحلل وتهضم في الاثنى عشر بواسطة أنزيمات تصل من البنكرياس الفولماريات مثل المواد المضافة للغذاء كاللون والمنكهات وما شابه التي لم تحلل في المعدة والفم.المواد التي تصل من البنكرياس والكبد و المرارة تساعد على تحليل بعض مركبات الغذاء كيميائيا والمواد التي يتم تحليلها كيميائيا هي:بروتينات كروهيدرات ودهون بالاضافة لذلك يتم امتصاص مياة وموادمعدنية الى الدم علما بان المواد المعدنية لا يحل بها تغيير في العملية الهضمية(مواد غير عضوية). الحامض الملحي الذي تفرزه المعدة يتم معادلته في الاثنى عشر بواسطة (NaHCO3) الذي يفرز من البنكرياس.كذلك يستقبل الاثنى عشر العصارة الصفراء التي تفرزها المرارة.</t>
-  </si>
-  <si>
-    <t>المواد النشوية التي لم يتم تفكيكها في الفم و المعدة يقوم الثنى عشر بإكمال عملية تفكيكها بمساعدة أنزيمات يفرزها البنكرياس كذلك مقاطع البروتينات المسماه ببتونات التي تفككت من البروتينات في المعدة تستمر عملية هضمها في الاثنى عشر بمساعدة أنزيمات أساسية.الحامض الملحي الذي تفرزه المعدة يتم معادلته في الاثنى عشر بواسطة (NaHCO3) الذي يفرز من البنكرياس.</t>
-  </si>
-  <si>
-    <t>الإثنا عشري(بالإنجليزية: Duodenum) أو العفج هو أحد أجزاء القناة الهضمية وأول جزء من الأمعاء الدقيقة يصل بين المعدة و الصائم.التي تصل من البنكرياس والكبد و المرارة تساعد على تحليل بعض مركبات الغذاء كيميائيا والمواد التي يتم تحليلها كيميائيا هي:بروتينات كروهيدرات ودهون بالاضافة لذلك يتم امتصاص مياة وموادمعدنية الى الدم علما بان المواد المعدنية لا يحل بها تغيير في العملية الهضمية(مواد غير عضوية).</t>
-  </si>
-  <si>
-    <t>إن وظيفة المعدة هي هضم المواد الغذائية التي نتناولها وخاصة المواد البروتينية أي تكسيرها إلى جزيئات صغيرة، حيث تقوم جدران المعدة القوية بالضغط على الطعام لمدة 4 ساعات يتحول بعدها الطعام إلى شبه سائل بعد هذا يمر الطعام عبر فتحة البواب إلى الأمعاء الرفيعة والتي يبلغ طولها حوالي 20 قدماً في الشخص البالغ. ولذلك فهي ملفوفة على بعضها البعض حتى يتسع لها تجويف البطن. أول جزء في الأمعاء دقيقة هو الإثنى عشر أي أن طوله يساوى عرض 12 إصبعاً وهنا تفتح قناتان فيه هما: ـ الحويصلة المرارية: وهي كيس صغير يلتصق بالكبد وتحمل المرارة التي تهضم المواد الدهنية ـ قناة البنكرياس: وتحمل العصارة البنكرياسية والتي تقوم بالمساعدة في عملية الهضم ومعادلة حامض المعدة. وبعد أن يمر الطعام من الاثنى عشر يصبح صالحاً للامتصاص حيث تتم هذه العملية داخل تلافيف الأمعاء الرفيعة وبنسبة ضئيلة في الأمعاء الغليظة. ويبطن جدار الأمعاء الرفيعة ملايين الخلايا الدقيقة التي تسمى الخمائل والتي تقوم بعملية الامتصاص. ثم يلي ذلك القولون والذي يبلغ طوله 5 أقدام وهو على شكل ثلاث أضلاع مربعة حيث يمتد من الجهة اليمنى السفلية من البطن إلى أعلى ثم ينثني بعرض البطن تحت المعدة ثم ينثني مرة أخرى نازلاً من الجهة اليسرى للبطن إلى أسفل. وتسمى نهاية القولون بالمستقيم الذي يبلغ طوله حوالي 6 بوصات ويقع في تجويف الجزء العجزي من العمود الفقري. وينتهي المستقيم بقناة الشرج التي تكون مقفلة عادة بواسطة عضلة مستديرة قوية تسمى عضلة فتحة الشرج. وتصل نفايات الطعام إلى القولون على هيئة نصف سائل حيث لا يسمح الجسم بخروجها على هذه الهيئة فيقوم القولون بامتصاص معظم السائل من هذه الفضلات ثم يخرج الباقي على هيئة براز. ويستغرق الطعام مدة 24 ساعة قبل المرور خارج القناة الهضمية.فالمعدة لاتقبل أي طعام بارد جدا فهي تتضرر من دالك وكدالك الطعام الساخن فهو يصيبها بقرحة المعدة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ان وظيفة المعدة هي هضم المواد الغذائية التي نتناولها وخاصة المواد البروتينية اي تكسيرها الى جزيئات صغيرة، حيث تقوم جدران المعدة القوية بالضغط على الطعام لمدة 4 ساعات يتحول بعدها الطعام الى شبه سائل بعد هذا يمر الطعام عبر فتحة البواب الى الامعاء الرفيعة وا.  اول جزء في الامعاء دقيقة هو الاثنى عشر اي ان طوله يساوى عرض 12 اصبعاً وهنا تفتح قناتان فيه هما: ـ الحويصلة المرارية: وهي كيس صغير يلتصق بالكبد وتحمل المرارة التي تهضم المواد الدهنية ـ قناة البنكرياس: وتحمل العصارة البنكرياسية والتي تقوم بالمساعدة في عملي.  ويبطن جدار الامعاء الرفيعة ملايين الخلايا الدقيقة التي تسمى الخمائل والتي تقوم بعملية الامتصاص.  وتسمى نهاية القولون بالمستقيم الذي يبلغ طوله حوالي 6 بوصات ويقع في تجويف الجزء العجزي من العمود الفقري.  وتصل نفايات الطعام الى القولون على هيئة نصف سائل حيث لا يسمح الجسم بخروجها على هذه الهيئة فيقوم القولون بامتصاص معظم السائل من هذه الفضلات ثم يخرج الباقي على هيئة براز. فالمعدة لاتقبل اي طعام بارد جدا فهي تتضرر من دالك وكدالك الطعام الساخن فهو يصيبها بقرحة المعدة. </t>
-  </si>
-  <si>
-    <t>إن وظيفة المعدة هي هضم المواد الغذائية التي نتناولها وخاصة المواد البروتينية أي تكسيرها إلى جزيئات صغيرة، حيث تقوم جدران المعدة القوية بالضغط على الطعام لمدة 4 ساعات يتحول بعدها الطعام إلى شبه سائل بعد هذا يمر الطعام عبر فتحة البواب إلى الأمعاء الرفيعة والتي يبلغ طولها حوالي 20 قدماً في الشخص البالغ.ولذلك فهي ملفوفة على بعضها البعض حتى يتسع لها تجويف البطن.أول جزء في الأمعاء دقيقة هو الإثنى عشر أي أن طوله يساوى عرض 12 إصبعاً وهنا تفتح قناتان فيه هما: ـ الحويصلة المرارية: وهي كيس صغير يلتصق بالكبد وتحمل المرارة التي تهضم المواد الدهنية ـ قناة البنكرياس: وتحمل العصارة البنكرياسية والتي تقوم بالمساعدة في عملية الهضم ومعادلة حامض المعدة.وبعد أن يمر الطعام من الاثنى عشر يصبح صالحاً للامتصاص حيث تتم هذه العملية داخل تلافيف الأمعاء الرفيعة وبنسبة ضئيلة في الأمعاء الغليظة.ويبطن جدار الأمعاء الرفيعة ملايين الخلايا الدقيقة التي تسمى الخمائل والتي تقوم بعملية الامتصاص.ثم يلي ذلك القولون والذي يبلغ طوله 5 أقدام وهو على شكل ثلاث أضلاع مربعة حيث يمتد من الجهة اليمنى السفلية من البطن إلى أعلى ثم ينثني بعرض البطن تحت المعدة ثم ينثني مرة أخرى نازلاً من الجهة اليسرى للبطن إلى أسفل.</t>
-  </si>
-  <si>
-    <t>القلب هو العضو العضلي المجوف الذي يدفع الدم ضمن الجهاز الدوراني بما يشبه عمل المضخة, مشكلا العضو الرئيسي في الجهاز القلبي الوعائي أو ما يعرف بالجهاز الدوراني.تشكل العضلة القلبية النسيج الفعال وظيفيا من القلب حيث يؤمن تقلصها انتقال الدم وضخه من القلب إلى باقي الأعضاء مما يجعل القلب محطة الضخ الرئيسية للدم من القلب إلى العضاء لتزويدها بالأكسجين المحمل في الدم القادم من الرئتين, من ثم يقوم القلب بضخ الدم القادم من العضاء والمحمل بثاني أكسيد الكربون إلى الرئتين لتنقيته و تحميله من جديد بالأكسجين.كمية الدم التي يضخها القلب في الحالة الطبيعية تبلغ 4.5 إلى 5 لتر في الدقيقة, يمكن أن تزداد إلى ثلاثة أضعاف عند القيام يتمارين رياضية.تحتاج العضلة القلبية إلى 7% من الأكسجين الذي يحمله الدم لإنتاج طاقة الضخ بالتالي فهي حساسة جدا لنقص الأكسجين, وأي نقص في كمية الأكسجين الوارد إليها يؤدي إلى نوع من الاستقلاب اللاهوائي يؤدي لألم يعرف بالذبحة الصدرية (Angina).وزن القلب يبلغ 0.5% من وزن جسم الإنسان أي أنه بحدود 350 غرام لشخص يزن 70 كغ ويمكن لهذا الوزن أن يزداد بزيادة عمله كما عند الرياضيين. يترافق هذه الزيادة الوزنية بازدياد حجم الدم الذي يضخ في النبضة الواحدة فما يزداد عند الرياضيين هو كمية الدم التي تضخ وليس عدد النبضات. أوعية الدم في القلب بما أن القلب عضلة متحركة باستمرار فهو بحاجة دائمة إلى إمداد مستمر من الدم ينقل لخلاياه الغذاء والأكسجين، ويرجع بالفضلات وثاني أكسيد الكربون وهو ما يعرف بالتروية تتم تروية العضلة القلبية بشريانين تاجيين (أيمن وأيسر) يخرجان من بداية الابهر ( الأورطي) يتفرعان إلى شرينات وشعيرات دموية حيث يغذي كل منها نصف القلب.يحتوي القلب على أربعة حجيرات منفصلة تدعى: الأذينين اليمنى واليسرى والبطينين الأيمن والأيسر. تكون جدران الأذينين رقيقة نسبيا لأن طبيعة عملها الأساسي كمستودع للدم ومدخل للبطين فهي لا تقوم بعمل الضخ الأساسي الذي يتكقل به البطين.جدران البطين تكون أثخن لأنه يقوم بعملية الضخ الأساسية في الدوران الرئوي والدوران المحيطي.تنظم حركة الدم في القلب صمامات (تدعى أيضا دسامات) تشكل بوابات وحيدة الإتجاهات تؤمن انتقال الدم من الأذينة إلى البطين ولا تسمح بالانتقال العكسي, فالتجمع الأساسي للدم الوارد للقلب يحدث في الأذينة اليمنى لينتقل بعد ذلك إلى البطين الأيمن, يقوم البطين الأيمن بضخ الدم للرئتين, يعود الدم بعد تنقيته من الرئتين إلى الأذينة اليسرى, من الأذينة اليسرى ينتقل للبطين الأيسر الذي يضخه بدوره عبر الشريان الأبهر، أو الشريان الرئيسي، إلى باقي الأعضاء.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">القلب هو العضو العضلي المجوف الذي يدفع الدم ضمن الجهاز الدوراني بما يشبه عمل المضخة, مشكلا العضو الرئيسي في الجهاز القلبي الوعائي او ما يعرف بالجهاز الدوراني. تشكل العضلة القلبية النسيج الفعال وظيفيا من القلب حيث يؤمن تقلصها انتقال الدم وضخه من القلب الى باقي الاعضاء مما يجعل القلب محطة الضخ الرئيسية للدم من القلب الى العضاء لتزويدها بالاكسجين المحمل في الدم القادم من الرئتين, من ثم يقوم القلب بضخ الدم القادم م. كمية الدم التي يضخها القلب في الحالة الطبيعية تبلغ 4. 5 الى 5 لتر في الدقيقة, يمكن ان تزداد الى ثلاثة اضعاف عند القيام يتمارين رياضية. </t>
-  </si>
-  <si>
-    <t>القلب هو العضو العضلي المجوف الذي يدفع الدم ضمن الجهاز الدوراني بما يشبه عمل المضخة, مشكلا العضو الرئيسي في الجهاز القلبي الوعائي أو ما يعرف بالجهاز الدوراني.تشكلالعضلة القلبية النسيج الفعال وظيفيا من القلب حيث يؤمن تقلصها انتقال الدم وضخه من القلب إلى باقي الأعضاء مما يجعل القلب محطة الضخ الرئيسية للدم من القلب إلى العضاء لتزويدها بالأكسجين المحمل في الدم القادم من الرئتين, من ثم يقوم القلب بضخ الدم القادم من العضاء والمحمل بثاني أكسيد الكربون إلى الرئتين لتنقيته و تحميله من جديد بالأكسجين.كميةالقلب يبلغ 0.5% من وزن جسم الإنسان أي أنه بحدود 350 غرام لشخص يزن 70 كغ ويمكن لهذا الوزن أن يزداد بزيادة عمله كما عند الرياضيين.</t>
-  </si>
-  <si>
-    <t>الصداع موضوع مثير للقراء .لأن التعرف عليه وعلي طرق علاجه كل مايهمهم هو معرفته ولايهمهم التفاصيل العلمية بقدر ما يهمهم التعرف علي آليته وكيفية التعامل معه وعلاجه أو تسكينه . والصداع قد ينتاب الكبير والصغير حتي الأطفال. و تعريفنا للصداع هو ألم في الراس أوالفروة أو الرقبة .والسبب الرئيسي لكافة أنواع الصداع غير معلومة وقد يتحسن معظم الأشخاص لوغيروا أسلوب حياتهم وتدربوا علي كيفية الإسترخاء أو بتناولهم أدوية له .وهناك الصداع التوتري الذي سببه تصلب العضلات بالكتفين او الرقبة أو بفروة الرأس أو الفك . وهذا سببه الإجهاد والإكتئاب والقلق.وقد يكون لكثرة العمل أو قلة النوم أو الأكل أو شرب الخمر أوتعاطي الحبوب المخدرة . و تناول مادة tyramine بالشيكولاتة والجبن والمكسرات ، أومادة جلوتومات أحادي الصوديوم monosodium glutamate (MSG) . التي توضع باللحوم المحفوظة كلها مواد قد تولد الصداع . والأشخاص الذين يتناولون مادة الكافيين في الشاي والبن والكولا يمكنهم الشعور بالصداع لو لم يتناولوا جرعاتهم اليومية التي اعتادوا عليها . ومن الأسباب الشائعة لتولد الصداع نجد الرأس من المناطق الحساسة لأنها تضم الدماغ والعينين والأذنين وعظام الجمجمة وعضلات الوجه والجيوب الأنفية والشرايين وغيرها، وكل هذه الأعضاء قد تكون سببا للصداع. وهناك بعض الأعضاء البعيدة عن الرأس التى يمكنها أن تثير نوبة الصداع. لهذا الصداع أشكال وأنواع. فقد يكون الصداع متقطعا أو مستمرا. وقد يصيب الإنسان شهريا أو أسبوعيا أو يوميا وقد تدوم النوبة عدة ساعات. وتختلف شدتها بين ألم خفيف وألم معتدل إلى الإحساس بألم شديد .وقد يأتي الألم في الجبهة أو الصدغ أو قرب العينين أو في مؤخرة الرأس وقد ينتشر إلى شق من شقي الوجه أو كليهما. وقد يصاحبه الغثيان والقىء واضطراب الرؤية و سوء المزاج .والصداع قد يكون عضويا بسبب ضربة خفيفة على الرأس أو حمى، أو الأورام وارتفاع الضغط و اضطرابات العين كالتهاب الملتحمة او خراج بها أو دمل بالجفن و الجلوكوما و التهاب الجيوب الأنفية أو التهاب الأذن الوسطى ومشاكل الاسنان و الامساك وأعراض ما قبل الدورة الشهرية. ونسبة وقوعه تقل عن 10% من مجموع حالات الصداع.قد يكون الصداع سببه غير عضوي بسبب تغيرات فسيولوجية (وظيفية ) في مناطق معينة من الرأس كالأوعية الدموية والعضلات. و ليس بسبب مرض أو إصابة .وتتجاوز نسبة وقوعه 90% من حالات الصداع كالصداع النصفي والصداع التوتري والصداع العنقودي و صداع الجوع و الصداع الإكتئاب النفسي .ومن الأسباب الشائعة لتولد الصداع وضع الرأس لمدة طويلة في اتجاه واحد ووضع ثابت ، كما في الجلوس أمام الكومبيوتر والآلة الكاتبة والميكروسكوب أوبسبب الإجهاد المرهق وقلة النوم والكز علي الأسنان . والصداع التوتري Tension headache يظهر في جانبي الرأس وعادة يبدأ من خلفها وينتشر للأمام وقد يبدو الألم مكتوما كأن المكان مربوط بإحكام . ويمكن أن يشعر الشخص بتصلب الكتف أو الرقبة او الفك .وعلاجه هو حل المشاكل النفسية وتناول المهدئات المناسبة .ويوجد صداع العنقود Cluster headache وهو حاد ومؤلم جدا ويحدث عدة مرات في اليوم ولمدة شهور وينصرف لمدة مشابهة . وهذا النوع ليس شائعا . وهناك صداع التهاب الجيوب الأنفية Sinus headacheوسببه الالتهابات الجرثومية والفيروسية للجيوب الأنفية . فيسبب ألما في مقدمة الراس والوجه وبسبب التهابات في ممرات الجيوب الأنفية التي تقع خلف الخدين والأنف والعينين .فنشعر بالم أشد عندما ننحني للأمام أوعندما نستيقظ من النوم صباحا أو في حالة الرشح الأنفي أو التهاب الحلق . وهذا الصداع يظهر على شكل الإحساس بثقل أو ألم يزداد أثناء ساعات النهار. ويتم العلاج بتناول العقاقير المسكنة ومضادات الاحتقان الأنفي. و أخذ حمام ساخن أو استنشاق الأبخرة لتخفيف حدة الصداع. وإذا استمر الصداع ،فقد يحتاج الأمر إلى تدخل جراحى وعملية بزل. والصداع قد نشعر به عندما نصاب بنزلة برد أوحمي أو في حالة ماقبل نزول الطمث لدي السيدات .ولو كان الصداع لأول مرة لدي من هم فوق الخمسين عاما فقد يكون سببه التهاب شرياني صدغي Temporal arteritis يسبب زغللة في الرؤية وألم اثناء المضغ وهذا النوع قد يؤدي للعمي لو لم يعالج بواسطة الطبيب المختص وعادة يعالج بالإستيرويدات steroids ليساعد في منع العمي . وهناك اسباب نادرة تسبب الصداع كنزيف المخ أو ورم به أو التهاب الحمي الشوكية او الالتهاب أوالجلطة او العدوي بالمخ .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصداع موضوع مثير للقراء .  والصداع قد ينتاب الكبير والصغير حتي الاطفال. والسبب الرئيسي لكافة انواع الصداع غير معلومة وقد يتحسن معظم الاشخاص لوغيروا اسلوب حياتهم وتدربوا علي كيفية الاسترخاء او بتناولهم ادوية له . وهناك الصداع التوتري الذي سببه تصلب العضلات بالكتفين او الرقبة او بفروة الراس او الفك .  وهذا سببه الاجهاد والاكتئاب والقلق. وقد يكون لكثرة العمل او قلة النوم او الاكل او شرب الخمر اوتعاطي الحبوب المخدرة .  و تناول مادة tyramine بالشيكولاتة والجبن والمكسرات ، اومادة جلوتومات احادي الصوديوم monosodium glutamate (MSG) .  والاشخاص الذين يتناولون مادة الكافيين في الشاي والبن والكولا يمكنهم الشعور بالصداع لو لم يتناولوا جرعاتهم اليومية التي اعتادوا عليها .  ومن الاسباب الشائعة لتولد الصداع نجد الراس من المناطق الحساسة لانها تضم الدماغ والعينين والاذنين وعظام الجمجمة وعضلات الوجه والجيوب الانفية والشرايين وغيرها، وكل هذه الاعضاء قد تكون سببا للصداع.  فقد يكون الصداع متقطعا او مستمرا.  وقد يصيب الانسان شهريا او اسبوعيا او يوميا وقد تدوم النوبة عدة ساعات. والصداع قد يكون عضويا بسبب ضربة خفيفة على الراس او حمى، او الاورام وارتفاع الضغط و اضطرابات العين كالتهاب الملتحمة او خراج بها او دمل بالجفن و الجلوكوما و التهاب الجيوب الانفية او التهاب الاذن الوسطى ومشاكل الاسنان و الامساك واعراض ما قبل الدورة الشهرية. قد يكون الصداع سببه غير عضوي بسبب تغيرات فسيولوجية (وظيفية ) في مناطق معينة من الراس كالاوعية الدموية والعضلات. ومن الاسباب الشائعة لتولد الصداع وضع الراس لمدة طويلة في اتجاه واحد ووضع ثابت ، كما في الجلوس امام الكومبيوتر والآلة الكاتبة والميكروسكوب اوبسبب الاجهاد المرهق وقلة النوم والكز علي الاسنان . وعلاجه هو حل المشاكل النفسية وتناول المهدئات المناسبة . ويوجد صداع العنقود Cluster headache وهو حاد ومؤلم جدا ويحدث عدة مرات في اليوم ولمدة شهور وينصرف لمدة مشابهة .  ويتم العلاج بتناول العقاقير المسكنة ومضادات الاحتقان الانفي.  و اخذ حمام ساخن او استنشاق الابخرة لتخفيف حدة الصداع.  واذا استمر الصداع ،فقد يحتاج الامر الى تدخل جراحى وعملية بزل.  والصداع قد نشعر به عندما نصاب بنزلة برد اوحمي او في حالة ماقبل نزول الطمث لدي السيدات . </t>
-  </si>
-  <si>
-    <t>الصداع موضوع مثير للقراء .لأنالتعرف عليه وعلي طرق علاجه كل مايهمهم هو معرفته ولايهمهم التفاصيل العلمية بقدر ما يهمهم التعرف علي آليته وكيفية التعامل معه وعلاجه أو تسكينه .والصداع قد ينتاب الكبير والصغير حتي الأطفال.و تعريفنا للصداع هو ألم في الراس أوالفروة أو الرقبة .والسببالرئيسي لكافة أنواع الصداع غير معلومة وقد يتحسن معظم الأشخاص لوغيروا أسلوب حياتهم وتدربوا علي كيفية الإسترخاء أو بتناولهم أدوية له .وهناكالصداع التوتري الذي سببه تصلب العضلات بالكتفين او الرقبة أو بفروة الرأس أو الفك .وهذا سببه الإجهاد والإكتئاب والقلق.وقديكون لكثرة العمل أو قلة النوم أو الأكل أو شرب الخمر أوتعاطي الحبوب المخدرة .و تناول مادة tyramine بالشيكولاتة والجبن والمكسرات ، أومادة جلوتومات أحادي الصوديوم monosodium glutamate (MSG) .التي توضع باللحوم المحفوظة كلها مواد قد تولد الصداع .والأشخاص الذين يتناولون مادة الكافيين في الشاي والبن والكولا يمكنهم الشعور بالصداع لو لم يتناولوا جرعاتهم اليومية التي اعتادوا عليها .ومن الأسباب الشائعة لتولد الصداع نجد الرأس من المناطق الحساسة لأنها تضم الدماغ والعينين والأذنين وعظام الجمجمة وعضلات الوجه والجيوب الأنفية والشرايين وغيرها، وكل هذه الأعضاء قد تكون سببا للصداع.وهناك بعض الأعضاء البعيدة عن الرأس التى يمكنها أن تثير نوبة الصداع.لهذا الصداع أشكال وأنواع.فقد يكون الصداع متقطعا أو مستمرا.وقد يصيب الإنسان شهريا أو أسبوعيا أو يوميا وقد تدوم النوبة عدة ساعات.وتختلف شدتها بين ألم خفيف وألم معتدل إلى الإحساس بألم شديد .وقديأتي الألم في الجبهة أو الصدغ أو قرب العينين أو في مؤخرة الرأس وقد ينتشر إلى شق من شقي الوجه أو كليهما.وقد يصاحبه الغثيان والقىء واضطراب الرؤية و سوء المزاج .والصداعقد يكون عضويا بسبب ضربة خفيفة على الرأس أو حمى، أو الأورام وارتفاع الضغط و اضطرابات العين كالتهاب الملتحمة او خراج بها أو دمل بالجفن و الجلوكوما و التهاب الجيوب الأنفية أو التهاب الأذن الوسطى ومشاكل الاسنان و الامساك وأعراض ما قبل الدورة الشهرية.</t>
-  </si>
-  <si>
-    <t>الكريات الدموية الحمراء: هي عبارة عن خلاية مقعرة عديمة النواة تحتوي على صبغة الهيموغلوبين أو HB تدعى بخضاب الدم وهي عبارة عن بروتين أحمر اللون يقدر عددها ب4ألى 5 مليون كرية ملم المكعب من الدم تحتوي على كل كرية على 300جزيئة من HB قطرها يصل إلى 7مكرون ويعتبر قطر صغير جدا .الخلية الحمراء أو خلية الدم الحمراء (بالإنجليزية: Red blood cell) أو (بالإنجليزية: Erythrocyte) هي إحدى مكونات خلايا الدم و أكثرها عددا. وتحتوى هذه الخلايا على الهيموجلوبين. والهيموجلوبين هو الذي يسمح للخلايا بحمل الأكسجين وثاني أكسيد الكربون، إلى جانب هذه الوظيفة فإن الهيموجلوبين بمثابة الصبغة التي تكسب الدم لونه الأحمر. عندما يكون الدم في الرئتين فإن خضاب الدم-الهيموجلوبين- في كريات الدم الحمراء يتحد مع الأوكسجين ليشكل خضاب الدم المؤكسج .يحمل الدم الأوكسجين إلى الأنسجة حيث يتفكك خضاب الدم المؤكسج ويعطي الخلايا الأوكسجين ويأخذ منها ثاني أوكسيد الكربون الذي يتحد مع الخضاب ليشكل كربامين خضاب الدم وعندما يعود الدم القاتم-المحمل بثاني أوكسيد الكربون إلى الرئتين ليتفكك من جديد ويطلق ثاني أوكسيد الكربون الذي تطرحه الرئتين بعملية الزفير.</t>
-  </si>
-  <si>
-    <t>وتحتوى هذه الخلايا على الهيموجلوبين.والهيموجلوبين هو الذي يسمح للخلايا بحمل الأكسجين وثاني أكسيد الكربون، إلى جانب هذه الوظيفة فإن الهيموجلوبين بمثابة الصبغة التي تكسب الدم لونه الأحمر.</t>
-  </si>
-  <si>
-    <t>الكريات الدموية الحمراء: هي عبارة عن خلاية مقعرة عديمة النواة تحتوي على صبغة الهيموغلوبين أو HB تدعى بخضاب الدم وهي عبارة عن بروتين أحمر اللون يقدر عددها ب4ألى 5 مليون كرية ملم المكعب من الدم تحتوي على كل كرية على 300جزيئة من HB قطرها يصل إلى 7مكرون ويعتبر قطر صغير جدا .الخلية</t>
-  </si>
-  <si>
-    <t>البنكرياس هو غدة يقارب حجمها الست بوصات وتتصل مع الامعاء الدقيقة، وتقع قريبا من المعدة و عميقا في الجزء العلوي الخلفي للبطن مقابل العمود الفقري. البنكرياس ضروري جدا لعملية الهضم وذلك بسبب إفراز الغدد النسخية في البنكرياس عصارة البنكرياس في الاثني عشر. هذه العصارة تحتوي الانزيمات تساعد على هضم البروتينات، الدهون والكربوهيدرات قبل أن يتسنى امتصاصها من خلال الامعاء؛ كما يحتوي البنكرياس على غدد صماء تعرف بجزر لانغرهانس تحتوي على خلايا فئة بيتا beta التي تفرز هرمون الأنسولين الذي ينظم تركّز السكر في الدم؛ وتحتوي أيضا على خلايا فئة ألفا alpha التي تفرز هرمون معروف باسم غلوكاغون له مفعول معاكس لمفعول الأنسولين.يتكون من رأس - رقبة - جسم - ذيل. كل البنكرياس يقع خلف الغشاء البريتوني عدا الجزء الاخير من الذيلtail فانه يقع في الرباط بين الكلية و الطحال. الشريان الذاهب إلى الطحال فانه شريان كبير متعرج يمشي على أعلى البنكرياس ويعطي للبنكرياس شرايين خاصة الشريان البكرياس الكبير arteria pancreatica magna .البنكرياس هو غدة من نوعين : خارحية وداخلية: معنى خارجية أي انها تفرز بعض المواد وهذه المواد تذهب في قنوات فتصب في مكان ما و هنا يكون المكان هو الإثنا عشري. أما الداخلية فمعناها ان تجمعات من الخلايا في البنكرياس تسمى جزر لانغرهانس تفرز الأنسولين إلى الدم مباشرة بدون قناة.للبنكرياس قناة رئيسية و قناة صغيرة تصب فيها أو تصب لوحدها في الاثني عش . في نهاية القناة الرئيسية تنفتح قناه المرارة على قناة البنكرياس الرئيسية فيكونان مكان مشترك اسمه أو تسمى باسم الجراح الذي وصفها. وهي تفتح في الجهة اليسرى في منتصف الجزء الثاني من الاثني عشر. تحيط بنهاية القنوات و الفتحة المشتركة عضلات ملساء تعمل كصمام لتنظيم خروج المواد و منع رجوعها بالاتجاه المعاكس ، وتسمى بصمام اودي.</t>
-  </si>
-  <si>
-    <t>البنكرياس هو غدة يقارب حجمها الست بوصات وتتصل مع الامعاء الدقيقة، وتقع قريبا من المعدة و عميقا في الجزء العلوي الخلفي للبطن مقابل العمود الفقري.هذه العصارة تحتوي الانزيمات تساعد على هضم البروتينات، الدهون والكربوهيدرات قبل أن يتسنى امتصاصها من خلال الامعاء؛ كما يحتوي البنكرياس على غدد صماء تعرف بجزر لانغرهانس تحتوي على خلايا فئة بيتا beta التي تفرز هرمون الأنسولين الذي ينظم تركّز السكر في الدم؛ وتحتوي أيضا على خلايا فئة ألفا alpha التي تفرز هرمون معروف باسم غلوكاغون له مفعول معاكس لمفعول الأنسولين.كل البنكرياس يقع خلف الغشاء البريتوني عدا الجزء الاخير من الذيلtail فانه يقع في الرباط بين الكلية و الطحال.البنكرياس هو غدة من نوعين : خارحية وداخلية: معنى خارجية أي انها تفرز بعض المواد وهذه المواد تذهب في قنوات فتصب في مكان ما و هنا يكون المكان هو الإثنا عشري.للبنكرياس قناة رئيسية و قناة صغيرة تصب فيها أو تصب لوحدها في الاثني عش .وهي تفتح في الجهة اليسرى في منتصف الجزء الثاني من الاثني عشر.</t>
-  </si>
-  <si>
-    <t>البنكرياس هو غدة يقارب حجمها الست بوصات وتتصل مع الامعاء الدقيقة، وتقع قريبا من المعدة و عميقا في الجزء العلوي الخلفي للبطن مقابل العمود الفقري.البنكرياس ضروري جدا لعملية الهضم وذلك بسبب إفراز الغدد النسخية في البنكرياس عصارة البنكرياس في الاثني عشر.هذه العصارة تحتوي الانزيمات تساعد على هضم البروتينات، الدهون والكربوهيدرات قبل أن يتسنى امتصاصها من خلال الامعاء؛ كما يحتوي البنكرياس على غدد صماء تعرف بجزر لانغرهانس تحتوي على خلايا فئة بيتا beta التي تفرز هرمون الأنسولين الذي ينظم تركّز السكر في الدم؛ وتحتوي أيضا على خلايا فئة ألفا alpha التي تفرز هرمون معروف باسم غلوكاغون له مفعول معاكس لمفعول الأنسولين.يتكونمن رأس - رقبة - جسم - ذيل.كل البنكرياس يقع خلف الغشاء البريتوني عدا الجزء الاخير من الذيلtail فانه يقع في الرباط بين الكلية و الطحال.</t>
-  </si>
-  <si>
-    <t>المرئ عبارة عن أنبوبة عضلية يصل طوله لدى الإنسان البالغ إلي 25سم و هو جزء القناة الهضمية الموصل بين البلعوم والمعدة عبر الحجاب الحاجز، وتمتد في حيزوم الصدر (وسط الصدر) حتى تخترق الحجاب الحاجز، وتسير لمسافة قصيرة 1,5 سم في تجويف البطن قبل أن تفتح في الفتحة الفؤادية للمعدة.و يتكون المرئ من طبقتين عضليتين, الأولي خارجية طولية ذات ألياف، والثانية داخلية ذات ألياف دائرية، يغذيهما العصب الحائر. وتتحكم في مدخل المرئ عضلة تسمى العضلة العاصرة العليا (وهي الحلْقة البلعومية)، كما تتحكم في مخرجه عضلة اسمها العضلة العاصرة السفلى وهي السنتيمترات الثلاثة أو الأربعة الأخيرة من المرئ، وهي أشبه بصمام ذي ضغط عال منها بعضلة تشريحية مستقلة.بعد مضغ الطعام في الفم يعبر من البلعوم إلى المرئ ونظرا لتجاور المرئ مع القصبة الهوائية يقوم لسان المزمار بغلق فتحة القصبة الهوائية حين البلع وعند وصوله للمرئ يقوم بدفعه بحركة عضلية طاردة للاسفل حتى يمر عبر العضلة العاصرة السفلى التي تسترخي بدورها ليمر الطعام إلى المعدة، وتلك العضلة تمنع عودة الطعام وافرازات المعدة إلى المرئ لذلك لا تتأثر حركة الطعام بوضعية الجسم وتأثير الجاذبية.الملاحظ أن عملية البلع تحتاج إلى تتابع منسق بين عضلات متعددة: في الفم واللسان والحلق والبلعوم والحنجرة والمرئ، وتسيطر عليها الأعصاب الجمجمية الخامس والسابع والتاسع والعاشر والحادي عشر والثاني عشر، ومراكزها كلها في جذع الدماغ.[1]</t>
-  </si>
-  <si>
-    <t>المرئ عبارة عن أنبوبة عضلية يصل طوله لدى الإنسان البالغ إلي 25سم و هو جزء القناة الهضمية الموصل بين البلعوم والمعدة عبر الحجاب الحاجز، وتمتد في حيزوم الصدر (وسط الصدر) حتى تخترق الحجاب الحاجز، وتسير لمسافة قصيرة 1,5 سم في تجويف البطن قبل أن تفتح في الفتحة الفؤادية للمعدة.وتتحكم في مدخل المرئ عضلة تسمى العضلة العاصرة العليا (وهي الحلْقة البلعومية)، كما تتحكم في مخرجه عضلة اسمها العضلة العاصرة السفلى وهي السنتيمترات الثلاثة أو الأربعة الأخيرة من المرئ، وهي أشبه بصمام ذي ضغط عال منها بعضلة تشريحية مستقلة.وعند وصوله للمرئ يقوم بدفعه بحركة عضلية طاردة للاسفل حتى يمر عبر العضلة العاصرة السفلى التي تسترخي بدورها ليمر الطعام إلى المعدة، وتلك العضلة تمنع عودة الطعام وافرازات المعدة إلى المرئ لذلك لا تتأثر حركة الطعام بوضعية الجسم وتأثير الجاذبية.</t>
-  </si>
-  <si>
-    <t>المرئ عبارة عن أنبوبة عضلية يصل طوله لدى الإنسان البالغ إلي 25سم و هو جزء القناة الهضمية الموصل بين البلعوم والمعدة عبر الحجاب الحاجز، وتمتد في حيزوم الصدر (وسط الصدر) حتى تخترق الحجاب الحاجز، وتسير لمسافة قصيرة 1,5 سم في تجويف البطن قبل أن تفتح في الفتحة الفؤادية للمعدة.ووتتحكم في مدخل المرئ عضلة تسمى العضلة العاصرة العليا (وهي الحلْقة البلعومية)، كما تتحكم في مخرجه عضلة اسمها العضلة العاصرة السفلى وهي السنتيمترات الثلاثة أو الأربعة الأخيرة من المرئ، وهي أشبه بصمام ذي ضغط عال منها بعضلة تشريحية مستقلة.بعدمضغ الطعام في الفم يعبر من البلعوم إلى المرئ ونظرا لتجاور المرئ مع القصبة الهوائية يقوم لسان المزمار بغلق فتحة القصبة الهوائية حين البلع وعند وصوله للمرئ يقوم بدفعه بحركة عضلية طاردة للاسفل حتى يمر عبر العضلة العاصرة السفلى التي تسترخي بدورها ليمر الطعام إلى المعدة، وتلك العضلة تمنع عودة الطعام وافرازات المعدة إلى المرئ لذلك لا تتأثر حركة الطعام بوضعية الجسم وتأثير الجاذبية.الملاحظ</t>
-  </si>
-  <si>
-    <t>الرئة هي عضو تنفسي مهم في الفقاريات التي تستخدم الهواء الجوي للتنفس . الوظيفة الرئيسية للرئة هو نقل الهواء الجوي إلى المجرى الدموي والتخلص من غاز ثنائي أوكسيد الكربون من المجرى الدموي إلى الهواء الخارجي . هذا التبادل الغازي ينتج عن عمل الخلايا المتخصصة التي تبطن غشاء الاكياس الهوائية أي الحويصلات الهوائية. لدى الرئتين وضيفة غير تنفسية ايضاً.ان تحرير الطاقة بواسطة عملية التنفس يحتاج إلى الأوكسجين ويحرر ثنائي أوكسيد الكربون ، وهذا بحاجة إلى طريقة كفوءة لنقل الاوكسجين إلى الخلايا وتحرير ثنائي اوكسيد الكربون منها. في الكائنات البسيطة كالبكتيريا الأحادية الخلية تحدث عملية التبادل الغازي عن طريق ميكانيكية الإنتشار البسيط . في الكائنات الاكثر تعقيداً لاتحدث عملية الانتشار البسيط الا للخلايا الاقريبة جدا من موقع الاوكسجين. ان التكيف الذي حصل في هذه الكائنات هو وجود الدورة الدموية التي تنقل الغاز من والى اعمق نقطة موجودة في انسجة الجسم ، ووجود جهاز تنفسي الذي يسمح بأخذ الاوكسجين من الهواء الجوي وبذلك ينتشر بسهولة إلى الدورة الدموية .تكون عملية التنفس في الكائنات الفقارية التي تتنفس الهواء الجوي على مراحل . يأتي الهواء إلى الحيوان عن طريق المجرى التنفسي – في الزواحف والطيور والثدييات يتكون من الأنف والبلعوم والحنجرة ثم القصبة الهوائية والقصييبات . رئتي اللبائن تكون غنية بشبكة من الحويصلات الرئوية التي توفر مساحة واسعة للتبادل الغازي . هناك شبكة من الشعيرات الدموية التي تسمح بتدفق الدم على سطح الحويصلات الرئوية . الاوكسجين الذي بداخل الحويصلة الرئوية ينتشر إلى المجرى الدموي وينتشر غاز ثنائي اوكسيد الكربون من المجرى الدموي إلى الحويصلة الرئوية ،كلاهما ينفذان من الجدران الرقيقة للحويصلات الرئوية. في الثدييات ،هناك عضلة كبيرة تدعى الحجاب الحاجز بالاضافة إلى بغض العضلات مابين الاضلاع تساعد على التحكم بعملية التنفس بصورة دورية تبعاً للتغيرات في الحجم والضغط في داخل منطقة الصدر . بزيادة الحجم يقل الضغط مما يسبب اندفاع الهواء إلى المجاري التنفسية حيث الضغط الواطيء وبتقليل الحجم و زيادة الضغط يحصل العكس.اضافة إلى الوظيفة التنفسية كتبادل الغازات وتنظيم تركيز ايون الهدروجين تقوم الرئتين ايضاً بالتأثير على تركيز المواد الحيوية والعقاقير التي تٌعطى في الدم الشرياني وتصفي التخثرات الدموية الصغيرة التي تتكون في الاوردة .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الرئة هي عضو تنفسي مهم في الفقاريات التي تستخدم الهواء الجوي للتنفس .  الوظيفة الرئيسية للرئة هو نقل الهواء الجوي الى المجرى الدموي والتخلص من غاز ثنائي اوكسيد الكربون من المجرى الدموي الى الهواء الخارجي .  هذا التبادل الغازي ينتج عن عمل الخلايا المتخصصة التي تبطن غشاء الاكياس الهوائية اي الحويصلات الهوائية.  لدى الرئتين وضيفة غير تنفسية ايضاً.  في الكائنات الاكثر تعقيداً لاتحدث عملية الانتشار البسيط الا للخلايا الاقريبة جدا من موقع الاوكسجين.  ان التكيف الذي حصل في هذه الكائنات هو وجود الدورة الدموية التي تنقل الغاز من والى اعمق نقطة موجودة في انسجة الجسم ، ووجود جهاز تنفسي الذي يسمح باخذ الاوكسجين من الهواء الجوي وبذلك ينتشر بسهولة الى الدورة الدموية . تكون عملية التنفس في الكائنات الفقارية التي تتنفس الهواء الجوي على مراحل .  ياتي الهواء الى الحيوان عن طريق المجرى التنفسي – في الزواحف والطيور والثدييات يتكون من الانف والبلعوم والحنجرة ثم القصبة الهوائية والقصييبات . </t>
-  </si>
-  <si>
-    <t>الرئة هي عضو تنفسي مهم في الفقاريات التي تستخدم الهواء الجوي للتنفس .الوظيفة الرئيسية للرئة هو نقل الهواء الجوي إلى المجرى الدموي والتخلص من غاز ثنائي أوكسيد الكربون من المجرى الدموي إلى الهواء الخارجي .هذا التبادل الغازي ينتج عن عمل الخلايا المتخصصة التي تبطن غشاء الاكياس الهوائية أي الحويصلات الهوائية.تحرير الطاقة بواسطة عملية التنفس يحتاج إلى الأوكسجين ويحرر ثنائي أوكسيد الكربون ، وهذا بحاجة إلى طريقة كفوءة لنقل الاوكسجين إلى الخلايا وتحرير ثنائي اوكسيد الكربون منها.ان التكيف الذي حصل في هذه الكائنات هو وجود الدورة الدموية التي تنقل الغاز من والى اعمق نقطة موجودة في انسجة الجسم ، ووجود جهاز تنفسي الذي يسمح بأخذ الاوكسجين من الهواء الجوي وبذلك ينتشر بسهولة إلى الدورة الدموية .تكونالاوكسجين الذي بداخل الحويصلة الرئوية ينتشر إلى المجرى الدموي وينتشر غاز ثنائي اوكسيد الكربون من المجرى الدموي إلى الحويصلة الرئوية ،كلاهما ينفذان من الجدران الرقيقة للحويصلات الرئوية.في الثدييات ،هناك عضلة كبيرة تدعى الحجاب الحاجز بالاضافة إلى بغض العضلات مابين الاضلاع تساعد على التحكم بعملية التنفس بصورة دورية تبعاً للتغيرات في الحجم والضغط في داخل منطقة الصدر .إلى الوظيفة التنفسية كتبادل الغازات وتنظيم تركيز ايون الهدروجين تقوم الرئتين ايضاً بالتأثير على تركيز المواد الحيوية والعقاقير التي تٌعطى في الدم الشرياني وتصفي التخثرات الدموية الصغيرة التي تتكون في الاوردة .</t>
-  </si>
-  <si>
-    <t>السيجارة هي منتج مصنوع من أوراق التبغ، تلف أو تحشى بداخل غلاف ورقي على شكل أسطوانة، يبلغ طولها عادة 120 مم وقطرها 10 مم. تسمح بعض الدول المصنعة للسيجارات تكونها ليس فقط من أوراق التبغ بل حتى من ساق النبات، حيث يسحق ويقطع. تشعل السيجارة من نهاية واحدة، وتوضع النهاية الأخرى في الفم. لم تكن السيجارات معروفة في أوروبا قبل اكتشاف كريستوفر كولومبس لأمريكا عندما رأى الهنود الحمر يدخنون .تحتوي السيجارة على التبغ الذي يحتوي على حوالي 500 مركب تختلف نسبها حسب نوع السيجارة, منها القار والكربون المؤكسد ،ومن أخطر المواد التي تحتوي عليها السيجارة هي النيكوتين والقطران وأول اكسيد الكربون.تحتوي السيجارة على أول أكسيد الكربون الذي له دور في تعطيل وظيفة الهيموجلوبين في نقل الأكسجين إلى الدم. كما يشترك أول أكسيد الكربون مع النيكوتين في زيادة ترسب الدهون والكوليستيرول في الشرايين وتجلط الدم.تسبب السيجارة الأمراض السرطانية التي تشمل سرطان الرئتين والفم والشفتين والحنجرة والمريء, والكليتين والمثانة والبنكرياس نتيجة امتصاص المواد القطرانية ووصولها إلى هذه الأعضاء مع تيار الدم. و السيجارة سبب في  أمراض القلب والشرايين وهي ناتجة عن تحالف كل من أول أكسيد الكربون والنيكوتين على عضلة القلب فيزيد النيكوتين من نبض القلب وحاجته إلى الأكسجين, بينما يعمل أول أكسيد الكربون على تقليل كمية الأكسجين التي تصل إلى القلب, كما يسببان ترسب المواد الدهنية والكوليستيرول في بطانة الأوعية الدموية مما يتسبب في تصلب الشرايين والذي يعد أحد الأسباب الرئيسة لإرتفاع ضغط الدم والسكتات القلبية الناتجة عن تجلط الدم في الشرايين التاجية المغذية للقلب.تضعف السيجارة من مناعة الجسم وقدرته على مقاومة الجراثيم التي تغزو المسالك التنفسية, حيث تتلف مادة القطران أهداب الخلايا المبطنة لهذه المسالك فتقل قدرتها على تنقية الهواء الواصل للرئتين كما تسبب السيجارة قرحة المعدة والمريء والأمعاء.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السيجارة هي منتج مصنوع من اوراق التبغ، تلف او تحشى بداخل غلاف ورقي على شكل اسطوانة، يبلغ طولها عادة 120 مم وقطرها 10 مم. تحتوي السيجارة على التبغ الذي يحتوي على حوالي 500 مركب تختلف نسبها حسب نوع السيجارة, منها القار والكربون المؤكسد ،ومن اخطر المواد التي تحتوي عليها السيجارة هي النيكوتين والقطران واول اكسيد الكربون. تسبب السيجارة الامراض السرطانية التي تشمل سرطان الرئتين والفم والشفتين والحنجرة والمريء, والكليتين والمثانة والبنكرياس نتيجة امتصاص المواد القطرانية ووصولها الى هذه الاعضاء مع تيار الدم.  و السيجارة سبب في  امراض القلب والشرايين وهي ناتجة عن تحالف كل من اول اكسيد الكربون والنيكوتين على عضلة القلب فيزيد النيكوتين من نبض القلب وحاجته الى الاكسجين, بينما يعمل اول اكسيد الكربون على تقليل كمية الاكسجين التي تصل الى القلب, كما يسببان ترسب الموا. تضعف السيجارة من مناعة الجسم وقدرته على مقاومة الجراثيم التي تغزو المسالك التنفسية, حيث تتلف مادة القطران اهداب الخلايا المبطنة لهذه المسالك فتقل قدرتها على تنقية الهواء الواصل للرئتين كما تسبب السيجارة قرحة المعدة والمريء والامعاء. </t>
-  </si>
-  <si>
-    <t>السيجارة هي منتج مصنوع من أوراق التبغ، تلف أو تحشى بداخل غلاف ورقي على شكل أسطوانة، يبلغ طولها عادة 120 مم وقطرها 10 مم.تسمح بعض الدول المصنعة للسيجارات تكونها ليس فقط من أوراق التبغ بل حتى من ساق النبات، حيث يسحق ويقطع.تشعل السيجارة من نهاية واحدة، وتوضع النهاية الأخرى في الفم.لم تكن السيجارات معروفة في أوروبا قبل اكتشاف كريستوفر كولومبس لأمريكا عندما رأى الهنود الحمر يدخنون .تحتويالسيجارة على التبغ الذي يحتوي على حوالي 500 مركب تختلف نسبها حسب نوع السيجارة, منها القار والكربون المؤكسد ،ومن أخطر المواد التي تحتوي عليها السيجارة هي النيكوتين والقطران وأول اكسيد الكربون.تحتوي</t>
-  </si>
-  <si>
-    <t>المخدرات مادة كيميائية تسبب النعاس والنوم أو غياب الوعى المصحوب بتسكين الألم . وقد تؤدى إلى التعود أو الإدمان عليها. والإدمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد أو العقاقير المخدرة للحصول عليها بأى كيفية وتحت أى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة . والمواد المخدرة تصنف حسب مصدرها أو طبقاً لأصل المادة التى حضرت منها . فهناك مخدرات طبيعية ذات الأصل النباتى ويمكن استخلاص المواد الفعالة من الأجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية. و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الأفيون مع المادة الكيميائية استيل كلوريد و مخدرات تخليقية ليست من أصل نباتى. وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الأدوية . ومن بين المخدرات نجد المهبطات والمنشطات والمهلوسات.يمنع استخدام المخدرات بدون اشراف طبي مباشر وكذلك يمنع الأتجار بها وإلا الوقوع تحت طائلة القانون.عقوبة الأتجار بالمخدرات شديدة جدآ تصل لحد الأعدام وقد ادانت محكمة الجنايات الكويتية على أحد أفراد الأسرة الحاكمة في الكويت المدعو طلال ناصر وحكمت عليه بالأعدام شنقاً.المخدرات مادة كيميائية تسبب النعاس والنوم أو غياب الوعى المصحوب بتسكين الألم . وقد تؤدى إلى التعود أو الإدمان عليها . . والإدمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد أو العقاقير المخدرة للحصول عليها بأى كيفية وتحت أى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة . والمواد المخدرة تصنف حسب مصدرها أو طبقاً لأصل المادة التى حضرت منها . فهناك مخدرات طبيعية ذات الأصل النباتى ويمكن استخلاص المواد الفعالة من الأجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية. و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الأفيون مع المادة الكيميائية "استيل كلوريد" و مخدرات تخليقية ليست من أصل نباتى. وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الأدوية . ومن بين المخدرات نجد المهبطات والمنشطات والمهلوسات.كثرت أنواع المخدرات وأشكالها حتى أصبح من الصعب حصرها، ووجه الخلاف في تصنيف كل تلك الأنواع ينبع من اختلاف زاوية النظر إليها، فبعضها تصنف على أساس تأثيرها، وبعضها يصنف على أساس طرق إنتاجها. ولا يوجد حتى الآن اتفاق دولي موحد حول هذا التصنيف.ورد في تراث الحضارات القديمة آثار كثيرة تدل على معرفة الإنسان بالمواد المخدرة منذ تلك الأزمنة البعيدة، وقد وجدت تلك الآثار على شكل نقوش على جدران المعابد أو كتابات على أوراق البردي المصرية القديمة أو كأساطير مروية تناقلتها الأجيال. فالهندوس على سبيل المثال كانوا يعتقدون أن الإله شيفا هو الذي يأتي بنبات القنب من المحيط، ثم تستخرج منه باقي الإلهة ما وصفوه بالرحيق الإلهي ويقصدون به الحشيش. ونقش الإغريق صوراً لنبات الخشاش على جدران المقابر والمعابد، واختلف المدلول الرمزي لهذه النقوش حسب الإلهة التي تمسك بها، ففي يد الإلهة هيرا تعني الأمومة، والإلهة ديميتر تعني خصوبة الأرض، والإله بلوتو تعني الموت أو النوم الأبدي. أما قبائل الإنديز فقد انتشرت بينهم أسطورة تقول بأن امرأة نزلت من السماء لتخفف آلام الناس، وتجلب لهم نوماً لذيذاً، وتحولت بفضل القوة الإلهية إلى شجرة الكوكا. وفيما يأتي نتناول تاريخ أشهر أنواع المخدرات التي عرفها الإنسان مثل الكحوليات تعتبر الكحوليات من أقدم المواد المخدرة التي تعاطاها الإنسان، وكانت الصين أسبق المجتمعات إلى معرفة عمليات التخمير الطبيعية لأنواع مختلفة من الأطعمة، فقد صنع الصينيون الخمور من الأرز والبطاطا والقمح والشعير، وتعاطوا أنواعاً من المشروبات كانوا يطلقون عليها جيو أي النبيذ، ثم انتقل إليهم نبيذ العنب من العالم الغربي سنة 200 قبل الميلاد تقريباً بعد الاتصالات التي جرت بين الإمبراطوريتين الصينية والرومانية. واقترن تقديم المشوربات الكحولية في الصين القديمة بعدد من المناسبات الاجتماعية مثل تقديم الأضاحي للآلهة أو الاحتفال بنصر عسكري. وهذا نموذج ليس متفردا في قدم وتلقائية معرفة الإنسان للكحوليات، كما لهذا النموذج شبيه في الحضارات المصرية والهندية والرومانية واليونانية، كما عرفت الكحوليات المجتمعات والقبائل البدائية في أفريقيا وآسيا.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">المخدرات مادة كيميائية تسبب النعاس والنوم او غياب الوعى المصحوب بتسكين الالم .  والادمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد او العقاقير المخدرة للحصول عليها باى كيفية وتحت اى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة .  فهناك مخدرات طبيعية ذات الاصل النباتى ويمكن استخلاص المواد الفعالة من الاجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية.  و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الافيون مع المادة الكيميائية استيل كلوريد و مخدرات تخليقية ليست من اصل نباتى.  وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الادوية . يمنع استخدام المخدرات بدون اشراف طبي مباشر وكذلك يمنع الاتجار بها والا الوقوع تحت طائلة القانون. عقوبة الاتجار بالمخدرات شديدة جدآ تصل لحد الاعدام وقد ادانت محكمة الجنايات الكويتية على احد افراد الاسرة الحاكمة في الكويت المدعو طلال ناصر وحكمت عليه بالاعدام شنقاً.  وقد تؤدى الى التعود او الادمان عليها .  والادمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد او العقاقير المخدرة للحصول عليها باى كيفية وتحت اى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة .  والمواد المخدرة تصنف حسب مصدرها او طبقاً لاصل المادة التى حضرت منها .  و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الافيون مع المادة الكيميائية "استيل كلوريد" و مخدرات تخليقية ليست من اصل نباتى.  وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الادوية . كثرت انواع المخدرات واشكالها حتى اصبح من الصعب حصرها، ووجه الخلاف في تصنيف كل تلك الانواع ينبع من اختلاف زاوية النظر اليها، فبعضها تصنف على اساس تاثيرها، وبعضها يصنف على اساس طرق انتاجها. ورد في تراث الحضارات القديمة آثار كثيرة تدل على معرفة الانسان بالمواد المخدرة منذ تلك الازمنة البعيدة، وقد وجدت تلك الآثار على شكل نقوش على جدران المعابد او كتابات على اوراق البردي المصرية القديمة او كاساطير مروية تناقلتها الاجيال.  فالهندوس على سبيل المثال كانوا يعتقدون ان الاله شيفا هو الذي ياتي بنبات القنب من المحيط، ثم تستخرج منه باقي الالهة ما وصفوه بالرحيق الالهي ويقصدون به الحشيش.  ونقش الاغريق صوراً لنبات الخشاش على جدران المقابر والمعابد، واختلف المدلول الرمزي لهذه النقوش حسب الالهة التي تمسك بها، ففي يد الالهة هيرا تعني الامومة، والالهة ديميتر تعني خصوبة الارض، والاله بلوتو تعني الموت او النوم الابدي.  اما قبائل الانديز فقد انتشرت بينهم اسطورة تقول بان امراة نزلت من السماء لتخفف آلام الناس، وتجلب لهم نوماً لذيذاً، وتحولت بفضل القوة الالهية الى شجرة الكوكا.  واقترن تقديم المشوربات الكحولية في الصين القديمة بعدد من المناسبات الاجتماعية مثل تقديم الاضاحي للآلهة او الاحتفال بنصر عسكري. </t>
-  </si>
-  <si>
-    <t>المخدرات مادة كيميائية تسبب النعاس والنوم أو غياب الوعى المصحوب بتسكين الألم .وقد تؤدى إلى التعود أو الإدمان عليها.والإدمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد أو العقاقير المخدرة للحصول عليها بأى كيفية وتحت أى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة .والمواد المخدرة تصنف حسب مصدرها أو طبقاً لأصل المادة التى حضرت منها .فهناك مخدرات طبيعية ذات الأصل النباتى ويمكن استخلاص المواد الفعالة من الأجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية.و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الأفيون مع المادة الكيميائية استيل كلوريد و مخدرات تخليقية ليست من أصل نباتى.استخدام المخدرات بدون اشراف طبي مباشر وكذلك يمنع الأتجار بها وإلا الوقوع تحت طائلة القانون.عقوبةالأتجار بالمخدرات شديدة جدآ تصل لحد الأعدام وقد ادانت محكمة الجنايات الكويتية على أحد أفراد الأسرة الحاكمة في الكويت المدعو طلال ناصر وحكمت عليه بالأعدام شنقاً.المخدراتوالإدمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد أو العقاقير المخدرة للحصول عليها بأى كيفية وتحت أى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة .فهناك مخدرات طبيعية ذات الأصل النباتى ويمكن استخلاص المواد الفعالة من الأجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية.و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الأفيون مع المادة الكيميائية "استيل كلوريد" و مخدرات تخليقية ليست من أصل نباتى.أنواع المخدرات وأشكالها حتى أصبح من الصعب حصرها، ووجه الخلاف في تصنيف كل تلك الأنواع ينبع من اختلاف زاوية النظر إليها، فبعضها تصنف على أساس تأثيرها، وبعضها يصنف على أساس طرق إنتاجها.في تراث الحضارات القديمة آثار كثيرة تدل على معرفة الإنسان بالمواد المخدرة منذ تلك الأزمنة البعيدة، وقد وجدت تلك الآثار على شكل نقوش على جدران المعابد أو كتابات على أوراق البردي المصرية القديمة أو كأساطير مروية تناقلتها الأجيال.فالهندوس على سبيل المثال كانوا يعتقدون أن الإله شيفا هو الذي يأتي بنبات القنب من المحيط، ثم تستخرج منه باقي الإلهة ما وصفوه بالرحيق الإلهي ويقصدون به الحشيش.ونقش الإغريق صوراً لنبات الخشاش على جدران المقابر والمعابد، واختلف المدلول الرمزي لهذه النقوش حسب الإلهة التي تمسك بها، ففي يد الإلهة هيرا تعني الأمومة، والإلهة ديميتر تعني خصوبة الأرض، والإله بلوتو تعني الموت أو النوم الأبدي.أما قبائل الإنديز فقد انتشرت بينهم أسطورة تقول بأن امرأة نزلت من السماء لتخفف آلام الناس، وتجلب لهم نوماً لذيذاً، وتحولت بفضل القوة الإلهية إلى شجرة الكوكا.وفيما يأتي نتناول تاريخ أشهر أنواع المخدرات التي عرفها الإنسان مثل الكحوليات تعتبر الكحوليات من أقدم المواد المخدرة التي تعاطاها الإنسان، وكانت الصين أسبق المجتمعات إلى معرفة عمليات التخمير الطبيعية لأنواع مختلفة من الأطعمة، فقد صنع الصينيون الخمور من الأرز والبطاطا والقمح والشعير، وتعاطوا أنواعاً من المشروبات كانوا يطلقون عليها جيو أي النبيذ، ثم انتقل إليهم نبيذ العنب من العالم الغربي سنة 200 قبل الميلاد تقريباً بعد الاتصالات التي جرت بين الإمبراطوريتين الصينية والرومانية.وهذا نموذج ليس متفردا في قدم وتلقائية معرفة الإنسان للكحوليات، كما لهذا النموذج شبيه في الحضارات المصرية والهندية والرومانية واليونانية، كما عرفت الكحوليات المجتمعات والقبائل البدائية في أفريقيا وآسيا.</t>
-  </si>
-  <si>
-    <t>الكبد أكبر عضو غددي في الجسم يزن حوالي كيلو ونصف، ولونه بني أحمر، ومقسم لأربعة فصوص غير متساوية الحجم. ويقع في الجانب الأيمن من التجويف البطني تحت الحجاب الحاجز . وينقل إليه الدم عبر الشريان الكبدي الذي يحمل الدم والأكسجين من الأورطة. والوريد البابي ينقل إليه الدم حاملا الغذاء المهضوم من الأمعاء الصغري.يلعب الكبد دورا أساسيا في الإستقلاب و عدد من وظائف الجسم مثل نزع السمية كما يعمل كمركز تخزين للغليكوجين و مركز تصنيع لبروتينات البلاسما الدموية .نظراً لأن الكبد يقوم بعمليات حيوية كثيرة فان الانسان قد يموت في خلال 24 ساعة من توقف عمل الكبد.للتعرف علي وظائف الكبد وما يقوم به نجده يقوم بحوالي 500 عملياته الوظيفية علي الدم ومكوناته .لهذا نجده ينظم كل عمليات وظائف الجسم من خلال ملايين القرارات التي يعطيها لكل أجهزته .علاوة علي العمليات الكيماوية التي يقوم بها ، حيث يقوم باستغلال الطعام وتصنيعه بعد إستقباله من الجهاز الهضمي، والتخلص من نفايات وسموم الجسم. كما يقوم بتنيظم كمية السكر بالدم . وما يزيد عن الحاجة يخزنه كنشاء حيواني ليحوله لسكر عند الحاجة . والكبد يفتح الشهية. لهذا عندما يتليف أو يلتهب نفقد شهيتنا للطعام. ويقوم بصنع العصارة المرارية ويفرزها في الأمعاء لهضم الدهون بها. كما يفرز السموم به.والكبد في حالة الصيام وعوز السكر بالدم يمكنه تخزين البروتينات والدهون والكربوهيدرات وتحويلها إلي سكر أو دهون أو بروتينات عند الحاجة إليها. فلاشك أن الجسم يعتمد علي خلايا الكبد للقيام بالعديد من الوظائف الحيوية حيث يقوم بتنظيم وتخليق وإفراز مواد هامة كثيرة كمواد الصفراء ,والكولسترول وأنواع البروتينات بالدم كالألبومين ماعدا الأجسام المضادة. والكبد له أهميته في تخزين مواد مغذية كالنشاء الحيواني بتحويل الجلوكوز بالدم، والفيتامينات والأملاح المعدنية . كما يقوم بتخليص الجسم من السموم ونفاياتها. ويحافظ علي مستوي الجلوكوز والكولسترول بالدم. فأمراضه تقلل من كفاءته للقيام بهذه المهام الحيوية للجسم . وأكثر بروتينات مصل بلازما الدم الآلبومين. وعندما تصاب وظائف الكبد بخلل تقل كميته في مصل الدم. مما يظهر إحتجاز الماء بالأنسجة وتورمها.وينتج الكبد معظم بروتينات تجلط الدم . فلو قلت يتعرض المريض للنزبف الدموي . وتنتج خلايا الكبد السائل المراري الأخضر . وتفرزه في القنوات المرارية .ويخزن في الحويصلة المرارية ليفرز في الأمعاء الصغري . ويحتوي السائل المراري علي الكولسترول والدهون الفوسفورية والبيلوروبين الناتج عن تكسبر هيموجلوبين كريات الدم الحمراء وأملاح الصفراء التي تذيب الدهون أثناء الهضم بالأمعاء وتساعد علي إمتصاصها. وقد يكون السائل المراري حصوات تسد القنوات المرارية . وتمنع إفرازه فلا تهضم الدهون . ويصبح البراز له رائحة. ويظهر اليرقان مرض الصفراء .ويصنع الكبد البروتينات الدهنية المصنوعة من الكولسترول والجليسردات الثلاثبة والدهون الفسفورية والبروتينات .والكبد يخزن سكر الجلوكوز في شكل نشاء حيواني والفيتامينات التي تذوب في الدهون والفولات وفيتامين ب12 والمعادن كالنحاس والحديد. وكثرة تخزين هذه المواد قد تضر بالكبد الذي يخلص الدم من الأمونيا والسموم ويحولهما لمواد غير ضارة. فيحول الأمونيا ليوريا تفرز بالكلي مع البول. وفي حالة مرض الكبد الشديد تتراكم الأمونيا بالدم. والكبد يلعب دورا كبيرا في توازن الهورمونات الذكرية والأنثوية .في حالة تليف الكبد المزمن نجد أن ثمة خللا يظهر علي المريض ولا سيما مدمن الخمر فتظهر عليه أعراض الأنوثة. والأمراض الثلاثة الشائعة التي تصيب الكبد هي السرطان وتليف الكبد والإلتهاب الكبدي. و الإلتهاب الكبدي قد يكون سببه بعض الأدويةو تناول الخمور لمدة طويلة أو التعرض للكيماويات أو الأدوية بكثرة. وكل الإلتهابات الكبدية تتلف خلايا الكبد بصفة دائمة وتجعله متورما ومشدودا من الإلتهاب.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الكبد اكبر عضو غددي في الجسم يزن حوالي كيلو ونصف، ولونه بني احمر، ومقسم لاربعة فصوص غير متساوية الحجم.  وينقل اليه الدم عبر الشريان الكبدي الذي يحمل الدم والاكسجين من الاورطة. يلعب الكبد دورا اساسيا في الاستقلاب و عدد من وظائف الجسم مثل نزع السمية كما يعمل كمركز تخزين للغليكوجين و مركز تصنيع لبروتينات البلاسما الدموية . للتعرف علي وظائف الكبد وما يقوم به نجده يقوم بحوالي 500 عملياته الوظيفية علي الدم ومكوناته . علاوة علي العمليات الكيماوية التي يقوم بها ، حيث يقوم باستغلال الطعام وتصنيعه بعد استقباله من الجهاز الهضمي، والتخلص من نفايات وسموم الجسم.  وما يزيد عن الحاجة يخزنه كنشاء حيواني ليحوله لسكر عند الحاجة .  لهذا عندما يتليف او يلتهب نفقد شهيتنا للطعام.  كما يفرز السموم به.  فلاشك ان الجسم يعتمد علي خلايا الكبد للقيام بالعديد من الوظائف الحيوية حيث يقوم بتنظيم وتخليق وافراز مواد هامة كثيرة كمواد الصفراء ,والكولسترول وانواع البروتينات بالدم كالالبومين ماعدا الاجسام المضادة.  كما يقوم بتخليص الجسم من السموم ونفاياتها.  فامراضه تقلل من كفاءته للقيام بهذه المهام الحيوية للجسم .  وعندما تصاب وظائف الكبد بخلل تقل كميته في مصل الدم. وينتج الكبد معظم بروتينات تجلط الدم .  وتنتج خلايا الكبد السائل المراري الاخضر . ويخزن في الحويصلة المرارية ليفرز في الامعاء الصغري .  وقد يكون السائل المراري حصوات تسد القنوات المرارية .  ويصبح البراز له رائحة. ويصنع الكبد البروتينات الدهنية المصنوعة من الكولسترول والجليسردات الثلاثبة والدهون الفسفورية والبروتينات .  وكثرة تخزين هذه المواد قد تضر بالكبد الذي يخلص الدم من الامونيا والسموم ويحولهما لمواد غير ضارة.  وفي حالة مرض الكبد الشديد تتراكم الامونيا بالدم. في حالة تليف الكبد المزمن نجد ان ثمة خللا يظهر علي المريض ولا سيما مدمن الخمر فتظهر عليه اعراض الانوثة.  و الالتهاب الكبدي قد يكون سببه بعض الادويةو تناول الخمور لمدة طويلة او التعرض للكيماويات او الادوية بكثرة. </t>
-  </si>
-  <si>
-    <t>الكبد أكبر عضو غددي في الجسم يزن حوالي كيلو ونصف، ولونه بني أحمر، ومقسم لأربعة فصوص غير متساوية الحجم.ويقع في الجانب الأيمن من التجويف البطني تحت الحجاب الحاجز .وينقل إليه الدم عبر الشريان الكبدي الذي يحمل الدم والأكسجين من الأورطة.والوريد البابي ينقل إليه الدم حاملا الغذاء المهضوم من الأمعاء الصغري.يلعبالكبد دورا أساسيا في الإستقلاب و عدد من وظائف الجسم مثل نزع السمية كما يعمل كمركز تخزين للغليكوجين و مركز تصنيع لبروتينات البلاسما الدموية .نظراًلأن الكبد يقوم بعمليات حيوية كثيرة فان الانسان قد يموت في خلال 24 ساعة من توقف عمل الكبد.للتعرفعلي وظائف الكبد وما يقوم به نجده يقوم بحوالي 500 عملياته الوظيفية علي الدم ومكوناته .لهذانجده ينظم كل عمليات وظائف الجسم من خلال ملايين القرارات التي يعطيها لكل أجهزته .علاوةعلي العمليات الكيماوية التي يقوم بها ، حيث يقوم باستغلال الطعام وتصنيعه بعد إستقباله من الجهاز الهضمي، والتخلص من نفايات وسموم الجسم.كما يقوم بتنيظم كمية السكر بالدم .وما يزيد عن الحاجة يخزنه كنشاء حيواني ليحوله لسكر عند الحاجة .والكبد يفتح الشهية.لهذا عندما يتليف أو يلتهب نفقد شهيتنا للطعام.ويقوم بصنع العصارة المرارية ويفرزها في الأمعاء لهضم الدهون بها.كما يفرز السموم به.والكبد في حالة الصيام وعوز السكر بالدم يمكنه تخزين البروتينات والدهون والكربوهيدرات وتحويلها إلي سكر أو دهون أو بروتينات عند الحاجة إليها.فلاشك أن الجسم يعتمد علي خلايا الكبد للقيام بالعديد من الوظائف الحيوية حيث يقوم بتنظيم وتخليق وإفراز مواد هامة كثيرة كمواد الصفراء ,والكولسترول وأنواع البروتينات بالدم كالألبومين ماعدا الأجسام المضادة.والكبد له أهميته في تخزين مواد مغذية كالنشاء الحيواني بتحويل الجلوكوز بالدم، والفيتامينات والأملاح المعدنية .كما يقوم بتخليص الجسم من السموم ونفاياتها.ويحافظ علي مستوي الجلوكوز والكولسترول بالدم.فأمراضه تقلل من كفاءته للقيام بهذه المهام الحيوية للجسم .وأكثر بروتينات مصل بلازما الدم الآلبومين.وعندما تصاب وظائف الكبد بخلل تقل كميته في مصل الدم.</t>
-  </si>
-  <si>
-    <t>الأمم المتحدة منظمة عالمية تضم في عضويتها جميع دول العالم المستقلة تقريبا. تأسست منظمة الأمم المتحدة بتاريخ 25 أكتوبر 1945 في مدينة سان فرانسيسكو في ولاية كاليفورنيا الأمريكية، تبعا لمؤتمر دومبارتون أوكس الذي عقد في العاصمة واشنطن.من 1919 إلى 1945 كان يوجد منظمة شبيهة بمنظمة الامم المتحدة تدعي عصبة الامم إلا أنها فشلت في مهامها خصوصاً بعد قيام الحرب العالمية الثانية، ما أدى إلى نشوء الأمم المتحدة بعد انتصار الحلفاء وإلغاء عصبة الأمم. وعضوية الأمم المتحدة مفتوحة أمام كل الدول المحبة للسلام التي تقبل التزامات ميثاق الامم المتحدة وحكمها. في بداية سبتمبر من العام 2003 كان هناك 191 دولة كأعضاء في المنظمة. انظر الدول الاعضاء في الامم المتحدة.ظهرت فكرة إنشاء منظمة الأمم المتحدة في وقت الحرب بانعقاد المؤتمرات في موسكو و طهران في عام 1943. اقترح الرئيس الأمريكي فرانكلين ديلانو روزفلت تسمية "الامم المتحدة" وكان أول استعمال لهذا التعبير في 1 يناير 1942 بإعلان قيام منظمة الأمم المتحدة. في أثناء الحرب العالمية الثانية استعمل الحلفاء تعبير "الأمم المتحدة" للاشارة إلى تحالفهم فقط. من أغسطس/آب إلى أكتوبر/تشرين الأول ممثلوا فرنسا، الصين، المملكة المتحدة، الولايات المتحدة، والاتحاد السوفيتي اجتمعوا ليضعوا الخطط المترتبة عن مؤتمر دومبارتون أوكس وبعد المباحثات ظهرت اقتراحات تلخص أغراض المنظمة، عضويتها وأعضاءها، بالإضافة إلى الترتيبات للمحافظة على السلم العالمي والأمن والتعاون الاقتصادي والاجتماعي الدولي. هذه الاقتراحات تم مناقشتها من قبل الحكومات والأفراد المختصين حول العالم.في 25 إبريل/نيسان عام 1945 عقد مؤتمر الأمم المتحدة بحضور منظمات وهيئات عالمية في مدينة سان فرانسيسكو. بالإضافة إلى الحكومات فان عدة منظمات غير حكومية، مثل نوادي الاسود الدولية دعيت للمساعدة في صياغة الدستور. ال50 دولة عالمية التي تألفت منها الأمم المتحدة في ذلك الوقت وقعت على الدستور بعد شهرين وبالتحديد في 26 يونيو/حزيران، في بولندا، التي لم تكن حاضرة في ذلك المؤتمر، لكنها وقعت عليه بعد ذلك لتكون حصيلة الموقعين على الدستور 51 بلدا. ظهرت الأمم المتحدة إلى الوجود في 26 أكتوبر/تشرين الأول 1945 بعد تصديق الدستور من قبل الأعضاء الدائمين الخمسة في مجلس الامن- جمهورية الصين، فرنسا، الاتحاد السوفييتي، المملكة المتحدة، والولايات المتحدة- وبأغلبية من الموقعيين الاخرين ال46.صوت 89 مقابل 2 عضو في مجلس الشيوخ الامريكي على تصديق ميثاق الامم المتحدة في 28 يوليو/تموز من عام 1945. في ديسمبر/كانون الأول عام 1945 طلب مجلس الشيوخ ومجلس النواب الامريكي بالإجماع من الأمم المتحدة أن يكون مقرها الرئيسي في الولايات المتحدة. قبلت الأمم المتحدة الطلب وتم بناء المقر في مدينة نيويورك بين عامي 1949 و1950 بجانب النهر الشرقي على أرض اشتريت ب 8.5 مليون دولارا تبرعا من الابن جون دي روكيفيلر. فتح مقر الأمم المتحدة رسميا في 9 يناير/كانون الثاني عام 1951. تحت اتفاقية خاصة مع الولايات المتحدة منحت بعض الامتيازات والحصانات الدبلوماسية.بينما بقع المقر الرئيسي للولايات المتحدة في مدينة نيويورك، فان له وكالات رئيسية واقعة في جنيف في سويسرا، لاهاي في هولندا، فينا في النمسا، وفي أماكن أخرى.في 25 أكتوبر/تشرين الاول صادقت الجمعية العامة التابعة للأمم المتحدة على القرار 2758 الذي ينص على استبدال حكومة جمهورية الصين بحكومة جمهورية الصين الشعبية كالحاكم القانوني والممثل الشرعي للصين في الامم المتحدة وكأحد الأعضاء الخمسة الدائمين في مجلس الامن.كان عند مؤسسي الأمم المتحدة آمال كبيرة في منع النزاعات بين الدول وجعل الحروب المستقبلية مستحيلة. تلك الآمال من الواضح أنها لم تدرك بعد. من عام 1947 إلى عام 1991 جعل انقسام العالم إلى معسكرات عدائية أثناء الحرب الباردة هذا الشيء مستحيلا. بعد انتهاء الحرب الباردة كانت هناك عدة دعوات لمنظمة الامم المتحدة لتكون الوكالة العالمية لانجاز السلام والتعاون العالمي. في السنين الأخيرة، أثار ارتفاع الولايات المتحدة إلى موقع الهيمنة العالمية الشكوك حول دور وتأثير الأمم المتحدة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الامم المتحدة منظمة عالمية تضم في عضويتها جميع دول العالم المستقلة تقريبا.  تاسست منظمة الامم المتحدة بتاريخ 25 اكتوبر 1945 في مدينة سان فرانسيسكو في ولاية كاليفورنيا الامريكية، تبعا لمؤتمر دومبارتون اوكس الذي عقد في العاصمة واشنطن. من 1919 الى 1945 كان يوجد منظمة شبيهة بمنظمة الامم المتحدة تدعي عصبة الامم الا انها فشلت في مهامها خصوصاً بعد قيام الحرب العالمية الثانية، ما ادى الى نشوء الامم المتحدة بعد انتصار الحلفاء والغاء عصبة الامم.  وعضوية الامم المتحدة مفتوحة امام كل الدول المحبة للسلام التي تقبل التزامات ميثاق الامم المتحدة وحكمها.  في بداية سبتمبر من العام 2003 كان هناك 191 دولة كاعضاء في المنظمة.  انظر الدول الاعضاء في الامم المتحدة. ظهرت فكرة انشاء منظمة الامم المتحدة في وقت الحرب بانعقاد المؤتمرات في موسكو و طهران في عام 1943.  اقترح الرئيس الامريكي فرانكلين ديلانو روزفلت تسمية "الامم المتحدة" وكان اول استعمال لهذا التعبير في 1 يناير 1942 باعلان قيام منظمة الامم المتحدة.  في اثناء الحرب العالمية الثانية استعمل الحلفاء تعبير "الامم المتحدة" للاشارة الى تحالفهم فقط.  من اغسطس/آب الى اكتوبر/تشرين الاول ممثلوا فرنسا، الصين، المملكة المتحدة، الولايات المتحدة، والاتحاد السوفيتي اجتمعوا ليضعوا الخطط المترتبة عن مؤتمر دومبارتون اوكس وبعد المباحثات ظهرت اقتراحات تلخص اغراض المنظمة، عضويتها واعضاءها، بالاضافة الى الترتيبات ل.  هذه الاقتراحات تم مناقشتها من قبل الحكومات والافراد المختصين حول العالم. في 25 ابريل/نيسان عام 1945 عقد مؤتمر الامم المتحدة بحضور منظمات وهيئات عالمية في مدينة سان فرانسيسكو.  بالاضافة الى الحكومات فان عدة منظمات غير حكومية، مثل نوادي الاسود الدولية دعيت للمساعدة في صياغة الدستور.  ال50 دولة عالمية التي تالفت منها الامم المتحدة في ذلك الوقت وقعت على الدستور بعد شهرين وبالتحديد في 26 يونيو/حزيران، في بولندا، التي لم تكن حاضرة في ذلك المؤتمر، لكنها وقعت عليه بعد ذلك لتكون حصيلة الموقعين على الدستور 51 بلدا. </t>
-  </si>
-  <si>
-    <t>الأمم المتحدة منظمة عالمية تضم في عضويتها جميع دول العالم المستقلة تقريبا.تأسست منظمة الأمم المتحدة بتاريخ 25 أكتوبر 1945 في مدينة سان فرانسيسكو في ولاية كاليفورنيا الأمريكية، تبعا لمؤتمر دومبارتون أوكس الذي عقد في العاصمة واشنطن.من1919 إلى 1945 كان يوجد منظمة شبيهة بمنظمة الامم المتحدة تدعي عصبة الامم إلا أنها فشلت في مهامها خصوصاً بعد قيام الحرب العالمية الثانية، ما أدى إلى نشوء الأمم المتحدة بعد انتصار الحلفاء وإلغاء عصبة الأمم.وعضوية الأمم المتحدة مفتوحة أمام كل الدول المحبة للسلام التي تقبل التزامات ميثاق الامم المتحدة وحكمها.في بداية سبتمبر من العام 2003 كان هناك 191 دولة كأعضاء في المنظمة.فكرة إنشاء منظمة الأمم المتحدة في وقت الحرب بانعقاد المؤتمرات في موسكو و طهران في عام 1943.اقترح الرئيس الأمريكي فرانكلين ديلانو روزفلت تسمية "الامم المتحدة" وكان أول استعمال لهذا التعبير في 1 يناير 1942 بإعلان قيام منظمة الأمم المتحدة.من أغسطس/آب إلى أكتوبر/تشرين الأول ممثلوا فرنسا، الصين، المملكة المتحدة، الولايات المتحدة، والاتحاد السوفيتي اجتمعوا ليضعوا الخطط المترتبة عن مؤتمر دومبارتون أوكس وبعد المباحثات ظهرت اقتراحات تلخص أغراض المنظمة، عضويتها وأعضاءها، بالإضافة إلى الترتيبات للمحافظة على السلم العالمي والأمن والتعاون الاقتصادي والاجتماعي الدولي.25 إبريل/نيسان عام 1945 عقد مؤتمر الأمم المتحدة بحضور منظمات وهيئات عالمية في مدينة سان فرانسيسكو.ال50 دولة عالمية التي تألفت منها الأمم المتحدة في ذلك الوقت وقعت على الدستور بعد شهرين وبالتحديد في 26 يونيو/حزيران، في بولندا، التي لم تكن حاضرة في ذلك المؤتمر، لكنها وقعت عليه بعد ذلك لتكون حصيلة الموقعين على الدستور 51 بلدا.ظهرت الأمم المتحدة إلى الوجود في 26 أكتوبر/تشرين الأول 1945 بعد تصديق الدستور من قبل الأعضاء الدائمين الخمسة في مجلس الامن- جمهورية الصين، فرنسا، الاتحاد السوفييتي، المملكة المتحدة، والولايات المتحدة- وبأغلبية من الموقعيين الاخرين ال46.صوت 89 مقابل 2 عضو في مجلس الشيوخ الامريكي على تصديق ميثاق الامم المتحدة في 28 يوليو/تموز من عام 1945.في ديسمبر/كانون الأول عام 1945 طلب مجلس الشيوخ ومجلس النواب الامريكي بالإجماع من الأمم المتحدة أن يكون مقرها الرئيسي في الولايات المتحدة.قبلت الأمم المتحدة الطلب وتم بناء المقر في مدينة نيويورك بين عامي 1949 و1950 بجانب النهر الشرقي على أرض اشتريت ب 8.5 مليون دولارا تبرعا من الابن جون دي روكيفيلر.من عام 1947 إلى عام 1991 جعل انقسام العالم إلى معسكرات عدائية أثناء الحرب الباردة هذا الشيء مستحيلا.</t>
-  </si>
-  <si>
-    <t>قضية لوكربي هي قضية جنائية ترتبت على سقوط طائرة ركاب أميركية أثناء تحليقها فوق قرية لوكربي Lockerbie باسكتلندا سنة 1988.في يوم الأربعاء 21 ديسمبر 1988 انفجرت الطائرة البوينغ 747، التابعة لشركة PAN AMERICAN WORLD AIR LINES أثناء تحليقها فوق قرية لوكربي، الواقعة في مدينة دمفريز وغالواي الأسكتلندية غربي إنجلترا.وقد نجم عن الحادث موت 259 شخصا هم جميع من كان على متن الطائرة و11 شخصا من سكان القرية حيث وقعت . بعد تحقيقات ليست معلنة ، وبعد تكهنات من وسائل الاعلام بتدوير المسؤلية بين دول مختلفة، يجمع بينها رابط العداء لاميركا ، وحركات تحرير تضعها اميركا في خانة المنظمات الارهابية ، ودون سابق انذار وبالتزامن صدر في الولايات المتحدة الأميركية و بريطانيا في 13 نوفمبر 1991 أمرا بالقبض على مواطنين ليبيين يشتبه في مسؤليتها عن تفجير الطائرة كونهما يعملان بمكتب شركة الخطوط الجوية الليبية بمطار لوقا بمالطا وبمعرفتهما تم شحن حقيبة تحتوي على متفجرات. على الفور رفضت ليبيا الطلب وبدأ القضاء الليبي التحقيق في الاتهام و اوقف المواطنان الليبيان وطلب من الدولتين تقديم مالديهما من ادلة ضدّهما. اصرت الدولتان على طلبهما ورفضت ليبيا الاستجابة ، لما رأته حسب ما اعلنته من اتهامات باطلة تثيرها الدولتان دون توفّر اية ادلة لديهما. بدأت الدولتان بأستغلال تاثيرهما في التحرك داخل مجلس الأمن حتّى تمكنتا من اصدار قرار من المجلس المذكور في 31 مارس 1992 يحمل الرقم 748 بأغلبية 10 أصوات بينها دولة عربية وامتناع 5 أعضاء عن التصويت ، يوجب على ليبيا الاستجابة لطلب الدولتين ، ويهدد بفرض عقوبات عليها من بينها حظر الطيران منها واليها ، وقد رفضت ليبيا الاستجابة لهذا القرار وتم فعلا توقيع العقوبات في الموعد المضروب كأجل نهائي وهو 15 أبريل 1992 ، ولقد قامت الدولتان في وقت لاحق في 11 نوفمبر من نفس العام باستصدار قرار اخر من مجلس الامن برقم 883 يطوّر من نوع العقوبات المفروضة ويوسّعها لاجبار ليبيا على الاذعان لمطالب الدولتين. لم تستجب ليبيا لمطالب الدولتين التي اكتسبت طابع الدولية ، وبدأت تحركا دوليا واسعا يستهدف اقناع العالم بالوقوف إلى جانبها على الاقل بالقبول بمحاكمة المشتبه فيهما في بلد ثالث اذا لم يكن بالامكان تجاوز القرار الدولي، ولقد نجحت ليبيا في ذلك إلى حد بعيد ، عندما حصلت على دعم الدول العربية ممثلة في جامعتها ، التي شكلت لجنة سباعية دائمة لهذا الغرض ، وحصلت على دعم دول عدم الانحياز ، ولعل اهم دعم حصلت عليه كان من الدول الافريقية التي قررت في قمتها التي انعقدت في واغادوغو عاصمة بوركينا فاسو في 10 يونيو 1998 كسر الحظر المفروض على ليبيا بحلول شهر سبتمبر من نفس العام مالم يستجاب إلى مطالبها. عندمااحست الدولتان ان ثغرة قد فتحت في جدار العقوبات المتصدع ، قبلتا في 24 اغسطس 1998 بمحاكمة الليبين في بلد ثالث هو هولندا حيث وافقت ليبيا وبعد اجراءات استمرت فترة بدأت المحاكمة بهيئة مؤلفة من 3 قضاة وعقدت مداولات استمرت 84 يوما من المرافعات القانونية.و في 31 يناير 2001 أدانت المحكمة احد المواطنين استنادا على قرائن ظرفية وبرأت الاخر. وعلى خلفية هذا الحكم دخلت الدولتان في مفاوضات مع ليبيا اسفرت عن الوصول إلى تسوية تدفع بموجبها ليبيا تعويضات إلى اسر الضحايا وتعلن مسؤليتها عن اعمال موظفيها وهذا ماتم بالفعل.وعلاقة الدولتين وليبيا الان على درجة من الوئام لم تعرف منذ زمن.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> اصرت الدولتان على طلبهما ورفضت ليبيا الاستجابة ، لما راته حسب ما اعلنته من اتهامات باطلة تثيرها الدولتان دون توفّر اية ادلة لديهما. </t>
-  </si>
-  <si>
-    <t>قضية لوكربي هي قضية جنائية ترتبت على سقوط طائرة ركاب أميركية أثناء تحليقها فوق قرية لوكربي Lockerbie باسكتلندا سنة 1988.في يوم الأربعاء 21 ديسمبر 1988 انفجرت الطائرة البوينغ 747، التابعة لشركة PAN AMERICAN WORLD AIR LINES أثناء تحليقها فوق قرية لوكربي، الواقعة في مدينة دمفريز وغالواي الأسكتلندية غربي إنجلترا.وقد</t>
-  </si>
-  <si>
-    <t>كانت إيطاليا آخر الدول الأوروبية التي دخلت مجال التوسع الاستعماري. وكانت ليبيا عند نهاية القرن التاسع عشر، هي الجزء الوحيد من الوطن العربي في شمال أفريقيا الذي لم يتمكن الصليبيون الجدد من الاستيلاء عليه، ولقرب ليبيا من إيطاليا جعلها هدفا رئيسا من أهداف السياسة الاستعمارية الإيطالية.بدات إيطاليا العزم على احتلال ليبيا فقامت بفتح المدارس في كل من بنغازي و طرابلس لتعلم اللغة الايطالية وارسلت الارساليات التبشيريه للدين المسيحي افتتحت فروعا لبنك روما واصبحت القنصليه في مدينتى بنغازى و طرابلس مركزا للنشاط السياسى والدعاية الايطاليه والتجسس على اهل البلاد، ولم يصعب على إيطاليا اختلاق الذرائع الواهية لاحتلال ليبيا .فى 27 سبتمبر 1911 م وجهت إيطاليا انذاراً إلى الدولة العثمانية تأخذ عليها فيه انها أهملت شان ليبيا واتهمتها بانها تحرض الليبيين على الرعايا الايطاليين وتضطهدهم. وفى يوم 28 سبتمبر 1911 اقبل الموعد المحدد لانتهاء اجل الانذار كانت السفن الحربية الايطاليه في مياه طرابلس . واعلنت الحرب على تركيا في 29 سبتمبر سنة 1911 م، وبدأت الحرب العثمانية الإيطالية واستطاعت الاستيلاء على طرابلس في 3 أكتوبر من السنة نفسها.وكانت القوات الايطاليه مؤلفة من39 الف جندي و6 الاف حصان وألف سياره و نحو خمسين مدفع ميدان بدأ قصف مدينة طرابلس في الساعة الثالثة والنصف مساء يوم 3 أكتوبر 1911 وأنزلت قوة من البحر عددها يقدر بنحو ألفين جندي وتم إحتلال مدينة طرابلس.ومن هنا بدأ المجاهدون حركتهم يحدوهم الايمان بالحق والدفاع عن العرض والارض وكان عدد المتطوعين نحو 15000 ليبي وتحرك نواب البلاد وزعمائها في ضواحى مدينة طرابلس نحو معسكرات الجهاد ومنهم الشيخ سليمان الباروني نائب الجبل الغربى والشيخ أحمد سيف النصر من زعماء الجنوب والوسط. و السيد احمد الشريف السنوسي في الشرق. وبرزت شخصية شيخ الشهداء عمر المختار في برقة ورفاقه المجاهدين منهم الشهيد عبد القادر يوسف بورحيل والشهيد الفضيل بوعمر بوحو الاوجلى . قاومت القوات الليبية و العثمانية الإيطاليين لفترة قصيرة، ولكن تركيا تنازلت عن ليبيا لإيطاليا بمقتضى المعاهدة التي أبرمت بين الدولتين في 18 أكتوبر 1912م معاهدة أوشي ، وأدرك الليبيون الآن أن عليهم أن ينظموا صفوفهم ويتولوا بأنفسهم أمر المقاومة والجهاد ضد المستعمر، وقد اشتدت مقاومة الليبيين للقوات الإيطالية مما حال دون تجاوز سيطرة الإيطاليين المدن الساحلية، ولما دخلت إيطاليا الحرب العالمية الأولى 1915 م حاولت تركيا استغلال الحركة السنوسية التى كانت بقيادة السيد احمد الشريف السنوسى فمارست تركيا عليه بعض الضغوط لما عرف عليه حبه للمسلمين واحترامه لدولة الخلافه فدخلت قوات الحركه في قتال مع القوات الانجليزيه التى كانت في مصر فابتليت قوات الحركة بخسائر كبيره ، و بعد هزيمة قواته تنازل عن الزعامة لإدريس السنوسي وقاد الجهاد نيابة عنه في المنطقة الشرقية المجاهد عمر المختار. وفي المنطقةالغربية قاد الجهاد سليمان باشا الباروني ومجموعم من المجاهدين في منطقة طرابلس منهم السويحلي والمريض وسوف المحمودي و اعلان الجمهورية الطرابلسية ثم حكومة الاصلاح.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كانت ايطاليا آخر الدول الاوروبية التي دخلت مجال التوسع الاستعماري. بدات ايطاليا العزم على احتلال ليبيا فقامت بفتح المدارس في كل من بنغازي و طرابلس لتعلم اللغة الايطالية وارسلت الارساليات التبشيريه للدين المسيحي افتتحت فروعا لبنك روما واصبحت القنصليه في مدينتى بنغازى و طرابلس مركزا للنشاط السياسى والدعاية الايطاليه والتجس.  وفى يوم 28 سبتمبر 1911 اقبل الموعد المحدد لانتهاء اجل الانذار كانت السفن الحربية الايطاليه في مياه طرابلس . وكانت القوات الايطاليه مؤلفة من39 الف جندي و6 الاف حصان والف سياره و نحو خمسين مدفع ميدان بدا قصف مدينة طرابلس في الساعة الثالثة والنصف مساء يوم 3 اكتوبر 1911 وانزلت قوة من البحر عددها يقدر بنحو الفين جندي وتم احتلال مدينة طرابلس.  و السيد احمد الشريف السنوسي في الشرق. </t>
-  </si>
-  <si>
-    <t>كانت إيطاليا آخر الدول الأوروبية التي دخلت مجال التوسع الاستعماري.وكانت ليبيا عند نهاية القرن التاسع عشر، هي الجزء الوحيد من الوطن العربي في شمال أفريقيا الذي لم يتمكن الصليبيون الجدد من الاستيلاء عليه، ولقرب ليبيا من إيطاليا جعلها هدفا رئيسا من أهداف السياسة الاستعمارية الإيطالية.بداتإيطاليا العزم على احتلال ليبيا فقامت بفتح المدارس في كل من بنغازي و طرابلس لتعلم اللغة الايطالية وارسلت الارساليات التبشيريه للدين المسيحي افتتحت فروعا لبنك روما واصبحت القنصليه في مدينتى بنغازى و طرابلس مركزا للنشاط السياسى والدعاية الايطاليه والتجسس على اهل البلاد، ولم يصعب على إيطاليا اختلاق الذرائع الواهية لاحتلال ليبيا .فى27 سبتمبر 1911 م وجهت إيطاليا انذاراً إلى الدولة العثمانية تأخذ عليها فيه انها أهملت شان ليبيا واتهمتها بانها تحرض الليبيين على الرعايا الايطاليين وتضطهدهم.وفى يوم 28 سبتمبر 1911 اقبل الموعد المحدد لانتهاء اجل الانذار كانت السفن الحربية الايطاليه في مياه طرابلس .</t>
-  </si>
-  <si>
-    <t>السياسة البربرية تعد هذه السياسة من بين النقط الأساسية التي اعتمدتها الكتابات الاستعمارية ، ويمكن تحديد مرحلتين في تعامل الكتابات الفرنسية مع هذه القضية . فخلال أواخر القرن التاسع عشر والعقد الأول من القرن العشرين اتجه اهتمام المفكرين الفرنسيين إلى الاهتمام بعلاقات البربر بالعرب عبر التاريخ وخاصة في العصور الإسلامية الأولى محاولين الإيحاء بأن البربر لم يقبلوا أبدا العرب " الدخلاء " ، فكأنما جاء الفرنسيون إذن بتخليصهم من الدخيل وربطهم بالأصل ، إذ في هذه الفترة انتشرت النظرية القائلة بأن البربر ينحدرون من أصول أوربية . كما راج استعمال أفكار ابن خلدون لفظ " الأعراب "بمعنى العرب ، إذ وجد فيه الفرنسيون مبررا لادعاءاتهم القائلة بأن المغرب عرف دائما انتشار الفوضى بوجود العرب . وبما أن ابن خلدون منهم فقد جعله الفرنسيون ذريعة قوية للقول بأنه لا حل لهذه الفوضى إلا بإلحاق الفرع بالأصل أي ربط البربر ( الفرع ) بأوربا ( الأصل ) . ومع ذلك فقد بقيت هذه الكتابات طيلة القرن التاسع عشر والعقد الأول من القرن العشرين رائجة على مستوى الأفكار فقط . وبمجيء ليوطي حاول أن يترجمها على أرض الواقع ، فساعد على إنشاء " الثانوية البربرية " بآزرو ، ولم يسمح لولوجها إلا لأبناء البربر . لكن ظروفا مختلفة حالت دون نجاح هذه المحاولة وفي مقدمتها ظروف الحرب العالمية الأولى وما تطلبته من تعبئة لجهود الفرنسيين ومستعمراتهم من أجل هدف واحد هو الانتصار في الحرب. ولم تعد تظهر فكرة فصل العرب عن البربر إلا مع العشرينيات عندما جاء إلى المغرب مقيم عام جديد هو "لوسيان سان" الذي كان متحمسا للسياسة البربرية . فجمع حوله ثلة من المفكرين ذوي هذا الاتجاه وخاصة " موريس لوكلاي" و"بول مارتي" ، هذا الأخير ألف كتابا وضع له كعنوان " مغرب الغد " أعطى فيه تصورا كاملا وكفيلا في نظره لإنجاح السيسة البربرية . فذكر بأن المدارس التي أنشئت لهذا الغرض هي دارس فرنسية يتعلم فيها التلاميذ من أصل بربري ، لذلك دعا إلى استبعاد التعليم العربي وإلى منع كل ما له علاقة بالإسلام . أما "موريس لوكلاي " فبالإضافة إلى مناداته بحذف تعليم اللغة العربية والدين الإسلامي في مدارس البربر دعا إلى كتابة اللهجات البربرية بحروف لاتينية. ومما أكد عزم اإدارة الفرنسية على تحقيق مشروعها في هذا الإطار تعبئنها لكل من بإمكانه مساعدتها في هذا الإطار . فدعت رجال الدين إلى القيام بحملة حول التنصير في كل أنحاء البلاد وشجعت نشر الكتب والدراسات العادية للإسلام ( هنري بيرين " محمد وشرلمان " ) ووضعت رهن إشارتهم مبالغ مالية هامة . وإلى جانب هؤلاء أظهر بعض الفرنسيين معارضتهم لهذه السياسة بالنظر إلى المشاكل التي يمكن أن تترتب عنها خاصة وأن فرنسا كانت تعتزم إتمام ما سمته بسياسة " التهدئة " . لكن التيار المؤيد للسياسة البربرية غلب على تيار المعارضة ، وتم إصدار ظهير 16 ماي 1930 دون أخذ آراء المغاربة بعين الاعتبار بربرا كانوا أو عربا. وبما أن هذا الظهير كان يهدف إلى التفريق بين العرب والبربر فقد كان طبيعيا أن يخلف ردود فعل قوية خاصة وأن فرنسا كانت تستعد في نفس الوقت للاحتفال بالذكرى المئوية لاحتلال الجزائر بشكل ظهر معه أن الاحتلال يهدف إلى أن يكون أبديا في نظر الفرنسيين . وهكذا فقد قاطعت مصر المنتجات الفرنسية واستنكر العراق هذا العمل الذي وصفه بأنه غير قانوني وشنيع كما رفضته بعض الصحف الإسبانية. ففي إحدى المقالات التي نشرتها جريدة "النور " la luz الإسبانية تمت الإشادة بما قامت به فرنسا في المغرب لكنها نعثت السياسة البربرية بأنها خطأ يمكن أن يسيئ إلى سمعة فرنسا . ويذكر صاحب المقال أن البربر اتخذوا الإسلام دينا رسميا بعد مجيئ العرب رافضا فكرة إجبارهم على ذلك. وعبر عن اندهاشه من كون الفرنسيين يشككون في إسلام البربر. لم تكن نوايا فرنسا الاستعمارية تجاه المعرب تخفى على أحد ، غير أنها رأت في الظهير البربري خرقا سافرا لمعاهدة 1912 التي نصت بوضوح على ضرورة الحفاظ على الوضعية الدينية واحترام السلطان واحترام المؤسسات الإسلامية</t>
+    <t xml:space="preserve">لودفيج فان بيتهوفن مؤلف موسيقي ألماني ولد عام 1770 م في مدينة بون . يعتبر من أبرز عباقرة الموسيقى في جميع العصور، وأبدع أعمالاً موسيقية خالدة . له الفضل الأعظم في تطوير الموسيقى الكلاسيكية . قدم أول عمل موسيقي وعمره 8 سنوات . 
+تشمل مؤلفاته للأوركسترا تسـعة سيمفونيات وخمس مقطوعات موسيقية على البيانو ومقطوعة على الكمان . كما ألّف العديد من المقطوعات الموسيقية كمقدمات للأوبرا . 
+بدأ بيتهوفن يفقد سمعه في الثلاثينيات من عمره إلا أن ذلك لم يؤثر على إنتاجه الذي ازداد في تلك الفترة وتميز بالإبداع . من أجمل أعماله السمفونية الخامسة والسادسة والتاسعة . وقد توفي في فيينا عام 1827م . 
+شهدت مدينة بون الألمانية ميلاد الفنان العبقري لودفج فان بيتهوفن في 16 ديسمبر عام 1770، وتم تعميده في 17 ديسمبر 1770 . ظهر تميزه الموسيقي منذ صغره، فنشرت أولى أعماله وهو في الثانية عشرمن عمره عام 1783 م . اتسعت شهرته كعازف بيانو في سن مبكرة، ثم زاد إنتاجه وذاع صيته كمؤلف موسيقى . عانى بيتهوفن كثيراً في حياته، عائلياً وصحياً، فبالرغم من أن أباه هو معلمه الأول الذي وجه اهتمامه للموسيقى ولقنه العزف على البيانو والكمان، إلا أنه لم يكن الأب المثالي، فقد كان مدمناً للكحول، كما أن والدته توفيت وهو في السابعة عشر من عمره بعد صراع طويل مع المرض، تاركة له مسؤولية العائلة . مما منعه من إتمام خطته والسفر إلى فيينا، عاصمة الموسيقى في ذلك العصر . فهل كان التأليف الموسيقي هو نوع من أنواع العلاج والتغلب على المشاكل بالنسبة لبيتهوفن . 
+في 1789 م تحقق حلمه أخيراً، فقد أرسله حاكم بون إلى فيينا، وهناك تتلمذ على يد هايدن . ولكن بيتهوفن، صاحب الألحان واجه بعض الخلافات مع معلمه، وعندما سافر هايدن إلى لندن، تحول بيتهوفن إلى معلمين آخرين مثل ساليري وشينك وألبريشتبيرجر . وقد أسهمت كل هذه الدروس والاحتكاكات في تكوين شخصية بيتهوفن الفنية . وحاول أن يشق لنفسه طريق كعازف في عاصمة الموسيقى، وسرعان ما لاقى مكانة كبرى خاصة في الأوساط الأرستقراطية . فقد حاز بإعجاب الأسرة الملكية وعومل كصديق أكثر منه مؤلفاً . بالرغم من ذلك فقد عاش ومات فقيراً، غناه هو أعماله الفنية المتميزة . فقد جاء إنتاجه الفني غزيراً حتى بعد إصابته بالصمم . 
+بدأت إصابة بيتهوفن بصمم بسيط عام 1802، فبدأ في الانسحاب من الأوساط الفنية تدريجياً، وأمضى حياته بلا زواج يرتبط بعلاقات عدة مع سيدات صغيرات . إلا أنه لم يتوقف عن الإنتاج الفني، ولكن أعماله اتخذت اتجاه جديد . ومع ازدياد حالة الصمم التي أصابته، امتنع عن العزف في الحفلات العامة، وابتعد عن الحياة الاجتماعية واتجه للوحدة، وقلت مؤلفاته، وأصبحت أكثر تعقيداً . حتى أنه رد على انتقادات نقاده بأنه يعزف للأجيال القادمة . وبالفعل مازالت أعماله حتى اليوم من أهم ما أنتجته الموسيقى الكلاسيكية العالمية . واكتسبت اثنان من السيمفونيات التي كتبها في صممه أكبر شعبية، وهما السيمفونية الخامسة والتاسعة . كما أنه أحدث الكثير من التغييرات في الموسيقى، وأدخل الغناء والكلمات في سيمفونيته التاسعة . فجاءت رسالته إلى العالم كل البشر سيصبحون إخوة . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> له الفضل الاعظم في تطوير الموسيقى الكلاسيكية . بدا بيتهوفن يفقد سمعه في الثلاثينيات من عمره الا ان ذلك لم يؤثر على انتاجه الذي ازداد في تلك الفترة وتميز بالابداع .  اتسعت شهرته كعازف بيانو في سن مبكرة، ثم زاد انتاجه وذاع صيته كمؤلف موسيقى . في 1789 م تحقق حلمه اخيراً، فقد ارسله حاكم بون الى فيينا، وهناك تتلمذ على يد هايدن . فجاءت رسالته الى العالم كل البشر سيصبحون اخوة .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الناي آلة نفخية تعد بحق أقدم آلة موسيقية في التاريخ ( إذا استثنينا الآلات الإيقاعية ( وللناي عدة أسماء تعرف بها منها الناي القصبة الشبابة المنجيرة . والناي كلمة فارسية تعني المزمار . هي قصبة مفتوحة الطرفين يعزف عليها بواسطة وضع الفم على أحد طرفيها مع إمالته قليلا بزاوية مما يجعل الهواء يصطدم بجدارها الداخلي مصدرا بالنتيجة صوتا شجيا هو أقرب الأصوات وأجملها بالنسبة للإنسان . وللناي ستة ثقوب ( وأحيانا سبعه ) وثقب في منتصف القصبة من الأسفل . وتسد هذه الثقوب وتفتح حسب درجة الصوت ولإخراج العلامات بتسلسل يستطيع معه العازف إخراج العلامات الموسيقية لإخراج اللحن المطلوب . والثقب الخلفي يسد بالإبهام ويستخدم لإظهار جواب العلامة الدنيا التي تظهر في البداية . وتحتاج هذه الآلة إلى براعة شديدة حيث لها 3 تقنيات . التقنية الأولى : هي طريقة النفخ حيث أن إخراج الصوت الطبيعي منها هي أول صعوبة يجب التغلب عليها لمن أراد التعلم عليها . لذلك ينصح عادة بأن يتمرن من يريد التعلم بالتدريب على إخراج الصوت أولا ومن ثم عندما يستطيع ذلك يبدأ بالتعلم على إخراج الدرجات الصوتية ( تمرين الأصابع ) . والعازف الخبير يستطيع بتغيير طريقة النفخ التلاعب بهذه الآلة الخطيرة حيث يستطيع العازف المتمكن أن يخرج أكثر من سبع علامات صحيحة أو حتى أكتر من أوكتاف ( ديوان ) فالآلة تنتج 7 أصوات صحيحة تماما وبالتالي يستطيع العازف الخبير أن ينتج 7 أصوات أخفض و 7 أصوات أعلى . التقنية الثانية : هي إمالة الشبابة بأكثر من زاوية لإخراج أصوات معينة أو ربع التون . التقنية الثالثة : وهي طريقة سد الثقوب بحيث ينتج الأصوات المطلوبة أو سد الثقوب بطريقة معينة لإنتاج ربع التون ( العلامات الشرقية ) . وآلة الناي آلة أساسية في التخت الشرقي التقليدي حيث أن صوتها قريب جدا إلى الأذن البشرية . وقد اعتاد إخواننا المصريين إضافة عدة آلات تشبهها بالطريقة ( مع الاختلاف بطبيعة الصوت ) ومنها آلة الكولة ولكنهم لم يلغوا هذه الآلة العظيمة . عيوب هذه الآلة كثيرة أبرزها أن صوتها ليس ثابتا لذلك تعتمد كثيرا على أذن العازف الذي يجب ان يكون بارعا وذو أذن صافية ممتازة حتى تؤدي دورها الصحيح . والعيب الثاني أن لكل ناي درجة صوتية يبدأ منها ولذلك تجد أن العازف عادة ما يملك أكثر من ناي وعادة ما يكون عددها سبع وإن كان بعض العازفين المهرة جدا يكتفون بأربع أو ثلاث قصبات ويتحايلون على بقية المقامات . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الناي آلة نفخية تعد بحق اقدم آلة موسيقية في التاريخ ( اذا استثنينا الآلات الايقاعية ( وللناي عدة اسماء تعرف بها منها الناي القصبة الشبابة المنجيرة . التقنية الاولى : هي طريقة النفخ حيث ان اخراج الصوت الطبيعي منها هي اول صعوبة يجب التغلب عليها لمن اراد التعلم عليها .  والعازف الخبير يستطيع بتغيير طريقة النفخ التلاعب بهذه الآلة الخطيرة حيث يستطيع العازف المتمكن ان يخرج اكثر من سبع علامات صحيحة او حتى اكتر من اوكتاف ( ديوان ) فالآلة تنتج 7 اصوات صحيحة تماما وبالتالي يستطيع العازف الخبير ان ينتج 7 اصوات اخفض و 7 اصوات اع .  التقنية الثانية : هي امالة الشبابة باكثر من زاوية لاخراج اصوات معينة او ربع التون .  التقنية الثالثة : وهي طريقة سد الثقوب بحيث ينتج الاصوات المطلوبة او سد الثقوب بطريقة معينة لانتاج ربع التون ( العلامات الشرقية ) . وقد اعتاد اخواننا المصريين اضافة عدة آلات تشبهها بالطريقة ( مع الاختلاف بطبيعة الصوت ) ومنها آلة الكولة ولكنهم لم يلغوا هذه الآلة العظيمة .  عيوب هذه الآلة كثيرة ابرزها ان صوتها ليس ثابتا لذلك تعتمد كثيرا على اذن العازف الذي يجب ان يكون بارعا وذو اذن صافية ممتازة حتى تؤدي دورها الصحيح .  والعيب الثاني ان لكل ناي درجة صوتية يبدا منها ولذلك تجد ان العازف عادة ما يملك اكثر من ناي وعادة ما يكون عددها سبع وان كان بعض العازفين المهرة جدا يكتفون باربع او ثلاث قصبات ويتحايلون على بقية المقامات .  </t>
+  </si>
+  <si>
+    <t>العود هي آلة موسيقية شرقية وترية تاريخها موغل بالقدم يرجعه البعض إلى نوح . و تعني كلمة العود في اللغة العربية الخشب . فالعود من الآلات الوترية العربية له خمسة أوتار ثنائية أو و يمكن ربط وتر سادس إلى العود و يغطي مجاله الصوتي حوالي الأوكتافين و نصف الأوكتاف . الأدبيات الشرقيةالموسيقية كلها تظهر وتؤكد على استخدام نوع أو أكثر من الأعواد . يعتبر العود آلة رئيسية في التخت الموسيقي الشرقي, في التاريخ الحديث هناك أكثر من دولة عربية تدعي تفوقها في صناعة الأعواد ولكن بغداد لها السبق في ذلك ففي بغداد هناك أكثر من حرفي يفوم بصنعها, وبذلك غدا العود العراقي ذا سمعة عالمية جعلت كبار الملحنين والمطربين في العالم العربي يفضلونه على غيره, ومن أحد صناع العود المحدثين في العراق سمير رشيد العواد الذي يتسابق الفنانون العرب للحصول على أحد الأعواد من صنعه, مثل المطرب الكويتي نبيل شعيل ، والمطرب اللبناني الكبير وديع الصافي والمطرب العراقي المشهور كاظم الساهر والمطرب مهند محسن والمطرب ياس خضر والموسيقار منير بشي ر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العود هي آلة موسيقية شرقية وترية تاريخها موغل بالقدم يرجعه البعض الى نوح . الادبيات الشرقيةالموسيقية كلها تظهر وتؤكد على استخدام نوع او اكثر من الاعواد .  </t>
+  </si>
+  <si>
+    <t>نجيب محفوظ هو نجيب محفوظ بن عبد العزيز بن إبراهيم بن أحمد باشا . اسمه المفرد مركب من اسمين تقديراً من والده للطبيب الراحل نجيب محفوظ الذى أشرف على ولادته . روائي مصري حائز على جائزة نوبل في الآداب عام 1988م . ولد في القاهرة، وحصل على ليسانس الآداب قسم الفلسفة من جامعة القاهرة وتدرج بالوظائف الحكومية حتى عمل مديرا عاما للرقابة على المصنفات الفنية عام 1959م . تعرض محفوظ للهجوم و المنع من قبل بعض الإسلاميين المتطرفين الذين رأوا في كتاباته مساسا بالشخصيات الدينية، خصوصا بسبب روايته أولاد حارتنا التي منعت من الطبع في مصر حتى نهاية عام 2006، حيث يستخدم محفوظ الرموز الشعبية ليقدم شخصيات الانبياء . وتعرض إلى محاولة اغتيال فاشلة عام 1994 . بدأ نجيب محفوظ بكتابة الرواية التاريخية ثم الرواية الأجتماعية . وتزيد مؤلفاته على 50 مؤلفاً . ترجمت معظم أعماله إلى العديد من اللغات العالمية وحصل على جائزة الدولة التشجيعية في الروايةعام 1959 . أتم دراسته الإبتدائية والثانوية و عمره 18 سنة . وقد التحق بالجامعة سنة 1930م ثم حصل على الليسانس في الفلسفة . يعد نجيب محفوظ من الادباء العباقرة في مجال الرواية وقد وهب حياته كلها لهذا العمل، كما انه يتميز بالقدرة الكبيرة على التفاعل مع القضايا المحيطة به، واعادة انتاجها على شكل ادب يربط الناس بما يحصل في المراحل العامة التي عاشتها مصر . يتميز اسلوب محفوظ بالبساطة، والقرب من الناس كلهم، لذلك اصبح بحق الروائي العربي الاكثر شعبية . رغم إن نجيب قد انخرط في عدة أعمال إلا أن العمل الذي التهم حياته هو الكتابة . فقد كتب في مجلة الرسالة قصصا صغيرة و من أشهر أساتذتة سلامة موسى بالاضافة إلى ذلك فقد شرع نجيب محفوظ في اعداد رسالة المجاستير تحت اشراف استاذه الشيخ مصطفى عبد الرازق وكانت في الفلسفة وموضوعها هو  الجمال في الفلسفة الإسلامية  بيد أن الأدب كان قد جرفه في طريقه .. وشعر محفوظ بالتمزق والتشتت بين الفلسفة التي يدرسها والأدب الذي يهواه وملك عليه لبه ؛ ثم انقذه من هذه الحيرة اتخاذه قرارا نهائيا بالاعتذار عن اكمال الرسالة ليتفرغ للأدب . وهذا ما حدث بالفعل . وقد ساعده استاذه سلامة موسى على نشر أولى رواياته وهي  عبث الأقدار . أما أول مجموعة قصصية نشرت له فكانت  همس الجنون  حيث انتقى بعضا من قصصه القصيرة , ونشرت في هذه المجموعة . وبعض هذه القصص التي كتبها في تلك الفترة  فترة الثلاثينيات والأربعينيات  اعدها للنشر في عام 2005 الأديب محمد جبريل في مجموعة تحت عنوان  فتوة العطوف . توفي في الثامنة وخمس دقائق من صباح الأربعاء 30 أغسطس 2006 م في مستشفى الشرطة بحي العجوزة وسط القاهرة وذكر مصدر طبي أن محفوظ توفي في وحدة العناية المركزة جراء قرحة نازفة بعدما أصيب بهبوط مفاجئ في ضغط الدم وفشل كلوي . وكان الروائي الشهير قد أدخل في يوليو 2005 المستشفى ذاته إثر سقوطه في الشارع وإصابته بجرح غائر في الرأس تطلب جراحة فورية . وظل نجيب محفوظ حتى أيامه الأخيرة حريصا على برنامجه اليومي في الالتقاء بأصدقائه في بعض فنادق القاهرة، حيث كانوا يقرؤون له عناوين الأخبار ويستمعون إلى تعليقاته على الأحداث .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسمه المفرد مركب من اسمين تقديراً من والده للطبيب الراحل نجيب محفوظ الذى اشرف على ولادته .  ولد في القاهرة، وحصل على ليسانس الآداب قسم الفلسفة من جامعة القاهرة وتدرج بالوظائف الحكومية حتى عمل مديرا عاما للرقابة على المصنفات الفنية عام 1959م .  تعرض محفوظ للهجوم و المنع من قبل بعض الاسلاميين المتطرفين الذين راوا في كتاباته مساسا بالشخصيات الدينية، خصوصا بسبب روايته اولاد حارتنا التي منعت من الطبع في مصر حتى نهاية عام 2006، حيث يستخدم محفوظ الرموز الشعبية ليقدم شخصيات الانبياء .  بدا نجيب محفوظ بكتابة الرواية التاريخية ثم الرواية الاجتماعية .  وبعض هذه القصص التي كتبها في تلك الفترة  فترة الثلاثينيات والاربعينيات  اعدها للنشر في عام 2005 الاديب محمد جبريل في مجموعة تحت عنوان  فتوة العطوف . توفي في الثامنة وخمس دقائق من صباح الاربعاء 30 اغسطس 2006 م في مستشفى الشرطة بحي العجوزة وسط القاهرة وذكر مصدر طبي ان محفوظ توفي في وحدة العناية المركزة جراء قرحة نازفة بعدما اصيب بهبوط مفاجئ في ضغط الدم وفشل كلوي .  </t>
+  </si>
+  <si>
+    <t>فيروز اسمها الأصلي نهاد وديع حداد، مطربة لبنانية تعد من أشهر الفنانين العرب على قيد الحياة . شكلت مع زوجها الراحل عاصي الرحباني وأخوه منصور الرحبانيالمعروفين بالأخوين رحباني ثورة في عالم الموسيقى والغناء العربي . كانت انطلاقتها عام 1952 م عندما بدأت الغناء لعاصي الرحباني، وكانت الأغاني التي غنّتها لعاصي في ذلك الوقت تملأ كافة القنوات الإذاعية، وأصبحت مطربة كبيرة في العالم العربي منذ ذلك الوقت . كانت أغلب أغانيها آنذك للأخوين عاصي ومنصور الرحباني الذين يشار لهما دائما بالأخوين رحباني . وفي 1955م تزوجت فيروز من عاصي الرحباني، وأنجبت منه زياد عام 1956 ثم هالي وهو مقعد وانجبته عام 1958 ثم ليال عام 1960 واخيرا ريما عام 1965 . قدم الأخوين رحباني مع فيروز المئات من الأغاني التي أحدثت ثورة في الموسيقى العربية، لتميزها بقصر المدة وقوة المعنى على عكس الأغاني العربية السائدة في ذلك الحين والتي كانت تمتاز بالطول وبساطة التعبير وعمق الفكرة الموسيقية وتنوع المواضيع، حيث غنت فيروز الحب والأطفال، الحزن والفرح، الوطن، الأم . وقدّم عدد كبير من هذه الأغاني ضمن مجموعة مسرحيات من تأليف وتلحين الأخوين رحباني وصل عددها إلى اثنتي عشر مسرحية . تنوعت مواضيعها بين نقد الحاكم والشعب وتمجيد البطولة والحب بشتى أنواعه . غنت فيروز لعديد من الشعراء والملحنين، وأمام العديد من الملوك والرؤساء، وفي أغلب المهرجانات الكبرى في العالم العربي . وأطلق عليها عدة ألقاب منها سفيرتنا إلى النجوم للدلالة على رقي صوتها وتميزه . بعد وفاة زوجها عاصي عام 1986، خاضت تجارب عديدة مع مجموعة ملحنين ومؤلفين من أبرزهم فلمون وهبة و زكي ناصيف، لكنها عملت بشكل رئيسي مع ابنها زياد الرحباني الذي قدم لها مجموعة كبيرة من الأغاني أبرزت موهبته وقدرته على خلق نمط موسيقي خاص به يستقي من الموسيقا العربية والموسيقا العالمية، وما زالت مسيرة الفنانين مستمرة بنجاح حتى يومنا هذا . تجلت هذه المرحلة بالعديد من الألبومات من أبرزها كيفك انت، فيروز في بيت الدين 2000 والذي كان تسجيلاً حياً من مجموعة حفلات أقامتها فيروز بمصاحبة ابنها زياد وأوركسترا تضم عازفين أرمن وسوريين ولبنانيين، وكانت البداية لسلسلة حفلات حظيت بنجاح منقطع النظير لما قدمته من جديد على صعيد التوزيع الموسيقي والتنوع في الأغاني بين القديمة والحديثة ، ألبوم ولا كيف عام 2001 كان آخر ما قدمته فيروز من تسجيل، وجميع عشاقها في انتظار ألبوم جديد طال الحديث عنه، ومن المرجح أن تأخره عائد إلى الأوضاع الحرجه في لبنان في الآونة الأخيرة .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيروز اسمها الاصلي نهاد وديع حداد، مطربة لبنانية تعد من اشهر الفنانين العرب على قيد الحياة .  شكلت مع زوجها الراحل عاصي الرحباني واخوه منصور الرحبانيالمعروفين بالاخوين رحباني ثورة في عالم الموسيقى والغناء العربي . كانت انطلاقتها عام 1952 م عندما بدات الغناء لعاصي الرحباني، وكانت الاغاني التي غنّتها لعاصي في ذلك الوقت تملا كافة القنوات الاذاعية، واصبحت مطربة كبيرة في العالم العربي منذ ذلك الوقت .  كانت اغلب اغانيها آنذك للاخوين عاصي ومنصور الرحباني الذين يشار لهما دائما بالاخوين رحباني . غنت فيروز لعديد من الشعراء والملحنين، وامام العديد من الملوك والرؤساء، وفي اغلب المهرجانات الكبرى في العالم العربي . قدم الاخوين رحباني مع فيروز المئات من الاغاني التي احدثت ثورة في الموسيقى العربية، لتميزها بقصر المدة وقوة المعنى على عكس الاغاني العربية السائدة في ذلك الحين والتي كانت تمتاز بالطول وبساطة التعبير وعمق الفكرة الموسيقية وتنوع المواضيع، حيث غنت فيروز الحب .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوتشانو بافاروتي مواليد مودينا في 12 أكتوبر 1935 -توفي بمودينا في 6 سبتمبر 2007، مغني تينور إيطالي، يعد من أشهر فنانين الأوبرا في الطبقة العالية من الرجال في عصرنا الحاضر، وأحد التينور الثلاثة وقد ولد في مدينة مودينا . ولد في بمدينة مودينا شمال إيطاليا لعائلة خباز، بعد أن تخلى عن حلمه بأن يصبح حارس مرمى كرة قدم محترف،ثم قضاء سبعة سنوات في التدريب الصوتى، بدأ بافاروتي حياته كتينور في إيطاليا عام 1961، ثم بدأ الغناء في دور الأوبرا فيهولندا و فيينا ولندنوأنقرةوبودابستوبرشلونة . وقد اكتسب التينور الشاب حينها الخبرة القيمة بالإضافة إلى التقدير الواضح . وفى أثناء عروضه للولايات المتحدة على دعوة من السوبرانوساثرلاندعام 1965 زاع صيته وثبت أقدامه على الساحة العالمية بين عامى 1966 و1972 حيث أدى في أكبر دور الأوبرا في العالم مثل La Scalaفى ميلان . بحلول منتصف السبعينيات، صار بافاروتي مشهورا في جميع أنحاء العالم بتميز وروعة صوته خاصة الطبقات العليا . وبين عامى 1970 و1980 كان بافاروتي قد اثبت نفسه كأحد أعظم مطربي التينور بعروضه المتعددة في أكبر دور الأوبرا في العالم . كما زاع صيته خارج نطاق جمهور الأوبرا كنجم غنائي في عام كأس العالم بإيطاليا خاصة بعد أدائه الرائعة لأريا Nessun Dormaمن أوبراTurandot كأحد التينور الثلاثة في حفلهم الأول عشية نهائي كأس العالم، غنى فيها بافاروتي مع نجمي التينور بلاسيدو دومينجو وخوسيه كاريراس ومعا حققوا شهرة طاغية ونجاحا عظيما في جميع أنحاء العالم . السنوات التالية لاقت تقلصا في عدد أدائه للأوبرات على المسرح بسبب الزيادة المفرطة في وزنه وكان أخر أداء في أوبرا له في مارس عام 2004 في Mets . وفى الأوليمبيات الشتوية في تورينو Turinعام 2006 شاهدته إيطاليا والعالم يغنى للمرة الأخيرة حيث غنى بافاروتي Nessun Dorma وأدت الجموع الكبيرة دور الكورال المصاحب، في أداء مهيب مؤثر . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوتشانو بافاروتي مواليد مودينا في 12 اكتوبر 1935 -توفي بمودينا في 6 سبتمبر 2007، مغني تينور ايطالي، يعد من اشهر فنانين الاوبرا في الطبقة العالية من الرجال في عصرنا الحاضر، واحد التينور الثلاثة وقد ولد في مدينة مودينا .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعرف الرياضيات بأنها دراسة القياس و الحساب ؛ هذا بالإضافة إلى المفاهيم الحديثة نسبيا و منها البنية ، الفضاء أو الفراغ ، و التغير و الابعاد . و بشكل عام قد يعرفها البعض على أنها دراسة البنى المجردة باستخدام المنطق و البراهين الرياضية و التدوين الرياضي . و بشكل أكثر عمومية، قد تعرف الرياضيات أيضا على انها دراسة الأعداد و أنماطها . 
+و لقد نشأت الرياضيات بقيام الإنسان بقياس ما يشاهده من ظواهر الطبيعة بناء على فطرة و خاصية في الإنسان ألا و هى اهتمامه بقياس كل ما حوله إلى جانب إحتياجاته العملية فهكذا كان هناك ضرورة لقياس قسمة المقوتة (الطعام) بين أفراد العائلة و قياس الوقت و الفصول و المحاصيل الزراعية تقسيم الأراضى و غنائم الحملات الحربية و المحاسبة للتمكن من الإتجار إلى جانب علم الملاحة بالنجوم في السفر و الترحال للتجارة و الإستكشاف و القياسات اللازمة لتشييد الأبنية و المدن . 
+و هكذا فإن البنى الرياضية التي يدرسها الرياضيون غالبا ما يعود اصلها إلى العلوم الطبيعية، و خاصة علم الطبيعة، ولكن الرياضيين يقومون بتعريف و دراسة بنى اخرى لاغراض رياضية بحتة، لان هذه البنى قد توفر تعميما لحقول اخرى من الرياضيات مثلا، او ان تكون عاملا مساعدا في حسابات معينة، و اخيرا فان الرياضيين قد يدرسون حقولا معينة من الرياضيات لتحمسهم لها، معتبرين ان الرياضيات هي فن و ليس علما تطبيقيا . 
+كان الكتبة البابليون منذ أكثر من 3000 عام يمارسون كتابة الأعداد وحساب الفوائد ولاسيما في الأعمال التجارية ببابل . وكانت الأعداد والعمليات الحسابية تدون فوق ألواح الصلصال بقلم من البوص المدبب . ثم توضع في الفرن لتجف . وكانوا يعرفون الجمع والضرب والطرح والقسمة . ولم يكونوا يستخدمون فيها النظام العشري المتبع حاليا مما زادها صعوبة حيث كانوا يتبعون النظام الستيني الذي يتكون من 60 رمزا للدلالة علي الأعداد من 1-60 . وطور قدماء المصريين هذا النظام في مسح الأراضي بعد كل فيضان لتقدير الضرائب . كما كانوا يتبعون النظام العشري وهو العد بالآحاد والعشرات والمئات . لكنهم لم يعرفوا الصفر . لهذا كانوا يكتبون 600بوضع 6رموز يعبر كل رمز على 100 . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعرف الرياضيات بانها دراسة القياس و الحساب ؛ هذا بالاضافة الى المفاهيم الحديثة نسبيا و منها البنية ، الفضاء او الفراغ ، و التغير و الابعاد .  و بشكل عام قد يعرفها البعض على انها دراسة البنى المجردة باستخدام المنطق و البراهين الرياضية و التدوين الرياضي .  </t>
+  </si>
+  <si>
+    <t>الفيزياء لفظ اشتق من اليونانية فيزيكوس اي طبيعي، والكلمة مشتقة من الجذر فيزيس اي طبيعة . الفيزياء هو علم الطبيعة ، فبدءا من الكوارك البالغ الصغر إلى الكون العظيم الممتد ، تحاول الفيزياء صياغة قوانين رياضية تحكم هذا العالم المادي الطبيعي و سبر أغوار تركيب المادة و مكوناتها الأساسية ، و القوى الأساسية التي تتبادلها الجسيمات و الأجسام المادية ، إضافة إلى نتائج هذه القوى . أحيانا في الفيزياء الحديثة تضاف لهذه المجالات دراسة قوانين التناظر و الانحفاظ ، مثل قوانين حفظ الطاقة و الزخم و الشحنة الكهربائية . و لأجل هذا يدرس الفيزيائيون مجالا واسعا من الظواهر الفيزيائية تمتد من المجالات الصغيرة المدى إلى المجالات الواسعة المدى ، و من الجسيمات تحت-ذرية التي تتكون منها جميع المادة الباريونية فيزياء الجسيمات إلى درساة سلوك الأجسام الفيزيائية في العالم الكلاسيكي إلى دراسة حركة النجوم في الفضاء المادي سواء ضمن السرعات العادية أو قريبا من سرعة الضوء و أخيرا دراسة الكون بمجمله . 
+الفيزياء هو علم الطبيعة، تفصيلاً؛ هو فرع من العلوم والذي يهتم باستكشاف وتشخيص القوانين الكونية التي تتحكم في طبيعة المادة و الطاقة والفراغ والزمن . الإستكشافات في الفيزياء لها صدي كبير وتأثير بالغ في العلوم الطبيعية، والفيزياء وصفها العلماء بأنها العلم الأساسي وذلك لأن مجالات العلوم الأخري مثل الكيمياء و علم الأحياء تقوم بتشخيص أنظمة مادية تعتمد خواصها علي قوانين الفيزياء . 
+الفيزياء كعلم تميزت عن الفلسفة الطبيعية مع بداية الثورة العلمية خلال القرنين السادس عشر و السابع عشر، وظلت هكذا حتي أشرق فجر الفيزياء الحديثة مع بداية القرن العشرين . استمر المجال في التوسع بسبب مجموعة متنامية من البحوث التي أدت ألي استكشافات ثورية مثل وضع النموذج المثالي لحركة الجسيمات الرئيسية أي النواة وما حولها من الإليكترونات، وكذلك وضع بحث لتاريخ الكون بالتفصيل، حتي وصلت إلى الطاقة النووية وأشباه الموصلات اللتين أحدثتا ثورة عظيمة في عالم التكنولوجيا . 
+أما الآن في هذه البحوث تجري لإحداث تقدم في مجالات التوصيل الفائق الحوسبة الكمومية وذلك في حالة الدرجات العالية . بناءا علي الملاحظة والتجربة والنظريات العميقة بعيدة المدي فإن الفيزياء قدمت العديد من الإسهامات في مجال العلوم و التكنولوجيا والفلسفة .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفيزياء لفظ اشتق من اليونانية فيزيكوس اي طبيعي، والكلمة مشتقة من الجذر فيزيس اي طبيعة .  و لاجل هذا يدرس الفيزيائيون مجالا واسعا من الظواهر الفيزيائية تمتد من المجالات الصغيرة المدى الى المجالات الواسعة المدى ، و من الجسيمات تحت-ذرية التي تتكون منها جميع المادة الباريونية فيزياء الجسيمات الى درساة سلوك الاجسام الفيزيائية في العالم الكلاسيكي . الفيزياء كعلم تميزت عن الفلسفة الطبيعية مع بداية الثورة العلمية خلال القرنين السادس عشر و السابع عشر، وظلت هكذا حتي اشرق فجر الفيزياء الحديثة مع بداية القرن العشرين .  </t>
+  </si>
+  <si>
+    <t>علم الاحياء أو البيولوجيا من اليونانية،  Biosتعني الحياة و Logos تعني المقالة أو الدراسة هو علم دراسة الحياة  
+و الكائنات الحية من حيث بنيتها، و طبيعتها، و صفاتها، و أنواعها، و القوانين التي تحكم طرق عيشها و تطورها و تفاعلها  
+مع وسطها الطبيعي . 
+و علم الاحياء واسع جدا و ينقسم لعدة فروع من أهمها علم الكائنات المجهرية و علم الحيوان و علم النبات و كذلك علم  
+وضائف الاعضاء و الكيمياء الحيوية و علم البيئة . و مع ترقي هذا العلم، منذ القرن التاسع عشر، صار ذات صلات وثيقة  
+بالعلوم أخرى، النظرية منها و التطبيقية، مثل الطب و الصيدلة و مجالات تقنية أخرى تلبي إحتياجات الإنسان الضرورية  
+والمستمرة . و هكذا صرنا اليوم لا نتحدث عن علم بل علوم الحياة . 
+يتعامل علم الأحياء مع دراسة كافة أشكال الحياة . حيث يهتم بخصائص المتعضيات الحية و تصنيفها و سلوكها ، كما يدرس  
+كيفية ظهور هذه الأنواع إلى الوجود و العلاقات المتبادلة بين بعضها البعض و بينها و بين بيئتها . لذلك فإن علم الأحياء  
+يحتضن داخله العديد من التخصصات و الفروع العلمية المستقلة . لكنها جميعا تجتمع في علاقتها بالكائنات الحية ظاهرة  
+الحياة على مجال واسع من الأنواع و الحجام تبدا بدراسة الفيروسات و الجراثيم ثم النباتات و الحيوانات ، في حين تختص  
+فروع اخرى بدراسة العمليات الحيوية ضمن الخلية مثل الكيمياء الحيوية إلى فروع دراسة العلاقات بين الحياء و البيئة في  
+علم البيئة . 
+على مستوى العضوية ، تأخذ البيولوجيا على عاتقها دراسة ظواهر مثل الولادة ، النمو ، الشيخوخة aging ، الموت  
+ death و تفسخ الكائات الحية ، ناهيك عن التشابهات بين الأجيال offspring و آبائهم وراثة  
+ heredity  كما يدرس أيضا ازهرار النباتات و غيرها من الظواهر حيرت الإنسانية خلال التاريخ . 
+ظواره أخرى مثل إفراز الحليب lactation ، metamorphosis ، وضع البيض ، تشافي  
+healing ، الانتحاء Tropism . ضمن مجال أوسع من الوقت و المكان ، يدرس علماء الأحياء تهجين  
+الحيوانات و النباتات ، إضافة للتنوع الهائل في الحياة النباتية و الحيوانية التنوع الحيوي biodiversity ,  
+التغير في العضويات الحية عبر الزمن التطور , الانقراض ، ظهور الأنواع Speciation ، السلوك الاجتماعي  
+بين الحيوانات . 
+يبرز ضمن علم الأحياء علم النبات الذي يختص بدراسة النباتات في حين يختص علم الحيوان بدراسة الحيوانات أما  
+الأنثروبولوجيا فيختص بدرساة الكائن البشري . أما على المستوى الجزيئي ، فتدرس الحياة ضمن علم الأحياء الجزيئي ، و  
+الكيمياء الحيوية و علم الوراثة الجزيئي . أما على المستوى التالي و هو الخلية فهو يدرس في علم الأحياء الخلوي . عند  
+الانتقال لمستوى عديدات الخلايا multicellular ، يظهر لدينا علوم مثل الفيزيولوجيا و التشريح و علم  
+النسج . أما علم أحياء النمو Developmental biology فهو يدرس الحياة في مستوى تطور و نمو  
+الكائنات الحية المفردة أو ما يدعى ontogeny . أما عندما نتقل إلى أكثر من عضوية واحدة ، يبرز علم الوراثة  
+الذي يدرس كيق تعمل مباديء الوراثة heredity بين الآباءو الأنسال . يدرس علم الإيثولوجيا  
+ Ethology سلوك المجموعات الحيوانية . أما علم الوراثة المجموعي Population  
+ genetics فيأخذ بعين الاعتبار كامل و مجمل المجموعة السكانية population أما النظاميات فتدرس  
+مجالا متعدد الأنواع من الذراري lineage أنواع من أصل مشترك . المجموعات الحيوية المترابطة بعلاقات و  
+مواطنها تدرس في إطار علم البيئة و علم الأحياء التطوري evolutionary biology . أحد أحدث  
+العلوم البيولوجية حاليا هو علم الأحياء الفلكي astrobiology أو xenobiology الذي يدرس  
+إمكانية وجود حياة خارج كوكب الأرض .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علم الاحياء او البيولوجيا من اليونانية،  Biosتعني الحياة و Logos تعني المقالة او الدراسة هو علم دراسة الحياة  و الكائنات الحية من حيث بنيتها، و طبيعتها، و صفاتها، و انواعها، و القوانين التي تحكم طرق عيشها و تطورها و تفاعلها  مع وسطها الطبيعي . و علم الاحياء واسع جدا و ينقسم لعدة فروع من اهمها علم الكائنات المجهرية و علم الحيوان و علم النبات و كذلك علم  وضائف الاعضاء و الكيمياء الحيوية و علم البيئة .  و مع ترقي هذا العلم، منذ القرن التاسع عشر، صار ذات صلات وثيقة  بالعلوم اخرى، النظرية منها و التطبيقية، مثل الطب و الصيدلة و مجالات تقنية اخرى تلبي احتياجات الانسان الضرورية  والمستمرة .  لكنها جميعا تجتمع في علاقتها بالكائنات الحية ظاهرة  الحياة على مجال واسع من الانواع و الحجام تبدا بدراسة الفيروسات و الجراثيم ثم النباتات و الحيوانات ، في حين تختص  فروع اخرى بدراسة العمليات الحيوية ضمن الخلية مثل الكيمياء الحيوية الى فروع دراسة العلاقات .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيمياء هى في الأصل كلمة عربية مثل السيمياء، مأخوذة من الكمي وهو الشجاع، و المتكمي في سلاحه أي المتغطي المتستر بالدرع والبيضة، وسُمِيت كذلك لأن الكيمياءيين القدماء كانوا يحتفظون بمعلوماتهم سرية عن الآخرين، وتعنى كمصطلح  العلم الذى يدرس المادة وتفاعلاتها وعلاقاتها بالطاقة . ونظرا لتعدد وإختلاف حالات المادة, والتى عادة ما تكون في شكل ذرات, فإن الكيميائين غالبا ما يقوموا بدراسة كيفية تفاعل الذرات لتكوين الجزيئات وكيفية تفاعل الجزيئات مع بعضها البعض . 
+والكيمياء هو علم يدرس العناصر الكيميائية والمواد الكيميائية و التركيب والخواص والبناء والتحولات المتبادلة فيما بينها اي التفاعلات الكيميائية . 
+حاول الإنسان عبر العصور أن يبحث في طبيعة العالم الذي حوله، وذلك بدافع غريزة حب المعرفة،ومن خلال ذلك، تم الكثير من الاكتشافات المهمة التي ساعدت على تطوير العلوم والتكنولوجيا ومن ضمنها علم الكيمياء وهو علم يعنى بطبيعة المادة ومكوناتها، وكذلك بكيفية تفاعل المواد المختلفة مع بعضها بعضاً، وعلى هذا تكون وظيفة العالم الكيميائي الأساسية هي معرفة أكبر قدر ممكن من المعلومات عن طبيعة المادة التي أوجدها الله في هذا الكون . 
+بدايات علم الكيمياء . تعود بدايات علم الكيمياء إلى زمن موغل في القدم، فلقد أختلف في مكان نشأته، قيل أن بداياته كانت في القرن الثالث قبل الميلاد، كما أن الحضارات القديمة التي سادة كلاً من الصين والهند كانت تعتبر المعالجة الكيميائية من بين ما يتقنونه مهارة وحذقاً وأن هذه المعرفة والبراعة انتشرتا غربا إلى إمبراطوريتي فارس ومصر القديمة حيث كان دبغ الجلود وصناعة الأصباغ ومستحضرات التجميل من بين الفنون التي مارسها المصريون، وتعتبر الإسكندرية المركز الأول للكيمياء القديمة حيث تأثرت بفلسفة الإغريق بعد قيام الإسكندر الأكبر بفتح مصر ، حيث جذب إليها الكثير من الإغريق فارتبطت مهارة المصريين مع نظريات الإغريق مما أدى إلى ظهور أولئك الذين يمارسون الكيمياء، ونسب إليها أنها موطن البحث لهذا العلم الذي يحيل المعادن العادية إلى معادن ثمينة ويعيد الشباب إلى الإنسان، وتزامن مع ظهور الكيمياء القديمة ظهور التنجيم واختلط بها السحر كما سيطرت الرمزية على هذه الكيمياء في العصور الوسطى وأغرقها الغموض . 
+مساهمة العرب في تطوير الكيمياء . عندما فتح العرب مصر سنة ولا ريب أن أولئك الفاتحين أسهموا بقدرٍ موفور في تطوير الكيمياء، حيث يعتبرون أول من اشتغل بالكيمياء كعلم له قواعده وقوانينه، وذلك منذ القرن الثاني الهجري، وطبقوا إنتاجهم في الصيدلية بصفة خاصة . وما زال الإلتحام بين شتى المفاهيم لعلوم الكيمياء القديمة ينم عن اللفظ العربي نفسه مثل ألوخيمياء وهو الشكل الإغريقي الذي يطلق على مصر . كذلك أصل كلمة كحول وهو عربي بمعنى غول وغرّبت هذه الكلمة أو حولت على اللغة الغربية بهذه الصفة . و استمرت أصول الكيمياء العربية مرجعاً للغرب إبان القرون الوسطى وانتقلت ترجمات أعمالهم إلى أوروبا في القرن الثاني عشر الميلادي والتي اشتهرت بعد أن وصل الفتح العربي إلى الأندلس سنة711م يحمل معه المعارف العربية . وفي الجامعات العربية ببرشلونة وطليطلة تعلم طالبوا العلم من جميع أنحاء أوروبا فن الكيمياء . 
+الكيمياء الحديثة . يرجع تاريخ الكيمياء الحديثة إلى القرن السابع عشر الميلادي بأبحاث بويل الذي قسم الأجسام إلى مواد أولية عناصر ومركبات و مخاليط و تلت أبحاث بلاك، ولافوازيية عن الاحتراق والتأكسد ثم برتلي الذي اكتشف الأكسجين في الهواء ، ثم كافندش الذي اكتشف تكوين الماء ثم  دالتون الذي وضع النظرية الذرية عن تكون المادة وتعرّف الكيمياء الحديثة بأنها علم طبيعي في تكوين المادة والتغييرات التي تحدث فيها تحت تغييرات مختلفة تفقد الجسم مظهره الخاص وصفاته التي يتميز بها، إذ تتبدل مادته بأخرى ذات خواص وصفات جديدة وتوصف مظاهر المواد وسلوكها بالخواص الكيميائية، أي تعرّف بذلك وتبين تلك الخواص الكيميائية إبان التفاعلات بالمعادلات . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيمياء هى في الاصل كلمة عربية مثل السيمياء، ماخوذة من الكمي وهو الشجاع، و المتكمي في سلاحه اي المتغطي المتستر بالدرع والبيضة، وسُمِيت كذلك لان الكيمياءيين القدماء كانوا يحتفظون بمعلوماتهم سرية عن الآخرين، وتعنى كمصطلح  العلم الذى يدرس المادة وتفاعلاتها وع .  ونظرا لتعدد واختلاف حالات المادة, والتى عادة ما تكون في شكل ذرات, فان الكيميائين غالبا ما يقوموا بدراسة كيفية تفاعل الذرات لتكوين الجزيئات وكيفية تفاعل الجزيئات مع بعضها البعض . والكيمياء هو علم يدرس العناصر الكيميائية والمواد الكيميائية و التركيب والخواص والبناء والتحولات المتبادلة فيما بينها اي التفاعلات الكيميائية . حاول الانسان عبر العصور ان يبحث في طبيعة العالم الذي حوله، وذلك بدافع غريزة حب المعرفة،ومن خلال ذلك، تم الكثير من الاكتشافات المهمة التي ساعدت على تطوير العلوم والتكنولوجيا ومن ضمنها علم الكيمياء وهو علم يعنى بطبيعة المادة ومكوناتها، وكذلك بكيفية تفاعل ال .  </t>
+  </si>
+  <si>
+    <t>السحابة أو الغيمة عبارة عن تجمع مرئي لجزيئات دقيقة من الماء أو الجليد أو كليهما معا يتراوح قطرها ما بين 1 إلى 100 ميكرون تبدو سابحة في الجو على ارتفاعات مختلفة كما تبدو بأشكال وأحجام وألوان متباينة، كما تحتوي على بخار الماء والغبار وكمية هائلة من الهواء الجاف ومواد سائلة أخرى وجزيئات صلبة منبعثة من الغازات الصناعية . 
+تعتبر السحب عبارة عن شكل من أشكال الرطوبة الجوية التي يمكن رؤيتها بالعين المجرّدة، حيث أنّ الشمس، التي تعتبر المحرك الأساسي لدورة الماء، تقوم بتسخين المحيطات التي تحوّل جزءاً من مياهها من حالتها السائلة إلى بخار، فتقوم التيارات الهوائية المتصاعدة بأخذ بخار الماء إلى داخل الغلاف الجوي (حيث درجات الحرارة المنخفضة) فيتكاثف الهواء المشبّع ببخار الماء مكونا بذلك جزيائات الماء السائلة أو المتجمدة فتمتزج بذرات الغبار مشكلة بذلك السحب . بما أن درجة كثافة السحب هي من 10 إلى 100 مرة أقل من درجة كثافة الهواء فإنّها تطفوا في السماء، أما ما يفسر تحرك السحب عبر الرياح هو الحركة الدائمة لجزيئات الهواء التي تدفع كل الكتل التي تحتك بها بما في ذلك السحب . 
+تنقسم السحب حسب ارتفاعها إلى 3 أقسام: السحب عالية الارتفاع، السحب متوسطة الارتفاع والسحب منخفضة الارتفاع . تنقسم كل مجموعة من المجموعات الثلاثة إلى عدة أنواع .</t>
+  </si>
+  <si>
+    <t>السحابة أو الغيمة عبارة عن تجمع مرئي لجزيئات دقيقة من الماء أو الجليد أو كليهما معا يتراوح قطرها ما بين 1 إلى 100 ميكرون تبدو سابحة في الجو على ارتفاعات مختلفة كما تبدو بأشكال وأحجام وألوان متباينة، كما تحتوي على بخار الماء والغبار وكمية هائلة من الهواء الجاف ومواد سائلة أخرى وجزيئات صلبة منبعثة من الغازات الصناعية . 
+تعتبر السحب عبارة عن شكل من أشكال الرطوبة الجوية التي يمكن رؤيتها بالعين المجرّدة، حيث أنّ الشمس، التي تعتبر المحرك الأساسي لدورة الماء، تقوم بتسخين المحيطات التي تحوّل جزءاً من مياهها من حالتها السائلة إلى بخار، فتقوم التيارات الهوائية المتصاعدة بأخذ بخار الماء إلى داخل الغلاف الجوي (حيث درجات الحرارة المنخفضة) فيتكاثف الهواء المشبّع ببخار الماء مكونا بذلك جزيائات الماء السائلة أو المتجمدة فتمتزج بذرات الغبار مشكلة بذلك السحب .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البركان هو ذلك المكان الذي تخرج أو تنبعث منه المواد الصهيرية الحارة مع الأبخرة والغازات المصاحبة لها على عمق من والقشرة الأرضية ويحدث ذلك خلال فوهات أو شقوق . وتتراكم المواد المنصهرة أو تنساب حسب نوعها لتشكل أشكالا أرضية مختلفة منها التلال المخروطية أو الجبال البركانية العالية . 
+سجل التاريخ حدوث هزات أرضية قبل حدوث البراكين، حيث سبق حدوث انفجار هاواي نوعان من الهزات الأرضية نوع قريب من السطح لا يتعدى بعُد مركز الزلزال فيه عن 8 كيلومترات عن السطح، ونوع حدث على أعماق سحيقة على بعد 60 كيلومترا تحت سطح الأرض . وفي بعض الحالات سبقت الهزات انفجار البراكين بعدة سنوات ومثال تلك الهزات الأرضية التي استمرت 16 عاما قبل ثوران بركان فيزوف (79 ق . م) وكذلك الهزات الأرضية التي استمرت عدة سنوات قبل حدوث انفجار بركان كيلوا Kilau في هاواي . وفي هذا المجال قام (مركز رصد البراكين) في هاواي بعدة دراسات ميدانية حول هذه الظاهرة عام 1942 حيث سجل حدوث هزات أرضية عنيفة في مونالوا Maunaloa على أبعاد سحيقة من سطح الأرض تتراوح بين 40-50 كيلومترا . وفي 22 فبراير من تلك السنة حدثت هزات أرضية قريبة من السطح على جوانب الجبل في مناطق الشقوق فيه . كانت هذه الهزات إنذارا لحدوث ثورة البركان التي حصلت على جوانب الجبل على ارتفاع 2500-3000م، بتاريخ 26 أبريل 1942 . ولكن هل يمكن التنبؤ بصورة دقيقة بوقت حدوث النشاطات البركانية ؟ . 
+ومن الدراسات الحديثة في هذا المجال استخدامالأقمار الصناعية حيث يمكن بواسطتها استعمال جهاز قياس الميلTilt meter الذي يدلنا على تغير ميل التراكيب الجيولوجية نتيجة اندفاع الصهارة من اسفل إلى أعلى وحدوث تفلطح في المنطقة التي يبدأ يتكون فيها المخروط البركاني والذي تخرج منه الحمم . 
+إن الاهتمام العالمي بهذا الخصوص أدى إلى تأسيس معاهد تختص بدراسة الظواهر الفجائية مثل الإنفجارات البركانية ففي مدينة كامبردج في الولايات المتحدة معهد يضم نخبة من الباحثين وعلماء البراكين والجيولوجيا وتتصل به شبكات عالمية تزوده بالمعلومات حول الهزات الأرضية والثورانات البركانية وأي عوارض أخرى فجائية تحدث في القشرة الأرضية في أماكن مختلفة من العالم . ويتم مقارنة ودراسة هذه المعلومات أولا بأول للوصول إلى تصورات متكاملة حول هذا الموضوع . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البركان هو ذلك المكان الذي تخرج او تنبعث منه المواد الصهيرية الحارة مع الابخرة والغازات المصاحبة لها على عمق من والقشرة الارضية ويحدث ذلك خلال فوهات او شقوق . سجل التاريخ حدوث هزات ارضية قبل حدوث البراكين، حيث سبق حدوث انفجار هاواي نوعان من الهزات الارضية نوع قريب من السطح لا يتعدى بعُد مركز الزلزال فيه عن 8 كيلومترات عن السطح، ونوع حدث على اعماق سحيقة على بعد 60 كيلومترا تحت سطح الارض . م) وكذلك الهزات الارضية التي استمرت عدة سنوات قبل حدوث انفجار بركان كيلوا Kilau في هاواي .  وفي 22 فبراير من تلك السنة حدثت هزات ارضية قريبة من السطح على جوانب الجبل في مناطق الشقوق فيه .  ولكن هل يمكن التنبؤ بصورة دقيقة بوقت حدوث النشاطات البركانية ؟ . ان الاهتمام العالمي بهذا الخصوص ادى الى تاسيس معاهد تختص بدراسة الظواهر الفجائية مثل الانفجارات البركانية ففي مدينة كامبردج في الولايات المتحدة معهد يضم نخبة من الباحثين وعلماء البراكين والجيولوجيا وتتصل به شبكات عالمية تزوده بالمعلومات حول الهزات الارضية .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">العاصفة الثلجية عبارة عن عاصفة قاسية بصاحبها برد شديد ورياح قوية ويصاحبها سقوط للثلج . وهذه العواصف الثلجية توجد في شمال القارة الأمريكية الشمالية و سيبيريا و دول اسكندنافيا و غرينلاند . والرياح الشتوية الباردة تبدأ قي تكوينها من إسكندينافيا وشرق أوربا باتجاه الغرب لتصبح هذه المناطق باردة جدا طوال شهور الشتاء . وعندما تهب الرياح خارج القارة الأوربية تكون جافة جدا وباردة جدا ويصاحبها بعض السحب ويصاحبها هبوط ملحوظ في درجات الحرارة . لكن عندما تتجه الرياح ناحية شمال غرب ااجع الرياح فوق مساحة كبيرة وطويلة فوق بحر الشمال مصاحبة معها السحب التي تجعل الصقيع كحزم أن هذه السحب تعمل كبطانية تجعل درجة حرارة الجو ليلا أعلي . ففي هذه الحالة الصقيع يصعب التنبؤ به . والضباب في هذه المناق يصعب التنبؤ به لأنه يعتمد على وجود أو عدم وجود السحب . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العاصفة الثلجية عبارة عن عاصفة قاسية بصاحبها برد شديد ورياح قوية ويصاحبها سقوط للثلج .  وعندما تهب الرياح خارج القارة الاوربية تكون جافة جدا وباردة جدا ويصاحبها بعض السحب ويصاحبها هبوط ملحوظ في درجات الحرارة .  والضباب في هذه المناق يصعب التنبؤ به لانه يعتمد على وجود او عدم وجود السحب .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم حفر أول بئر للبترول في الصين في القرن الرابع الميلادي أوقبل ذلك . وكان يتم إحراق الزيت لتبخير الماء المالح لإنتاج الملح . وبحلول القرن العاشر، تم استخدام أنابيب الخيرزان لتوصيل الأنابيب لمنابع المياه المالحة . 
+في القرن الثامن الميلادي، كان يتم رصف الطرق الجديدة في بغداد باستخدام القار، الذي كان يتم إحضاره من من ترشحات البترول في هذه المنطقة . في القرن التاسع الميلادي، بدأت حقول البترول في باكو، أذربيجان بإنتاج البترول بطريقة اقتصادية لأول مرة . وكان يتم حفر هذه الحقول للحصول على النفط، وتم وصف ذلك بمعرفة الجغرافي ماسودي في القرن العاشر الميلادي، وأيضا ماركو بولو في القرن الثالث عشر الميلادي، الذي وصف البترول الخارج من هذه الآبار بقوله أنها مثل حمولة مئات السفن . شاهد أيضا الحضارة الإسلامية . ويبدأ التاريخ الحديث للبترول في عام 1853، باكتشاف عملية تقطير البترول . فقد تم تقطير البترول والحصول منه على الكيروسين بمعرفة إجناسى لوكاسفيز، وهو عالم بولندي . وكان أول منجم زيت صخري يتم إنشائه في بوربكا، بالقرب من كروسنو في جنوب بولندا، وفي العام التالي لذلك تم بناء أول معمل تكرير (في الحقيقة تقطير) في يولازوفايز، وكان أيضا عن طريق لوكاسفيز . وإنتشرت هذه الاكتشافات سريعا في العالم، وقام ميرزوف ببناء أول معمل تقطير في روسيا في حقل الزيت الطبيعي في باكو في عام 1861 بئر بترول في كاليفرونيا، 1938وبدأت صناعة البترول الأمريكية باكتشاف إيدوين دريك للزيت في عام 1859، بالقرب م تيتوسفيل - بنسلفانيا . وكان نمو هذه الصناعة بطيء نوعا ما في القرن الثامن عشر . الميلادي، وكانت محكومة بالمتطلبات المحدودة للكيروسين ومصابيح الزيت . وأصبحت مسألة إهتمام قومية في بدايات القرن العشرين، عند بداية استخدام محركات الإحتراق الداخلية مما أدى لزيادة طلب الصناعة بصفة عامة على البترول . وقد أستنفذت الاكتشافات الأولى في أمريكا في بنسفانيا وأونتاريو، مما أدى إلى "أزمة زيت" في تكساسا، أوكلاهوما، كاليفورنيا . وبالإضافة إلى ما تم ذكره، فإنه بحلول عام 1910 تم اكتشاف حقول بترول كبيرة في كندا، جزر الهند الشرقية، إيرانو فينزويلا، المكسيك، وتم تطويرهم لاستخدامهم صناعيا . وبالرغم من ذلك حتى في عام 1955 كان الفحم أشهر أنواع الوقود في العالم، وبدأ البترول أخذ مكانته بعد ذلك . وبعد أزمة طاقة 1973 و أزمة طاقة 1979 ركزت وسائل إعلام على تغطية مستويات إمدادات البترول . وقد أدى ذلك لإلقاء الضوء على أن البترول مادة محدودة ويمكن أن تنفذ، على الأقل كمصدر طاقة اقتصادي قابل للحياة . وفي الوقت الحالي، فإن أكثر التوقعات الشائعة مفزعة، وفي حالة عدم تحقق هذه التوقعات في وقتها، يتم تنحية هذه التوقعات تماما كطريقة لبث الاطمئنان، ومثال ذلك تنحية التوقعات المفزعة لمخزون البترول التي تمت في السبعينيات من القرن العشرين . ويظل مستقبل البترول كوقود محل جدل . وأفادت الأخبار بالولايات المتحدة (2004) أنه يوجد ما يعادل استخدام 40 سنة من البترول في باطن الأرض . وقد يجادل البعض لأن كمية البترول الموجودة محدودة . ويوجد جدل أخر بأن التقنيات الحديثة ستستمر في إنتاج الهيدروكربونات الرخيصة وأن الأرض تحتوي على مقدرا ضخم من البترول غير التقليدي، مخزون على هيئة رمل قطراني، حقول بيتيومين، زيت طفلي وهذا سيسمح باستمرار استخدام البترول لفترة كبيرة من الزمن . وحاليا فإنه تقريبا 90% من إحتياجات السيارات للوقود يتم الوفاء بها عن طريق البترول . ويشكل البترول تقريبا 40% من الاستهلاك الكلي للطاقة في الولايات المتحدة، ولكنه يشكل تقريبا 2% فقط في توليد الكهرباء . وقيمة البترول تكمن في إمكانية نقله، كمية الطاقة الكبيرة الموجودة فيه، والتي تكون مصدر لمعظم المركبات، وكمادة أساسية في لعديد من الصناعات الكيمياوية، مما يجعله من أهم البضائع في العالم . وكان الوصول للبترول سببا في كثير من التشابكات العسكرية، بما فيها الحرب العالمية الثانية حرب العراق وإيران . وتقريبا 80% من مخزون العالم للبترول يتواجدفي الشرق الأوسط، وتقريبا 62 . 5 % منه في الخمس دول: المملكة العربية السعودية، الإمارات العربية المتحدة، العراق، الكويت، إيران . بينما تمتلك أمريكا تقريبا 3% . للبترول تأثير ملحوظ على الناحية البيئية والإجتماعية، وذلك من الحوادث والنشاطات الروتينية التي تصاحب إنتاجه وتشغيله، مثل الإنفجارات الزلزالية أثناء إنتاجه، الحفر، تولد النفايات الملوثة . كما أن استخراج البترول عملية مكلفة وأحيانا ضارة بالبيئة، بالرغم من أن (جون هنت من وودز هول) أشار في عام 1981 إلى أن أكثر من 70% من الإحتياطي العالمي يصاحبه ترشحات كبيرة أي أنه لا يستلزم الإضرار بالبيئة لاستخراجه، وعديد من حقول البترول تم العثور على العديد منها نتيجة للتسريب الطبيعي . كما أن استخراج البترول بالقرب من الشواطيء يزعج الكائنات البحرية ويؤثر على بيئتها . كما أن استخراج البترول قد يتضمن الكسح، الذي يحرك قاع البحر، مما يقتل النباتات البحرية التي تحتاجها الكائنات البحرية للحياة . كما أن نفايات الزيت الخام والوقود المقطر التي تتناثر من حوادث ناقلات البترول أثرت على العلاقة التبادلية بين الكائنات الحية (بموت أحد هذه الكائنات) في ألاسكا، جزر جالاباجوس، أسبانيا، وعديد من الاماكن الأخرى . أحد الأرصفة البحرية لإنتاج البترولومثل أنواع الوقود الحفري الأخرى، يتسبب حرق البترول في إنبعاث ثاني أكسيد الكربون للغلاف الجوي، وهو ما يعتقد أنه يساهم في ظاهرة السخونة العالمية . وبوحدات الطاقة فإن البترول ينتج كميات CO 2 أقل من الفحم، ولكن أكثر من الغاز الطبيعي . ونظرا لدور البترول المتفرد في عمليات النقل، فإن تقليل إنبعاثات CO 2 تعتبر من المسائل الشائكه في استخدامه . وتجرى محاولات لتحسين هذه الإنبعثات عن طريق إحتجازها في المصانع الكبيرة . 
+البدائل هي مصادر الطاقة المتجددة وهي موجودة بالفعل، وإن كانت نسبة هذا الاستبدال لاتزال صغيرة . الشمس، الرياح والمصادر المتجددة الأخرى تأثرياتها على البيئة أقل من البترول . ويمكن لهذه المصادر استبدال البترول في الاستخدامات التي لا تتطلب كميات طاقة ضخمة، مثل السيارات، ويجب تصميم المعدات الاخرى لتعمل باستخدام الكهرباء (المخزونة في البطاريات)، أو الهيدروجين (عن طريق خلايا الوقود، أو الحتراق الداخلي) والذي يمكن إنتاجه من مصادر متجددة . كما أن هناك خيارات أخرى تتضمن استخدام الوقود السائل الذي له أصل حيوي (إيثانول، الديزل الحيوي) . وهناك توجه عالمي للترحيب بأي أفكار جديدة تساهم في استبدال البترول كوقود لعمليات النقل . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تم حفر اول بئر للبترول في الصين في القرن الرابع الميلادي اوقبل ذلك .  وكان اول منجم زيت صخري يتم انشائه في بوربكا، بالقرب من كروسنو في جنوب بولندا، وفي العام التالي لذلك تم بناء اول معمل تكرير (في الحقيقة تقطير) في يولازوفايز، وكان ايضا عن طريق لوكاسفيز .  الميلادي، وكانت محكومة بالمتطلبات المحدودة للكيروسين ومصابيح الزيت . وبالاضافة الى ما تم ذكره، فانه بحلول عام 1910 تم اكتشاف حقول بترول كبيرة في كندا، جزر الهند الشرقية، ايرانو فينزويلا، المكسيك، وتم تطويرهم لاستخدامهم صناعيا .  وقيمة البترول تكمن في امكانية نقله، كمية الطاقة الكبيرة الموجودة فيه، والتي تكون مصدر لمعظم المركبات، وكمادة اساسية في لعديد من الصناعات الكيمياوية، مما يجعله من اهم البضائع في العالم . للبترول تاثير ملحوظ على الناحية البيئية والاجتماعية، وذلك من الحوادث والنشاطات الروتينية التي تصاحب انتاجه وتشغيله، مثل الانفجارات الزلزالية اثناء انتاجه، الحفر، تولد النفايات الملوثة .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزلزال هو ظاهرة طبيعية عبارة عن اهتزاز أرضي سريع يعود إلى تكسر الصخور وإزاحتها بسبب تراكم اجهادات داخلية نتيجة لمؤثرات جيولوجية ينجم عنها تحرك الصفائح الأرضية . قد ينشأ الزلزال كنتيجة لأنشطة البراكين أو نتيجة لوجود انزلاقات في طبقات الأرض . تؤدي الزلازل إلى تشقق الأرض ونضوب الينابيع أو ظهور الينابيع الجديدة أو حدوث أمواج عالية إذا ما حصلت تحت سطح البحر ( تسونامي )فضلا عن آثارها التخريبية للمباني والمواصلات والمنشآت وغالبا ينتج عن حركات الحمل الحراري في الأستينوسفير والتي تحرك الصفائح القارية متسببة في حدوث هزات هي الزلازل . كما ان الزلازل قد تحدث خرابا كبيراو تحدد درجة الزلزال بماشر وتقيسه من 1 إلى 10:من 1 إلى4 زلازل قد لا تحدث اية اضرار اي يمكن الاحساس به فقط،من4 إلى 6 زلازل متوسطة الاضرار قد تحدث ضررا للمنازل و الاقامات،اما الدرجة القصوى اي من 7الى10 فيستطيع الزلزال تدمير المدينة باكملها وحفرها تحت اتلارض حتى تختفي مع اضرار لدى المدن المجاورة لها . زلزال لشبونة 1755 قتل فيه ما بين ال60 إلى 100 ألف نسمة و كان من أشد الزلازل تدميرا على مر التاريخ . من أشهر الزلازل . زلزال سان فرانسيسكو 1906 قتل فيه ما يقارب ال3 الألاف شخص و بلغت خسائره حوالي 400 مليون دولار و كان من أشد الزلازل التي ضربت كاليفورنيا . زلزال غوجرات غرب الهند 26 يناير 2001 . زلزال بم في إيران حيث قتل حوالي 40 الف شخص فيه . زلزال المحيط الهندي 26 ديسمبر 2004 الذي أعقبه أشهر موجة تسونامي حيث ضربت سواحل العديد من الدول منها اندونيسيا، سريلانكا ، تايلاند ، الهند ، الصومال و غيرها حيث وصفت هذا الزلزال بأنه أحد أسوأ الكوارث الطبيعية التي ضربت الأرض على الأطلاق قتل فيه ما يقارب ال250000 . 
+زلزال كشمير 2005 قتل فيه حوالي 79 ألف شخص . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزلزال هو ظاهرة طبيعية عبارة عن اهتزاز ارضي سريع يعود الى تكسر الصخور وازاحتها بسبب تراكم اجهادات داخلية نتيجة لمؤثرات جيولوجية ينجم عنها تحرك الصفائح الارضية .  قد ينشا الزلزال كنتيجة لانشطة البراكين او نتيجة لوجود انزلاقات في طبقات الارض . تؤدي الزلازل الى تشقق الارض ونضوب الينابيع او ظهور الينابيع الجديدة او حدوث امواج عالية اذا ما حصلت تحت سطح البحر ( تسونامي )فضلا عن آثارها التخريبية للمباني والمواصلات والمنشآت وغالبا ينتج عن حركات الحمل الحراري في الاستينوسفير والتي تحرك الصفائح القارية . زلزال غوجرات غرب الهند 26 يناير 2001 .  </t>
+  </si>
+  <si>
+    <t>الثلج نوع من الهطولات على شكل بلورات دقيقة للجليد تحدث في الفصل البارد لكنها لا تحدث في كل دول العالم . و تزداد غزارة الثلوج وكثافتها كلما اتجهنا قريباً من القطبين الجنوبي و الشمالي . تتم هذه الظاهرة التقاء تيارات هوائية رطبة ودافئة مع تيارات باردة تكون درجة حرارتها 12 . 5 تحت الصفر و يجب لتكون الثلج توفر نويات التكاثف التي يتكون عليها الثلج وهي عبارة عن جسيمات صلبة صغيرة جدا عالقة في الجو العلوي مثل ذرات الغبار أو الرماد وعند وجودها تتوفر الحالات الثلاث التي تمكن بخار الماء ليتحول من الحالة الغازية إلى الحالة الصلبة مكونا الثلج و يتم ذلك بتكاثف جزيئات الماء على النواة و في أثناء التصاقها مع بعضها تتم في العادة بناء بللورة الثلج و تكون في هذه المرحلة عبارة عن صفيحة رقيقة ذات ستة جوانب و عندما تسقط هذه البلورة ترتفع درجة الحرارة يتكاثف عليها قدر أكبر من جزيئات الماء و هكذا تنمو حيث يتفرع من الصفيحة البلورية ست أذرع و في درجات الحرارة الأكثر ارتفاعا تذوب حواف البلورة قليلا و ذلك لإتاحة فرصة الالتصاق مع البلورات الأخرى و بهذا تتكون الصفيحة الثلجية . لطالما اتصفت صورة الثلج في ذهن الإنسان بالنقاء و العفة و الطهارة و ربما جاء هذا من لون الثلج الأبيض الناصع, فمثلا قصة بياض الثلج و الأقزام السبعة كان اسم بطلة القصة و هي الفتاة الطيبة بياض الثلج snow white . و في أحيان أخرى يكون الثلج رمزا للموت البطئ و القاسي و الذي جاء بطبيعة الحال بسبب ترافق الثلج مع تيارات باردة و متجمدة و مع غياب للشمس و هبوط حاد للحرارة .</t>
+  </si>
+  <si>
+    <t>و تزداد غزارة الثلوج وكثافتها كلما اتجهنا قريباً من القطبين الجنوبي و الشمالي . 
+لطالما اتصفت صورة الثلج في ذهن الإنسان بالنقاء و العفة و الطهارة و ربما جاء هذا من لون الثلج الأبيض الناصع, فمثلا قصة بياض الثلج و الأقزام السبعة كان اسم بطلة القصة و هي الفتاة الطيبة بياض الثلج snow white . 
+و في أحيان أخرى يكون الثلج رمزا للموت البطئ و القاسي و الذي جاء بطبيعة الحال بسبب ترافق الثلج مع تيارات باردة و متجمدة و مع غياب للشمس و هبوط حاد للحرارة .</t>
+  </si>
+  <si>
+    <t>الحيتان هي رتبة الحيتان في صف الثدييات ، وتضم كل الحيتان . والحوت الأزرق ، هو أكبر الحيوانات الثديية ذوات الدم الحار، تعيش في البحار والمحيطات وتلد فيها, وتعد الحيتان من أكبر المخلوقات على الأرض . الحيتان الحالية تنقسم عموما إلى صنفين رئيسيين الحيتان المسننة ذات الاسنان و الحيتان البلّينية . حال الحيتان كحال باقي الثديات تتنفس عن طريق الرئة ليس عن طريق الخياشيم كما في الاسماك . والحيتان من ذوات الدمّ الحار الاسماك هي من ذوات الدمّ البارد ، تلد الحيتان صغارها حية تحت الماء وتقوم الحيتان بارضاع صغارها بالحليب عن طريق جلدها الخارجي المغطى بشكل قليل جدا بالشعر . الانف تحوّر عند الحيتان إلى فتحة مفردة فوق رأسها . وجسم الحيتان يستهلك الاوكسجين بكفائة جيدة لكي تتمكن من الغطس لمدد طويلة . عندما تخرج الحيتان رأسها فوق سطح الماء تقوم باستخراج الهواء المستهلك عن طريق بخّه إلى الاعلى من فتحة الانف العلوية وتكون عادة مصحوبة برذاذ بخار الماء لعلو عدة امتار . وهناك علماء يستطيعون تمييز انواع الحيتان من شكل البخّة لان لكل نوع بخّته الخاصة . في سنة 1859 كان لداروين توضيحات بشكل نظري كيف نشأت الحيتان الحالية . حسب داروين فانّ الحيتان والدلافين اصلهم يرجع إلى ثديات اليابسة, تلك الثديات التي كانت تحصل على معظم غذائها في الوسط المائي لذلك تكيّفت تلك الثديات مع الوسط الجديد, وكان العالم لامارك يعتقد عكس ذلك, اذ انه كان يعتقد بان ثديات اليابسة اصلها يرجع إلى ثديات الماء . وضرب داروين مثالا على ذلك وهو الدبّ الاسود, كان زميل له رآه في قارة أمريكا الشمالية, ذلك الشخص رأى الدب الاسود يسبح في بركة ماء بشكل متواصل لساعات عديدة دون توقف من اجل اصطياد الحشرات . اذا استمر هذا الدبّ او اي من حيوان ثدي آخر ولاجيال عديدة جدا يبحث معظم وقته عن الغذاء في الماء فانه سيتكيف ويتصرف مثل الحيوانات المائية وبشكل تدريجي . وتبدأ اجسامهم بالتكيّف التغيّر من اجل سباحة وغطس افضل, وبعد مدة طويلة ملايين السنين وبشكل تدريجي ينشأ حيوان على شاكلة الحيتان او كلاب البحر . المشكلة الوحيدة آنذاك التي جلبت الكثير من الضجة حولها كانت هي عدم وجود احافير كأدلة على حدوث ذلك . وفي ذلك الزمن كان هناك احفور واحد مكتشف للحيتان ولكنه كان لحيتان مائية بالكامل وتسمى بالباسيلوساورس . وهذا الاحفور لحوت قديم جدا طوله كان 15 مترا وجسم شبيه بالثعابين . وهذا الاحفور كان ضحية لعملية احتيال اذ استعمل البرت كوخ عظام خمس حيتان مختلفة لتركيب الهيكل العظمي الكامل والطويل والذي قدّمه للعالَم تحت اسم الاحفور هايدرارخس ثعبان البحري الاسطوري . عالم الاحافير ريجارد هالان اكتشف ايضا احافير ترجع إلى الباسيلوساورس ، وهذا العالم كان أكثر علمية ومسؤلية من السابق, ولكنه ايضا استنتج بعض التفسيرات الخاطئة . هارلان اعتقد ان الحيوان كان لزواحف بحرية ضخمة منقرضة كانت منتشرة في المحيطات لفترة طويلة من الزمن في الماضي السحيق . نظرا لهذه الخلفية الخاطئة قدم هارلان احفوره كملك للزواحف باسيلوساورس . ثم قام أشهر عالم احافير في انكلترا السير ريجارد اوين بألقاء نظرة إلى ذلك الاحفور فظهر بعض الحقائق عن اصل ذلك الاحفور . مجموعة اسنان ذلك الحيوان كانت مركبة من اسنان صغيرة في الجهة الامامية للوجه, وفي الجهة الخلفية مركبة من اسنان عريضة بحجم البطاطس, وهذه تنافي مجموعة اسنان للزواحف التي لها اسنان موحدّة الشكل . مجموعة الاسنان مركّبة من اسنان قاطعة واضراس كاذبة وحقيقية يمكن ايجاده فقط في عدد قليل جدا من الثديات . وكذلك العمود الفقري لذلك الحيوان كان ايضا للثديات والذي كان يطابق العمود الفقري للحيتان بشكل جيد . وعندما تمّ فحص العظم تحت المجهر تبينت الحقيقة ، بدلا من نمط انابيب صغيرة كما في الزواحف وُجد تحت عظمة السنّ نمط قنوات متموّجة صغيرة تماما كما هو موجود لدى الثديات . لكن على الرغم من ذلك احتفظ الباسيلوساورس باسمه بسبب قوانين التصنيفيات . 
+الجسم الطويل الشبيه بالثعابين للباسيلوساورس جعل من علماء الاحافير و هاوٍ للبحث والحفر عن العظام القديمة حوالي 1830 يعتقدون ان الجسم ربما كان لثعابين البحر . على الرغم من ان هناك الكثير من الاحافير المكتشفة للباسيلوساورس الاّ ان عظام ارجله القصيرة الخلفية تم اكتشافه في 1989 . كان العلماء يعتقدون ان طول هذا الحيوان يقدّر بخمسة واربعين مترا لكن الطول الحقيقي لهذه الحيوانات كان يتراوح مابين 15 إلى 18 مترا .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحيتان هي رتبة الحيتان في صف الثدييات ، وتضم كل الحيتان .  الحيتان الحالية تنقسم عموما الى صنفين رئيسيين الحيتان المسننة ذات الاسنان و الحيتان البلّينية . وضرب داروين مثالا على ذلك وهو الدبّ الاسود, كان زميل له رآه في قارة امريكا الشمالية, ذلك الشخص راى الدب الاسود يسبح في بركة ماء بشكل متواصل لساعات عديدة دون توقف من اجل اصطياد الحشرات .  وتبدا اجسامهم بالتكيّف التغيّر من اجل سباحة وغطس افضل, وبعد مدة طويلة ملايين السنين وبشكل تدريجي ينشا حيوان على شاكلة الحيتان او كلاب البحر .  وهذا الاحفور لحوت قديم جدا طوله كان 15 مترا وجسم شبيه بالثعابين .  وعندما تمّ فحص العظم تحت المجهر تبينت الحقيقة ، بدلا من نمط انابيب صغيرة كما في الزواحف وُجد تحت عظمة السنّ نمط قنوات متموّجة صغيرة تماما كما هو موجود لدى الثديات .  على الرغم من ان هناك الكثير من الاحافير المكتشفة للباسيلوساورس الاّ ان عظام ارجله القصيرة الخلفية تم اكتشافه في 1989 .  </t>
+  </si>
+  <si>
+    <t>تعد الشمس أقرب النجوم إلى الأرض وتحوي من الأسرار والغرائب أكثر بكثير مما اكتشف ، وان طبيعة شمسنا ككرة غازية ملتهبة بدلا من أن تكون جسما صلبا جعل لها بعض الحقائق العجيبة منها : إنها تدور حول محورها بطريقة مغايرة تماما لطريقة دوران الكواكب الصلبة ، فوسط الشمس  خط استوائها  يدور حول المحور دورة كاملة في 25 يوما بينما تطول هذه المدة في المناطق شمال وجنوب خط الاستواء حتى تصل إلى حوالي 37 يوما عند القطبين ، أي أن الشمس في هذه الحالة تدور وكأنها تفتل فتلا . ولعل هذه الحركة التي وصفها ابن عباس عندما قال عن الشمس إنها تدور كما يدور المغزل ، وهذا بالتالي يؤدي إلى تداخل خطوط القوى المغناطيسية الموجودة على سطها بطريقة معقدة جدا وهذه بدورها ومع مرور الزمن تؤثر بشكل قوي على ظهور بعض الظواهر الشمسية مثل الكلف الشمسي . تنتفض الشمس وتهتز مثل  الجيلي  جاء هذا الاكتشاف في دراسة أعدت سنة 1973 عندما حاول العالم قياس قطر الشمس بين القطبين وعند خط الإستواء ليتأكد اذا كان هناك أي تفلطح للشمس ، أي أن قطرها عند القطبين أقل منه عند خط الاستواء والعكس صحيح فأطلق التعبير أن الشمس تهتز مثل الجيلي إلا أن هذا الاهتزاز مسافته لا تزيد عن 5 كيلومتر وبسرعة 10 أمتار في الثانية وهذه بالطبع تحتاج إلى أجهزة بالغة في الدقة والتعقيد لاكتشافها ثم اكتشف بعد ذلك فريق من العلماء الروس والبريطانيين سنة 1976 بان هناك  اهتزازات أخرى للشمس إحداهما تحدث كل خمسين دقيقة والأخرى تحدث كل ساعتين وأربعين دقيقة ، واصبح الان ما يسمى بعلم  الزلازل الشمسية  ذا أهمية قصوى في علم الفلك لتعلم أسرار الشمس والتي مازال هناك الكثير لفك اسرارها وخفاياها . الشمس مصدر الدفء والضياء على الأرض وبدون الشمس تنمحى الحياة الراقية على الأرض . فالطاقة الشمسية لازمة للحياة النباتية والحيوانية ، كما أن معظم الطاقات الأخرى الموجودة على الأرض مثل الفحم والبترول والغاز الطبيعى والرياح ما هى إلا صور مختلفة من الطاقة الشمسية وقد يندهش القارىء إذا ما علم أن الشمس التى هى عماد الحياة على الأرض والتى قدسها القدماء لهذا السبب ، ما هى إلا نجما متوسطا في الحجم والكتلة واللمعان ، حيث توجد في الكون نجوم أكبر من الشمس تعرف بالنجوم العملاقة ، كما توجد نجوم أصغر من الشمس تعرف بالنجوم الأقزام . وكون الشمس نجما وسطا يجعلها أكثر استقرارا الأمر الذى ينعكس على استقرار الحياة على الأرض . فلو زاد الإشعاع الشمسى عن حد معين لاحترقت الحياة على الأرض ولو نقص الإشعاع الشمسى عن حد معين أيضا لتجمدت الحياة على الأرض والشمس هى أقرب النجوم إلى الأرض ، وهى النجم الوحيد الذى يمكن رؤية معالم مسطحه بواسطة المنظار الفلكي . أما باقى النجوم فيصعب حتى الآن مشاهدة تفاصيل أسطحها نظرا لبعدها السحيق عنا . فلوا استخدمنا أكبر المناظير في العالم نرى النجوم كنقط لامعة وبدون تفاصيل ، أما لو استخدمنا منظارا متوسطا في القوة لرأينا مساحات على سطح الشمس تساوى مساحة القطر المصرى تقربيا . وعلى سبيل المثال المقارنة نجد أن متوسط بعد الشمس عن الأرض يساوى 93 مليون ميل ويعرف بالوحدة الفلكية لقياس المسافات في الكون وتساوى 147,6 مليون كم . أما أقرب نجم أو شمس لنا بعد شمسنا يقدر بعده بحوالى 4,2 سنة ضوئية أى يعادل حوالى 42 مليون مليون كيلو متر، بينما المسافة الزمنية التي يقطعها الضوء ليصل إلينا من الشمس هو ثمانية دقائق ونصف وهذه المسافة اذا ما قورنت بأقرب نجم تعتبر قصيرة ولكنها بحساباتنا الأرضية هائلة وتبلغ ما مجموعه لو درنا حول الأرض أربعة آلاف مرة تقريبا . وهذه الكرة الشمسية المستديرة تحوي كمية هائلة من الغاز الملتهب المتماسك والشديد الحرارة، وهناك في بعض الأحيان تبدو الشمس وكأنها تلبس حلقة وردية من النتوءات وهو عبارة عن ضوء شاحب وردي حول الشمس كالتاج، يسمى الشواضي الشمسية، يعلوه طبقة من الغاز الحار اللؤلؤي المنتشر يصورة رقيقة في الفضاء ويدعى الأكليل الشمسي . وعلماء الفلك يستطيعون رؤية الشواضي الشمسية والأكليل وكذلك كلف الشمس التي هي على شكل بقع سوداء تظهر أحيانا على سطح الشمس بأستخدام الآلات والمراصد فلكية .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعد الشمس اقرب النجوم الى الارض وتحوي من الاسرار والغرائب اكثر بكثير مما اكتشف ، وان طبيعة شمسنا ككرة غازية ملتهبة بدلا من ان تكون جسما صلبا جعل لها بعض الحقائق العجيبة منها : انها تدور حول محورها بطريقة مغايرة تماما لطريقة دوران الكواكب الصلبة ، فوسط الش . تنتفض الشمس وتهتز مثل  الجيلي  جاء هذا الاكتشاف في دراسة اعدت سنة 1973 عندما حاول العالم قياس قطر الشمس بين القطبين وعند خط الاستواء ليتاكد اذا كان هناك اي تفلطح للشمس ، اي ان قطرها عند القطبين اقل منه عند خط الاستواء والعكس صحيح فاطلق التعبير ان الشمس ته .  فلو زاد الاشعاع الشمسى عن حد معين لاحترقت الحياة على الارض ولو نقص الاشعاع الشمسى عن حد معين ايضا لتجمدت الحياة على الارض والشمس هى اقرب النجوم الى الارض ، وهى النجم الوحيد الذى يمكن رؤية معالم مسطحه بواسطة المنظار الفلكي . اما اقرب نجم او شمس لنا بعد شمسنا يقدر بعده بحوالى 4,2 سنة ضوئية اى يعادل حوالى 42 مليون مليون كيلو متر، بينما المسافة الزمنية التي يقطعها الضوء ليصل الينا من الشمس هو ثمانية دقائق ونصف وهذه المسافة اذا ما قورنت باقرب نجم تعتبر قصيرة ولكنها بحساباتنا الار .  </t>
+  </si>
+  <si>
+    <t>الثعبان حيوان زاحف من ذوات الدم البارد, لها أنواع عديدة تختلف من بلد إلى آخر . وجدت على سطح الأرض منذ أكثر من 125 مليون سنة، ويفوق عدد الأنواع المعروفة منها اليوم عن 13000 نوع . ويقال كان لبعضها أرجل اندثرت مع مرور الوقت حتى تم الاستغناء عنها نهائياً ويدل على ذلك وجود نتؤات عظمية في جسمها تسمي بالمهاميز . للثعابين جسم طويل وهيكل عظمي مميز تتراوح فقـراته من 200 إلى 400 فقرة تساعد الثعبان في التحرك والعصر والسباحة بشكل فعال دون الحاجة إلى وجود أطراف كباقي الحيوانات . يتراوح طول الثعابين من بضعة سنتيمترات إلى بضعة أمتار, جلدها مغطى بالحراشف وهي تبدل جلدها بين فترة وأخرى مما يساعدها على النمو . متوسط عمرها 15 الى 25 سنة, طريقة سيرها للانتقال من مكان لأخر تكون بالزحف وهناك حركات مختلفة للزحف لدي الثعابين فهناك مثلاً الالتواء الجانبي والالتفاف الجانبي والحركة الانقباضية وهي حركات تميز بعض الأنواع عن بعضها . الثعابين بعضها سام وسام جدا وبعضها الأخر غير سام وتختلف سموم الثعابين باختلاف أنواعها, ولسمومها استخدامات طبية عديدة . تعيش الثعابين في كل مكان فبعضها يعيش على الأرض وبعضها يعيش بالماء وبعضها يعيش على الأشجار . الثعابين حيوانات صماء لا تسمع لكنها تحس بطرق مختلفة، فلبعض الثعابين فتحات فوق منطقة الفم والتي تسمي الندبة عبارة عن رادار حراري بحيث يسمح للثعبان بالرؤية ليلاً أو في الظلام الدامس . أما اللسان التي تظهره أغلب الثعابين أثناء سيرها فهو متصل بتجويف في سقف الفم يسمى عضو جاكوبسون يساعدها على تذوق وشم الجزيئات الصغيرة العالقة بالهواء . ان للافاعي أنيابا عليا متحركة تنثني للوراء عند اغلاق الفك ، بينما نابا الثعبان ثابتان لا ينثنيان . كما ان لبعض الافاعي حفرة عميقة بين الانف والعين ، لذلك يسمونها بذوات الحفر . ويوجد ايضا فارق بين انواع السم ،سم الثعابين يدمر الجهاز العصبي ويؤدي لشلل الحجاب الحاجز وعضلات التنفس فالاختناق والثعابين البحرية سمها يدمر العضلات .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الثعبان حيوان زاحف من ذوات الدم البارد, لها انواع عديدة تختلف من بلد الى آخر . الثعابين حيوانات صماء لا تسمع لكنها تحس بطرق مختلفة، فلبعض الثعابين فتحات فوق منطقة الفم والتي تسمي الندبة عبارة عن رادار حراري بحيث يسمح للثعبان بالرؤية ليلاً او في الظلام الدامس .  اما اللسان التي تظهره اغلب الثعابين اثناء سيرها فهو متصل بتجويف في سقف الفم يسمى عضو جاكوبسون يساعدها على تذوق وشم الجزيئات الصغيرة العالقة بالهواء .  </t>
+  </si>
+  <si>
+    <t>الفضة من المعادن الكريمة أبيض اللون، وهو معدن ثمين معروف منذ القدم حيث عرفه قدماء المصريين والعرب والصينيون واستخدموه في صناعة الحلي وفي الطب والوقاية من الأمراض . تستخدم في النقود والحلي تماماً كالذهب إلا أنها أقل قيمة . 
+نظرا لقدرة الفضة الفائقة على قتل البكتريا والكائنات الدقيقة و الطحالب استخدمها العرب في تنقية الماء، حيث كانت الماء توضع في القرب المصنوعة من جلد الشاةويملأ مايقرب من ثلاثة أرباعها بالماء والباقي هواء ويوضع في الماء قطع معدنية من عملات الفضة وفي أثناء الرحلاات طويلت المسافات تهتز القربةفتحتك القطع ببعضها البعض مما ينتج عنه ذوبان جزء بسيط من الفضة في الماء في صورة مسحوق فائق النعومة يؤدي إلى قتل البكتريا وتطهير الماء . يمكن استخدام الفضة حديثا في تنقية المياة بدلا من استخدام الكلور الغير آمن صحيا، حيث أثبتت الدراسات أن الجرعة المستخدمة من الفضة في تنقية الماء أقل من واحد في البليون أي ما يعادل واحد ملليجرام في المتر المكعب من الماء، وهذا يعني أن تكلفة التنقية تصل إلى حوالي نصف قرش بالعملة المصرية، بينما الكلور يكلف ثلاثة قروش، إلى جانب المخاطر على العاملين والسكان المحيطون من غاز الكلور، كما أن الدراسات الحديثة أثبتت أن الكلور مسبب للسرطان ويسبب إجهاض الحوامل، حيث يمنع إلتصاق الجنين بجدار الرحم . ومن هذا المنطلق يمكن استخدام الفضة في تعقيم الأنواع الأخرى من المياه، كالمياه المستخدمة في محطات توليد الكهرباء، ومياه الصرف الصحي، وأبراج التبريد الصناعية ومياه حمامات السباحة . للفضة تطبيقات طبية مثل صناعة المراهم، وحالياً يتم استخدام الفضة في علاج مرضى الأقدام السكرية، حيث يتم ضبط نسبة السكر في الجسم واستخدام حمامات الماء المضاف إليه ماء الأكسجين والمطعم بأيون الفضة حيث يقوم بقتل الكائنات الدقيقة الملوثة للقروح في القدم ثم تترك طبقة خفيفة من الفضة تقوم بمنع نمو أي كائنات أخرى . بينت الدراسات الحديثة أن للفضة تأثير غير معلوم الميكانيكية على الحالة النفسية للأنسان، ولهذا تستخدم في أدوية العلاج النفسية في معظم أدوية الولايات المتحدة الأمريكية، كما تساهم في الوقاية من الأمراض الخطيرة، لذا انتشر في أمريكا الآن مايسمى بمعلق الفضة وهو محلول ذائب به كميات كثيرة من الفضة في صورة مسحوق فائق النعومة بنسبة تصل إلى حوالي 500 ملليجرام في اللتر من الفضة، والذي يتم تناوله عن طريق الفم بمعدل ملعقة شاي يوميا .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الفضة من المعادن الكريمة ابيض اللون، وهو معدن ثمين معروف منذ القدم حيث عرفه قدماء المصريين والعرب والصينيون واستخدموه في صناعة الحلي وفي الطب والوقاية من الامراض . نظرا لقدرة الفضة الفائقة على قتل البكتريا والكائنات الدقيقة و الطحالب استخدمها العرب في تنقية الماء، حيث كانت الماء توضع في القرب المصنوعة من جلد الشاةويملا مايقرب من ثلاثة ارباعها بالماء والباقي هواء ويوضع في الماء قطع معدنية من عملات الفضة وفي اثناء الر . يمكن استخدام الفضة حديثا في تنقية المياة بدلا من استخدام الكلور الغير آمن صحيا، حيث اثبتت الدراسات ان الجرعة المستخدمة من الفضة في تنقية الماء اقل من واحد في البليون اي ما يعادل واحد ملليجرام في المتر المكعب من الماء، وهذا يعني ان تكلفة التنقية تصل الى حو . بينت الدراسات الحديثة ان للفضة تاثير غير معلوم الميكانيكية على الحالة النفسية للانسان، ولهذا تستخدم في ادوية العلاج النفسية في معظم ادوية الولايات المتحدة الامريكية، كما تساهم في الوقاية من الامراض الخطيرة، لذا انتشر في امريكا الآن مايسمى بمعلق الفضة وهو .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">البحر يطلق على أي تجمع كبير للمياه المالحة يتصل بالمحيط أو على البحيرات المالحة غير المتصلة ببحار أو محيطات أخرى كبحر قزوين والبحر الميت كما يعد مصطلح البحر مسمى عاما لكل تجمع لابحري أكبر من الخور وأصغر من المحيط . كان العرب قديما يستخدمون مصطلح بحر على أي تجمع للماء الكثير مالحا كان أو عذبا ولم يستخدموا كلمة محيط فقد كانوا يطلقون على المحيط الأطلسي مسمى بحر الظلمات . يشغل البحر مساحة من سطح الأرض أكبر مما تشغلة اليابسة وهو موطن للملايين من الكائنات وتعيش في البحر حيوانات و نباتات من مختلف الاشكال و الالوان و الاحجام ، و حيوانات البحر ونباتاته هامة جدا بالنسبة للانسان كمصدر للطعام فهناك من حيوانات البحر مثل السرطان و الجراد و الاسماك و العديد من انواع الاسماك الصدفية ما يمكننا تناولة كطعام . الفرق بين البحر والمحيط يعتمد على عدة عوامل ، وهي الحجم ، طبيعة السواحل ، عمق القاع ، درجة ملوحة المياه . بالنسبة لمساحة البحر فهي أصغر من المحيط ، وعمق البحر لايزيد عن 2000 متر، ومن الفوارق الأساسية بين البحر والمحيط أن البحر يكون عبارة عن مساحة محاطة باليابسة بنسب واشكال مختلفة، كما تتميز البحار عن المحيطات بوجود تنوع بيولوجي فيها أكبر من التنوع المتوفر في المحيطات . الاختلاف في عمق البحر والمحيط يجعل البحر أكثر تأثرا بكثير من الظواهر الطبيعية أهمها ظاهرة المد والجزر، كما يجعلها شديدة التأثر بظاهرة الاحتباس الحراري . حركة البحر عبارة عن مد و جزر . في بلادنا توجد شواطئ لأربع بحار البحر المتوسط,البحر الميت,بحيرة طبريا ,خليج إيلات . قسم من شاطئ البحر المتوسط تمتلكه مؤسسات مختلفة أما بحيرة طبريا فهي ليست كبيرة وشريط الساحل في خليج إيلات يمتد لعدة كيلو مترات فقط أما بالنسبة للبحر الميت فأنه لا يجتذب الكثير من المستحمين بسبب ملوحة مياهه . لذا ففي أيام الصيف عندما يؤم الشواطئ الكثير من الناس للسياحة ولقضاء الوقت تكتظ هذه الشواطئ . من المهم أن نعرف كيف نحافظ على هذه الشواطئ . سلامتها و نظافتها,تتلوث شواطئ البلاد بدون إنقطاع مما يقذف البحر للشاطئ و بما يلقيه الناس على الشاطئ أو ما يبقونه . تقوم الهيئات المسؤولة المناسبة بتحمل معظم مسؤولية النظافة بأن تزيل التلوثات الكبيرة اما التلوث الذي يسببه الناس فأمر يهمنا كلنا و يمكن منعه . تتكون الحياة النباتية للشاطىء اساسا من انولع مختلفة من الطحالب ، وهناك نوعان من الطحالب الطحالب التي تجرفها التيارات و الطحالب الثابتة ، والنوع الاول صغير الحجم جدا و اغلبة يتكون من خلية واحدة ولكنها تستطيع ان تنمو مثل اي نبات تخر ، اما النوع الثاني الطحالب الثابتة او طحالب البحر فهي كبيرة الحجم من الوان متعددة . وتعتبر الطحالب أكثر النباتات أهمية لانها تزود الملايين من حيوانات البحر بما تحتاج إليه من طعام كما تصلح ايضا غذاء للإنسان . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البحر يطلق على اي تجمع كبير للمياه المالحة يتصل بالمحيط او على البحيرات المالحة غير المتصلة ببحار او محيطات اخرى كبحر قزوين والبحر الميت كما يعد مصطلح البحر مسمى عاما لكل تجمع لابحري اكبر من الخور واصغر من المحيط .  بالنسبة لمساحة البحر فهي اصغر من المحيط ، وعمق البحر لايزيد عن 2000 متر، ومن الفوارق الاساسية بين البحر والمحيط ان البحر يكون عبارة عن مساحة محاطة باليابسة بنسب واشكال مختلفة، كما تتميز البحار عن المحيطات بوجود تنوع بيولوجي فيها اكبر من التنوع المتوفر في . سلامتها و نظافتها,تتلوث شواطئ البلاد بدون انقطاع مما يقذف البحر للشاطئ و بما يلقيه الناس على الشاطئ او ما يبقونه .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">المطر هو تكثف بخار الماء من السحاب و سقوطه على شكل قطرات منفصلة على الأرض, وهو يتكون حينما يبرد الهواء ويحدث تكثف لبخار الماء، يكون وزن القطرات صغيراً، فلا تسقط على الارض . ولكي يسقط المطر يجب ان تتجمع هذه القطرات الضئيلة الحجم في مجموعات أكبر حجماً . ان محتوى قطرة المطر الواحدة من الماء يفوق بمليون مرة ما في حجم مثيلتها من السحابة . فاذا وصلت السحابة إلى ارتفاع تنخفض فيه درجة الحرارة إلى اقل من الصفر،فان الكثير من قطرات السحابة تتجمد،وتكون بلورات ثلجية،ويتحول عندئذ جزء من بخار الماء الذي يحويه الهواء إلى ثلج مباشرة في عملية تعرف باسم التسامي ويزداد حجم البلورات باطراد،وخلال دقائق تتحول هذه البلورات الثلجية إلى رقائق ثلجية،وتبدا بالسقوط من خلال السحابة . وحين تصل هذه الرقائق إلى طبقات أكثر دفئاً فانها تذوب وتصبح قطرات ماء، فاذا كانت درجة حرارة الارض تحت الصفر، فان رقائق الثلج هذه تتجمع في مجموعات لتشكل برداً . ولكي يحدث ذلك، لا بد ان تحوي السحابة مناطق بها قطرات الماء وأخرى بها بلورات ثلجية . وسحب الركام والركام المزني كلاهما من تكوينات سحب الحمل الحراري،رغم ان الأخيرة وحدها هي التي تنتج المطر . واذا ما تحول ركام إلى ركام مزني،وبدأت تظهر خيوط رقيقة او امتدادات من السحب،فسوف يتلوذلك مطر أو برد . وعموماًفان السحب الرعدية تسقط وابلاً من المطر لفترة قصيرة،ولكنه غزير جداً . ان سحب الجبهة سحب ممطرة، متوسطة الغزارة ولكنها تستمر لفترة طويلة نسبياً وتغطي مساحة واسعة . أما سحب الارتفاع الشاهق ذات المنظر الشبيه بالريش،والتي قد تؤدي إلى تكوين دائرة ملونة او هالة حول الشمس،فهي بشائر مطر قادم . وقد تسقط قطرات صغيرة جداً من السحب الضبابية في شكل رذاذ . وفي تلك الحالة لا يكون سقوط الامطار نتيجة تكوين بلورات الثلج،بل لان قطرات الماء في السحب كبرت إلى حد كاف نتيجة مصادمات القطرات الصغيرة بعضها بعضاً،وهي ظاهرة تعرف باسم الالتحام . ويحدث هذا كثيراً في المناطق الاستوائية . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المطر هو تكثف بخار الماء من السحاب و سقوطه على شكل قطرات منفصلة على الارض, وهو يتكون حينما يبرد الهواء ويحدث تكثف لبخار الماء، يكون وزن القطرات صغيراً، فلا تسقط على الارض . فاذا وصلت السحابة الى ارتفاع تنخفض فيه درجة الحرارة الى اقل من الصفر،فان الكثير من قطرات السحابة تتجمد،وتكون بلورات ثلجية،ويتحول عندئذ جزء من بخار الماء الذي يحويه الهواء الى ثلج مباشرة في عملية تعرف باسم التسامي ويزداد حجم البلورات باطراد،وخلال دقائق تتح . وحين تصل هذه الرقائق الى طبقات اكثر دفئاً فانها تذوب وتصبح قطرات ماء، فاذا كانت درجة حرارة الارض تحت الصفر، فان رقائق الثلج هذه تتجمع في مجموعات لتشكل برداً .  وسحب الركام والركام المزني كلاهما من تكوينات سحب الحمل الحراري،رغم ان الاخيرة وحدها هي التي تنتج المطر . واذا ما تحول ركام الى ركام مزني،وبدات تظهر خيوط رقيقة او امتدادات من السحب،فسوف يتلوذلك مطر او برد . اما سحب الارتفاع الشاهق ذات المنظر الشبيه بالريش،والتي قد تؤدي الى تكوين دائرة ملونة او هالة حول الشمس،فهي بشائر مطر قادم . وفي تلك الحالة لا يكون سقوط الامطار نتيجة تكوين بلورات الثلج،بل لان قطرات الماء في السحب كبرت الى حد كاف نتيجة مصادمات القطرات الصغيرة بعضها بعضاً،وهي ظاهرة تعرف باسم الالتحام .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبقة الأوزون هي الجزء من الغلاف الجوي لكوكب الأرض  . و هي متمركزة بشكل كبير في الجزء السفلي من طبقة الستراتوسفير من الغلاف الجوي للأرض . اكتشف كل من شارل فابري  و هنري بويسون  طبقة الأوزون في 1913 و تم معرفة التفاصيل عنها من خلال دوبسون الذي قام بتطوير جهاز لقياس الأوزون الموجود في طبقة الستراتوسفير من سطح الأرض . بين سنة 1928 و 1958 قام دوبسون بعمل شبكة عالمية لمراقبة الأوزون و التي ما زالت تعمل حتى وقتنا هذا . وحدة قياس دوبسون, هي وحدة لقياس مجموع الأوزون في العامود تم تسميتها تكريماً له . على الرغم من ان تركيز الأوزون في طبقة الأوزون قليل, إلا انه مهم بشكل كبير للحياة على الأرض, حيث انها تتشرب الأشعة فوق البنفسجية الضارة التي تطلقها الشمس . تم تصنيفها على حسب طول موجاتها  حيث تعتبر الأشعة فوق البنفسجية خطيرة جداً على البشر و يتم تنقيتها بشكل كامل من خلال الأوزون على ارتفاع 35 كيلومتر فوق سطح الأرض . مع ذلك يعتبر غاز الأوزن سام على ارتفاعات منخفضة حيث يسبب النزيف و غيره . من الممكن ان يؤدي تعرض الجلد للأشعة الفوق البنفسجية باء لإحتراق يظهر على شكل احمرار شديد; و التعرض الشديد له قدر يؤدي إلى تغير في الشفرة الوراثية و التي تنتج عنها سرطان الجلد . مع ان طيقة الأوزون تمنع وصول الأشعة الفوق البنفسجية باء الا انه يصل بعضاً منها لسطح الأرض . معظم الأشعة الفوق البنفسجية الف تصل الأرض و هي لا تضر بشكل كبير إلا انها من الممكن ان تسبب تغيير في الشفرة الوراثية ايضاً . استنزاف طبقة الأوزون يسمح بالتعرض الأشعة فوق البنفسجية و تحديداً أشعة ذات موجات أكثر ضرر للوصول إلى السطح مما يؤدي إلى زيادة في التغيير بالجينيات الوراثية للأحياء على الارض . لتقدير أهمية الوقاية من الأشعة فوق البنفسجية, نستطيع خصائص الضرر من التعرض للإشعاع في طيف ضوئي , حيث يبين لنا تأثير الإشعاع البيولوجي حسب طول الموجات . من الممكن ان يكون التأثير حروق الجلد, تغير في نمو النبات او تغيير في الحمض النووي . يتغير الضرر من التعرض للإشعاع على حسب طول الموجات . لحسن الحظ, يتغير تركيب الحمض النووي بالموجات الأقل من 290 نانومتر و التي تقوم طبقة الأوزون بحجبها بشكل كبير . و في الموجات الأطول التي يحجبها الاوزون بشكل بسيط لا يتضرر الحمض النووي بشكل كبير . لو قل الأوزون بنسبة 10%, سيتم التغيير بنسبة 22% في الحمض النووي من تأثير الأشعة الفوق بنفسجية . للعلم التغيير في الحمض النووي يؤدي أمراض مثل سرطان الجلد, و هذا يوضح أهمية طيقة الاوزون على حياتنا . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكتشف كل من شارل فابري  و هنري بويسون  طبقة الاوزون في 1913 و تم معرفة التفاصيل عنها من خلال دوبسون الذي قام بتطوير جهاز لقياس الاوزون الموجود في طبقة الستراتوسفير من سطح الارض . على الرغم من ان تركيز الاوزون في طبقة الاوزون قليل, الا انه مهم بشكل كبير للحياة على الارض, حيث انها تتشرب الاشعة فوق البنفسجية الضارة التي تطلقها الشمس . من الممكن ان يؤدي تعرض الجلد للاشعة الفوق البنفسجية باء لاحتراق يظهر على شكل احمرار شديد; و التعرض الشديد له قدر يؤدي الى تغير في الشفرة الوراثية و التي تنتج عنها سرطان الجلد . استنزاف طبقة الاوزون يسمح بالتعرض الاشعة فوق البنفسجية و تحديداً اشعة ذات موجات اكثر ضرر للوصول الى السطح مما يؤدي الى زيادة في التغيير بالجينيات الوراثية للاحياء على الارض . يتغير الضرر من التعرض للاشعاع على حسب طول الموجات .  لو قل الاوزون بنسبة 10%, سيتم التغيير بنسبة 22% في الحمض النووي من تاثير الاشعة الفوق بنفسجية .  للعلم التغيير في الحمض النووي يؤدي امراض مثل سرطان الجلد, و هذا يوضح اهمية طيقة الاوزون على حياتنا .  </t>
+  </si>
+  <si>
+    <t>لا يوجد اسم ثانِ يُعرف به القمر غير القمر، بيد أن كلمة قمر تستخدم للإشارة إلى أي جرم سماوي أو صناعي، يقوم بمدار معين حول الأرض، أو أيِ من الكواكب الأخرى، فكوكب زحل مثلاً له ثمانية عشر قمراً تابعاً . وهناك تسمية أُخرى للقمر ويسمّى بها أحياناً وهي لونا . وجانب القمر الذي لا يُرى من الأرض يسمّى الجانب البعيد، أو الجانب المظلم، وسمّي بهذا الإسم لعدم قدرة بني البشر من النظر إليه من الأرض، فلو كانت هناك مركبة فضائية على هذا الجانب المظلم فسيتعذر الإتصال اللاسلكي بين الأرض وبين مركبة الفضاء . سيتركز هذا المقال عن القمر المتعارف عليه بين الناس، وهو القمر التابع للأرض . يقوم القمر بدورة كاملة حول الأرض مرة واحدة كل 4 أسابيع تقريباً، وفي كلّ ساعة تمر، يتحرك القمر بمقدار نصف درجة، ويمضي القمر في مدار له يميل على دائرة البروج بنحو 5 درجات . تقاس دورة القمر حول الأرض بالأشهر النجمية وبالأشهر الأقترانية . الدّورة النجمية وهي الفترة الزمنية التي يحتاجها القمر ليدور دورة واحدة حول الأرض بالنسبة للنجوم، وتستغرق 27 يوماً وثلث اليوم . الدّورة الأقترانية وهي الفترة الزمنية التي يحتاجها القمر ليدور دورة واحدة حول الأرض بالنسبة للشمس، وتستغرق 29 يوماً ونصف اليوم . وهي نفس الفترة التي يحتاجها القمر ليدور حول نفسه دورة كاملة، ولهذا السبب يرى الناظر من الأرض نفس الوجه للقمر . نتيجة تطابق الفترة الزمنية التي يأخذها القمر في دورانه حول نفسه وتلك التي يأخذها في دورانه حول الأرض، يجد أهل الأرض أن نفس الجانب من القمر مقابل للأرض ولا يتغيّر هذا الجانب . وتأثر حركة القمر بدورانه حول الأرض على بحار ومحيطات الأرض وتسبب ظاهرة المد والجزر التي نعرفها . وقد إختلف العلماء على مرّ السنين في أصل القمر وكيف آلت به الأمور على ما هو عليه، ومن أكثر النظريات التي تلقى تأييداً في الأوساط الفلكية، تلك التي تنادي بأن الأرض البكر التي نحن عليها قد إرتطم بها جسم كبير يقدّر حجمه بحجم كوكب المريخ وأقتطع هذا الجسم من الأرض ما اقتطع، وتناثر من الأرض قطع التحمت مع بعضها البعض وكوّنت القمر الذي نعرفه اليوم، وتعرف هذه النظرية بنظرية الصدمة الكبرى . وقد عمل العلماء على محاكاة نظرية الصدمة الكبرى في اغسطس من العام 2001 ونشرت المحاكاة في هذا الموقع . ولعلّ تشابه المواد المكوّنة لكتلة القمر، بتلك المعادن الموجودة على كوكب الأرض جعلت نظرية الصدمة الكبرى نظرية مقبولة في الأوساط العلمية . منذ أربع مليارات سنة ونصف، كان القمر مغطّى بالحمم البركانية المنصهرة والتي شكّلت محيطات من الحمم على سطح القمر . وتتكون قشرة القمر من المواد الأوّلية التّالية : يورانيوم، ثوريوم، بوتاسيوم، اكسجين، سيليكون، مغنيسيوم، حديد، تيتانيوم، كالسيوم، المنيوم، والهيدروجين . وعندما تسقط الإشعاعات الكونية على تلك العناصر الأولية، تقوم تلك العناصر على إنعكاس تلك الإشعاعات بخواصّ مختلفة تعتمد على طبيعة العنصر الأولي العاكس للإشعاع وبصورة إشعاعات جاما . وتجدر الإشارة ان بعض العناصر الأولية على سطح القمر تُصدر إشعاعات جاما بدون الحاجة لتعرّض تلك المواد الأولية لأي نوع من الإشعاعات الكونية كاليورانيوم أو البوتاسيوم والثوريوم . قامت النيازك والشهب بالإرتطام بالقمر مرات ومرات عديدة، ويُرى ذلك جلياُ في النتوءات الواضحة على سطح القمر . وقد حمل الكثير من تلك النيازك والشهب الماء، وحطّ على سطح القمر بمعيّة النيازك والشهب، وبمجرّد تعرض ماء النيازك والشهب لحرارة الشمس، يتفكك الماء لمكوّناته الأصلية (هيدروجين وأكسجين)، وتبدأ هذه العناصر في التطاير في الفضاء، وتبقى فرضية وجود الماء قائمة إمّا بوجوده على السطح، أو تحت قشرة القمر، وتقدّر كمية الماء على القمر ببليون متر مكعّب . يخسف القمر إذا وقعت الأرض بين أشعّة الشمس وبين جزء من القمر أو كلّ القمر، فظلّ الأرض حين تمرّ في مجراها حول الشمس يقع على القمر ويرى أهل الأرض وكأن القمر قد أُقتُطِع من نوره شيء . وننوه هنا أن ليس للقمر نور طبيعي وما النور السّاطع من القمر إلا إنعكاس أشعّة الشمس من على القمر إلى الأرض، فيراه من على الأرض وكأنه ذو نور ساطع . ولا تحدث ظاهرة خسوف القمر إلا في حالة القمر المكتمل (بدر) . أمّا في ما يخصّ الكسوف، فيحصل الكسوف للشمس حين يحجب القمر أشعّة الشمس عن الأرض، وتحدث ظاهرة الكسوف في بداية تكوين القمر (هلال) . أول من قام بإستكشاف الجانب المظلم من القمر كانت المركبة الفضائية السوفييتية لونا 2 عندما قامت بجولات مدارية حول القمر في 15 سبتمبر 1959، وأول من حطّ قدمه على سطح القمر هو نيل ارمسترونج، قائد المركبة الفضائية الأمريكية أبولو 11 في 20 يوليو 1969 . وفي تلك الفترة، كانت الحرب الباردة في أوجها بين الإتحاد السوفييتي والولايات المتحدة، وأجّج هذا الإنجاز الأمريكي السباق إلى الفضاء بين الإتحاد السوفييتي والولايات المتّحدة . وقد وضع رائد الفضاء نيل أرمسترونج لوحة معدنية على سطح القمر كُتب فيها هنا حطّت أقدام رجال من كوكب الأرض في يوليو 1969 بعد الميلاد، لقد جئنا بسلام باسم البشرية، وقام رواد الفضاء الثلاثة بالتوقيع على اللوحة المعدنية كما وقّعها الرئيس الأمريكي آنذاك، ريتشارد نيكسون .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد اسم ثانِ يُعرف به القمر غير القمر، بيد ان كلمة قمر تستخدم للاشارة الى اي جرم سماوي او صناعي، يقوم بمدار معين حول الارض، او ايِ من الكواكب الاخرى، فكوكب زحل مثلاً له ثمانية عشر قمراً تابعاً .  وجانب القمر الذي لا يُرى من الارض يسمّى الجانب البعيد، او الجانب المظلم، وسمّي بهذا الاسم لعدم قدرة بني البشر من النظر اليه من الارض، فلو كانت هناك مركبة فضائية على هذا الجانب المظلم فسيتعذر الاتصال اللاسلكي بين الارض وبين مركبة الفضاء .  سيتركز هذا المقال عن القمر المتعارف عليه بين الناس، وهو القمر التابع للارض . يقوم القمر بدورة كاملة حول الارض مرة واحدة كل 4 اسابيع تقريباً، وفي كلّ ساعة تمر، يتحرك القمر بمقدار نصف درجة، ويمضي القمر في مدار له يميل على دائرة البروج بنحو 5 درجات .  وهي نفس الفترة التي يحتاجها القمر ليدور حول نفسه دورة كاملة، ولهذا السبب يرى الناظر من الارض نفس الوجه للقمر . نتيجة تطابق الفترة الزمنية التي ياخذها القمر في دورانه حول نفسه وتلك التي ياخذها في دورانه حول الارض، يجد اهل الارض ان نفس الجانب من القمر مقابل للارض ولا يتغيّر هذا الجانب .  وقد اختلف العلماء على مرّ السنين في اصل القمر وكيف آلت به الامور على ما هو عليه، ومن اكثر النظريات التي تلقى تاييداً في الاوساط الفلكية، تلك التي تنادي بان الارض البكر التي نحن عليها قد ارتطم بها جسم كبير يقدّر حجمه بحجم كوكب المريخ واقتطع هذا الجسم من ا . منذ اربع مليارات سنة ونصف، كان القمر مغطّى بالحمم البركانية المنصهرة والتي شكّلت محيطات من الحمم على سطح القمر .  وعندما تسقط الاشعاعات الكونية على تلك العناصر الاولية، تقوم تلك العناصر على انعكاس تلك الاشعاعات بخواصّ مختلفة تعتمد على طبيعة العنصر الاولي العاكس للاشعاع وبصورة اشعاعات جاما .  وتجدر الاشارة ان بعض العناصر الاولية على سطح القمر تُصدر اشعاعات جاما بدون الحاجة لتعرّض تلك المواد الاولية لاي نوع من الاشعاعات الكونية كاليورانيوم او البوتاسيوم والثوريوم .  وقد حمل الكثير من تلك النيازك والشهب الماء، وحطّ على سطح القمر بمعيّة النيازك والشهب، وبمجرّد تعرض ماء النيازك والشهب لحرارة الشمس، يتفكك الماء لمكوّناته الاصلية (هيدروجين واكسجين)، وتبدا هذه العناصر في التطاير في الفضاء، وتبقى فرضية وجود الماء قائمة امّ .  وننوه هنا ان ليس للقمر نور طبيعي وما النور السّاطع من القمر الا انعكاس اشعّة الشمس من على القمر الى الارض، فيراه من على الارض وكانه ذو نور ساطع . اول من قام باستكشاف الجانب المظلم من القمر كانت المركبة الفضائية السوفييتية لونا 2 عندما قامت بجولات مدارية حول القمر في 15 سبتمبر 1959، واول من حطّ قدمه على سطح القمر هو نيل ارمسترونج، قائد المركبة الفضائية الامريكية ابولو 11 في 20 يوليو 1969 .  وقد وضع رائد الفضاء نيل ارمسترونج لوحة معدنية على سطح القمر كُتب فيها هنا حطّت اقدام رجال من كوكب الارض في يوليو 1969 بعد الميلاد، لقد جئنا بسلام باسم البشرية، وقام رواد الفضاء الثلاثة بالتوقيع على اللوحة المعدنية كما وقّعها الرئيس الامريكي آنذاك، ريتشار .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأسد حيوان ضخم من فصيلة السنوريات . تسمى أنثاه لبؤة ويطلق على أطفاله اسم أشبال . أطلق علية ابتداء من القرن الأول الميلادي لقب ملك الغابة، ومن أسماء الأسد في اللغة العربية السبع والليث والهزبر والورد والضرغام وأسامة ويسمى بيته عرين . كان موطن الأسود يشمل عبر التاريخ معظم أوراسيا، من البرتغال إلى الهند، بالإضافة إلى إفريقيا بأكملها . ولكن منذ حوالي 10،000 سنة مضت، إنقرضت الأسود من اوروبة الغربيّة ثم مالبثت أن إنقرضت من باقي اوروبة بحلول القرن الثاني للميلاد، كما إنقرضت الأسود من شمالي إفريقيا والشرق الأوسط في الفترة مابين أواخر القرن التاسع عشر و أوائل القرن العشرين . تعيش الآن معظم الجمهرات في إفريقيا الوسطى حيث يظهر أن اعدادها تتناقص بإستمرار، فقد اظهرت إحدى البحوث تراجع اعدادها من حوالي 100،000 في أوائل التسعينات من القرن العشرين إلى حوالي 16،000 إلى 30،000 أسد برّي حالياً . بالإضافة إلى ذلك فإن جمهرة الأسود الحالية تواجه خطراً اخر يتمثل في عزلة المجموعات عن بعضها جغرافيّاً، مما يزيد من إحتمال التناسل الداخلي بين الأقارب مما يتسبب بمشاكل وراثيّة، وقد أظهرت المؤسسة الكينيّة للحياة البريّة أن المجموعات التي حصل بداخلها تناسل داخلي قد إزداد فيها متوسط عدد الأشبال لكل أنثى، كما تتوقع المؤسسة ازدياد عدد المجموعة بثلاثة اضعاف خلال السنوات العشر المقبلة بسبب إرتفاع نسبة الخصوبة عندها . كانت الأسود الآسيويّة  تنتشر من تركيا إلى الهند عبر إيران ، ومن القوقاز حتى اليمن . أما الآن فإن ما تبقى منها يعيش في غابة شمال غربي الهند الواقعة في ولاية غوجارات، حيث يعيش 300 أسد في المنطقة المحميّة البالغة مساحتها 1412 كم2 . إنقرض أخر الأسود الأوروبيّة في اليونان بحلول العام 100 للميلاد، ومن السلالات المنقرضة الأخرى: سلالة رأس الرجاء الصالح أسد رأس الرجاء الصالح، سلالة الكهوف أسد الكهوف الأوروبي الذي تعايش مع الإنسان خلال العصر الجليدي الأخير، والسلالة الأميركيّة الأسد الأميركي التي تعتبر قريبة لسلالة الكهوف . يعتقد أن ذكور الأسود الأوائل كانت عديمة اللبدة وهو الشعر حول العنق، ويبدو أن الذكور الأوروبيّة و ذكور العالم الجديد إستمرّت عديمة الشعر حتى حوالي 10،000 سنة مضت . يعتقد بأن الذكور ذات اللبدة ظهرت منذ 32000 سنة، ويبدو أن الشكل الجديد ذي اللبدة كان له أفضليّة ما جعلته يوسّع موطنه ويستبدل الشكل الأخر في إفريقيا وغربي أوراسيا . يعتقد العلماء بأن اللبدة قد تطوّرت لدى الأسود بسبب ضغط الإنتقاء الجنسي، حيث اصبحت وحدها الأسود ذات اللبدة هي التي تتناسل وهذا ما جعل اللبدة اليوم لاتخدم غاية سوى هذه تقريباً . كان العلماء يعتقدون سابقاً أن حجم اللبدة وكثافتها ولونها دليل على سلالة الأسود المعيّنة، حيث كان يستند إلى هذا في تعريف بعض السلالات مثل أسد رأس الرجاء الصالح و أسد المغرب، أما الآن فقد أصبح يعرف أن العوامل الخارجيّة تؤثر على حجم و لون اللبدة، فقد ظهر أن الأسود في حدائق الحيوان الأوروبيّة و الأميركيّة تنمو لديها لبدة أكبر و أدكن لوناً مما كان سيحصل في موطنها الأصلي بغض النظر عن سلالتها . تمضي ذكور الأسود معظم حياتها خاملة . الأسود حيوانات لاحمة تعيش في مجموعات تسمّى زمراً مفردها زمرة، وتتألّف الزمرة من الإناث ذوات القربى وأشبالها بالإضافة إلى ذكر أو ذكرين أخوين في الغالب والتي تقتضدي مهمتهما بإخصاب الإناث و حماية حوز الزمرة . كان يعتقد أن الإناث هي وحدها التي تقوم بعمليّة الصيد، أما الآن فأصبح يعرف أن الذكور تشارك في الصيد أيضاً، فجميع الذكور العازبة التي لم تسيطر على زمرة خاصة بها تصطاد بوتيرةٍ منتظمة، وحتى الذكور المسيطرة تبقى تشارك في الصيد أحياناً إلا أن نسبة مشاركتها تختلف حسب شكل الأرض التي تقطنها وحسب نوعيّة الطرائد المتوافرة . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اطلق علية ابتداء من القرن الاول الميلادي لقب ملك الغابة، ومن اسماء الاسد في اللغة العربية السبع والليث والهزبر والورد والضرغام واسامة ويسمى بيته عرين . ولكن منذ حوالي 10،000 سنة مضت، انقرضت الاسود من اوروبة الغربيّة ثم مالبثت ان انقرضت من باقي اوروبة بحلول القرن الثاني للميلاد، كما انقرضت الاسود من شمالي افريقيا والشرق الاوسط في الفترة مابين اواخر القرن التاسع عشر و اوائل القرن العشرين .  بالاضافة الى ذلك فان جمهرة الاسود الحالية تواجه خطراً اخر يتمثل في عزلة المجموعات عن بعضها جغرافيّاً، مما يزيد من احتمال التناسل الداخلي بين الاقارب مما يتسبب بمشاكل وراثيّة، وقد اظهرت المؤسسة الكينيّة للحياة البريّة ان المجموعات التي حصل بداخلها تناسل د .  انقرض اخر الاسود الاوروبيّة في اليونان بحلول العام 100 للميلاد، ومن السلالات المنقرضة الاخرى: سلالة راس الرجاء الصالح اسد راس الرجاء الصالح، سلالة الكهوف اسد الكهوف الاوروبي الذي تعايش مع الانسان خلال العصر الجليدي الاخير، والسلالة الاميركيّة الاسد الامي . كان العلماء يعتقدون سابقاً ان حجم اللبدة وكثافتها ولونها دليل على سلالة الاسود المعيّنة، حيث كان يستند الى هذا في تعريف بعض السلالات مثل اسد راس الرجاء الصالح و اسد المغرب، اما الآن فقد اصبح يعرف ان العوامل الخارجيّة تؤثر على حجم و لون اللبدة، فقد ظهر ان . كان يعتقد ان الاناث هي وحدها التي تقوم بعمليّة الصيد، اما الآن فاصبح يعرف ان الذكور تشارك في الصيد ايضاً، فجميع الذكور العازبة التي لم تسيطر على زمرة خاصة بها تصطاد بوتيرةٍ منتظمة، وحتى الذكور المسيطرة تبقى تشارك في الصيد احياناً الا ان نسبة مشاركتها تختل .  </t>
+  </si>
+  <si>
+    <t>البرق هو هذا الضوء المبهر الذي يظهر فجأة في قلب السماء في الأيام التي تسوء فيها أحوال الجو, وهو عبارة عن الضوء الناشئ نتيجة تصادم سحابتين أحدهما تحمل الشحنة الكهربائية السالبة والأخرى تحمل الشحنة الكهربائية الموجبة وبذلك ينتج عن التصادم شرارة قوية تصدر علي هيئة الضوء الذي نراه فجأة ثم يختفي في الأيام ذات الطقس السيء . كما أن هذا الضوء يعقبه صوت عالٍ قادم من السماء وهو ما يسمى بالرعد والإثنان معا يطلق عليهم اسم الصاعقة . ثبت علميا أن قطرات الماء تكتسب شحنات كهربية موجبة عند تجمدها علي هيئة حبات البرد أو بلورات الثلج‏,‏ وكذلك عند انصهارها من كل من البرد والثلج إلي حالة الماء السائل‏,‏ وعند تفتتها إلي قطيرات أدق أو تجمعها علي هيئة قطرات أكبر‏,‏ وعند تبخيرها‏,‏ وعند تكثفها أي عند كل تغير من حالة إلي حالة أخري من الصلابة والسيولة‏,‏ والحالة الغازية‏,‏ ويبقي الهواء المحيط بهذا الماء في أشكاله المختلفة مكتسبا شحنات كهربية سالبة‏,‏ ولذلك فإن السحب تشحن بالكهرباء باحتكاكها بالهواء المشحون بها‏,‏ وتتجمع الشحنات الموجبة علي أعلي السحابة وأسفلها حيث تتدني درجة الحرارة الي ما بين عشر درجات وأربعين درجة مئوية تحت الصفر‏,‏ بينما تتركز الشحنات السالبة في وسط السحابة حيث تصل درجة الحرارة إلي الصفر المئوي‏ . ‏وعندما يحدث التفريغ الكهربي بين منطقتين مختلفتي الشحنة في داخل السحابة الواحدة‏,‏ أو بين سحابتين متجاورتين يصل الفرق في الجهد الكهربي بينهما حدا معينا يحدث البرق علي هيئة شرارات كهربائية تنتشر في مساحة كبيرة من السماء الدنيا‏,‏ وقد يحدث هذا التفريغ الكهربي بين السحابة والهواء المحيط بها‏,‏ وقد يحدث بين السحب والأرض وما عليها من مبان عالية أو أشجار‏,‏ وتسمي هذه الظاهرة‏,‏ بالصاعقة لما تحدثه من دمار كبير‏,‏ولمنع حدوث الاثار التدميرية للصواعق تثبت قضبان معدنية في أعالي المنشآت‏,‏ وتوصل بالأرض عبر موصل جيد من الاسلاك المعدنية يحمل الشحنة الكهربائية الناتجة عن حدوث البرق إلي الأرض مباشرة دون أن تصيب المنشآت بأية اضرار‏,‏ وتعرف هذه الشبكة من القضبان المعدنية الموصلة بالأرض باسم مانعات ‏ الصواعق .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ثبت علميا ان قطرات الماء تكتسب شحنات كهربية موجبة عند تجمدها علي هيئة حبات البرد او بلورات الثلج‏,‏ وكذلك عند انصهارها من كل من البرد والثلج الي حالة الماء السائل‏,‏ وعند تفتتها الي قطيرات ادق او تجمعها علي هيئة قطرات اكبر‏,‏ وعند تبخيرها‏,‏ وعند تكثفها ا .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحديد عنصر كيميائي وفلز ، من اقدم المعادن المكتشفة ، يرمز له بالرمز Fe وعدده الذري 26 ، وفي الجدول الدوري يقع الحديد في المجموعة الثامنة والدورة الرابعة ، وهو عنصر ضروري لحياة الانسان كونه يدخل في تركيب هيموجلوبين الدم وكذلك لحياة النباتات كونه يدخل في تركيب الكلوروفيل . و يدخل في كل شيء، ويحتل الحديد المركز الرابع من حيث وجود العناصر في القشرة الأرضية، وهو فلز قابل للطرق والسحب ،ويدخل في صناعة العديد من السبائك . تحتوي النيازك الساقطة على الارض على كميات من الحديد قد تصل إلى 90% من كتلة النيازك . الشبكة البلورية للحديد على هيئة مكعب ، تتوزع على كل زاوية من زواياه ذرة حديد ثمانية ذرات ، وتقع تاسعة في مركز المكعب ، والاوتونيوم ، البناء الفريد في مدينة بروكسل يمثل نموذج الشبكة البلورية للحديد مكبرا 165 مليار مرّة، جاء البناء رمزا لعظمة الحديد ودوره في حياة البشريّة . يعد الحديد أقوى الفلزات على الاطلاق وأكثرها أهمية للأغراض الهندسية شرط حمايته من الصدأ أي التفاعل مع الأكسجين وهناك عدة طرق لحماية الحديد من الصدأوابسطها منع تماس الآكسجين والرطوبة عن الحديد وذلك بتغليف الحديد بمادة عازلة مثل استخدام الاصباغ او عوازل . من أفضل الطرق المستخدمة في الصناعة هي استخدام نظام الحماية الكاثودية لحماية الحديد من الصدأ والتآكل . يرمز الحديد في الثقافة العامة إلى القوة و الصلابة ومن ذلك قولنا لا يفل الحديد إلا الحديد و قولنا سنضرب بيد من حديد . يشكل الحديداحدى القواعد التي تقوم عليها حضارتنا . و يرجع كونه اكثثر الفازات استخداما إلى خواصه القيمة,و إلى وفرة خاماته و سهولة الوصول اليها . ان الحديد موجود في معظم القشرة الارضية, وهو يمثل 50% منها من الرغم من عدم تساوي توزيعه في سطح الارض . ونتيجة لعمليات جيولوجية,يتراكم الحديد في رواسب مختلفة الحجم ،وهو أكثر توافرا في باطن الارض ، ويعتقد ان لب الارض يتكون من كثلة من الحديدو النيكل في درجة حرارة 4000 م تحت ضغوط عالية جدا . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحديد عنصر كيميائي وفلز ، من اقدم المعادن المكتشفة ، يرمز له بالرمز Fe وعدده الذري 26 ، وفي الجدول الدوري يقع الحديد في المجموعة الثامنة والدورة الرابعة ، وهو عنصر ضروري لحياة الانسان كونه يدخل في تركيب هيموجلوبين الدم وكذلك لحياة النباتات كونه يدخل في ت . الشبكة البلورية للحديد على هيئة مكعب ، تتوزع على كل زاوية من زواياه ذرة حديد ثمانية ذرات ، وتقع تاسعة في مركز المكعب ، والاوتونيوم ، البناء الفريد في مدينة بروكسل يمثل نموذج الشبكة البلورية للحديد مكبرا 165 مليار مرّة، جاء البناء رمزا لعظمة الحديد ودوره ف . يعد الحديد اقوى الفلزات على الاطلاق واكثرها اهمية للاغراض الهندسية شرط حمايته من الصدا اي التفاعل مع الاكسجين وهناك عدة طرق لحماية الحديد من الصداوابسطها منع تماس الآكسجين والرطوبة عن الحديد وذلك بتغليف الحديد بمادة عازلة مثل استخدام الاصباغ او عوازل .  ونتيجة لعمليات جيولوجية,يتراكم الحديد في رواسب مختلفة الحجم ،وهو اكثر توافرا في باطن الارض ، ويعتقد ان لب الارض يتكون من كثلة من الحديدو النيكل في درجة حرارة 4000 م تحت ضغوط عالية جدا .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الذهب هو فلز ثمين جداً وعنصر كيميائي يرمز له بالرمز Au و عدده الذري 79 . وهو لين ولامع أصفر اللون، استخدم كوحدة نقد عند العديد من الشعوب والحضارات والدول، كما أنه يستخدم في صناعة الحلي والجواهر . يتواجد في الطبيعة على هيئة حبيبات داخل الصخور و في قيعان الأنهار ، أو كعروق في باطن الأرض ، وغالباً ما يوجد الذهب مع معادن أخرى كالنحاس و الرصاص ، و اكتشفت أكبر كتلة من الذهب في أستراليا عام 1896 م و كان وزنه 2,280 أونصة ، ويمتاز الذهب بقلة التأكل و النعومة كما انه أكثر عناصر العالم كثافة . و قد تواجد الذهب بكثرة عند الفراعنة فكانوا يصنعون منه توابيت ملوكهم وعرباتهم كما انهم صنعوا منه قناعاً من أجمل الأقنعة التي عرفتها البشرية فكان مصنوعا من الذهب النقي للفرعون توت عنخ أمون . و يشكل الذهب قاعدة نقدية مستخدمة من قبل صندوق النقد الدولي و بنك التسويات الدولي كما ان للذهب استعملات اخرى فهو يستعمل في طب الأسنان و الإلكترونيات . إن الخصائص الفريدة للذهب المتمثلة في ليونته وقابليته للسحب والتشكيل، ومقاومته للتآكل، جعلته مناسباً للكثير من الأغراض فهو يخلط مع فلزات أخرى كالنحاس أو الفضة أو النيكل للحصول على سبائك أكثر متانة، ومع البلاتين يدخل في صنع الأياف الصناعية نظراً لكونها مقاومة جداً لفصل المواد الكيميائية، إن الذهب هو المعدن المفضل في العديد من المجالات مثل مجوهرات الزينة . كثر استخدام الذهب في مجوهرات الزينة فيما يعرف بالذهب الأصفر ، ويتم ذلك عن طريق خلط الذهب مع النحاس و الفضة و الخارصين بنسب متفاوتة ينتج عنه عيارات الذهب المتعددة ، ويتم قياس درجة نقاوة الذهب بالأجزاء جزء من الألف أو بالعيار حسب المقياس الأمريكي ، فمثلاً درجة النقاوة 1000 تقابل العيار 24 ، ودرجة النقاوة 916 تقابل العيار 21 ، بينما 750 تقابل العيار 18 ، وعموما فإن اللون يميل إلى الشحوب كلما تم إنقاص رقم العيار أي نقصت كمية الذهب في السبيكة . أما الذهب الأبيض فهو ذهب ممزوج بالقصدير أو البلاديوم من أجل إكسابه اللون الأبيض ويستخدم الذهب الأبيض عادة لأطقم المجوهرات . يستخدم الذهب في طب الأسنان نظراً لليونته ومقاومته للتآكل في الفم . كما يستخدم محلول الذهب في علاج الروماتيزم والتهابات العظام . يستخدم الذهب المشع  198 في علاج بعض أنواع أمراض السرطان  عافانا الله وإياكم منها .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الذهب هو فلز ثمين جداً وعنصر كيميائي يرمز له بالرمز Au و عدده الذري 79 .  يتواجد في الطبيعة على هيئة حبيبات داخل الصخور و في قيعان الانهار ، او كعروق في باطن الارض ، وغالباً ما يوجد الذهب مع معادن اخرى كالنحاس و الرصاص ، و اكتشفت اكبر كتلة من الذهب في استراليا عام 1896 م و كان وزنه 2,280 اونصة ، ويمتاز الذهب بقلة التاكل و النع . و قد تواجد الذهب بكثرة عند الفراعنة فكانوا يصنعون منه توابيت ملوكهم وعرباتهم كما انهم صنعوا منه قناعاً من اجمل الاقنعة التي عرفتها البشرية فكان مصنوعا من الذهب النقي للفرعون توت عنخ امون . و يشكل الذهب قاعدة نقدية مستخدمة من قبل صندوق النقد الدولي و بنك التسويات الدولي كما ان للذهب استعملات اخرى فهو يستعمل في طب الاسنان و الالكترونيات . ان الخصائص الفريدة للذهب المتمثلة في ليونته وقابليته للسحب والتشكيل، ومقاومته للتآكل، جعلته مناسباً للكثير من الاغراض فهو يخلط مع فلزات اخرى كالنحاس او الفضة او النيكل للحصول على سبائك اكثر متانة، ومع البلاتين يدخل في صنع الاياف الصناعية نظراً لكونها مقاو .  </t>
+  </si>
+  <si>
+    <t>السمك أو الأسماك هي من الحيوانات الفقارية ذوات الدم البارد التي تعيش في الماء, هناك أنواع عديدة من الأسماك أكثر 27000 نوع مما جعلها أكثر الفقاريات تنوعاً . للسمك حراشف وزعانف وغلاصم خياشيم يتنفس بها . الأسماك بعضها يعيش في الماء العذب في البحيرات والأنهار والأهوار وبعضها الأخر يعيش في المياه المالحة في البحار والمحيطات . بعض الأسماك تكون صغيرة وبطول 1 سم أو أقل وبعضها الأخر كبيرة وطويلة قد يصل طولها إلى 15 متر ووزنها إلى 15 طن كما في سمك القرش و الحوت . أكثر أنواع الأسماك تعتبر غذاء رئيسي للبشر, ومن أنواع الأسماك التي تكون مرغوبة أكثر من غيرها مثل سمك الكارب وسمك القدّ وسمك الرنجة وسمك السردين وسمك التونة . أغلب أنواع الأسماك لها عظام وبعض الأنواع الأخرى مثل القرش ليس لها عظام حقيقية بل هي غضروفية . بعض العلماء لا يعتبرونها أسماك حقيقية, ولكن أغلب الناس يدعونها بالأسماك . مثل الفقاريات الأخرى، تمتلك الأسماك هيكلاً محورياً أو العمود الفقري . يقع تجويف الجسم الذي يحتوي على الأعضاء الحيوية في الجزء الأمامي من بطن السمكة، أما الجزء الخلفي الذي يقع خلف تجويف الجسم فيتكون معظمه من عضلات و وظيفته الأساسية هي دفع الأسماك في الماء و يسمى بالذيل أو الذنب . يغطى غالباً جسم الأسماك بحراشف . وتكسو جلود الأسماك أيضاً طبقة من مادة مخاطية تكمل ما للقشور من وظائف وقائية؛ فهي تحيط بالفطريات والجراثيم التي قد تعلق بجسم السمكة وتشلّ حركتها فتنزلق وتسقط دون أن تصيبها بضرر، أما إذا فقدت السمكة جزءاً من حراشفها، فإن الميكروبات تستطيع أن تصل إلى الجزء العاري الخالي من المادة المخاطية فتتعرض السمكة لكثير من الأمراض . كما تتميز الأسماك أيضاً بوجود الزعانف التي تدعمها أشواك شعاعية غضروفية أو عظمية؛ و الزعانف تكون فردية أو زوجية . تختلف ألوان الأسماك ما بين الرمادي الفاتح، و الأحمر الزاهر، و البني الذي تشبه خضرة، إلى الألوان القاتمة التي اختصت بها أسماك القاع، و تمتاز الأسماك العظمية عادة بجمال ألوانها وتعددها، بينما تتجانس الألوان في الأسماك الغضروفية . تكتسب الأسماك ألوانها من أصباغ راسبة أو معلقة في خلايا خاصة ذات أضلاع أو فروع؛ و تحتوي الخلايا المضلعة على الصبغ الأصفر، بينما تحتوي المتفرعة على الصبغ البرتقالي والأحمر والبني والأسود . وهناك خلايا أخرى متفرعة، تتكدس فيها بلورات عاكسة للضوء من مادة تسمى  الجوانين، وهي من إنتاج المواد الزلالية المهضومة، ويحملها الدم إلى هذه الخلايا التي تكثر على بطن السمكة ويعزي إليها اللون الأبيض والفضي . وتختلف مقادير الصبغ والبلورات من سمكة لأخرى . فإذا ما كثرت الخلايا المحتوية على الصبغ، وكانت الألوان زاهية وواضحة؛ وإذا ما كثرت الخلايا البلورية، أصبحت الألوان باهتة؛ وعند انتشار السوائل الملونة داخل الخلايا يكتمل لون السمكة ويزداد وضوحاً، وإذا تراكمت الخلايا المختلفة الأصباغ بعضها فوق بعض ينتج منها ألوان متعددة، كما أن الغوانين يستطيع أيضاً تحليل الضوء إلى ألوان الطيف . وتستطيع الأسماك في كثير من الاحيان أن تماثل بيئتها، للتتقي عدوها أو تباغت فريستها .. فتأخذ بعضها ألوان الأعشاب البحرية، وتأخذ الأخرى أشكال المرجان وألوانه، كما تتخذ أسماك القاع ألواناً تشبه الألوان السائدة فيه . ولا يعد انتشار الضوء وتخلله طبقات المياه أكثر من أربعمائة متر، وينتج من هذا أن أسماك السطح تكون زاهية اللون، بينما تتجانس الألوان كلما ازدادا العمق حتى تصبح باهتة في الاعماق السحيقة وكذلك تبهت ألوان الأسماك التي تسكن المغاور والكهوف المائية المظلمة، ولكنها تستعيد ألوانها عندما تتعرض للضوء . هناك عوامل أخرى، إلى جانب الضوء، كثيراً ما تؤثر في ألوان الأسماك . كشفت علاقة بين عين السمكة و الألوان عندما غطي الجزء الأسفل من العين صار لون السمكة زاهياً، و لم تسبب تغطية الجزء العلوي أي تغيير في لون السمكة، مما يدل على أن جزء الشبكية الأسفل يؤثر في لون الحيوان . كما لوحظ أن سمك موسى يستطيع أن يكتسب ألوان القاع بعد أن يطيل النظر إليها و ذلك لأن عين السمكة تنقل صور المرئيات إلى العصب البصري ثم إلى المخ ثم إلى العصب الودّي الذي يتصل بجميع الخلايا الملونة و بذلك تأخذ السمكة لون البيئة التي تعيش فيها .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السمك او الاسماك هي من الحيوانات الفقارية ذوات الدم البارد التي تعيش في الماء, هناك انواع عديدة من الاسماك اكثر 27000 نوع مما جعلها اكثر الفقاريات تنوعاً . بعض الاسماك تكون صغيرة وبطول 1 سم او اقل وبعضها الاخر كبيرة وطويلة قد يصل طولها الى 15 متر ووزنها الى 15 طن كما في سمك القرش و الحوت . اغلب انواع الاسماك لها عظام وبعض الانواع الاخرى مثل القرش ليس لها عظام حقيقية بل هي غضروفية .  وتكسو جلود الاسماك ايضاً طبقة من مادة مخاطية تكمل ما للقشور من وظائف وقائية؛ فهي تحيط بالفطريات والجراثيم التي قد تعلق بجسم السمكة وتشلّ حركتها فتنزلق وتسقط دون ان تصيبها بضرر، اما اذا فقدت السمكة جزءاً من حراشفها، فان الميكروبات تستطيع ان تصل الى الجزء . كما تتميز الاسماك ايضاً بوجود الزعانف التي تدعمها اشواك شعاعية غضروفية او عظمية؛ و الزعانف تكون فردية او زوجية . تكتسب الاسماك الوانها من اصباغ راسبة او معلقة في خلايا خاصة ذات اضلاع او فروع؛ و تحتوي الخلايا المضلعة على الصبغ الاصفر، بينما تحتوي المتفرعة على الصبغ البرتقالي والاحمر والبني والاسود .  فاذا ما كثرت الخلايا المحتوية على الصبغ، وكانت الالوان زاهية وواضحة؛ واذا ما كثرت الخلايا البلورية، اصبحت الالوان باهتة؛ وعند انتشار السوائل الملونة داخل الخلايا يكتمل لون السمكة ويزداد وضوحاً، واذا تراكمت الخلايا المختلفة الاصباغ بعضها فوق بعض ينتج منها . وتستطيع الاسماك في كثير من الاحيان ان تماثل بيئتها، للتتقي عدوها او تباغت فريستها . ولا يعد انتشار الضوء وتخلله طبقات المياه اكثر من اربعمائة متر، وينتج من هذا ان اسماك السطح تكون زاهية اللون، بينما تتجانس الالوان كلما ازدادا العمق حتى تصبح باهتة في الاعماق السحيقة وكذلك تبهت الوان الاسماك التي تسكن المغاور والكهوف المائية المظلمة، ولكنه .  كشفت علاقة بين عين السمكة و الالوان عندما غطي الجزء الاسفل من العين صار لون السمكة زاهياً، و لم تسبب تغطية الجزء العلوي اي تغيير في لون السمكة، مما يدل على ان جزء الشبكية الاسفل يؤثر في لون الحيوان .  </t>
+  </si>
+  <si>
+    <t>علم الفلك من أوائل العلوم التي نشأت في فجر البشرية وهو علم يهتم بمراقبة و دراسة الاحداث التي تقع خارج الكرة الارضية وغلافها الجوي و علم التنبؤ بالظواهر الفلكية، يدرس علم الفلك بدايات الاجسام التي يمكن مراقباتها في السماء خارج الارض، وتطورها وخصائصها الفيزيائية و الكيميائية، والاحداث المرافقة لها . 
+كان علم الفلك بداية يلقن من قبل كهنة المعابد . وكان لكل من قدماء المصريين والبابليين فلكهم الخاص بهم, فلقد عثر علي تقاويم فوق أغطية التوابيت الفرعونية ترجع لسنة 2000قبل الميلاد . ووجد أن أسقف المقابر المملكة الحديثة فد زينت بصور النجوم التي كانت ترى بالسماء وأطلق عليها أسماؤها . كما وجد في بلاد ما بين النهرين تشكيلات لصور النجوم . وكان البابليون يتنبؤن بدقة بالخسوف والكسوف للشمس والقمر . وتاريخ الفلك يبدأ منذ عصر ما قبل التاريخ حيث كان الإنسان الأول قد شغل تفكيره بالحركة الظاهرية المتكررة للشمس والقمر وتتابع الليل حيث يظهر الظلام و تظهر النجوم وحيث يتبعه النهار لتتواري في نوره . وكان يعزي هذا للقوى الخارقة لكثير من الآلهة . وكان الصينيون يعتبرون الأرض عربة ضخمة في أركانها أعمدة ترفع مظلة السماء وبلاد الصين تقع في وسط هذه العربة ويجري النهر السماوي النهر الأصفر من خلال عجلات العربة ويقوم السيد الأعلي المهيمن علي أقدار السماء والأرض بملازمة النجم القطبي بالشمال بينما التنينات تفترس الشمس والقمر . 
+وفي القرن الثاني قبل الميلاد . وضع الفلكي الصيني هياهونج نظرية السماء الكروية حيث قال أن الكون بيضة والأرض صفارها و قبة السماء الزرقاء بياضها . وكان قدماء المصريين يعتقدون أن الأرض مستطيلة طويلة يتوسطها نهر النيل الذي ينبع من نهر أعظم يجري حولها تسبح فوقه النجوم الآلهة . والسماء ترتكز علي جبال بأركان الكون الأربعة و تتدلى منها هذه النجوم . لهذا كان الإله رع يسير حول الأرض باستمرار . ليواجه الثعبان أبوبي رمز قوى الظلام الشريرة حتى يصبحا خلف الجبال جهة الغرب والتي ترفع السماء . وهناك يهزم رع ويسقط, فيحل الظلام . وفي الصباح ينتصر رع علي هذه القوي الشريرة ويستيقظ من جهة الشرق . بينما حورس إله القمر يسير بقاربه ليطوف حول العالم . وكان القمر بعتبر إحدي عينيه . و يلاحقه أعداؤه لفقيء هذه العين بإلقائها في النيل وينجحوا مجتمعين في هذه المهمة فيظلم القمر . لكن الإله رع يهب لنجدة عين حورس القمر ويعيدها لحورس . وتمكنوا منذ 3000 سنة قبل الميلاد . بالقيام بالرصد الفلكي وقياس الزمن وتحديده من خلال السنة والأشهر . وبنوا الأهرامات أضلاعها متجهة للجهات الأربع الأصلية . ومن خلال هذا نجدهم قد حددوا الشمال الحقيقي . والفلك الفرعوني لم يهتموا به عكس بلاد الرافدين ولاسيما بالدورة القمرية . واهتموا بالشمس لأنها كانت ترمز للإله رع . وفي احدى الرسومات يصور المصريون السماء على انها بقرة عظيمة, حُليت بطنها بالنجوم, وتحتها يقف الاله شو  ويرفعها بذراعيه . ايضا تصور المصريون الشمس وحركاتها كأنها عجل ذهبي, في الصباح يولد من رحم بقرة السماء, ويكبر خلال النهار إلى ان يصبح ثورا في المساء, فيلقح امه لكتي تلد شمساً جديدة في الصباح التالي . وتصوروها أيضا بأنها جُعل يدفع الشمس نحو السماء, كما يفعل الجعل بدحرجة كرة من الروث امامه . وتصوروها أيضا بأنها امرأة لها طفل يكبر خلال النهار, وفي المساء يصير كهلا ويختفي بعد الغروب في العالم السفلي .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علم الفلك من اوائل العلوم التي نشات في فجر البشرية وهو علم يهتم بمراقبة و دراسة الاحداث التي تقع خارج الكرة الارضية وغلافها الجوي و علم التنبؤ بالظواهر الفلكية، يدرس علم الفلك بدايات الاجسام التي يمكن مراقباتها في السماء خارج الارض، وتطورها وخصائصها الفيز .  ووجد ان اسقف المقابر المملكة الحديثة فد زينت بصور النجوم التي كانت ترى بالسماء واطلق عليها اسماؤها .  وكان يعزي هذا للقوى الخارقة لكثير من الآلهة .  وضع الفلكي الصيني هياهونج نظرية السماء الكروية حيث قال ان الكون بيضة والارض صفارها و قبة السماء الزرقاء بياضها .  ليواجه الثعبان ابوبي رمز قوى الظلام الشريرة حتى يصبحا خلف الجبال جهة الغرب والتي ترفع السماء .  وفي الصباح ينتصر رع علي هذه القوي الشريرة ويستيقظ من جهة الشرق .  وكان القمر بعتبر احدي عينيه .  ومن خلال هذا نجدهم قد حددوا الشمال الحقيقي . وتصوروها ايضا بانها جُعل يدفع الشمس نحو السماء, كما يفعل الجعل بدحرجة كرة من الروث امامه . وتصوروها ايضا بانها امراة لها طفل يكبر خلال النهار, وفي المساء يصير كهلا ويختفي بعد الغروب في العالم السفلي .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطاقة هي المقدرة على القيام بعمل ما أى إحداث تغيير ، وهناك صور عديدة للطاقة، يتمثل أهمها في الحرارة و الضوء . ضمن الاستخدام الاجتماعي : تطلق كلمة "طاقة" على كل ما يندرج ضمن مصادر الطاقة ، إنتاج الطاقة ، و استهلاكها و أيضا حفظ موارد الطاقة . بما ان جميع الفعاليات الاقتصادية تتطلب مصدرا من مصدر الطاقة ، فإن توافرها و أسعارها هي ضمن الاهتمامات الأساسية و المفتاحية . في السنوات الأخيرة برز استهلاك الطاقة كاحد أهم العومل المسببة و المتعلقة بالاحترار العالمي مما جعلها تتحول إلى قضية أساسية في معظم دول العالم . ضمن سياق العلوم الطبيعية ، الطاقة يمن ان تاخذ أشكالا متنوعة مثل طاقة حرارية ، كيميائية ، كهربائية ، إشعاعية ، نووية ، و اخيرا كهرومغناطيسية .  هذه الأنواع الطاقية تصنف عادة بكونها طاقة حركية أو طاقة كامنة ، مع أن بعض انواع الطاقة تقاوم مثل هذا التصنيف مثلا الضوء . في حين أن انواع أخرى من الطاقة كالحرارة يمكن أن تكون مزيجا من الطاقتين الكامنة و الحركية . العديد من انواع الطاقة هذه يمكن تحويلها من شكل لآخر بمساعدة ادوات بسيطة او تقنيات معقدة , من الطاقة الكيميائية إلى الكهربائية عن طريق الأداة الشائعة البطاريات أو المدخرات ، بالمقابل أيضا قام الحضري محمد ياسين ضمن سياق نظرية النسبية بدمج مجالي المادة و الطاقة معا بحيث أصبح من الممكن ان تتحول الطاقة إلى مادة و بالعكس تحول المادة إلى طاقة ، هذا التحول ترجم عمليا عن طريق الحصول على الطاقة بعمليات الانشطار النووي أو الاندماج النووي . مصطلحات الطاقة و تحولاتها مفيدة جدا في شرح العمليات الطبيعية . فحتى الظواهر الطقسية مثل الريح ، و المطر و البرق و الأعاصير تعتبر نتيجة لتحولات الطاقة التي تأتي من الشمس على الأرض . الحياة نفسها تعتبر أحد نتائج تحولات الطاقة : فعن طريقة التركيب الضوئي يتم تحويل طاقة الشمس إلى طاقة كيميائية ضمن النباتات ، يتم لاحقا الاستفادة من هذه الطاقة الكيميائية المختزنة في عمليات الاستقلاب ضمن الطائنات الحية غيرية التغذية . يمكن تحويل الطاقة من صورة إلى أخرى . فعلى سبيل المثال، يمكن تحويل الطاقة الكيميائية المختزنة في بطارية الجيب إلى ضوء . كمية الطاقة الموجودة في العالم ثابتة على الدوام، فالطاقة لا تفنى ولا تستحدث ، وإنما تتحول من شكل إلى آخر . وعندما يبدو أن الطاقة قد استنفذت، فإنها في حقيقة الأمر تكون قد تحولت إلى صورة أخرى، لهذا نجد أن الطاقة هي قدرة المادة للقيام بالشغل الحركة كنتيجة لحركتها أو موضعها بالنسبة للقوي التي تعمل عليها . فالطاقة التي يصاحبها حركة يطلق عليها طاقة حركية، والطاقة التي لها صلة بالموضع يطلق عليها طاقة كامنة جهدية أو مخزنة . فالبندول المتأرجح به طاقة جهدية في نقاطه النهائية، وفي كل أوضاعه النهائية له طاقة حركية وطاقة جهدية في أوضاعه المختلفة . الطاقة توجد في عدة أشكال كالطاقة الميكانيكية، الحرارية، الديناميكية الحرارية، الكيميائية، الكهربائية، الإشعاعية، والذرية . وكل أشكال هذه الطاقات قابلة للتحويل الداخلي بواسطة طرق مناسبة . والطعام الذي نتاوله، به طاقة كيميائية يخزنها الجسم ويطلقها عندما نعمل أو نبذل مجهوداً . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الطاقة هي المقدرة على القيام بعمل ما اى احداث تغيير ، وهناك صور عديدة للطاقة، يتمثل اهمها في الحرارة و الضوء .  في السنوات الاخيرة برز استهلاك الطاقة كاحد اهم العومل المسببة و المتعلقة بالاحترار العالمي مما جعلها تتحول الى قضية اساسية في معظم دول العالم . ضمن سياق العلوم الطبيعية ، الطاقة يمن ان تاخذ اشكالا متنوعة مثل طاقة حرارية ، كيميائية ، كهربائية ، اشعاعية ، نووية ، و اخيرا كهرومغناطيسية .  في حين ان انواع اخرى من الطاقة كالحرارة يمكن ان تكون مزيجا من الطاقتين الكامنة و الحركية .  وعندما يبدو ان الطاقة قد استنفذت، فانها في حقيقة الامر تكون قد تحولت الى صورة اخرى، لهذا نجد ان الطاقة هي قدرة المادة للقيام بالشغل الحركة كنتيجة لحركتها او موضعها بالنسبة للقوي التي تعمل عليها .  فالبندول المتارجح به طاقة جهدية في نقاطه النهائية، وفي كل اوضاعه النهائية له طاقة حركية وطاقة جهدية في اوضاعه المختلفة .  والطعام الذي نتاوله، به طاقة كيميائية يخزنها الجسم ويطلقها عندما نعمل او نبذل مجهوداً .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الديناصور حيوان فقاري ساد في النظام البيئي الأرضي لأكثر من 160 مليون سنة . أول الديناصورات ظهر قبل حوالي 230 مليون سنة خلت أما آخر الديناصورات على ظهر الأرض فاختفت في حادثة انقراض كارثية ، في نهاية العصر الكريتاسي . قبل 65 مليون سنة . يعتبر الخبراء الآن الطيور الجديثة الأحفاد المباشرين المتحدرين من الديناصورات الثيروبودية . منذ أن تم وصف الديناصور للمرة الأولى في القرن التاسع عشر لقيت هياكل الديناصورات المستحاثية اهتماما واسعا من المتحف على امتداد العالم . أصبح الديناصور جزءا من ثقافة العالم و اكتسب شعبية واسعة منذ ذلك الحين ، بالذات بين الأطفال . و كثيرا ما استخدم في الكتب الأكثر مبيعا و في أفلام الخيال العلمي و أهمها الحديقة الجوراسية . 
+في الاستخدام غير الرسمي غير العلمي يتم استخدام مصطلح ديناصور من اجل الإشارة إلى كل زاحف قبل تاريخي ، مثل بيليكوسور , ديميترودون ، و البتيروسور المجنح ، و إشثيوسور المائي ، و بليسيوسور و موساسور ، مع أن جميع هذه الكائنات عمليا و علميا ليست ديناصورات . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اول الديناصورات ظهر قبل حوالي 230 مليون سنة خلت اما آخر الديناصورات على ظهر الارض فاختفت في حادثة انقراض كارثية ، في نهاية العصر الكريتاسي . منذ ان تم وصف الديناصور للمرة الاولى في القرن التاسع عشر لقيت هياكل الديناصورات المستحاثية اهتماما واسعا من المتحف على امتداد العالم .  اصبح الديناصور جزءا من ثقافة العالم و اكتسب شعبية واسعة منذ ذلك الحين ، بالذات بين الاطفال .  </t>
+  </si>
+  <si>
+    <t>الألماس هو مادة ذات تركيب بلوري وهو على شكل مكعب في اغلب الاحيان واحيانا يكون على شكل ثمانى الاوجة يتكون بنسبة كبيرة من الكربون او مايعرف بالفحم وذلك تحت ضغط وحرارة شديدين,ورغم التشابه الكبير بين المواد المكونة للجرافيت والماس الا ان الخصائص لكل منهما تختلف عن الاخرى بشكل كبير بسب التركيب الذرى المختلف لكل منهما . و هذا التشابة في التركيب الكيماوى هو ما دعى العلماء تجربة تحويل الجرافيت اللى الماس وتم ذلك عن طريق مكنة خاصة تسطيع تحمل درجة حرارة وضعط شديدين لتحويل الجرافيت للماس ونتج ما يسمى الماس الصناعى . ويبلغ عمر احدث الماسه موجودة قرابة ملايين السنين . وهو أكثر المواد المعروفة وذات الفائدة من بين ما يزيد على 3000 مادة مكتشفة اليوم . وقد عرف منذ القدم كأحد الجواهر القيمة معنويا وعمليا . ازدادت شعبية الألماس في القرن التاسع عشر مع تحسن تقنيات القطع والصقل . وخاصة طريقة البريليات التى اكتشفها الاوربيون . يشتهر الألماس بصفات فيزيائية فائقة، خصوصًا صلابته العالية حيث يتحصل وحده على درجة 10 في سلم درجات صلابة الاحجار مع الاخذ بالعبرة ان الفرق في درجات الصلابة بين درجة 9 مثل الزفير والياقوت و 10 كبير وتشتيته العالي للضوء . لهذا السبب، فإن الألماس مادة ذات قيمة مهمة في صناعة الحلي بالإضافة إلى استعمالات صناعية أخرى مثل استخدام الالماس على رأس أنابيب التنقيب عن البترول,وذلك لقوته الشديدة وهو يتعبر أقوى من الحديد . أطلق اليونان على الألماس اسم أدماس والتي تعني مُحال التطويع لصلابته . وقد ذكر ابن منظور في لسان العرب عن أصل كلمة ألماس معرب أذماس باليونانية وقد حرفوه عند تعريبه بقلب الذال لتقارب صورتهما ومخرجهما . يستخرج معظم الألماس من الفوهات البركانية حيث تلقي به الحمم البركانية التي تحضره من أعماق الأرض من مسافات قد تصل إلى 150 كيلومترًا حيث الحرارة والضغط العاليين لمدة طويلة تصل إلى ملايين السنين تهيآن ظروفًا مناسبة لتشكيل الألماس . وتقع معظم مناجم الألماس في وسط وجنوب أفريقيا على الرغم من اكتشاف كميات لا بأس بها في كلِ من كندا وروسيا والبرازيل وأستراليا . ويستخرج ما يعادل 130 مليون قيراط، أو 26,000 كيلوغرام، من الألماس سنويًا، وهو ما يعادل قيمته 9 مليار دولار أمريكي . جودة الألماس تقدر دائما بالنظر إلى أربعة معايير مهمه وهي القيراط، الوضوح، اللون، والقطع . ومقابلا للألماس الطبيعي، يتم إنتاج الألماس صناعيا بكميات تقارب أربعة أضعاف الكمية المستخرجة طبيعيا . ومع ذلك، فإن معظم الألماس الصناعي يكون صغيرا ويحوي على تشوهات واضحه مما يجعل أسعاره بخسه أمام الالماس الطبيعي و يكون استعماله محصورا بشكل كبير للأغراض الصناعية لذلك دائما ماتجد شهادات ضمان تصاحب الالماس الطبيعي خصوصا النادر منه و تكون هذة الشهادات صادره من مراكز او شركات تمتلك مخابر وخبراء وباع طويل في التعامل مع الالماس والاحجار الكريمة مثل جي آي ايه الامريكية واتش ار دي  و اي جي اي البلجيكيتان حيث تذكر ادق تفاصيل الحجر من بينها وزن قيراط الحجر ونوع قطعه ودرجة الوضوح واللون بالاضافة إلى الابعاد وتعطى الشهادة رقم مسلسل وتدرج صورة من الشهادة في سجلات الشركة وهي شهادات مضمونة لايمكن الشكك فيها وتجعل الالماسه ذات قيمة اكبر . يدور حول الألماس الكثير من الجدل فيما يتعلق بعمليات استخراجه وتوزيعه، كما هو الحال في عمليات بيع ما يسمى الالماس الدموي من قبل العصابات المسلحة الأفريقية . كما تدور الادعاءات حول مجموعة دي بيرز، وهي إحدى أكبر شركات الألماس في العالم ولها مقار في جوهانسبورغ ولندن، بأنها تسيء استخدام نفوذها في هذا المجال لتتحكم بالكميات المطروحة من الألماس ولتتلاعب بأسعاره عن طريق الاحتكار . ويذكر أنه قد نم صناعة ألماس شديد الشبه بالألماس الطبيعي بواسطة الليزر وبتكلفة قليلة نسبيا .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الالماس هو مادة ذات تركيب بلوري وهو على شكل مكعب في اغلب الاحيان واحيانا يكون على شكل ثمانى الاوجة يتكون بنسبة كبيرة من الكربون او مايعرف بالفحم وذلك تحت ضغط وحرارة شديدين,ورغم التشابه الكبير بين المواد المكونة للجرافيت والماس الا ان الخصائص لكل منهما تخت . و هذا التشابة في التركيب الكيماوى هو ما دعى العلماء تجربة تحويل الجرافيت اللى الماس وتم ذلك عن طريق مكنة خاصة تسطيع تحمل درجة حرارة وضعط شديدين لتحويل الجرافيت للماس ونتج ما يسمى الماس الصناعى .  وهو اكثر المواد المعروفة وذات الفائدة من بين ما يزيد على 3000 مادة مكتشفة اليوم .  يشتهر الالماس بصفات فيزيائية فائقة، خصوصًا صلابته العالية حيث يتحصل وحده على درجة 10 في سلم درجات صلابة الاحجار مع الاخذ بالعبرة ان الفرق في درجات الصلابة بين درجة 9 مثل الزفير والياقوت و 10 كبير وتشتيته العالي للضوء .  لهذا السبب، فان الالماس مادة ذات قيمة مهمة في صناعة الحلي بالاضافة الى استعمالات صناعية اخرى مثل استخدام الالماس على راس انابيب التنقيب عن البترول,وذلك لقوته الشديدة وهو يتعبر اقوى من الحديد .  وقد ذكر ابن منظور في لسان العرب عن اصل كلمة الماس معرب اذماس باليونانية وقد حرفوه عند تعريبه بقلب الذال لتقارب صورتهما ومخرجهما . يستخرج معظم الالماس من الفوهات البركانية حيث تلقي به الحمم البركانية التي تحضره من اعماق الارض من مسافات قد تصل الى 150 كيلومترًا حيث الحرارة والضغط العاليين لمدة طويلة تصل الى ملايين السنين تهيآن ظروفًا مناسبة لتشكيل الالماس .  ومع ذلك، فان معظم الالماس الصناعي يكون صغيرا ويحوي على تشوهات واضحه مما يجعل اسعاره بخسه امام الالماس الطبيعي و يكون استعماله محصورا بشكل كبير للاغراض الصناعية لذلك دائما ماتجد شهادات ضمان تصاحب الالماس الطبيعي خصوصا النادر منه و تكون هذة الشهادات صادره .  كما تدور الادعاءات حول مجموعة دي بيرز، وهي احدى اكبر شركات الالماس في العالم ولها مقار في جوهانسبورغ ولندن، بانها تسيء استخدام نفوذها في هذا المجال لتتحكم بالكميات المطروحة من الالماس ولتتلاعب باسعاره عن طريق الاحتكار .  ويذكر انه قد نم صناعة الماس شديد الشبه بالالماس الطبيعي بواسطة الليزر وبتكلفة قليلة نسبيا .  </t>
+  </si>
+  <si>
+    <t>التمر هو ثمرة أشجار الـنخيل وهو أحد الثمار الشهيرة بقيمتها الغذائية . وقد اعتمد العرب عليها في حياتهم اليومية وأوصى الرسول محمد صلى الله عليه وسلم أصحابه بأكل التمر لما فيه من فوائد وقد غدا التمر ولا يزال الطعام المفضل للإفطار عليه في شهر رمضان، وكما يتناولونه العمال أثناء عملهم من أجل تخفيف التعب وإعطائهم السعرات الحراريات الكافية, وتتناوله النساء العربيات خلال فترة حملهم من أجل تغذية نفسها وتغذية الطفل في أحشائها والمساعدة على تحمل آلام الطلق . ورد ذكر التمر في القرآن في سورة مريم حيث أن السيدة مريم العذراء تناولت الرطب لتخفيف حدة ألم ولادة المسيح حيث أوحى لها الله بأن تهز جذع النخلة ليتساقط عليها الرطب الجني فتأكل منه وتشرب وتقر عينا . من المؤكد أن التمر وهو الغذاء الذي له الفضل في الرشاقة والطول والمناعة ضد الأمراض ،وإتضح علميا ًبأن التمر غني بالمعادن وهذا بخلاف فوائده ارلأخرى التي تجعل منه غذاء كاملا بكل ما في هذه الكلمة من معنى ، ورغم رخص ثمنه وتوفره الدائم في الأسواق مما يجعل منه فاكهة الشتاء الأولى بغير منازع وقد عرفه الفراعنة منذ مئات السنين، فقد دلت الحفريات التي أجريت في مقابرهم على شدة تقديرهم له ، حتى انهم نقشوه على جدران معابدهم . وعرفه العرب والمسلمون فالرسول صلى الله عليه وسلم كان يقتصر في افطاره بعد صومه على بضع تمرات وجرعة من الماء يقوم بعدها إلى الصلاة ، حتى اذا أغطش الليل وانتهى من الصلاة ، تناول طعاماً خفيفاً يسد جوعه وحاجة جسمه من الغذاء دون شعور بالتخمة . وقد استعمله الطيارون الأمريكيون إبان الحرب العالمية الثانية أثناء غاراتهم الليلية كي يعاونهم على تمييز الآهداف في الظلام . إن هذه الفاكهة الصحراوية الممتازة ، غنية جداً بالمواد الغذائية الضرورية للانسان ، إن كيلو غراماً واحد منه يعطي 3000 ثلاثة آلاف سعرة حرارية ،أي ما يعادل الطاقة الحرارية التي يحتاج اليها الرجل متوسط النشاط في اليوم الواحد . إن ما يعطيه الكيلو الواحد من البلح يعادل ثلاثة أضعاف ما يعطيه كيلو واحد من السمك، ان اضافة الجوز واللوز إلى التمر أو تناوله مع الحليب يزيد في قوته وغناه . يصنع من التمر الدبس وهو عصير التمر المكثف, كما يصنع من التمر حلويات كثيرة, وتجري محاولات لصناعة السكر من التمر, وحصل ذلك فعلا وكان السكر الناتج على شكل سائل وذلك لصعوبة بلورة السكر الناتج, لذا استعمل هذا السكر في صنع المعجنات والحلويات, وتم استخلاص قهوة تمر من نواة التمر ويقال أن طعمها أشبه بالقهوة العربية . يوجد في المدينة أكثر من 2000 نوع من التمور .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وقد اعتمد العرب عليها في حياتهم اليومية واوصى الرسول محمد صلى الله عليه وسلم اصحابه باكل التمر لما فيه من فوائد وقد غدا التمر ولا يزال الطعام المفضل للافطار عليه في شهر رمضان، وكما يتناولونه العمال اثناء عملهم من اجل تخفيف التعب واعطائهم السعرات الحراريا .  وعرفه العرب والمسلمون فالرسول صلى الله عليه وسلم كان يقتصر في افطاره بعد صومه على بضع تمرات وجرعة من الماء يقوم بعدها الى الصلاة ، حتى اذا اغطش الليل وانتهى من الصلاة ، تناول طعاماً خفيفاً يسد جوعه وحاجة جسمه من الغذاء دون شعور بالتخمة .  ان ما يعطيه الكيلو الواحد من البلح يعادل ثلاثة اضعاف ما يعطيه كيلو واحد من السمك، ان اضافة الجوز واللوز الى التمر او تناوله مع الحليب يزيد في قوته وغناه .  يوجد في المدينة اكثر من 2000 نوع من التمور .  </t>
+  </si>
+  <si>
+    <t>الفحم الحجري صخر أسود أو بني اللون قابل للاشتعال والاحتراق . وعند احتراق الفحم الحجري فإنه يعطي طاقة على شكل حرارة . ويمكن استعمال الحرارة الصادرة عن احتراق الفحم الحجري في تدفئة المنازل، وفي عمل منتجات عديدة مختلفة . ولكن الاستخدام الأساسي لهذه الحرارة هو في إنتاج الكهرباء . وتعطي معامل إنتاج الطاقة باحتراق الفحم الحجري ثلثي الكهرباء المستهلكة في العالم . ويستعمل الفحم الحجري كذلك في إنتاج فحم الكوك وهو مادة خام أساسية في صناعة الحديد والفولاذ . وتنتج مواد أخرى عن عملية إنتاج فحم الكوك، يمكن استعمالها بدورها في صناعة بعض المنتجات كالأدوية والأصباغ والأسمدة . وكان الفحم الحجري في فترة ماضية المصدر الرئيسي للطاقة في جميع البلدان الصناعية . وقد أنتجت المحركات العاملة بالبخار الناتج عن احتراق الفحم الحجري، معظم القدرة اللازمة لهذه البلدان منذ بداية القرن التاسع عشر وحتى القرن العشرين . ومنذ بداية القرن العشرين، أصبح النفط والغاز الطبيعي المصدرين الرائدين للطاقة في معظم أرجاء العالم . وعلى نقيض الفحم الحجري؛ فإن النفط يمكن تحويله إلى بترول ومواد وقود أخرى لازمة لتشغيل وسائل المواصلات الحديثة . وقد حل استعمال الغاز الطبيعي محل الفحم الحجري لتوليد الطاقة الحرارية . ولكن، يجرى حاليًا استهلاك موارد العالم من النفط والغاز الطبيعي بسرعة . وإذا ما استمر الاستهلاك بالمستوى الحالي فإن موارد النفط قد تستهلك وتنضب في أوائل القرن الحادي والعشرين . كما أن موارد الغاز الطبيعي ستنضب بدورها في أواسط القرن الحادي والعشرين . أما مصادر العالم من الفحم الحجري فهي باقية ومستمرة إلى حوالي 220 سنة مقبلة، وذلك وفق معدلات الاستهلاك الحالية . وقد يسدُّ الاستعمال المتنامي للفحم الحجري في إنتاج الكهرباء، بشكل خاص، النقص المتزايد لكل من الغاز والنفط . ومع ذلك، فإن استعمال الفحم الحجري يحمل في طياته مشاكل من نوع خاص؛ إذ إن احتراقه يشكل سببًا رئيسيًا لتلوث الهواء . وقد طُوِّرت وسائل عديدة للتقليل من التلوث ولكنها مكلفة ولم تثبت جدواها حتى الآن . ولابد من تحسين هذه الطرق والأساليب قبل التوسع الكبير في استعمال الفحم الحجري . وبالإضافة لهذا فإن بعض الفحم الحجري يوجد عميقًا تحت سطح الأرض، حيث يصعب استخراجه . وفي الماضي كانت الوظائف التي تعد أكثر خطورة وصعوبة من وظيفة عامل في منجم فحم حجري تحت سطح الأرض قليلة . ففي القرن التاسع عشر الميلادي كان على العديد من عمال المناجم أن يعملوا عشر ساعات يوميًا تحت الأرض ولمدة ستة أيام كل أسبوع . وقد كانت المعاول هي الأدوات الوحيدة التي تستعمل في تكسير وتفتيت الفحم الحجري . وكان على عمال مناجم الفحم الحجري أن يجرفوا الفحم الحجري المتفتت ويحملوه في عربات . وفي حالات عديدة كان الأطفال دون سن العاشرة يجرُّون عربات الفحم الحجري من المناجم . كما عملت النساء في عمليات التحميل والنقل بالعربات . ومع مرور الزمن فقد الآلاف من الرجال والنساء والأطفال حياتهم في حوادث المناجم . كما مات آلاف آخرون جرّاء إصابتهم بأمراض الرئتين بسبب استنشاق رماد الفحم الحجري طوال حياتهم العملية في المناجم . وتُنفِذ الآلات هذه الأيام معظم الأعمال في مناجم الفحم الحجري، كما تحسنت إجراءات الأمان في المناجم، وقلّت ساعات العمل، وتم حظر تشغيل الأطفال في المناجم قبل نهاية القرن التاسع عشر الميلادي . وانخفضت نسبة الوفيات بسبب حوادث المناجم بصورة كبيرة في القرن العشرين . وفي كل هذه الأحوال فإن مهنة تعدين الفحم الحجري من مناجمه مازالت مهنة المخاطر . تناقش هذه المقالة، كيف تكوَّن الفحم الحجري، وأماكن وجوده، واستعمالاته، وطرق تعدينه . كما تناقش كيفية، تنظيف الفحم الحجري، ونقله، وكذلك الصناعات القائمة عليه، وتاريخ استعماله في العالم .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> وعند احتراق الفحم الحجري فانه يعطي طاقة على شكل حرارة .  ولكن الاستخدام الاساسي لهذه الحرارة هو في انتاج الكهرباء .  وتنتج مواد اخرى عن عملية انتاج فحم الكوك، يمكن استعمالها بدورها في صناعة بعض المنتجات كالادوية والاصباغ والاسمدة .  وعلى نقيض الفحم الحجري؛ فان النفط يمكن تحويله الى بترول ومواد وقود اخرى لازمة لتشغيل وسائل المواصلات الحديثة .  ولكن، يجرى حاليًا استهلاك موارد العالم من النفط والغاز الطبيعي بسرعة .  ومع ذلك، فان استعمال الفحم الحجري يحمل في طياته مشاكل من نوع خاص؛ اذ ان احتراقه يشكل سببًا رئيسيًا لتلوث الهواء .  وفي حالات عديدة كان الاطفال دون سن العاشرة يجرُّون عربات الفحم الحجري من المناجم .  كما تناقش كيفية، تنظيف الفحم الحجري، ونقله، وكذلك الصناعات القائمة عليه، وتاريخ استعماله في العالم .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">القطة هي حيوان من الثدييات، ينتمى إلى فصيلة السنوريات، تم تدجينه من قبل الانسان منذ حوالي 7000 عام . يعتقد ان اصل القطط البرية أسلاف القطط قد نشأت في جو صحراوي، و يظهر ذلك من ميل القطط إلى الحرارة و التعرض للشمس، و غالبا ماً تنام في أماكن معرضة لضوء الشمس اثناء النهار . وهنالك عشرات السلالات من القطط ،بعضها عديم الفراء و بعضها الاخر عديم الذيل,نتيجة لتشوه خلقي . تتمتع القطط بمهارة كبيرة في الصيد و الافتراس تقارب السنوريات الكبيرة كالنمر، الا انها لا تشكل خطراً حقيقياً على الانسان نظراً لصغر حجمها . تزن القطة بين 4 و 7 كغ، و قليلا ما تصل إلى 10 كغ . من الممكن للقطة ان تصل لـ23 كغ و يحدث ذلك عندما تطعم بشكل زائد . لا يجب ان يفعل ذلك، لانه غير صحي و يسبب اضراراً للحيوان . للقطط قدرة كبيرة على الرؤية في الظلام، و للقطة غطاء ثالث للعين، اذا اظهرت القطة هذا الغطاء بشكل مزمن، يعني هذا ان القطة مريضة . تحب القطط النظافة، و كثيراً ما تلعق فراءها لتنظيفه ولكسب فيتامين سي . كما تحب القطط مطاردة الفيران وهناك قصة من التراث القديم بان أحد الامراء كان قد درب سنانير لديه للخدمة حيث علمها كيف تحمل الشموع لانارة مجلس الامير وادعى هذا الامير بأنه قد غير طباع وعادات هذا الحيوان فأعترض علية أحد حكمائه بأنه لا يستطيع ذلك لأن الطبع يغلب التطبع فلم يوافقه الامير على ذلك, وفي أحد الايام جاء هذا الحكيم مجلس الامير وهو مخبئ لفأرآ في كمه وما ان التم شمل الحضور والسنانير تقوم بواجبها المدربة عليه والامير يزداد تبجحآ بأنجازه أفلت الحكيم الفأر من كمه فما كان من السنانير الا ان ترمي بالشموع ارضا وتطارد الفأر المسكين فأنقلب المجلس إلى فوضى لما سببته من حريق, فألتفت الحكيم إلى أميره قائلا له ان الطبع يغلب التطبع وذهبت مثلا وحكمة . 
+يعتقد بعض الباحثين أن القط المنزلي ينحدر مباشرة من القط البرّي الإفريقي الذي استأنسه المصريون، في عام 3500قبل الميلاد تقريبًا . والقطط المستأنسة هي تلك التي تقتل الفئران والجرذان والثعابين ولذلك منعت هذه الآفات من غزو الحقول المصرية ومخازن الحبوب . وأصبحت القطط حيوانات أليفة مدللة وخُلِّدَت في اللوحات والنقوشات والنحت . وفي القرن السادس عشر قبل الميلاد قدّس المصريون القدماء القطط . فعبدوا إله الحب والخصوبة المسمى باستيت أو باست على هيئة رأس قط وجسم امرأة . وكان المصريون يعاقبون كل من يؤذي قطًا، بعقوبة تصل إلى حد الموت . وعندما يموت قط كانوا يحلقون حواجبهم علامة على الحداد ويحولون القطط الميتة إلى مومياوات . وقد وجد علماء الآثار مقبرة قديمة للقطط في مصر تحتوي على أكثر من 300,000 مومياء للقطط . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القطة هي حيوان من الثدييات، ينتمى الى فصيلة السنوريات، تم تدجينه من قبل الانسان منذ حوالي 7000 عام . تزن القطة بين 4 و 7 كغ، و قليلا ما تصل الى 10 كغ .  من الممكن للقطة ان تصل لـ23 كغ و يحدث ذلك عندما تطعم بشكل زائد . والقطط المستانسة هي تلك التي تقتل الفئران والجرذان والثعابين ولذلك منعت هذه الآفات من غزو الحقول المصرية ومخازن الحبوب .  واصبحت القطط حيوانات اليفة مدللة وخُلِّدَت في اللوحات والنقوشات والنحت .  وعندما يموت قط كانوا يحلقون حواجبهم علامة على الحداد ويحولون القطط الميتة الى مومياوات .  </t>
+  </si>
+  <si>
+    <t>الجمل أو الإبل أو النوق . و يخص الذكر باسم الجمل والإناث باسم نوق و مفردها ناقة توجد الجمال في المناطق الصحراوية من آسيا وإفريقيا . الجمال على نوعين وعلى وجه العموم الجمال ذات السنام الواحد ، التي تعيش بمناطق شمال افريقيا والصحراء الكبرى والشرق الاوسط . الجمال ذات السنامين، التي تعيش في منطقة آسيا الوسطى . 
+عرف الجمل بسفينة الصحراء وذلك لتكيفة مع المعيشة على جدب الصحراء من حيث العشب و الماء . تكيف الجمل على أكل الأشواك والعاقول وكذلك تكيفت معدته, اما السنام فهو المكان الطبيعي لخزن الدهون المتحولة من فائض غذائه وكذلك هي مناسبة لحفظ الماء ضمن تركيب الدهون والشحوم . كذلك تكيفت عيون الجمل للرؤية مع وجود الغبار, وأرجله بما تملكه من الخف المناسبة للسير على الرمال بما لها من مساحة سطحية واسعة . حليب النوق حليب ذو مواصفات عالية الجودة ويعتبر غذاء كامل للبدوي وسكان الصحراء عموما . سبحان الخالق الذى له في كل شئ آيه، سبحان الخالق الذى وهب لنا العقل لنتبين جوانب الاعجاز في كل ما حولنا ولندرك مدى بديع صنع الله في مخلوقاته . والجمل مثالا لنا ونموذج وآيه من آيات الله في مخلوقاته تنطق بمدى القدرة فللجمل قدرة عجيبة على تحمل المعيشة في الصحراء حيث ارتفاع درجة الحرارة وقلة الماء والغذاء . ومن قدرة الله عز وجل أن جعل الجمل ذو أذن صغير غزير الشعر حتى لا تتعرض لضرر رمال الصحراء . والعين مزودة بصفين من الرموش الطويلة للوقاية من الحصى والرمال المتطايرة . والأرجل مزودة بخف أسفنجى لين ليتمكن بهما من السير على الرمال الناعمة، والسنام يختزن فيه الدهون ليقوم بحرقها خلال عملية التنفس حيث تتحول الدهون إلى طاقة تمدة بأحتياجاته في فترة الحرمان من الطعام والمعروف أن الدهون تحتوى على طاقة أعلى بكثير من الطاقة المخزونة في الكربوهيدرات في صورة نشا أو جليكوجين . والجمل العربى ذو سنام واحد ويعيش في الوطن العربى وأفريقيا والهند أما الجمل ذو السنامين فهو يستوطن آسيا الوسطى وحيث يكون الشتاء بارداً فهو مكسو بمعطف شتوى يقيه برد الشتاء وأرجله قصيره في حين أرجل الجمل العربى طويلة لتبعدة عن حرارة الرمال ما أمكن ذلك . 
+ولقد زود الصانع هذا الحيوان الأعجوبة بوسائل تمكنه من تحمل العطش . فالجمل له قدرة عجيبه على تحمل العطش من واقع قدرته على تحمل نقص الماء في أنسجة جسمه وأنه من خلال ذلك لا يفقد الماء من سائله الدموى الا بنسبة ضئيلة للغاية كما أنه يتحمل فقد الماء حتى 30% في حين باقى الكائنات الحية تهلك إذا زاد فقد الماء من أجسامها عن 20%، وبول وبراز الجمل لذلك مركز جداً حيث يمكن ايقاد النار في روثه مباشرة وهو يختلف عن معظم الكائنات الثديية التى تفقد نسبة من الماء الموجودة في دمائها إذا تعرضت لظروف بيئية شديدة الحرارة لذلك فالجمل يحتاج كميات من الماء تقل كثيرة عن تلك التى تحتاجها باقى الكائنات . 
+أنف الجمل عجيبة العجائب فهى مجعدة كبيرة من الداخل فتقوم بعمل المكثف فتكثف بخار الماء الخارج مع هواء الزفير فيخرج ثانى أكسيد الكربون ويتكثف بخار الماء وبذلك تحول دون خروجه وبذلك فهو الحيوان الوحيد الذى يستعيد الماء الموجود في الهواء الذى يتنفسه وهى قدرة وآية من آيات الله في خلق هذا الكائن الذى يتكيف مع البيئة بدرجة اعجازية يحار فيها العقول وتدل على أن هناك من فكر ودبر وأحسن الخلق سبحانه وتعالى . الجمل لا يعرق إلا إذا ارتفعت درجة حرارة الجو المحيط به عن درجة 425م أما الحرارة الزائد فيفقدها أثناء الليل فقد علم ذلك العربان لذلك كانوا ينامون بجوار الجمال ليتدفئوا بالحرارة المنبعثة منهم ليلاً . ويقوم الجمل برفع درجة حرارة جسمه نهاراً متمشياً مع حرارة الجو المحيط به حتى لا يقوم بالعرق حتى درجة 41,75 مئوية عندئذ يبدأ في افراز العرق ليلطف درجة حرارة جسمه إن زادت درجة حرارة الجو المحيط عن 425 مئوية . ظل الجمل معروفاً بعدم العرق وعدم وجود غدد للعرق حتى عام 1956 حين تبين أن له غدد عرقية على السطح البطنى ومن المفروض أن يعمل العرق على تلطيف حرارة جسم الجمل وبالطبع يؤدى العرق إلى فقد الماء وتتجلى قدرة الخالق وإعجازة فبمجرد خروج العرق ينتصب الشعر عند الجمل فيسمح بتبخر العرق من الجلد إلى الجو مباشراً دون حدوث بلل للشعر حتى يوفر الجمل على نفسه الماء اللازم لبلل الشعر وهو الكثير الذى يريد توفيرة . 
+الجمل له القدرة على شرب ماء البحر حيث أن الكلى عنده تخلصه من الأملاح الزائدة . والجمل يشرب بغزارة حوالى 18 لتر ماء إذا عطش دون أن تتأثر كرات الدم لأن الله خلقها بيضاوية ولم تخلق كروية كسائر الكائنات فعندما تمتلى كرات الدم بالماء تنتفخ وتصبح كروية دون أن تنفجر . يحتفظ الجمل بالبول في المثانه طالما أنه في حاجة إلى الماء حيث يمتص الدم الماء والبول مرة أخرى ويدفعه إلى المعدة لتقوم بكتريا خاصة بتحويل البولينا إلى أحماض أمينية أى إلى بروتين وماء . خُف الجمل مخزن للماء فهو وسادة مائية فتعمل أنسجة الخف على حفظ الماء في صورة سلاسل تلتف كالجديله كلما زاد الماء المخزن ذاد التفاف الجديلة والعكس صحيح وعند الحاجة إلى الماء يقوم الدم بامتصاص الماء من الخف وتنفك الجديلة .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عرف الجمل بسفينة الصحراء وذلك لتكيفة مع المعيشة على جدب الصحراء من حيث العشب و الماء . تكيف الجمل على اكل الاشواك والعاقول وكذلك تكيفت معدته, اما السنام فهو المكان الطبيعي لخزن الدهون المتحولة من فائض غذائه وكذلك هي مناسبة لحفظ الماء ضمن تركيب الدهون والشحوم .  والعين مزودة بصفين من الرموش الطويلة للوقاية من الحصى والرمال المتطايرة . انف الجمل عجيبة العجائب فهى مجعدة كبيرة من الداخل فتقوم بعمل المكثف فتكثف بخار الماء الخارج مع هواء الزفير فيخرج ثانى اكسيد الكربون ويتكثف بخار الماء وبذلك تحول دون خروجه وبذلك فهو الحيوان الوحيد الذى يستعيد الماء الموجود في الهواء الذى يتنفسه وهى قدرة وآ . الجمل له القدرة على شرب ماء البحر حيث ان الكلى عنده تخلصه من الاملاح الزائدة . يحتفظ الجمل بالبول في المثانه طالما انه في حاجة الى الماء حيث يمتص الدم الماء والبول مرة اخرى ويدفعه الى المعدة لتقوم بكتريا خاصة بتحويل البولينا الى احماض امينية اى الى بروتين وماء . خُف الجمل مخزن للماء فهو وسادة مائية فتعمل انسجة الخف على حفظ الماء في صورة سلاسل تلتف كالجديله كلما زاد الماء المخزن ذاد التفاف الجديلة والعكس صحيح وعند الحاجة الى الماء يقوم الدم بامتصاص الماء من الخف وتنفك الجديلة .  </t>
+  </si>
+  <si>
+    <t>الدب ، من الثديات المفترسة من عائلة الدبيات المنتشرة في أماكن كثيرة من بقاع العالم . يسمى الذكر في العربيّة دب، و الأنثى دبّة، و الصغار جراء أو دياسم . 
+من الصفات الخارجيّة المألوفة لدى جميع فصائل الدببة الذيل القصير، بالإضافة إلى دقّة حواس الشمّ و السمع و مخالب خمسة غير قابلة للإرتداد، و فراء طويل أشعث و كثيف . للدببة أجساد ضخمة و قوائم قويّة تمكنها من الوقوف منتصبة، كما تمتلك أكف عريضة، خطوم طويلة، و أذنين مستديرتين . يستخدم الدب أسنانه للدفاع عن النفس و كأدوات، حيث يختلف إستعمالها بحسب حمية الدب، و تستخدم المخالب للتمزيق و الحفر و الإمساك . يظن بأن الدببة السوداء، كما غيرها من الفصائل، تقدر على تمييز الألوان مما يساعدها على التعرّف على الفاكهة و البندق . تمتلك الدببة من 32 إلى 42 سنّاً بحسب الفصيلة التي تنتمي إليها، ولا تعد هذه الأسنان مختصّة في قتل الفرائس كما في أسنان السنوريّات . تعتبر أنياب الدببة أصغر حجماً من أنياب اللواحم الأخرى، التي تظهر أنيابها طويلة و حادّة و متخصصة في قتل الطرائد، و عوضاُ عن ذلك فإنها تستخدمها للدفاع عن النفس و كأدوات . تكون أضراس الدب الطاحنة عريضة و مسطحة، و تستخدم لتمزيق و طحن المواد النباتيّة و تحويلها إلى قطع صغيرة . تمتلك الدببة أربعة قوائم ينتهي كل منها بخمسة مخالب حادّة غير قابلة للإرتداد على عكس السنوريّات، وتستخدم هذه المخالب لعدّة أغراض منها تسلّق الأشجار، فتح أعشاش النمل الأبيض و النحل، الحفر لإيجاد الجذور، أو إلتقاط الطريدة، حسب الفصيلة المعينة . تلقي الدببة بكامل وزنها على أخماص أقدمها عند المشي، على عكس معظم اللواحم الأخرى التي تميل للمشي على أصابعها، حيت يلمس الكعب الأرض و تستخدم المخالب للتوازن، وبالرغم من أن الدببة أبطأ من معظم اللواحم فإنها تقدر على العدو بسرعة تصل إلى 50 كلم في الساعة . غالباً ما يكون فراء الدب طويلاً و أشعث، و تختلف ألوانه بحسب الفصيلة حيث يتراوح من الأبيض، الأشقر أو القشديّ، الأسود و الأبيض، إلى الأسود الكلّي أو الأبيض الكلّي، وقد تختلف ألوان الفراء بداخل الفصيلة نفسها كما في حالة الدببة الأميركيّة السوداء التي تتراوح ألوانها من الأسود، البنيّ، الخمريّ، أو الأسود المزرقّ، كما و تمتلك بعض فصائل الدببة مثل دب الشمس و الدب أبو نظّارة علامات باهتة على وجهها أو صدرها . تكون ذكور الدببة من جميع الفصائل أضخم حجماً من الإناث، ولكن الإختلاف بين الأجناس يتباين و يظهر فارقه الضخم عند الفصائل الأكبر حجماً، فذكور الدببة القطبيّة قد تزن ضعفيّ وزن الإناث بينما تكون ذكور و إناث الفصائل الأصغر حجماً متماثلة في الوزن تقريباً . تمتد حياة الدب من حوالي 25 إلى 40 سنة،و من المعروف أن الدببة في البريّة تنفق في سنٍ أقل من تلك التي للدببة الأسيرة . تعيش الدببة في مساكن مختلفة و متنوعة تتراوح من الناطق الإستوائيّة إلى القطب الشماليّ، و من الغابات إلى الحقول الثلجيّة . الدببة حيوانات قارتة آكلة للحوم و النبات، رغم أن بعض الفصائل تتخصص بحميةٍ معينة فقط مثل الدب القطبيّ، و تقتات الدببة في العادة على الثديّات الصغيرة، الجذور، البندق، و التوت، كما قد تقصد مجرىً مائيّاً لإصطياد الأسماك . تتنقّل الدببة لمسافاتٍ بعيدة في الغالب لإيجاد طعامها، وهي تصطاد في الغالب عند الغسق أو الفجر إلا إذا تواجد الإنسان على مقربةٍ منها . تعيش الدببة في الغالب حياة منفردة ماعدا الأمهات التي تعتني بصغارها، أو خلال موسم التزاوج عند اجتماع الذكور و الإناث . تؤلّف الدببة مجموعات صغيرة عندما يكون الطعام متوفراً بكثرة في منطقة صغيرة فقط، كما تفعل الدببة الألاسكيّة البنيّة سلالة كودياك و السلالة الشيباء عندمل تتجمّع في المنطقة ذاتها للإقتيات على سمك السلمون خلال هجرة السلمون السنويّة عندما تسبح الأسماك بعكس التيّار لتصل إلى أراضي تفريخها . تعيش سلالات و أنواع أخرى من الدببة حياةً منفردة حيث تتقاطع منطقة الذكر مع منطقة الأنثى و يدافع كل منهما عن منطقته ضدّ الجنس المثيل . تغادر الذكور اليافعة أمهاتها في الغالب لكي تععيش وحدها في منلطق أخرى، بينما تقطن الإناث في منطقة تتقاطع مع منطقة والدتها . تتنقّل الدببة عبر مناطق شاسعة للعثور على طعامها، وهي تتذكر جميع التفاصيل للمنطقة التي تغطيها ثمّ تعود لاحقاً إلى المواقع التي كان الطعام فيها وفيراً عبر المواسم أو السنين الماضية . تستطيع الدببة أن تتسلّق الأشجار سعياً وراء طريدة ما أو للحصول على بعض النباتات، ولا يشذّ عن هذه القاعدة سوى الديية القطبيّة و الدببة البنيّة البالغة التي يصعّب عليها وزنها تسلّق الأشجار . تعتبر فصائل الدببة الأكبر حجماً مثل الدب القطبيّ و الدب الأشيب السلالة الشيباء للدب البنيّ خطرة على الإنسان ولا سيما في المناطق التي إعتادت فيها على الإنسان، غير أن الدببة في العادة خجولة و تخاف من الإنسان بسهولة إلا أنها سوف تدافع عن جرائها بشراسة في حال إقتضى الأمر .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدب ، من الثديات المفترسة من عائلة الدبيات المنتشرة في اماكن كثيرة من بقاع العالم . من الصفات الخارجيّة المالوفة لدى جميع فصائل الدببة الذيل القصير، بالاضافة الى دقّة حواس الشمّ و السمع و مخالب خمسة غير قابلة للارتداد، و فراء طويل اشعث و كثيف . للدببة اجساد ضخمة و قوائم قويّة تمكنها من الوقوف منتصبة، كما تمتلك اكف عريضة، خطوم طويلة، و اذنين مستديرتين . تمتلك الدببة من 32 الى 42 سنّاً بحسب الفصيلة التي تنتمي اليها، ولا تعد هذه الاسنان مختصّة في قتل الفرائس كما في اسنان السنوريّات . تكون اضراس الدب الطاحنة عريضة و مسطحة، و تستخدم لتمزيق و طحن المواد النباتيّة و تحويلها الى قطع صغيرة .  تمتلك الدببة اربعة قوائم ينتهي كل منها بخمسة مخالب حادّة غير قابلة للارتداد على عكس السنوريّات، وتستخدم هذه المخالب لعدّة اغراض منها تسلّق الاشجار، فتح اعشاش النمل الابيض و النحل، الحفر لايجاد الجذور، او التقاط الطريدة، حسب الفصيلة المعينة . تلقي الدببة بكامل وزنها على اخماص اقدمها عند المشي، على عكس معظم اللواحم الاخرى التي تميل للمشي على اصابعها، حيت يلمس الكعب الارض و تستخدم المخالب للتوازن، وبالرغم من ان الدببة ابطا من معظم اللواحم فانها تقدر على العدو بسرعة تصل الى 50 كلم في الساعة . غالباً ما يكون فراء الدب طويلاً و اشعث، و تختلف الوانه بحسب الفصيلة حيث يتراوح من الابيض، الاشقر او القشديّ، الاسود و الابيض، الى الاسود الكلّي او الابيض الكلّي، وقد تختلف الوان الفراء بداخل الفصيلة نفسها كما في حالة الدببة الاميركيّة السوداء التي تتراوح .  تكون ذكور الدببة من جميع الفصائل اضخم حجماً من الاناث، ولكن الاختلاف بين الاجناس يتباين و يظهر فارقه الضخم عند الفصائل الاكبر حجماً، فذكور الدببة القطبيّة قد تزن ضعفيّ وزن الاناث بينما تكون ذكور و اناث الفصائل الاصغر حجماً متماثلة في الوزن تقريباً . تتنقّل الدببة لمسافاتٍ بعيدة في الغالب لايجاد طعامها، وهي تصطاد في الغالب عند الغسق او الفجر الا اذا تواجد الانسان على مقربةٍ منها . تؤلّف الدببة مجموعات صغيرة عندما يكون الطعام متوفراً بكثرة في منطقة صغيرة فقط، كما تفعل الدببة الالاسكيّة البنيّة سلالة كودياك و السلالة الشيباء عندمل تتجمّع في المنطقة ذاتها للاقتيات على سمك السلمون خلال هجرة السلمون السنويّة عندما تسبح الاسماك بعكس التي . تعتبر فصائل الدببة الاكبر حجماً مثل الدب القطبيّ و الدب الاشيب السلالة الشيباء للدب البنيّ خطرة على الانسان ولا سيما في المناطق التي اعتادت فيها على الانسان، غير ان الدببة في العادة خجولة و تخاف من الانسان بسهولة الا انها سوف تدافع عن جرائها بشراسة في حال .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">النمل أحد أنجح المجموعات الحشرية في المملكة الحيوانية وهي تلقى اهتماما بالغا لأنها تشكل حشرة اجتماعية مشكلة مستعمرات أو أعشاش تحوي أحيانا ملايين الأفراد . مستعمرات بعض أنواع النمل الجائحة قد تعمل سوية على تشكيل مستعمرات عملاقة تمتد على مناطق واسعة جدا، وأحيانا قد توصف مستعمرات النمل بأنها متعضي فائق لأنها تعمل ككائن واحد متناسق . يحتل النمل مساحة واسعة من الأرض ويمكن أن يشكل حوالي 15% من الكتلة الحيوية الحيوانية في . حتى عام 2006 هناك حوالي 11,844 نوع معروف من النمل معظمه يعيش في المناطق الحارة . النمل من الحشرات تعود إلى صنف غشائية الأجنحة، ولها ستة أرجل، فالنمل حشرة صغيرة ذات فعل كبير، فهي تمثل 20% من الكائنات الحية على كوكب الأرض . عرف النمل منذ القدم وحسب المختصين منذ العصر الطباشيري فقد عايشت الديناصورات فهي موجودة منذ 92 مليون سنة، ويوجد منها حوالي 20 ألف نوع وهي منتشرة على الكرة الأرضية فهي موجودة وتعيش في كل مكان، تجدها في السهول وتجدها في أعلي الجبال، فهي موزعة على عموم الكرة الأرضية، تحت الأرض أو فوق الأشجار . أغلب النمل هو من صنف الشغالات وهو الأكثر انتشارا في العالم، والشغالات كلهن من الإناث، يعشن فيما يسمى المستعمرات ولكل مستعمرة ملكة واحدة عملها وضع البيض . عدد البيض الذي تضعه الملكة يختلف حسب نوع النمل، وقد يتراوح من بضع مئات إلى عدة ملايين، فالنوع الإفريقي من النمل تضع ملكته مايقرب من 3 إلى 4 ملايين بيضة شهريًّا . النمل يعتبر من أطوال الحشرات عمرًا على الأرض، فإنه يعيش من بضعة أشهر إلى عدة سنوات وقد يصل عمر الملكة إلى 20 عاما . أما ذكور النمل فعملها محصور في التزاوج فقط في تلقيح الملكة، فحينما تقرر الملكة التزاوج يأتي واجبها وبعد ذلك تموت الذكور مباشرة، فأثناء عملية التزاوج تطرح الملكة أجنحتها، وتفرز رائحة تميز رائحة المستعمرة . هذه الحشرة اجتماعية جدا ولايمكنها العيش بصورة منفردة، حيث أنها تعيش في مجاميع أو أعشاش أو مستعمرات . أعشاش النمل ليست واحدة لجميع أنواع النمل، فمثلاً نمل المحاصيل يبني حجرات متصلة تحت الأرض، بينما يشبك النمل الخياط أوراق الشجر ويصنع عشا أخضر أسطواني الشكل . هناك أعشاش أخرى للنمل قد تكون على شكل حجرات داخل الأشجار مثل مايفعل النمل الحفار ، وأعشاش النمل تحت الأرض قد تبلغ أربعين قدما عمقا تحت الأرض، فقد تمكن فريق من العلماء الأوروبيين من اكتشاف مستعمرة هائلة للنمل تمتد لآلاف الأميال من إيطاليا إلى شمال غرب إسبانيا . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حتى عام 2006 هناك حوالي 11,844 نوع معروف من النمل معظمه يعيش في المناطق الحارة . عدد البيض الذي تضعه الملكة يختلف حسب نوع النمل، وقد يتراوح من بضع مئات الى عدة ملايين، فالنوع الافريقي من النمل تضع ملكته مايقرب من 3 الى 4 ملايين بيضة شهريًّا . النمل يعتبر من اطوال الحشرات عمرًا على الارض، فانه يعيش من بضعة اشهر الى عدة سنوات وقد يصل عمر الملكة الى 20 عاما . هذه الحشرة اجتماعية جدا ولايمكنها العيش بصورة منفردة، حيث انها تعيش في مجاميع او اعشاش او مستعمرات .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحيوانات مجموعة أساسية من الكائنات الحية تصنف باعتبارها مملكة حيوية مستقلة باسم مملكة الحيوانات . تتصف الحيوانات بشكل عام بأنها عديدة الخلايا ، قادر على الحركة و الاستجابة للمتغيرات البيئية ، تعتبر كائنات مستهلكة كونها تتغذى على الكائنات الأخرى من نباتات و حيوانات . يقسم أرسطو عالم الأحياء إلى حيوانات و نباتات ، اتبع كارولاس لينيوس هذا التقسيم في أول تصنيف هيكلي متسلسل . منذ ذلك الحين يؤكد البيولوجيون على العلاقات التطورية ، هذا ما أدى لتحديد مميزات كل مجموعة و حصرها . مثلا ، الأوليات المجهرية اعتبرت في البداية حيوانات لأنها تتحرك لكنها الآن تعامل على انها مجموعة منفصلة . تتميز مملكة الحيوانات بعدة خاصيات تميزها عن باقي الكائنات الحية . فالحيوانات كائنات متعددة الخلايا و حقيقية النوى ، مما يميزها عن الجراثيم و معظم الطلائعيات . الحيوانات كائنات غيرية التغذية ، تقوم بهضم الغذاء عادة في جوف داخلي ، مما يميزها عن النباتات، والأشنيات الطحالب ، والفطور فقدانها للجدران الخلوية . باستثناء الإسفنجيات شعبة البوريفيرا يكون للحيوانات عادة أجسام متمايزة إلى أنسجة منفصلة . تتضمن هذه النسج العضلات ، القادرة على التقلص والتحكم بالوظيفة الحركية ، و جهاز عصبي ، يرسل ويستقبل الإشارات العصبية لتنسيق حركات و وظائف الجسم ، و جوف هضمي داخلي مزود بفتحة أو فتحتين . الحيوانات التي تتمتع بهذا النوع من التنظيم ندعوها بعديات ، أو بعدانيات حقيقية إذا استخدمنا المصطلح السابق للحيوانات عامة . و هناك خلايا حقيقية النوى ، محاطه ببينخلوي مؤلف من كولاجين و غليكوبروتينات مرنة . يمكن لهذا النسيج البينخلوي أن يتكلس ليشكل صدفات ، عظام . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تتصف الحيوانات بشكل عام بانها عديدة الخلايا ، قادر على الحركة و الاستجابة للمتغيرات البيئية ، تعتبر كائنات مستهلكة كونها تتغذى على الكائنات الاخرى من نباتات و حيوانات .  مثلا ، الاوليات المجهرية اعتبرت في البداية حيوانات لانها تتحرك لكنها الآن تعامل على انها مجموعة منفصلة . تتميز مملكة الحيوانات بعدة خاصيات تميزها عن باقي الكائنات الحية .  الحيوانات كائنات غيرية التغذية ، تقوم بهضم الغذاء عادة في جوف داخلي ، مما يميزها عن النباتات، والاشنيات الطحالب ، والفطور فقدانها للجدران الخلوية .  يمكن لهذا النسيج البينخلوي ان يتكلس ليشكل صدفات ، عظام .  </t>
+  </si>
+  <si>
+    <t>زحل هو الكوكب السادس في النظام الشمسي ويتميز بحزام من الكويكبات يدور حوله مما يعطيه شكلا مميزا . زحل كان معروفاً منذ العصور التاريخية القديمة . جاليليو كان من الأوائل الذين رصدوه بتليسكوب في 1610 ، لقد لاحظ ظهوره الفردي ولكنه كان مشوشا بذلك . المراقبات الاولية لكوكب زحل كانت صعبة بعض الشيء وذلك لان الأرض تعبر خلال مستوى حلقات زحل في بعض السنين عندما يتحرك في مداره . وبسببها تنتج صورة ذات وضوح قليل لكوكب زحل . قام العالم كريستيان هويقنس في العام 1659 باكتشاف الحلقات و منذئذ اشتهر كوكب زحل بكونه الكوكب الوحيد المحاط بحلقات حتى عام 1977 عندما اكتشفت حلقات رقيقة حول كوكب اورانوس وبعد ذلك بفترة بسيطة حول المشتري و نبتون . اول زيارة لكوكب زحل كانت باستخدام بيونير11 في عام 1979 وبعد ذلك ب فويجير 1 و فويجير 2 ثمّ كاسيني-هايجينز في عام 2004 . سوف يجد الراصد زحل مفلطحا عند استخدامه تليسكوبا صغيرا . و توجد نفس هذه الخاصية عند الكواكب الاخرى ولكن ليس بنفس المقدار . وكثافة كوكب زحل هي الاقل بين الكواكب ، بل هي اقل من كثافة الماء . التكوين الداخلي لكوكب زحل قريب من تكوين كوكب المشتري والمتكون من قالب صخري ، طبقة هيدروجينية معدنية سائلة ، و طبقة هيدروجينية جزيئية . هناك اثار لوجود كميات من الجليد المتفرقة . كوكب زحل حار جدا . زحل يطلق كمية من الاشعة إلى الخارج أكثر من الاشعة التي يستقبلها من الشمس . يرى كوكب زحل من الأرض وحوله حلقات كبيرة من الثلوج والتراب والأقمار الصغيرة . ولأن هذا الكوكب أكبر من الأرض فان وزنك لو كان 70 كيلوجلرام فوقها فإنه يصبح 82 كيلوجرام فوق زحل . ومنظر زحل جميل عندما يرى من الأرض حيث تزينه حلقاته التي حوله والتي تسع 169800ميل . والكوكب يشبه المشتري ولكنه أصغر منه . وتحت سحب غازي الميثان والهيليوم تتراكم طبقات من سائلي الغازين على شكل سائل كيمياوي ذو حجم كبير جدا . وحول الكوكب أكثر من 50 قمرا يرافقه . وأشهر هذه الأقمار بان وأطلس وبروميسيوس وباندورا وإبيسيوس وجانوس وميماس . وحول زحل عدة مئات من الحلقات التي هي عبارة عن كتل من الصخور وليس هو الوحيد الّذي يمتلك حلقات، فالمشتري وأورانوس ونبتون لهم حلقات . ومتوسط درجة حراته 184 درجة مئوية . وجوه مكون من غازات الهيدروجين والهليوم والميثان .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زحل هو الكوكب السادس في النظام الشمسي ويتميز بحزام من الكويكبات يدور حوله مما يعطيه شكلا مميزا .  جاليليو كان من الاوائل الذين رصدوه بتليسكوب في 1610 ، لقد لاحظ ظهوره الفردي ولكنه كان مشوشا بذلك .  وبسببها تنتج صورة ذات وضوح قليل لكوكب زحل . اول زيارة لكوكب زحل كانت باستخدام بيونير11 في عام 1979 وبعد ذلك ب فويجير 1 و فويجير 2 ثمّ كاسيني-هايجينز في عام 2004 .  و توجد نفس هذه الخاصية عند الكواكب الاخرى ولكن ليس بنفس المقدار . التكوين الداخلي لكوكب زحل قريب من تكوين كوكب المشتري والمتكون من قالب صخري ، طبقة هيدروجينية معدنية سائلة ، و طبقة هيدروجينية جزيئية .  كوكب زحل حار جدا .  </t>
+  </si>
+  <si>
+    <t>الطبيعة - بمعناها العام - تعني العالم الطبيعي أو العالم الفيزيائي أو العالم المادي . وتشير كلمة "الطبيعة" إلى ظاهرة العالم الفيزيائي؛ كما تشير إلى الحياة عمومًا . ولا يتم - بوجه عام - اعتبار الأشياء المصنعة والتدخلات البشرية في الطبيعة جزءًا منها، ويتم الإشارة إليها على إنها أشياء اصطناعية أو أشياء من صنع الإنسان . كما تختلف الطبيعة - بوجه عام - عن الظواهر الخارقة . ويتفاوت مداها مما هو دون الذرة إلى الأمور الكونية . 
+تم اشتقاق كلمة طبيعة في الإنجليزية من الكلمة اللاتينية natura التي تعني "الصفات الجوهرية والنظام الفطري" ولكنها تعني "الميلاد" حرفيًا . ويمكن اعتبار العقل المبدع جزءًا لا يتجزأ من "الطبيعة البشرية" . [1] كانت كلمة Natura هي الترجمة اللاتينية للكلمة الإغريقية physis (φύσις) التي ترتبط بشكل أساسي بالخصائص الجوهرية التي تقوم النباتات والحيوانات والموجودات الأخرى في العالم بتطويرها بكامل إرادتها ودون تدخل . [2] ويظهر فيه الاستخدام المكتوب الأول من نوعه لهذه الكلمة مرتبطًا بالنبات . [3] ويعتبر مفهوم الطبيعة بوجه عام - بمعنى الكون الفيزيائي - واحدًا من العديد من الإضافات التي لحقت بالمفهوم الأصلي التي بدأت مع تطبيقات جوهرية محددة لكلمة φύσις قام بها الفلاسفة الذين سبقوا سقراط ونالت حظًا وافرًا من الرواج منذ ذلك الحين . وقد تم التأكيد على هذا الاستخدام مع ظهور المنهج العلمي الحديث في القرون العديدة الأخيرة . [4] [5]
+ومن الاستخدامات المتنوعة لكلمة "طبيعة" اليوم ما يشير إلى المملكة العامة التي تضم أنواعًا متعددة من النباتات الحية والحيوانات . كما تشير في بعض الأحيان إلى العمليات المرتبطة بالأشياء غير الحية؛ بمعنى إنها قد تشير إلى الطريقة التي توجد بها أنواع محددة من الأشياء والطريقة التي تتغير بها بكامل إرادتها دون تدخل مثل: الطقس والسمات الجيولوجية للأرض، وكذلك المادة والطاقة التي تتكون منها هذه الأشياء كلها . ومن المعتاد أن تعني هذه الكلمة البيئة الطبيعية أو الحياة البرية بمعنى الحيوانات البرية والصخور والغابات والشواطئ وكل تلك الأشياء التي لم يتم تغييرها جوهريًا بواسطة تدخل البشر أو التي استمر وجودها على الرغم من التدخل البشري . ويدل هذا المفهوم الأكثر تقليدية عن الأشياء الطبيعية - والذي ظل موجودًا حتى يومنا هذا - على وجود فاصل بين الطبيعي والاصطناعي، مع التركيز على مفهوم أن الشيء الاصطناعي هو الشيء الذي جاء إلى الوجود عن طريق تدخل الفكر البشري أو العقل البشري .</t>
+  </si>
+  <si>
+    <t>الطبيعة - بمعناها العام - تعني العالم الطبيعي أو العالم الفيزيائي أو العالم المادي . 
+ولا يتم - بوجه عام - اعتبار الأشياء المصنعة والتدخلات البشرية في الطبيعة جزءًا منها، ويتم الإشارة إليها على إنها أشياء اصطناعية أو أشياء من صنع الإنسان . 
+ويتفاوت مداها مما هو دون الذرة إلى الأمور الكونية . 
+ويمكن اعتبار العقل المبدع جزءًا لا يتجزأ من "الطبيعة البشرية" . 
+وقد تم التأكيد على هذا الاستخدام مع ظهور المنهج العلمي الحديث في القرون العديدة الأخيرة .</t>
+  </si>
+  <si>
+    <t>التمويل (بالإنجليزية: Finance‏) يعنى التمويل بتحديد احتياجات الأفراد والمنظمات والشركات من الموارد النقدية وتحديد سبل جمعها واستخدامها مع الأخذ في الحسبان المخاطر المرتبطة بمشاريعهم . عليه فإن مصطلح تمويل يجمع بين التالي :دراسة النقود وغيره من الأصول، إدارة هذه الأصول ورقابتها، تحديد مخاطر المشاريع وإدارتها، علم إدارة المال . 
+في صيغة الفعل فإن كلمة تمويل تعني توفير الاعتمادات المالية للاعمال أو للمشتريات الفردية الضخمة (مثل السيارات والمساكن) . 
+إن النشاط التمويلي عبارة عن تطبيق مجموعة أساليب يستخدمها الأفراد أو المنظمات (كيانات) لإدارة اموالهم، وعلى وجه الدقة إدارة الفرق بين مداخليهم ومصاريفهم بالإضافة إلى المخاطر المتعلقة باستثماراتهم . فالكيان الذي دخله يفوق عن مصروفاته بإمكانه إقراض أو استثمار ذلك الفائض . في المقابل فإن الكيان الذي يكون دخله أقل من مصروفاته بإمكانه رفع رأسماله إما بالإقتراض أو من خلال بيع حقوق ملكية أو تخفيض مصاريفه أو زيادة دخله . ويمكن للدائن أن يجد مقترض من خلال وسيط مالي كالمصارف، أو أوراق الدين أو السندات في أسواق السندات . فيجني الدائن فائدة أقل من تلك التي يدفعها المقترض ويذهب الفرق لصالح الوسيط المالي . 
+و يعمل المصرف على تجميع أنشطة الدائنين والمقترضين . فيقبل المصرف ودائع من الدائنين يدفع عنها فائدة معلومة، ومن ثم يقوم بإعارة هذه الودائع للمقترضين . هكذا فإن المصرف يقوم بتنسيق أنشطة الدائنين والمقترضين مع بعضهم البعض مهما اختلفت احجامهم، ويمكن القول إن المصرف يمنع تدفع النقود في الهواء . 
+و من امثلة مالية الشركات عملية بيع الأسهم لصالح مؤسسات استثمارية كالمصارف الاستثمارية التي تقوم بدورها ببيع هذه الأسهم للعموم . ويمنح السهم مالكه، أياً كان، جزءاً من ملكية تلك الشركة . فإذا كنت تملك سهم واحد من الشركة س والتي يبلغ مجموع اسهمها 100 سهم فإنك بهذا تمتلك 1% من الشركة . وبطبيعة الحال فإن الشركة تقبض مقابل هذا السهم نقد تقوم باستخدامه لتوسيع عملياتها وتسمى العملية (بتمويل حقوق الملكية) . وتمويل حقوق الملكية بالإضافة إلى بيع السندات (أو أية طريقة أخرى للتمويل بالاقتراض) يسمى الهيكل الرأسمالي للشركة . 
+يستخدم التمويل أيضاً من قبل الأفراد (المالية الشخصية)، أو الحكومات (المالية العامة) أو منظمات الأعمال (مالية شركات) إضافة إلى العديد من المنظمات مثل المدارس أو المنظمات غير الربحية . وبشكل عام فإن الهدف من كل النشاطات المذكورة اعلاه يتحقق عبر الاستخدام الأمثل للأدوات المالية مع مراعة الوضع التنظيمي للنشاط . 
+و يعتبر التمويل من أهم اوجه إدارة الأعمال . ففي غياب التخطيط المالي الجيد فإن نجاح المؤسسات الجديد غير وارد . فإدارة المال (السيولة) عنصر جوهري لتأمين مستقبل الأفراد والمنظمات .</t>
+  </si>
+  <si>
+    <t>في صيغة الفعل فإن كلمة تمويل تعني توفير الاعتمادات المالية للاعمال أو للمشتريات الفردية الضخمة (مثل السيارات والمساكن) . 
+إن النشاط التمويلي عبارة عن تطبيق مجموعة أساليب يستخدمها الأفراد أو المنظمات (كيانات) لإدارة اموالهم، وعلى وجه الدقة إدارة الفرق بين مداخليهم ومصاريفهم بالإضافة إلى المخاطر المتعلقة باستثماراتهم . فالكيان الذي دخله يفوق عن مصروفاته بإمكانه إقراض أو استثمار ذلك الفائض . في المقابل فإن الكيان الذي يكون دخله أقل من مصروفاته بإمكانه رفع رأسماله إما بالإقتراض أو من خلال بيع حقوق ملكية أو تخفيض مصاريفه أو زيادة دخله . ويمكن للدائن أن يجد مقترض من خلال وسيط مالي كالمصارف، أو أوراق الدين أو السندات في أسواق السندات . فيجني الدائن فائدة أقل من تلك التي يدفعها المقترض ويذهب الفرق لصالح الوسيط المالي . 
+و يعمل المصرف على تجميع أنشطة الدائنين والمقترضين . فيقبل المصرف ودائع من الدائنين يدفع عنها فائدة معلومة، ومن ثم يقوم بإعارة هذه الودائع للمقترضين . هكذا فإن المصرف يقوم بتنسيق أنشطة الدائنين والمقترضين مع بعضهم البعض مهما اختلفت احجامهم، ويمكن القول إن المصرف يمنع تدفع النقود في الهواء .</t>
+  </si>
+  <si>
+    <t>المصرف هو مؤسسة مالية تهدف إلى تسهيل المعاملات المالية للعملاء وحفظ الأموال وتشغيلها . وهو المكان المناسب لحفظ النقود والأموال فيه، والمكان الذي يمكن الاقتراض منه عند الحاجة لقاء ضمان ما يغطي قيمة القرض أو لقاء تعهد شخص ضامن يكفل تغطية أو إعادة أصل القرض عند تأخر المدين بالسداد، يدار المصرف من صيرفي (صاحب المصرف أو مديره) ومجموعة من الموظفين . 
+المصرف هو المكان الأمين لادخار المال الفائض به وعادة يدفع المصرف فوائد سنوية على أصل المال المدخر وفي حالة عدم تحريك المال المدخر لفترة يتفق عليها يمكن أن تكون الفائدة مركبة . 
+المصارف عادة تقرض الناس المبالغ التي يحتاجون لها لقاء فائدة للمصرف، هذا الأسلوب محرم في الإسلام، ويستعاض عنه في المصارف الإسلامية بسد حاجة العميل المقترض عن طريق شراء المصرف حاجة العميل المقترض منه مثل عقار أو واسطة نقل نقدا وبيعها إلى العميل المقترض بالأجل بسعر أعلى يقوم فيما بعد بسداد القرض دفعة واحدة في وقت لاحق يتفق علي تحديده أو بتقسيط المبلغ على دفعات . 
+تقوم المصارف بأعمال مصرفية أخرى كثيرة مثل خصم السندات ووصولات القبض (الكمبيالات) لقاء عمولة معينة يتفق عليها، ومن الأعمال الأخرى تحويل وتصريف العملات من عملة إلى أخرى . 
+انشأت المصارف الحديثة خلال النهضة الأوروبية في مدينة البندقية في إيطاليا . أسس طلعت حرب بنك مصر في أوائل القرن العشرين . هذا المصرف مهم جدا في التأريخ المصري وفي تاريخ المصارف العربية . 
+دور المصارف مهم جداً في الاقتصاد . فالمهمة الأولى هي إقراض المال إلى الأشخاص أو الشركات أو الحكومات . وبعض المصارف تقرض أشخاص فقط وتقرض مصارف أخرى الشركات فقط ولكن هناك أيضا بعض المصارف التي تقرض إلى كل من المرشحين . وبعد ذلك لا بد للمستعير أن يرد القرض ويبلغ الربح أحيانا 6 في المئة . 
+المهمة الثانية للمصارف هي أنها المكان الذي يحفظ الاشخاص والشركات فيها نقودأ . يدفع المصرف ربحاً إلى الزبائن في كل الاوقات 3 في المئة مثلا . والمصرف يقرض هذا المال إلى أشخاض أو شركات كقرض . 
+بعض المدن لها مراكز للصناعة المالية مثل نيو يورك في اميركا ولندن في بريطانيا وطوكيو في اليابان و فرانكفورت في ألمانيا ومرفأ البحرين المالي في البحرين . وفي هذه المدن تقع آلاف المصارف و تقرض بلايين الدولارات كل السنة . وللمصارف عطل خاصة يتم أقفال التعامل من سحب وأيداع لمدة من الزمن وتسمى بالعطلة المصرفية .</t>
+  </si>
+  <si>
+    <t>وهو المكان المناسب لحفظ النقود والأموال فيه، والمكان الذي يمكن الاقتراض منه عند الحاجة لقاء ضمان ما يغطي قيمة القرض أو لقاء تعهد شخص ضامن يكفل تغطية أو إعادة أصل القرض عند تأخر المدين بالسداد، يدار المصرف من صيرفي (صاحب المصرف أو مديره) ومجموعة من الموظفين . 
+المصرف هو المكان الأمين لادخار المال الفائض به وعادة يدفع المصرف فوائد سنوية على أصل المال المدخر وفي حالة عدم تحريك المال المدخر لفترة يتفق عليها يمكن أن تكون الفائدة مركبة . 
+تقوم المصارف بأعمال مصرفية أخرى كثيرة مثل خصم السندات ووصولات القبض (الكمبيالات) لقاء عمولة معينة يتفق عليها، ومن الأعمال الأخرى تحويل وتصريف العملات من عملة إلى أخرى . 
+دور المصارف مهم جداً في الاقتصاد . 
+المهمة الثانية للمصارف هي أنها المكان الذي يحفظ الاشخاص والشركات فيها نقودأ .</t>
+  </si>
+  <si>
+    <t>الإثنا عشري(بالإنجليزية: Duodenum) أو العفج هو أحد أجزاء القناة الهضمية وأول جزء من الأمعاء الدقيقة يصل بين المعدة و الصائم . طوله 25-30 سم وله أربعة قطع تشبه المضلع تنفتح في القطعة الثانية منه كلا من القناتين الصفراوية والمعثكلية ويفصله عن المعدة البواب . يقوم الاثنا عشر بوظيفة أساسية في عملية الهضم . المواد النشوية التي لم يتم تفكيكها في الفم و المعدة يقوم الثنى عشر بإكمال عملية تفكيكها بمساعدة أنزيمات يفرزها البنكرياس كذلك مقاطع البروتينات المسماه ببتونات التي تفككت من البروتينات في المعدة تستمر عملية هضمها في الاثنى عشر بمساعدة أنزيمات أساسية . كذلك يتم تحليل وهضم الدهون وكذا تتحلل وتهضم في الاثنى عشر بواسطة أنزيمات تصل من البنكرياس الفولماريات مثل المواد المضافة للغذاء كاللون والمنكهات وما شابه التي لم تحلل في المعدة والفم . المواد التي تصل من البنكرياس والكبد و المرارة تساعد على تحليل بعض مركبات الغذاء كيميائيا والمواد التي يتم تحليلها كيميائيا هي:بروتينات كروهيدرات ودهون بالاضافة لذلك يتم امتصاص مياة وموادمعدنية الى الدم علما بان المواد المعدنية لا يحل بها تغيير في العملية الهضمية(مواد غير عضوية) . الحامض الملحي الذي تفرزه المعدة يتم معادلته في الاثنى عشر بواسطة (NaHCO3) الذي يفرز من البنكرياس . كذلك يستقبل الاثنى عشر العصارة الصفراء التي تفرزها المرارة .</t>
+  </si>
+  <si>
+    <t>المواد النشوية التي لم يتم تفكيكها في الفم و المعدة يقوم الثنى عشر بإكمال عملية تفكيكها بمساعدة أنزيمات يفرزها البنكرياس كذلك مقاطع البروتينات المسماه ببتونات التي تفككت من البروتينات في المعدة تستمر عملية هضمها في الاثنى عشر بمساعدة أنزيمات أساسية . 
+الحامض الملحي الذي تفرزه المعدة يتم معادلته في الاثنى عشر بواسطة (NaHCO3) الذي يفرز من البنكرياس .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إن وظيفة المعدة هي هضم المواد الغذائية التي نتناولها وخاصة المواد البروتينية أي تكسيرها إلى جزيئات صغيرة، حيث تقوم جدران المعدة القوية بالضغط على الطعام لمدة 4 ساعات يتحول بعدها الطعام إلى شبه سائل بعد هذا يمر الطعام عبر فتحة البواب إلى الأمعاء الرفيعة والتي يبلغ طولها حوالي 20 قدماً في الشخص البالغ . ولذلك فهي ملفوفة على بعضها البعض حتى يتسع لها تجويف البطن . أول جزء في الأمعاء دقيقة هو الإثنى عشر أي أن طوله يساوى عرض 12 إصبعاً وهنا تفتح قناتان فيه هما: ـ الحويصلة المرارية: وهي كيس صغير يلتصق بالكبد وتحمل المرارة التي تهضم المواد الدهنية ـ قناة البنكرياس: وتحمل العصارة البنكرياسية والتي تقوم بالمساعدة في عملية الهضم ومعادلة حامض المعدة . وبعد أن يمر الطعام من الاثنى عشر يصبح صالحاً للامتصاص حيث تتم هذه العملية داخل تلافيف الأمعاء الرفيعة وبنسبة ضئيلة في الأمعاء الغليظة . ويبطن جدار الأمعاء الرفيعة ملايين الخلايا الدقيقة التي تسمى الخمائل والتي تقوم بعملية الامتصاص . ثم يلي ذلك القولون والذي يبلغ طوله 5 أقدام وهو على شكل ثلاث أضلاع مربعة حيث يمتد من الجهة اليمنى السفلية من البطن إلى أعلى ثم ينثني بعرض البطن تحت المعدة ثم ينثني مرة أخرى نازلاً من الجهة اليسرى للبطن إلى أسفل . وتسمى نهاية القولون بالمستقيم الذي يبلغ طوله حوالي 6 بوصات ويقع في تجويف الجزء العجزي من العمود الفقري . وينتهي المستقيم بقناة الشرج التي تكون مقفلة عادة بواسطة عضلة مستديرة قوية تسمى عضلة فتحة الشرج . وتصل نفايات الطعام إلى القولون على هيئة نصف سائل حيث لا يسمح الجسم بخروجها على هذه الهيئة فيقوم القولون بامتصاص معظم السائل من هذه الفضلات ثم يخرج الباقي على هيئة براز . ويستغرق الطعام مدة 24 ساعة قبل المرور خارج القناة الهضمية . فالمعدة لاتقبل أي طعام بارد جدا فهي تتضرر من دالك وكدالك الطعام الساخن فهو يصيبها بقرحة المعدة . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ان وظيفة المعدة هي هضم المواد الغذائية التي نتناولها وخاصة المواد البروتينية اي تكسيرها الى جزيئات صغيرة، حيث تقوم جدران المعدة القوية بالضغط على الطعام لمدة 4 ساعات يتحول بعدها الطعام الى شبه سائل بعد هذا يمر الطعام عبر فتحة البواب الى الامعاء الرفيعة وا .  اول جزء في الامعاء دقيقة هو الاثنى عشر اي ان طوله يساوى عرض 12 اصبعاً وهنا تفتح قناتان فيه هما: ـ الحويصلة المرارية: وهي كيس صغير يلتصق بالكبد وتحمل المرارة التي تهضم المواد الدهنية ـ قناة البنكرياس: وتحمل العصارة البنكرياسية والتي تقوم بالمساعدة في عملي .  ويبطن جدار الامعاء الرفيعة ملايين الخلايا الدقيقة التي تسمى الخمائل والتي تقوم بعملية الامتصاص .  وتسمى نهاية القولون بالمستقيم الذي يبلغ طوله حوالي 6 بوصات ويقع في تجويف الجزء العجزي من العمود الفقري .  وتصل نفايات الطعام الى القولون على هيئة نصف سائل حيث لا يسمح الجسم بخروجها على هذه الهيئة فيقوم القولون بامتصاص معظم السائل من هذه الفضلات ثم يخرج الباقي على هيئة براز . فالمعدة لاتقبل اي طعام بارد جدا فهي تتضرر من دالك وكدالك الطعام الساخن فهو يصيبها بقرحة المعدة .  </t>
+  </si>
+  <si>
+    <t>القلب هو العضو العضلي المجوف الذي يدفع الدم ضمن الجهاز الدوراني بما يشبه عمل المضخة, مشكلا العضو الرئيسي في الجهاز القلبي الوعائي أو ما يعرف بالجهاز الدوراني . تشكل العضلة القلبية النسيج الفعال وظيفيا من القلب حيث يؤمن تقلصها انتقال الدم وضخه من القلب إلى باقي الأعضاء مما يجعل القلب محطة الضخ الرئيسية للدم من القلب إلى العضاء لتزويدها بالأكسجين المحمل في الدم القادم من الرئتين, من ثم يقوم القلب بضخ الدم القادم من العضاء والمحمل بثاني أكسيد الكربون إلى الرئتين لتنقيته و تحميله من جديد بالأكسجين . كمية الدم التي يضخها القلب في الحالة الطبيعية تبلغ 4 . 5 إلى 5 لتر في الدقيقة, يمكن أن تزداد إلى ثلاثة أضعاف عند القيام يتمارين رياضية . تحتاج العضلة القلبية إلى 7% من الأكسجين الذي يحمله الدم لإنتاج طاقة الضخ بالتالي فهي حساسة جدا لنقص الأكسجين, وأي نقص في كمية الأكسجين الوارد إليها يؤدي إلى نوع من الاستقلاب اللاهوائي يؤدي لألم يعرف بالذبحة الصدرية (Angina) . وزن القلب يبلغ 0 . 5% من وزن جسم الإنسان أي أنه بحدود 350 غرام لشخص يزن 70 كغ ويمكن لهذا الوزن أن يزداد بزيادة عمله كما عند الرياضيين . يترافق هذه الزيادة الوزنية بازدياد حجم الدم الذي يضخ في النبضة الواحدة فما يزداد عند الرياضيين هو كمية الدم التي تضخ وليس عدد النبضات . أوعية الدم في القلب بما أن القلب عضلة متحركة باستمرار فهو بحاجة دائمة إلى إمداد مستمر من الدم ينقل لخلاياه الغذاء والأكسجين، ويرجع بالفضلات وثاني أكسيد الكربون وهو ما يعرف بالتروية تتم تروية العضلة القلبية بشريانين تاجيين (أيمن وأيسر) يخرجان من بداية الابهر ( الأورطي) يتفرعان إلى شرينات وشعيرات دموية حيث يغذي كل منها نصف القلب . يحتوي القلب على أربعة حجيرات منفصلة تدعى: الأذينين اليمنى واليسرى والبطينين الأيمن والأيسر . تكون جدران الأذينين رقيقة نسبيا لأن طبيعة عملها الأساسي كمستودع للدم ومدخل للبطين فهي لا تقوم بعمل الضخ الأساسي الذي يتكقل به البطين . جدران البطين تكون أثخن لأنه يقوم بعملية الضخ الأساسية في الدوران الرئوي والدوران المحيطي . تنظم حركة الدم في القلب صمامات (تدعى أيضا دسامات) تشكل بوابات وحيدة الإتجاهات تؤمن انتقال الدم من الأذينة إلى البطين ولا تسمح بالانتقال العكسي, فالتجمع الأساسي للدم الوارد للقلب يحدث في الأذينة اليمنى لينتقل بعد ذلك إلى البطين الأيمن, يقوم البطين الأيمن بضخ الدم للرئتين, يعود الدم بعد تنقيته من الرئتين إلى الأذينة اليسرى, من الأذينة اليسرى ينتقل للبطين الأيسر الذي يضخه بدوره عبر الشريان الأبهر، أو الشريان الرئيسي، إلى باقي الأعضاء .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القلب هو العضو العضلي المجوف الذي يدفع الدم ضمن الجهاز الدوراني بما يشبه عمل المضخة, مشكلا العضو الرئيسي في الجهاز القلبي الوعائي او ما يعرف بالجهاز الدوراني . تشكل العضلة القلبية النسيج الفعال وظيفيا من القلب حيث يؤمن تقلصها انتقال الدم وضخه من القلب الى باقي الاعضاء مما يجعل القلب محطة الضخ الرئيسية للدم من القلب الى العضاء لتزويدها بالاكسجين المحمل في الدم القادم من الرئتين, من ثم يقوم القلب بضخ الدم القادم م . كمية الدم التي يضخها القلب في الحالة الطبيعية تبلغ 4 . 5 الى 5 لتر في الدقيقة, يمكن ان تزداد الى ثلاثة اضعاف عند القيام يتمارين رياضية .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصداع موضوع مثير للقراء . لأن التعرف عليه وعلي طرق علاجه كل مايهمهم هو معرفته ولايهمهم التفاصيل العلمية بقدر ما يهمهم التعرف علي آليته وكيفية التعامل معه وعلاجه أو تسكينه . والصداع قد ينتاب الكبير والصغير حتي الأطفال . و تعريفنا للصداع هو ألم في الراس أوالفروة أو الرقبة . والسبب الرئيسي لكافة أنواع الصداع غير معلومة وقد يتحسن معظم الأشخاص لوغيروا أسلوب حياتهم وتدربوا علي كيفية الإسترخاء أو بتناولهم أدوية له . وهناك الصداع التوتري الذي سببه تصلب العضلات بالكتفين او الرقبة أو بفروة الرأس أو الفك . وهذا سببه الإجهاد والإكتئاب والقلق . وقد يكون لكثرة العمل أو قلة النوم أو الأكل أو شرب الخمر أوتعاطي الحبوب المخدرة . و تناول مادة tyramine بالشيكولاتة والجبن والمكسرات ، أومادة جلوتومات أحادي الصوديوم monosodium glutamate (MSG) . التي توضع باللحوم المحفوظة كلها مواد قد تولد الصداع . والأشخاص الذين يتناولون مادة الكافيين في الشاي والبن والكولا يمكنهم الشعور بالصداع لو لم يتناولوا جرعاتهم اليومية التي اعتادوا عليها . ومن الأسباب الشائعة لتولد الصداع نجد الرأس من المناطق الحساسة لأنها تضم الدماغ والعينين والأذنين وعظام الجمجمة وعضلات الوجه والجيوب الأنفية والشرايين وغيرها، وكل هذه الأعضاء قد تكون سببا للصداع . وهناك بعض الأعضاء البعيدة عن الرأس التى يمكنها أن تثير نوبة الصداع . لهذا الصداع أشكال وأنواع . فقد يكون الصداع متقطعا أو مستمرا . وقد يصيب الإنسان شهريا أو أسبوعيا أو يوميا وقد تدوم النوبة عدة ساعات . وتختلف شدتها بين ألم خفيف وألم معتدل إلى الإحساس بألم شديد . وقد يأتي الألم في الجبهة أو الصدغ أو قرب العينين أو في مؤخرة الرأس وقد ينتشر إلى شق من شقي الوجه أو كليهما . وقد يصاحبه الغثيان والقىء واضطراب الرؤية و سوء المزاج . والصداع قد يكون عضويا بسبب ضربة خفيفة على الرأس أو حمى، أو الأورام وارتفاع الضغط و اضطرابات العين كالتهاب الملتحمة او خراج بها أو دمل بالجفن و الجلوكوما و التهاب الجيوب الأنفية أو التهاب الأذن الوسطى ومشاكل الاسنان و الامساك وأعراض ما قبل الدورة الشهرية . ونسبة وقوعه تقل عن 10% من مجموع حالات الصداع . قد يكون الصداع سببه غير عضوي بسبب تغيرات فسيولوجية (وظيفية ) في مناطق معينة من الرأس كالأوعية الدموية والعضلات . و ليس بسبب مرض أو إصابة . وتتجاوز نسبة وقوعه 90% من حالات الصداع كالصداع النصفي والصداع التوتري والصداع العنقودي و صداع الجوع و الصداع الإكتئاب النفسي . ومن الأسباب الشائعة لتولد الصداع وضع الرأس لمدة طويلة في اتجاه واحد ووضع ثابت ، كما في الجلوس أمام الكومبيوتر والآلة الكاتبة والميكروسكوب أوبسبب الإجهاد المرهق وقلة النوم والكز علي الأسنان . والصداع التوتري Tension headache يظهر في جانبي الرأس وعادة يبدأ من خلفها وينتشر للأمام وقد يبدو الألم مكتوما كأن المكان مربوط بإحكام . ويمكن أن يشعر الشخص بتصلب الكتف أو الرقبة او الفك . وعلاجه هو حل المشاكل النفسية وتناول المهدئات المناسبة . ويوجد صداع العنقود Cluster headache وهو حاد ومؤلم جدا ويحدث عدة مرات في اليوم ولمدة شهور وينصرف لمدة مشابهة . وهذا النوع ليس شائعا . وهناك صداع التهاب الجيوب الأنفية Sinus headacheوسببه الالتهابات الجرثومية والفيروسية للجيوب الأنفية . فيسبب ألما في مقدمة الراس والوجه وبسبب التهابات في ممرات الجيوب الأنفية التي تقع خلف الخدين والأنف والعينين . فنشعر بالم أشد عندما ننحني للأمام أوعندما نستيقظ من النوم صباحا أو في حالة الرشح الأنفي أو التهاب الحلق . وهذا الصداع يظهر على شكل الإحساس بثقل أو ألم يزداد أثناء ساعات النهار . ويتم العلاج بتناول العقاقير المسكنة ومضادات الاحتقان الأنفي . و أخذ حمام ساخن أو استنشاق الأبخرة لتخفيف حدة الصداع . وإذا استمر الصداع ،فقد يحتاج الأمر إلى تدخل جراحى وعملية بزل . والصداع قد نشعر به عندما نصاب بنزلة برد أوحمي أو في حالة ماقبل نزول الطمث لدي السيدات . ولو كان الصداع لأول مرة لدي من هم فوق الخمسين عاما فقد يكون سببه التهاب شرياني صدغي Temporal arteritis يسبب زغللة في الرؤية وألم اثناء المضغ وهذا النوع قد يؤدي للعمي لو لم يعالج بواسطة الطبيب المختص وعادة يعالج بالإستيرويدات steroids ليساعد في منع العمي . وهناك اسباب نادرة تسبب الصداع كنزيف المخ أو ورم به أو التهاب الحمي الشوكية او الالتهاب أوالجلطة او العدوي بالمخ . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصداع موضوع مثير للقراء .  والصداع قد ينتاب الكبير والصغير حتي الاطفال . والسبب الرئيسي لكافة انواع الصداع غير معلومة وقد يتحسن معظم الاشخاص لوغيروا اسلوب حياتهم وتدربوا علي كيفية الاسترخاء او بتناولهم ادوية له . وهناك الصداع التوتري الذي سببه تصلب العضلات بالكتفين او الرقبة او بفروة الراس او الفك .  وهذا سببه الاجهاد والاكتئاب والقلق . وقد يكون لكثرة العمل او قلة النوم او الاكل او شرب الخمر اوتعاطي الحبوب المخدرة .  و تناول مادة tyramine بالشيكولاتة والجبن والمكسرات ، اومادة جلوتومات احادي الصوديوم monosodium glutamate (MSG) .  والاشخاص الذين يتناولون مادة الكافيين في الشاي والبن والكولا يمكنهم الشعور بالصداع لو لم يتناولوا جرعاتهم اليومية التي اعتادوا عليها .  ومن الاسباب الشائعة لتولد الصداع نجد الراس من المناطق الحساسة لانها تضم الدماغ والعينين والاذنين وعظام الجمجمة وعضلات الوجه والجيوب الانفية والشرايين وغيرها، وكل هذه الاعضاء قد تكون سببا للصداع .  فقد يكون الصداع متقطعا او مستمرا .  وقد يصيب الانسان شهريا او اسبوعيا او يوميا وقد تدوم النوبة عدة ساعات . والصداع قد يكون عضويا بسبب ضربة خفيفة على الراس او حمى، او الاورام وارتفاع الضغط و اضطرابات العين كالتهاب الملتحمة او خراج بها او دمل بالجفن و الجلوكوما و التهاب الجيوب الانفية او التهاب الاذن الوسطى ومشاكل الاسنان و الامساك واعراض ما قبل الدورة الشهرية . قد يكون الصداع سببه غير عضوي بسبب تغيرات فسيولوجية (وظيفية ) في مناطق معينة من الراس كالاوعية الدموية والعضلات . ومن الاسباب الشائعة لتولد الصداع وضع الراس لمدة طويلة في اتجاه واحد ووضع ثابت ، كما في الجلوس امام الكومبيوتر والآلة الكاتبة والميكروسكوب اوبسبب الاجهاد المرهق وقلة النوم والكز علي الاسنان . وعلاجه هو حل المشاكل النفسية وتناول المهدئات المناسبة . ويوجد صداع العنقود Cluster headache وهو حاد ومؤلم جدا ويحدث عدة مرات في اليوم ولمدة شهور وينصرف لمدة مشابهة .  ويتم العلاج بتناول العقاقير المسكنة ومضادات الاحتقان الانفي .  و اخذ حمام ساخن او استنشاق الابخرة لتخفيف حدة الصداع .  واذا استمر الصداع ،فقد يحتاج الامر الى تدخل جراحى وعملية بزل .  والصداع قد نشعر به عندما نصاب بنزلة برد اوحمي او في حالة ماقبل نزول الطمث لدي السيدات .  </t>
+  </si>
+  <si>
+    <t>الكريات الدموية الحمراء: هي عبارة عن خلاية مقعرة عديمة النواة تحتوي على صبغة الهيموغلوبين أو HB تدعى بخضاب الدم وهي عبارة عن بروتين أحمر اللون يقدر عددها ب4ألى 5 مليون كرية ملم المكعب من الدم تحتوي على كل كرية على 300جزيئة من HB قطرها يصل إلى 7مكرون ويعتبر قطر صغير جدا . 
+الخلية الحمراء أو خلية الدم الحمراء (بالإنجليزية: Red blood cell) أو (بالإنجليزية: Erythrocyte) هي إحدى مكونات خلايا الدم و أكثرها عددا . وتحتوى هذه الخلايا على الهيموجلوبين . والهيموجلوبين هو الذي يسمح للخلايا بحمل الأكسجين وثاني أكسيد الكربون، إلى جانب هذه الوظيفة فإن الهيموجلوبين بمثابة الصبغة التي تكسب الدم لونه الأحمر . عندما يكون الدم في الرئتين فإن خضاب الدم-الهيموجلوبين- في كريات الدم الحمراء يتحد مع الأوكسجين ليشكل خضاب الدم المؤكسج . يحمل الدم الأوكسجين إلى الأنسجة حيث يتفكك خضاب الدم المؤكسج ويعطي الخلايا الأوكسجين ويأخذ منها ثاني أوكسيد الكربون الذي يتحد مع الخضاب ليشكل كربامين خضاب الدم وعندما يعود الدم القاتم-المحمل بثاني أوكسيد الكربون إلى الرئتين ليتفكك من جديد ويطلق ثاني أوكسيد الكربون الذي تطرحه الرئتين بعملية الزفير .</t>
+  </si>
+  <si>
+    <t>وتحتوى هذه الخلايا على الهيموجلوبين . 
+والهيموجلوبين هو الذي يسمح للخلايا بحمل الأكسجين وثاني أكسيد الكربون، إلى جانب هذه الوظيفة فإن الهيموجلوبين بمثابة الصبغة التي تكسب الدم لونه الأحمر .</t>
+  </si>
+  <si>
+    <t>البنكرياس هو غدة يقارب حجمها الست بوصات وتتصل مع الامعاء الدقيقة، وتقع قريبا من المعدة و عميقا في الجزء العلوي الخلفي للبطن مقابل العمود الفقري . البنكرياس ضروري جدا لعملية الهضم وذلك بسبب إفراز الغدد النسخية في البنكرياس عصارة البنكرياس في الاثني عشر . هذه العصارة تحتوي الانزيمات تساعد على هضم البروتينات، الدهون والكربوهيدرات قبل أن يتسنى امتصاصها من خلال الامعاء؛ كما يحتوي البنكرياس على غدد صماء تعرف بجزر لانغرهانس تحتوي على خلايا فئة بيتا beta التي تفرز هرمون الأنسولين الذي ينظم تركّز السكر في الدم؛ وتحتوي أيضا على خلايا فئة ألفا alpha التي تفرز هرمون معروف باسم غلوكاغون له مفعول معاكس لمفعول الأنسولين . 
+يتكون من رأس - رقبة - جسم - ذيل . كل البنكرياس يقع خلف الغشاء البريتوني عدا الجزء الاخير من الذيلtail فانه يقع في الرباط بين الكلية و الطحال . الشريان الذاهب إلى الطحال فانه شريان كبير متعرج يمشي على أعلى البنكرياس ويعطي للبنكرياس شرايين خاصة الشريان البكرياس الكبير arteria pancreatica magna . 
+البنكرياس هو غدة من نوعين : خارحية وداخلية: معنى خارجية أي انها تفرز بعض المواد وهذه المواد تذهب في قنوات فتصب في مكان ما و هنا يكون المكان هو الإثنا عشري . أما الداخلية فمعناها ان تجمعات من الخلايا في البنكرياس تسمى جزر لانغرهانس تفرز الأنسولين إلى الدم مباشرة بدون قناة . 
+للبنكرياس قناة رئيسية و قناة صغيرة تصب فيها أو تصب لوحدها في الاثني عش . في نهاية القناة الرئيسية تنفتح قناه المرارة على قناة البنكرياس الرئيسية فيكونان مكان مشترك اسمه أو تسمى باسم الجراح الذي وصفها . وهي تفتح في الجهة اليسرى في منتصف الجزء الثاني من الاثني عشر . تحيط بنهاية القنوات و الفتحة المشتركة عضلات ملساء تعمل كصمام لتنظيم خروج المواد و منع رجوعها بالاتجاه المعاكس ، وتسمى بصمام اودي .</t>
+  </si>
+  <si>
+    <t>البنكرياس هو غدة يقارب حجمها الست بوصات وتتصل مع الامعاء الدقيقة، وتقع قريبا من المعدة و عميقا في الجزء العلوي الخلفي للبطن مقابل العمود الفقري . 
+هذه العصارة تحتوي الانزيمات تساعد على هضم البروتينات، الدهون والكربوهيدرات قبل أن يتسنى امتصاصها من خلال الامعاء؛ كما يحتوي البنكرياس على غدد صماء تعرف بجزر لانغرهانس تحتوي على خلايا فئة بيتا beta التي تفرز هرمون الأنسولين الذي ينظم تركّز السكر في الدم؛ وتحتوي أيضا على خلايا فئة ألفا alpha التي تفرز هرمون معروف باسم غلوكاغون له مفعول معاكس لمفعول الأنسولين . 
+كل البنكرياس يقع خلف الغشاء البريتوني عدا الجزء الاخير من الذيلtail فانه يقع في الرباط بين الكلية و الطحال . 
+البنكرياس هو غدة من نوعين : خارحية وداخلية: معنى خارجية أي انها تفرز بعض المواد وهذه المواد تذهب في قنوات فتصب في مكان ما و هنا يكون المكان هو الإثنا عشري . 
+للبنكرياس قناة رئيسية و قناة صغيرة تصب فيها أو تصب لوحدها في الاثني عش . 
+وهي تفتح في الجهة اليسرى في منتصف الجزء الثاني من الاثني عشر .</t>
+  </si>
+  <si>
+    <t>المرئ عبارة عن أنبوبة عضلية يصل طوله لدى الإنسان البالغ إلي 25سم و هو جزء القناة الهضمية الموصل بين البلعوم والمعدة عبر الحجاب الحاجز، وتمتد في حيزوم الصدر (وسط الصدر) حتى تخترق الحجاب الحاجز، وتسير لمسافة قصيرة 1,5 سم في تجويف البطن قبل أن تفتح في الفتحة الفؤادية للمعدة . 
+و يتكون المرئ من طبقتين عضليتين, الأولي خارجية طولية ذات ألياف، والثانية داخلية ذات ألياف دائرية، يغذيهما العصب الحائر . وتتحكم في مدخل المرئ عضلة تسمى العضلة العاصرة العليا (وهي الحلْقة البلعومية)، كما تتحكم في مخرجه عضلة اسمها العضلة العاصرة السفلى وهي السنتيمترات الثلاثة أو الأربعة الأخيرة من المرئ، وهي أشبه بصمام ذي ضغط عال منها بعضلة تشريحية مستقلة . 
+بعد مضغ الطعام في الفم يعبر من البلعوم إلى المرئ ونظرا لتجاور المرئ مع القصبة الهوائية يقوم لسان المزمار بغلق فتحة القصبة الهوائية حين البلع وعند وصوله للمرئ يقوم بدفعه بحركة عضلية طاردة للاسفل حتى يمر عبر العضلة العاصرة السفلى التي تسترخي بدورها ليمر الطعام إلى المعدة، وتلك العضلة تمنع عودة الطعام وافرازات المعدة إلى المرئ لذلك لا تتأثر حركة الطعام بوضعية الجسم وتأثير الجاذبية . 
+الملاحظ أن عملية البلع تحتاج إلى تتابع منسق بين عضلات متعددة: في الفم واللسان والحلق والبلعوم والحنجرة والمرئ، وتسيطر عليها الأعصاب الجمجمية الخامس والسابع والتاسع والعاشر والحادي عشر والثاني عشر، ومراكزها كلها في جذع الدماغ . [1 ]</t>
+  </si>
+  <si>
+    <t>المرئ عبارة عن أنبوبة عضلية يصل طوله لدى الإنسان البالغ إلي 25سم و هو جزء القناة الهضمية الموصل بين البلعوم والمعدة عبر الحجاب الحاجز، وتمتد في حيزوم الصدر (وسط الصدر) حتى تخترق الحجاب الحاجز، وتسير لمسافة قصيرة 1,5 سم في تجويف البطن قبل أن تفتح في الفتحة الفؤادية للمعدة . 
+وتتحكم في مدخل المرئ عضلة تسمى العضلة العاصرة العليا (وهي الحلْقة البلعومية)، كما تتحكم في مخرجه عضلة اسمها العضلة العاصرة السفلى وهي السنتيمترات الثلاثة أو الأربعة الأخيرة من المرئ، وهي أشبه بصمام ذي ضغط عال منها بعضلة تشريحية مستقلة . 
+وعند وصوله للمرئ يقوم بدفعه بحركة عضلية طاردة للاسفل حتى يمر عبر العضلة العاصرة السفلى التي تسترخي بدورها ليمر الطعام إلى المعدة، وتلك العضلة تمنع عودة الطعام وافرازات المعدة إلى المرئ لذلك لا تتأثر حركة الطعام بوضعية الجسم وتأثير الجاذبية .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرئة هي عضو تنفسي مهم في الفقاريات التي تستخدم الهواء الجوي للتنفس . الوظيفة الرئيسية للرئة هو نقل الهواء الجوي إلى المجرى الدموي والتخلص من غاز ثنائي أوكسيد الكربون من المجرى الدموي إلى الهواء الخارجي . هذا التبادل الغازي ينتج عن عمل الخلايا المتخصصة التي تبطن غشاء الاكياس الهوائية أي الحويصلات الهوائية . لدى الرئتين وضيفة غير تنفسية ايضاً . ان تحرير الطاقة بواسطة عملية التنفس يحتاج إلى الأوكسجين ويحرر ثنائي أوكسيد الكربون ، وهذا بحاجة إلى طريقة كفوءة لنقل الاوكسجين إلى الخلايا وتحرير ثنائي اوكسيد الكربون منها . في الكائنات البسيطة كالبكتيريا الأحادية الخلية تحدث عملية التبادل الغازي عن طريق ميكانيكية الإنتشار البسيط . في الكائنات الاكثر تعقيداً لاتحدث عملية الانتشار البسيط الا للخلايا الاقريبة جدا من موقع الاوكسجين . ان التكيف الذي حصل في هذه الكائنات هو وجود الدورة الدموية التي تنقل الغاز من والى اعمق نقطة موجودة في انسجة الجسم ، ووجود جهاز تنفسي الذي يسمح بأخذ الاوكسجين من الهواء الجوي وبذلك ينتشر بسهولة إلى الدورة الدموية . تكون عملية التنفس في الكائنات الفقارية التي تتنفس الهواء الجوي على مراحل . يأتي الهواء إلى الحيوان عن طريق المجرى التنفسي – في الزواحف والطيور والثدييات يتكون من الأنف والبلعوم والحنجرة ثم القصبة الهوائية والقصييبات . رئتي اللبائن تكون غنية بشبكة من الحويصلات الرئوية التي توفر مساحة واسعة للتبادل الغازي . هناك شبكة من الشعيرات الدموية التي تسمح بتدفق الدم على سطح الحويصلات الرئوية . الاوكسجين الذي بداخل الحويصلة الرئوية ينتشر إلى المجرى الدموي وينتشر غاز ثنائي اوكسيد الكربون من المجرى الدموي إلى الحويصلة الرئوية ،كلاهما ينفذان من الجدران الرقيقة للحويصلات الرئوية . في الثدييات ،هناك عضلة كبيرة تدعى الحجاب الحاجز بالاضافة إلى بغض العضلات مابين الاضلاع تساعد على التحكم بعملية التنفس بصورة دورية تبعاً للتغيرات في الحجم والضغط في داخل منطقة الصدر . بزيادة الحجم يقل الضغط مما يسبب اندفاع الهواء إلى المجاري التنفسية حيث الضغط الواطيء وبتقليل الحجم و زيادة الضغط يحصل العكس . اضافة إلى الوظيفة التنفسية كتبادل الغازات وتنظيم تركيز ايون الهدروجين تقوم الرئتين ايضاً بالتأثير على تركيز المواد الحيوية والعقاقير التي تٌعطى في الدم الشرياني وتصفي التخثرات الدموية الصغيرة التي تتكون في الاوردة . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الرئة هي عضو تنفسي مهم في الفقاريات التي تستخدم الهواء الجوي للتنفس .  الوظيفة الرئيسية للرئة هو نقل الهواء الجوي الى المجرى الدموي والتخلص من غاز ثنائي اوكسيد الكربون من المجرى الدموي الى الهواء الخارجي .  هذا التبادل الغازي ينتج عن عمل الخلايا المتخصصة التي تبطن غشاء الاكياس الهوائية اي الحويصلات الهوائية .  لدى الرئتين وضيفة غير تنفسية ايضاً .  في الكائنات الاكثر تعقيداً لاتحدث عملية الانتشار البسيط الا للخلايا الاقريبة جدا من موقع الاوكسجين .  ان التكيف الذي حصل في هذه الكائنات هو وجود الدورة الدموية التي تنقل الغاز من والى اعمق نقطة موجودة في انسجة الجسم ، ووجود جهاز تنفسي الذي يسمح باخذ الاوكسجين من الهواء الجوي وبذلك ينتشر بسهولة الى الدورة الدموية . تكون عملية التنفس في الكائنات الفقارية التي تتنفس الهواء الجوي على مراحل .  ياتي الهواء الى الحيوان عن طريق المجرى التنفسي – في الزواحف والطيور والثدييات يتكون من الانف والبلعوم والحنجرة ثم القصبة الهوائية والقصييبات .  </t>
+  </si>
+  <si>
+    <t>السيجارة هي منتج مصنوع من أوراق التبغ، تلف أو تحشى بداخل غلاف ورقي على شكل أسطوانة، يبلغ طولها عادة 120 مم وقطرها 10 مم . تسمح بعض الدول المصنعة للسيجارات تكونها ليس فقط من أوراق التبغ بل حتى من ساق النبات، حيث يسحق ويقطع . تشعل السيجارة من نهاية واحدة، وتوضع النهاية الأخرى في الفم . لم تكن السيجارات معروفة في أوروبا قبل اكتشاف كريستوفر كولومبس لأمريكا عندما رأى الهنود الحمر يدخنون . تحتوي السيجارة على التبغ الذي يحتوي على حوالي 500 مركب تختلف نسبها حسب نوع السيجارة, منها القار والكربون المؤكسد ،ومن أخطر المواد التي تحتوي عليها السيجارة هي النيكوتين والقطران وأول اكسيد الكربون . تحتوي السيجارة على أول أكسيد الكربون الذي له دور في تعطيل وظيفة الهيموجلوبين في نقل الأكسجين إلى الدم . كما يشترك أول أكسيد الكربون مع النيكوتين في زيادة ترسب الدهون والكوليستيرول في الشرايين وتجلط الدم . تسبب السيجارة الأمراض السرطانية التي تشمل سرطان الرئتين والفم والشفتين والحنجرة والمريء, والكليتين والمثانة والبنكرياس نتيجة امتصاص المواد القطرانية ووصولها إلى هذه الأعضاء مع تيار الدم . و السيجارة سبب في  أمراض القلب والشرايين وهي ناتجة عن تحالف كل من أول أكسيد الكربون والنيكوتين على عضلة القلب فيزيد النيكوتين من نبض القلب وحاجته إلى الأكسجين, بينما يعمل أول أكسيد الكربون على تقليل كمية الأكسجين التي تصل إلى القلب, كما يسببان ترسب المواد الدهنية والكوليستيرول في بطانة الأوعية الدموية مما يتسبب في تصلب الشرايين والذي يعد أحد الأسباب الرئيسة لإرتفاع ضغط الدم والسكتات القلبية الناتجة عن تجلط الدم في الشرايين التاجية المغذية للقلب . تضعف السيجارة من مناعة الجسم وقدرته على مقاومة الجراثيم التي تغزو المسالك التنفسية, حيث تتلف مادة القطران أهداب الخلايا المبطنة لهذه المسالك فتقل قدرتها على تنقية الهواء الواصل للرئتين كما تسبب السيجارة قرحة المعدة والمريء والأمعاء .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السيجارة هي منتج مصنوع من اوراق التبغ، تلف او تحشى بداخل غلاف ورقي على شكل اسطوانة، يبلغ طولها عادة 120 مم وقطرها 10 مم . تحتوي السيجارة على التبغ الذي يحتوي على حوالي 500 مركب تختلف نسبها حسب نوع السيجارة, منها القار والكربون المؤكسد ،ومن اخطر المواد التي تحتوي عليها السيجارة هي النيكوتين والقطران واول اكسيد الكربون . تسبب السيجارة الامراض السرطانية التي تشمل سرطان الرئتين والفم والشفتين والحنجرة والمريء, والكليتين والمثانة والبنكرياس نتيجة امتصاص المواد القطرانية ووصولها الى هذه الاعضاء مع تيار الدم .  و السيجارة سبب في  امراض القلب والشرايين وهي ناتجة عن تحالف كل من اول اكسيد الكربون والنيكوتين على عضلة القلب فيزيد النيكوتين من نبض القلب وحاجته الى الاكسجين, بينما يعمل اول اكسيد الكربون على تقليل كمية الاكسجين التي تصل الى القلب, كما يسببان ترسب الموا . تضعف السيجارة من مناعة الجسم وقدرته على مقاومة الجراثيم التي تغزو المسالك التنفسية, حيث تتلف مادة القطران اهداب الخلايا المبطنة لهذه المسالك فتقل قدرتها على تنقية الهواء الواصل للرئتين كما تسبب السيجارة قرحة المعدة والمريء والامعاء .  </t>
+  </si>
+  <si>
+    <t>المخدرات مادة كيميائية تسبب النعاس والنوم أو غياب الوعى المصحوب بتسكين الألم . وقد تؤدى إلى التعود أو الإدمان عليها . والإدمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد أو العقاقير المخدرة للحصول عليها بأى كيفية وتحت أى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة . والمواد المخدرة تصنف حسب مصدرها أو طبقاً لأصل المادة التى حضرت منها . فهناك مخدرات طبيعية ذات الأصل النباتى ويمكن استخلاص المواد الفعالة من الأجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية . و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الأفيون مع المادة الكيميائية استيل كلوريد و مخدرات تخليقية ليست من أصل نباتى . وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الأدوية . ومن بين المخدرات نجد المهبطات والمنشطات والمهلوسات . يمنع استخدام المخدرات بدون اشراف طبي مباشر وكذلك يمنع الأتجار بها وإلا الوقوع تحت طائلة القانون . عقوبة الأتجار بالمخدرات شديدة جدآ تصل لحد الأعدام وقد ادانت محكمة الجنايات الكويتية على أحد أفراد الأسرة الحاكمة في الكويت المدعو طلال ناصر وحكمت عليه بالأعدام شنقاً . المخدرات مادة كيميائية تسبب النعاس والنوم أو غياب الوعى المصحوب بتسكين الألم . وقد تؤدى إلى التعود أو الإدمان عليها . . والإدمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد أو العقاقير المخدرة للحصول عليها بأى كيفية وتحت أى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة . والمواد المخدرة تصنف حسب مصدرها أو طبقاً لأصل المادة التى حضرت منها . فهناك مخدرات طبيعية ذات الأصل النباتى ويمكن استخلاص المواد الفعالة من الأجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية . و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الأفيون مع المادة الكيميائية "استيل كلوريد" و مخدرات تخليقية ليست من أصل نباتى . وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الأدوية . ومن بين المخدرات نجد المهبطات والمنشطات والمهلوسات . كثرت أنواع المخدرات وأشكالها حتى أصبح من الصعب حصرها، ووجه الخلاف في تصنيف كل تلك الأنواع ينبع من اختلاف زاوية النظر إليها، فبعضها تصنف على أساس تأثيرها، وبعضها يصنف على أساس طرق إنتاجها . ولا يوجد حتى الآن اتفاق دولي موحد حول هذا التصنيف . ورد في تراث الحضارات القديمة آثار كثيرة تدل على معرفة الإنسان بالمواد المخدرة منذ تلك الأزمنة البعيدة، وقد وجدت تلك الآثار على شكل نقوش على جدران المعابد أو كتابات على أوراق البردي المصرية القديمة أو كأساطير مروية تناقلتها الأجيال . فالهندوس على سبيل المثال كانوا يعتقدون أن الإله شيفا هو الذي يأتي بنبات القنب من المحيط، ثم تستخرج منه باقي الإلهة ما وصفوه بالرحيق الإلهي ويقصدون به الحشيش . ونقش الإغريق صوراً لنبات الخشاش على جدران المقابر والمعابد، واختلف المدلول الرمزي لهذه النقوش حسب الإلهة التي تمسك بها، ففي يد الإلهة هيرا تعني الأمومة، والإلهة ديميتر تعني خصوبة الأرض، والإله بلوتو تعني الموت أو النوم الأبدي . أما قبائل الإنديز فقد انتشرت بينهم أسطورة تقول بأن امرأة نزلت من السماء لتخفف آلام الناس، وتجلب لهم نوماً لذيذاً، وتحولت بفضل القوة الإلهية إلى شجرة الكوكا . وفيما يأتي نتناول تاريخ أشهر أنواع المخدرات التي عرفها الإنسان مثل الكحوليات تعتبر الكحوليات من أقدم المواد المخدرة التي تعاطاها الإنسان، وكانت الصين أسبق المجتمعات إلى معرفة عمليات التخمير الطبيعية لأنواع مختلفة من الأطعمة، فقد صنع الصينيون الخمور من الأرز والبطاطا والقمح والشعير، وتعاطوا أنواعاً من المشروبات كانوا يطلقون عليها جيو أي النبيذ، ثم انتقل إليهم نبيذ العنب من العالم الغربي سنة 200 قبل الميلاد تقريباً بعد الاتصالات التي جرت بين الإمبراطوريتين الصينية والرومانية . واقترن تقديم المشوربات الكحولية في الصين القديمة بعدد من المناسبات الاجتماعية مثل تقديم الأضاحي للآلهة أو الاحتفال بنصر عسكري . وهذا نموذج ليس متفردا في قدم وتلقائية معرفة الإنسان للكحوليات، كما لهذا النموذج شبيه في الحضارات المصرية والهندية والرومانية واليونانية، كما عرفت الكحوليات المجتمعات والقبائل البدائية في أفريقيا وآسيا .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المخدرات مادة كيميائية تسبب النعاس والنوم او غياب الوعى المصحوب بتسكين الالم .  والادمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد او العقاقير المخدرة للحصول عليها باى كيفية وتحت اى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة .  فهناك مخدرات طبيعية ذات الاصل النباتى ويمكن استخلاص المواد الفعالة من الاجزاء النباتية الخاصة بكل مخدر ، بمذيبات عضوية .  و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الافيون مع المادة الكيميائية استيل كلوريد و مخدرات تخليقية ليست من اصل نباتى .  وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الادوية . يمنع استخدام المخدرات بدون اشراف طبي مباشر وكذلك يمنع الاتجار بها والا الوقوع تحت طائلة القانون . عقوبة الاتجار بالمخدرات شديدة جدآ تصل لحد الاعدام وقد ادانت محكمة الجنايات الكويتية على احد افراد الاسرة الحاكمة في الكويت المدعو طلال ناصر وحكمت عليه بالاعدام شنقاً .  وقد تؤدى الى التعود او الادمان عليها .  والادمانهو نزوع ذاتى يدفع بالمدمن تجاه المواد او العقاقير المخدرة للحصول عليها باى كيفية وتحت اى ظرف مما يتسبب في قيامه بتصرفات سلوكية شاذة .  والمواد المخدرة تصنف حسب مصدرها او طبقاً لاصل المادة التى حضرت منها .  و مخدرات نصف تخليقية كالهيروين الذى ينتج من تفاعل مادة المورفين المستخلصة من نبات الافيون مع المادة الكيميائية "استيل كلوريد" و مخدرات تخليقية ليست من اصل نباتى .  وتنتج من تفاعلات كيميائية معقدة بين المركبات الكيميائية المختلفة بمعامل شركات الادوية . كثرت انواع المخدرات واشكالها حتى اصبح من الصعب حصرها، ووجه الخلاف في تصنيف كل تلك الانواع ينبع من اختلاف زاوية النظر اليها، فبعضها تصنف على اساس تاثيرها، وبعضها يصنف على اساس طرق انتاجها . ورد في تراث الحضارات القديمة آثار كثيرة تدل على معرفة الانسان بالمواد المخدرة منذ تلك الازمنة البعيدة، وقد وجدت تلك الآثار على شكل نقوش على جدران المعابد او كتابات على اوراق البردي المصرية القديمة او كاساطير مروية تناقلتها الاجيال .  فالهندوس على سبيل المثال كانوا يعتقدون ان الاله شيفا هو الذي ياتي بنبات القنب من المحيط، ثم تستخرج منه باقي الالهة ما وصفوه بالرحيق الالهي ويقصدون به الحشيش .  ونقش الاغريق صوراً لنبات الخشاش على جدران المقابر والمعابد، واختلف المدلول الرمزي لهذه النقوش حسب الالهة التي تمسك بها، ففي يد الالهة هيرا تعني الامومة، والالهة ديميتر تعني خصوبة الارض، والاله بلوتو تعني الموت او النوم الابدي .  اما قبائل الانديز فقد انتشرت بينهم اسطورة تقول بان امراة نزلت من السماء لتخفف آلام الناس، وتجلب لهم نوماً لذيذاً، وتحولت بفضل القوة الالهية الى شجرة الكوكا .  واقترن تقديم المشوربات الكحولية في الصين القديمة بعدد من المناسبات الاجتماعية مثل تقديم الاضاحي للآلهة او الاحتفال بنصر عسكري .  </t>
+  </si>
+  <si>
+    <t>الكبد أكبر عضو غددي في الجسم يزن حوالي كيلو ونصف، ولونه بني أحمر، ومقسم لأربعة فصوص غير متساوية الحجم . ويقع في الجانب الأيمن من التجويف البطني تحت الحجاب الحاجز . وينقل إليه الدم عبر الشريان الكبدي الذي يحمل الدم والأكسجين من الأورطة . والوريد البابي ينقل إليه الدم حاملا الغذاء المهضوم من الأمعاء الصغري . يلعب الكبد دورا أساسيا في الإستقلاب و عدد من وظائف الجسم مثل نزع السمية كما يعمل كمركز تخزين للغليكوجين و مركز تصنيع لبروتينات البلاسما الدموية . نظراً لأن الكبد يقوم بعمليات حيوية كثيرة فان الانسان قد يموت في خلال 24 ساعة من توقف عمل الكبد . للتعرف علي وظائف الكبد وما يقوم به نجده يقوم بحوالي 500 عملياته الوظيفية علي الدم ومكوناته . لهذا نجده ينظم كل عمليات وظائف الجسم من خلال ملايين القرارات التي يعطيها لكل أجهزته . علاوة علي العمليات الكيماوية التي يقوم بها ، حيث يقوم باستغلال الطعام وتصنيعه بعد إستقباله من الجهاز الهضمي، والتخلص من نفايات وسموم الجسم . كما يقوم بتنيظم كمية السكر بالدم . وما يزيد عن الحاجة يخزنه كنشاء حيواني ليحوله لسكر عند الحاجة . والكبد يفتح الشهية . لهذا عندما يتليف أو يلتهب نفقد شهيتنا للطعام . ويقوم بصنع العصارة المرارية ويفرزها في الأمعاء لهضم الدهون بها . كما يفرز السموم به . والكبد في حالة الصيام وعوز السكر بالدم يمكنه تخزين البروتينات والدهون والكربوهيدرات وتحويلها إلي سكر أو دهون أو بروتينات عند الحاجة إليها . فلاشك أن الجسم يعتمد علي خلايا الكبد للقيام بالعديد من الوظائف الحيوية حيث يقوم بتنظيم وتخليق وإفراز مواد هامة كثيرة كمواد الصفراء ,والكولسترول وأنواع البروتينات بالدم كالألبومين ماعدا الأجسام المضادة . والكبد له أهميته في تخزين مواد مغذية كالنشاء الحيواني بتحويل الجلوكوز بالدم، والفيتامينات والأملاح المعدنية . كما يقوم بتخليص الجسم من السموم ونفاياتها . ويحافظ علي مستوي الجلوكوز والكولسترول بالدم . فأمراضه تقلل من كفاءته للقيام بهذه المهام الحيوية للجسم . وأكثر بروتينات مصل بلازما الدم الآلبومين . وعندما تصاب وظائف الكبد بخلل تقل كميته في مصل الدم . مما يظهر إحتجاز الماء بالأنسجة وتورمها . وينتج الكبد معظم بروتينات تجلط الدم . فلو قلت يتعرض المريض للنزبف الدموي . وتنتج خلايا الكبد السائل المراري الأخضر . وتفرزه في القنوات المرارية . ويخزن في الحويصلة المرارية ليفرز في الأمعاء الصغري . ويحتوي السائل المراري علي الكولسترول والدهون الفوسفورية والبيلوروبين الناتج عن تكسبر هيموجلوبين كريات الدم الحمراء وأملاح الصفراء التي تذيب الدهون أثناء الهضم بالأمعاء وتساعد علي إمتصاصها . وقد يكون السائل المراري حصوات تسد القنوات المرارية . وتمنع إفرازه فلا تهضم الدهون . ويصبح البراز له رائحة . ويظهر اليرقان مرض الصفراء . ويصنع الكبد البروتينات الدهنية المصنوعة من الكولسترول والجليسردات الثلاثبة والدهون الفسفورية والبروتينات . والكبد يخزن سكر الجلوكوز في شكل نشاء حيواني والفيتامينات التي تذوب في الدهون والفولات وفيتامين ب12 والمعادن كالنحاس والحديد . وكثرة تخزين هذه المواد قد تضر بالكبد الذي يخلص الدم من الأمونيا والسموم ويحولهما لمواد غير ضارة . فيحول الأمونيا ليوريا تفرز بالكلي مع البول . وفي حالة مرض الكبد الشديد تتراكم الأمونيا بالدم . والكبد يلعب دورا كبيرا في توازن الهورمونات الذكرية والأنثوية . في حالة تليف الكبد المزمن نجد أن ثمة خللا يظهر علي المريض ولا سيما مدمن الخمر فتظهر عليه أعراض الأنوثة . والأمراض الثلاثة الشائعة التي تصيب الكبد هي السرطان وتليف الكبد والإلتهاب الكبدي . و الإلتهاب الكبدي قد يكون سببه بعض الأدويةو تناول الخمور لمدة طويلة أو التعرض للكيماويات أو الأدوية بكثرة . وكل الإلتهابات الكبدية تتلف خلايا الكبد بصفة دائمة وتجعله متورما ومشدودا من الإلتهاب .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكبد اكبر عضو غددي في الجسم يزن حوالي كيلو ونصف، ولونه بني احمر، ومقسم لاربعة فصوص غير متساوية الحجم .  وينقل اليه الدم عبر الشريان الكبدي الذي يحمل الدم والاكسجين من الاورطة . يلعب الكبد دورا اساسيا في الاستقلاب و عدد من وظائف الجسم مثل نزع السمية كما يعمل كمركز تخزين للغليكوجين و مركز تصنيع لبروتينات البلاسما الدموية . للتعرف علي وظائف الكبد وما يقوم به نجده يقوم بحوالي 500 عملياته الوظيفية علي الدم ومكوناته . علاوة علي العمليات الكيماوية التي يقوم بها ، حيث يقوم باستغلال الطعام وتصنيعه بعد استقباله من الجهاز الهضمي، والتخلص من نفايات وسموم الجسم .  وما يزيد عن الحاجة يخزنه كنشاء حيواني ليحوله لسكر عند الحاجة .  لهذا عندما يتليف او يلتهب نفقد شهيتنا للطعام .  كما يفرز السموم به .  فلاشك ان الجسم يعتمد علي خلايا الكبد للقيام بالعديد من الوظائف الحيوية حيث يقوم بتنظيم وتخليق وافراز مواد هامة كثيرة كمواد الصفراء ,والكولسترول وانواع البروتينات بالدم كالالبومين ماعدا الاجسام المضادة .  كما يقوم بتخليص الجسم من السموم ونفاياتها .  فامراضه تقلل من كفاءته للقيام بهذه المهام الحيوية للجسم .  وعندما تصاب وظائف الكبد بخلل تقل كميته في مصل الدم . وينتج الكبد معظم بروتينات تجلط الدم .  وتنتج خلايا الكبد السائل المراري الاخضر . ويخزن في الحويصلة المرارية ليفرز في الامعاء الصغري .  وقد يكون السائل المراري حصوات تسد القنوات المرارية .  ويصبح البراز له رائحة . ويصنع الكبد البروتينات الدهنية المصنوعة من الكولسترول والجليسردات الثلاثبة والدهون الفسفورية والبروتينات .  وكثرة تخزين هذه المواد قد تضر بالكبد الذي يخلص الدم من الامونيا والسموم ويحولهما لمواد غير ضارة .  وفي حالة مرض الكبد الشديد تتراكم الامونيا بالدم . في حالة تليف الكبد المزمن نجد ان ثمة خللا يظهر علي المريض ولا سيما مدمن الخمر فتظهر عليه اعراض الانوثة .  و الالتهاب الكبدي قد يكون سببه بعض الادويةو تناول الخمور لمدة طويلة او التعرض للكيماويات او الادوية بكثرة .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الأمم المتحدة منظمة عالمية تضم في عضويتها جميع دول العالم المستقلة تقريبا . تأسست منظمة الأمم المتحدة بتاريخ 25 أكتوبر 1945 في مدينة سان فرانسيسكو في ولاية كاليفورنيا الأمريكية، تبعا لمؤتمر دومبارتون أوكس الذي عقد في العاصمة واشنطن . من 1919 إلى 1945 كان يوجد منظمة شبيهة بمنظمة الامم المتحدة تدعي عصبة الامم إلا أنها فشلت في مهامها خصوصاً بعد قيام الحرب العالمية الثانية، ما أدى إلى نشوء الأمم المتحدة بعد انتصار الحلفاء وإلغاء عصبة الأمم . وعضوية الأمم المتحدة مفتوحة أمام كل الدول المحبة للسلام التي تقبل التزامات ميثاق الامم المتحدة وحكمها . في بداية سبتمبر من العام 2003 كان هناك 191 دولة كأعضاء في المنظمة . انظر الدول الاعضاء في الامم المتحدة . ظهرت فكرة إنشاء منظمة الأمم المتحدة في وقت الحرب بانعقاد المؤتمرات في موسكو و طهران في عام 1943 . اقترح الرئيس الأمريكي فرانكلين ديلانو روزفلت تسمية "الامم المتحدة" وكان أول استعمال لهذا التعبير في 1 يناير 1942 بإعلان قيام منظمة الأمم المتحدة . في أثناء الحرب العالمية الثانية استعمل الحلفاء تعبير "الأمم المتحدة" للاشارة إلى تحالفهم فقط . من أغسطس/آب إلى أكتوبر/تشرين الأول ممثلوا فرنسا، الصين، المملكة المتحدة، الولايات المتحدة، والاتحاد السوفيتي اجتمعوا ليضعوا الخطط المترتبة عن مؤتمر دومبارتون أوكس وبعد المباحثات ظهرت اقتراحات تلخص أغراض المنظمة، عضويتها وأعضاءها، بالإضافة إلى الترتيبات للمحافظة على السلم العالمي والأمن والتعاون الاقتصادي والاجتماعي الدولي . هذه الاقتراحات تم مناقشتها من قبل الحكومات والأفراد المختصين حول العالم . في 25 إبريل/نيسان عام 1945 عقد مؤتمر الأمم المتحدة بحضور منظمات وهيئات عالمية في مدينة سان فرانسيسكو . بالإضافة إلى الحكومات فان عدة منظمات غير حكومية، مثل نوادي الاسود الدولية دعيت للمساعدة في صياغة الدستور . ال50 دولة عالمية التي تألفت منها الأمم المتحدة في ذلك الوقت وقعت على الدستور بعد شهرين وبالتحديد في 26 يونيو/حزيران، في بولندا، التي لم تكن حاضرة في ذلك المؤتمر، لكنها وقعت عليه بعد ذلك لتكون حصيلة الموقعين على الدستور 51 بلدا . ظهرت الأمم المتحدة إلى الوجود في 26 أكتوبر/تشرين الأول 1945 بعد تصديق الدستور من قبل الأعضاء الدائمين الخمسة في مجلس الامن- جمهورية الصين، فرنسا، الاتحاد السوفييتي، المملكة المتحدة، والولايات المتحدة- وبأغلبية من الموقعيين الاخرين ال46 . صوت 89 مقابل 2 عضو في مجلس الشيوخ الامريكي على تصديق ميثاق الامم المتحدة في 28 يوليو/تموز من عام 1945 . في ديسمبر/كانون الأول عام 1945 طلب مجلس الشيوخ ومجلس النواب الامريكي بالإجماع من الأمم المتحدة أن يكون مقرها الرئيسي في الولايات المتحدة . قبلت الأمم المتحدة الطلب وتم بناء المقر في مدينة نيويورك بين عامي 1949 و1950 بجانب النهر الشرقي على أرض اشتريت ب 8 . 5 مليون دولارا تبرعا من الابن جون دي روكيفيلر . فتح مقر الأمم المتحدة رسميا في 9 يناير/كانون الثاني عام 1951 . تحت اتفاقية خاصة مع الولايات المتحدة منحت بعض الامتيازات والحصانات الدبلوماسية . بينما بقع المقر الرئيسي للولايات المتحدة في مدينة نيويورك، فان له وكالات رئيسية واقعة في جنيف في سويسرا، لاهاي في هولندا، فينا في النمسا، وفي أماكن أخرى . في 25 أكتوبر/تشرين الاول صادقت الجمعية العامة التابعة للأمم المتحدة على القرار 2758 الذي ينص على استبدال حكومة جمهورية الصين بحكومة جمهورية الصين الشعبية كالحاكم القانوني والممثل الشرعي للصين في الامم المتحدة وكأحد الأعضاء الخمسة الدائمين في مجلس الامن . كان عند مؤسسي الأمم المتحدة آمال كبيرة في منع النزاعات بين الدول وجعل الحروب المستقبلية مستحيلة . تلك الآمال من الواضح أنها لم تدرك بعد . من عام 1947 إلى عام 1991 جعل انقسام العالم إلى معسكرات عدائية أثناء الحرب الباردة هذا الشيء مستحيلا . بعد انتهاء الحرب الباردة كانت هناك عدة دعوات لمنظمة الامم المتحدة لتكون الوكالة العالمية لانجاز السلام والتعاون العالمي . في السنين الأخيرة، أثار ارتفاع الولايات المتحدة إلى موقع الهيمنة العالمية الشكوك حول دور وتأثير الأمم المتحدة . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الامم المتحدة منظمة عالمية تضم في عضويتها جميع دول العالم المستقلة تقريبا .  تاسست منظمة الامم المتحدة بتاريخ 25 اكتوبر 1945 في مدينة سان فرانسيسكو في ولاية كاليفورنيا الامريكية، تبعا لمؤتمر دومبارتون اوكس الذي عقد في العاصمة واشنطن . من 1919 الى 1945 كان يوجد منظمة شبيهة بمنظمة الامم المتحدة تدعي عصبة الامم الا انها فشلت في مهامها خصوصاً بعد قيام الحرب العالمية الثانية، ما ادى الى نشوء الامم المتحدة بعد انتصار الحلفاء والغاء عصبة الامم .  وعضوية الامم المتحدة مفتوحة امام كل الدول المحبة للسلام التي تقبل التزامات ميثاق الامم المتحدة وحكمها .  في بداية سبتمبر من العام 2003 كان هناك 191 دولة كاعضاء في المنظمة .  انظر الدول الاعضاء في الامم المتحدة . ظهرت فكرة انشاء منظمة الامم المتحدة في وقت الحرب بانعقاد المؤتمرات في موسكو و طهران في عام 1943 .  اقترح الرئيس الامريكي فرانكلين ديلانو روزفلت تسمية "الامم المتحدة" وكان اول استعمال لهذا التعبير في 1 يناير 1942 باعلان قيام منظمة الامم المتحدة .  في اثناء الحرب العالمية الثانية استعمل الحلفاء تعبير "الامم المتحدة" للاشارة الى تحالفهم فقط .  من اغسطس/آب الى اكتوبر/تشرين الاول ممثلوا فرنسا، الصين، المملكة المتحدة، الولايات المتحدة، والاتحاد السوفيتي اجتمعوا ليضعوا الخطط المترتبة عن مؤتمر دومبارتون اوكس وبعد المباحثات ظهرت اقتراحات تلخص اغراض المنظمة، عضويتها واعضاءها، بالاضافة الى الترتيبات ل .  هذه الاقتراحات تم مناقشتها من قبل الحكومات والافراد المختصين حول العالم . في 25 ابريل/نيسان عام 1945 عقد مؤتمر الامم المتحدة بحضور منظمات وهيئات عالمية في مدينة سان فرانسيسكو .  بالاضافة الى الحكومات فان عدة منظمات غير حكومية، مثل نوادي الاسود الدولية دعيت للمساعدة في صياغة الدستور .  ال50 دولة عالمية التي تالفت منها الامم المتحدة في ذلك الوقت وقعت على الدستور بعد شهرين وبالتحديد في 26 يونيو/حزيران، في بولندا، التي لم تكن حاضرة في ذلك المؤتمر، لكنها وقعت عليه بعد ذلك لتكون حصيلة الموقعين على الدستور 51 بلدا .  </t>
+  </si>
+  <si>
+    <t>قضية لوكربي هي قضية جنائية ترتبت على سقوط طائرة ركاب أميركية أثناء تحليقها فوق قرية لوكربي Lockerbie باسكتلندا سنة 1988 . في يوم الأربعاء 21 ديسمبر 1988 انفجرت الطائرة البوينغ 747، التابعة لشركة PAN AMERICAN WORLD AIR LINES أثناء تحليقها فوق قرية لوكربي، الواقعة في مدينة دمفريز وغالواي الأسكتلندية غربي إنجلترا . وقد نجم عن الحادث موت 259 شخصا هم جميع من كان على متن الطائرة و11 شخصا من سكان القرية حيث وقعت . بعد تحقيقات ليست معلنة ، وبعد تكهنات من وسائل الاعلام بتدوير المسؤلية بين دول مختلفة، يجمع بينها رابط العداء لاميركا ، وحركات تحرير تضعها اميركا في خانة المنظمات الارهابية ، ودون سابق انذار وبالتزامن صدر في الولايات المتحدة الأميركية و بريطانيا في 13 نوفمبر 1991 أمرا بالقبض على مواطنين ليبيين يشتبه في مسؤليتها عن تفجير الطائرة كونهما يعملان بمكتب شركة الخطوط الجوية الليبية بمطار لوقا بمالطا وبمعرفتهما تم شحن حقيبة تحتوي على متفجرات . على الفور رفضت ليبيا الطلب وبدأ القضاء الليبي التحقيق في الاتهام و اوقف المواطنان الليبيان وطلب من الدولتين تقديم مالديهما من ادلة ضدّهما . اصرت الدولتان على طلبهما ورفضت ليبيا الاستجابة ، لما رأته حسب ما اعلنته من اتهامات باطلة تثيرها الدولتان دون توفّر اية ادلة لديهما . بدأت الدولتان بأستغلال تاثيرهما في التحرك داخل مجلس الأمن حتّى تمكنتا من اصدار قرار من المجلس المذكور في 31 مارس 1992 يحمل الرقم 748 بأغلبية 10 أصوات بينها دولة عربية وامتناع 5 أعضاء عن التصويت ، يوجب على ليبيا الاستجابة لطلب الدولتين ، ويهدد بفرض عقوبات عليها من بينها حظر الطيران منها واليها ، وقد رفضت ليبيا الاستجابة لهذا القرار وتم فعلا توقيع العقوبات في الموعد المضروب كأجل نهائي وهو 15 أبريل 1992 ، ولقد قامت الدولتان في وقت لاحق في 11 نوفمبر من نفس العام باستصدار قرار اخر من مجلس الامن برقم 883 يطوّر من نوع العقوبات المفروضة ويوسّعها لاجبار ليبيا على الاذعان لمطالب الدولتين . لم تستجب ليبيا لمطالب الدولتين التي اكتسبت طابع الدولية ، وبدأت تحركا دوليا واسعا يستهدف اقناع العالم بالوقوف إلى جانبها على الاقل بالقبول بمحاكمة المشتبه فيهما في بلد ثالث اذا لم يكن بالامكان تجاوز القرار الدولي، ولقد نجحت ليبيا في ذلك إلى حد بعيد ، عندما حصلت على دعم الدول العربية ممثلة في جامعتها ، التي شكلت لجنة سباعية دائمة لهذا الغرض ، وحصلت على دعم دول عدم الانحياز ، ولعل اهم دعم حصلت عليه كان من الدول الافريقية التي قررت في قمتها التي انعقدت في واغادوغو عاصمة بوركينا فاسو في 10 يونيو 1998 كسر الحظر المفروض على ليبيا بحلول شهر سبتمبر من نفس العام مالم يستجاب إلى مطالبها . عندمااحست الدولتان ان ثغرة قد فتحت في جدار العقوبات المتصدع ، قبلتا في 24 اغسطس 1998 بمحاكمة الليبين في بلد ثالث هو هولندا حيث وافقت ليبيا وبعد اجراءات استمرت فترة بدأت المحاكمة بهيئة مؤلفة من 3 قضاة وعقدت مداولات استمرت 84 يوما من المرافعات القانونية . و في 31 يناير 2001 أدانت المحكمة احد المواطنين استنادا على قرائن ظرفية وبرأت الاخر . وعلى خلفية هذا الحكم دخلت الدولتان في مفاوضات مع ليبيا اسفرت عن الوصول إلى تسوية تدفع بموجبها ليبيا تعويضات إلى اسر الضحايا وتعلن مسؤليتها عن اعمال موظفيها وهذا ماتم بالفعل . وعلاقة الدولتين وليبيا الان على درجة من الوئام لم تعرف منذ زمن .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اصرت الدولتان على طلبهما ورفضت ليبيا الاستجابة ، لما راته حسب ما اعلنته من اتهامات باطلة تثيرها الدولتان دون توفّر اية ادلة لديهما .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانت إيطاليا آخر الدول الأوروبية التي دخلت مجال التوسع الاستعماري . وكانت ليبيا عند نهاية القرن التاسع عشر، هي الجزء الوحيد من الوطن العربي في شمال أفريقيا الذي لم يتمكن الصليبيون الجدد من الاستيلاء عليه، ولقرب ليبيا من إيطاليا جعلها هدفا رئيسا من أهداف السياسة الاستعمارية الإيطالية . بدات إيطاليا العزم على احتلال ليبيا فقامت بفتح المدارس في كل من بنغازي و طرابلس لتعلم اللغة الايطالية وارسلت الارساليات التبشيريه للدين المسيحي افتتحت فروعا لبنك روما واصبحت القنصليه في مدينتى بنغازى و طرابلس مركزا للنشاط السياسى والدعاية الايطاليه والتجسس على اهل البلاد، ولم يصعب على إيطاليا اختلاق الذرائع الواهية لاحتلال ليبيا . فى 27 سبتمبر 1911 م وجهت إيطاليا انذاراً إلى الدولة العثمانية تأخذ عليها فيه انها أهملت شان ليبيا واتهمتها بانها تحرض الليبيين على الرعايا الايطاليين وتضطهدهم . وفى يوم 28 سبتمبر 1911 اقبل الموعد المحدد لانتهاء اجل الانذار كانت السفن الحربية الايطاليه في مياه طرابلس . واعلنت الحرب على تركيا في 29 سبتمبر سنة 1911 م، وبدأت الحرب العثمانية الإيطالية واستطاعت الاستيلاء على طرابلس في 3 أكتوبر من السنة نفسها . وكانت القوات الايطاليه مؤلفة من39 الف جندي و6 الاف حصان وألف سياره و نحو خمسين مدفع ميدان بدأ قصف مدينة طرابلس في الساعة الثالثة والنصف مساء يوم 3 أكتوبر 1911 وأنزلت قوة من البحر عددها يقدر بنحو ألفين جندي وتم إحتلال مدينة طرابلس . ومن هنا بدأ المجاهدون حركتهم يحدوهم الايمان بالحق والدفاع عن العرض والارض وكان عدد المتطوعين نحو 15000 ليبي وتحرك نواب البلاد وزعمائها في ضواحى مدينة طرابلس نحو معسكرات الجهاد ومنهم الشيخ سليمان الباروني نائب الجبل الغربى والشيخ أحمد سيف النصر من زعماء الجنوب والوسط . و السيد احمد الشريف السنوسي في الشرق . وبرزت شخصية شيخ الشهداء عمر المختار في برقة ورفاقه المجاهدين منهم الشهيد عبد القادر يوسف بورحيل والشهيد الفضيل بوعمر بوحو الاوجلى . قاومت القوات الليبية و العثمانية الإيطاليين لفترة قصيرة، ولكن تركيا تنازلت عن ليبيا لإيطاليا بمقتضى المعاهدة التي أبرمت بين الدولتين في 18 أكتوبر 1912م معاهدة أوشي ، وأدرك الليبيون الآن أن عليهم أن ينظموا صفوفهم ويتولوا بأنفسهم أمر المقاومة والجهاد ضد المستعمر، وقد اشتدت مقاومة الليبيين للقوات الإيطالية مما حال دون تجاوز سيطرة الإيطاليين المدن الساحلية، ولما دخلت إيطاليا الحرب العالمية الأولى 1915 م حاولت تركيا استغلال الحركة السنوسية التى كانت بقيادة السيد احمد الشريف السنوسى فمارست تركيا عليه بعض الضغوط لما عرف عليه حبه للمسلمين واحترامه لدولة الخلافه فدخلت قوات الحركه في قتال مع القوات الانجليزيه التى كانت في مصر فابتليت قوات الحركة بخسائر كبيره ، و بعد هزيمة قواته تنازل عن الزعامة لإدريس السنوسي وقاد الجهاد نيابة عنه في المنطقة الشرقية المجاهد عمر المختار . وفي المنطقةالغربية قاد الجهاد سليمان باشا الباروني ومجموعم من المجاهدين في منطقة طرابلس منهم السويحلي والمريض وسوف المحمودي و اعلان الجمهورية الطرابلسية ثم حكومة الاصلاح . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانت ايطاليا آخر الدول الاوروبية التي دخلت مجال التوسع الاستعماري . بدات ايطاليا العزم على احتلال ليبيا فقامت بفتح المدارس في كل من بنغازي و طرابلس لتعلم اللغة الايطالية وارسلت الارساليات التبشيريه للدين المسيحي افتتحت فروعا لبنك روما واصبحت القنصليه في مدينتى بنغازى و طرابلس مركزا للنشاط السياسى والدعاية الايطاليه والتجس .  وفى يوم 28 سبتمبر 1911 اقبل الموعد المحدد لانتهاء اجل الانذار كانت السفن الحربية الايطاليه في مياه طرابلس . وكانت القوات الايطاليه مؤلفة من39 الف جندي و6 الاف حصان والف سياره و نحو خمسين مدفع ميدان بدا قصف مدينة طرابلس في الساعة الثالثة والنصف مساء يوم 3 اكتوبر 1911 وانزلت قوة من البحر عددها يقدر بنحو الفين جندي وتم احتلال مدينة طرابلس .  و السيد احمد الشريف السنوسي في الشرق .  </t>
+  </si>
+  <si>
+    <t>السياسة البربرية تعد هذه السياسة من بين النقط الأساسية التي اعتمدتها الكتابات الاستعمارية ، ويمكن تحديد مرحلتين في تعامل الكتابات الفرنسية مع هذه القضية . فخلال أواخر القرن التاسع عشر والعقد الأول من القرن العشرين اتجه اهتمام المفكرين الفرنسيين إلى الاهتمام بعلاقات البربر بالعرب عبر التاريخ وخاصة في العصور الإسلامية الأولى محاولين الإيحاء بأن البربر لم يقبلوا أبدا العرب " الدخلاء " ، فكأنما جاء الفرنسيون إذن بتخليصهم من الدخيل وربطهم بالأصل ، إذ في هذه الفترة انتشرت النظرية القائلة بأن البربر ينحدرون من أصول أوربية . كما راج استعمال أفكار ابن خلدون لفظ " الأعراب "بمعنى العرب ، إذ وجد فيه الفرنسيون مبررا لادعاءاتهم القائلة بأن المغرب عرف دائما انتشار الفوضى بوجود العرب . وبما أن ابن خلدون منهم فقد جعله الفرنسيون ذريعة قوية للقول بأنه لا حل لهذه الفوضى إلا بإلحاق الفرع بالأصل أي ربط البربر ( الفرع ) بأوربا ( الأصل ) . ومع ذلك فقد بقيت هذه الكتابات طيلة القرن التاسع عشر والعقد الأول من القرن العشرين رائجة على مستوى الأفكار فقط . وبمجيء ليوطي حاول أن يترجمها على أرض الواقع ، فساعد على إنشاء " الثانوية البربرية " بآزرو ، ولم يسمح لولوجها إلا لأبناء البربر . لكن ظروفا مختلفة حالت دون نجاح هذه المحاولة وفي مقدمتها ظروف الحرب العالمية الأولى وما تطلبته من تعبئة لجهود الفرنسيين ومستعمراتهم من أجل هدف واحد هو الانتصار في الحرب . ولم تعد تظهر فكرة فصل العرب عن البربر إلا مع العشرينيات عندما جاء إلى المغرب مقيم عام جديد هو "لوسيان سان" الذي كان متحمسا للسياسة البربرية . فجمع حوله ثلة من المفكرين ذوي هذا الاتجاه وخاصة " موريس لوكلاي" و"بول مارتي" ، هذا الأخير ألف كتابا وضع له كعنوان " مغرب الغد " أعطى فيه تصورا كاملا وكفيلا في نظره لإنجاح السيسة البربرية . فذكر بأن المدارس التي أنشئت لهذا الغرض هي دارس فرنسية يتعلم فيها التلاميذ من أصل بربري ، لذلك دعا إلى استبعاد التعليم العربي وإلى منع كل ما له علاقة بالإسلام . أما "موريس لوكلاي " فبالإضافة إلى مناداته بحذف تعليم اللغة العربية والدين الإسلامي في مدارس البربر دعا إلى كتابة اللهجات البربرية بحروف لاتينية . ومما أكد عزم اإدارة الفرنسية على تحقيق مشروعها في هذا الإطار تعبئنها لكل من بإمكانه مساعدتها في هذا الإطار . فدعت رجال الدين إلى القيام بحملة حول التنصير في كل أنحاء البلاد وشجعت نشر الكتب والدراسات العادية للإسلام ( هنري بيرين " محمد وشرلمان " ) ووضعت رهن إشارتهم مبالغ مالية هامة . وإلى جانب هؤلاء أظهر بعض الفرنسيين معارضتهم لهذه السياسة بالنظر إلى المشاكل التي يمكن أن تترتب عنها خاصة وأن فرنسا كانت تعتزم إتمام ما سمته بسياسة " التهدئة " . لكن التيار المؤيد للسياسة البربرية غلب على تيار المعارضة ، وتم إصدار ظهير 16 ماي 1930 دون أخذ آراء المغاربة بعين الاعتبار بربرا كانوا أو عربا . وبما أن هذا الظهير كان يهدف إلى التفريق بين العرب والبربر فقد كان طبيعيا أن يخلف ردود فعل قوية خاصة وأن فرنسا كانت تستعد في نفس الوقت للاحتفال بالذكرى المئوية لاحتلال الجزائر بشكل ظهر معه أن الاحتلال يهدف إلى أن يكون أبديا في نظر الفرنسيين . وهكذا فقد قاطعت مصر المنتجات الفرنسية واستنكر العراق هذا العمل الذي وصفه بأنه غير قانوني وشنيع كما رفضته بعض الصحف الإسبانية . ففي إحدى المقالات التي نشرتها جريدة "النور " la luz الإسبانية تمت الإشادة بما قامت به فرنسا في المغرب لكنها نعثت السياسة البربرية بأنها خطأ يمكن أن يسيئ إلى سمعة فرنسا . ويذكر صاحب المقال أن البربر اتخذوا الإسلام دينا رسميا بعد مجيئ العرب رافضا فكرة إجبارهم على ذلك . وعبر عن اندهاشه من كون الفرنسيين يشككون في إسلام البربر . لم تكن نوايا فرنسا الاستعمارية تجاه المعرب تخفى على أحد ، غير أنها رأت في الظهير البربري خرقا سافرا لمعاهدة 1912 التي نصت بوضوح على ضرورة الحفاظ على الوضعية الدينية واحترام السلطان واحترام المؤسسات الإسلامي ة</t>
   </si>
   <si>
     <t>ومع ذلك فقد بقيت هذه الكتابات طيلة القرن التاسع عشر والعقد الأول من القرن العشرين رائجة على مستوى الأفكار فقط .</t>
   </si>
   <si>
-    <t>السياسة البربرية تعد هذه السياسة من بين النقط الأساسية التي اعتمدتها الكتابات الاستعمارية ، ويمكن تحديد مرحلتين في تعامل الكتابات الفرنسية مع هذه القضية .</t>
-  </si>
-  <si>
-    <t>حرب اليمن أو حرب شمال اليمن الأهلية هي حرب دارت في شمال اليمن بين الموالين للمملكة ‏المتوكلية اليمنية والفصائل الموالية للجمهوريّة العربية اليمنية من 1962 إلى 1970. وقد سيطرت الفصائل الجمهورية على الحكم في نهاية الحرب.كان الجانب الملكي يتلقى الدعم من المملكة العربية السعودية، بينما تلقى الجانب الجمهوري الدعم من مصر والاتحاد السوفيتي.وقد جرت معارك الحرب الضارية في المدن والأماكن الريفية، وشارك فيها أفراد أجانب غير نظاميين فضلاً عن الجيوش التقليدية النظامية.دارت رحى هذه الحرب في وضع عربي لا يمكن وصفه إلا بالتشرذم. فكانت الدول العربية مستقطبة بين المعسكرين الشرقي والغربي. وعاش العالم العربي العديد من الأزمات والحروب العربية-العربية (بالإضافة إلى الحرب في اليمن) مثل حرب الرمال بين الجزائر والمغرب وأزمة انفصال سوريا عن الجمهورية العربية المتحدة. وقد غرقت مصر بهذه الحرب مما أدى إلى إلحاق الضرر بسمعتها وأدائها خلال حرب 1967 واحتلال شبه جزيرة سيناء، هضبة الجولان والضفة الغربية بما فيها القدس من قبل إسرائيل.وكان من نتائج هذه الحرب اعتراف المملكة العربية السعودية بالجمهورية العربية اليمنية عام 1970[3] وسبقها أيضاً انسحاب بريطانيا من اتحاد الجنوب العربي الذي كان يضم محميتها في عدن عام 1967.</t>
-  </si>
-  <si>
-    <t>حرب اليمن أو حرب شمال اليمن الأهلية هي حرب دارت في شمال اليمن بين الموالين للمملكة ‏المتوكلية اليمنية والفصائل الموالية للجمهوريّة العربية اليمنية من 1962 إلى 1970.كان الجانب الملكي يتلقى الدعم من المملكة العربية السعودية، بينما تلقى الجانب الجمهوري الدعم من مصر والاتحاد السوفيتي.</t>
-  </si>
-  <si>
-    <t>حرب اليمن أو حرب شمال اليمن الأهلية هي حرب دارت في شمال اليمن بين الموالين للمملكة ‏المتوكلية اليمنية والفصائل الموالية للجمهوريّة العربية اليمنية من 1962 إلى 1970.</t>
-  </si>
-  <si>
-    <t>حرب فيتنام أو الحرب الهندوصينية الثانية كانت نزاع بين جمهورية فيتنام الديموقراطية (فيتنام الشمالية)، متحالفة مع جبهة التحرير الوطنية، ضد جمهورية فيتنام (فيتنام الجنوبية) مع حلفائها (وكانت الولايات المتحدة الأمريكية إحداهم بين 13 سبتمبر 1956 و1973). بدأت الحرب في 13 سبتمبر 1956 وإنتهت في 17 يونيو 1975.في عام 1957م بدأت قوات الفيت منه في الجنوب في التمرد على حكومة ديم. وقد عُرف هؤلاء بالفيت كونغ. وفي عام 1959م أعلنت فيتنام الشمالية تأييدها لهذه الفئة وأمرتها بشن كفاح شامل ضد حكومتها. وفي عام 1960م شكل الثوار جبهة التحرير الوطنية التي أوكلت إليها مهمة قيادة الثورة. ورويداً رويداً تشعبت الحرب وازدادت ضراوة. وفي الخمسينيات كانت الولايات المتحدة قد شرعت في إرسال مستشارين مدنيين وعسكريين لفيتنام الجنوبية. وبحلول عام 1965م بدأت في إرسال قوات عسكرية وشن غارات جوية على فيتنام الشمالية. واستمر التورط الأمريكي في هذه الحرب حتى عام 1973م ، علماً بأن الصين والاتحاد السوفييتي (سابقًا) كانا يمدان فيتنام الشمالية والفيت كونغ بالأسلحة والإمدادات.كانت الولايات المتحدة، كوريا الجنوبية، تايلند، أستراليا، نيوزيلندا، والفلبين متحالفة مع فيتنام الجنوبية، بينما تحالف الاتحاد السوفياتي والصين مع فيتنام الشمالية.انتهى الغزو الأمريكي في 17 يونيو 1975 باتحاد فيتنام الشمالية والجنوبية.</t>
-  </si>
-  <si>
-    <t>وقد عُرف هؤلاء بالفيت كونغ.ورويداً رويداً تشعبت الحرب وازدادت ضراوة.انتهى الغزو الأمريكي في 17 يونيو 1975 باتحاد فيتنام الشمالية والجنوبية.</t>
-  </si>
-  <si>
-    <t>حرب فيتنام أو الحرب الهندوصينية الثانية كانت نزاع بين جمهورية فيتنام الديموقراطية (فيتنام الشمالية)، متحالفة مع جبهة التحرير الوطنية، ضد جمهورية فيتنام (فيتنام الجنوبية) مع حلفائها (وكانت الولايات المتحدة الأمريكية إحداهم بين 13 سبتمبر 1956 و1973).بدأت الحرب في 13 سبتمبر 1956 وإنتهت في 17 يونيو 1975.في عام 1957م بدأت قوات الفيت منه في الجنوب في التمرد على حكومة ديم.</t>
-  </si>
-  <si>
-    <t>الصراع العربي الإسرائيلي هو النزاع و التوترات السياسية التي نشأت بين دولة إسرائيل منذ بداية تشكلها عام 1948 و بقية الدول و الكيانات العربية المجاورة أو البعيدة عن إسرائيل . الخلاف يتركز أساسا حول أحقية اليهود في الاستيلاء على أرض فلسطين و إقامة دولتهم القومية على أرضها طاردين سكان فلسطين الموجودين فيها . أي أن طبيعة هذا النزاع تتركز أساسا حول ما يسمى النزاع الفلسطيني الإسرائيلي .يطلق البعض على هذا النزاع اسم نزاع الشرق الأوسط ليشير إلى تركزه في منطقة الشرق الأوسط لكن هذا المصطلح غامض قليلا بسبب وجود عدة صراعات في منطقة الشرق الأوسط لكن النزاع العربي الإسرائيلي يبقى الأساسي و المركزي بينها . هذا الصراع يرتبط عضويا بموضوع النزاع الفلسطيني الإسرائيلي فقضيته المحورية و سببه الأساسي هو إقامة دولة قومية دينية لليهود على أرض فلسطين .يعتبر من قبل الكثير من المحلللين و السياسين العرب سبب أزمة هذه المنطقة و توترها .بالرغم من أن هذا الصراع يحدث ضمن منطقة جغرافية صغيرة نسبيا ، إلا انه يحظى باهتمام سياسي و إعلامي كبير نظرا لتورط العديد من الأطراف الدولية فيه و غالبا ما تكون الدول العظمى في العالم منخرطة فيه نظرا لتمركزه في منطقة حساسة من العالم و ارتباطه بقضايا إشكالية تشكل ذروة أزمات لاعالم المعاصر : مثل الصراع بين الشرق و الغرب ، علاقة الأديان مع بعضها : اليهودية و المسيحية و الإسلام ، علاقات العرب مع الغرب و أهمية النفط العربي للدول الغربية ، أهمية و حساسية القضية اليهودية في الحضارة الغربية خصوصا بعد الحرب العالمية الثانية و الهولوكوست اليهودي و قضايا معاداة السامية و قوى ضغط اللوبيات اليهودية في العالم الغربي . على الصعيد العربي يعتبر الكثير من المفكرين و المنظرين العرب و حتى السياسيين أن قضية النزاع العربي الإسرائيلي هي القضية و الأزمة المركزية في المنطقة و كثيرا ما يربطها بعض المفكرين بقضايا النهضة العربية و قضايا الأنظمة الشمولية و ضعف الديمقراطيات في العالم العربي . الكثير من الأمور السياسية و الاقتصادية و أزمات حقوق الإنسان و قمع الحريات السياسية في دول الجوار الإسرائيلي يربطها سياسيو هذه الأنظمة بالصراع العربي الإسرائيلي و عدم السماح لمن يدعوهم "الخونة" بالتعامل مع إسرائيل "العدو الأكبر للعرب".يتفرع عن هذه القضية موضوع أساسي يطرج من قبل العديد من الحكومات الغربية و على رأسها حكومة الولايات المتحدة الأمريكية و هي قضية السلام ، فمنذ توقيع الرئيس المصري أنور السادات لاتفاقية كامب ديفيد ثم اتفاقية أوسلو بين منظمة التحرير الفلسطينية بقيادة ياسر عرفات و رئيس وزراء إسرائيل المغتال إسحاق رابين ثم اتفاقية وادي عربة بين الأردن و إسرائيل نشأ استقطاب جديد بين الأنظمة لاعربية بين بعضها ، كما حصل تباعد واضح بين بعض الأنظمة العربية التي ترى أن السلام قد يكون مفيد مرحليا للعرب في ظل انعدام توازن القوى و بين الكثير من الجماهير العربية التي لا تقبل التسوية مع إسرائيل أو ما يختصر في الثقافة الرائجة باليهود .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصراع العربي الاسرائيلي هو النزاع و التوترات السياسية التي نشات بين دولة اسرائيل منذ بداية تشكلها عام 1948 و بقية الدول و الكيانات العربية المجاورة او البعيدة عن اسرائيل .  الخلاف يتركز اساسا حول احقية اليهود في الاستيلاء على ارض فلسطين و اقامة دولتهم القومية على ارضها طاردين سكان فلسطين الموجودين فيها .  الكثير من الامور السياسية و الاقتصادية و ازمات حقوق الانسان و قمع الحريات السياسية في دول الجوار الاسرائيلي يربطها سياسيو هذه الانظمة بالصراع العربي الاسرائيلي و عدم السماح لمن يدعوهم "الخونة" بالتعامل مع اسرائيل "العدو الاكبر للعرب". يتفرع عن هذه القضية موضوع اساسي يطرج من قبل العديد من الحكومات الغربية و على راسها حكومة الولايات المتحدة الامريكية و هي قضية السلام ، فمنذ توقيع الرئيس المصري انور السادات لاتفاقية كامب ديفيد ثم اتفاقية اوسلو بين منظمة التحرير الفلسطينية بقيادة ياسر عرفا. </t>
-  </si>
-  <si>
-    <t>الصراع العربي الإسرائيلي هو النزاع و التوترات السياسية التي نشأت بين دولة إسرائيل منذ بداية تشكلها عام 1948 و بقية الدول و الكيانات العربية المجاورة أو البعيدة عن إسرائيل .الخلاف يتركز أساسا حول أحقية اليهود في الاستيلاء على أرض فلسطين و إقامة دولتهم القومية على أرضها طاردين سكان فلسطين الموجودين فيها .من أن هذا الصراع يحدث ضمن منطقة جغرافية صغيرة نسبيا ، إلا انه يحظى باهتمام سياسي و إعلامي كبير نظرا لتورط العديد من الأطراف الدولية فيه و غالبا ما تكون الدول العظمى في العالم منخرطة فيه نظرا لتمركزه في منطقة حساسة من العالم و ارتباطه بقضايا إشكالية تشكل ذروة أزمات لاعالم المعاصر : مثل الصراع بين الشرق و الغرب ، علاقة الأديان مع بعضها : اليهودية و المسيحية و الإسلام ، علاقات العرب مع الغرب و أهمية النفط العربي للدول الغربية ، أهمية و حساسية القضية اليهودية في الحضارة الغربية خصوصا بعد الحرب العالمية الثانية و الهولوكوست اليهودي و قضايا معاداة السامية و قوى ضغط اللوبيات اليهودية في العالم الغربي .عن هذه القضية موضوع أساسي يطرج من قبل العديد من الحكومات الغربية و على رأسها حكومة الولايات المتحدة الأمريكية و هي قضية السلام ، فمنذ توقيع الرئيس المصري أنور السادات لاتفاقية كامب ديفيد ثم اتفاقية أوسلو بين منظمة التحرير الفلسطينية بقيادة ياسر عرفات و رئيس وزراء إسرائيل المغتال إسحاق رابين ثم اتفاقية وادي عربة بين الأردن و إسرائيل نشأ استقطاب جديد بين الأنظمة لاعربية بين بعضها ، كما حصل تباعد واضح بين بعض الأنظمة العربية التي ترى أن السلام قد يكون مفيد مرحليا للعرب في ظل انعدام توازن القوى و بين الكثير من الجماهير العربية التي لا تقبل التسوية مع إسرائيل أو ما يختصر في الثقافة الرائجة باليهود .</t>
-  </si>
-  <si>
-    <t>الحرب العالمية الثانية هي نزاع دولي بدأ في 7 يوليو 1937 في آسيا و 1 سبتمبر 1939 في أوروبا وانتهت الحرب في عام 1945 باستسلام اليابان، تعد الحرب العالمية الثانية من الحروب الشموليةً وأكثرها كُلفة في تاريخ البشريةً لاتساع بقعة الحرب وتعدد مسارح المعركة، فكانت دول كثيرة طرفاً من أطراف النزاع. فقد حصدت الحرب العالمية الثانية زهاء 60 مليون نفس بشرية بين عسكري ومدني.تكبّد المدنيون خسائر في الأرواح إبّان الحرب العالمية الثانية أكثر من أي حرب عرفها التاريخ، ويعزى السبب لتقليعة القصف الجوي على المدن والقرى التي ابتدعها الجيش الألماني على مدن وقرى الحلفاء مما استدعى الحلفاء الرّد بالمثل، فسقط من المدنيين من سقط من كلا الطرفين. أضف إلى ذلك المذابح التي ارتكبها الجيش الياباني بحق الشّعبين الصيني والكوري إلى قائمة الضحايا المدنيين ليرتفع عدد الضحايا الأبرياء والجنود إلى 51 مليون قتيل، أي ما يعادل 2% من تعداد سكان العالم في تلك الفترة.الامتعاض من معاملة القوى المنتصرة لألمانيا و سوء و تردي الأوضاع الاقتصادية بسبب التكاليف الباهظة والديون التي تكبّدتها ألمانيا بعد الحرب العالمية الأولى وإبرام معاهدة فيرساي و الكساد الاقتصادي العالمي أهّل أدولف هتلر و حزبه اليميني المتطرّف إلى الأخذ بزمام الأمور واعتلاء كرسي الحكم في ألمانيا. ثم قام هتلر بتحدّي المعاهدات المبرمة بين ألمانيا والحلفاء بعد الحرب العالمية الأولى بالعمل على تطوير الجيش الألماني و حشد القوات والعتاد على الحدود الفرنسية الألمانية والاتحاد مع النمسا وضم أجزاء من تشيكوسلوفاكيا بمباركة أنجلو-فرنسية.في العام 1922، وصل "بينيتو موسوليني" و حزبه الفاشي إلى دفّة الحكم في إيطاليا، و يتّفق كل من الحزب الفاشي بقيادة موسوليني والحزب النازي بقيادة هتلر في بعض الأهداف الإيديولوجية، فشكّل الاثنان اتفاقية جمعت بلديهما وسمّيت الاتفاقية بالمحور في العام 1936. أما فيما يتعلّق بالجانب الشرقي من العالم، فقامت الإمبراطورية اليابانية بغزو الصين في سبتمبر 1936. وبالرغم من معارضة الحكومة اليابانية للغزو، إلا أن الجيش الإمبراطوري الياباني لم يعبأ بمعارضة حكومة بلاده و مضى قُدُماً في غزوه للصين.في العام 1939، قام هتلر بالمطالبة ببعض من أراضي بولندا وقام بالتوقيع على اتفاقية "عدم اعتداء" بين ألمانيا و الاتحاد السوفييتي كردة فعل على اتفاقية الدّفاع المشترك بين كلّ من بريطانيا-فرنسا وبولندا. و في الأول من سبتمبر 1939، قامت القوات النازية بغزو بولندا، وبعدها بيومين، أعلنت كلّ من بريطانيا وفرنسا الحرب على ألمانيا. وفي غضون أسبوعين من الغزو النازي لبولندا، قام الجيش الأحمر السوفياتي بغزو بولندا هو الآخر. و قبل أن يتسنّى للجيش البريطاني والفرنسي من تشكيل هجوم على بولندا لدحر الغزو النازي لبولندا، كانت القوات النازية قد انتهت من السيطرة على بولندا وإنهاء مناوشات الجيش البولندي والنازي في غضون 3 أسابيع.تسمّى الفترة التي أعقبت الغزو النازي لبولندا (أكتوبر 1939) وحتى الغزو النازي لبلجيكا، وهولندا، ولوكسيمبورج، وانتهاءً بغزو فرنسا (مايو 1940)، بالحرب المزيفة لعدم مشاركة القوى العظمى في مسرح العمليات واقتصار المعارك في المسرح الأوروبي على القوات النازية وصغار الدول بالرّغم من إعلان الحرب على ألمانيا النازية من قِبل بريطانيا وفرنسا.تحرّكت القوات النازية والروسية من بولندا واتّجه الجيش الأحمر ليركز بشكل أكثر على دول البلطيق وفنلندا حيث دارت الحرب الشتوية التي شدّت انتباه العالم لانعدام الأعمال العسكرية في بولندا، بينما اتّجة الجيش النازي جهة الدنمارك والنرويج وعزّزت القوات الفرنسية مواقعها عل الحدود الفرنسية الألمانية، وباستثناء بعض المناوشات العسكرية بين القوات الفرنسية والألمانية، لم يكن هناك شيء يذكر لأن كل من فرنسا وألمانيا كانتا منهمكتين في حشد الجنود والعتاد في تلك الفترة. في مايو 1940، استعملت القوات النازية تكتيكاً عسكرياً جديداً سمّي بـ "الحرب الخاطفة" (1) مما مكن القوات النازية من السيطرة على فرنسا وهزيمة الجيش الفرنسي والبريطاني. وتقهقر الجيش البريطاني إلى مدينة "دنكيرك" الساحلية وترك أسلحته الثقيلة في الساحة الفرنسية فقامت حكومة "تشرشل" باستخدام السفن العسكرية بل وحتّى التجارية في إجلاء الجنود البريطانيين من الساحل الغربي لفرنسا. ولم يبق خيار للحكومة الفرنسية غير خيار الاستسلام للجيش النازي مما مكّن الجيش النازي من إحكام السيطرة على الشمال الفرنسي وتنصيب حكومة فرنسية موالية لألمانيا النازية في الشطر الجنوبي من فرنسا.لم يتمكن سلاح الجو الألماني من هزيمة غريمه البريطاني فكان من الضروري قهر سلاح الجو البريطاني ليتسنّى للألمان غزو الإنجليز، فاتّبع الألمان سياسة مكثّفة بالقصف بالقنابل على بريطانيا فيما تسمى بمعركة بريطانيا، أملاً في إخضاع الإنجليز، وباءت محاولات الألمان بالفشل.بالرغم من إتفاقية عدم الاعتداء بين ألمانيا والاتحاد السوفييتي، إلا أن ألمانيا قامت بغزو الاتحاد السوفييتي في يونيو 1941. فقد أخذ الألمان الروس على حين غرّة، وكسبت ألمانيا أراض روسية شاسعة وأسرت مئات الآلاف من الجنود الروس. وبعدما أفاق جوزيف ستالين مما ألمّ به، أخذ الروس في إعادة ترتيب أوراقهم خصوصا أن الروس استطاعوا الاحتفاظ بعتادهم العسكري الثقيل بعد رجوعهم إلى الوراء نتيجة الغزو الألماني. استمات الروس وقدّموا الغالي والنفيس في الذود عن العاصمة موسكو واستمر العناد الألماني حتى فصل الشتاء. ولم يكن في بال هتلر استمرار المقاومة الروسية حتى فصل الشتاء، إذ لم يتم تجهيز الجيش الألماني وتزويده بخطوط الإمداد لهذه الفترة. فمرّ فصل الشتاء على الجيش الألماني بقسوة نتيجة التخطيط السيء لغزو موسكو. وبحلول فصل الربيع، احتار الألمان بين المضي قدما في احتلال موسكو أم الاكتفاء بالسيطرة على حقول النفط القوقازية.إختار الألمان السيطرة على حقول النفط القوقازية عوضاً عن احتلال العاصمة موسكو. وفي العام 1942، سحقت القوات السوفييتية قوات المحور الأمامية في الجنوب السوفييتي وقامت بتطويق الجيش الألماني السادس في معركة "ستالينجراد"، واستسلم 300،000 جندي ألماني في نهاية الحصار. كارثة ستالينجراد كانت نقطة التّحول في مسرح العمليات الحربية الأوروبية وبداية العدّ التنازلي لهيمنة "الرايخ الثالث" على أوروبا. فبعد كارثة ستالينجراد، تكبّد المحور كارثة تونس التي هُزم فيها المحور وتم أسر ربع مليون جندي ألماني وإيطالي من جنود المحور. استعمل الحلفاء شمال أفريقيا كنقطة انطلاق لقهر مارد المحور من الجنوب بعد إحكام القوات الروسية على الجبهة الشرقية.سقطت إيطاليا بعد تحرّك الجيش البريطاني و الامريكي إليها من شمال أفريقيا وبعد مقاومة شرسة من الجيش الألماني للأراضي الإيطالية في سبتمبر 1943.أحكم الحلفاء قبضتهم على المارد الألماني ودول المحور ولم يتبق إلا عُقر دار الرايخ الثالث في برلين، فقامت جحافل الجيش الأمريكي بالإنزال الشهير على شواطيء "نورماندي" في 6 يونيو 1944 ونتج عن هذا الإنزال تحرير جُل فرنسا وبلجيكا، وهولندا، ولكسمبورغ في أواخر عام 1944. في هذه الأثناء، وصل الجيش الأحمر إلى مشارف مدينة برلين من جهة الشرق، معقل الرايخ الثالث، واُسدل الستار على ألمانيا النازية بانتحار هتلر، ثم استسلام ألمانيا استسلاماً غير مشروط في 7 مايو 1945.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحرب العالمية الثانية هي نزاع دولي بدا في 7 يوليو 1937 في آسيا و 1 سبتمبر 1939 في اوروبا وانتهت الحرب في عام 1945 باستسلام اليابان، تعد الحرب العالمية الثانية من الحروب الشموليةً واكثرها كُلفة في تاريخ البشريةً لاتساع بقعة الحرب وتعدد مسارح المعركة، فكان.  فقد حصدت الحرب العالمية الثانية زهاء 60 مليون نفس بشرية بين عسكري ومدني. تكبّد المدنيون خسائر في الارواح ابّان الحرب العالمية الثانية اكثر من اي حرب عرفها التاريخ، ويعزى السبب لتقليعة القصف الجوي على المدن والقرى التي ابتدعها الجيش الالماني على مدن وقرى الحلفاء مما استدعى الحلفاء الرّد بالمثل، فسقط من المدنيين من سقط من كلا ال.  اضف الى ذلك المذابح التي ارتكبها الجيش الياباني بحق الشّعبين الصيني والكوري الى قائمة الضحايا المدنيين ليرتفع عدد الضحايا الابرياء والجنود الى 51 مليون قتيل، اي ما يعادل 2% من تعداد سكان العالم في تلك الفترة. الامتعاض من معاملة القوى المنتصرة لالمانيا و سوء و تردي الاوضاع الاقتصادية بسبب التكاليف الباهظة والديون التي تكبّدتها المانيا بعد الحرب العالمية الاولى وابرام معاهدة فيرساي و الكساد الاقتصادي العالمي اهّل ادولف هتلر و حزبه اليميني المتطرّف الى الاخذ بزما.  ثم قام هتلر بتحدّي المعاهدات المبرمة بين المانيا والحلفاء بعد الحرب العالمية الاولى بالعمل على تطوير الجيش الالماني و حشد القوات والعتاد على الحدود الفرنسية الالمانية والاتحاد مع النمسا وضم اجزاء من تشيكوسلوفاكيا بمباركة انجلو-فرنسية. في العام 1922، وصل "بينيتو موسوليني" و حزبه الفاشي الى دفّة الحكم في ايطاليا، و يتّفق كل من الحزب الفاشي بقيادة موسوليني والحزب النازي بقيادة هتلر في بعض الاهداف الايديولوجية، فشكّل الاثنان اتفاقية جمعت بلديهما وسمّيت الاتفاقية بالمحور في العام 1936.  اما فيما يتعلّق بالجانب الشرقي من العالم، فقامت الامبراطورية اليابانية بغزو الصين في سبتمبر 1936.  وبالرغم من معارضة الحكومة اليابانية للغزو، الا ان الجيش الامبراطوري الياباني لم يعبا بمعارضة حكومة بلاده و مضى قُدُماً في غزوه للصين. في العام 1939، قام هتلر بالمطالبة ببعض من اراضي بولندا وقام بالتوقيع على اتفاقية "عدم اعتداء" بين المانيا و الاتحاد السوفييتي كردة فعل على اتفاقية الدّفاع المشترك بين كلّ من بريطانيا-فرنسا وبولندا.  و في الاول من سبتمبر 1939، قامت القوات النازية بغزو بولندا، وبعدها بيومين، اعلنت كلّ من بريطانيا وفرنسا الحرب على المانيا.  و قبل ان يتسنّى للجيش البريطاني والفرنسي من تشكيل هجوم على بولندا لدحر الغزو النازي لبولندا، كانت القوات النازية قد انتهت من السيطرة على بولندا وانهاء مناوشات الجيش البولندي والنازي في غضون 3 اسابيع. تحرّكت القوات النازية والروسية من بولندا واتّجه الجيش الاحمر ليركز بشكل اكثر على دول البلطيق وفنلندا حيث دارت الحرب الشتوية التي شدّت انتباه العالم لانعدام الاعمال العسكرية في بولندا، بينما اتّجة الجيش النازي جهة الدنمارك والنرويج وعزّزت القوات الفرنسية م.  ولم يبق خيار للحكومة الفرنسية غير خيار الاستسلام للجيش النازي مما مكّن الجيش النازي من احكام السيطرة على الشمال الفرنسي وتنصيب حكومة فرنسية موالية لالمانيا النازية في الشطر الجنوبي من فرنسا. لم يتمكن سلاح الجو الالماني من هزيمة غريمه البريطاني فكان من الضروري قهر سلاح الجو البريطاني ليتسنّى للالمان غزو الانجليز، فاتّبع الالمان سياسة مكثّفة بالقصف بالقنابل على بريطانيا فيما تسمى بمعركة بريطانيا، املاً في اخضاع الانجليز، وباءت محاولات الالمان ب. بالرغم من اتفاقية عدم الاعتداء بين المانيا والاتحاد السوفييتي، الا ان المانيا قامت بغزو الاتحاد السوفييتي في يونيو 1941.  فقد اخذ الالمان الروس على حين غرّة، وكسبت المانيا اراض روسية شاسعة واسرت مئات الآلاف من الجنود الروس.  فمرّ فصل الشتاء على الجيش الالماني بقسوة نتيجة التخطيط السيء لغزو موسكو.  فبعد كارثة ستالينجراد، تكبّد المحور كارثة تونس التي هُزم فيها المحور وتم اسر ربع مليون جندي الماني وايطالي من جنود المحور. </t>
-  </si>
-  <si>
-    <t>الحرب العالمية الثانية هي نزاع دولي بدأ في 7 يوليو 1937 في آسيا و 1 سبتمبر 1939 في أوروبا وانتهت الحرب في عام 1945 باستسلام اليابان، تعد الحرب العالمية الثانية من الحروب الشموليةً وأكثرها كُلفة في تاريخ البشريةً لاتساع بقعة الحرب وتعدد مسارح المعركة، فكانت دول كثيرة طرفاً من أطراف النزاع.فقد حصدت الحرب العالمية الثانية زهاء 60 مليون نفس بشرية بين عسكري ومدني.تكبّدالمدنيون خسائر في الأرواح إبّان الحرب العالمية الثانية أكثر من أي حرب عرفها التاريخ، ويعزى السبب لتقليعة القصف الجوي على المدن والقرى التي ابتدعها الجيش الألماني على مدن وقرى الحلفاء مما استدعى الحلفاء الرّد بالمثل، فسقط من المدنيين من سقط من كلا الطرفين.أضف إلى ذلك المذابح التي ارتكبها الجيش الياباني بحق الشّعبين الصيني والكوري إلى قائمة الضحايا المدنيين ليرتفع عدد الضحايا الأبرياء والجنود إلى 51 مليون قتيل، أي ما يعادل 2% من تعداد سكان العالم في تلك الفترة.الامتعاضمن معاملة القوى المنتصرة لألمانيا و سوء و تردي الأوضاع الاقتصادية بسبب التكاليف الباهظة والديون التي تكبّدتها ألمانيا بعد الحرب العالمية الأولى وإبرام معاهدة فيرساي و الكساد الاقتصادي العالمي أهّل أدولف هتلر و حزبه اليميني المتطرّف إلى الأخذ بزمام الأمور واعتلاء كرسي الحكم في ألمانيا.ثم قام هتلر بتحدّي المعاهدات المبرمة بين ألمانيا والحلفاء بعد الحرب العالمية الأولى بالعمل على تطوير الجيش الألماني و حشد القوات والعتاد على الحدود الفرنسية الألمانية والاتحاد مع النمسا وضم أجزاء من تشيكوسلوفاكيا بمباركة أنجلو-فرنسية.فيالعام 1922، وصل "بينيتو موسوليني" و حزبه الفاشي إلى دفّة الحكم في إيطاليا، و يتّفق كل من الحزب الفاشي بقيادة موسوليني والحزب النازي بقيادة هتلر في بعض الأهداف الإيديولوجية، فشكّل الاثنان اتفاقية جمعت بلديهما وسمّيت الاتفاقية بالمحور في العام 1936.أما فيما يتعلّق بالجانب الشرقي من العالم، فقامت الإمبراطورية اليابانية بغزو الصين في سبتمبر 1936.وبالرغم من معارضة الحكومة اليابانية للغزو، إلا أن الجيش الإمبراطوري الياباني لم يعبأ بمعارضة حكومة بلاده و مضى قُدُماً في غزوه للصين.فيالعام 1939، قام هتلر بالمطالبة ببعض من أراضي بولندا وقام بالتوقيع على اتفاقية "عدم اعتداء" بين ألمانيا و الاتحاد السوفييتي كردة فعل على اتفاقية الدّفاع المشترك بين كلّ من بريطانيا-فرنسا وبولندا.و في الأول من سبتمبر 1939، قامت القوات النازية بغزو بولندا، وبعدها بيومين، أعلنت كلّ من بريطانيا وفرنسا الحرب على ألمانيا.وفي غضون أسبوعين من الغزو النازي لبولندا، قام الجيش الأحمر السوفياتي بغزو بولندا هو الآخر.و قبل أن يتسنّى للجيش البريطاني والفرنسي من تشكيل هجوم على بولندا لدحر الغزو النازي لبولندا، كانت القوات النازية قد انتهت من السيطرة على بولندا وإنهاء مناوشات الجيش البولندي والنازي في غضون 3 أسابيع.تسمّىالفترة التي أعقبت الغزو النازي لبولندا (أكتوبر 1939) وحتى الغزو النازي لبلجيكا، وهولندا، ولوكسيمبورج، وانتهاءً بغزو فرنسا (مايو 1940)، بالحرب المزيفة لعدم مشاركة القوى العظمى في مسرح العمليات واقتصار المعارك في المسرح الأوروبي على القوات النازية وصغار الدول بالرّغم من إعلان الحرب على ألمانيا النازية من قِبل بريطانيا وفرنسا.تحرّكتالقوات النازية والروسية من بولندا واتّجه الجيش الأحمر ليركز بشكل أكثر على دول البلطيق وفنلندا حيث دارت الحرب الشتوية التي شدّت انتباه العالم لانعدام الأعمال العسكرية في بولندا، بينما اتّجة الجيش النازي جهة الدنمارك والنرويج وعزّزت القوات الفرنسية مواقعها عل الحدود الفرنسية الألمانية، وباستثناء بعض المناوشات العسكرية بين القوات الفرنسية والألمانية، لم يكن هناك شيء يذكر لأن كل من فرنسا وألمانيا كانتا منهمكتين في حشد الجنود والعتاد في تلك الفترة.في مايو 1940، استعملت القوات النازية تكتيكاً عسكرياً جديداً سمّي بـ "الحرب الخاطفة" (1) مما مكن القوات النازية من السيطرة على فرنسا وهزيمة الجيش الفرنسي والبريطاني.وتقهقر الجيش البريطاني إلى مدينة "دنكيرك" الساحلية وترك أسلحته الثقيلة في الساحة الفرنسية فقامت حكومة "تشرشل" باستخدام السفن العسكرية بل وحتّى التجارية في إجلاء الجنود البريطانيين من الساحل الغربي لفرنسا.ولم يبق خيار للحكومة الفرنسية غير خيار الاستسلام للجيش النازي مما مكّن الجيش النازي من إحكام السيطرة على الشمال الفرنسي وتنصيب حكومة فرنسية موالية لألمانيا النازية في الشطر الجنوبي من فرنسا.لم</t>
-  </si>
-  <si>
-    <t>الحرب الباردة اصطلاح يطلق على العلاقات الجديدة التي نشات بين المنتصرين في الحرب العالمية الثانية خلال الفترة بين نهاية هذه الحرب وانهيار الاتحاد السوفيتي. عمليا كان قطبا الحرب هما الولايات المتحدة الاميركية و الاتحاد السوفيتى ،وكان هدف كل منهما الحصول على مناطق نفوذ عسكري اوسياسي وتوسيعها كلما كان ذلك ممكنا، والطرفان، وان كفا عن استخدام السلاح الا انهما لم يتوقفا عن تطوير قدراتهما العسكرية والدخول في سباق تسلح لم يشهد له العالم مثيلا من قبل وهذا السباق من ابرز سمات الحرب الباردة اضافة إلى سعي كل من الطرفين للاستئثار بمناطق نفوذ علي حساب الاخر وانهاكه عن طريق اشعال حروب محدودة لاستنزاف الخصم ، ولقد التزم الطرفان بالقواعد التى شكلتها هذه المرحلة ولم يتجاوزاها إلى حرب ساخنة حتى في اشد الازمات بينهما كما هو الحال في ازمة صواريخ كوبا.الحرب الباردة ، بعكس الحرب الساخنة التي تُشعل فيها النيران ويتبادل فيها الأطراف القصف والضرب هي حرب استمرت بين الأعوام 1945 إلى 1990. وكان الاتحاد السوفيتي وحلفاؤه طرفاً من أطراف الحرب وكان هذا الطرف يسمى بالكتلة الشرقية او المعسكر الشرقي. ومن الجانب الاخر، الولايات المتحدة وحلفاؤها وكانوا يعرفون بالمعسكر الغربي او الكتلة الغربية.تمثلت الحرب بالشعور المتبادل بين الطرفين بانعدام الثقة وتقديم سوء النية على حسنها. وفي مرحلة من المراحل (ازمة الصواريخ الكوبية)، تنامت الشكوك بين الطرفين بما أوحى باندلاع حرب عالمية ثالثة. وكانت الولايات المتحدة وحلفاؤها يتهمون الاتحاد السوفييتي بنشر الفكر الشيوعي في العالم بينما كان الاتحاد السوفييتي يتهم الكتلة الغربية بنشر الإمبريالية ومنع الحركات الثورية.استمرت الحرب الباردة بعد الحرب العالمية الثانية حتى عام 1990 بتفكك الاتحاد السوفيتي. وفي الفترة المذكورة، قامت عدّة صراعات مسلحة بسبب الحرب الباردة كحرب كوريا، فيتنام والغزو السوفييتي لأفغانستان. وظلّت تلك الصراعات العسكرية محدودة لعدم تعرض الكتل الكبيرة أو شعوبها للأذى.في الصراع الاستراتيجي بين الكتلتين، كان هناك صراع من نوع اخر تمثل في الصراعات التقنية وسباق التسلح كما لم يدّخر الطرفان جهداً في عملية التجسس واغتيال عملاء الطرف الند. وتجدر الاشارة ان الصراعات المسلحة الجانبية كحرب فيتنام ومثيلاتها أرّقت منام العالم في احتمال تطور تلك الصراعات إلى حرب عالمية نووية. كان من نتائج الحرب الباردة انهيار الاتحاد السوفيتي و ميلاد النظام العالمي الجديد الذي نادى به الرئيس الاميركي السابق جورج بوش الاب ،عقب نهاية حرب الخليج الاولى ، التي اسقطت شبه النظام الاقليمي العربي ، وقد سمح النظام العالمي الجديد للولايات المتحدة الاميركية القطب الذي كسب الحرب الباردةالانفراد بالسياسة العالمية وتطويعهاوفقا لمصالحها ورغباتها وفرض رؤيتها على الدول والتدخل في شؤنها وصار العالم يتشكل وفقا للنمط الاميركي من التعددية الحزبية إلى التجارة الحرة والحدود المفتوحة دون مراعاة لأية خصوصية دينية او ثقافية .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الحرب الباردة اصطلاح يطلق على العلاقات الجديدة التي نشات بين المنتصرين في الحرب العالمية الثانية خلال الفترة بين نهاية هذه الحرب وانهيار الاتحاد السوفيتي.  عمليا كان قطبا الحرب هما الولايات المتحدة الاميركية و الاتحاد السوفيتى ،وكان هدف كل منهما الحصول على مناطق نفوذ عسكري اوسياسي وتوسيعها كلما كان ذلك ممكنا، والطرفان، وان كفا عن استخدام السلاح الا انهما لم يتوقفا عن تطوير قدراتهما العسكرية والدخول في سباق .  وكان الاتحاد السوفيتي وحلفاؤه طرفاً من اطراف الحرب وكان هذا الطرف يسمى بالكتلة الشرقية او المعسكر الشرقي.  ومن الجانب الاخر، الولايات المتحدة وحلفاؤها وكانوا يعرفون بالمعسكر الغربي او الكتلة الغربية.  وكانت الولايات المتحدة وحلفاؤها يتهمون الاتحاد السوفييتي بنشر الفكر الشيوعي في العالم بينما كان الاتحاد السوفييتي يتهم الكتلة الغربية بنشر الامبريالية ومنع الحركات الثورية. استمرت الحرب الباردة بعد الحرب العالمية الثانية حتى عام 1990 بتفكك الاتحاد السوفيتي.  كان من نتائج الحرب الباردة انهيار الاتحاد السوفيتي و ميلاد النظام العالمي الجديد الذي نادى به الرئيس الاميركي السابق جورج بوش الاب ،عقب نهاية حرب الخليج الاولى ، التي اسقطت شبه النظام الاقليمي العربي ، وقد سمح النظام العالمي الجديد للولايات المتحدة الامي. </t>
-  </si>
-  <si>
-    <t>الحرب الباردة اصطلاح يطلق على العلاقات الجديدة التي نشات بين المنتصرين في الحرب العالمية الثانية خلال الفترة بين نهاية هذه الحرب وانهيار الاتحاد السوفيتي.عمليا كان قطبا الحرب هما الولايات المتحدة الاميركية و الاتحاد السوفيتى ،وكان هدف كل منهما الحصول على مناطق نفوذ عسكري اوسياسي وتوسيعها كلما كان ذلك ممكنا، والطرفان، وان كفا عن استخدام السلاح الا انهما لم يتوقفا عن تطوير قدراتهما العسكرية والدخول في سباق تسلح لم يشهد له العالم مثيلا من قبل وهذا السباق من ابرز سمات الحرب الباردة اضافة إلى سعي كل من الطرفين للاستئثار بمناطق نفوذ علي حساب الاخر وانهاكه عن طريق اشعال حروب محدودة لاستنزاف الخصم ، ولقد التزم الطرفان بالقواعد التى شكلتها هذه المرحلة ولم يتجاوزاها إلى حرب ساخنة حتى في اشد الازمات بينهما كما هو الحال في ازمة صواريخ كوبا.الحرب الباردة ، بعكس الحرب الساخنة التي تُشعل فيها النيران ويتبادل فيها الأطراف القصف والضرب هي حرب استمرت بين الأعوام 1945 إلى 1990.وكان الاتحاد السوفيتي وحلفاؤه طرفاً من أطراف الحرب وكان هذا الطرف يسمى بالكتلة الشرقية او المعسكر الشرقي.ومن الجانب الاخر، الولايات المتحدة وحلفاؤها وكانوا يعرفون بالمعسكر الغربي او الكتلة الغربية.تمثلتالحرب بالشعور المتبادل بين الطرفين بانعدام الثقة وتقديم سوء النية على حسنها.وفي مرحلة من المراحل (ازمة الصواريخ الكوبية)، تنامت الشكوك بين الطرفين بما أوحى باندلاع حرب عالمية ثالثة.وكانت الولايات المتحدة وحلفاؤها يتهمون الاتحاد السوفييتي بنشر الفكر الشيوعي في العالم بينما كان الاتحاد السوفييتي يتهم الكتلة الغربية بنشر الإمبريالية ومنع الحركات الثورية.استمرت</t>
-  </si>
-  <si>
-    <t>المسيحية هي إحدى الديانات السماوية التي يعتبر يسوع المسيح الشخصية الأساسية فيها، ويعتبر المؤسس لها. تعتبر المسيحية أكثر الديانات أتباعا في العالم، فعدد أتباعها يبلغ 2.1 بليون مسيحي. جذور المسيحية تأتي من اليهودية، التي تتشارك معها في الإيمان بكتاب اليهودية المقدس "التوراة"، الذي يدعى في المسيحية العهد القديم. أحيانا يطلق على مجموعة الديانات السماوية: اليهودية، والمسيحية والإسلام اسم الديانات الإبراهيمية، لأن مؤسسي هذه الديانات جميعهم من نسل إبراهيم عليه السلام.الكتاب المقدس الأساسي للمسيحية يطلق عليه اسم: الإنجيل أو العهد الجديد، وهو مجموعة التعاليم التي أتى بها يسوع المسيح ونشرها بين أتباعه ثم قام تلاميذ المسيح الاثنا عشر بكتابة هذه التعاليم و نشرها في الأصقاع.الديانة المسيحية ظهرت ببداية قيام المسيح بنشر رسالته في عام 25 ميلادي تقريبا حيث ولد السيد المسيح في السنة الخامسة قبل الميلاد و بدأ خدمته الرسولية و هو في سن الثلاثين ثم رفع إلى السماء و هو في سن الثالثة و الثلاثين، دار جدال كبير حول الروح القدس منبثق فالأرثوذوكس يؤمنون بإنه منبثق عن الآب بينما يؤمن الكاثوليك بأن الروح القدس منبثق عن الآب و الابن معا، تجتمع الطوائف المسيحية بعقيدة الخلاص و التي مفادها بأن الخطـيئة تسللت لآدم بكسره للناموس ( أى الأوامر الإلهية أو الشريعة ) و حيث أن أجرة الخطيئة هي موت فإن الموت أيضا قد حل على الجميع و لا بد أن يكون هناك مصالحة بين الله كلي القداسة و بين الإنسان المخطئ، بحسب التقليد القديم في التوراة كانت هناك الذبائح لأنه لا يكون غفران إلا بدم و بالتالي كانت هناك ذبائح لتكفير الذنوب يقدمها الشخص عن نفسه و كانت هناك تقدمات عن شعب إسرائيل بالكامل والتي كانت كما يعتقد المسيحيون بأنها رمز لذبيحة المسيح ، تؤمن المسيحية بأن الله أراد أن يقدم لللإنسان هذا المصالحة بينهما من خلال ابنه المسيح ( الذي هو بلا خطيئة ) و عندما يسفك دمه على الصليب تكون هذه الذبيحة قد قدمت و الخطيئة قد رفعت و الخلاص من نير الناموس و الشريعة قد تم و اكتمل و بالتالي كل من يؤمن بالمسيح كذبيحة كفارية فسوف يتخلص من الخطيئة لأن الإنسان لا يملك أن يخلص نفسه، والسؤال الذي يطرح نفسه هنا إن كانت الخطيئة قد رفعت عنا فلماذا نخطئ و نخطئ بعد أن نقبل المسيح كمخلص ؟ والجواب هو كما يؤمن أتباع هذه الديانة هو أن الإنسان الذي يؤمن بالمسيح لا يعود الشيطان و الخطيئة يمتلكان سلطان عليه لذلك حتى وإن أخطئ فهو قادر على النهوض مجددا ومتابعة سلوك حياته الإيمانية .و السؤال الثاني إن كانت أجرة الخطيئة هي الموت و المسيح قام فعلا بدفع هذه الأجرة فلماذا يموت المؤمنون به الطالبين للخلاص ؟؟ذلك لأنه وبحسب الإيمان المسيحي يتحرر المؤمن من الموت الروحي لآن كل إنسان مستعبد للخطيئة هو ميت حتى وإن كان حي فبالنسبة للمسيحيين تبدأ الحياة الحقيقية بالإيمان وقيامة المسيح هي وعد للقيامة المؤمنين العامة في اليوم الأخير .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> تعتبر المسيحية اكثر الديانات اتباعا في العالم، فعدد اتباعها يبلغ 2. 1 بليون مسيحي. </t>
-  </si>
-  <si>
-    <t>المسيحية هي إحدى الديانات السماوية التي يعتبر يسوع المسيح الشخصية الأساسية فيها، ويعتبر المؤسس لها.المسيحية ظهرت ببداية قيام المسيح بنشر رسالته في عام 25 ميلادي تقريبا حيث ولد السيد المسيح في السنة الخامسة قبل الميلاد و بدأ خدمته الرسولية و هو في سن الثلاثين ثم رفع إلى السماء و هو في سن الثالثة و الثلاثين، دار جدال كبير حول الروح القدس منبثق فالأرثوذوكس يؤمنون بإنه منبثق عن الآب بينما يؤمن الكاثوليك بأن الروح القدس منبثق عن الآب و الابن معا، تجتمع الطوائف المسيحية بعقيدة الخلاص و التي مفادها بأن الخطـيئة تسللت لآدم بكسره للناموس ( أى الأوامر الإلهية أو الشريعة ) و حيث أن أجرة الخطيئة هي موت فإن الموت أيضا قد حل على الجميع و لا بد أن يكون هناك مصالحة بين الله كلي القداسة و بين الإنسان المخطئ، بحسب التقليد القديم في التوراة كانت هناك الذبائح لأنه لا يكون غفران إلا بدم و بالتالي كانت هناك ذبائح لتكفير الذنوب يقدمها الشخص عن نفسه و كانت هناك تقدمات عن شعب إسرائيل بالكامل والتي كانت كما يعتقد المسيحيون بأنها رمز لذبيحة المسيح ، تؤمن المسيحية بأن الله أراد أن يقدم لللإنسان هذا المصالحة بينهما من خلال ابنه المسيح ( الذي هو بلا خطيئة ) و عندما يسفك دمه على الصليب تكون هذه الذبيحة قد قدمت و الخطيئة قد رفعت و الخلاص من نير الناموس و الشريعة قد تم و اكتمل و بالتالي كل من يؤمن بالمسيح كذبيحة كفارية فسوف يتخلص من الخطيئة لأن الإنسان لا يملك أن يخلص نفسه، والسؤال الذي يطرح نفسه هنا إن كانت الخطيئة قد رفعت عنا فلماذا نخطئ و نخطئ بعد أن نقبل المسيح كمخلص ؟ والجواب هو كما يؤمن أتباع هذه الديانة هو أن الإنسان الذي يؤمن بالمسيح لا يعود الشيطان و الخطيئة يمتلكان سلطان عليه لذلك حتى وإن أخطئ فهو قادر على النهوض مجددا ومتابعة سلوك حياته الإيمانية .و</t>
-  </si>
-  <si>
-    <t>يؤمن المسلمون بأن محمداً  رسول من الله وخاتم الأنبياء و المرسلين و أُرسل إلى الثقلين كافة (الجن والإنس). وُلد في مكة في يوم الاثنين الموافق 12 ربيع الأول بعد خمسين يوم من عام يقال له عام الفيل الموافق شهر أغسطس سنة 570 للميلاد (1) وتقول الشيعة الإمامية 17 ربيع الأول.اورده ابن القيم في كتابه زاد المعاد 1/72 أنه خير أهل الأرض نسباً على الإطلاق، فلنسبه من الشرف أعلى ذروة، وأعداؤه كانوا يشهدون له بذلك، ولهذا شهد له به عدوه إذ ذاك أبو سفيان بين يدي ملك الروم، فأشرف القوم قومه، وأشرف القبائل قبيله، وأشرف الأفخاذ فخذه. ونسب ابيه هو عبد الله بن عبد المطلب بن هاشم بن عبد مناف بن قصي بن كلاب بن مرة بن كعب بن لؤي بن غالب بن فهر بن مالك بن النضر بن كنانة بن خزيمة بن مدركة بن إلياس بن مضر بن نزار بن معد بن عدنان. إلى ها هنا معلوم الصحة متفق عليه بين النسابين ولا خلاف فيه البتة، وما فوق عدنان مختلف فيه ولا خلاف بينهم أن عدنان من ولد إسماعيل عليه السلام، وإسماعيل هو الذبيح على القول الصواب عند علماء الصحابة والتابعين ومن بعدهم.(2) امه هي امنه بنت وهب بن عبد مناف بن زهره بن كلاب بن مره ويتصل نسب أمه مع ابيه ابتداء من كلاب بن مره.بحسب كتب السيرة الإسلامية، فإن محمد  نشأ بشعب بنى هاشم بمكة يتيماً فقد مات والده عبد الله قبل ولادته بقليل (4)، واختار له جده اسم محمد وهذا الاسم لم يكن معروفاً في العرب.وقيل في تسميته أنه كان جمع من سادة مكة يقومون برحلة فالتقوا بحبر من أحبار اليهود وسألهم من أين أنتم ، فأجابوا أنهم من مكة ، فأخبرهم أنه في مكة يخرج نبي يقال له محمد ، فعقد كل واحد منهم أن يسمي إبنه محمداً عسى أن يكون ذلك النبي. وقد كانت العادة عند العرب أن يلتمسوا المراضع لأولادهم إبعاداً لهم عن أمراض الحواضر، ولتقوى أجسامهم ، وتشتد أعصابهم ، ويتقنوا اللسان العربى في مهدهم ، فقدم نساء من بنى سعد إلى مكة ولم يكن يرغبن في اليتيم محمد حتى أخذته امرأة تسمى حليمة السعدية عندما لم تجد غيره وكان فاتحة خير عليها وعلى عائلتها كما تخبر هي . وقد عاش في بنى سعد حتى سن الرابعة من مولده حتى حدث بما يعرف بـ حادثة شق الصدر فخشيت عليه حليمة بعد هذه الواقعة حتى ردته إلى أمه التي طمأنتها بألا تخاف عليه ، ولما بلغ ست سنين قررت أمنة أن تزور قبر زوجها فخرجت من مكة إلى المدينة المنورة مع ولدها اليتيم محمد وخادمتها وبينما هى راجعة إذ لحقها المرض في أوائل الطريق حتى ماتت ، وانتقل محمد ليعيش مع جده عبد المطلب يتيم الأب والأم ، وكانت مشاعر الحنو لدى عبد المطلب تربو نحو حفيده اليتيم ، ولما بلغ محمد ثمانى سنوات توفى جده عبدالمطلب بمكة ورأى قبل وفاته أن يعهد بكفالة حفيده إلى عمه أبو طالب شقيق أبيه والذي قام بحق ابن أخيه على أكمل وجه (5)، وكان محمد في بداية شبابه يرعى غنماً رعاها في بنى سعد ، وفي مكة لأهلها على قراريط ثم انتقل إلى عمل التجارة حين شب.كان يلقب بالصادق الأمين حتى أن أعداء رسول الإسلام  كانوا يضعون أماناتهم عنده.كان الشرك وعبادة الاصنام أكبر مظهر من مظاهر الجاهلية في قريش والجزيرة العربية قبل بعثة النبي محمد  حيث كانوا يعبدونها ويعكفون عليها ويلتجئون إليها ويستغيثون في الشدائد ويدعونها لحاجتهم معتقدين أنها تحقق لهم ما يريدون بالاضافة إلى إنتشار الرذائل مثل الزنا وشرب الخمر ، كما أن الجزيرة العربية قبل بعثة النبي محمد  كانت مجموعة من القبائل المتناحرة والمتباغضة يأكل القوى فيهم الضعيف .والمسيحيه و اليهودية كانتا موجودتان ايضاً في شبه الجزيرة العربية ومن أشهر رموزها بحيرا الراهب وغيره. وكانوا يخفون كثيرا من أحكام كتبهم المنزلة من عند الله، ولا يعملون بها ويحلون ما حرم الله أو يحرمون على الناس ما أحل الله وكان كثير منهم يأكلون أموال الناس بالباطل ويثيرون الفتن الطائفية بين القبائل لتقع النزاعات والحروب القبلية وتكون لهم الكلمة العليا؛ فجاء الإسلام ليحرم الطاعة المطلقة لأحد من البشر إلا في المعروف. وجاء ليبين للناس ما أخفاه الأحبار و الرهبان من أحكام في كتبهم، وجاء لينشر العدل والمساواة بين الناس وحرم الظلم والبغي والعدوان.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يؤمن المسلمون بان محمداً  رسول من الله وخاتم الانبياء و المرسلين و اُرسل الى الثقلين كافة (الجن والانس).  ونسب ابيه هو عبد الله بن عبد المطلب بن هاشم بن عبد مناف بن قصي بن كلاب بن مرة بن كعب بن لؤي بن غالب بن فهر بن مالك بن النضر بن كنانة بن خزيمة بن مدركة بن الياس بن مضر بن نزار بن معد بن عدنان.  الى ها هنا معلوم الصحة متفق عليه بين النسابين ولا خلاف فيه البتة، وما فوق عدنان مختلف فيه ولا خلاف بينهم ان عدنان من ولد اسماعيل عليه السلام، واسماعيل هو الذبيح على القول الصواب عند علماء الصحابة والتابعين ومن بعدهم. (2) امه هي امنه بنت وهب بن عبد مناف بن زهره بن كلاب بن مره ويتصل نسب امه مع ابيه ابتداء من كلاب بن مره. كان يلقب بالصادق الامين حتى ان اعداء رسول الاسلام  كانوا يضعون اماناتهم عنده. والمسيحيه و اليهودية كانتا موجودتان ايضاً في شبه الجزيرة العربية ومن اشهر رموزها بحيرا الراهب وغيره.  وجاء ليبين للناس ما اخفاه الاحبار و الرهبان من احكام في كتبهم، وجاء لينشر العدل والمساواة بين الناس وحرم الظلم والبغي والعدوان. </t>
-  </si>
-  <si>
-    <t>يؤمن المسلمون بأن محمداً  رسول من الله وخاتم الأنبياء و المرسلين و أُرسل إلى الثقلين كافة (الجن والإنس).وُلد في مكة في يوم الاثنين الموافق 12 ربيع الأول بعد خمسين يوم من عام يقال له عام الفيل الموافق شهر أغسطس سنة 570 للميلاد (1) وتقول الشيعة الإمامية 17 ربيع الأول.اوردهابن القيم في كتابه زاد المعاد 1/72 أنه خير أهل الأرض نسباً على الإطلاق، فلنسبه من الشرف أعلى ذروة، وأعداؤه كانوا يشهدون له بذلك، ولهذا شهد له به عدوه إذ ذاك أبو سفيان بين يدي ملك الروم، فأشرف القوم قومه، وأشرف القبائل قبيله، وأشرف الأفخاذ فخذه.ونسب ابيه هو عبد الله بن عبد المطلب بن هاشم بن عبد مناف بن قصي بن كلاب بن مرة بن كعب بن لؤي بن غالب بن فهر بن مالك بن النضر بن كنانة بن خزيمة بن مدركة بن إلياس بن مضر بن نزار بن معد بن عدنان.امه هي امنه بنت وهب بن عبد مناف بن زهره بن كلاب بن مره ويتصل نسب أمه مع ابيه ابتداء من كلاب بن مره.بحسب كتب السيرة الإسلامية، فإن محمد  نشأ بشعب بنى هاشم بمكة يتيماً فقد مات والده عبد الله قبل ولادته بقليل (4)، واختار له جده اسم محمد وهذا الاسم لم يكن معروفاً في العرب.وقيلوقد كانت العادة عند العرب أن يلتمسوا المراضع لأولادهم إبعاداً لهم عن أمراض الحواضر، ولتقوى أجسامهم ، وتشتد أعصابهم ، ويتقنوا اللسان العربى في مهدهم ، فقدم نساء من بنى سعد إلى مكة ولم يكن يرغبن في اليتيم محمد حتى أخذته امرأة تسمى حليمة السعدية عندما لم تجد غيره وكان فاتحة خير عليها وعلى عائلتها كما تخبر هي .وكانوا يخفون كثيرا من أحكام كتبهم المنزلة من عند الله، ولا يعملون بها ويحلون ما حرم الله أو يحرمون على الناس ما أحل الله وكان كثير منهم يأكلون أموال الناس بالباطل ويثيرون الفتن الطائفية بين القبائل لتقع النزاعات والحروب القبلية وتكون لهم الكلمة العليا؛ فجاء الإسلام ليحرم الطاعة المطلقة لأحد من البشر إلا في المعروف.</t>
-  </si>
-  <si>
-    <t>يعد الإسلام أحد الديانات السماوية الثلاثة والمعروفة بالديانات الإبراهيمية (اليهودية، المسيحية، الإسلام)، وهي ثاني أكثر الديانات أتباعا في العالم. والمعنى العام لكلمة الإسلام هو الانقياد التام للخالق بالتوحيد والإذعان له بالطاعة والبراءة من الشرك وأهله. وهو تسليم كامل من الإنسان لله تعالى في كل شؤون الحياة.يؤمن المسلمون أن الإسلام هو آخر الديانات السماوية، وأنه ناسخ لما قبله كما ذكر في القرآن (الْيَوْمَ أَكْمَلْتُ لَكُمْ دِينَكُمْ وَأَتْمَمْتُ عَلَيْكُمْ نِعْمَتِي وَرَضِيتُ لَكُمُ الإِسْلامَ دِينًا) (المائدة:3) وفي قوله: (وَأَنزَلْنَا إِلَيْكَ الْكِتَابَ بِالْحَقِّ مُصَدِّقاً لِّمَا بَيْنَ يَدَيْهِ مِنَ الْكِتَابِ وَمُهَيْمِناً عَلَيْهِ)(المائدة48). كما يؤمن المسلمون بأن محمداً  رسول من الله وخاتم الأنبياء و المرسلين و أُرسل إلى الثقلين كافة (الجن والإنس). و من أسس العقيدة الإسلامية الإيمان بوجود إله واحد هو الله، وأنهم يتبعون الحنيفية ملة إبراهيم عليه السلام.ويؤمن المسلمون بالملائكة وبجميع رسل الله السابقين وبالكتب السابقة واليوم الآخر والقدر خيره وشره. والقرآن هو الكتاب المنزل من عند الله على محمد  عن طريق جبريل عليه السلام. والقرآن هو مصدر التشريع الإسلامي الأول وتعتبر السنة النبوية هي المصدر الثاني في التشريع الاسلامي. أما أركان الإسلام فهي خمسة أركان: شهادة أن لا إله إلا الله وأن محمداً رسول الله وإقامة الصلاة وإيتاء الزكاة و صوم رمضان وحج البيت لمن استطاع إليه سبيلا.ويُعرَّف الإسلام لُغوياً بأنه الانقياد التام لأمر الآمر و نهيه بلا اعتراض، وقيل هو الإذعان والانقياد وترك التمرّد والإباء والعناد(1).وأما معناه الاصطلاحي، فهو الدين الذي جاء به محمد، والشريعة التي ختم الله تعالى بها الرسالات السماوية. وقد قام محمد  بتبليغ الناس عن هذا الدين وأحكامه ونبذ عبادة الاصنام وغيرها مما يعبد من دون الله. والإسلام هو التسليم للخالق والخضوع له، وتسليم العقل والقلب لعظمة الله وكماله ثم الانقياد له بالطاعة وتوحيده بالعبادة والبراءة من الشرك به سبحانه.والإسلام ليس حصرياً على شعب دون شعب، أو قوم دون قوم، بل هي دعوة شاملة للبشرية كافة بغية تحقيق العدل والمساواة للبشر كافة. فالإسلام يقوم على أساس الفطرة الإنسانية والمساواة بين مختلف أفراد المجتمع الإسلامي فلا يفرٌق بين الضعيف والقوي والغني والفقير والشريف والوضيع، كما لا يفرق الإسلام بين الأمم والشعوب المختلفة إلا من باب طاعتها لله تعالى والتزامها بالتقوى، فهي تعتبر الاساس الذي يقيٌم به عمل الإنسان والتزامه بتعاليم الإسلام. يقول الله تعالى في القرآن الكريم : {يَا أَيُّهَا النَّاسُ إِنَّا خَلَقْنَاكُم مِّن ذَكَرٍ وَأُنثَى وَجَعَلْنَاكُمْ شُعُوباً وَقَبَائِلَ لِتَعَارَفُوا إِنَّ أَكْرَمَكُمْ عِندَ اللَّهِ أَتْقَاكُمْ إِنَّ اللَّهَ عَلِيمٌ خَبِيرٌ }الحجرات 13.يؤمن المسلمون بأن محمدا جاء ليكمل رسالة الله التي أرسل بها الأنبياء الذين سبقوه كإبراهيم وموسى والمسيح عيسى بن مريم عليهم جميعا السلام وأن أولئك الأنبياء كانوا جميعا مسلمين. كما يعتقد المسلمون بأن الحنيفية هي أساس دين إبراهيم عليه السلام. ويرون أن الاختلاف بين الأديان السماوية في الشريعة فقط وليست في العقيدة وأن شريعة الإسلام ناسخة لما قبلها من شرائع. أي أن الدين الإسلامي يتكون من العقيدة والشريعة. فأما العقيدة فهي مجموعة المبادئ التي على المسلم أن يؤمن بها وهي ثابتة لا تختلف باختلاف الانبياء. أما الشريعة فهي اسم للأحكام العملية التي تختلف باختلاف الرسل ونسخ اللاحق منها السابق.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">واما معناه الاصطلاحي، فهو الدين الذي جاء به محمد، والشريعة التي ختم الله تعالى بها الرسالات السماوية. </t>
-  </si>
-  <si>
-    <t>يعد الإسلام أحد الديانات السماوية الثلاثة والمعروفة بالديانات الإبراهيمية (اليهودية، المسيحية، الإسلام)، وهي ثاني أكثر الديانات أتباعا في العالم.</t>
-  </si>
-  <si>
-    <t>تعني كلمة التوراة بالعبرية التعليم أو التوجيه الترئية بالمعنى الحرفي وخصوصاً فيما يتعلق بالتعليمات والتوجيهات القانونية، وترمز التوراة للأسفار الخمسة الأُولى من الكتاب المقدّس اليهودي التناخ. وينقسم الكتاب المقدس اليهودي إلى ثلاثة أقسام، التوراة في قسمه الأول، ن?يئيم أنبياء، وهو القسم المتعلق بالأنبياء، وكيتو?يم أو الكتب بالعربية وهو قسم الأدبيات اليهودية.لا تتكون التوراة من نظام تشريعي متكامل أو منظّم بل تتكون من خطوط فلسفية عريضة ذات علاقة بالدين اليهودي، فضلاً عن إحتواءها على كثير من القوانين والسنن الواضحة والمحددة والتي تحكم تصرّفات البشر، وتتشابه هذه القوانين التوراتية بالقوانين والسنن من الشرق الأدنى القديم.لا يختلف اليهود ان التوراة هي الكلمة الفصل عندما يتعلق الأمر بالديانية اليهودية أو كمرجع يرجع إليه اليهود في الأمور العقائدية، وينظر اليهود إلى التوراة على أنّها كلام الله أملئه على نبيّه موسى في طور سيناء.تتباين رؤية الإسلام عن الرؤية اليهودية في مسألة التوراة، إذ يتّفق الفريقان أن التوراة من عند الله أنزلها على موسى كما توضّح الآية 3 من سورة آل عمران "نَزَّلَ عَلَيْكَ الْكِتَابَ بِالْحَقِّ مُصَدِّقاً لِّمَا بَيْنَ يَدَيْهِ وَأَنزَلَ التَّوْرَاةَ وَالإِنجِيلَ.." والآية 53 من سورة البقرة "وَإِذْ آتَيْنَا مُوسَى الْكِتَابَ وَالْفُرْقَانَ لَعَلَّكُمْ تَهْتَدُونَ". فالتوراة من عند الله ولكن يعتقد المسلمون بأن توراة اليوم طرأ عليها زيادة ونقصان (تحريف بشكل عام) مقارنة بالتوراة المنزّلة على موسى.يؤمن المسيحيون بالكتب اليهودية والتي تسمى بالعهد القديم، أي ما قبل يسوع الذي يؤمن المسيحيون بأنه المسيح. والتوراة تتكون من الكتب الأسفار الخمسة الأولى من الكتاب المقدس .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعني كلمة التوراة بالعبرية التعليم او التوجيه الترئية بالمعنى الحرفي وخصوصاً فيما يتعلق بالتعليمات والتوجيهات القانونية، وترمز التوراة للاسفار الخمسة الاُولى من الكتاب المقدّس اليهودي التناخ. لا تتكون التوراة من نظام تشريعي متكامل او منظّم بل تتكون من خطوط فلسفية عريضة ذات علاقة بالدين اليهودي، فضلاً عن احتواءها على كثير من القوانين والسنن الواضحة والمحددة والتي تحكم تصرّفات البشر، وتتشابه هذه القوانين التوراتية بالقوانين والسنن من الشرق الادن. تتباين رؤية الاسلام عن الرؤية اليهودية في مسالة التوراة، اذ يتّفق الفريقان ان التوراة من عند الله انزلها على موسى كما توضّح الآية 3 من سورة آل عمران "نَزَّلَ عَلَيْكَ الْكِتَابَ بِالْحَقِّ مُصَدِّقاً لِّمَا بَيْنَ يَدَيْهِ وَاَنزَلَ التَّوْرَاةَ وَالاِنجِ.  فالتوراة من عند الله ولكن يعتقد المسلمون بان توراة اليوم طرا عليها زيادة ونقصان (تحريف بشكل عام) مقارنة بالتوراة المنزّلة على موسى. </t>
-  </si>
-  <si>
-    <t>تعني كلمة التوراة بالعبرية التعليم أو التوجيه الترئية بالمعنى الحرفي وخصوصاً فيما يتعلق بالتعليمات والتوجيهات القانونية، وترمز التوراة للأسفار الخمسة الأُولى من الكتاب المقدّس اليهودي التناخ.وينقسم الكتاب المقدس اليهودي إلى ثلاثة أقسام، التوراة في قسمه الأول، ن?يئيم أنبياء، وهو القسم المتعلق بالأنبياء، وكيتو?يمأو الكتب بالعربية وهو قسم الأدبيات اليهودية.لاتتكون التوراة من نظام تشريعي متكامل أو منظّم بل تتكون من خطوط فلسفية عريضة ذات علاقة بالدين اليهودي، فضلاً عن إحتواءها على كثير من القوانين والسنن الواضحة والمحددة والتي تحكم تصرّفات البشر، وتتشابه هذه القوانين التوراتية بالقوانين والسنن من الشرق الأدنى القديم.لا</t>
-  </si>
-  <si>
-    <t>الدين البهائي هو دين عالمي مستقل ينسبه البعض للإسلام رغم إصرار أتباعه على أنه دين سماوي مستقل برسوله، ومبادئه، وأحكامه، وهيئاته الإدارية المستقلة إستقلالا تاما عن الإسلام. أسسه الميرزا حسين علي النوري الملقب ببهاء الله في منتصف القرن التاسع عشر الميلادي. والدين البهائي معترف به رسميا في العديد من دول العالم وينتشر في أكثر من 235 بلدا ودولة، وله تمثيل غير حكومي في منظمة الأمم المتحدة منذ بداية نشأتها وكذلك في الاوساط العلمية والدينية والاقتصادية في العالم.يربط البهائيون بداية تاريخهم بوقت إعلان دعوة الباب في مدينة شيراز في إيران سنة 1844م 1260هـ. ،كانت البابية قد تأسست على يد الميرزا علي محمد رضا الشيرازي الذي أعلن أنه الباب لـ"من يظهره الله" وأنه هو المهدي المنتظر. وكان قد سبق ذلك فترة قصيرة نمت فيها حركات كانت تترقب مجيء الموعود الذي بشرت به الكتب السماوية وأحاديث الأنبياء والأئمة. وكانت الفرقة الشيخية التي أسسها الشيخ أحمد الاحسائي إحدى تلك الفرق التي أكدت على وشك قدوم الموعود المنتظر و تتلمذ الـملا حسين بشروئي  وهو أول من آمن بالباب على يد الشيخ أحمد الاحسائي ثم على يد السيد كاظم الرشتي بعد وفاة الشيخ أحمد.ولقد امن بالباب بعد ايمان الـملا حسين بشروئي 17 شخصا اخرين من ضمنهم امرأة واحدة تعرف بالطاهرة أو قرة العين. ومنح هؤلاء الثمانية عشر شخصا لقب حروف الحي. ومن ضمن الذين أيدوا دعوة الباب وكان لهم تأثيرا بالغا في تطورها شاب من النبلاء يدعى ميرزا حسين علي النوري الذي عرف فيما بعد ببهاء الله، وهو مؤسس الديانة البهائية. ونتيجة لذلك فان هناك ارتباط تاريخي بين البهائية والبابية.وبعد أن شاع أمر البابية قامت السلطات الإيرانية، بإيعاز من رجال الدين، بتعذيب البابين والقبض على الباب سنة 1847م وإيداعه السجن. وكانت إيران محكومة انذاك من قبل اسرة القاجار التركمانية. وظل أتباع الباب رغم حبسه يترددون عليه في السجن وأخذوا يظهرون إيمانهم به وبرسالته على عامة الناس. وازداد عدد اتباع الباب رغم حبسه وذلك بتيجة جهود اتباعه وقياداتهم. وأدى ذلك إلى ازدياد وطأة تعذيب البابيين الذي دوّن تفاصيله العديد من المؤرخين الشرقيين والغربيين. وفي نهاية المطاف أُعدم "الباب" سنة 1850م رميا بالرصاص أمام العامة رغم وساطة بعض الدول الغربية للصفح عنه ومن ضمنها روسيا وبريطانيا. وجاءت هذه الوساطة نتيجة التقارير التي أرسلها سفراء هذه الدول الذين شهدوا الاضطهاد العنيف الذي واجهه الباب وأتباعه. اضغظ هنا لاستعراض بعض تفاصيل هذة الاحداث. ضريح الباب في حيفاواستمرت الحكومة الإيرانية آنذاك بعملية القمع ضد البابين وقياداتهم ومن ضمنهم بهاء الله، حيث حبست بهاء الله وبعد ذلك نفته وأتباعه إلى العراق. وأقام بهاء الله في العراق عدة سنوات قام خلالها بتدبير شؤون البابين ولم شملهم. ولكن بتحريض من الحكومة الإيرانية، نفت الحكومة العثمانية بهاء الله استانبول، ثم إلى أدرنة، وبعد ذلك إلى فلسطين لإبعاده عن الأراضي الإيرانية وقطع علاقته بأتباعه. وتشير المصادر البهائية أن بهاء الله أعلن دعوته للعديد من إتباعه في حديقة الرضوان في بغداد قبل نفيه منها.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الدين البهائي هو دين عالمي مستقل ينسبه البعض للاسلام رغم اصرار اتباعه على انه دين سماوي مستقل برسوله، ومبادئه، واحكامه، وهيئاته الادارية المستقلة استقلالا تاما عن الاسلام.  اسسه الميرزا حسين علي النوري الملقب ببهاء الله في منتصف القرن التاسع عشر الميلادي. يربط البهائيون بداية تاريخهم بوقت اعلان دعوة الباب في مدينة شيراز في ايران سنة 1844م 1260هـ.  وكانت الفرقة الشيخية التي اسسها الشيخ احمد الاحسائي احدى تلك الفرق التي اكدت على وشك قدوم الموعود المنتظر و تتلمذ الـملا حسين بشروئي  وهو اول من آمن بالباب على يد الشيخ احمد الاحسائي ثم على يد السيد كاظم الرشتي بعد وفاة الشيخ احمد.  ومن ضمن الذين ايدوا دعوة الباب وكان لهم تاثيرا بالغا في تطورها شاب من النبلاء يدعى ميرزا حسين علي النوري الذي عرف فيما بعد ببهاء الله، وهو مؤسس الديانة البهائية.  ونتيجة لذلك فان هناك ارتباط تاريخي بين البهائية والبابية.  وكانت ايران محكومة انذاك من قبل اسرة القاجار التركمانية.  وازداد عدد اتباع الباب رغم حبسه وذلك بتيجة جهود اتباعه وقياداتهم.  واقام بهاء الله في العراق عدة سنوات قام خلالها بتدبير شؤون البابين ولم شملهم.  وتشير المصادر البهائية ان بهاء الله اعلن دعوته للعديد من اتباعه في حديقة الرضوان في بغداد قبل نفيه منها. </t>
-  </si>
-  <si>
-    <t>الدين البهائي هو دين عالمي مستقل ينسبه البعض للإسلام رغم إصرار أتباعه على أنه دين سماوي مستقل برسوله، ومبادئه، وأحكامه، وهيئاته الإدارية المستقلة إستقلالا تاما عن الإسلام.أسسه الميرزا حسين علي النوري الملقب ببهاء الله في منتصف القرن التاسع عشر الميلادي.والدين البهائي معترف به رسميا في العديد من دول العالم وينتشر في أكثر من 235 بلدا ودولة، وله تمثيل غير حكومي في منظمة الأمم المتحدة منذ بداية نشأتها وكذلك في الاوساط العلمية والدينية والاقتصادية في العالم.يربطالبهائيون بداية تاريخهم بوقت إعلان دعوة الباب في مدينة شيراز في إيران سنة 1844م 1260هـ.،كانت البابية قد تأسست على يد الميرزا علي محمد رضا الشيرازي الذي أعلن أنه الباب لـ"من يظهره الله" وأنه هو المهدي المنتظر.وكان قد سبق ذلك فترة قصيرة نمت فيها حركات كانت تترقب مجيء الموعود الذي بشرت به الكتب السماوية وأحاديث الأنبياء والأئمة.ومن ضمن الذين أيدوا دعوة الباب وكان لهم تأثيرا بالغا في تطورها شاب من النبلاء يدعى ميرزا حسين علي النوري الذي عرف فيما بعد ببهاء الله، وهو مؤسس الديانة البهائية.ونتيجة لذلك فان هناك ارتباط تاريخي بين البهائية والبابية.وبعدأن شاع أمر البابية قامت السلطات الإيرانية، بإيعاز من رجال الدين، بتعذيب البابين والقبض على الباب سنة 1847م وإيداعه السجن.وفي نهاية المطاف أُعدم "الباب" سنة 1850م رميا بالرصاص أمام العامة رغم وساطة بعض الدول الغربية للصفح عنه ومن ضمنها روسيا وبريطانيا.</t>
-  </si>
-  <si>
-    <t>بوذية هي ديانة غير الوهية وهي من الديانات الرئيسية في العالم، تم تأسيسها عن طريق التعاليم التي تركها بوذا المتيقظ. نشأت البوذية في شمالي الهند وتدريجياً انتشرت في أنحاء أسيا، التيبت فسريلانكا، ثم إلى الصين، منغوليا، كوريا، فاليابان.تتمحور العقيدة البوذية حول 3 أمور  أولها، الإيمان ببوذا كمعلّم مستنير للعقيدة البوذية، ثانيها، الإيمان بدهارما، وهي تعاليم بوذا وتسمّى هذه التعاليم بالحقيقة، ثالثها وآخرها، المجتمع البوذي. تعني كلمة بوذا بلغة بالي الهندية القديمة، الرجل المتيقّظ. تجدر الإشارة إلى ان اللفظ الأصلي لمؤسس الديانة البوذية بوذا هو بودا، بالدّال، وليس بالذال.كانت البوذية في الأصل حركة رُهبانية نشأت داخل التقاليد البراهمانية، تحولت عن مسارها عندما قام بوذا بإنكار المبادئ الأساسية في الفلسفة الهندوسية، بالإضافة إلى رفضه وِصاية السُلطة الكَهنوتية، كما لم يرد أن يعترف بأهلِية كتابات الفيدا، وكذا مظاهر وطقوس عبادة الآلِهات التي كانت تقوم عليها. كانت التعاليم الجديدة التي بشر بها موجهة للرجال والنساء و إلى كل الطبقات الاجتماعية بدون استثناء. كان بوذا يرفض المبدأ القائل بأن القيمة الروحية للإنسان تتَحدَد عند ولادته نظام الطبقات الاجتماعية الهندوسي. تتواجد البوذية اليوم في صورتين: العقيدة الأصلية المسماة ثيرافادا أو "هينايانا ومعناها العربة الصغيرة، ثم الماهايانا أو العربة الكبيرة.انتشرت البوذية في بلدان عديدة: الهند، سريلانكا، تايلاند، كمبوديا، برمانيا، لاوس، ويسود مذهب "ثيرافادا" في هذه الدول، فيما انتشر مذهب "ماهايانا" في كل من الصين، اليابان، تايوان، التبت، النيبال، منغوليا، كوريا، فيتنام، وبعض الأجزاء من الهند. يتواجد في العالم حوالي 150 مليون إلى 300 مليون شخص من معتنقي هذه الديانة. تعتبر عملية إحصاء عدد المنتسبين لهذه الديانة في البلدان الآسيوية مشكلة عويصة نظرا لتعوُد الناس على اعتناق خليط من المعتقدات في آن واحد، كما أن بعض البلدان مثل الصين تمنع إجراء مثل هذه الإحصاءات نظرا لحساسية الموضوع الديني.إن أولى المعلومات عن حياة بوذا لا تعدوا كونها مجرد آثار شفوية متناثرة، لم تظهر أولى الترجمات الكاملة لحياته إلا بعد وفاته بسنين، غير أن المؤرخون يُجمعون على أن تاريخ مولده كان في منتصف القرن الـ6 قبل الميلاد.ولد بوذا واسمه الحقيقي سيدارتا غاوثاما، في كايبافاستو، على الحدود الفاصلة بين الهند والنيبال. كان والِدُه حاكما على مملكة صغيرة. تقول الأسطورة أنه وعند مولده تنبأ له بعض الحكماء بأن تكون له حياةٌ استثنائية وأن يصبح أحد اثنين، حكيما أو سُلطانا. تربَى الأمير الشاب في رعاية والده وعاش حياة باذخة وناعمة، حتى إذا بلغ سن التاسعة والعشرين، أخد يتدبر أمرهُ وتبين له كم كانت حياته فارغة ومن غير معنى. قام بترك الملذات الدنيوية، وذهب يبحث عن الطمأنينة الداخلية وحالة التيقظ الاستنارة، محاولا أن يخرج من دورة التناسخ حسب التقاليد الهندوسية. قام بممارسة اليوغا لبعض السنوات، وأخضع نفسه لتمارين قاسية وكان الزهد والتقشف شعاره في هذه المرحلة من حياته.بعد سبع سنوات من الجُهد، تخلى غاوثاما عن هذه الطريقة، والتي لم تعُد تقنعه، واتبع طريقا وسطا بين الحياة الدنيوية وحياة الزُهّاد. كان يجلس تحت شجرة التين، والتي أصبحت تُعرف بشجرة الحكمة، ثم يأخذ في ممارسة التأمل، جرب حالات عديدة من التيقظ، حتى أصبح بوذيساتفا، أي أنه صار مؤهلا لأن يَرتقى إلى أعلى مرتبة وهي بوذا. في إحدى الليالي وبينما كان جالسا تحت شجرة التين، بلغ حالة الاستنارة، وأصبح بوذا، أي المتيقظ أو المستنير. بعد أن بلغ أعلى درجات الحقيقية، شرع بوذا يدعو إلى مذهبه، فتنقل من قرية إلى قرية، أخذ يجمع الناس من حوله، وأسس لطائفة من الرهبان عرفت باسم سانغا. كرس بوذا بقية حياته لتعليم الناس حقيقة دعوته.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بوذية هي ديانة غير الوهية وهي من الديانات الرئيسية في العالم، تم تاسيسها عن طريق التعاليم التي تركها بوذا المتيقظ. تتمحور العقيدة البوذية حول 3 امور  اولها، الايمان ببوذا كمعلّم مستنير للعقيدة البوذية، ثانيها، الايمان بدهارما، وهي تعاليم بوذا وتسمّى هذه التعاليم بالحقيقة، ثالثها وآخرها، المجتمع البوذي.  تجدر الاشارة الى ان اللفظ الاصلي لمؤسس الديانة البوذية بوذا هو بودا، بالدّال، وليس بالذال.  كان بوذا يرفض المبدا القائل بان القيمة الروحية للانسان تتَحدَد عند ولادته نظام الطبقات الاجتماعية الهندوسي.  تتواجد البوذية اليوم في صورتين: العقيدة الاصلية المسماة ثيرافادا او "هينايانا ومعناها العربة الصغيرة، ثم الماهايانا او العربة الكبيرة. انتشرت البوذية في بلدان عديدة: الهند، سريلانكا، تايلاند، كمبوديا، برمانيا، لاوس، ويسود مذهب "ثيرافادا" في هذه الدول، فيما انتشر مذهب "ماهايانا" في كل من الصين، اليابان، تايوان، التبت، النيبال، منغوليا، كوريا، فيتنام، وبعض الاجزاء من الهند. ولد بوذا واسمه الحقيقي سيدارتا غاوثاما، في كايبافاستو، على الحدود الفاصلة بين الهند والنيبال.  كان والِدُه حاكما على مملكة صغيرة.  قام بترك الملذات الدنيوية، وذهب يبحث عن الطمانينة الداخلية وحالة التيقظ الاستنارة، محاولا ان يخرج من دورة التناسخ حسب التقاليد الهندوسية.  كرس بوذا بقية حياته لتعليم الناس حقيقة دعوته. </t>
-  </si>
-  <si>
-    <t>بوذية هي ديانة غير الوهية وهي من الديانات الرئيسية في العالم، تم تأسيسها عن طريق التعاليم التي تركها بوذا المتيقظ.نشأت البوذية في شمالي الهند وتدريجياً انتشرت في أنحاء أسيا، التيبت فسريلانكا، ثم إلى الصين، منغوليا، كوريا، فاليابان.تتمحورالعقيدة البوذية حول 3 أمور  أولها، الإيمان ببوذا كمعلّم مستنير للعقيدة البوذية، ثانيها، الإيمان بدهارما، وهي تعاليم بوذا وتسمّى هذه التعاليم بالحقيقة، ثالثها وآخرها، المجتمع البوذي.تعني كلمة بوذا بلغة بالي الهندية القديمة، الرجل المتيقّظ.تجدر الإشارة إلى ان اللفظ الأصلي لمؤسس الديانة البوذية بوذا هو بودا، بالدّال، وليس بالذال.كانتالبوذية في الأصل حركة رُهبانية نشأت داخل التقاليد البراهمانية، تحولت عن مسارها عندما قام بوذا بإنكار المبادئ الأساسية في الفلسفة الهندوسية، بالإضافة إلى رفضه وِصاية السُلطة الكَهنوتية، كما لم يرد أن يعترف بأهلِية كتابات الفيدا، وكذا مظاهر وطقوس عبادة الآلِهات التي كانت تقوم عليها.كانت التعاليم الجديدة التي بشر بها موجهة للرجال والنساء و إلى كل الطبقات الاجتماعية بدون استثناء.كان بوذا يرفض المبدأ القائل بأن القيمة الروحية للإنسان تتَحدَد عند ولادته نظام الطبقات الاجتماعية الهندوسي.تتواجد البوذية اليوم في صورتين: العقيدة الأصلية المسماة ثيرافادا أو "هينايانا ومعناها العربة الصغيرة، ثم الماهايانا أو العربة الكبيرة.انتشرتالبوذية في بلدان عديدة: الهند، سريلانكا، تايلاند، كمبوديا، برمانيا، لاوس، ويسود مذهب "ثيرافادا" في هذه الدول، فيما انتشر مذهب "ماهايانا" في كل من الصين، اليابان، تايوان، التبت، النيبال، منغوليا، كوريا، فيتنام، وبعض الأجزاء من الهند.</t>
-  </si>
-  <si>
-    <t>الزرادشتية أو المجوسية ديانة أسّسها زرادشت ترى العالم كصراع مستمر بين القوى الكونية المستقلة. وفي معتقدات هذه الديانة فإن أهورامزدا هو رب الخير أو الحكمة وخالق العالم المادي، وأنجرامينو هو كل الموت وروح الشرّ، وأن الإنسان هو كائن حرّ وعليه واجب مساعدة الانتصار لأهورامازدا. انتشرت هذه الديانة في إيران خصوصًا بعد ثمانية قرون من موت زرادشت، وبعد أن انحسرت إلى حد ما، ديانة الماجي المجوسية التي اقتصرت حينها على الملوك والكهنة.بشّر زرداشت بالقوة الشافية للعمل البنّاء، و قدّم مذهبا أخلاقيا يتألف القسطاس فيه من العدل والصدق والاعمال الجيدة. النار والشمس هما رمزا اهورامزدا، ولذلك ترتبط هذه الديانة بما يشبه عبادة النار.افيستا هو مختارات من الكتاب المقدس لهذا الدين، و لا تزال باقية حتى الان. كتبت هذه المختارات باللغة الأفيستانية، وهي لغة وثيقة بالفارسية القديمة والسنسكريتية الفيدية. جمع هذا الكتاب بعد وفاة زرداشت بزمن طويل، وتعرض للضياع عدة مرات. ويشمل خمس قصائد قديمة.ورغم انحسار الزرداشتية كديانة كانت واسعة الانتشار، إلا أن آثارها ظلت واضحة على العهد القديم والعهد الجديد.يعتبر الزرادشتيون ان الروح تهيم لمدة ثلاثة ايام بعد الوفاة قبل ان تنتقل إلى العالم الأخر ، يؤمن الزرادشتيون بالحساب حيث انهم يعتقدون ان الزرادشتي الصالح سيخلد إلى جانب زرادشت في حين ان الفاسق سيخلد في النار إلى جانب الشياطين.للزرادشتيين طقوس خاصة عند الوفاة حيث انهم يعتبرون الجسد نجسا لذا يجب عدم اختلاطه مع عناصر الحياة الثلاثة  الماء ، التراب و النار حتى لا يلوثها ، لذا وجب على الزرادشتيين عند وفاتهم ان يتركوا للطيور الجارحة على أبراج خاصة تسمى أبراج الصمت أو دخنه باللغة الفارسية حيث يقوم بهذه الطقوس رجال دين معينون ثم بعد ان تاكل الطيور جثة الميت يتم رمي العظام في فجوة خاصة في هذا البرج دون دفنها. ألا انه مؤخرا منذ نحو 50 عاما و عملا بنصيحة زرادشت و هي أن يتكيف الزرادشتيون مغ أي مجتمع يعيشون فيه فقد أبتكر الزرداشتيون طريقة جديدة في دفن موتاهم و هي ان يوضع جثمان الميت في صندوق معدني محكم الاغلاق و يدفن في قبر عادي مما يضمن عدم تلويثه لعناصر الحياة الثلاثة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الزرادشتية او المجوسية ديانة اسّسها زرادشت ترى العالم كصراع مستمر بين القوى الكونية المستقلة.  وفي معتقدات هذه الديانة فان اهورامزدا هو رب الخير او الحكمة وخالق العالم المادي، وانجرامينو هو كل الموت وروح الشرّ، وان الانسان هو كائن حرّ وعليه واجب مساعدة الانتصار لاهورامازدا.  انتشرت هذه الديانة في ايران خصوصًا بعد ثمانية قرون من موت زرادشت، وبعد ان انحسرت الى حد ما، ديانة الماجي المجوسية التي اقتصرت حينها على الملوك والكهنة. يعتبر الزرادشتيون ان الروح تهيم لمدة ثلاثة ايام بعد الوفاة قبل ان تنتقل الى العالم الاخر ، يؤمن الزرادشتيون بالحساب حيث انهم يعتقدون ان الزرادشتي الصالح سيخلد الى جانب زرادشت في حين ان الفاسق سيخلد في النار الى جانب الشياطين. للزرادشتيين طقوس خاصة عند الوفاة حيث انهم يعتبرون الجسد نجسا لذا يجب عدم اختلاطه مع عناصر الحياة الثلاثة  الماء ، التراب و النار حتى لا يلوثها ، لذا وجب على الزرادشتيين عند وفاتهم ان يتركوا للطيور الجارحة على ابراج خاصة تسمى ابراج الصمت او دخنه باللغة الف.  الا انه مؤخرا منذ نحو 50 عاما و عملا بنصيحة زرادشت و هي ان يتكيف الزرادشتيون مغ اي مجتمع يعيشون فيه فقد ابتكر الزرداشتيون طريقة جديدة في دفن موتاهم و هي ان يوضع جثمان الميت في صندوق معدني محكم الاغلاق و يدفن في قبر عادي مما يضمن عدم تلويثه لعناصر الحياة . </t>
-  </si>
-  <si>
-    <t>الزرادشتية أو المجوسية ديانة أسّسها زرادشت ترى العالم كصراع مستمر بين القوى الكونية المستقلة.وفي معتقدات هذه الديانة فإن أهورامزدا هو رب الخير أو الحكمة وخالق العالم المادي، وأنجرامينو هو كل الموت وروح الشرّ، وأن الإنسان هو كائن حرّ وعليه واجب مساعدة الانتصار لأهورامازدا.زرداشت بالقوة الشافية للعمل البنّاء، و قدّم مذهبا أخلاقيا يتألف القسطاس فيه من العدل والصدق والاعمال الجيدة.النار والشمس هما رمزا اهورامزدا، ولذلك ترتبط هذه الديانة بما يشبه عبادة النار.افيستاطقوس خاصة عند الوفاة حيث انهم يعتبرون الجسد نجسا لذا يجب عدم اختلاطه مع عناصر الحياة الثلاثة  الماء ، التراب و النار حتى لا يلوثها ، لذا وجب على الزرادشتيين عند وفاتهم ان يتركوا للطيور الجارحة على أبراج خاصة تسمى أبراج الصمت أو دخنه باللغة الفارسية حيث يقوم بهذه الطقوس رجال دين معينون ثم بعد ان تاكل الطيور جثة الميت يتم رمي العظام في فجوة خاصة في هذا البرج دون دفنها.ألا انه مؤخرا منذ نحو 50 عاما و عملا بنصيحة زرادشت و هي أن يتكيف الزرادشتيون مغ أي مجتمع يعيشون فيه فقد أبتكر الزرداشتيون طريقة جديدة في دفن موتاهم و هي ان يوضع جثمان الميت في صندوق معدني محكم الاغلاق و يدفن في قبر عادي مما يضمن عدم تلويثه لعناصر الحياة الثلاثة.</t>
-  </si>
-  <si>
-    <t>شركة تويوتا للمحركات هي شركة كبرى لصناعة السيارات يقع مقرها الرئيسي في مدينة تويوتا باليابان. بالإضافة إلى السيارات تقوم الشركة بتصنيع الشاحنات، الحافلات ، وسيارات صناعية مختلفة. تويوتا هي الشركة الأولى للسيارات في اليابان من حيث حجم الإنتاج والمبيعات، وهي المصنع الثاني على مستوى العالم بعد مجموعة جنرال موتورز الأمريكية. كما تعتبر تويوتا العلامة التجارية للسيارات الأكثر انتشارا في العالم، بالإضافة إلى أن شهيرتها كورولا هي أكثر السيارات التي بيعت في العالم منذ إطلاقها وحتى الآن أكثر من 23 مليون سيارة كورولا بيعت حتى الآن تضم مجموعة تويوتا كلا من لكزس و دايهاتسو و شاحنات هينو.قام كييتشيرو تويوتا، بتأسيس الشركة عام 1933 م، كان الأخير قد عاد للتو من جولة في الولايات المتحدة، واختار مصنع الغزل الذي كان يملكه أبوه لإقامة ورشة لصناعة السيارات، استطاع أن يطلق أولى النماذج سنة 1935 م. أثناء الحرب العالمية الثانية، قامت الحكومة اليابانية بإجبار الشركة على تصنيع الشاحنات لصالح القوات العسكرية. بعد نهاية الحرب قامت الشركة بإعادة تنظيم نفسها، قامت بإنتاج السيارات منذ 1947 م. إلا أزمة حلت عام 1947 م، وكادت أن تعصف بالشركة، تراكمت الديون عليها ولم يعد باستطاعة مالكها الالتزام بتسديد رواتب العاملين فيها، استقال تويودا في النهاية من منصب رئيس الشركة.شهدت سنة 1980 م تحولا كبيرا في عالم صناعة السيارات، فقد تفوقت اليابان لأول مرة على الولايات المتحدة، لتصبح أكبر مصنع للسيارات في العالم. قامت شركة تويوتا والتي أصبحت ثاني أكبر مصنع بعد جنرال موتور الأمريكية، بالتحالف مع غريمتها عام 1984 م، لإنشاء وحدات إنتاج جديدة في مدينة لكسنتن في ولاية كنتكي. خلال السنوات العشر التي تلت، قامت تويوتا باستثمار أزيد من 6,5 بليون دولار في شمال أمريكا. جاءت النتائج سريعة، مع حلول سنة 2001 م، أصبحت الشركة تستحوذ على 10% من سوق السيارات في القارة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شركة تويوتا للمحركات هي شركة كبرى لصناعة السيارات يقع مقرها الرئيسي في مدينة تويوتا باليابان.  بالاضافة الى السيارات تقوم الشركة بتصنيع الشاحنات، الحافلات ، وسيارات صناعية مختلفة.  تويوتا هي الشركة الاولى للسيارات في اليابان من حيث حجم الانتاج والمبيعات، وهي المصنع الثاني على مستوى العالم بعد مجموعة جنرال موتورز الامريكية. قام كييتشيرو تويوتا، بتاسيس الشركة عام 1933 م، كان الاخير قد عاد للتو من جولة في الولايات المتحدة، واختار مصنع الغزل الذي كان يملكه ابوه لاقامة ورشة لصناعة السيارات، استطاع ان يطلق اولى النماذج سنة 1935 م.  الا ازمة حلت عام 1947 م، وكادت ان تعصف بالشركة، تراكمت الديون عليها ولم يعد باستطاعة مالكها الالتزام بتسديد رواتب العاملين فيها، استقال تويودا في النهاية من منصب رئيس الشركة.  قامت شركة تويوتا والتي اصبحت ثاني اكبر مصنع بعد جنرال موتور الامريكية، بالتحالف مع غريمتها عام 1984 م، لانشاء وحدات انتاج جديدة في مدينة لكسنتن في ولاية كنتكي. </t>
-  </si>
-  <si>
-    <t>شركة تويوتا للمحركات هي شركة كبرى لصناعة السيارات يقع مقرها الرئيسي في مدينة تويوتا باليابان.بالإضافة إلى السيارات تقوم الشركة بتصنيع الشاحنات، الحافلات ، وسيارات صناعية مختلفة.تويوتا هي الشركة الأولى للسيارات في اليابان من حيث حجم الإنتاج والمبيعات، وهي المصنع الثاني على مستوى العالم بعد مجموعة جنرال موتورز الأمريكية.كما تعتبر تويوتا العلامة التجارية للسيارات الأكثر انتشارا في العالم، بالإضافة إلى أن شهيرتها كورولا هي أكثر السيارات التي بيعت في العالم منذ إطلاقها وحتى الآن أكثر من 23 مليون سيارة كورولا بيعت حتى الآن تضم مجموعة تويوتا كلا من لكزس و دايهاتسو و شاحنات هينو.قام كييتشيرو تويوتا، بتأسيس الشركة عام 1933 م، كان الأخير قد عاد للتو من جولة في الولايات المتحدة، واختار مصنع الغزل الذي كان يملكه أبوه لإقامة ورشة لصناعة السيارات، استطاع أن يطلق أولى النماذج سنة 1935 م. أثناء الحرب العالمية الثانية، قامت الحكومة اليابانية بإجبار الشركة على تصنيع الشاحنات لصالح القوات العسكرية.بعد نهاية الحرب قامت الشركة بإعادة تنظيم نفسها، قامت بإنتاج السيارات منذ 1947 م. إلا أزمة حلت عام 1947 م، وكادت أن تعصف بالشركة، تراكمت الديون عليها ولم يعد باستطاعة مالكها الالتزام بتسديد رواتب العاملين فيها، استقال تويودا في النهاية من منصب رئيس الشركة.شهدت</t>
-  </si>
-  <si>
-    <t>الانسان الآلي (أو الروبوت) (بالإنجليزية: Robot) عبارة عن أداة ميكانيكية قادرة على القيام بفعاليات مبرمجة سلفا ويقوم الانسان الآلي بإنجاز تلك الفاليات إما بإيعاز وسيطرة مباشرة من الإنسان او بإيعاز من برامج حاسوبية والفعاليات التي تبرمج الانسان على أداءها عادة تكون فعاليات شاقة او خطيرة مثل البحث عن الألغام والفضاء الخارجي وتنظيف الفضلات الناتجة في المفاعلات النووية . تم تقديم كلمة انسانة لأول مرة في مسرحية الكاتب المسرحي التشيكي كارل كابك عام 1920 .و كان عنوان المسرحية وقتها رجال آليون عالميون . وهي تعني في اللغة التشيكية تعني العمل الشاق رغم أن كارل هو أول من استعمل هذه الكلمة، لكن ليس من اخترعها، بل أخوه جوزيف الذي اشتقها مساعدة منه لأخيه من الكلمة التشيكية "Robota" والتي تعني السُخرة أو العمل الجبري . من هذا التاريخ بدأت هذه الكلمة تنتشر في الكتب و أفلام الخيال العلمي الأولى التي أعطت فكرة و تصور علمي عن هؤلاء الرجال الآليون الذين سيغزون العالم. و أعطت أفق كبير ووعود عظيمة للإنسان الأعجوبة الذي سيتدخل في أمور كثيرة و أهمها الصناعة .وضع الكثير من الدراسات و التوقعات عن هذا الإنسان الآلي التي فشلت فيما بعد . و لكن بعد الكثير من وضع التصاميم الجيدة و الانتباه الجاد إلى الكثير من التفصيلات و الأمور الدقيقة ، نجح المهندسون في تقديم أنظمة آلية متنوعة للكثير من الصناعات المتوقعة في المستقبل القريب . و اليوم و بسبب التطور الهائل للحواسيب و الذكاء الإصطناعي و التقنيات و الهوس في تطوير البرامج الفضائية فنحن على حافة إنجاز كبير آخر في مجال علوم تصميم الانسالات . إذ أن الانسان الآلي هو مناول قابل للبرمجة ثانية و يستطيع القيام بمهام عديدة و يخصص لتحريك مواد ، أجزاء ،و أدوات أو ماكينات معينة عبر حركات مختلفة البرمجة لأداء عدد من المهام.هناك جدل حول التعريف الدقيق للانسانة فلا يعتبر البعض سيارة او طائرة ذو تحكم بعيد انسان آلي لعدم إمتلاكها وسيلة التفكير وإتخاذ القرار بنفسها ويورد البعض مثالا بانه اذا كان بإستطاعة الانسان الآلي ان ينفذ برنامج معد سلفا بإبتعادها عن حاجز خطوتين إلى الوراء على سبيل المثال والإتجاه نحو اليمين او اليسار و الإستمرار بالتقدم فإن هذا يمكن إعتباره انسالة حقيقية. الفكرة في هذا الجدل ان الانسالة الحقيقية حسب إعتقاد البعض يجب ان تمتلك ذكاء اصطناعي ولها القدرة على تمييز الأنماط والتعرف على النظم و الإستدلال والإستنتاج ومع التطور يبدوا ان هناك ترتيبا طبقيا حتى في الانسالات فهناك الانسالة الثابتة العاملة وهناك المتحركة المرنة وهناك الطبقة الذكية الشبه مستقلة القادرة علىالتعلم .هناك انواع عديدة من الإنسان الآلي منها ما يستعمل في صناعي والتي هي عبارة عن اجهزة أتوماتيكية يمكن تطويعها و إعادة برمجتها ويستعمل لأغراض عديدة بإمكانها الحركة على ثلاثة محاور او أكثر ويستعمل هذا النوع في الشركات الصناعية الكبرى لغرض لحم المعادن و الصباغة والكوي وإلتقاط ونقل اجسام ومراقبة جودة او صلاحية جودة الناتج النهائي للمصنع قبل التصدير وهذه الانسالات مبرمجة عادة لتنفيذ مهامها بصورة سريعة و مكررة و دقيقة وتم لاحقا إضافة مايسمى النظر آلي Computer vision لهذه الانسالةات مما جعلتها تتمتع بنوع من الإستقلالية و المرونة في تنفيذ المهام المبرمجة بقدرتها على فهم وتحليل الصور التي تستقبلها في حاسوب خاص مثبت في الانسالة.هناك من الإنسان الآلي قادر على الحركة و الإنتقال ومنها طائرة بدون طيار ، البريداتور والطائرات ذات التحكم الذاتي التي تستعمل شبكات عصبونية اصطناعية مثلا و يعتبر الانسالةان اللتان ارسلتهما ناسا في عام 2004 إلى سطح المريخ من أشهر الانسالةات المتحركة . وهناك منه ما هو قادر على إعادة تجميع نفسه بصورة شبه مستقلة على سبيل المثال تصغير حجمه للمرور خلال نفق ضيق وهذه الانسالةات تحوي في نموذجها على عدة روابط مع وحدة المعالجة المركزية و ومستقبلات الإيعزات و الذاكرة وهذه الانسالةات قادرة على بعض الحركات الشبه مطاطية لإحتواءها على وحدة مرنة إما عن طريق تحويل طاقة الهواء المضغوط في إسطوانات إلى حركات خطية او دورانية يتم الحركة بتحويل الطاقة الكهربائية إلى طاقة حركية وهناك اساليب متطورة اخرى عديدة ومنها اسلوب أداة المرآة الدقيقة الرقمي Digital micromirror device التي ظهرت لأول مرة في عام 1987 وكانت فكرتها نصب عدة آلاف مرايا دقيقة وصغيرة جدا في الانسالة تتجاوب مع عنصر الصورة لإضافة مرونة أكثر في حركة وردة فعل الانسالة.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الانسان الآلي (او الروبوت) (بالانجليزية: Robot) عبارة عن اداة ميكانيكية قادرة على القيام بفعاليات مبرمجة سلفا ويقوم الانسان الآلي بانجاز تلك الفاليات اما بايعاز وسيطرة مباشرة من الانسان او بايعاز من برامج حاسوبية والفعاليات التي تبرمج الانسان على اداءها ع. وضع الكثير من الدراسات و التوقعات عن هذا الانسان الآلي التي فشلت فيما بعد .  و لكن بعد الكثير من وضع التصاميم الجيدة و الانتباه الجاد الى الكثير من التفصيلات و الامور الدقيقة ، نجح المهندسون في تقديم انظمة آلية متنوعة للكثير من الصناعات المتوقعة في المستقبل القريب .  و اليوم و بسبب التطور الهائل للحواسيب و الذكاء الاصطناعي و التقنيات و الهوس في تطوير البرامج الفضائية فنحن على حافة انجاز كبير آخر في مجال علوم تصميم الانسالات . هناك انواع عديدة من الانسان الآلي منها ما يستعمل في صناعي والتي هي عبارة عن اجهزة اتوماتيكية يمكن تطويعها و اعادة برمجتها ويستعمل لاغراض عديدة بامكانها الحركة على ثلاثة محاور او اكثر ويستعمل هذا النوع في الشركات الصناعية الكبرى لغرض لحم المعادن و الصباغة . هناك من الانسان الآلي قادر على الحركة و الانتقال ومنها طائرة بدون طيار ، البريداتور والطائرات ذات التحكم الذاتي التي تستعمل شبكات عصبونية اصطناعية مثلا و يعتبر الانسالةان اللتان ارسلتهما ناسا في عام 2004 الى سطح المريخ من اشهر الانسالةات المتحركة .  وهناك منه ما هو قادر على اعادة تجميع نفسه بصورة شبه مستقلة على سبيل المثال تصغير حجمه للمرور خلال نفق ضيق وهذه الانسالةات تحوي في نموذجها على عدة روابط مع وحدة المعالجة المركزية و ومستقبلات الايعزات و الذاكرة وهذه الانسالةات قادرة على بعض الحركات الشبه م. </t>
-  </si>
-  <si>
-    <t>الانسان الآلي (أو الروبوت) (بالإنجليزية: Robot) عبارة عن أداة ميكانيكية قادرة على القيام بفعاليات مبرمجة سلفا ويقوم الانسان الآلي بإنجاز تلك الفاليات إما بإيعاز وسيطرة مباشرة من الإنسان او بإيعاز من برامج حاسوبية والفعاليات التي تبرمج الانسان على أداءها عادة تكون فعاليات شاقة او خطيرة مثل البحث عن الألغام والفضاء الخارجي وتنظيف الفضلات الناتجة في المفاعلات النووية .تم تقديم كلمة انسانة لأول مرة في مسرحية الكاتب المسرحي التشيكي كارل كابك عام 1920 .وو أعطت أفق كبير ووعود عظيمة للإنسان الأعجوبة الذي سيتدخل في أمور كثيرة و أهمها الصناعة .وضعالفكرة في هذا الجدل ان الانسالة الحقيقية حسب إعتقاد البعض يجب ان تمتلك ذكاء اصطناعي ولها القدرة على تمييز الأنماط والتعرف على النظم و الإستدلال والإستنتاج ومع التطور يبدوا ان هناك ترتيبا طبقيا حتى في الانسالات فهناك الانسالة الثابتة العاملة وهناك المتحركة المرنة وهناك الطبقة الذكية الشبه مستقلة القادرة علىالتعلم .هناكانواع عديدة من الإنسان الآلي منها ما يستعمل في صناعي والتي هي عبارة عن اجهزة أتوماتيكية يمكن تطويعها و إعادة برمجتها ويستعمل لأغراض عديدة بإمكانها الحركة على ثلاثة محاور او أكثر ويستعمل هذا النوع في الشركات الصناعية الكبرى لغرض لحم المعادن و الصباغة والكوي وإلتقاط ونقل اجسام ومراقبة جودة او صلاحية جودة الناتج النهائي للمصنع قبل التصدير وهذه الانسالات مبرمجة عادة لتنفيذ مهامها بصورة سريعة و مكررة و دقيقة وتم لاحقا إضافة مايسمى النظر آلي Computer vision لهذه الانسالةات مما جعلتها تتمتع بنوع من الإستقلالية و المرونة في تنفيذ المهام المبرمجة بقدرتها على فهم وتحليل الصور التي تستقبلها في حاسوب خاص مثبت في الانسالة.هناكمن الإنسان الآلي قادر على الحركة و الإنتقال ومنها طائرة بدون طيار ، البريداتور والطائرات ذات التحكم الذاتي التي تستعمل شبكات عصبونية اصطناعية مثلا و يعتبر الانسالةان اللتان ارسلتهما ناسا في عام 2004 إلى سطح المريخ من أشهر الانسالةات المتحركة .وهناك منه ما هو قادر على إعادة تجميع نفسه بصورة شبه مستقلة على سبيل المثال تصغير حجمه للمرور خلال نفق ضيق وهذه الانسالةات تحوي في نموذجها على عدة روابط مع وحدة المعالجة المركزية و ومستقبلات الإيعزات و الذاكرة وهذه الانسالةات قادرة على بعض الحركات الشبه مطاطية لإحتواءها على وحدة مرنة إما عن طريق تحويل طاقة الهواء المضغوط في إسطوانات إلى حركات خطية او دورانية يتم الحركة بتحويل الطاقة الكهربائية إلى طاقة حركية وهناك اساليب متطورة اخرى عديدة ومنها اسلوب أداة المرآة الدقيقة الرقمي Digital micromirror device التي ظهرت لأول مرة في عام 1987 وكانت فكرتها نصب عدة آلاف مرايا دقيقة وصغيرة جدا في الانسالة تتجاوب مع عنصر الصورة لإضافة مرونة أكثر في حركة وردة فعل الانسالة.</t>
-  </si>
-  <si>
-    <t>مايكروسوفت (بالإنجليزية: Microsoft) شركة دوليّة تعمل في مجال تقنيات الحاسوب، يبلغ دخلها السنوي 44 بليون دولار، ويعمل بها 71,553 في 102 دولة. تطوّر وتصنِّع وترخِّص مدى واسعا من البرمجيات للأجهزة الحاسوبيّة.يقع المقر الرئيسي للشركة في ضاحية ريدمونت، سياتل، واشنطن، الولايات المتّحدة. عند تأسيس شركة مايكروسوفت، اتخذ كل من بيل غيتس و بول آلان من مدينة ألبوكويركو في ولاية نيو مكسيكو مقرا للشركة ومن ثمة انتقلت الشركة إلى موقعها الحالي. تجدر الإشارة أن بيل غيتس وبول آلان هما المؤسسين والملاك لهذه الشركة قبل أن تصبح من الشركات العامة والمتداولة في أسواق الأسهم.تأسست شركة مايكروسوفت في العام 1975 م كشركة لتسويق معالجات بيسك واشتهرت شركة مايكروسوفت بهذا المنتج نظراً لجودته وتسابقت باقي الشركات لتزويد السوق بمعالجات بيسك المتوافقة مع معالج بيسك من شركة مايكروسوفت. نتيجة تكالب الشركات في السباق آنف الذّكر، أصبح معالج بيسك والمُنتج من قِبل شركة ميكروسوفت بمثابة المقياس في معالجات بيسك وهيمنت شركة مايكروسوفت على سوق معالجات بيسك وقام كل من بيل غايتس وبول آلان بتسجيل الماركة التجارية "مايكروسوفت" في 26 نوفمبر 1976.أوّل نظام تشغيل أصدرته ميكروسوفت كان نسخة من نظام يونكس في 1980. اشترتها من شركة AT&amp;T عبر ترخيص توزيع، أسمته ميكروسوفت بالإسم Xenix ووظفت شركة Santa Cruz Operation لتطويعه ليعمل على أكثر من منصّة تشغيل. لم تبِع ميكروسوفت هذا النظام للمستخدم مباشرة، بل عبر بيعه لمصنِّعي الحواسيب. ومع منتصف الثمينينات خرجت ميكروسوفت من سوق يونكس تماما.في أواخر العام 1980 م احتاجت شركة أي بي أم نظام تشغيل لجهاز الكمبيوترالشخصي المزمع طرحه في الأسواق فقامت شركة مايكروسوفت بدور الوسيط بين شركة "سياتل كومبيوتر برودكتس" وشركة IBM لإستعمال نظام التشغيل QDOS من قبل الشركة الأولى على الأجهزة الشخصية IBM. قامت شركة مايكروسوفت في النهاية بشراء الحقوق التجارية لـ QDOS وأسمته MS-DOS. وقامت شركة IBM بطرح الكمبيوتر الشخصي في العام 1981 وكان نظام التشغيل الملحق بالجهاز يسمى PC-DOS وقامت شركة مايكروسوفت بحفظ حقوقها تجاه المنتج MS-DOS ومنح ترخيص تجاري لـ IBM لتسويق PC-DOS كنظام لتشغيل أجهزة IBM.سمحت الصفقة مع IBM لميكروسوفت بأن تتحكم في نسختها الخاصة من النظام، ومع انتشار الحواسيب المتوافقة مع IBM وسياسة تسويق واسعة، تحوّلت ميكروسوفت من لا عب صغير إلى أحد المنتجين الرئيسيين للبرمجيات في سوق الحواسيب المنزليّة.لم تكن البرامج المستخدمة على أجهزة الكمبيوتر الشخصي أفضل من الناحية الفنية عن نظيراتها المستخدمة على أجهزة الكمبيوتر العملاقة ولكن إمتازت الأولى عن الثانية بأنها أعطت درجة من الحرية في استخدام هذه البرامج بشكل أفضل ناهيك عن رخص تكلفة البرامج التي تعمل على أجهزة الكمبيوتر الشخصية بالمقارنة مع تكلفة نفس البرامج التي تعمل على أجهزة الكمبيوتر العملاقة. تجدر الأشارة أن أحد أهم أسباب سرعة هيمنة شركة مايكروسوفت على عالم البرمجيات هي الطفرة في إنتشار الحاسب الشخصي في حقبة الثمانينات من القرن الماضي.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مايكروسوفت (بالانجليزية: Microsoft) شركة دوليّة تعمل في مجال تقنيات الحاسوب، يبلغ دخلها السنوي 44 بليون دولار، ويعمل بها 71,553 في 102 دولة.  تطوّر وتصنِّع وترخِّص مدى واسعا من البرمجيات للاجهزة الحاسوبيّة. يقع المقر الرئيسي للشركة في ضاحية ريدمونت، سياتل، واشنطن، الولايات المتّحدة.  عند تاسيس شركة مايكروسوفت، اتخذ كل من بيل غيتس و بول آلان من مدينة البوكويركو في ولاية نيو مكسيكو مقرا للشركة ومن ثمة انتقلت الشركة الى موقعها الحالي. تاسست شركة مايكروسوفت في العام 1975 م كشركة لتسويق معالجات بيسك واشتهرت شركة مايكروسوفت بهذا المنتج نظراً لجودته وتسابقت باقي الشركات لتزويد السوق بمعالجات بيسك المتوافقة مع معالج بيسك من شركة مايكروسوفت. </t>
-  </si>
-  <si>
-    <t>مايكروسوفت (بالإنجليزية: Microsoft) شركة دوليّة تعمل في مجال تقنيات الحاسوب، يبلغ دخلها السنوي 44 بليون دولار، ويعمل بها 71,553 في 102 دولة.نتيجة تكالب الشركات في السباق آنف الذّكر، أصبح معالج بيسك والمُنتج من قِبل شركة ميكروسوفت بمثابة المقياس في معالجات بيسك وهيمنت شركة مايكروسوفت على سوق معالجات بيسك وقام كل من بيل غايتس وبول آلان بتسجيل الماركة التجارية "مايكروسوفت" في 26 نوفمبر 1976.أوّل نظام تشغيل أصدرته ميكروسوفت كان نسخة من نظام يونكس في 1980.وقامت شركة IBM بطرح الكمبيوتر الشخصي في العام 1981 وكان نظام التشغيل الملحق بالجهاز يسمى PC-DOS وقامت شركة مايكروسوفت بحفظ حقوقها تجاه المنتج MS-DOS ومنح ترخيص تجاري لـ IBM لتسويق PC-DOS كنظام لتشغيل أجهزة IBM.سمحت الصفقة مع IBM لميكروسوفت بأن تتحكم في نسختها الخاصة من النظام، ومع انتشار الحواسيب المتوافقة مع IBM وسياسة تسويق واسعة، تحوّلت ميكروسوفت من لا عب صغير إلى أحد المنتجين الرئيسيين للبرمجيات في سوق الحواسيب المنزليّة.لمتكن البرامج المستخدمة على أجهزة الكمبيوتر الشخصي أفضل من الناحية الفنية عن نظيراتها المستخدمة على أجهزة الكمبيوتر العملاقة ولكن إمتازت الأولى عن الثانية بأنها أعطت درجة من الحرية في استخدام هذه البرامج بشكل أفضل ناهيك عن رخص تكلفة البرامج التي تعمل على أجهزة الكمبيوتر الشخصية بالمقارنة مع تكلفة نفس البرامج التي تعمل على أجهزة الكمبيوتر العملاقة.تجدر الأشارة أن أحد أهم أسباب سرعة هيمنة شركة مايكروسوفت على عالم البرمجيات هي الطفرة في إنتشار الحاسب الشخصي في حقبة الثمانينات من القرن الماضي.</t>
-  </si>
-  <si>
-    <t>شاشات اللمس أو ما يعرف بالـ Touch Screen وهي عبارة عن طبقة شفافة تغطي شاشة العرض في الجوالات أو الحاسبات اللوحية ، تقوم بالتحسس لحركات اليد وللكتابة عليها بواسطة قلم خاص.يوجد نوعين رئيسيين من شاشات اللمس وهما:شاشات اللمس المقاومة: وتعتمد على تغير المقاومة الكهربائية للنقطة الملموسة من الشاشة مما يتسبب بمرور تيار كهربائي يعبر عن النقطة الملموسة. من أهم حسناتها امكانية الكتابة عليها بواسطة القلم أما سيئتها الرئيسية فهي أنها تمتص جوالي 25% من الضوء المنبعث من الشاشة الأصلية مما يسبب خفوت إضائتها كما أن مبدأ عملها لا يدعم ميزة اللمس المتعددشاشات اللمس السعوية: وهو النوع الأحدث من شاشات اللمس، وتعتمد على فرق الكمون بين سطح الشاشة ورأس اصبع المستخدم لتوليد التيار الكهربائي المعبر عن مكان الإصبع على الشاشة، مستفيدةً من الشحنات الكهربائية التي يحملها جسم الإنسان. من أهم إيجابياتها دعمها للمس المتعدد وامتصاصها لـ 10% فقط من ضوء الشاشة الأصلية مما يزيد بشكل كبير في وضوحها. لكن وبسبب اعتمادها على الشحنات المحمولة في جسم الإنسان فإنها لا تقبل التعامل معها من خلال الأقلامتقوم شركة بلاك بيري بمحاولة دمج التقنيتين معاً في شاشة واحدة</t>
-  </si>
-  <si>
-    <t>شاشات اللمس أو ما يعرف بالـ Touch Screen وهي عبارة عن طبقة شفافة تغطي شاشة العرض في الجوالات أو الحاسبات اللوحية ، تقوم بالتحسس لحركات اليد وللكتابة عليها بواسطة قلم خاص.شاشات اللمس المقاومة: وتعتمد على تغير المقاومة الكهربائية للنقطة الملموسة من الشاشة مما يتسبب بمرور تيار كهربائي يعبر عن النقطة الملموسة.شاشات اللمس السعوية: وهو النوع الأحدث من شاشات اللمس، وتعتمد على فرق الكمون بين سطح الشاشة ورأس اصبع المستخدم لتوليد التيار الكهربائي المعبر عن مكان الإصبع على الشاشة، مستفيدةً من الشحنات الكهربائية التي يحملها جسم الإنسان.لكن وبسبب اعتمادها على الشحنات المحمولة في جسم الإنسان فإنها لا تقبل التعامل معها من خلال الأقلام</t>
-  </si>
-  <si>
-    <t>شاشات اللمس أو ما يعرف بالـ Touch Screen وهي عبارة عن طبقة شفافة تغطي شاشة العرض في الجوالات أو الحاسبات اللوحية ، تقوم بالتحسس لحركات اليد وللكتابة عليها بواسطة قلم خاص.يوجد نوعين رئيسيين من شاشات اللمس وهما:شاشات اللمس المقاومة: وتعتمد على تغير المقاومة الكهربائية للنقطة الملموسة من الشاشة مما يتسبب بمرور تيار كهربائي يعبر عن النقطة الملموسة.من أهم حسناتها امكانية الكتابة عليها بواسطة القلم أما سيئتها الرئيسية فهي أنها تمتص جوالي 25% من الضوء المنبعث من الشاشة الأصلية مما يسبب خفوت إضائتها كما أن مبدأ عملها لا يدعم ميزة اللمس المتعددشاشات اللمس السعوية: وهو النوع الأحدث من شاشات اللمس، وتعتمد على فرق الكمون بين سطح الشاشة ورأس اصبع المستخدم لتوليد التيار الكهربائي المعبر عن مكان الإصبع على الشاشة، مستفيدةً من الشحنات الكهربائية التي يحملها جسم الإنسان.من أهم إيجابياتها دعمها للمس المتعدد وامتصاصها لـ 10% فقط من ضوء الشاشة الأصلية مما يزيد بشكل كبير في وضوحها.</t>
+    <t>حرب اليمن أو حرب شمال اليمن الأهلية هي حرب دارت في شمال اليمن بين الموالين للمملكة ‏المتوكلية اليمنية والفصائل الموالية للجمهوريّة العربية اليمنية من 1962 إلى 1970 . وقد سيطرت الفصائل الجمهورية على الحكم في نهاية الحرب . 
+كان الجانب الملكي يتلقى الدعم من المملكة العربية السعودية، بينما تلقى الجانب الجمهوري الدعم من مصر والاتحاد السوفيتي . وقد جرت معارك الحرب الضارية في المدن والأماكن الريفية، وشارك فيها أفراد أجانب غير نظاميين فضلاً عن الجيوش التقليدية النظامية . 
+دارت رحى هذه الحرب في وضع عربي لا يمكن وصفه إلا بالتشرذم . فكانت الدول العربية مستقطبة بين المعسكرين الشرقي والغربي . وعاش العالم العربي العديد من الأزمات والحروب العربية-العربية (بالإضافة إلى الحرب في اليمن) مثل حرب الرمال بين الجزائر والمغرب وأزمة انفصال سوريا عن الجمهورية العربية المتحدة . وقد غرقت مصر بهذه الحرب مما أدى إلى إلحاق الضرر بسمعتها وأدائها خلال حرب 1967 واحتلال شبه جزيرة سيناء، هضبة الجولان والضفة الغربية بما فيها القدس من قبل إسرائيل . 
+وكان من نتائج هذه الحرب اعتراف المملكة العربية السعودية بالجمهورية العربية اليمنية عام 1970[3] وسبقها أيضاً انسحاب بريطانيا من اتحاد الجنوب العربي الذي كان يضم محميتها في عدن عام 1967 .</t>
+  </si>
+  <si>
+    <t>حرب اليمن أو حرب شمال اليمن الأهلية هي حرب دارت في شمال اليمن بين الموالين للمملكة ‏المتوكلية اليمنية والفصائل الموالية للجمهوريّة العربية اليمنية من 1962 إلى 1970 . 
+كان الجانب الملكي يتلقى الدعم من المملكة العربية السعودية، بينما تلقى الجانب الجمهوري الدعم من مصر والاتحاد السوفيتي .</t>
+  </si>
+  <si>
+    <t>حرب فيتنام أو الحرب الهندوصينية الثانية كانت نزاع بين جمهورية فيتنام الديموقراطية (فيتنام الشمالية)، متحالفة مع جبهة التحرير الوطنية، ضد جمهورية فيتنام (فيتنام الجنوبية) مع حلفائها (وكانت الولايات المتحدة الأمريكية إحداهم بين 13 سبتمبر 1956 و1973) . بدأت الحرب في 13 سبتمبر 1956 وإنتهت في 17 يونيو 1975 . 
+في عام 1957م بدأت قوات الفيت منه في الجنوب في التمرد على حكومة ديم . وقد عُرف هؤلاء بالفيت كونغ . وفي عام 1959م أعلنت فيتنام الشمالية تأييدها لهذه الفئة وأمرتها بشن كفاح شامل ضد حكومتها . وفي عام 1960م شكل الثوار جبهة التحرير الوطنية التي أوكلت إليها مهمة قيادة الثورة . ورويداً رويداً تشعبت الحرب وازدادت ضراوة . وفي الخمسينيات كانت الولايات المتحدة قد شرعت في إرسال مستشارين مدنيين وعسكريين لفيتنام الجنوبية . وبحلول عام 1965م بدأت في إرسال قوات عسكرية وشن غارات جوية على فيتنام الشمالية . واستمر التورط الأمريكي في هذه الحرب حتى عام 1973م ، علماً بأن الصين والاتحاد السوفييتي (سابقًا) كانا يمدان فيتنام الشمالية والفيت كونغ بالأسلحة والإمدادات . 
+كانت الولايات المتحدة، كوريا الجنوبية، تايلند، أستراليا، نيوزيلندا، والفلبين متحالفة مع فيتنام الجنوبية، بينما تحالف الاتحاد السوفياتي والصين مع فيتنام الشمالية . 
+انتهى الغزو الأمريكي في 17 يونيو 1975 باتحاد فيتنام الشمالية والجنوبية .</t>
+  </si>
+  <si>
+    <t>وقد عُرف هؤلاء بالفيت كونغ . 
+ورويداً رويداً تشعبت الحرب وازدادت ضراوة . 
+انتهى الغزو الأمريكي في 17 يونيو 1975 باتحاد فيتنام الشمالية والجنوبية .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصراع العربي الإسرائيلي هو النزاع و التوترات السياسية التي نشأت بين دولة إسرائيل منذ بداية تشكلها عام 1948 و بقية الدول و الكيانات العربية المجاورة أو البعيدة عن إسرائيل . الخلاف يتركز أساسا حول أحقية اليهود في الاستيلاء على أرض فلسطين و إقامة دولتهم القومية على أرضها طاردين سكان فلسطين الموجودين فيها . أي أن طبيعة هذا النزاع تتركز أساسا حول ما يسمى النزاع الفلسطيني الإسرائيلي . 
+يطلق البعض على هذا النزاع اسم نزاع الشرق الأوسط ليشير إلى تركزه في منطقة الشرق الأوسط لكن هذا المصطلح غامض قليلا بسبب وجود عدة صراعات في منطقة الشرق الأوسط لكن النزاع العربي الإسرائيلي يبقى الأساسي و المركزي بينها . هذا الصراع يرتبط عضويا بموضوع النزاع الفلسطيني الإسرائيلي فقضيته المحورية و سببه الأساسي هو إقامة دولة قومية دينية لليهود على أرض فلسطين . يعتبر من قبل الكثير من المحلللين و السياسين العرب سبب أزمة هذه المنطقة و توترها . بالرغم من أن هذا الصراع يحدث ضمن منطقة جغرافية صغيرة نسبيا ، إلا انه يحظى باهتمام سياسي و إعلامي كبير نظرا لتورط العديد من الأطراف الدولية فيه و غالبا ما تكون الدول العظمى في العالم منخرطة فيه نظرا لتمركزه في منطقة حساسة من العالم و ارتباطه بقضايا إشكالية تشكل ذروة أزمات لاعالم المعاصر : مثل الصراع بين الشرق و الغرب ، علاقة الأديان مع بعضها : اليهودية و المسيحية و الإسلام ، علاقات العرب مع الغرب و أهمية النفط العربي للدول الغربية ، أهمية و حساسية القضية اليهودية في الحضارة الغربية خصوصا بعد الحرب العالمية الثانية و الهولوكوست اليهودي و قضايا معاداة السامية و قوى ضغط اللوبيات اليهودية في العالم الغربي . على الصعيد العربي يعتبر الكثير من المفكرين و المنظرين العرب و حتى السياسيين أن قضية النزاع العربي الإسرائيلي هي القضية و الأزمة المركزية في المنطقة و كثيرا ما يربطها بعض المفكرين بقضايا النهضة العربية و قضايا الأنظمة الشمولية و ضعف الديمقراطيات في العالم العربي . الكثير من الأمور السياسية و الاقتصادية و أزمات حقوق الإنسان و قمع الحريات السياسية في دول الجوار الإسرائيلي يربطها سياسيو هذه الأنظمة بالصراع العربي الإسرائيلي و عدم السماح لمن يدعوهم "الخونة" بالتعامل مع إسرائيل "العدو الأكبر للعرب" . يتفرع عن هذه القضية موضوع أساسي يطرج من قبل العديد من الحكومات الغربية و على رأسها حكومة الولايات المتحدة الأمريكية و هي قضية السلام ، فمنذ توقيع الرئيس المصري أنور السادات لاتفاقية كامب ديفيد ثم اتفاقية أوسلو بين منظمة التحرير الفلسطينية بقيادة ياسر عرفات و رئيس وزراء إسرائيل المغتال إسحاق رابين ثم اتفاقية وادي عربة بين الأردن و إسرائيل نشأ استقطاب جديد بين الأنظمة لاعربية بين بعضها ، كما حصل تباعد واضح بين بعض الأنظمة العربية التي ترى أن السلام قد يكون مفيد مرحليا للعرب في ظل انعدام توازن القوى و بين الكثير من الجماهير العربية التي لا تقبل التسوية مع إسرائيل أو ما يختصر في الثقافة الرائجة باليهود . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصراع العربي الاسرائيلي هو النزاع و التوترات السياسية التي نشات بين دولة اسرائيل منذ بداية تشكلها عام 1948 و بقية الدول و الكيانات العربية المجاورة او البعيدة عن اسرائيل .  الخلاف يتركز اساسا حول احقية اليهود في الاستيلاء على ارض فلسطين و اقامة دولتهم القومية على ارضها طاردين سكان فلسطين الموجودين فيها .  الكثير من الامور السياسية و الاقتصادية و ازمات حقوق الانسان و قمع الحريات السياسية في دول الجوار الاسرائيلي يربطها سياسيو هذه الانظمة بالصراع العربي الاسرائيلي و عدم السماح لمن يدعوهم "الخونة" بالتعامل مع اسرائيل "العدو الاكبر للعرب" . يتفرع عن هذه القضية موضوع اساسي يطرج من قبل العديد من الحكومات الغربية و على راسها حكومة الولايات المتحدة الامريكية و هي قضية السلام ، فمنذ توقيع الرئيس المصري انور السادات لاتفاقية كامب ديفيد ثم اتفاقية اوسلو بين منظمة التحرير الفلسطينية بقيادة ياسر عرفا .  </t>
+  </si>
+  <si>
+    <t>الحرب العالمية الثانية هي نزاع دولي بدأ في 7 يوليو 1937 في آسيا و 1 سبتمبر 1939 في أوروبا وانتهت الحرب في عام 1945 باستسلام اليابان، تعد الحرب العالمية الثانية من الحروب الشموليةً وأكثرها كُلفة في تاريخ البشريةً لاتساع بقعة الحرب وتعدد مسارح المعركة، فكانت دول كثيرة طرفاً من أطراف النزاع . فقد حصدت الحرب العالمية الثانية زهاء 60 مليون نفس بشرية بين عسكري ومدني . تكبّد المدنيون خسائر في الأرواح إبّان الحرب العالمية الثانية أكثر من أي حرب عرفها التاريخ، ويعزى السبب لتقليعة القصف الجوي على المدن والقرى التي ابتدعها الجيش الألماني على مدن وقرى الحلفاء مما استدعى الحلفاء الرّد بالمثل، فسقط من المدنيين من سقط من كلا الطرفين . أضف إلى ذلك المذابح التي ارتكبها الجيش الياباني بحق الشّعبين الصيني والكوري إلى قائمة الضحايا المدنيين ليرتفع عدد الضحايا الأبرياء والجنود إلى 51 مليون قتيل، أي ما يعادل 2% من تعداد سكان العالم في تلك الفترة . الامتعاض من معاملة القوى المنتصرة لألمانيا و سوء و تردي الأوضاع الاقتصادية بسبب التكاليف الباهظة والديون التي تكبّدتها ألمانيا بعد الحرب العالمية الأولى وإبرام معاهدة فيرساي و الكساد الاقتصادي العالمي أهّل أدولف هتلر و حزبه اليميني المتطرّف إلى الأخذ بزمام الأمور واعتلاء كرسي الحكم في ألمانيا . ثم قام هتلر بتحدّي المعاهدات المبرمة بين ألمانيا والحلفاء بعد الحرب العالمية الأولى بالعمل على تطوير الجيش الألماني و حشد القوات والعتاد على الحدود الفرنسية الألمانية والاتحاد مع النمسا وضم أجزاء من تشيكوسلوفاكيا بمباركة أنجلو-فرنسية . في العام 1922، وصل "بينيتو موسوليني" و حزبه الفاشي إلى دفّة الحكم في إيطاليا، و يتّفق كل من الحزب الفاشي بقيادة موسوليني والحزب النازي بقيادة هتلر في بعض الأهداف الإيديولوجية، فشكّل الاثنان اتفاقية جمعت بلديهما وسمّيت الاتفاقية بالمحور في العام 1936 . أما فيما يتعلّق بالجانب الشرقي من العالم، فقامت الإمبراطورية اليابانية بغزو الصين في سبتمبر 1936 . وبالرغم من معارضة الحكومة اليابانية للغزو، إلا أن الجيش الإمبراطوري الياباني لم يعبأ بمعارضة حكومة بلاده و مضى قُدُماً في غزوه للصين . في العام 1939، قام هتلر بالمطالبة ببعض من أراضي بولندا وقام بالتوقيع على اتفاقية "عدم اعتداء" بين ألمانيا و الاتحاد السوفييتي كردة فعل على اتفاقية الدّفاع المشترك بين كلّ من بريطانيا-فرنسا وبولندا . و في الأول من سبتمبر 1939، قامت القوات النازية بغزو بولندا، وبعدها بيومين، أعلنت كلّ من بريطانيا وفرنسا الحرب على ألمانيا . وفي غضون أسبوعين من الغزو النازي لبولندا، قام الجيش الأحمر السوفياتي بغزو بولندا هو الآخر . و قبل أن يتسنّى للجيش البريطاني والفرنسي من تشكيل هجوم على بولندا لدحر الغزو النازي لبولندا، كانت القوات النازية قد انتهت من السيطرة على بولندا وإنهاء مناوشات الجيش البولندي والنازي في غضون 3 أسابيع . تسمّى الفترة التي أعقبت الغزو النازي لبولندا (أكتوبر 1939) وحتى الغزو النازي لبلجيكا، وهولندا، ولوكسيمبورج، وانتهاءً بغزو فرنسا (مايو 1940)، بالحرب المزيفة لعدم مشاركة القوى العظمى في مسرح العمليات واقتصار المعارك في المسرح الأوروبي على القوات النازية وصغار الدول بالرّغم من إعلان الحرب على ألمانيا النازية من قِبل بريطانيا وفرنسا . تحرّكت القوات النازية والروسية من بولندا واتّجه الجيش الأحمر ليركز بشكل أكثر على دول البلطيق وفنلندا حيث دارت الحرب الشتوية التي شدّت انتباه العالم لانعدام الأعمال العسكرية في بولندا، بينما اتّجة الجيش النازي جهة الدنمارك والنرويج وعزّزت القوات الفرنسية مواقعها عل الحدود الفرنسية الألمانية، وباستثناء بعض المناوشات العسكرية بين القوات الفرنسية والألمانية، لم يكن هناك شيء يذكر لأن كل من فرنسا وألمانيا كانتا منهمكتين في حشد الجنود والعتاد في تلك الفترة . في مايو 1940، استعملت القوات النازية تكتيكاً عسكرياً جديداً سمّي بـ "الحرب الخاطفة" (1) مما مكن القوات النازية من السيطرة على فرنسا وهزيمة الجيش الفرنسي والبريطاني . وتقهقر الجيش البريطاني إلى مدينة "دنكيرك" الساحلية وترك أسلحته الثقيلة في الساحة الفرنسية فقامت حكومة "تشرشل" باستخدام السفن العسكرية بل وحتّى التجارية في إجلاء الجنود البريطانيين من الساحل الغربي لفرنسا . ولم يبق خيار للحكومة الفرنسية غير خيار الاستسلام للجيش النازي مما مكّن الجيش النازي من إحكام السيطرة على الشمال الفرنسي وتنصيب حكومة فرنسية موالية لألمانيا النازية في الشطر الجنوبي من فرنسا . لم يتمكن سلاح الجو الألماني من هزيمة غريمه البريطاني فكان من الضروري قهر سلاح الجو البريطاني ليتسنّى للألمان غزو الإنجليز، فاتّبع الألمان سياسة مكثّفة بالقصف بالقنابل على بريطانيا فيما تسمى بمعركة بريطانيا، أملاً في إخضاع الإنجليز، وباءت محاولات الألمان بالفشل . بالرغم من إتفاقية عدم الاعتداء بين ألمانيا والاتحاد السوفييتي، إلا أن ألمانيا قامت بغزو الاتحاد السوفييتي في يونيو 1941 . فقد أخذ الألمان الروس على حين غرّة، وكسبت ألمانيا أراض روسية شاسعة وأسرت مئات الآلاف من الجنود الروس . وبعدما أفاق جوزيف ستالين مما ألمّ به، أخذ الروس في إعادة ترتيب أوراقهم خصوصا أن الروس استطاعوا الاحتفاظ بعتادهم العسكري الثقيل بعد رجوعهم إلى الوراء نتيجة الغزو الألماني . استمات الروس وقدّموا الغالي والنفيس في الذود عن العاصمة موسكو واستمر العناد الألماني حتى فصل الشتاء . ولم يكن في بال هتلر استمرار المقاومة الروسية حتى فصل الشتاء، إذ لم يتم تجهيز الجيش الألماني وتزويده بخطوط الإمداد لهذه الفترة . فمرّ فصل الشتاء على الجيش الألماني بقسوة نتيجة التخطيط السيء لغزو موسكو . وبحلول فصل الربيع، احتار الألمان بين المضي قدما في احتلال موسكو أم الاكتفاء بالسيطرة على حقول النفط القوقازية . إختار الألمان السيطرة على حقول النفط القوقازية عوضاً عن احتلال العاصمة موسكو . وفي العام 1942، سحقت القوات السوفييتية قوات المحور الأمامية في الجنوب السوفييتي وقامت بتطويق الجيش الألماني السادس في معركة "ستالينجراد"، واستسلم 300،000 جندي ألماني في نهاية الحصار . كارثة ستالينجراد كانت نقطة التّحول في مسرح العمليات الحربية الأوروبية وبداية العدّ التنازلي لهيمنة "الرايخ الثالث" على أوروبا . فبعد كارثة ستالينجراد، تكبّد المحور كارثة تونس التي هُزم فيها المحور وتم أسر ربع مليون جندي ألماني وإيطالي من جنود المحور . استعمل الحلفاء شمال أفريقيا كنقطة انطلاق لقهر مارد المحور من الجنوب بعد إحكام القوات الروسية على الجبهة الشرقية . سقطت إيطاليا بعد تحرّك الجيش البريطاني و الامريكي إليها من شمال أفريقيا وبعد مقاومة شرسة من الجيش الألماني للأراضي الإيطالية في سبتمبر 1943 . أحكم الحلفاء قبضتهم على المارد الألماني ودول المحور ولم يتبق إلا عُقر دار الرايخ الثالث في برلين، فقامت جحافل الجيش الأمريكي بالإنزال الشهير على شواطيء "نورماندي" في 6 يونيو 1944 ونتج عن هذا الإنزال تحرير جُل فرنسا وبلجيكا، وهولندا، ولكسمبورغ في أواخر عام 1944 . في هذه الأثناء، وصل الجيش الأحمر إلى مشارف مدينة برلين من جهة الشرق، معقل الرايخ الثالث، واُسدل الستار على ألمانيا النازية بانتحار هتلر، ثم استسلام ألمانيا استسلاماً غير مشروط في 7 مايو 1945 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحرب العالمية الثانية هي نزاع دولي بدا في 7 يوليو 1937 في آسيا و 1 سبتمبر 1939 في اوروبا وانتهت الحرب في عام 1945 باستسلام اليابان، تعد الحرب العالمية الثانية من الحروب الشموليةً واكثرها كُلفة في تاريخ البشريةً لاتساع بقعة الحرب وتعدد مسارح المعركة، فكان .  فقد حصدت الحرب العالمية الثانية زهاء 60 مليون نفس بشرية بين عسكري ومدني . تكبّد المدنيون خسائر في الارواح ابّان الحرب العالمية الثانية اكثر من اي حرب عرفها التاريخ، ويعزى السبب لتقليعة القصف الجوي على المدن والقرى التي ابتدعها الجيش الالماني على مدن وقرى الحلفاء مما استدعى الحلفاء الرّد بالمثل، فسقط من المدنيين من سقط من كلا ال .  اضف الى ذلك المذابح التي ارتكبها الجيش الياباني بحق الشّعبين الصيني والكوري الى قائمة الضحايا المدنيين ليرتفع عدد الضحايا الابرياء والجنود الى 51 مليون قتيل، اي ما يعادل 2% من تعداد سكان العالم في تلك الفترة . الامتعاض من معاملة القوى المنتصرة لالمانيا و سوء و تردي الاوضاع الاقتصادية بسبب التكاليف الباهظة والديون التي تكبّدتها المانيا بعد الحرب العالمية الاولى وابرام معاهدة فيرساي و الكساد الاقتصادي العالمي اهّل ادولف هتلر و حزبه اليميني المتطرّف الى الاخذ بزما .  ثم قام هتلر بتحدّي المعاهدات المبرمة بين المانيا والحلفاء بعد الحرب العالمية الاولى بالعمل على تطوير الجيش الالماني و حشد القوات والعتاد على الحدود الفرنسية الالمانية والاتحاد مع النمسا وضم اجزاء من تشيكوسلوفاكيا بمباركة انجلو-فرنسية . في العام 1922، وصل "بينيتو موسوليني" و حزبه الفاشي الى دفّة الحكم في ايطاليا، و يتّفق كل من الحزب الفاشي بقيادة موسوليني والحزب النازي بقيادة هتلر في بعض الاهداف الايديولوجية، فشكّل الاثنان اتفاقية جمعت بلديهما وسمّيت الاتفاقية بالمحور في العام 1936 .  اما فيما يتعلّق بالجانب الشرقي من العالم، فقامت الامبراطورية اليابانية بغزو الصين في سبتمبر 1936 .  وبالرغم من معارضة الحكومة اليابانية للغزو، الا ان الجيش الامبراطوري الياباني لم يعبا بمعارضة حكومة بلاده و مضى قُدُماً في غزوه للصين . في العام 1939، قام هتلر بالمطالبة ببعض من اراضي بولندا وقام بالتوقيع على اتفاقية "عدم اعتداء" بين المانيا و الاتحاد السوفييتي كردة فعل على اتفاقية الدّفاع المشترك بين كلّ من بريطانيا-فرنسا وبولندا .  و في الاول من سبتمبر 1939، قامت القوات النازية بغزو بولندا، وبعدها بيومين، اعلنت كلّ من بريطانيا وفرنسا الحرب على المانيا .  و قبل ان يتسنّى للجيش البريطاني والفرنسي من تشكيل هجوم على بولندا لدحر الغزو النازي لبولندا، كانت القوات النازية قد انتهت من السيطرة على بولندا وانهاء مناوشات الجيش البولندي والنازي في غضون 3 اسابيع . تحرّكت القوات النازية والروسية من بولندا واتّجه الجيش الاحمر ليركز بشكل اكثر على دول البلطيق وفنلندا حيث دارت الحرب الشتوية التي شدّت انتباه العالم لانعدام الاعمال العسكرية في بولندا، بينما اتّجة الجيش النازي جهة الدنمارك والنرويج وعزّزت القوات الفرنسية م .  ولم يبق خيار للحكومة الفرنسية غير خيار الاستسلام للجيش النازي مما مكّن الجيش النازي من احكام السيطرة على الشمال الفرنسي وتنصيب حكومة فرنسية موالية لالمانيا النازية في الشطر الجنوبي من فرنسا . لم يتمكن سلاح الجو الالماني من هزيمة غريمه البريطاني فكان من الضروري قهر سلاح الجو البريطاني ليتسنّى للالمان غزو الانجليز، فاتّبع الالمان سياسة مكثّفة بالقصف بالقنابل على بريطانيا فيما تسمى بمعركة بريطانيا، املاً في اخضاع الانجليز، وباءت محاولات الالمان ب . بالرغم من اتفاقية عدم الاعتداء بين المانيا والاتحاد السوفييتي، الا ان المانيا قامت بغزو الاتحاد السوفييتي في يونيو 1941 .  فقد اخذ الالمان الروس على حين غرّة، وكسبت المانيا اراض روسية شاسعة واسرت مئات الآلاف من الجنود الروس .  فمرّ فصل الشتاء على الجيش الالماني بقسوة نتيجة التخطيط السيء لغزو موسكو .  فبعد كارثة ستالينجراد، تكبّد المحور كارثة تونس التي هُزم فيها المحور وتم اسر ربع مليون جندي الماني وايطالي من جنود المحور .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحرب الباردة اصطلاح يطلق على العلاقات الجديدة التي نشات بين المنتصرين في الحرب العالمية الثانية خلال الفترة بين نهاية هذه الحرب وانهيار الاتحاد السوفيتي . عمليا كان قطبا الحرب هما الولايات المتحدة الاميركية و الاتحاد السوفيتى ،وكان هدف كل منهما الحصول على مناطق نفوذ عسكري اوسياسي وتوسيعها كلما كان ذلك ممكنا، والطرفان، وان كفا عن استخدام السلاح الا انهما لم يتوقفا عن تطوير قدراتهما العسكرية والدخول في سباق تسلح لم يشهد له العالم مثيلا من قبل وهذا السباق من ابرز سمات الحرب الباردة اضافة إلى سعي كل من الطرفين للاستئثار بمناطق نفوذ علي حساب الاخر وانهاكه عن طريق اشعال حروب محدودة لاستنزاف الخصم ، ولقد التزم الطرفان بالقواعد التى شكلتها هذه المرحلة ولم يتجاوزاها إلى حرب ساخنة حتى في اشد الازمات بينهما كما هو الحال في ازمة صواريخ كوبا . الحرب الباردة ، بعكس الحرب الساخنة التي تُشعل فيها النيران ويتبادل فيها الأطراف القصف والضرب هي حرب استمرت بين الأعوام 1945 إلى 1990 . وكان الاتحاد السوفيتي وحلفاؤه طرفاً من أطراف الحرب وكان هذا الطرف يسمى بالكتلة الشرقية او المعسكر الشرقي . ومن الجانب الاخر، الولايات المتحدة وحلفاؤها وكانوا يعرفون بالمعسكر الغربي او الكتلة الغربية . تمثلت الحرب بالشعور المتبادل بين الطرفين بانعدام الثقة وتقديم سوء النية على حسنها . وفي مرحلة من المراحل (ازمة الصواريخ الكوبية)، تنامت الشكوك بين الطرفين بما أوحى باندلاع حرب عالمية ثالثة . وكانت الولايات المتحدة وحلفاؤها يتهمون الاتحاد السوفييتي بنشر الفكر الشيوعي في العالم بينما كان الاتحاد السوفييتي يتهم الكتلة الغربية بنشر الإمبريالية ومنع الحركات الثورية . استمرت الحرب الباردة بعد الحرب العالمية الثانية حتى عام 1990 بتفكك الاتحاد السوفيتي . وفي الفترة المذكورة، قامت عدّة صراعات مسلحة بسبب الحرب الباردة كحرب كوريا، فيتنام والغزو السوفييتي لأفغانستان . وظلّت تلك الصراعات العسكرية محدودة لعدم تعرض الكتل الكبيرة أو شعوبها للأذى . في الصراع الاستراتيجي بين الكتلتين، كان هناك صراع من نوع اخر تمثل في الصراعات التقنية وسباق التسلح كما لم يدّخر الطرفان جهداً في عملية التجسس واغتيال عملاء الطرف الند . وتجدر الاشارة ان الصراعات المسلحة الجانبية كحرب فيتنام ومثيلاتها أرّقت منام العالم في احتمال تطور تلك الصراعات إلى حرب عالمية نووية . كان من نتائج الحرب الباردة انهيار الاتحاد السوفيتي و ميلاد النظام العالمي الجديد الذي نادى به الرئيس الاميركي السابق جورج بوش الاب ،عقب نهاية حرب الخليج الاولى ، التي اسقطت شبه النظام الاقليمي العربي ، وقد سمح النظام العالمي الجديد للولايات المتحدة الاميركية القطب الذي كسب الحرب الباردةالانفراد بالسياسة العالمية وتطويعهاوفقا لمصالحها ورغباتها وفرض رؤيتها على الدول والتدخل في شؤنها وصار العالم يتشكل وفقا للنمط الاميركي من التعددية الحزبية إلى التجارة الحرة والحدود المفتوحة دون مراعاة لأية خصوصية دينية او ثقافية . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحرب الباردة اصطلاح يطلق على العلاقات الجديدة التي نشات بين المنتصرين في الحرب العالمية الثانية خلال الفترة بين نهاية هذه الحرب وانهيار الاتحاد السوفيتي .  عمليا كان قطبا الحرب هما الولايات المتحدة الاميركية و الاتحاد السوفيتى ،وكان هدف كل منهما الحصول على مناطق نفوذ عسكري اوسياسي وتوسيعها كلما كان ذلك ممكنا، والطرفان، وان كفا عن استخدام السلاح الا انهما لم يتوقفا عن تطوير قدراتهما العسكرية والدخول في سباق .  وكان الاتحاد السوفيتي وحلفاؤه طرفاً من اطراف الحرب وكان هذا الطرف يسمى بالكتلة الشرقية او المعسكر الشرقي .  ومن الجانب الاخر، الولايات المتحدة وحلفاؤها وكانوا يعرفون بالمعسكر الغربي او الكتلة الغربية .  وكانت الولايات المتحدة وحلفاؤها يتهمون الاتحاد السوفييتي بنشر الفكر الشيوعي في العالم بينما كان الاتحاد السوفييتي يتهم الكتلة الغربية بنشر الامبريالية ومنع الحركات الثورية . استمرت الحرب الباردة بعد الحرب العالمية الثانية حتى عام 1990 بتفكك الاتحاد السوفيتي .  كان من نتائج الحرب الباردة انهيار الاتحاد السوفيتي و ميلاد النظام العالمي الجديد الذي نادى به الرئيس الاميركي السابق جورج بوش الاب ،عقب نهاية حرب الخليج الاولى ، التي اسقطت شبه النظام الاقليمي العربي ، وقد سمح النظام العالمي الجديد للولايات المتحدة الامي .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">المسيحية هي إحدى الديانات السماوية التي يعتبر يسوع المسيح الشخصية الأساسية فيها، ويعتبر المؤسس لها . تعتبر المسيحية أكثر الديانات أتباعا في العالم، فعدد أتباعها يبلغ 2 . 1 بليون مسيحي . جذور المسيحية تأتي من اليهودية، التي تتشارك معها في الإيمان بكتاب اليهودية المقدس "التوراة"، الذي يدعى في المسيحية العهد القديم . أحيانا يطلق على مجموعة الديانات السماوية: اليهودية، والمسيحية والإسلام اسم الديانات الإبراهيمية، لأن مؤسسي هذه الديانات جميعهم من نسل إبراهيم عليه السلام . الكتاب المقدس الأساسي للمسيحية يطلق عليه اسم: الإنجيل أو العهد الجديد، وهو مجموعة التعاليم التي أتى بها يسوع المسيح ونشرها بين أتباعه ثم قام تلاميذ المسيح الاثنا عشر بكتابة هذه التعاليم و نشرها في الأصقاع . الديانة المسيحية ظهرت ببداية قيام المسيح بنشر رسالته في عام 25 ميلادي تقريبا حيث ولد السيد المسيح في السنة الخامسة قبل الميلاد و بدأ خدمته الرسولية و هو في سن الثلاثين ثم رفع إلى السماء و هو في سن الثالثة و الثلاثين، دار جدال كبير حول الروح القدس منبثق فالأرثوذوكس يؤمنون بإنه منبثق عن الآب بينما يؤمن الكاثوليك بأن الروح القدس منبثق عن الآب و الابن معا، تجتمع الطوائف المسيحية بعقيدة الخلاص و التي مفادها بأن الخطـيئة تسللت لآدم بكسره للناموس ( أى الأوامر الإلهية أو الشريعة ) و حيث أن أجرة الخطيئة هي موت فإن الموت أيضا قد حل على الجميع و لا بد أن يكون هناك مصالحة بين الله كلي القداسة و بين الإنسان المخطئ، بحسب التقليد القديم في التوراة كانت هناك الذبائح لأنه لا يكون غفران إلا بدم و بالتالي كانت هناك ذبائح لتكفير الذنوب يقدمها الشخص عن نفسه و كانت هناك تقدمات عن شعب إسرائيل بالكامل والتي كانت كما يعتقد المسيحيون بأنها رمز لذبيحة المسيح ، تؤمن المسيحية بأن الله أراد أن يقدم لللإنسان هذا المصالحة بينهما من خلال ابنه المسيح ( الذي هو بلا خطيئة ) و عندما يسفك دمه على الصليب تكون هذه الذبيحة قد قدمت و الخطيئة قد رفعت و الخلاص من نير الناموس و الشريعة قد تم و اكتمل و بالتالي كل من يؤمن بالمسيح كذبيحة كفارية فسوف يتخلص من الخطيئة لأن الإنسان لا يملك أن يخلص نفسه، والسؤال الذي يطرح نفسه هنا إن كانت الخطيئة قد رفعت عنا فلماذا نخطئ و نخطئ بعد أن نقبل المسيح كمخلص ؟ والجواب هو كما يؤمن أتباع هذه الديانة هو أن الإنسان الذي يؤمن بالمسيح لا يعود الشيطان و الخطيئة يمتلكان سلطان عليه لذلك حتى وإن أخطئ فهو قادر على النهوض مجددا ومتابعة سلوك حياته الإيمانية . و السؤال الثاني إن كانت أجرة الخطيئة هي الموت و المسيح قام فعلا بدفع هذه الأجرة فلماذا يموت المؤمنون به الطالبين للخلاص ؟؟ذلك لأنه وبحسب الإيمان المسيحي يتحرر المؤمن من الموت الروحي لآن كل إنسان مستعبد للخطيئة هو ميت حتى وإن كان حي فبالنسبة للمسيحيين تبدأ الحياة الحقيقية بالإيمان وقيامة المسيح هي وعد للقيامة المؤمنين العامة في اليوم الأخير . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تعتبر المسيحية اكثر الديانات اتباعا في العالم، فعدد اتباعها يبلغ 2 . 1 بليون مسيحي .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يؤمن المسلمون بأن محمداً  رسول من الله وخاتم الأنبياء و المرسلين و أُرسل إلى الثقلين كافة (الجن والإنس) . وُلد في مكة في يوم الاثنين الموافق 12 ربيع الأول بعد خمسين يوم من عام يقال له عام الفيل الموافق شهر أغسطس سنة 570 للميلاد (1) وتقول الشيعة الإمامية 17 ربيع الأول . 
+اورده ابن القيم في كتابه زاد المعاد 1/72 أنه خير أهل الأرض نسباً على الإطلاق، فلنسبه من الشرف أعلى ذروة، وأعداؤه كانوا يشهدون له بذلك، ولهذا شهد له به عدوه إذ ذاك أبو سفيان بين يدي ملك الروم، فأشرف القوم قومه، وأشرف القبائل قبيله، وأشرف الأفخاذ فخذه . ونسب ابيه هو عبد الله بن عبد المطلب بن هاشم بن عبد مناف بن قصي بن كلاب بن مرة بن كعب بن لؤي بن غالب بن فهر بن مالك بن النضر بن كنانة بن خزيمة بن مدركة بن إلياس بن مضر بن نزار بن معد بن عدنان . إلى ها هنا معلوم الصحة متفق عليه بين النسابين ولا خلاف فيه البتة، وما فوق عدنان مختلف فيه ولا خلاف بينهم أن عدنان من ولد إسماعيل عليه السلام، وإسماعيل هو الذبيح على القول الصواب عند علماء الصحابة والتابعين ومن بعدهم . (2) امه هي امنه بنت وهب بن عبد مناف بن زهره بن كلاب بن مره ويتصل نسب أمه مع ابيه ابتداء من كلاب بن مره . بحسب كتب السيرة الإسلامية، فإن محمد  نشأ بشعب بنى هاشم بمكة يتيماً فقد مات والده عبد الله قبل ولادته بقليل (4)، واختار له جده اسم محمد وهذا الاسم لم يكن معروفاً في العرب . وقيل في تسميته أنه كان جمع من سادة مكة يقومون برحلة فالتقوا بحبر من أحبار اليهود وسألهم من أين أنتم ، فأجابوا أنهم من مكة ، فأخبرهم أنه في مكة يخرج نبي يقال له محمد ، فعقد كل واحد منهم أن يسمي إبنه محمداً عسى أن يكون ذلك النبي . وقد كانت العادة عند العرب أن يلتمسوا المراضع لأولادهم إبعاداً لهم عن أمراض الحواضر، ولتقوى أجسامهم ، وتشتد أعصابهم ، ويتقنوا اللسان العربى في مهدهم ، فقدم نساء من بنى سعد إلى مكة ولم يكن يرغبن في اليتيم محمد حتى أخذته امرأة تسمى حليمة السعدية عندما لم تجد غيره وكان فاتحة خير عليها وعلى عائلتها كما تخبر هي . وقد عاش في بنى سعد حتى سن الرابعة من مولده حتى حدث بما يعرف بـ حادثة شق الصدر فخشيت عليه حليمة بعد هذه الواقعة حتى ردته إلى أمه التي طمأنتها بألا تخاف عليه ، ولما بلغ ست سنين قررت أمنة أن تزور قبر زوجها فخرجت من مكة إلى المدينة المنورة مع ولدها اليتيم محمد وخادمتها وبينما هى راجعة إذ لحقها المرض في أوائل الطريق حتى ماتت ، وانتقل محمد ليعيش مع جده عبد المطلب يتيم الأب والأم ، وكانت مشاعر الحنو لدى عبد المطلب تربو نحو حفيده اليتيم ، ولما بلغ محمد ثمانى سنوات توفى جده عبدالمطلب بمكة ورأى قبل وفاته أن يعهد بكفالة حفيده إلى عمه أبو طالب شقيق أبيه والذي قام بحق ابن أخيه على أكمل وجه (5)، وكان محمد في بداية شبابه يرعى غنماً رعاها في بنى سعد ، وفي مكة لأهلها على قراريط ثم انتقل إلى عمل التجارة حين شب . كان يلقب بالصادق الأمين حتى أن أعداء رسول الإسلام  كانوا يضعون أماناتهم عنده . كان الشرك وعبادة الاصنام أكبر مظهر من مظاهر الجاهلية في قريش والجزيرة العربية قبل بعثة النبي محمد  حيث كانوا يعبدونها ويعكفون عليها ويلتجئون إليها ويستغيثون في الشدائد ويدعونها لحاجتهم معتقدين أنها تحقق لهم ما يريدون بالاضافة إلى إنتشار الرذائل مثل الزنا وشرب الخمر ، كما أن الجزيرة العربية قبل بعثة النبي محمد  كانت مجموعة من القبائل المتناحرة والمتباغضة يأكل القوى فيهم الضعيف . والمسيحيه و اليهودية كانتا موجودتان ايضاً في شبه الجزيرة العربية ومن أشهر رموزها بحيرا الراهب وغيره . وكانوا يخفون كثيرا من أحكام كتبهم المنزلة من عند الله، ولا يعملون بها ويحلون ما حرم الله أو يحرمون على الناس ما أحل الله وكان كثير منهم يأكلون أموال الناس بالباطل ويثيرون الفتن الطائفية بين القبائل لتقع النزاعات والحروب القبلية وتكون لهم الكلمة العليا؛ فجاء الإسلام ليحرم الطاعة المطلقة لأحد من البشر إلا في المعروف . وجاء ليبين للناس ما أخفاه الأحبار و الرهبان من أحكام في كتبهم، وجاء لينشر العدل والمساواة بين الناس وحرم الظلم والبغي والعدوان . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يؤمن المسلمون بان محمداً  رسول من الله وخاتم الانبياء و المرسلين و اُرسل الى الثقلين كافة (الجن والانس) .  ونسب ابيه هو عبد الله بن عبد المطلب بن هاشم بن عبد مناف بن قصي بن كلاب بن مرة بن كعب بن لؤي بن غالب بن فهر بن مالك بن النضر بن كنانة بن خزيمة بن مدركة بن الياس بن مضر بن نزار بن معد بن عدنان .  الى ها هنا معلوم الصحة متفق عليه بين النسابين ولا خلاف فيه البتة، وما فوق عدنان مختلف فيه ولا خلاف بينهم ان عدنان من ولد اسماعيل عليه السلام، واسماعيل هو الذبيح على القول الصواب عند علماء الصحابة والتابعين ومن بعدهم . (2) امه هي امنه بنت وهب بن عبد مناف بن زهره بن كلاب بن مره ويتصل نسب امه مع ابيه ابتداء من كلاب بن مره . كان يلقب بالصادق الامين حتى ان اعداء رسول الاسلام  كانوا يضعون اماناتهم عنده . والمسيحيه و اليهودية كانتا موجودتان ايضاً في شبه الجزيرة العربية ومن اشهر رموزها بحيرا الراهب وغيره .  وجاء ليبين للناس ما اخفاه الاحبار و الرهبان من احكام في كتبهم، وجاء لينشر العدل والمساواة بين الناس وحرم الظلم والبغي والعدوان .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يعد الإسلام أحد الديانات السماوية الثلاثة والمعروفة بالديانات الإبراهيمية (اليهودية، المسيحية، الإسلام)، وهي ثاني أكثر الديانات أتباعا في العالم . والمعنى العام لكلمة الإسلام هو الانقياد التام للخالق بالتوحيد والإذعان له بالطاعة والبراءة من الشرك وأهله . وهو تسليم كامل من الإنسان لله تعالى في كل شؤون الحياة . يؤمن المسلمون أن الإسلام هو آخر الديانات السماوية، وأنه ناسخ لما قبله كما ذكر في القرآن (الْيَوْمَ أَكْمَلْتُ لَكُمْ دِينَكُمْ وَأَتْمَمْتُ عَلَيْكُمْ نِعْمَتِي وَرَضِيتُ لَكُمُ الإِسْلامَ دِينًا) (المائدة:3) وفي قوله: (وَأَنزَلْنَا إِلَيْكَ الْكِتَابَ بِالْحَقِّ مُصَدِّقاً لِّمَا بَيْنَ يَدَيْهِ مِنَ الْكِتَابِ وَمُهَيْمِناً عَلَيْهِ)(المائدة48) . كما يؤمن المسلمون بأن محمداً  رسول من الله وخاتم الأنبياء و المرسلين و أُرسل إلى الثقلين كافة (الجن والإنس) . و من أسس العقيدة الإسلامية الإيمان بوجود إله واحد هو الله، وأنهم يتبعون الحنيفية ملة إبراهيم عليه السلام . ويؤمن المسلمون بالملائكة وبجميع رسل الله السابقين وبالكتب السابقة واليوم الآخر والقدر خيره وشره . والقرآن هو الكتاب المنزل من عند الله على محمد  عن طريق جبريل عليه السلام . والقرآن هو مصدر التشريع الإسلامي الأول وتعتبر السنة النبوية هي المصدر الثاني في التشريع الاسلامي . أما أركان الإسلام فهي خمسة أركان: شهادة أن لا إله إلا الله وأن محمداً رسول الله وإقامة الصلاة وإيتاء الزكاة و صوم رمضان وحج البيت لمن استطاع إليه سبيلا . ويُعرَّف الإسلام لُغوياً بأنه الانقياد التام لأمر الآمر و نهيه بلا اعتراض، وقيل هو الإذعان والانقياد وترك التمرّد والإباء والعناد(1) . وأما معناه الاصطلاحي، فهو الدين الذي جاء به محمد، والشريعة التي ختم الله تعالى بها الرسالات السماوية . وقد قام محمد  بتبليغ الناس عن هذا الدين وأحكامه ونبذ عبادة الاصنام وغيرها مما يعبد من دون الله . والإسلام هو التسليم للخالق والخضوع له، وتسليم العقل والقلب لعظمة الله وكماله ثم الانقياد له بالطاعة وتوحيده بالعبادة والبراءة من الشرك به سبحانه . والإسلام ليس حصرياً على شعب دون شعب، أو قوم دون قوم، بل هي دعوة شاملة للبشرية كافة بغية تحقيق العدل والمساواة للبشر كافة . فالإسلام يقوم على أساس الفطرة الإنسانية والمساواة بين مختلف أفراد المجتمع الإسلامي فلا يفرٌق بين الضعيف والقوي والغني والفقير والشريف والوضيع، كما لا يفرق الإسلام بين الأمم والشعوب المختلفة إلا من باب طاعتها لله تعالى والتزامها بالتقوى، فهي تعتبر الاساس الذي يقيٌم به عمل الإنسان والتزامه بتعاليم الإسلام . يقول الله تعالى في القرآن الكريم : {يَا أَيُّهَا النَّاسُ إِنَّا خَلَقْنَاكُم مِّن ذَكَرٍ وَأُنثَى وَجَعَلْنَاكُمْ شُعُوباً وَقَبَائِلَ لِتَعَارَفُوا إِنَّ أَكْرَمَكُمْ عِندَ اللَّهِ أَتْقَاكُمْ إِنَّ اللَّهَ عَلِيمٌ خَبِيرٌ }الحجرات 13 . يؤمن المسلمون بأن محمدا جاء ليكمل رسالة الله التي أرسل بها الأنبياء الذين سبقوه كإبراهيم وموسى والمسيح عيسى بن مريم عليهم جميعا السلام وأن أولئك الأنبياء كانوا جميعا مسلمين . كما يعتقد المسلمون بأن الحنيفية هي أساس دين إبراهيم عليه السلام . ويرون أن الاختلاف بين الأديان السماوية في الشريعة فقط وليست في العقيدة وأن شريعة الإسلام ناسخة لما قبلها من شرائع . أي أن الدين الإسلامي يتكون من العقيدة والشريعة . فأما العقيدة فهي مجموعة المبادئ التي على المسلم أن يؤمن بها وهي ثابتة لا تختلف باختلاف الانبياء . أما الشريعة فهي اسم للأحكام العملية التي تختلف باختلاف الرسل ونسخ اللاحق منها السابق . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واما معناه الاصطلاحي، فهو الدين الذي جاء به محمد، والشريعة التي ختم الله تعالى بها الرسالات السماوية .  </t>
+  </si>
+  <si>
+    <t>تعني كلمة التوراة بالعبرية التعليم أو التوجيه الترئية بالمعنى الحرفي وخصوصاً فيما يتعلق بالتعليمات والتوجيهات القانونية، وترمز التوراة للأسفار الخمسة الأُولى من الكتاب المقدّس اليهودي التناخ . وينقسم الكتاب المقدس اليهودي إلى ثلاثة أقسام، التوراة في قسمه الأول، ن?يئيم أنبياء، وهو القسم المتعلق بالأنبياء، وكيتو?يم أو الكتب بالعربية وهو قسم الأدبيات اليهودية . 
+لا تتكون التوراة من نظام تشريعي متكامل أو منظّم بل تتكون من خطوط فلسفية عريضة ذات علاقة بالدين اليهودي، فضلاً عن إحتواءها على كثير من القوانين والسنن الواضحة والمحددة والتي تحكم تصرّفات البشر، وتتشابه هذه القوانين التوراتية بالقوانين والسنن من الشرق الأدنى القديم . 
+لا يختلف اليهود ان التوراة هي الكلمة الفصل عندما يتعلق الأمر بالديانية اليهودية أو كمرجع يرجع إليه اليهود في الأمور العقائدية، وينظر اليهود إلى التوراة على أنّها كلام الله أملئه على نبيّه موسى في طور سيناء . 
+تتباين رؤية الإسلام عن الرؤية اليهودية في مسألة التوراة، إذ يتّفق الفريقان أن التوراة من عند الله أنزلها على موسى كما توضّح الآية 3 من سورة آل عمران "نَزَّلَ عَلَيْكَ الْكِتَابَ بِالْحَقِّ مُصَدِّقاً لِّمَا بَيْنَ يَدَيْهِ وَأَنزَلَ التَّوْرَاةَ وَالإِنجِيلَ .. " والآية 53 من سورة البقرة "وَإِذْ آتَيْنَا مُوسَى الْكِتَابَ وَالْفُرْقَانَ لَعَلَّكُمْ تَهْتَدُونَ" . فالتوراة من عند الله ولكن يعتقد المسلمون بأن توراة اليوم طرأ عليها زيادة ونقصان (تحريف بشكل عام) مقارنة بالتوراة المنزّلة على موسى . 
+يؤمن المسيحيون بالكتب اليهودية والتي تسمى بالعهد القديم، أي ما قبل يسوع الذي يؤمن المسيحيون بأنه المسيح . والتوراة تتكون من الكتب الأسفار الخمسة الأولى من الكتاب المقدس .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعني كلمة التوراة بالعبرية التعليم او التوجيه الترئية بالمعنى الحرفي وخصوصاً فيما يتعلق بالتعليمات والتوجيهات القانونية، وترمز التوراة للاسفار الخمسة الاُولى من الكتاب المقدّس اليهودي التناخ . لا تتكون التوراة من نظام تشريعي متكامل او منظّم بل تتكون من خطوط فلسفية عريضة ذات علاقة بالدين اليهودي، فضلاً عن احتواءها على كثير من القوانين والسنن الواضحة والمحددة والتي تحكم تصرّفات البشر، وتتشابه هذه القوانين التوراتية بالقوانين والسنن من الشرق الادن . تتباين رؤية الاسلام عن الرؤية اليهودية في مسالة التوراة، اذ يتّفق الفريقان ان التوراة من عند الله انزلها على موسى كما توضّح الآية 3 من سورة آل عمران "نَزَّلَ عَلَيْكَ الْكِتَابَ بِالْحَقِّ مُصَدِّقاً لِّمَا بَيْنَ يَدَيْهِ وَاَنزَلَ التَّوْرَاةَ وَالاِنجِ .  فالتوراة من عند الله ولكن يعتقد المسلمون بان توراة اليوم طرا عليها زيادة ونقصان (تحريف بشكل عام) مقارنة بالتوراة المنزّلة على موسى .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدين البهائي هو دين عالمي مستقل ينسبه البعض للإسلام رغم إصرار أتباعه على أنه دين سماوي مستقل برسوله، ومبادئه، وأحكامه، وهيئاته الإدارية المستقلة إستقلالا تاما عن الإسلام . أسسه الميرزا حسين علي النوري الملقب ببهاء الله في منتصف القرن التاسع عشر الميلادي . والدين البهائي معترف به رسميا في العديد من دول العالم وينتشر في أكثر من 235 بلدا ودولة، وله تمثيل غير حكومي في منظمة الأمم المتحدة منذ بداية نشأتها وكذلك في الاوساط العلمية والدينية والاقتصادية في العالم . 
+يربط البهائيون بداية تاريخهم بوقت إعلان دعوة الباب في مدينة شيراز في إيران سنة 1844م 1260هـ . ،كانت البابية قد تأسست على يد الميرزا علي محمد رضا الشيرازي الذي أعلن أنه الباب لـ"من يظهره الله" وأنه هو المهدي المنتظر . وكان قد سبق ذلك فترة قصيرة نمت فيها حركات كانت تترقب مجيء الموعود الذي بشرت به الكتب السماوية وأحاديث الأنبياء والأئمة . وكانت الفرقة الشيخية التي أسسها الشيخ أحمد الاحسائي إحدى تلك الفرق التي أكدت على وشك قدوم الموعود المنتظر و تتلمذ الـملا حسين بشروئي  وهو أول من آمن بالباب على يد الشيخ أحمد الاحسائي ثم على يد السيد كاظم الرشتي بعد وفاة الشيخ أحمد . 
+ولقد امن بالباب بعد ايمان الـملا حسين بشروئي 17 شخصا اخرين من ضمنهم امرأة واحدة تعرف بالطاهرة أو قرة العين . ومنح هؤلاء الثمانية عشر شخصا لقب حروف الحي . ومن ضمن الذين أيدوا دعوة الباب وكان لهم تأثيرا بالغا في تطورها شاب من النبلاء يدعى ميرزا حسين علي النوري الذي عرف فيما بعد ببهاء الله، وهو مؤسس الديانة البهائية . ونتيجة لذلك فان هناك ارتباط تاريخي بين البهائية والبابية . 
+وبعد أن شاع أمر البابية قامت السلطات الإيرانية، بإيعاز من رجال الدين، بتعذيب البابين والقبض على الباب سنة 1847م وإيداعه السجن . وكانت إيران محكومة انذاك من قبل اسرة القاجار التركمانية . وظل أتباع الباب رغم حبسه يترددون عليه في السجن وأخذوا يظهرون إيمانهم به وبرسالته على عامة الناس . وازداد عدد اتباع الباب رغم حبسه وذلك بتيجة جهود اتباعه وقياداتهم . وأدى ذلك إلى ازدياد وطأة تعذيب البابيين الذي دوّن تفاصيله العديد من المؤرخين الشرقيين والغربيين . وفي نهاية المطاف أُعدم "الباب" سنة 1850م رميا بالرصاص أمام العامة رغم وساطة بعض الدول الغربية للصفح عنه ومن ضمنها روسيا وبريطانيا . وجاءت هذه الوساطة نتيجة التقارير التي أرسلها سفراء هذه الدول الذين شهدوا الاضطهاد العنيف الذي واجهه الباب وأتباعه . اضغظ هنا لاستعراض بعض تفاصيل هذة الاحداث . 
+ضريح الباب في حيفاواستمرت الحكومة الإيرانية آنذاك بعملية القمع ضد البابين وقياداتهم ومن ضمنهم بهاء الله، حيث حبست بهاء الله وبعد ذلك نفته وأتباعه إلى العراق . وأقام بهاء الله في العراق عدة سنوات قام خلالها بتدبير شؤون البابين ولم شملهم . ولكن بتحريض من الحكومة الإيرانية، نفت الحكومة العثمانية بهاء الله استانبول، ثم إلى أدرنة، وبعد ذلك إلى فلسطين لإبعاده عن الأراضي الإيرانية وقطع علاقته بأتباعه . وتشير المصادر البهائية أن بهاء الله أعلن دعوته للعديد من إتباعه في حديقة الرضوان في بغداد قبل نفيه منها . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الدين البهائي هو دين عالمي مستقل ينسبه البعض للاسلام رغم اصرار اتباعه على انه دين سماوي مستقل برسوله، ومبادئه، واحكامه، وهيئاته الادارية المستقلة استقلالا تاما عن الاسلام .  اسسه الميرزا حسين علي النوري الملقب ببهاء الله في منتصف القرن التاسع عشر الميلادي . يربط البهائيون بداية تاريخهم بوقت اعلان دعوة الباب في مدينة شيراز في ايران سنة 1844م 1260هـ .  وكانت الفرقة الشيخية التي اسسها الشيخ احمد الاحسائي احدى تلك الفرق التي اكدت على وشك قدوم الموعود المنتظر و تتلمذ الـملا حسين بشروئي  وهو اول من آمن بالباب على يد الشيخ احمد الاحسائي ثم على يد السيد كاظم الرشتي بعد وفاة الشيخ احمد .  ومن ضمن الذين ايدوا دعوة الباب وكان لهم تاثيرا بالغا في تطورها شاب من النبلاء يدعى ميرزا حسين علي النوري الذي عرف فيما بعد ببهاء الله، وهو مؤسس الديانة البهائية .  ونتيجة لذلك فان هناك ارتباط تاريخي بين البهائية والبابية .  وكانت ايران محكومة انذاك من قبل اسرة القاجار التركمانية .  وازداد عدد اتباع الباب رغم حبسه وذلك بتيجة جهود اتباعه وقياداتهم .  واقام بهاء الله في العراق عدة سنوات قام خلالها بتدبير شؤون البابين ولم شملهم .  وتشير المصادر البهائية ان بهاء الله اعلن دعوته للعديد من اتباعه في حديقة الرضوان في بغداد قبل نفيه منها .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوذية هي ديانة غير الوهية وهي من الديانات الرئيسية في العالم، تم تأسيسها عن طريق التعاليم التي تركها بوذا المتيقظ . نشأت البوذية في شمالي الهند وتدريجياً انتشرت في أنحاء أسيا، التيبت فسريلانكا، ثم إلى الصين، منغوليا، كوريا، فاليابان . 
+تتمحور العقيدة البوذية حول 3 أمور  أولها، الإيمان ببوذا كمعلّم مستنير للعقيدة البوذية، ثانيها، الإيمان بدهارما، وهي تعاليم بوذا وتسمّى هذه التعاليم بالحقيقة، ثالثها وآخرها، المجتمع البوذي . تعني كلمة بوذا بلغة بالي الهندية القديمة، الرجل المتيقّظ . تجدر الإشارة إلى ان اللفظ الأصلي لمؤسس الديانة البوذية بوذا هو بودا، بالدّال، وليس بالذال . 
+كانت البوذية في الأصل حركة رُهبانية نشأت داخل التقاليد البراهمانية، تحولت عن مسارها عندما قام بوذا بإنكار المبادئ الأساسية في الفلسفة الهندوسية، بالإضافة إلى رفضه وِصاية السُلطة الكَهنوتية، كما لم يرد أن يعترف بأهلِية كتابات الفيدا، وكذا مظاهر وطقوس عبادة الآلِهات التي كانت تقوم عليها . كانت التعاليم الجديدة التي بشر بها موجهة للرجال والنساء و إلى كل الطبقات الاجتماعية بدون استثناء . كان بوذا يرفض المبدأ القائل بأن القيمة الروحية للإنسان تتَحدَد عند ولادته نظام الطبقات الاجتماعية الهندوسي . تتواجد البوذية اليوم في صورتين: العقيدة الأصلية المسماة ثيرافادا أو "هينايانا ومعناها العربة الصغيرة، ثم الماهايانا أو العربة الكبيرة . 
+انتشرت البوذية في بلدان عديدة: الهند، سريلانكا، تايلاند، كمبوديا، برمانيا، لاوس، ويسود مذهب "ثيرافادا" في هذه الدول، فيما انتشر مذهب "ماهايانا" في كل من الصين، اليابان، تايوان، التبت، النيبال، منغوليا، كوريا، فيتنام، وبعض الأجزاء من الهند . يتواجد في العالم حوالي 150 مليون إلى 300 مليون شخص من معتنقي هذه الديانة . تعتبر عملية إحصاء عدد المنتسبين لهذه الديانة في البلدان الآسيوية مشكلة عويصة نظرا لتعوُد الناس على اعتناق خليط من المعتقدات في آن واحد، كما أن بعض البلدان مثل الصين تمنع إجراء مثل هذه الإحصاءات نظرا لحساسية الموضوع الديني . 
+إن أولى المعلومات عن حياة بوذا لا تعدوا كونها مجرد آثار شفوية متناثرة، لم تظهر أولى الترجمات الكاملة لحياته إلا بعد وفاته بسنين، غير أن المؤرخون يُجمعون على أن تاريخ مولده كان في منتصف القرن الـ6 قبل الميلاد . 
+ولد بوذا واسمه الحقيقي سيدارتا غاوثاما، في كايبافاستو، على الحدود الفاصلة بين الهند والنيبال . كان والِدُه حاكما على مملكة صغيرة . تقول الأسطورة أنه وعند مولده تنبأ له بعض الحكماء بأن تكون له حياةٌ استثنائية وأن يصبح أحد اثنين، حكيما أو سُلطانا . تربَى الأمير الشاب في رعاية والده وعاش حياة باذخة وناعمة، حتى إذا بلغ سن التاسعة والعشرين، أخد يتدبر أمرهُ وتبين له كم كانت حياته فارغة ومن غير معنى . قام بترك الملذات الدنيوية، وذهب يبحث عن الطمأنينة الداخلية وحالة التيقظ الاستنارة، محاولا أن يخرج من دورة التناسخ حسب التقاليد الهندوسية . قام بممارسة اليوغا لبعض السنوات، وأخضع نفسه لتمارين قاسية وكان الزهد والتقشف شعاره في هذه المرحلة من حياته . 
+بعد سبع سنوات من الجُهد، تخلى غاوثاما عن هذه الطريقة، والتي لم تعُد تقنعه، واتبع طريقا وسطا بين الحياة الدنيوية وحياة الزُهّاد . كان يجلس تحت شجرة التين، والتي أصبحت تُعرف بشجرة الحكمة، ثم يأخذ في ممارسة التأمل، جرب حالات عديدة من التيقظ، حتى أصبح بوذيساتفا، أي أنه صار مؤهلا لأن يَرتقى إلى أعلى مرتبة وهي بوذا . في إحدى الليالي وبينما كان جالسا تحت شجرة التين، بلغ حالة الاستنارة، وأصبح بوذا، أي المتيقظ أو المستنير . بعد أن بلغ أعلى درجات الحقيقية، شرع بوذا يدعو إلى مذهبه، فتنقل من قرية إلى قرية، أخذ يجمع الناس من حوله، وأسس لطائفة من الرهبان عرفت باسم سانغا . كرس بوذا بقية حياته لتعليم الناس حقيقة دعوته . + 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوذية هي ديانة غير الوهية وهي من الديانات الرئيسية في العالم، تم تاسيسها عن طريق التعاليم التي تركها بوذا المتيقظ . تتمحور العقيدة البوذية حول 3 امور  اولها، الايمان ببوذا كمعلّم مستنير للعقيدة البوذية، ثانيها، الايمان بدهارما، وهي تعاليم بوذا وتسمّى هذه التعاليم بالحقيقة، ثالثها وآخرها، المجتمع البوذي .  تجدر الاشارة الى ان اللفظ الاصلي لمؤسس الديانة البوذية بوذا هو بودا، بالدّال، وليس بالذال .  كان بوذا يرفض المبدا القائل بان القيمة الروحية للانسان تتَحدَد عند ولادته نظام الطبقات الاجتماعية الهندوسي .  تتواجد البوذية اليوم في صورتين: العقيدة الاصلية المسماة ثيرافادا او "هينايانا ومعناها العربة الصغيرة، ثم الماهايانا او العربة الكبيرة . انتشرت البوذية في بلدان عديدة: الهند، سريلانكا، تايلاند، كمبوديا، برمانيا، لاوس، ويسود مذهب "ثيرافادا" في هذه الدول، فيما انتشر مذهب "ماهايانا" في كل من الصين، اليابان، تايوان، التبت، النيبال، منغوليا، كوريا، فيتنام، وبعض الاجزاء من الهند . ولد بوذا واسمه الحقيقي سيدارتا غاوثاما، في كايبافاستو، على الحدود الفاصلة بين الهند والنيبال .  كان والِدُه حاكما على مملكة صغيرة .  قام بترك الملذات الدنيوية، وذهب يبحث عن الطمانينة الداخلية وحالة التيقظ الاستنارة، محاولا ان يخرج من دورة التناسخ حسب التقاليد الهندوسية .  كرس بوذا بقية حياته لتعليم الناس حقيقة دعوته .  </t>
+  </si>
+  <si>
+    <t>الزرادشتية أو المجوسية ديانة أسّسها زرادشت ترى العالم كصراع مستمر بين القوى الكونية المستقلة . وفي معتقدات هذه الديانة فإن أهورامزدا هو رب الخير أو الحكمة وخالق العالم المادي، وأنجرامينو هو كل الموت وروح الشرّ، وأن الإنسان هو كائن حرّ وعليه واجب مساعدة الانتصار لأهورامازدا . انتشرت هذه الديانة في إيران خصوصًا بعد ثمانية قرون من موت زرادشت، وبعد أن انحسرت إلى حد ما، ديانة الماجي المجوسية التي اقتصرت حينها على الملوك والكهنة . 
+بشّر زرداشت بالقوة الشافية للعمل البنّاء، و قدّم مذهبا أخلاقيا يتألف القسطاس فيه من العدل والصدق والاعمال الجيدة . النار والشمس هما رمزا اهورامزدا، ولذلك ترتبط هذه الديانة بما يشبه عبادة النار . 
+افيستا هو مختارات من الكتاب المقدس لهذا الدين، و لا تزال باقية حتى الان . كتبت هذه المختارات باللغة الأفيستانية، وهي لغة وثيقة بالفارسية القديمة والسنسكريتية الفيدية . جمع هذا الكتاب بعد وفاة زرداشت بزمن طويل، وتعرض للضياع عدة مرات . ويشمل خمس قصائد قديمة . 
+ورغم انحسار الزرداشتية كديانة كانت واسعة الانتشار، إلا أن آثارها ظلت واضحة على العهد القديم والعهد الجديد . 
+يعتبر الزرادشتيون ان الروح تهيم لمدة ثلاثة ايام بعد الوفاة قبل ان تنتقل إلى العالم الأخر ، يؤمن الزرادشتيون بالحساب حيث انهم يعتقدون ان الزرادشتي الصالح سيخلد إلى جانب زرادشت في حين ان الفاسق سيخلد في النار إلى جانب الشياطين . 
+للزرادشتيين طقوس خاصة عند الوفاة حيث انهم يعتبرون الجسد نجسا لذا يجب عدم اختلاطه مع عناصر الحياة الثلاثة  الماء ، التراب و النار حتى لا يلوثها ، لذا وجب على الزرادشتيين عند وفاتهم ان يتركوا للطيور الجارحة على أبراج خاصة تسمى أبراج الصمت أو دخنه باللغة الفارسية حيث يقوم بهذه الطقوس رجال دين معينون ثم بعد ان تاكل الطيور جثة الميت يتم رمي العظام في فجوة خاصة في هذا البرج دون دفنها . ألا انه مؤخرا منذ نحو 50 عاما و عملا بنصيحة زرادشت و هي أن يتكيف الزرادشتيون مغ أي مجتمع يعيشون فيه فقد أبتكر الزرداشتيون طريقة جديدة في دفن موتاهم و هي ان يوضع جثمان الميت في صندوق معدني محكم الاغلاق و يدفن في قبر عادي مما يضمن عدم تلويثه لعناصر الحياة الثلاثة .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزرادشتية او المجوسية ديانة اسّسها زرادشت ترى العالم كصراع مستمر بين القوى الكونية المستقلة .  وفي معتقدات هذه الديانة فان اهورامزدا هو رب الخير او الحكمة وخالق العالم المادي، وانجرامينو هو كل الموت وروح الشرّ، وان الانسان هو كائن حرّ وعليه واجب مساعدة الانتصار لاهورامازدا .  انتشرت هذه الديانة في ايران خصوصًا بعد ثمانية قرون من موت زرادشت، وبعد ان انحسرت الى حد ما، ديانة الماجي المجوسية التي اقتصرت حينها على الملوك والكهنة . يعتبر الزرادشتيون ان الروح تهيم لمدة ثلاثة ايام بعد الوفاة قبل ان تنتقل الى العالم الاخر ، يؤمن الزرادشتيون بالحساب حيث انهم يعتقدون ان الزرادشتي الصالح سيخلد الى جانب زرادشت في حين ان الفاسق سيخلد في النار الى جانب الشياطين . للزرادشتيين طقوس خاصة عند الوفاة حيث انهم يعتبرون الجسد نجسا لذا يجب عدم اختلاطه مع عناصر الحياة الثلاثة  الماء ، التراب و النار حتى لا يلوثها ، لذا وجب على الزرادشتيين عند وفاتهم ان يتركوا للطيور الجارحة على ابراج خاصة تسمى ابراج الصمت او دخنه باللغة الف .  الا انه مؤخرا منذ نحو 50 عاما و عملا بنصيحة زرادشت و هي ان يتكيف الزرادشتيون مغ اي مجتمع يعيشون فيه فقد ابتكر الزرداشتيون طريقة جديدة في دفن موتاهم و هي ان يوضع جثمان الميت في صندوق معدني محكم الاغلاق و يدفن في قبر عادي مما يضمن عدم تلويثه لعناصر الحياة .  </t>
+  </si>
+  <si>
+    <t>شركة تويوتا للمحركات هي شركة كبرى لصناعة السيارات يقع مقرها الرئيسي في مدينة تويوتا باليابان . بالإضافة إلى السيارات تقوم الشركة بتصنيع الشاحنات، الحافلات ، وسيارات صناعية مختلفة . تويوتا هي الشركة الأولى للسيارات في اليابان من حيث حجم الإنتاج والمبيعات، وهي المصنع الثاني على مستوى العالم بعد مجموعة جنرال موتورز الأمريكية . كما تعتبر تويوتا العلامة التجارية للسيارات الأكثر انتشارا في العالم، بالإضافة إلى أن شهيرتها كورولا هي أكثر السيارات التي بيعت في العالم منذ إطلاقها وحتى الآن أكثر من 23 مليون سيارة كورولا بيعت حتى الآن تضم مجموعة تويوتا كلا من لكزس و دايهاتسو و شاحنات هينو . قام كييتشيرو تويوتا، بتأسيس الشركة عام 1933 م، كان الأخير قد عاد للتو من جولة في الولايات المتحدة، واختار مصنع الغزل الذي كان يملكه أبوه لإقامة ورشة لصناعة السيارات، استطاع أن يطلق أولى النماذج سنة 1935 م . أثناء الحرب العالمية الثانية، قامت الحكومة اليابانية بإجبار الشركة على تصنيع الشاحنات لصالح القوات العسكرية . بعد نهاية الحرب قامت الشركة بإعادة تنظيم نفسها، قامت بإنتاج السيارات منذ 1947 م . إلا أزمة حلت عام 1947 م، وكادت أن تعصف بالشركة، تراكمت الديون عليها ولم يعد باستطاعة مالكها الالتزام بتسديد رواتب العاملين فيها، استقال تويودا في النهاية من منصب رئيس الشركة . شهدت سنة 1980 م تحولا كبيرا في عالم صناعة السيارات، فقد تفوقت اليابان لأول مرة على الولايات المتحدة، لتصبح أكبر مصنع للسيارات في العالم . قامت شركة تويوتا والتي أصبحت ثاني أكبر مصنع بعد جنرال موتور الأمريكية، بالتحالف مع غريمتها عام 1984 م، لإنشاء وحدات إنتاج جديدة في مدينة لكسنتن في ولاية كنتكي . خلال السنوات العشر التي تلت، قامت تويوتا باستثمار أزيد من 6,5 بليون دولار في شمال أمريكا . جاءت النتائج سريعة، مع حلول سنة 2001 م، أصبحت الشركة تستحوذ على 10% من سوق السيارات في القارة .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركة تويوتا للمحركات هي شركة كبرى لصناعة السيارات يقع مقرها الرئيسي في مدينة تويوتا باليابان .  بالاضافة الى السيارات تقوم الشركة بتصنيع الشاحنات، الحافلات ، وسيارات صناعية مختلفة .  تويوتا هي الشركة الاولى للسيارات في اليابان من حيث حجم الانتاج والمبيعات، وهي المصنع الثاني على مستوى العالم بعد مجموعة جنرال موتورز الامريكية . قام كييتشيرو تويوتا، بتاسيس الشركة عام 1933 م، كان الاخير قد عاد للتو من جولة في الولايات المتحدة، واختار مصنع الغزل الذي كان يملكه ابوه لاقامة ورشة لصناعة السيارات، استطاع ان يطلق اولى النماذج سنة 1935 م .  الا ازمة حلت عام 1947 م، وكادت ان تعصف بالشركة، تراكمت الديون عليها ولم يعد باستطاعة مالكها الالتزام بتسديد رواتب العاملين فيها، استقال تويودا في النهاية من منصب رئيس الشركة .  قامت شركة تويوتا والتي اصبحت ثاني اكبر مصنع بعد جنرال موتور الامريكية، بالتحالف مع غريمتها عام 1984 م، لانشاء وحدات انتاج جديدة في مدينة لكسنتن في ولاية كنتكي .  </t>
+  </si>
+  <si>
+    <t>الانسان الآلي (أو الروبوت) (بالإنجليزية: Robot) عبارة عن أداة ميكانيكية قادرة على القيام بفعاليات مبرمجة سلفا ويقوم الانسان الآلي بإنجاز تلك الفاليات إما بإيعاز وسيطرة مباشرة من الإنسان او بإيعاز من برامج حاسوبية والفعاليات التي تبرمج الانسان على أداءها عادة تكون فعاليات شاقة او خطيرة مثل البحث عن الألغام والفضاء الخارجي وتنظيف الفضلات الناتجة في المفاعلات النووية . تم تقديم كلمة انسانة لأول مرة في مسرحية الكاتب المسرحي التشيكي كارل كابك عام 1920 . و كان عنوان المسرحية وقتها رجال آليون عالميون . وهي تعني في اللغة التشيكية تعني العمل الشاق رغم أن كارل هو أول من استعمل هذه الكلمة، لكن ليس من اخترعها، بل أخوه جوزيف الذي اشتقها مساعدة منه لأخيه من الكلمة التشيكية "Robota" والتي تعني السُخرة أو العمل الجبري . من هذا التاريخ بدأت هذه الكلمة تنتشر في الكتب و أفلام الخيال العلمي الأولى التي أعطت فكرة و تصور علمي عن هؤلاء الرجال الآليون الذين سيغزون العالم . و أعطت أفق كبير ووعود عظيمة للإنسان الأعجوبة الذي سيتدخل في أمور كثيرة و أهمها الصناعة . وضع الكثير من الدراسات و التوقعات عن هذا الإنسان الآلي التي فشلت فيما بعد . و لكن بعد الكثير من وضع التصاميم الجيدة و الانتباه الجاد إلى الكثير من التفصيلات و الأمور الدقيقة ، نجح المهندسون في تقديم أنظمة آلية متنوعة للكثير من الصناعات المتوقعة في المستقبل القريب . و اليوم و بسبب التطور الهائل للحواسيب و الذكاء الإصطناعي و التقنيات و الهوس في تطوير البرامج الفضائية فنحن على حافة إنجاز كبير آخر في مجال علوم تصميم الانسالات . إذ أن الانسان الآلي هو مناول قابل للبرمجة ثانية و يستطيع القيام بمهام عديدة و يخصص لتحريك مواد ، أجزاء ،و أدوات أو ماكينات معينة عبر حركات مختلفة البرمجة لأداء عدد من المهام . هناك جدل حول التعريف الدقيق للانسانة فلا يعتبر البعض سيارة او طائرة ذو تحكم بعيد انسان آلي لعدم إمتلاكها وسيلة التفكير وإتخاذ القرار بنفسها ويورد البعض مثالا بانه اذا كان بإستطاعة الانسان الآلي ان ينفذ برنامج معد سلفا بإبتعادها عن حاجز خطوتين إلى الوراء على سبيل المثال والإتجاه نحو اليمين او اليسار و الإستمرار بالتقدم فإن هذا يمكن إعتباره انسالة حقيقية . الفكرة في هذا الجدل ان الانسالة الحقيقية حسب إعتقاد البعض يجب ان تمتلك ذكاء اصطناعي ولها القدرة على تمييز الأنماط والتعرف على النظم و الإستدلال والإستنتاج ومع التطور يبدوا ان هناك ترتيبا طبقيا حتى في الانسالات فهناك الانسالة الثابتة العاملة وهناك المتحركة المرنة وهناك الطبقة الذكية الشبه مستقلة القادرة علىالتعلم . هناك انواع عديدة من الإنسان الآلي منها ما يستعمل في صناعي والتي هي عبارة عن اجهزة أتوماتيكية يمكن تطويعها و إعادة برمجتها ويستعمل لأغراض عديدة بإمكانها الحركة على ثلاثة محاور او أكثر ويستعمل هذا النوع في الشركات الصناعية الكبرى لغرض لحم المعادن و الصباغة والكوي وإلتقاط ونقل اجسام ومراقبة جودة او صلاحية جودة الناتج النهائي للمصنع قبل التصدير وهذه الانسالات مبرمجة عادة لتنفيذ مهامها بصورة سريعة و مكررة و دقيقة وتم لاحقا إضافة مايسمى النظر آلي Computer vision لهذه الانسالةات مما جعلتها تتمتع بنوع من الإستقلالية و المرونة في تنفيذ المهام المبرمجة بقدرتها على فهم وتحليل الصور التي تستقبلها في حاسوب خاص مثبت في الانسالة . هناك من الإنسان الآلي قادر على الحركة و الإنتقال ومنها طائرة بدون طيار ، البريداتور والطائرات ذات التحكم الذاتي التي تستعمل شبكات عصبونية اصطناعية مثلا و يعتبر الانسالةان اللتان ارسلتهما ناسا في عام 2004 إلى سطح المريخ من أشهر الانسالةات المتحركة . وهناك منه ما هو قادر على إعادة تجميع نفسه بصورة شبه مستقلة على سبيل المثال تصغير حجمه للمرور خلال نفق ضيق وهذه الانسالةات تحوي في نموذجها على عدة روابط مع وحدة المعالجة المركزية و ومستقبلات الإيعزات و الذاكرة وهذه الانسالةات قادرة على بعض الحركات الشبه مطاطية لإحتواءها على وحدة مرنة إما عن طريق تحويل طاقة الهواء المضغوط في إسطوانات إلى حركات خطية او دورانية يتم الحركة بتحويل الطاقة الكهربائية إلى طاقة حركية وهناك اساليب متطورة اخرى عديدة ومنها اسلوب أداة المرآة الدقيقة الرقمي Digital micromirror device التي ظهرت لأول مرة في عام 1987 وكانت فكرتها نصب عدة آلاف مرايا دقيقة وصغيرة جدا في الانسالة تتجاوب مع عنصر الصورة لإضافة مرونة أكثر في حركة وردة فعل الانسالة .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الانسان الآلي (او الروبوت) (بالانجليزية: Robot) عبارة عن اداة ميكانيكية قادرة على القيام بفعاليات مبرمجة سلفا ويقوم الانسان الآلي بانجاز تلك الفاليات اما بايعاز وسيطرة مباشرة من الانسان او بايعاز من برامج حاسوبية والفعاليات التي تبرمج الانسان على اداءها ع . وضع الكثير من الدراسات و التوقعات عن هذا الانسان الآلي التي فشلت فيما بعد .  و لكن بعد الكثير من وضع التصاميم الجيدة و الانتباه الجاد الى الكثير من التفصيلات و الامور الدقيقة ، نجح المهندسون في تقديم انظمة آلية متنوعة للكثير من الصناعات المتوقعة في المستقبل القريب .  و اليوم و بسبب التطور الهائل للحواسيب و الذكاء الاصطناعي و التقنيات و الهوس في تطوير البرامج الفضائية فنحن على حافة انجاز كبير آخر في مجال علوم تصميم الانسالات . هناك انواع عديدة من الانسان الآلي منها ما يستعمل في صناعي والتي هي عبارة عن اجهزة اتوماتيكية يمكن تطويعها و اعادة برمجتها ويستعمل لاغراض عديدة بامكانها الحركة على ثلاثة محاور او اكثر ويستعمل هذا النوع في الشركات الصناعية الكبرى لغرض لحم المعادن و الصباغة . هناك من الانسان الآلي قادر على الحركة و الانتقال ومنها طائرة بدون طيار ، البريداتور والطائرات ذات التحكم الذاتي التي تستعمل شبكات عصبونية اصطناعية مثلا و يعتبر الانسالةان اللتان ارسلتهما ناسا في عام 2004 الى سطح المريخ من اشهر الانسالةات المتحركة .  وهناك منه ما هو قادر على اعادة تجميع نفسه بصورة شبه مستقلة على سبيل المثال تصغير حجمه للمرور خلال نفق ضيق وهذه الانسالةات تحوي في نموذجها على عدة روابط مع وحدة المعالجة المركزية و ومستقبلات الايعزات و الذاكرة وهذه الانسالةات قادرة على بعض الحركات الشبه م .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مايكروسوفت (بالإنجليزية: Microsoft) شركة دوليّة تعمل في مجال تقنيات الحاسوب، يبلغ دخلها السنوي 44 بليون دولار، ويعمل بها 71,553 في 102 دولة . تطوّر وتصنِّع وترخِّص مدى واسعا من البرمجيات للأجهزة الحاسوبيّة . يقع المقر الرئيسي للشركة في ضاحية ريدمونت، سياتل، واشنطن، الولايات المتّحدة . عند تأسيس شركة مايكروسوفت، اتخذ كل من بيل غيتس و بول آلان من مدينة ألبوكويركو في ولاية نيو مكسيكو مقرا للشركة ومن ثمة انتقلت الشركة إلى موقعها الحالي . تجدر الإشارة أن بيل غيتس وبول آلان هما المؤسسين والملاك لهذه الشركة قبل أن تصبح من الشركات العامة والمتداولة في أسواق الأسهم . تأسست شركة مايكروسوفت في العام 1975 م كشركة لتسويق معالجات بيسك واشتهرت شركة مايكروسوفت بهذا المنتج نظراً لجودته وتسابقت باقي الشركات لتزويد السوق بمعالجات بيسك المتوافقة مع معالج بيسك من شركة مايكروسوفت . نتيجة تكالب الشركات في السباق آنف الذّكر، أصبح معالج بيسك والمُنتج من قِبل شركة ميكروسوفت بمثابة المقياس في معالجات بيسك وهيمنت شركة مايكروسوفت على سوق معالجات بيسك وقام كل من بيل غايتس وبول آلان بتسجيل الماركة التجارية "مايكروسوفت" في 26 نوفمبر 1976 . أوّل نظام تشغيل أصدرته ميكروسوفت كان نسخة من نظام يونكس في 1980 . اشترتها من شركة AT&amp;T عبر ترخيص توزيع، أسمته ميكروسوفت بالإسم Xenix ووظفت شركة Santa Cruz Operation لتطويعه ليعمل على أكثر من منصّة تشغيل . لم تبِع ميكروسوفت هذا النظام للمستخدم مباشرة، بل عبر بيعه لمصنِّعي الحواسيب . ومع منتصف الثمينينات خرجت ميكروسوفت من سوق يونكس تماما . في أواخر العام 1980 م احتاجت شركة أي بي أم نظام تشغيل لجهاز الكمبيوترالشخصي المزمع طرحه في الأسواق فقامت شركة مايكروسوفت بدور الوسيط بين شركة "سياتل كومبيوتر برودكتس" وشركة IBM لإستعمال نظام التشغيل QDOS من قبل الشركة الأولى على الأجهزة الشخصية IBM . قامت شركة مايكروسوفت في النهاية بشراء الحقوق التجارية لـ QDOS وأسمته MS-DOS . وقامت شركة IBM بطرح الكمبيوتر الشخصي في العام 1981 وكان نظام التشغيل الملحق بالجهاز يسمى PC-DOS وقامت شركة مايكروسوفت بحفظ حقوقها تجاه المنتج MS-DOS ومنح ترخيص تجاري لـ IBM لتسويق PC-DOS كنظام لتشغيل أجهزة IBM . سمحت الصفقة مع IBM لميكروسوفت بأن تتحكم في نسختها الخاصة من النظام، ومع انتشار الحواسيب المتوافقة مع IBM وسياسة تسويق واسعة، تحوّلت ميكروسوفت من لا عب صغير إلى أحد المنتجين الرئيسيين للبرمجيات في سوق الحواسيب المنزليّة . لم تكن البرامج المستخدمة على أجهزة الكمبيوتر الشخصي أفضل من الناحية الفنية عن نظيراتها المستخدمة على أجهزة الكمبيوتر العملاقة ولكن إمتازت الأولى عن الثانية بأنها أعطت درجة من الحرية في استخدام هذه البرامج بشكل أفضل ناهيك عن رخص تكلفة البرامج التي تعمل على أجهزة الكمبيوتر الشخصية بالمقارنة مع تكلفة نفس البرامج التي تعمل على أجهزة الكمبيوتر العملاقة . تجدر الأشارة أن أحد أهم أسباب سرعة هيمنة شركة مايكروسوفت على عالم البرمجيات هي الطفرة في إنتشار الحاسب الشخصي في حقبة الثمانينات من القرن الماضي . 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مايكروسوفت (بالانجليزية: Microsoft) شركة دوليّة تعمل في مجال تقنيات الحاسوب، يبلغ دخلها السنوي 44 بليون دولار، ويعمل بها 71,553 في 102 دولة .  تطوّر وتصنِّع وترخِّص مدى واسعا من البرمجيات للاجهزة الحاسوبيّة . يقع المقر الرئيسي للشركة في ضاحية ريدمونت، سياتل، واشنطن، الولايات المتّحدة .  عند تاسيس شركة مايكروسوفت، اتخذ كل من بيل غيتس و بول آلان من مدينة البوكويركو في ولاية نيو مكسيكو مقرا للشركة ومن ثمة انتقلت الشركة الى موقعها الحالي . تاسست شركة مايكروسوفت في العام 1975 م كشركة لتسويق معالجات بيسك واشتهرت شركة مايكروسوفت بهذا المنتج نظراً لجودته وتسابقت باقي الشركات لتزويد السوق بمعالجات بيسك المتوافقة مع معالج بيسك من شركة مايكروسوفت .  </t>
+  </si>
+  <si>
+    <t>شاشات اللمس أو ما يعرف بالـ Touch Screen وهي عبارة عن طبقة شفافة تغطي شاشة العرض في الجوالات أو الحاسبات اللوحية ، تقوم بالتحسس لحركات اليد وللكتابة عليها بواسطة قلم خاص . 
+يوجد نوعين رئيسيين من شاشات اللمس وهما:
+شاشات اللمس المقاومة: وتعتمد على تغير المقاومة الكهربائية للنقطة الملموسة من الشاشة مما يتسبب بمرور تيار كهربائي يعبر عن النقطة الملموسة . من أهم حسناتها امكانية الكتابة عليها بواسطة القلم أما سيئتها الرئيسية فهي أنها تمتص جوالي 25% من الضوء المنبعث من الشاشة الأصلية مما يسبب خفوت إضائتها كما أن مبدأ عملها لا يدعم ميزة اللمس المتعدد
+شاشات اللمس السعوية: وهو النوع الأحدث من شاشات اللمس، وتعتمد على فرق الكمون بين سطح الشاشة ورأس اصبع المستخدم لتوليد التيار الكهربائي المعبر عن مكان الإصبع على الشاشة، مستفيدةً من الشحنات الكهربائية التي يحملها جسم الإنسان . من أهم إيجابياتها دعمها للمس المتعدد وامتصاصها لـ 10% فقط من ضوء الشاشة الأصلية مما يزيد بشكل كبير في وضوحها . لكن وبسبب اعتمادها على الشحنات المحمولة في جسم الإنسان فإنها لا تقبل التعامل معها من خلال الأقلام
+تقوم شركة بلاك بيري بمحاولة دمج التقنيتين معاً في شاشة واحد ة</t>
+  </si>
+  <si>
+    <t>شاشات اللمس أو ما يعرف بالـ Touch Screen وهي عبارة عن طبقة شفافة تغطي شاشة العرض في الجوالات أو الحاسبات اللوحية ، تقوم بالتحسس لحركات اليد وللكتابة عليها بواسطة قلم خاص . 
+شاشات اللمس المقاومة: وتعتمد على تغير المقاومة الكهربائية للنقطة الملموسة من الشاشة مما يتسبب بمرور تيار كهربائي يعبر عن النقطة الملموسة . 
+شاشات اللمس السعوية: وهو النوع الأحدث من شاشات اللمس، وتعتمد على فرق الكمون بين سطح الشاشة ورأس اصبع المستخدم لتوليد التيار الكهربائي المعبر عن مكان الإصبع على الشاشة، مستفيدةً من الشحنات الكهربائية التي يحملها جسم الإنسان . 
+لكن وبسبب اعتمادها على الشحنات المحمولة في جسم الإنسان فإنها لا تقبل التعامل معها من خلال الأقلا م</t>
   </si>
 </sst>
 </file>
@@ -800,17 +780,15 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2"/>
       <c r="D2" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1818181872367859</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -824,51 +802,47 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -882,109 +856,101 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.20000001788139343</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4285714328289032</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4615384638309479</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3636363744735718</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7"/>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C8"/>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -998,22 +964,20 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C9"/>
       <c r="D9" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2857142686843872</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1027,43 +991,39 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C10"/>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.444444477558136</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2857142686843872</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C11"/>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
@@ -1085,51 +1045,47 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C12"/>
       <c r="D12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C13"/>
       <c r="D13" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5714285373687744</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -1143,22 +1099,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C14"/>
       <c r="D14" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -1172,22 +1126,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C15"/>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -1201,43 +1153,39 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C16"/>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C17"/>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
@@ -1259,43 +1207,39 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C18"/>
       <c r="D18" t="n">
-        <v>0.4285714328289032</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4285714328289032</v>
+        <v>0.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4285714328289032</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C19"/>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
@@ -1317,22 +1261,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C20"/>
       <c r="D20" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -1346,22 +1288,20 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C21"/>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -1375,22 +1315,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C22"/>
       <c r="D22" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -1404,22 +1342,20 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C23"/>
       <c r="D23" t="n">
-        <v>0.4285714328289032</v>
+        <v>0.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3999999761581421</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -1433,22 +1369,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C24"/>
       <c r="D24" t="n">
-        <v>0.4285714328289032</v>
+        <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -1462,43 +1396,39 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C25"/>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.23076923191547394</v>
+        <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.23076923191547394</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.23076923191547394</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C26"/>
       <c r="D26" t="n">
         <v>0.0</v>
       </c>
@@ -1520,14 +1450,12 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C27"/>
       <c r="D27" t="n">
         <v>0.0</v>
       </c>
@@ -1549,80 +1477,74 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C28"/>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C29"/>
       <c r="D29" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5454545617103577</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.222222238779068</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
-        <v>95</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C30"/>
       <c r="D30" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1818181872367859</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1904762089252472</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -1636,22 +1558,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C31"/>
       <c r="D31" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1538461595773697</v>
+        <v>0.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.17391304671764374</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -1665,51 +1585,47 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C32"/>
       <c r="D32" t="n">
-        <v>0.5714285969734192</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1538461595773697</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C33"/>
       <c r="D33" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2857142686843872</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n">
         <v>0.0</v>
@@ -1723,43 +1639,39 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C34"/>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4545454680919647</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4761904776096344</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.21052631735801697</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C35"/>
       <c r="D35" t="n">
         <v>0.0</v>
       </c>
@@ -1781,22 +1693,20 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C36"/>
       <c r="D36" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -1810,22 +1720,20 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C37"/>
       <c r="D37" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.0</v>
       </c>
       <c r="G37" t="n">
         <v>0.0</v>
@@ -1839,14 +1747,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C38"/>
       <c r="D38" t="n">
         <v>0.0</v>
       </c>
@@ -1868,51 +1774,47 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C39"/>
       <c r="D39" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5925926566123962</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.27272728085517883</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2142857164144516</v>
+        <v>0.0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.24000000953674316</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C40"/>
       <c r="D40" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.222222238779068</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="n">
         <v>0.0</v>
@@ -1926,22 +1828,20 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C41"/>
       <c r="D41" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.40000003576278687</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
         <v>0.0</v>
@@ -1955,22 +1855,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C42"/>
       <c r="D42" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1111111119389534</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n">
         <v>0.0</v>
@@ -1984,22 +1882,20 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" t="s">
-        <v>134</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C43"/>
       <c r="D43" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5454545617103577</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
         <v>0.0</v>
@@ -2013,72 +1909,66 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C44"/>
       <c r="D44" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>140</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C45"/>
       <c r="D45" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3636363744735718</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.222222238779068</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" t="s">
-        <v>143</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C46"/>
       <c r="D46" t="n">
         <v>0.0</v>
       </c>
@@ -2100,22 +1990,20 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C47"/>
       <c r="D47" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
         <v>0.0</v>
@@ -2129,22 +2017,20 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>149</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C48"/>
       <c r="D48" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
         <v>0.0</v>
@@ -2158,43 +2044,39 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C49"/>
       <c r="D49" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.31578946113586426</v>
+        <v>0.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.31578946113586426</v>
+        <v>0.0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.31578946113586426</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>155</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C50"/>
       <c r="D50" t="n">
         <v>0.0</v>
       </c>
@@ -2216,22 +2098,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" t="s">
-        <v>158</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C51"/>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5454545617103577</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n">
         <v>0.0</v>
@@ -2245,22 +2125,20 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" t="s">
-        <v>161</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C52"/>
       <c r="D52" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2857142686843872</v>
+        <v>0.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -2274,51 +2152,47 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" t="s">
-        <v>164</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C53"/>
       <c r="D53" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C54"/>
       <c r="D54" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3636363744735718</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n">
         <v>0.0</v>
@@ -2332,51 +2206,47 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" t="s">
-        <v>170</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C55"/>
       <c r="D55" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3529411852359772</v>
+        <v>0.0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3529411852359772</v>
+        <v>0.0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3529411852359772</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" t="s">
-        <v>173</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C56"/>
       <c r="D56" t="n">
-        <v>0.5454545617103577</v>
+        <v>0.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.52173912525177</v>
+        <v>0.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.0</v>
       </c>
       <c r="G56" t="n">
         <v>0.0</v>
@@ -2390,43 +2260,39 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C57"/>
       <c r="D57" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4375</v>
+        <v>0.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.46666666865348816</v>
+        <v>0.0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2666666805744171</v>
+        <v>0.0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>179</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C58"/>
       <c r="D58" t="n">
         <v>0.0</v>
       </c>
@@ -2448,22 +2314,20 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C59"/>
       <c r="D59" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.40000003576278687</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
         <v>0.0</v>
@@ -2477,14 +2341,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C60"/>
       <c r="D60" t="n">
         <v>0.0</v>
       </c>
@@ -2506,22 +2368,20 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
-      </c>
-      <c r="C61" t="s">
-        <v>188</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C61"/>
       <c r="D61" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E61" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.0</v>
       </c>
       <c r="G61" t="n">
         <v>0.0</v>
@@ -2535,14 +2395,12 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C62"/>
       <c r="D62" t="n">
         <v>0.0</v>
       </c>
@@ -2564,101 +2422,93 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" t="s">
-        <v>194</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C63"/>
       <c r="D63" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" t="s">
-        <v>197</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C64"/>
       <c r="D64" t="n">
-        <v>0.5263158082962036</v>
+        <v>0.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5263158082962036</v>
+        <v>0.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5263158082962036</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2777777910232544</v>
+        <v>0.0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2777777910232544</v>
+        <v>0.0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2777777910232544</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
-      </c>
-      <c r="C65" t="s">
-        <v>200</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C65"/>
       <c r="D65" t="n">
-        <v>0.5714285969734192</v>
+        <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4444444477558136</v>
+        <v>0.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1428571343421936</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" t="s">
-        <v>203</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C66"/>
       <c r="D66" t="n">
         <v>0.0</v>
       </c>
@@ -2680,22 +2530,20 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" t="s">
-        <v>206</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C67"/>
       <c r="D67" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2666666805744171</v>
+        <v>0.0</v>
       </c>
       <c r="G67" t="n">
         <v>0.0</v>
@@ -2709,14 +2557,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" t="s">
-        <v>209</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C68"/>
       <c r="D68" t="n">
         <v>0.0</v>
       </c>
@@ -2738,22 +2584,20 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" t="s">
-        <v>212</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C69"/>
       <c r="D69" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="G69" t="n">
         <v>0.0</v>
@@ -2767,138 +2611,128 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" t="s">
-        <v>215</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C70"/>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
-      </c>
-      <c r="C71" t="s">
-        <v>218</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C71"/>
       <c r="D71" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
-      </c>
-      <c r="C72" t="s">
-        <v>221</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C72"/>
       <c r="D72" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.20000001788139343</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" t="s">
-        <v>224</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C73"/>
       <c r="D73" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6666667461395264</v>
+        <v>0.0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C74" t="s">
-        <v>227</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C74"/>
       <c r="D74" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="G74" t="n">
         <v>0.0</v>
@@ -2912,22 +2746,20 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" t="s">
-        <v>230</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C75"/>
       <c r="D75" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1428571492433548</v>
+        <v>0.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.0</v>
       </c>
       <c r="G75" t="n">
         <v>0.0</v>
@@ -2941,22 +2773,20 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" t="s">
-        <v>233</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C76"/>
       <c r="D76" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="G76" t="n">
         <v>0.0</v>
